--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4C532C-719D-42C1-A57E-929DFBF84321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59A148-F32D-4316-A9B5-9AA6E3FD2072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
       </text>
     </comment>
-    <comment ref="A66" authorId="7" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
+    <comment ref="A68" authorId="7" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -162,7 +162,7 @@
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
       </text>
     </comment>
-    <comment ref="Q66" authorId="8" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
+    <comment ref="Q68" authorId="8" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -170,7 +170,7 @@
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
       </text>
     </comment>
-    <comment ref="O67" authorId="9" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
+    <comment ref="O69" authorId="9" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -178,7 +178,7 @@
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
       </text>
     </comment>
-    <comment ref="O76" authorId="10" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
+    <comment ref="O78" authorId="10" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -186,7 +186,7 @@
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
       </text>
     </comment>
-    <comment ref="A80" authorId="11" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
+    <comment ref="A82" authorId="11" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -194,7 +194,7 @@
     Note: used to be ontology iddo.</t>
       </text>
     </comment>
-    <comment ref="Z85" authorId="12" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+    <comment ref="Z89" authorId="12" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -206,7 +206,7 @@
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
       </text>
     </comment>
-    <comment ref="P94" authorId="13" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
+    <comment ref="P98" authorId="13" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -214,7 +214,7 @@
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
       </text>
     </comment>
-    <comment ref="O99" authorId="14" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
+    <comment ref="O103" authorId="14" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -1050,7 +1050,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="1105">
   <si>
     <t>Count of Name</t>
   </si>
@@ -4343,6 +4343,84 @@
   </si>
   <si>
     <t>https://github.com/duyguutkucu/HBPO; https://doi.org/10.1016/j.autcon.2025.106197</t>
+  </si>
+  <si>
+    <t>sml-term</t>
+  </si>
+  <si>
+    <t>sml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/sml/def# </t>
+  </si>
+  <si>
+    <t>https://w3id.org/sml/term#</t>
+  </si>
+  <si>
+    <t>Defines the terms from CEN-EN 17632</t>
+  </si>
+  <si>
+    <t>Defines: 1) RDFS classes and properties related to SKOS terms; 2) OWL class and property types for the definitions in the RDFS file; 3) SHACL shapes for the classes and properties in the RDFS file.</t>
+  </si>
+  <si>
+    <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C    https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C   https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative terminology (SKOS)</t>
+  </si>
+  <si>
+    <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative classes and properties (RDFS, OWL, and SHACL)</t>
+  </si>
+  <si>
+    <t>CEN EN 17632-1:2022, CEN EN 17632-2:2024</t>
+  </si>
+  <si>
+    <t>CEN EN 17632-1:2022, CEN EN 17632-2:2025</t>
+  </si>
+  <si>
+    <t>qudt, quantitykind, skos, time, unit, sh, geosparql</t>
+  </si>
+  <si>
+    <t>EN 17632-1:2022 / EN 17632-2:2024</t>
+  </si>
+  <si>
+    <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative terminology (SKOS)</t>
+  </si>
+  <si>
+    <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative classes and properties (RDFS, OWL, and SHACL)</t>
+  </si>
+  <si>
+    <t>nen2660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nen2660-term </t>
+  </si>
+  <si>
+    <t>https://w3id.org/nen2660/term#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nen2660/def#</t>
+  </si>
+  <si>
+    <t>https://www.nen.nl/nen-2660-2-2022-nl-291667</t>
+  </si>
+  <si>
+    <t>NEN 2660-2:2022 nl</t>
+  </si>
+  <si>
+    <t>qudt, quantitykind, unit, skos, time</t>
+  </si>
+  <si>
+    <t>The NEN 2660 ontologies provide a standardized framework for information modeling in the built environment, aligning with the NEN 2660-2:2022 standard. Defines the core classes and properties for modeling entities, activities, and their relationships within the built environment, utilizing RDFS, OWL, and SHACL.</t>
+  </si>
+  <si>
+    <t>The NEN 2660 ontologies provide a standardized framework for information modeling in the built environment, aligning with the NEN 2660-2:2022 standard. SKOS-based vocabulary defines standardized terms and concepts used in the NEN 2660.</t>
+  </si>
+  <si>
+    <t>NEN 2660-2:2022</t>
   </si>
 </sst>
 </file>
@@ -5067,14 +5145,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -13322,10 +13400,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AF118" totalsRowShown="0">
-  <autoFilter ref="A1:AF118" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF118">
-    <sortCondition ref="A1:A118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AF122" totalsRowShown="0">
+  <autoFilter ref="A1:AF122" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF122">
+    <sortCondition ref="A1:A122"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Name"/>
@@ -13763,10 +13841,10 @@
   <threadedComment ref="A43" dT="2025-01-27T08:48:21.00" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{07B0B213-D129-405D-889E-D4386AC14C09}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</text>
   </threadedComment>
-  <threadedComment ref="A66" dT="2025-01-26T16:36:49.04" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
+  <threadedComment ref="A68" dT="2025-01-26T16:36:49.04" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
     <text>This ontology seems to have 6 sub-modules. Should we add them to our database?</text>
   </threadedComment>
-  <threadedComment ref="Q66" dT="2025-01-26T16:34:12.81" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
+  <threadedComment ref="Q68" dT="2025-01-26T16:34:12.81" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
     <text>Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -13776,7 +13854,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="O67" dT="2025-01-28T22:11:27.07" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
+  <threadedComment ref="O69" dT="2025-01-28T22:11:27.07" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
     <text xml:space="preserve">See also http://semantic.eurobau.com/eurobau-utility.owl </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -13785,7 +13863,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="O76" dT="2025-01-28T21:38:48.03" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
+  <threadedComment ref="O78" dT="2025-01-28T21:38:48.03" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
     <text xml:space="preserve">See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -13794,22 +13872,22 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="A80" dT="2025-01-26T16:57:22.56" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
+  <threadedComment ref="A82" dT="2025-01-26T16:57:22.56" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
     <text>Note: used to be ontology iddo.</text>
   </threadedComment>
-  <threadedComment ref="Z85" dT="2025-01-23T11:59:16.76" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+  <threadedComment ref="Z89" dT="2025-01-23T11:59:16.76" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
     <text>Occupant Property Taxonomy (2024). DOI: 10.3233/SW-223254</text>
   </threadedComment>
-  <threadedComment ref="Z85" dT="2025-01-24T14:29:34.39" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{B6B06869-5DFE-4585-B2D2-8A4FE6A12535}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+  <threadedComment ref="Z89" dT="2025-01-24T14:29:34.39" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{B6B06869-5DFE-4585-B2D2-8A4FE6A12535}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
     <text xml:space="preserve">If we miss an ontology in our database, just add it :) </text>
   </threadedComment>
-  <threadedComment ref="Z85" dT="2025-01-24T19:08:40.52" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{55AC32E9-6DF5-4BFA-9A88-BFE65D93E759}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+  <threadedComment ref="Z89" dT="2025-01-24T19:08:40.52" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{55AC32E9-6DF5-4BFA-9A88-BFE65D93E759}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
     <text>We don't :) The ontology is extended by developers with this taxonomy in 2024</text>
   </threadedComment>
-  <threadedComment ref="P94" dT="2025-01-27T09:06:43.47" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
+  <threadedComment ref="P98" dT="2025-01-27T09:06:43.47" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
     <text>@Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</text>
   </threadedComment>
-  <threadedComment ref="O99" dT="2025-01-27T10:48:53.23" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
+  <threadedComment ref="O103" dT="2025-01-27T10:48:53.23" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
     <text>See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</text>
   </threadedComment>
 </ThreadedComments>
@@ -14207,31 +14285,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192" t="s">
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="194" t="s">
         <v>959</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192" t="s">
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194" t="s">
         <v>963</v>
       </c>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192" t="s">
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194" t="s">
         <v>1001</v>
       </c>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192" t="s">
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194" t="s">
         <v>977</v>
       </c>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
@@ -24254,10 +24332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AG118"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29752,126 +29830,129 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>705</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="C65">
-        <v>1.03</v>
-      </c>
-      <c r="D65">
-        <v>2013</v>
+        <v>1088</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>84</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1090</v>
       </c>
       <c r="M65" t="s">
-        <v>707</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>708</v>
+        <v>1084</v>
+      </c>
+      <c r="N65" s="191" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O65" s="191" t="s">
+        <v>1086</v>
       </c>
       <c r="P65" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q65" s="196" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z65" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB65" s="195">
+        <f>COUNTIF(R65:T65, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AC65" s="195">
+        <f>COUNTIF(U65:W65, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AD65" s="195">
+        <f>COUNTIF(X65:Z65, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AE65" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF65" s="195" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C66" t="s">
         <v>84</v>
       </c>
-      <c r="Q65" t="s">
-        <v>699</v>
-      </c>
-      <c r="R65" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="S65" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="T65" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="U65" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V65" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W65" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="X65" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y65" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z65" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB65">
-        <f>COUNTIF(R65:T65, "yes")</f>
-        <v>1</v>
-      </c>
-      <c r="AC65">
-        <f>COUNTIF(U65:W65, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AD65">
-        <f>COUNTIF(X65:Z65, "yes")</f>
-        <v>1</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A66" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="B66" t="s">
-        <v>347</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>2021</v>
-      </c>
-      <c r="E66" t="s">
-        <v>251</v>
+      <c r="D66" t="s">
+        <v>84</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>348</v>
+        <v>84</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1089</v>
       </c>
       <c r="M66" t="s">
-        <v>349</v>
-      </c>
-      <c r="N66" t="s">
-        <v>84</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>350</v>
+        <v>1083</v>
+      </c>
+      <c r="N66" s="191" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O66" s="191" t="s">
+        <v>1085</v>
       </c>
       <c r="P66" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q66" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="R66" s="185" t="s">
-        <v>80</v>
+        <v>366</v>
+      </c>
+      <c r="Q66" s="196" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R66" s="184" t="s">
+        <v>67</v>
       </c>
       <c r="S66" s="184" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="T66" s="184" t="s">
         <v>67</v>
@@ -29886,72 +29967,63 @@
         <v>67</v>
       </c>
       <c r="X66" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y66" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z66" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB66">
+        <v>67</v>
+      </c>
+      <c r="AB66" s="195">
         <f>COUNTIF(R66:T66, "yes")</f>
-        <v>1</v>
-      </c>
-      <c r="AC66">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="195">
         <f>COUNTIF(U66:W66, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD66">
+      <c r="AD66" s="195">
         <f>COUNTIF(X66:Z66, "yes")</f>
-        <v>0</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="AE66" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF66" s="195" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>368</v>
+        <v>705</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>369</v>
+        <v>706</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="D67">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" t="s">
-        <v>370</v>
-      </c>
-      <c r="L67" t="s">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="M67" t="s">
-        <v>372</v>
-      </c>
-      <c r="N67" t="s">
-        <v>84</v>
+        <v>707</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>373</v>
+        <v>708</v>
       </c>
       <c r="P67" t="s">
         <v>84</v>
       </c>
       <c r="Q67" t="s">
-        <v>374</v>
+        <v>699</v>
       </c>
       <c r="R67" s="184" t="s">
         <v>67</v>
@@ -29972,7 +30044,7 @@
         <v>68</v>
       </c>
       <c r="X67" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y67" s="184" t="s">
         <v>67</v>
@@ -29981,7 +30053,7 @@
         <v>68</v>
       </c>
       <c r="AA67" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AB67">
         <f>COUNTIF(R67:T67, "yes")</f>
@@ -29993,7 +30065,7 @@
       </c>
       <c r="AD67">
         <f>COUNTIF(X67:Z67, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE67" t="s">
         <v>80</v>
@@ -30003,65 +30075,62 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>732</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="A68" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2021</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>348</v>
+      </c>
+      <c r="M68" t="s">
+        <v>349</v>
+      </c>
+      <c r="N68" t="s">
         <v>84</v>
       </c>
-      <c r="D68">
-        <v>2022</v>
-      </c>
-      <c r="E68" t="s">
-        <v>534</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" t="s">
-        <v>61</v>
-      </c>
-      <c r="M68" t="s">
-        <v>734</v>
-      </c>
-      <c r="N68" s="2" t="s">
+      <c r="O68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="P68" t="s">
         <v>84</v>
       </c>
-      <c r="O68" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="P68" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>736</v>
-      </c>
-      <c r="R68" s="184" t="s">
-        <v>67</v>
+      <c r="Q68" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="R68" s="185" t="s">
+        <v>80</v>
       </c>
       <c r="S68" s="184" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T68" s="184" t="s">
         <v>67</v>
       </c>
       <c r="U68" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V68" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W68" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X68" s="184" t="s">
         <v>68</v>
-      </c>
-      <c r="V68" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W68" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="X68" s="184" t="s">
-        <v>67</v>
       </c>
       <c r="Y68" s="184" t="s">
         <v>68</v>
@@ -30074,15 +30143,15 @@
       </c>
       <c r="AB68">
         <f>COUNTIF(R68:T68, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <f>COUNTIF(U68:W68, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD68">
         <f>COUNTIF(X68:Z68, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="s">
         <v>80</v>
@@ -30093,40 +30162,40 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>397</v>
-      </c>
-      <c r="B69" t="s">
-        <v>398</v>
-      </c>
-      <c r="C69" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2020</v>
-      </c>
-      <c r="E69" t="s">
-        <v>229</v>
+        <v>2006</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>61</v>
+        <v>370</v>
+      </c>
+      <c r="L69" t="s">
+        <v>371</v>
       </c>
       <c r="M69" t="s">
-        <v>400</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>401</v>
+        <v>372</v>
+      </c>
+      <c r="N69" t="s">
+        <v>84</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="P69" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="Q69" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="R69" s="184" t="s">
         <v>67</v>
@@ -30144,7 +30213,7 @@
         <v>67</v>
       </c>
       <c r="W69" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X69" s="184" t="s">
         <v>67</v>
@@ -30153,10 +30222,10 @@
         <v>67</v>
       </c>
       <c r="Z69" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA69" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB69">
         <f>COUNTIF(R69:T69, "yes")</f>
@@ -30164,11 +30233,11 @@
       </c>
       <c r="AC69">
         <f>COUNTIF(U69:W69, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD69">
         <f>COUNTIF(X69:Z69, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE69" t="s">
         <v>80</v>
@@ -30179,82 +30248,85 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>391</v>
-      </c>
-      <c r="B70" t="s">
-        <v>392</v>
+        <v>732</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>733</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D70">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E70" t="s">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
       </c>
       <c r="K70" t="s">
         <v>61</v>
       </c>
       <c r="M70" t="s">
-        <v>393</v>
+        <v>734</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>395</v>
+        <v>735</v>
       </c>
       <c r="P70" t="s">
-        <v>151</v>
+        <v>1034</v>
       </c>
       <c r="Q70" t="s">
-        <v>396</v>
+        <v>736</v>
       </c>
       <c r="R70" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S70" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T70" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U70" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T70" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U70" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="V70" s="184" t="s">
         <v>67</v>
       </c>
       <c r="W70" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X70" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y70" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z70" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA70" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AB70">
         <f>COUNTIF(R70:T70, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC70">
         <f>COUNTIF(U70:W70, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD70">
         <f>COUNTIF(X70:Z70, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="s">
         <v>80</v>
@@ -30265,40 +30337,40 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B71" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D71">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E71" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>387</v>
+        <v>61</v>
       </c>
       <c r="M71" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="P71" t="s">
-        <v>84</v>
+        <v>402</v>
       </c>
       <c r="Q71" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="R71" s="184" t="s">
         <v>67</v>
@@ -30325,10 +30397,10 @@
         <v>67</v>
       </c>
       <c r="Z71" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA71" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB71">
         <f>COUNTIF(R71:T71, "yes")</f>
@@ -30340,7 +30412,7 @@
       </c>
       <c r="AD71">
         <f>COUNTIF(X71:Z71, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE71" t="s">
         <v>80</v>
@@ -30350,47 +30422,47 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A72" s="23" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B72" s="194" t="s">
-        <v>1054</v>
+      <c r="A72" t="s">
+        <v>391</v>
+      </c>
+      <c r="B72" t="s">
+        <v>392</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D72">
-        <v>2021</v>
+        <v>2023</v>
+      </c>
+      <c r="E72" t="s">
+        <v>386</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K72" t="s">
         <v>61</v>
       </c>
       <c r="M72" t="s">
-        <v>1077</v>
-      </c>
-      <c r="N72" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O72" s="193" t="s">
-        <v>1056</v>
+        <v>393</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="P72" t="s">
         <v>151</v>
       </c>
-      <c r="Q72" s="194" t="s">
-        <v>1057</v>
+      <c r="Q72" t="s">
+        <v>396</v>
       </c>
       <c r="R72" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S72" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T72" s="184" t="s">
         <v>67</v>
@@ -30411,19 +30483,22 @@
         <v>67</v>
       </c>
       <c r="Z72" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB72" s="195">
+        <v>68</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB72">
         <f>COUNTIF(R72:T72, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AC72" s="195">
+        <v>2</v>
+      </c>
+      <c r="AC72">
         <f>COUNTIF(U72:W72, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD72" s="195">
+      <c r="AD72">
         <f>COUNTIF(X72:Z72, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE72" t="s">
         <v>80</v>
@@ -30434,41 +30509,43 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>737</v>
-      </c>
-      <c r="B73" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="B73" t="s">
+        <v>384</v>
+      </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="D73">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E73" t="s">
-        <v>562</v>
+        <v>386</v>
       </c>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K73" t="s">
-        <v>738</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s">
-        <v>739</v>
-      </c>
-      <c r="N73" t="s">
-        <v>84</v>
+        <v>388</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>740</v>
+        <v>390</v>
       </c>
       <c r="P73" t="s">
         <v>84</v>
       </c>
       <c r="Q73" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="R73" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S73" s="184" t="s">
         <v>68</v>
@@ -30483,31 +30560,31 @@
         <v>67</v>
       </c>
       <c r="W73" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X73" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y73" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z73" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA73" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AB73">
         <f>COUNTIF(R73:T73, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <f>COUNTIF(U73:W73, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD73">
         <f>COUNTIF(X73:Z73, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE73" t="s">
         <v>80</v>
@@ -30518,37 +30595,40 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B74" s="194" t="s">
-        <v>1073</v>
+        <v>1053</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1054</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D74">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
       <c r="K74" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M74" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N74" s="196" t="s">
-        <v>84</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
+      </c>
+      <c r="N74" s="191" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O74" s="191" t="s">
+        <v>1056</v>
       </c>
       <c r="P74" t="s">
-        <v>1075</v>
-      </c>
-      <c r="Q74" s="194" t="s">
-        <v>1076</v>
+        <v>151</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1057</v>
       </c>
       <c r="R74" s="184" t="s">
         <v>67</v>
@@ -30557,37 +30637,37 @@
         <v>67</v>
       </c>
       <c r="T74" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U74" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V74" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W74" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X74" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y74" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z74" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB74" s="195">
+        <v>67</v>
+      </c>
+      <c r="AB74">
         <f>COUNTIF(R74:T74, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AC74" s="195">
+        <v>3</v>
+      </c>
+      <c r="AC74">
         <f>COUNTIF(U74:W74, "yes")</f>
-        <v>1</v>
-      </c>
-      <c r="AD74" s="195">
+        <v>3</v>
+      </c>
+      <c r="AD74">
         <f>COUNTIF(X74:Z74, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE74" t="s">
         <v>80</v>
@@ -30598,52 +30678,41 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>419</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1034</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" t="s">
         <v>84</v>
       </c>
       <c r="D75">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E75" t="s">
-        <v>421</v>
+        <v>562</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" t="s">
-        <v>190</v>
-      </c>
-      <c r="J75" t="s">
-        <v>422</v>
-      </c>
       <c r="K75" t="s">
-        <v>370</v>
+        <v>738</v>
       </c>
       <c r="M75" t="s">
-        <v>423</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>424</v>
+        <v>739</v>
+      </c>
+      <c r="N75" t="s">
+        <v>84</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>425</v>
+        <v>740</v>
       </c>
       <c r="P75" t="s">
         <v>84</v>
       </c>
       <c r="Q75" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="R75" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S75" s="184" t="s">
         <v>68</v>
@@ -30658,31 +30727,31 @@
         <v>67</v>
       </c>
       <c r="W75" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X75" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y75" s="184" t="s">
         <v>68</v>
       </c>
       <c r="Z75" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA75" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB75">
         <f>COUNTIF(R75:T75, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
         <f>COUNTIF(U75:W75, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD75">
         <f>COUNTIF(X75:Z75, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="s">
         <v>80</v>
@@ -30692,44 +30761,44 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>523</v>
+      <c r="A76" s="23" t="s">
+        <v>1072</v>
       </c>
       <c r="B76" t="s">
-        <v>524</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
+        <v>1073</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
       </c>
       <c r="D76">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K76" t="s">
         <v>84</v>
       </c>
       <c r="M76" t="s">
-        <v>525</v>
-      </c>
-      <c r="N76" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N76" s="192" t="s">
         <v>84</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>526</v>
+        <v>1078</v>
       </c>
       <c r="P76" t="s">
-        <v>84</v>
+        <v>1075</v>
       </c>
       <c r="Q76" t="s">
-        <v>66</v>
+        <v>1076</v>
       </c>
       <c r="R76" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S76" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T76" s="184" t="s">
         <v>68</v>
@@ -30737,8 +30806,8 @@
       <c r="U76" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="V76" s="185" t="s">
-        <v>67</v>
+      <c r="V76" s="184" t="s">
+        <v>68</v>
       </c>
       <c r="W76" s="184" t="s">
         <v>68</v>
@@ -30747,25 +30816,22 @@
         <v>67</v>
       </c>
       <c r="Y76" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z76" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AA76" t="s">
-        <v>89</v>
-      </c>
       <c r="AB76">
         <f>COUNTIF(R76:T76, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC76">
         <f>COUNTIF(U76:W76, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD76">
         <f>COUNTIF(X76:Z76, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE76" t="s">
         <v>80</v>
@@ -30776,49 +30842,58 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B77" t="s">
-        <v>414</v>
-      </c>
-      <c r="C77">
-        <v>0.2</v>
+        <v>1034</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
       </c>
       <c r="D77">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" t="s">
+        <v>422</v>
       </c>
       <c r="K77" t="s">
-        <v>61</v>
-      </c>
-      <c r="L77" t="s">
-        <v>415</v>
+        <v>370</v>
+      </c>
+      <c r="M77" t="s">
+        <v>423</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P77" t="s">
-        <v>1036</v>
+        <v>84</v>
       </c>
       <c r="Q77" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="R77" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U77" s="184" t="s">
         <v>67</v>
@@ -30833,17 +30908,17 @@
         <v>67</v>
       </c>
       <c r="Y77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z77" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA77" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB77">
         <f>COUNTIF(R77:T77, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <f>COUNTIF(U77:W77, "yes")</f>
@@ -30862,37 +30937,37 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="C78">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>2024</v>
-      </c>
-      <c r="E78" t="s">
-        <v>85</v>
+        <v>2005</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>74</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>429</v>
+        <v>84</v>
+      </c>
+      <c r="M78" t="s">
+        <v>525</v>
+      </c>
+      <c r="N78" t="s">
+        <v>84</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="P78" t="s">
         <v>84</v>
       </c>
       <c r="Q78" t="s">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="R78" s="184" t="s">
         <v>67</v>
@@ -30906,11 +30981,11 @@
       <c r="U78" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="V78" s="184" t="s">
+      <c r="V78" s="185" t="s">
         <v>67</v>
       </c>
       <c r="W78" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X78" s="184" t="s">
         <v>67</v>
@@ -30922,7 +30997,7 @@
         <v>68</v>
       </c>
       <c r="AA78" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="AB78">
         <f>COUNTIF(R78:T78, "yes")</f>
@@ -30930,7 +31005,7 @@
       </c>
       <c r="AC78">
         <f>COUNTIF(U78:W78, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD78">
         <f>COUNTIF(X78:Z78, "yes")</f>
@@ -30945,37 +31020,40 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>414</v>
+      </c>
+      <c r="C79">
+        <v>0.2</v>
       </c>
       <c r="D79">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>348</v>
-      </c>
-      <c r="M79" t="s">
-        <v>438</v>
+        <v>61</v>
+      </c>
+      <c r="L79" t="s">
+        <v>415</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="P79" t="s">
-        <v>441</v>
+        <v>1036</v>
       </c>
       <c r="Q79" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="R79" s="184" t="s">
         <v>67</v>
@@ -30984,7 +31062,7 @@
         <v>67</v>
       </c>
       <c r="T79" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U79" s="184" t="s">
         <v>67</v>
@@ -31005,11 +31083,11 @@
         <v>68</v>
       </c>
       <c r="AA79" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AB79">
         <f>COUNTIF(R79:T79, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC79">
         <f>COUNTIF(U79:W79, "yes")</f>
@@ -31028,31 +31106,43 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B80" t="s">
-        <v>451</v>
+        <v>428</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="D80">
+        <v>2024</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>74</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>452</v>
+        <v>429</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="P80" t="s">
-        <v>453</v>
+        <v>84</v>
       </c>
       <c r="Q80" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="R80" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S80" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T80" s="184" t="s">
         <v>68</v>
@@ -31073,14 +31163,14 @@
         <v>67</v>
       </c>
       <c r="Z80" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA80" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB80">
         <f>COUNTIF(R80:T80, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <f>COUNTIF(U80:W80, "yes")</f>
@@ -31088,7 +31178,7 @@
       </c>
       <c r="AD80">
         <f>COUNTIF(X80:Z80, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE80" t="s">
         <v>80</v>
@@ -31099,85 +31189,79 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="B81" t="s">
-        <v>462</v>
-      </c>
-      <c r="C81">
-        <v>1.1000000000000001</v>
+        <v>331</v>
       </c>
       <c r="D81">
-        <v>2020</v>
-      </c>
-      <c r="E81" t="s">
-        <v>463</v>
+        <v>2024</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="M81" t="s">
-        <v>464</v>
-      </c>
-      <c r="N81" t="s">
-        <v>84</v>
+        <v>438</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="P81" t="s">
-        <v>84</v>
+        <v>441</v>
       </c>
       <c r="Q81" t="s">
-        <v>118</v>
+        <v>442</v>
       </c>
       <c r="R81" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S81" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T81" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U81" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V81" s="184" t="s">
         <v>67</v>
       </c>
       <c r="W81" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X81" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y81" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z81" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA81" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AB81">
         <f>COUNTIF(R81:T81, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC81">
         <f>COUNTIF(U81:W81, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD81">
         <f>COUNTIF(X81:Z81, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE81" t="s">
         <v>80</v>
@@ -31188,40 +31272,25 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
-      </c>
-      <c r="C82">
-        <v>0.2</v>
-      </c>
-      <c r="D82">
-        <v>2023</v>
+        <v>451</v>
       </c>
       <c r="E82" t="s">
         <v>106</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" t="s">
-        <v>61</v>
-      </c>
-      <c r="L82" t="s">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="P82" t="s">
-        <v>84</v>
+        <v>453</v>
       </c>
       <c r="Q82" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="R82" s="184" t="s">
         <v>67</v>
@@ -31230,7 +31299,7 @@
         <v>67</v>
       </c>
       <c r="T82" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U82" s="184" t="s">
         <v>67</v>
@@ -31255,7 +31324,7 @@
       </c>
       <c r="AB82">
         <f>COUNTIF(R82:T82, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC82">
         <f>COUNTIF(U82:W82, "yes")</f>
@@ -31274,61 +31343,64 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B83" t="s">
-        <v>488</v>
-      </c>
-      <c r="C83" t="s">
-        <v>84</v>
+        <v>462</v>
+      </c>
+      <c r="C83">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D83">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>463</v>
       </c>
       <c r="K83" t="s">
-        <v>478</v>
+        <v>115</v>
       </c>
       <c r="M83" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="N83" t="s">
         <v>84</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>490</v>
+        <v>117</v>
       </c>
       <c r="P83" t="s">
-        <v>491</v>
+        <v>84</v>
       </c>
       <c r="Q83" t="s">
-        <v>492</v>
+        <v>118</v>
       </c>
       <c r="R83" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S83" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T83" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U83" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V83" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W83" s="184" t="s">
         <v>68</v>
       </c>
       <c r="X83" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y83" s="184" t="s">
         <v>68</v>
@@ -31341,7 +31413,7 @@
       </c>
       <c r="AB83">
         <f>COUNTIF(R83:T83, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC83">
         <f>COUNTIF(U83:W83, "yes")</f>
@@ -31349,7 +31421,7 @@
       </c>
       <c r="AD83">
         <f>COUNTIF(X83:Z83, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE83" t="s">
         <v>80</v>
@@ -31360,49 +31432,49 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B84" t="s">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="C84">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D84">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>478</v>
-      </c>
-      <c r="M84" t="s">
-        <v>479</v>
+        <v>61</v>
+      </c>
+      <c r="L84" t="s">
+        <v>466</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P84" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="Q84" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="R84" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S84" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T84" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U84" s="184" t="s">
         <v>67</v>
@@ -31417,17 +31489,17 @@
         <v>67</v>
       </c>
       <c r="Y84" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z84" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA84" t="s">
         <v>112</v>
       </c>
       <c r="AB84">
         <f>COUNTIF(R84:T84, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC84">
         <f>COUNTIF(U84:W84, "yes")</f>
@@ -31435,7 +31507,7 @@
       </c>
       <c r="AD84">
         <f>COUNTIF(X84:Z84, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE84" t="s">
         <v>80</v>
@@ -31446,70 +31518,70 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s">
-        <v>499</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+        <v>488</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
       </c>
       <c r="D85">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E85" t="s">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K85" t="s">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="M85" t="s">
-        <v>501</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
+      </c>
+      <c r="N85" t="s">
+        <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="P85" t="s">
-        <v>84</v>
+        <v>491</v>
       </c>
       <c r="Q85" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="R85" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S85" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T85" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T85" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="U85" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X85" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA85" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AB85">
         <f>COUNTIF(R85:T85, "yes")</f>
@@ -31517,11 +31589,11 @@
       </c>
       <c r="AC85">
         <f>COUNTIF(U85:W85, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD85">
         <f>COUNTIF(X85:Z85, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE85" t="s">
         <v>80</v>
@@ -31532,46 +31604,43 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s">
-        <v>512</v>
-      </c>
-      <c r="C86" t="s">
-        <v>513</v>
+        <v>477</v>
+      </c>
+      <c r="C86">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D86">
         <v>2019</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K86" t="s">
-        <v>84</v>
-      </c>
-      <c r="L86" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="M86" t="s">
-        <v>515</v>
-      </c>
-      <c r="N86" t="s">
-        <v>84</v>
+        <v>479</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="P86" t="s">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="Q86" t="s">
-        <v>84</v>
+        <v>481</v>
       </c>
       <c r="R86" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S86" s="184" t="s">
         <v>68</v>
@@ -31586,27 +31655,27 @@
         <v>67</v>
       </c>
       <c r="W86" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X86" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y86" s="184" t="s">
         <v>68</v>
-      </c>
-      <c r="X86" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y86" s="184" t="s">
-        <v>67</v>
       </c>
       <c r="Z86" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA86" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AB86">
         <f>COUNTIF(R86:T86, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <f>COUNTIF(U86:W86, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD86">
         <f>COUNTIF(X86:Z86, "yes")</f>
@@ -31621,34 +31690,40 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>493</v>
+        <v>1094</v>
       </c>
       <c r="B87" t="s">
-        <v>494</v>
-      </c>
-      <c r="C87">
-        <v>0.3</v>
+        <v>1095</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
       </c>
       <c r="D87">
         <v>2022</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K87" t="s">
         <v>84</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>496</v>
+      <c r="L87" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N87" s="191" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O87" s="191" t="s">
+        <v>1099</v>
       </c>
       <c r="P87" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>497</v>
+        <v>84</v>
+      </c>
+      <c r="Q87" s="196" t="s">
+        <v>1101</v>
       </c>
       <c r="R87" s="184" t="s">
         <v>67</v>
@@ -31675,69 +31750,69 @@
         <v>67</v>
       </c>
       <c r="Z87" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB87">
+        <v>67</v>
+      </c>
+      <c r="AB87" s="195">
         <f>COUNTIF(R87:T87, "yes")</f>
         <v>2</v>
       </c>
-      <c r="AC87">
+      <c r="AC87" s="195">
         <f>COUNTIF(U87:W87, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD87">
+      <c r="AD87" s="195">
         <f>COUNTIF(X87:Z87, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF87" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="AE87" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF87" s="195" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A88" s="23" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B88" s="194" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
+      <c r="A88" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
       </c>
       <c r="D88">
         <v>2022</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1100</v>
       </c>
       <c r="M88" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N88" s="193" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O88" s="193" t="s">
-        <v>1069</v>
+        <v>1103</v>
+      </c>
+      <c r="N88" s="191" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O88" s="191" t="s">
+        <v>1099</v>
       </c>
       <c r="P88" t="s">
-        <v>1070</v>
-      </c>
-      <c r="Q88" s="194" t="s">
-        <v>1071</v>
+        <v>84</v>
+      </c>
+      <c r="Q88" s="196" t="s">
+        <v>1101</v>
       </c>
       <c r="R88" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S88" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T88" s="184" t="s">
         <v>67</v>
@@ -31762,7 +31837,7 @@
       </c>
       <c r="AB88" s="195">
         <f>COUNTIF(R88:T88, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC88" s="195">
         <f>COUNTIF(U88:W88, "yes")</f>
@@ -31772,55 +31847,55 @@
         <f>COUNTIF(X88:Z88, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AE88" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF88" t="s">
-        <v>81</v>
+      <c r="AE88" s="195" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF88" s="195" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="C89">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>500</v>
       </c>
       <c r="F89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K89" t="s">
         <v>61</v>
       </c>
       <c r="M89" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P89" t="s">
-        <v>509</v>
+        <v>84</v>
       </c>
       <c r="Q89" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="R89" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S89" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T89" s="184" t="s">
         <v>67</v>
@@ -31844,11 +31919,11 @@
         <v>67</v>
       </c>
       <c r="AA89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB89">
         <f>COUNTIF(R89:T89, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC89">
         <f>COUNTIF(U89:W89, "yes")</f>
@@ -31867,46 +31942,49 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="C90" t="s">
+        <v>513</v>
+      </c>
+      <c r="D90">
+        <v>2019</v>
+      </c>
+      <c r="E90" t="s">
+        <v>146</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" t="s">
         <v>84</v>
       </c>
-      <c r="D90">
-        <v>2018</v>
-      </c>
-      <c r="E90" t="s">
-        <v>534</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" t="s">
-        <v>153</v>
+      <c r="L90" t="s">
+        <v>514</v>
       </c>
       <c r="M90" t="s">
-        <v>535</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>536</v>
+        <v>515</v>
+      </c>
+      <c r="N90" t="s">
+        <v>84</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="P90" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="Q90" t="s">
-        <v>537</v>
+        <v>84</v>
       </c>
       <c r="R90" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S90" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T90" s="184" t="s">
         <v>68</v>
@@ -31918,31 +31996,31 @@
         <v>67</v>
       </c>
       <c r="W90" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X90" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y90" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Z90" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA90" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AB90">
         <f>COUNTIF(R90:T90, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC90">
         <f>COUNTIF(U90:W90, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD90">
         <f>COUNTIF(X90:Z90, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE90" t="s">
         <v>80</v>
@@ -31953,34 +32031,34 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>493</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
-      </c>
-      <c r="C91" t="s">
-        <v>309</v>
+        <v>494</v>
+      </c>
+      <c r="C91">
+        <v>0.3</v>
       </c>
       <c r="D91">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K91" t="s">
-        <v>220</v>
-      </c>
-      <c r="M91" t="s">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>311</v>
+        <v>495</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>311</v>
+        <v>496</v>
+      </c>
+      <c r="P91" t="s">
+        <v>151</v>
       </c>
       <c r="Q91" t="s">
-        <v>312</v>
+        <v>497</v>
       </c>
       <c r="R91" s="184" t="s">
         <v>67</v>
@@ -31989,7 +32067,7 @@
         <v>68</v>
       </c>
       <c r="T91" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U91" s="184" t="s">
         <v>67</v>
@@ -32014,7 +32092,7 @@
       </c>
       <c r="AB91">
         <f>COUNTIF(R91:T91, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC91">
         <f>COUNTIF(U91:W91, "yes")</f>
@@ -32032,107 +32110,163 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>1037</v>
+      <c r="A92" s="23" t="s">
+        <v>1065</v>
       </c>
       <c r="B92" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q92" s="44"/>
+        <v>1066</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>2022</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N92" s="191" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O92" s="191" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y92" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z92" s="184" t="s">
+        <v>67</v>
+      </c>
       <c r="AB92">
         <f>COUNTIF(R92:T92, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC92">
         <f>COUNTIF(U92:W92, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD92">
         <f>COUNTIF(X92:Z92, "yes")</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>662</v>
+        <v>505</v>
       </c>
       <c r="B93" t="s">
-        <v>663</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
+        <v>402</v>
+      </c>
+      <c r="C93">
+        <v>0.3</v>
       </c>
       <c r="D93">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K93" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M93" t="s">
-        <v>664</v>
-      </c>
-      <c r="N93" t="s">
-        <v>84</v>
+        <v>506</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>665</v>
+        <v>508</v>
       </c>
       <c r="P93" t="s">
-        <v>84</v>
+        <v>509</v>
       </c>
       <c r="Q93" t="s">
-        <v>84</v>
+        <v>510</v>
       </c>
       <c r="R93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z93" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA93" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB93">
         <f>COUNTIF(R93:T93, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC93">
         <f>COUNTIF(U93:W93, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD93">
         <f>COUNTIF(X93:Z93, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE93" t="s">
         <v>80</v>
@@ -32143,16 +32277,16 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="B94" t="s">
-        <v>554</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
+        <v>453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
       </c>
       <c r="D94">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E94" t="s">
         <v>534</v>
@@ -32161,22 +32295,22 @@
         <v>10</v>
       </c>
       <c r="K94" t="s">
-        <v>555</v>
+        <v>153</v>
       </c>
       <c r="M94" t="s">
-        <v>556</v>
-      </c>
-      <c r="N94" t="s">
-        <v>84</v>
+        <v>535</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="P94" t="s">
-        <v>558</v>
+        <v>165</v>
       </c>
       <c r="Q94" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="R94" s="184" t="s">
         <v>67</v>
@@ -32185,7 +32319,7 @@
         <v>67</v>
       </c>
       <c r="T94" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U94" s="184" t="s">
         <v>67</v>
@@ -32194,31 +32328,31 @@
         <v>67</v>
       </c>
       <c r="W94" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X94" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y94" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z94" s="184" t="s">
         <v>67</v>
       </c>
       <c r="AA94" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AB94">
         <f>COUNTIF(R94:T94, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC94">
         <f>COUNTIF(U94:W94, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD94">
         <f>COUNTIF(X94:Z94, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE94" t="s">
         <v>80</v>
@@ -32229,43 +32363,37 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>560</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>561</v>
-      </c>
-      <c r="C95">
-        <v>1.1000000000000001</v>
+        <v>307</v>
+      </c>
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>309</v>
       </c>
       <c r="D95">
-        <v>2020</v>
-      </c>
-      <c r="E95" t="s">
-        <v>562</v>
+        <v>2019</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K95" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="M95" t="s">
-        <v>563</v>
-      </c>
-      <c r="N95" t="s">
-        <v>84</v>
+        <v>310</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P95" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q95" s="44" t="s">
-        <v>84</v>
+        <v>311</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>312</v>
       </c>
       <c r="R95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S95" s="184" t="s">
         <v>68</v>
@@ -32280,31 +32408,31 @@
         <v>67</v>
       </c>
       <c r="W95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z95" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA95" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AB95">
         <f>COUNTIF(R95:T95, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <f>COUNTIF(U95:W95, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD95">
         <f>COUNTIF(X95:Z95, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE95" t="s">
         <v>80</v>
@@ -32315,96 +32443,34 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>687</v>
+        <v>1037</v>
       </c>
       <c r="B96" t="s">
-        <v>688</v>
-      </c>
-      <c r="C96" t="s">
-        <v>84</v>
-      </c>
-      <c r="D96">
-        <v>2019</v>
-      </c>
-      <c r="E96" t="s">
-        <v>689</v>
-      </c>
-      <c r="F96" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" t="s">
-        <v>690</v>
-      </c>
-      <c r="K96" t="s">
-        <v>84</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="P96" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>84</v>
-      </c>
-      <c r="R96" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="S96" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="T96" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U96" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V96" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W96" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="X96" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y96" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z96" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>102</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q96" s="44"/>
       <c r="AB96">
         <f>COUNTIF(R96:T96, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC96">
         <f>COUNTIF(U96:W96, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD96">
         <f>COUNTIF(X96:Z96, "yes")</f>
-        <v>1</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B97" t="s">
-        <v>366</v>
+        <v>663</v>
       </c>
       <c r="C97" t="s">
         <v>84</v>
@@ -32413,67 +32479,70 @@
         <v>2017</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K97" t="s">
         <v>84</v>
       </c>
-      <c r="N97" s="2" t="s">
-        <v>680</v>
+      <c r="M97" t="s">
+        <v>664</v>
+      </c>
+      <c r="N97" t="s">
+        <v>84</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="P97" t="s">
         <v>84</v>
       </c>
       <c r="Q97" t="s">
-        <v>681</v>
+        <v>84</v>
       </c>
       <c r="R97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S97" s="184" t="s">
         <v>68</v>
       </c>
       <c r="T97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z97" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA97" t="s">
         <v>102</v>
       </c>
       <c r="AB97">
         <f>COUNTIF(R97:T97, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC97">
         <f>COUNTIF(U97:W97, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD97">
         <f>COUNTIF(X97:Z97, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE97" t="s">
         <v>80</v>
@@ -32484,82 +32553,82 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>682</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s">
-        <v>641</v>
-      </c>
-      <c r="C98" t="s">
+        <v>554</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>2019</v>
+      </c>
+      <c r="E98" t="s">
+        <v>534</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="K98" t="s">
+        <v>555</v>
+      </c>
+      <c r="M98" t="s">
+        <v>556</v>
+      </c>
+      <c r="N98" t="s">
         <v>84</v>
       </c>
-      <c r="D98">
-        <v>2017</v>
-      </c>
-      <c r="E98" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98" t="s">
-        <v>84</v>
-      </c>
-      <c r="M98" t="s">
-        <v>683</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>684</v>
-      </c>
       <c r="O98" s="2" t="s">
-        <v>685</v>
+        <v>557</v>
       </c>
       <c r="P98" t="s">
-        <v>366</v>
+        <v>558</v>
       </c>
       <c r="Q98" t="s">
-        <v>686</v>
+        <v>559</v>
       </c>
       <c r="R98" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S98" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T98" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U98" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V98" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W98" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W98" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="X98" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y98" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z98" s="184" t="s">
         <v>67</v>
       </c>
       <c r="AA98" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AB98">
         <f>COUNTIF(R98:T98, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC98">
         <f>COUNTIF(U98:W98, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD98">
         <f>COUNTIF(X98:Z98, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE98" t="s">
         <v>80</v>
@@ -32570,51 +32639,51 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>656</v>
-      </c>
-      <c r="B99" t="s">
-        <v>657</v>
-      </c>
-      <c r="C99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" t="s">
-        <v>84</v>
+        <v>560</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D99">
+        <v>2020</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>562</v>
       </c>
       <c r="F99" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K99" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M99" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="N99" t="s">
         <v>84</v>
       </c>
-      <c r="O99" s="189" t="s">
-        <v>659</v>
+      <c r="O99" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="P99" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>661</v>
+        <v>84</v>
+      </c>
+      <c r="Q99" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="R99" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S99" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T99" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U99" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V99" s="184" t="s">
@@ -32623,20 +32692,25 @@
       <c r="W99" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="X99" s="190"/>
+      <c r="X99" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y99" s="184" t="s">
+        <v>68</v>
+      </c>
       <c r="Z99" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA99" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AB99">
         <f>COUNTIF(R99:T99, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC99">
         <f>COUNTIF(U99:W99, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD99">
         <f>COUNTIF(X99:Z99, "yes")</f>
@@ -32651,54 +32725,48 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>578</v>
+        <v>687</v>
       </c>
       <c r="B100" t="s">
-        <v>579</v>
+        <v>688</v>
       </c>
       <c r="C100" t="s">
-        <v>580</v>
+        <v>84</v>
       </c>
       <c r="D100">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E100" t="s">
-        <v>146</v>
+        <v>689</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>5</v>
+        <v>690</v>
       </c>
       <c r="K100" t="s">
-        <v>170</v>
-      </c>
-      <c r="L100" t="s">
-        <v>581</v>
-      </c>
-      <c r="M100" t="s">
-        <v>582</v>
-      </c>
-      <c r="N100" s="6" t="s">
-        <v>583</v>
+        <v>84</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>583</v>
+        <v>692</v>
       </c>
       <c r="P100" t="s">
-        <v>584</v>
+        <v>693</v>
       </c>
       <c r="Q100" t="s">
-        <v>585</v>
+        <v>84</v>
       </c>
       <c r="R100" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S100" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T100" s="187" t="s">
+      <c r="T100" s="184" t="s">
         <v>67</v>
       </c>
       <c r="U100" s="184" t="s">
@@ -32714,17 +32782,17 @@
         <v>67</v>
       </c>
       <c r="Y100" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z100" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA100" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AB100">
         <f>COUNTIF(R100:T100, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC100">
         <f>COUNTIF(U100:W100, "yes")</f>
@@ -32732,27 +32800,27 @@
       </c>
       <c r="AD100">
         <f>COUNTIF(X100:Z100, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE100" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF100" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="B101" t="s">
-        <v>584</v>
+        <v>366</v>
       </c>
       <c r="C101" t="s">
-        <v>644</v>
+        <v>84</v>
       </c>
       <c r="D101">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E101" t="s">
         <v>146</v>
@@ -32761,31 +32829,28 @@
         <v>15</v>
       </c>
       <c r="K101" t="s">
-        <v>170</v>
-      </c>
-      <c r="M101" t="s">
-        <v>645</v>
-      </c>
-      <c r="N101" s="6" t="s">
-        <v>646</v>
+        <v>84</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="P101" t="s">
-        <v>618</v>
+        <v>84</v>
       </c>
       <c r="Q101" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="R101" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T101" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U101" s="184" t="s">
         <v>67</v>
@@ -32806,7 +32871,7 @@
         <v>67</v>
       </c>
       <c r="AA101" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AB101">
         <f>COUNTIF(R101:T101, "yes")</f>
@@ -32821,24 +32886,24 @@
         <v>3</v>
       </c>
       <c r="AE101" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF101" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>587</v>
+        <v>682</v>
       </c>
       <c r="B102" t="s">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="C102" t="s">
-        <v>589</v>
+        <v>84</v>
       </c>
       <c r="D102">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E102" t="s">
         <v>146</v>
@@ -32846,36 +32911,33 @@
       <c r="F102" t="s">
         <v>15</v>
       </c>
-      <c r="G102" t="s">
-        <v>363</v>
-      </c>
       <c r="K102" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M102" t="s">
-        <v>590</v>
-      </c>
-      <c r="N102" s="6" t="s">
-        <v>591</v>
+        <v>683</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>591</v>
+        <v>685</v>
       </c>
       <c r="P102" t="s">
-        <v>584</v>
+        <v>366</v>
       </c>
       <c r="Q102" t="s">
-        <v>592</v>
+        <v>686</v>
       </c>
       <c r="R102" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S102" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="T102" s="185" t="s">
         <v>68</v>
       </c>
+      <c r="T102" s="184" t="s">
+        <v>67</v>
+      </c>
       <c r="U102" s="184" t="s">
         <v>67</v>
       </c>
@@ -32895,7 +32957,7 @@
         <v>67</v>
       </c>
       <c r="AA102" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AB102">
         <f>COUNTIF(R102:T102, "yes")</f>
@@ -32910,51 +32972,51 @@
         <v>3</v>
       </c>
       <c r="AE102" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF102" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="C103" t="s">
-        <v>595</v>
-      </c>
-      <c r="D103">
-        <v>2024</v>
+        <v>84</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K103" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M103" t="s">
-        <v>596</v>
-      </c>
-      <c r="N103" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>597</v>
+        <v>658</v>
+      </c>
+      <c r="N103" t="s">
+        <v>84</v>
+      </c>
+      <c r="O103" s="189" t="s">
+        <v>659</v>
       </c>
       <c r="P103" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="Q103" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
       <c r="R103" s="184" t="s">
         <v>67</v>
@@ -32962,61 +33024,53 @@
       <c r="S103" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T103" s="185" t="s">
+      <c r="T103" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V103" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W103" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="U103" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V103" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W103" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="X103" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y103" s="184" t="s">
-        <v>67</v>
-      </c>
+      <c r="X103" s="190"/>
       <c r="Z103" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA103" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AB103">
         <f>COUNTIF(R103:T103, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC103">
         <f>COUNTIF(U103:W103, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD103">
         <f>COUNTIF(X103:Z103, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE103" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF103" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="B104" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="C104" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D104">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
@@ -33025,25 +33079,28 @@
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>601</v>
+        <v>5</v>
       </c>
       <c r="K104" t="s">
         <v>170</v>
       </c>
+      <c r="L104" t="s">
+        <v>581</v>
+      </c>
       <c r="M104" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="P104" t="s">
         <v>584</v>
       </c>
       <c r="Q104" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="R104" s="184" t="s">
         <v>67</v>
@@ -33051,8 +33108,8 @@
       <c r="S104" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T104" s="185" t="s">
-        <v>68</v>
+      <c r="T104" s="187" t="s">
+        <v>67</v>
       </c>
       <c r="U104" s="184" t="s">
         <v>67</v>
@@ -33070,14 +33127,14 @@
         <v>67</v>
       </c>
       <c r="Z104" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA104" t="s">
         <v>69</v>
       </c>
       <c r="AB104">
         <f>COUNTIF(R104:T104, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC104">
         <f>COUNTIF(U104:W104, "yes")</f>
@@ -33085,7 +33142,7 @@
       </c>
       <c r="AD104">
         <f>COUNTIF(X104:Z104, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE104" t="s">
         <v>70</v>
@@ -33096,13 +33153,13 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="B105" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="C105" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="D105">
         <v>2023</v>
@@ -33113,26 +33170,23 @@
       <c r="F105" t="s">
         <v>15</v>
       </c>
-      <c r="G105" t="s">
-        <v>9</v>
-      </c>
       <c r="K105" t="s">
         <v>170</v>
       </c>
       <c r="M105" t="s">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="P105" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="Q105" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="R105" s="184" t="s">
         <v>67</v>
@@ -33140,7 +33194,7 @@
       <c r="S105" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T105" s="185" t="s">
+      <c r="T105" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U105" s="184" t="s">
@@ -33159,7 +33213,7 @@
         <v>67</v>
       </c>
       <c r="Z105" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA105" t="s">
         <v>69</v>
@@ -33174,7 +33228,7 @@
       </c>
       <c r="AD105">
         <f>COUNTIF(X105:Z105, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE105" t="s">
         <v>70</v>
@@ -33185,16 +33239,16 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B106" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C106" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D106">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E106" t="s">
         <v>146</v>
@@ -33203,25 +33257,25 @@
         <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="K106" t="s">
         <v>170</v>
       </c>
       <c r="M106" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="P106" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="Q106" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="R106" s="184" t="s">
         <v>67</v>
@@ -33229,8 +33283,8 @@
       <c r="S106" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T106" s="184" t="s">
-        <v>67</v>
+      <c r="T106" s="185" t="s">
+        <v>68</v>
       </c>
       <c r="U106" s="184" t="s">
         <v>67</v>
@@ -33248,14 +33302,14 @@
         <v>67</v>
       </c>
       <c r="Z106" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA106" t="s">
         <v>69</v>
       </c>
       <c r="AB106">
         <f>COUNTIF(R106:T106, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC106">
         <f>COUNTIF(U106:W106, "yes")</f>
@@ -33263,7 +33317,7 @@
       </c>
       <c r="AD106">
         <f>COUNTIF(X106:Z106, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE106" t="s">
         <v>70</v>
@@ -33274,16 +33328,16 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="B107" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C107" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D107">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E107" t="s">
         <v>146</v>
@@ -33291,23 +33345,26 @@
       <c r="F107" t="s">
         <v>15</v>
       </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
       <c r="K107" t="s">
         <v>170</v>
       </c>
       <c r="M107" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="P107" t="s">
-        <v>84</v>
+        <v>584</v>
       </c>
       <c r="Q107" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="R107" s="184" t="s">
         <v>67</v>
@@ -33334,7 +33391,7 @@
         <v>67</v>
       </c>
       <c r="Z107" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA107" t="s">
         <v>69</v>
@@ -33349,7 +33406,7 @@
       </c>
       <c r="AD107">
         <f>COUNTIF(X107:Z107, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE107" t="s">
         <v>70</v>
@@ -33360,16 +33417,16 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="B108" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="C108" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="D108">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E108" t="s">
         <v>146</v>
@@ -33378,25 +33435,25 @@
         <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="K108" t="s">
         <v>170</v>
       </c>
       <c r="M108" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="P108" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="Q108" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="R108" s="184" t="s">
         <v>67</v>
@@ -33449,43 +33506,43 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>648</v>
+        <v>605</v>
       </c>
       <c r="B109" t="s">
-        <v>649</v>
-      </c>
-      <c r="C109">
-        <v>0.6</v>
+        <v>606</v>
+      </c>
+      <c r="C109" t="s">
+        <v>607</v>
       </c>
       <c r="D109">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E109" t="s">
-        <v>650</v>
+        <v>146</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K109" t="s">
-        <v>651</v>
+        <v>170</v>
       </c>
       <c r="M109" t="s">
-        <v>652</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>653</v>
+        <v>608</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>609</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="P109" t="s">
-        <v>654</v>
+        <v>584</v>
       </c>
       <c r="Q109" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="R109" s="184" t="s">
         <v>67</v>
@@ -33493,7 +33550,7 @@
       <c r="S109" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T109" s="184" t="s">
+      <c r="T109" s="185" t="s">
         <v>68</v>
       </c>
       <c r="U109" s="184" t="s">
@@ -33515,7 +33572,7 @@
         <v>68</v>
       </c>
       <c r="AA109" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AB109">
         <f>COUNTIF(R109:T109, "yes")</f>
@@ -33530,48 +33587,51 @@
         <v>2</v>
       </c>
       <c r="AE109" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF109" t="s">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>671</v>
+        <v>611</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110">
-        <v>1.1000000000000001</v>
+        <v>612</v>
+      </c>
+      <c r="C110" t="s">
+        <v>607</v>
       </c>
       <c r="D110">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E110" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
         <v>5</v>
       </c>
       <c r="K110" t="s">
-        <v>220</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>672</v>
+        <v>170</v>
+      </c>
+      <c r="M110" t="s">
+        <v>613</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>614</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="P110" t="s">
-        <v>84</v>
+        <v>615</v>
       </c>
       <c r="Q110" t="s">
-        <v>674</v>
+        <v>616</v>
       </c>
       <c r="R110" s="184" t="s">
         <v>67</v>
@@ -33598,10 +33658,10 @@
         <v>67</v>
       </c>
       <c r="Z110" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA110" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="AB110">
         <f>COUNTIF(R110:T110, "yes")</f>
@@ -33613,134 +33673,140 @@
       </c>
       <c r="AD110">
         <f>COUNTIF(X110:Z110, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE110" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF110" t="s">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>675</v>
+        <v>617</v>
       </c>
       <c r="B111" t="s">
-        <v>676</v>
+        <v>618</v>
       </c>
       <c r="C111" t="s">
+        <v>589</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>170</v>
+      </c>
+      <c r="M111" t="s">
+        <v>619</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="P111" t="s">
         <v>84</v>
       </c>
-      <c r="D111">
-        <v>2024</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
-      <c r="K111" t="s">
-        <v>84</v>
-      </c>
-      <c r="N111" t="s">
-        <v>84</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="P111" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q111" s="181" t="s">
-        <v>84</v>
+      <c r="Q111" t="s">
+        <v>621</v>
       </c>
       <c r="R111" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S111" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T111" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="S111" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="T111" s="184" t="s">
-        <v>68</v>
-      </c>
       <c r="U111" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V111" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W111" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X111" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y111" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z111" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA111" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AB111">
         <f>COUNTIF(R111:T111, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC111">
         <f>COUNTIF(U111:W111, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD111">
         <f>COUNTIF(X111:Z111, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE111" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF111" t="s">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="B112" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>624</v>
       </c>
       <c r="D112">
-        <v>2016</v>
+        <v>2020</v>
+      </c>
+      <c r="E112" t="s">
+        <v>146</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
       </c>
+      <c r="G112" t="s">
+        <v>625</v>
+      </c>
       <c r="K112" t="s">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="M112" t="s">
-        <v>639</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>640</v>
+        <v>626</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="P112" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="Q112" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="R112" s="184" t="s">
         <v>67</v>
@@ -33748,8 +33814,8 @@
       <c r="S112" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T112" s="184" t="s">
-        <v>67</v>
+      <c r="T112" s="185" t="s">
+        <v>68</v>
       </c>
       <c r="U112" s="184" t="s">
         <v>67</v>
@@ -33764,17 +33830,17 @@
         <v>67</v>
       </c>
       <c r="Y112" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z112" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA112" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AB112">
         <f>COUNTIF(R112:T112, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC112">
         <f>COUNTIF(U112:W112, "yes")</f>
@@ -33782,48 +33848,54 @@
       </c>
       <c r="AD112">
         <f>COUNTIF(X112:Z112, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE112" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF112" t="s">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A113" s="23" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B113" s="194" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C113" t="s">
-        <v>84</v>
+      <c r="A113" t="s">
+        <v>648</v>
+      </c>
+      <c r="B113" t="s">
+        <v>649</v>
+      </c>
+      <c r="C113">
+        <v>0.6</v>
       </c>
       <c r="D113">
-        <v>2024</v>
+        <v>2020</v>
+      </c>
+      <c r="E113" t="s">
+        <v>650</v>
       </c>
       <c r="F113" t="s">
         <v>22</v>
       </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
       <c r="K113" t="s">
-        <v>212</v>
+        <v>651</v>
       </c>
       <c r="M113" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N113" s="193" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O113" s="193" t="s">
-        <v>1062</v>
+        <v>652</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="P113" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Q113" s="194" t="s">
-        <v>1064</v>
+        <v>654</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>655</v>
       </c>
       <c r="R113" s="184" t="s">
         <v>67</v>
@@ -33832,7 +33904,7 @@
         <v>67</v>
       </c>
       <c r="T113" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U113" s="184" t="s">
         <v>67</v>
@@ -33852,15 +33924,18 @@
       <c r="Z113" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AB113" s="195">
+      <c r="AA113" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB113">
         <f>COUNTIF(R113:T113, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AC113" s="195">
+        <v>2</v>
+      </c>
+      <c r="AC113">
         <f>COUNTIF(U113:W113, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD113" s="195">
+      <c r="AD113">
         <f>COUNTIF(X113:Z113, "yes")</f>
         <v>2</v>
       </c>
@@ -33873,55 +33948,61 @@
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>709</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>710</v>
+        <v>671</v>
+      </c>
+      <c r="B114" t="s">
+        <v>165</v>
       </c>
       <c r="C114">
-        <v>1.1399999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D114">
-        <v>2013</v>
+        <v>2017</v>
+      </c>
+      <c r="E114" t="s">
+        <v>251</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
       </c>
-      <c r="M114" t="s">
-        <v>711</v>
+      <c r="G114" t="s">
+        <v>5</v>
+      </c>
+      <c r="K114" t="s">
+        <v>220</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>712</v>
+        <v>673</v>
       </c>
       <c r="P114" t="s">
         <v>84</v>
       </c>
       <c r="Q114" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="R114" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S114" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T114" s="184" t="s">
         <v>67</v>
       </c>
       <c r="U114" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V114" s="184" t="s">
         <v>67</v>
       </c>
       <c r="W114" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X114" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y114" s="184" t="s">
         <v>67</v>
@@ -33934,15 +34015,15 @@
       </c>
       <c r="AB114">
         <f>COUNTIF(R114:T114, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC114">
         <f>COUNTIF(U114:W114, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD114">
         <f>COUNTIF(X114:Z114, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE114" t="s">
         <v>80</v>
@@ -33953,49 +34034,52 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="B115" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="C115" t="s">
         <v>84</v>
       </c>
       <c r="D115">
-        <v>2009</v>
+        <v>2024</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
       </c>
       <c r="K115" t="s">
         <v>84</v>
       </c>
-      <c r="M115" t="s">
-        <v>719</v>
-      </c>
       <c r="N115" t="s">
         <v>84</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>720</v>
+        <v>677</v>
       </c>
       <c r="P115" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q115" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q115" s="181" t="s">
         <v>84</v>
       </c>
       <c r="R115" s="184" t="s">
         <v>68</v>
       </c>
       <c r="S115" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T115" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U115" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V115" s="184" t="s">
         <v>68</v>
@@ -34017,11 +34101,11 @@
       </c>
       <c r="AB115">
         <f>COUNTIF(R115:T115, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC115">
         <f>COUNTIF(U115:W115, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD115">
         <f>COUNTIF(X115:Z115, "yes")</f>
@@ -34036,55 +34120,55 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>721</v>
+        <v>637</v>
       </c>
       <c r="B116" t="s">
-        <v>722</v>
+        <v>638</v>
       </c>
       <c r="C116" t="s">
         <v>84</v>
       </c>
       <c r="D116">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K116" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="M116" t="s">
-        <v>723</v>
-      </c>
-      <c r="N116" t="s">
-        <v>84</v>
+        <v>639</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>640</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="P116" t="s">
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="Q116" t="s">
-        <v>84</v>
+        <v>642</v>
       </c>
       <c r="R116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U116" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X116" s="184" t="s">
         <v>67</v>
@@ -34092,17 +34176,19 @@
       <c r="Y116" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="Z116" s="190"/>
+      <c r="Z116" s="184" t="s">
+        <v>68</v>
+      </c>
       <c r="AA116" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB116">
         <f>COUNTIF(R116:T116, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC116">
         <f>COUNTIF(U116:W116, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD116">
         <f>COUNTIF(X116:Z116, "yes")</f>
@@ -34116,44 +34202,47 @@
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>694</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="C117">
-        <v>1.01</v>
+      <c r="A117" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
       </c>
       <c r="D117">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="F117" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="K117" t="s">
+        <v>212</v>
       </c>
       <c r="M117" t="s">
-        <v>696</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>698</v>
+        <v>1060</v>
+      </c>
+      <c r="N117" s="191" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O117" s="191" t="s">
+        <v>1062</v>
       </c>
       <c r="P117" t="s">
-        <v>84</v>
+        <v>1063</v>
       </c>
       <c r="Q117" t="s">
-        <v>699</v>
+        <v>1064</v>
       </c>
       <c r="R117" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S117" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T117" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U117" s="184" t="s">
         <v>67</v>
@@ -34162,10 +34251,10 @@
         <v>67</v>
       </c>
       <c r="W117" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X117" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y117" s="184" t="s">
         <v>67</v>
@@ -34173,20 +34262,17 @@
       <c r="Z117" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AA117" t="s">
-        <v>119</v>
-      </c>
       <c r="AB117">
         <f>COUNTIF(R117:T117, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC117">
         <f>COUNTIF(U117:W117, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD117">
         <f>COUNTIF(X117:Z117, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE117" t="s">
         <v>80</v>
@@ -34197,28 +34283,28 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C118">
-        <v>1.03</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D118">
         <v>2013</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M118" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>697</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="P118" t="s">
         <v>84</v>
@@ -34248,10 +34334,10 @@
         <v>68</v>
       </c>
       <c r="Y118" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z118" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA118" t="s">
         <v>112</v>
@@ -34266,7 +34352,7 @@
       </c>
       <c r="AD118">
         <f>COUNTIF(X118:Z118, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE118" t="s">
         <v>80</v>
@@ -34275,41 +34361,366 @@
         <v>81</v>
       </c>
     </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>717</v>
+      </c>
+      <c r="B119" t="s">
+        <v>718</v>
+      </c>
+      <c r="C119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119">
+        <v>2009</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" t="s">
+        <v>84</v>
+      </c>
+      <c r="M119" t="s">
+        <v>719</v>
+      </c>
+      <c r="N119" t="s">
+        <v>84</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="P119" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>84</v>
+      </c>
+      <c r="R119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="S119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U119" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="W119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="X119" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z119" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB119">
+        <f>COUNTIF(R119:T119, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <f>COUNTIF(U119:W119, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD119">
+        <f>COUNTIF(X119:Z119, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>721</v>
+      </c>
+      <c r="B120" t="s">
+        <v>722</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120">
+        <v>2009</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M120" t="s">
+        <v>723</v>
+      </c>
+      <c r="N120" t="s">
+        <v>84</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="P120" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>84</v>
+      </c>
+      <c r="R120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="S120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U120" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="W120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="X120" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y120" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z120" s="190"/>
+      <c r="AA120" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB120">
+        <f>COUNTIF(R120:T120, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <f>COUNTIF(U120:W120, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD120">
+        <f>COUNTIF(X120:Z120, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>694</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="C121">
+        <v>1.01</v>
+      </c>
+      <c r="D121">
+        <v>2013</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="M121" t="s">
+        <v>696</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="P121" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>699</v>
+      </c>
+      <c r="R121" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S121" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T121" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U121" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V121" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W121" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="X121" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y121" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z121" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB121">
+        <f>COUNTIF(R121:T121, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AC121">
+        <f>COUNTIF(U121:W121, "yes")</f>
+        <v>2</v>
+      </c>
+      <c r="AD121">
+        <f>COUNTIF(X121:Z121, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>713</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="C122">
+        <v>1.03</v>
+      </c>
+      <c r="D122">
+        <v>2013</v>
+      </c>
+      <c r="F122" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122" t="s">
+        <v>715</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="P122" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>699</v>
+      </c>
+      <c r="R122" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S122" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T122" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U122" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="V122" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W122" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="X122" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y122" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z122" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB122">
+        <f>COUNTIF(R122:T122, "yes")</f>
+        <v>2</v>
+      </c>
+      <c r="AC122">
+        <f>COUNTIF(U122:W122, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD122">
+        <f>COUNTIF(X122:Z122, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF122" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O11" r:id="rId1" xr:uid="{78F85862-50CA-4DFE-BA27-24B020CDCA3F}"/>
     <hyperlink ref="O7" r:id="rId2" xr:uid="{7E7CEAD7-4929-4BE4-AAEB-FBA14DFBDD50}"/>
     <hyperlink ref="O10" r:id="rId3" location="s0035" xr:uid="{BC05914A-5E5E-4300-AC02-8638A6F1A5B3}"/>
     <hyperlink ref="O43" r:id="rId4" xr:uid="{10C4F826-C939-4498-A8A3-BF5FD764AE63}"/>
     <hyperlink ref="N45" r:id="rId5" xr:uid="{0697A09A-FCB6-44D4-B576-3107A919D348}"/>
-    <hyperlink ref="N71" r:id="rId6" xr:uid="{EAC941A4-A5E8-43D3-ADF9-6021B1D498AB}"/>
-    <hyperlink ref="O71" r:id="rId7" xr:uid="{E6418FDC-E286-4132-B0E9-E07316E00EA9}"/>
+    <hyperlink ref="N73" r:id="rId6" xr:uid="{EAC941A4-A5E8-43D3-ADF9-6021B1D498AB}"/>
+    <hyperlink ref="O73" r:id="rId7" xr:uid="{E6418FDC-E286-4132-B0E9-E07316E00EA9}"/>
     <hyperlink ref="N8" r:id="rId8" xr:uid="{96EDD7BD-A7DE-4C1B-A113-6187AD5FD881}"/>
     <hyperlink ref="N22" r:id="rId9" xr:uid="{B5550E26-FDF1-44C1-B405-F3538CC85D60}"/>
-    <hyperlink ref="N90" r:id="rId10" xr:uid="{F0884335-FE32-426C-BFDD-E2334F14660D}"/>
+    <hyperlink ref="N94" r:id="rId10" xr:uid="{F0884335-FE32-426C-BFDD-E2334F14660D}"/>
     <hyperlink ref="O33" r:id="rId11" xr:uid="{5EF8E520-7A3F-44EC-A8E1-6A5C0C87485A}"/>
-    <hyperlink ref="N91" r:id="rId12" xr:uid="{0E8DDB57-451B-45C1-9AE2-1297278067E0}"/>
-    <hyperlink ref="O93" r:id="rId13" xr:uid="{232BDB1C-908D-4757-A0D8-C0E4202A4CC8}"/>
-    <hyperlink ref="N96" r:id="rId14" xr:uid="{5E78CDFF-24A0-46A4-999C-BB59B2B1C022}"/>
-    <hyperlink ref="O96" r:id="rId15" location="f0020" xr:uid="{9A101CAC-3E4E-4FE0-8C1F-F66AAAA0DC2F}"/>
-    <hyperlink ref="O83" r:id="rId16" xr:uid="{86A5DD30-10C5-4160-A5BF-D1801CEFA817}"/>
-    <hyperlink ref="N98" r:id="rId17" xr:uid="{4458BCD0-C333-4EEF-ABF6-3D928F911827}"/>
-    <hyperlink ref="O112" r:id="rId18" xr:uid="{EC55B086-BCED-47D9-8FE6-7CCD3380B6EF}"/>
+    <hyperlink ref="N95" r:id="rId12" xr:uid="{0E8DDB57-451B-45C1-9AE2-1297278067E0}"/>
+    <hyperlink ref="O97" r:id="rId13" xr:uid="{232BDB1C-908D-4757-A0D8-C0E4202A4CC8}"/>
+    <hyperlink ref="N100" r:id="rId14" xr:uid="{5E78CDFF-24A0-46A4-999C-BB59B2B1C022}"/>
+    <hyperlink ref="O100" r:id="rId15" location="f0020" xr:uid="{9A101CAC-3E4E-4FE0-8C1F-F66AAAA0DC2F}"/>
+    <hyperlink ref="O85" r:id="rId16" xr:uid="{86A5DD30-10C5-4160-A5BF-D1801CEFA817}"/>
+    <hyperlink ref="N102" r:id="rId17" xr:uid="{4458BCD0-C333-4EEF-ABF6-3D928F911827}"/>
+    <hyperlink ref="O116" r:id="rId18" xr:uid="{EC55B086-BCED-47D9-8FE6-7CCD3380B6EF}"/>
     <hyperlink ref="N61" r:id="rId19" xr:uid="{144DD13A-F0E5-498C-90F5-88A2FD6DEA1F}"/>
     <hyperlink ref="N11" r:id="rId20" xr:uid="{F0E54000-716E-4747-9567-745BDA43AFD3}"/>
     <hyperlink ref="N49" r:id="rId21" xr:uid="{AC9146EB-8383-471E-9EBF-148651804624}"/>
     <hyperlink ref="N56" r:id="rId22" xr:uid="{C6651044-A196-4EE7-A7FE-12EAE624E060}"/>
     <hyperlink ref="O56" r:id="rId23" xr:uid="{5380206B-7839-4EE4-BC56-519C6CAC06AD}"/>
-    <hyperlink ref="O118" r:id="rId24" xr:uid="{2AABD24C-26A7-4B3E-9CD3-A23BE96B79BB}"/>
+    <hyperlink ref="O122" r:id="rId24" xr:uid="{2AABD24C-26A7-4B3E-9CD3-A23BE96B79BB}"/>
     <hyperlink ref="N5" r:id="rId25" xr:uid="{32320392-394D-4C48-8140-30284C9388F1}"/>
     <hyperlink ref="N6" r:id="rId26" xr:uid="{88A7D382-C4B2-48A1-B84A-37DED9A846FF}"/>
     <hyperlink ref="O2" r:id="rId27" xr:uid="{143846C3-024B-4D1C-89F7-1C7EFF074580}"/>
     <hyperlink ref="O9" r:id="rId28" location="s0035" xr:uid="{02513146-762C-4759-8541-77C369040CE2}"/>
-    <hyperlink ref="O115" r:id="rId29" xr:uid="{57B4FD60-751B-46AA-9362-4D1D62DFF859}"/>
-    <hyperlink ref="O116" r:id="rId30" xr:uid="{7AC6F5DD-D6BE-4E40-87AD-011476C12118}"/>
-    <hyperlink ref="N109" r:id="rId31" xr:uid="{D23D156B-B9BC-44EB-88C7-20CFD2F8C77C}"/>
-    <hyperlink ref="O109" r:id="rId32" xr:uid="{1D6F4DA0-CC7A-4319-A126-FF40E2FDEA5A}"/>
-    <hyperlink ref="O73" r:id="rId33" xr:uid="{25A66588-5090-4D9B-A017-7F5B2A14062F}"/>
+    <hyperlink ref="O119" r:id="rId29" xr:uid="{57B4FD60-751B-46AA-9362-4D1D62DFF859}"/>
+    <hyperlink ref="O120" r:id="rId30" xr:uid="{7AC6F5DD-D6BE-4E40-87AD-011476C12118}"/>
+    <hyperlink ref="N113" r:id="rId31" xr:uid="{D23D156B-B9BC-44EB-88C7-20CFD2F8C77C}"/>
+    <hyperlink ref="O113" r:id="rId32" xr:uid="{1D6F4DA0-CC7A-4319-A126-FF40E2FDEA5A}"/>
+    <hyperlink ref="O75" r:id="rId33" xr:uid="{25A66588-5090-4D9B-A017-7F5B2A14062F}"/>
     <hyperlink ref="N27" r:id="rId34" xr:uid="{C8D802F1-C1EC-404B-8227-CFA3AA98148E}"/>
     <hyperlink ref="O40" r:id="rId35" xr:uid="{38A394AF-D753-4AB9-AF99-4CE66AB7F191}"/>
     <hyperlink ref="N41" r:id="rId36" xr:uid="{4168F030-70D5-4989-9119-2475009362E1}"/>
@@ -34318,18 +34729,18 @@
     <hyperlink ref="O60" r:id="rId39" xr:uid="{BA070329-49D5-4F78-B73D-25722BAB6BF2}"/>
     <hyperlink ref="N44" r:id="rId40" xr:uid="{14A3D751-75C2-4733-B863-159021B6268F}"/>
     <hyperlink ref="N64" r:id="rId41" xr:uid="{C94D9E15-CCEE-4789-A85A-30F6F2687DDB}"/>
-    <hyperlink ref="N78" r:id="rId42" xr:uid="{5295A881-8A97-4DCA-B4FF-5340FC387BB0}"/>
+    <hyperlink ref="N80" r:id="rId42" xr:uid="{5295A881-8A97-4DCA-B4FF-5340FC387BB0}"/>
     <hyperlink ref="N4" r:id="rId43" xr:uid="{93620433-4257-4E22-8C56-7210E438F4C0}"/>
     <hyperlink ref="O4" r:id="rId44" xr:uid="{DFF8E0C9-2683-4CE7-84CB-ABD2843D367F}"/>
-    <hyperlink ref="N79" r:id="rId45" xr:uid="{C234CDD0-279D-4208-B561-B9C90652DCA5}"/>
+    <hyperlink ref="N81" r:id="rId45" xr:uid="{C234CDD0-279D-4208-B561-B9C90652DCA5}"/>
     <hyperlink ref="N62" r:id="rId46" xr:uid="{4C9CB35A-98B5-4DC0-9E00-2B53DFA1EEB8}"/>
-    <hyperlink ref="O97" r:id="rId47" xr:uid="{7932F0E4-7F39-4C8A-B2DE-DEE5226F1E69}"/>
-    <hyperlink ref="O86" r:id="rId48" xr:uid="{74172E97-9606-46E4-9B69-BA8290FCC58B}"/>
-    <hyperlink ref="O111" r:id="rId49" xr:uid="{AF5B27F4-908C-4604-9FE5-C28D135D5B9A}"/>
-    <hyperlink ref="O65" r:id="rId50" xr:uid="{84C5678B-A0E7-4081-9DF7-0CD90C6B476F}"/>
-    <hyperlink ref="O95" r:id="rId51" xr:uid="{8328828A-CF10-4057-9A80-E5A6B7F0807B}"/>
-    <hyperlink ref="N117" r:id="rId52" xr:uid="{95D7483E-CB10-4C16-9099-FE490CD59B61}"/>
-    <hyperlink ref="O117" r:id="rId53" xr:uid="{933EAF14-86B8-4705-AE34-EA40D7613481}"/>
+    <hyperlink ref="O101" r:id="rId47" xr:uid="{7932F0E4-7F39-4C8A-B2DE-DEE5226F1E69}"/>
+    <hyperlink ref="O90" r:id="rId48" xr:uid="{74172E97-9606-46E4-9B69-BA8290FCC58B}"/>
+    <hyperlink ref="O115" r:id="rId49" xr:uid="{AF5B27F4-908C-4604-9FE5-C28D135D5B9A}"/>
+    <hyperlink ref="O67" r:id="rId50" xr:uid="{84C5678B-A0E7-4081-9DF7-0CD90C6B476F}"/>
+    <hyperlink ref="O99" r:id="rId51" xr:uid="{8328828A-CF10-4057-9A80-E5A6B7F0807B}"/>
+    <hyperlink ref="N121" r:id="rId52" xr:uid="{95D7483E-CB10-4C16-9099-FE490CD59B61}"/>
+    <hyperlink ref="O121" r:id="rId53" xr:uid="{933EAF14-86B8-4705-AE34-EA40D7613481}"/>
     <hyperlink ref="O31" r:id="rId54" xr:uid="{0C9F7298-26BA-4D73-B520-73B5B0C885CB}"/>
     <hyperlink ref="O22" r:id="rId55" xr:uid="{DF902F85-F019-413D-A5AD-7FDDF343699B}"/>
     <hyperlink ref="N25" r:id="rId56" xr:uid="{6D603FA7-1F94-44ED-A39B-3872B5F432D7}"/>
@@ -34345,23 +34756,23 @@
     <hyperlink ref="O39" r:id="rId66" xr:uid="{100DDCBE-3D38-445E-A452-EE5C5AFB144C}"/>
     <hyperlink ref="N42" r:id="rId67" xr:uid="{8CE78BAA-FD61-48F7-9B9C-6A6D3C538448}"/>
     <hyperlink ref="O42" r:id="rId68" xr:uid="{03A2E42E-543E-4979-8ED6-E30CF0DCB031}"/>
-    <hyperlink ref="O94" r:id="rId69" xr:uid="{BAF15FEF-FC9D-47B3-893E-CCF0E0E74DA8}"/>
-    <hyperlink ref="N112" r:id="rId70" xr:uid="{24D1D72D-844A-4582-89F8-113C55061937}"/>
-    <hyperlink ref="O99" r:id="rId71" xr:uid="{CD71B59B-7B01-4EE0-AAF5-A810CF9A1EB0}"/>
-    <hyperlink ref="O110" r:id="rId72" xr:uid="{15A7B146-272E-4726-939B-BF851BCB025D}"/>
-    <hyperlink ref="N118" r:id="rId73" xr:uid="{8D4218B3-DB8D-42B9-AB4E-0E58E2771FF3}"/>
-    <hyperlink ref="N114" r:id="rId74" xr:uid="{F6FDCAFD-1BAE-4ABF-9812-4CA6818C3593}"/>
-    <hyperlink ref="N65" r:id="rId75" xr:uid="{AB6E247C-6E4E-497D-BAF4-6B3E6AEE0D59}"/>
+    <hyperlink ref="O98" r:id="rId69" xr:uid="{BAF15FEF-FC9D-47B3-893E-CCF0E0E74DA8}"/>
+    <hyperlink ref="N116" r:id="rId70" xr:uid="{24D1D72D-844A-4582-89F8-113C55061937}"/>
+    <hyperlink ref="O103" r:id="rId71" xr:uid="{CD71B59B-7B01-4EE0-AAF5-A810CF9A1EB0}"/>
+    <hyperlink ref="O114" r:id="rId72" xr:uid="{15A7B146-272E-4726-939B-BF851BCB025D}"/>
+    <hyperlink ref="N122" r:id="rId73" xr:uid="{8D4218B3-DB8D-42B9-AB4E-0E58E2771FF3}"/>
+    <hyperlink ref="N118" r:id="rId74" xr:uid="{F6FDCAFD-1BAE-4ABF-9812-4CA6818C3593}"/>
+    <hyperlink ref="N67" r:id="rId75" xr:uid="{AB6E247C-6E4E-497D-BAF4-6B3E6AEE0D59}"/>
     <hyperlink ref="N20" r:id="rId76" xr:uid="{BCB93EB0-7FB4-4F75-B939-BC18FA0FE03F}"/>
     <hyperlink ref="O20" r:id="rId77" xr:uid="{72CFFA9D-C09A-4686-A97C-2F10993CAFF2}"/>
-    <hyperlink ref="O114" r:id="rId78" xr:uid="{FBB40418-FA0D-47E6-9CF5-23BA6A65E520}"/>
-    <hyperlink ref="O98" r:id="rId79" xr:uid="{D59CE17C-F9E2-4BCB-A342-083B5EB6E01E}"/>
-    <hyperlink ref="N97" r:id="rId80" xr:uid="{1616C9EC-B973-4BA6-B56A-7CD2E6C81B4F}"/>
-    <hyperlink ref="N110" r:id="rId81" xr:uid="{DA02441F-2DC7-4C12-9523-8E5F9F6BA024}"/>
+    <hyperlink ref="O118" r:id="rId78" xr:uid="{FBB40418-FA0D-47E6-9CF5-23BA6A65E520}"/>
+    <hyperlink ref="O102" r:id="rId79" xr:uid="{D59CE17C-F9E2-4BCB-A342-083B5EB6E01E}"/>
+    <hyperlink ref="N101" r:id="rId80" xr:uid="{1616C9EC-B973-4BA6-B56A-7CD2E6C81B4F}"/>
+    <hyperlink ref="N114" r:id="rId81" xr:uid="{DA02441F-2DC7-4C12-9523-8E5F9F6BA024}"/>
     <hyperlink ref="N19" r:id="rId82" xr:uid="{CA9B2AA9-2939-4AE7-BEDE-9858E4423AA3}"/>
     <hyperlink ref="O19" r:id="rId83" xr:uid="{FDF65663-AD6F-4B45-9D12-93472B988354}"/>
-    <hyperlink ref="O67" r:id="rId84" xr:uid="{75A4C036-9814-4771-BAB0-AF42B270117F}"/>
-    <hyperlink ref="O68" r:id="rId85" xr:uid="{705AC95E-10D7-4C8F-B92B-26C63B61962B}"/>
+    <hyperlink ref="O69" r:id="rId84" xr:uid="{75A4C036-9814-4771-BAB0-AF42B270117F}"/>
+    <hyperlink ref="O70" r:id="rId85" xr:uid="{705AC95E-10D7-4C8F-B92B-26C63B61962B}"/>
     <hyperlink ref="O47" r:id="rId86" xr:uid="{21F432BA-DEE6-4108-A815-33033F04316E}"/>
     <hyperlink ref="N59" r:id="rId87" xr:uid="{C04DB4E3-6A32-467F-9F58-D97B97B7D573}"/>
     <hyperlink ref="N53" r:id="rId88" xr:uid="{BBC0A217-5E69-4DF2-BD6B-F1B6A936FCFE}"/>
@@ -34383,40 +34794,40 @@
     <hyperlink ref="N46" r:id="rId104" xr:uid="{07A8EC4B-3154-4F3F-86FE-359E3434837C}"/>
     <hyperlink ref="N63" r:id="rId105" xr:uid="{C8008EEF-1FC6-44E1-80E0-1EECB0FFE573}"/>
     <hyperlink ref="N34" r:id="rId106" xr:uid="{FA4D8C18-B9BA-4BFD-AA1F-65FFF16A3BF4}"/>
-    <hyperlink ref="N70" r:id="rId107" xr:uid="{2B7F649B-B6DC-4DC3-B321-53637AE6AFBD}"/>
-    <hyperlink ref="N69" r:id="rId108" xr:uid="{B65410BB-A2A5-4178-8033-FDAD11DB2FA0}"/>
-    <hyperlink ref="N77" r:id="rId109" xr:uid="{F0127DB6-E5D1-4584-A8F3-91D7B7135DA8}"/>
-    <hyperlink ref="N75" r:id="rId110" xr:uid="{D6675414-9854-4885-8C6B-95A3BF4F9F9D}"/>
+    <hyperlink ref="N72" r:id="rId107" xr:uid="{2B7F649B-B6DC-4DC3-B321-53637AE6AFBD}"/>
+    <hyperlink ref="N71" r:id="rId108" xr:uid="{B65410BB-A2A5-4178-8033-FDAD11DB2FA0}"/>
+    <hyperlink ref="N79" r:id="rId109" xr:uid="{F0127DB6-E5D1-4584-A8F3-91D7B7135DA8}"/>
+    <hyperlink ref="N77" r:id="rId110" xr:uid="{D6675414-9854-4885-8C6B-95A3BF4F9F9D}"/>
     <hyperlink ref="N13" r:id="rId111" xr:uid="{A5F355DA-0161-4583-B31C-6BA1E8D4FB65}"/>
     <hyperlink ref="N35" r:id="rId112" xr:uid="{44317B09-58EF-4A40-B136-2B9E691FF03E}"/>
-    <hyperlink ref="N80" r:id="rId113" xr:uid="{CABCEC00-F62E-4BDD-9690-C87878E8657E}"/>
+    <hyperlink ref="N82" r:id="rId113" xr:uid="{CABCEC00-F62E-4BDD-9690-C87878E8657E}"/>
     <hyperlink ref="N14" r:id="rId114" xr:uid="{5543C585-98C6-489E-B423-10F7A7573AFC}"/>
-    <hyperlink ref="N82" r:id="rId115" xr:uid="{207E6AAE-E897-4FCF-8386-83EBEA03A04D}"/>
+    <hyperlink ref="N84" r:id="rId115" xr:uid="{207E6AAE-E897-4FCF-8386-83EBEA03A04D}"/>
     <hyperlink ref="N15" r:id="rId116" xr:uid="{C1BC4D9C-019C-422A-B2BA-760EE6ACEA40}"/>
-    <hyperlink ref="N84" r:id="rId117" xr:uid="{5D6E8D8C-561F-4424-B72A-01EA95EC3776}"/>
-    <hyperlink ref="N87" r:id="rId118" xr:uid="{172F45E3-A464-4ADB-8CF5-B78D778D5448}"/>
-    <hyperlink ref="N85" r:id="rId119" xr:uid="{5DA3D3CD-B27D-4BB5-B445-517788D16158}"/>
-    <hyperlink ref="N89" r:id="rId120" xr:uid="{D9A7F3FA-D218-4461-AD74-8A68E49EBA97}"/>
+    <hyperlink ref="N86" r:id="rId117" xr:uid="{5D6E8D8C-561F-4424-B72A-01EA95EC3776}"/>
+    <hyperlink ref="N91" r:id="rId118" xr:uid="{172F45E3-A464-4ADB-8CF5-B78D778D5448}"/>
+    <hyperlink ref="N89" r:id="rId119" xr:uid="{5DA3D3CD-B27D-4BB5-B445-517788D16158}"/>
+    <hyperlink ref="N93" r:id="rId120" xr:uid="{D9A7F3FA-D218-4461-AD74-8A68E49EBA97}"/>
     <hyperlink ref="N17" r:id="rId121" xr:uid="{E57CD094-E3CE-48AC-B662-99D9D419C2ED}"/>
     <hyperlink ref="N36" r:id="rId122" xr:uid="{677809AF-F923-479B-9661-742E08875C40}"/>
     <hyperlink ref="N37" r:id="rId123" xr:uid="{A58DA0F5-693E-4B7D-9327-814865DF8970}"/>
     <hyperlink ref="N18" r:id="rId124" xr:uid="{52B4B470-C2A5-46F0-AC00-B5BB7C41C30E}"/>
     <hyperlink ref="N38" r:id="rId125" xr:uid="{14A63E12-DC26-4D6A-A5E5-AA603635D426}"/>
-    <hyperlink ref="N100" r:id="rId126" xr:uid="{413F22A8-77A1-4D62-9C62-31E380B63DCD}"/>
-    <hyperlink ref="N102" r:id="rId127" xr:uid="{E49F8478-4F8D-4721-928D-9DCE375E3853}"/>
-    <hyperlink ref="N103" r:id="rId128" xr:uid="{DC851697-7D78-4E87-9FF3-276BB1C162B8}"/>
-    <hyperlink ref="N104" r:id="rId129" xr:uid="{620AA8E8-E0E8-40E3-B937-8AFDB68BEDB0}"/>
-    <hyperlink ref="N105" r:id="rId130" xr:uid="{5C818DD8-36D7-4C31-902B-7183A792B93F}"/>
-    <hyperlink ref="N106" r:id="rId131" xr:uid="{7F94B65D-2F10-47F8-97C5-CDE9ADBBFF30}"/>
-    <hyperlink ref="N107" r:id="rId132" xr:uid="{9BB9757D-4D67-4713-AE94-9FCE116EC0F5}"/>
-    <hyperlink ref="N108" r:id="rId133" xr:uid="{F2D1BDA4-7D3F-4592-B53A-1D70FF1DB563}"/>
+    <hyperlink ref="N104" r:id="rId126" xr:uid="{413F22A8-77A1-4D62-9C62-31E380B63DCD}"/>
+    <hyperlink ref="N106" r:id="rId127" xr:uid="{E49F8478-4F8D-4721-928D-9DCE375E3853}"/>
+    <hyperlink ref="N107" r:id="rId128" xr:uid="{DC851697-7D78-4E87-9FF3-276BB1C162B8}"/>
+    <hyperlink ref="N108" r:id="rId129" xr:uid="{620AA8E8-E0E8-40E3-B937-8AFDB68BEDB0}"/>
+    <hyperlink ref="N109" r:id="rId130" xr:uid="{5C818DD8-36D7-4C31-902B-7183A792B93F}"/>
+    <hyperlink ref="N110" r:id="rId131" xr:uid="{7F94B65D-2F10-47F8-97C5-CDE9ADBBFF30}"/>
+    <hyperlink ref="N111" r:id="rId132" xr:uid="{9BB9757D-4D67-4713-AE94-9FCE116EC0F5}"/>
+    <hyperlink ref="N112" r:id="rId133" xr:uid="{F2D1BDA4-7D3F-4592-B53A-1D70FF1DB563}"/>
     <hyperlink ref="N39" r:id="rId134" xr:uid="{A1158297-62A0-42E7-9FE1-204617186BF6}"/>
-    <hyperlink ref="N101" r:id="rId135" xr:uid="{5ACDBDC5-78E8-4BE0-9AC3-EDA50147D007}"/>
+    <hyperlink ref="N105" r:id="rId135" xr:uid="{5ACDBDC5-78E8-4BE0-9AC3-EDA50147D007}"/>
     <hyperlink ref="N23" r:id="rId136" xr:uid="{9DF83799-9F93-458C-8D64-9A6CC34936E1}"/>
     <hyperlink ref="N16" r:id="rId137" xr:uid="{4C89344A-8DEB-4B5A-ACDE-5D23902D586F}"/>
     <hyperlink ref="N12" r:id="rId138" xr:uid="{23FB70CA-F436-4F7D-9520-3A6373FAF8B7}"/>
     <hyperlink ref="O46" r:id="rId139" xr:uid="{5192A2B3-45D1-441D-BED1-87A711189B9E}"/>
-    <hyperlink ref="O91" r:id="rId140" xr:uid="{F3590D82-C684-4AF5-9C96-15F5BFA91410}"/>
+    <hyperlink ref="O95" r:id="rId140" xr:uid="{F3590D82-C684-4AF5-9C96-15F5BFA91410}"/>
     <hyperlink ref="O5" r:id="rId141" xr:uid="{620B0FBE-7890-48E7-A886-13C1A1E19A93}"/>
     <hyperlink ref="O23" r:id="rId142" xr:uid="{E4777167-491D-4BD3-8E81-99C114A0834A}"/>
     <hyperlink ref="O24" r:id="rId143" xr:uid="{F876A216-F456-43FC-9FE9-D5EF77482822}"/>
@@ -34431,52 +34842,60 @@
     <hyperlink ref="O57" r:id="rId152" xr:uid="{6FF346BA-0611-4AFA-B202-C074977875A2}"/>
     <hyperlink ref="O44" r:id="rId153" xr:uid="{1F47C19E-B607-4B7A-ABFA-A967DE94BCA3}"/>
     <hyperlink ref="O63" r:id="rId154" xr:uid="{98B5B714-C060-4931-9656-C947273C8A79}"/>
-    <hyperlink ref="O66" r:id="rId155" xr:uid="{C7FF86DD-F5FA-4A40-85D8-CA76230FC957}"/>
+    <hyperlink ref="O68" r:id="rId155" xr:uid="{C7FF86DD-F5FA-4A40-85D8-CA76230FC957}"/>
     <hyperlink ref="O64" r:id="rId156" xr:uid="{C227D00F-58F4-4A68-8AAE-B2ABCE8FB85E}"/>
-    <hyperlink ref="O70" r:id="rId157" xr:uid="{5242DF62-4A22-4ED7-9F05-DCB734B2113C}"/>
-    <hyperlink ref="O69" r:id="rId158" xr:uid="{9A7609D3-7D8E-4C4A-8AEA-452AE0FA7D25}"/>
+    <hyperlink ref="O72" r:id="rId157" xr:uid="{5242DF62-4A22-4ED7-9F05-DCB734B2113C}"/>
+    <hyperlink ref="O71" r:id="rId158" xr:uid="{9A7609D3-7D8E-4C4A-8AEA-452AE0FA7D25}"/>
     <hyperlink ref="O6" r:id="rId159" xr:uid="{51B25D32-FFD9-43F2-9C5F-06368A4DCF31}"/>
-    <hyperlink ref="O77" r:id="rId160" xr:uid="{457779B0-3910-4DF4-9287-78089B75614E}"/>
-    <hyperlink ref="O75" r:id="rId161" xr:uid="{8F4EF2FE-8372-4FD0-B21B-0C73B90F723E}"/>
-    <hyperlink ref="O78" r:id="rId162" xr:uid="{039752D6-A57E-42F7-BA40-8C6F6916F6AB}"/>
+    <hyperlink ref="O79" r:id="rId160" xr:uid="{457779B0-3910-4DF4-9287-78089B75614E}"/>
+    <hyperlink ref="O77" r:id="rId161" xr:uid="{8F4EF2FE-8372-4FD0-B21B-0C73B90F723E}"/>
+    <hyperlink ref="O80" r:id="rId162" xr:uid="{039752D6-A57E-42F7-BA40-8C6F6916F6AB}"/>
     <hyperlink ref="O13" r:id="rId163" xr:uid="{A90D194B-4E3C-444A-836D-6B5DB5BE736F}"/>
-    <hyperlink ref="O79" r:id="rId164" xr:uid="{43676EE7-6CC7-4535-89EF-4313B121B397}"/>
+    <hyperlink ref="O81" r:id="rId164" xr:uid="{43676EE7-6CC7-4535-89EF-4313B121B397}"/>
     <hyperlink ref="O14" r:id="rId165" xr:uid="{60E836C5-06DB-4B9A-BB8B-F3EA2AB8908E}"/>
-    <hyperlink ref="O81" r:id="rId166" xr:uid="{48445DE7-4124-459A-89FE-A5785E8E6D21}"/>
-    <hyperlink ref="O82" r:id="rId167" xr:uid="{92547D63-9E10-4C2A-B940-F80F86C31D6C}"/>
+    <hyperlink ref="O83" r:id="rId166" xr:uid="{48445DE7-4124-459A-89FE-A5785E8E6D21}"/>
+    <hyperlink ref="O84" r:id="rId167" xr:uid="{92547D63-9E10-4C2A-B940-F80F86C31D6C}"/>
     <hyperlink ref="O15" r:id="rId168" xr:uid="{07239EE8-B9CC-484E-8B7D-D4422BB013EF}"/>
-    <hyperlink ref="O84" r:id="rId169" xr:uid="{38AD3B56-8CE4-4A88-8E60-759B3016A491}"/>
-    <hyperlink ref="O87" r:id="rId170" xr:uid="{86F4132D-8166-41D6-939D-D1945683D6A9}"/>
-    <hyperlink ref="O85" r:id="rId171" xr:uid="{66A7EF04-2FDB-4C3B-975E-7D3C74F244A9}"/>
-    <hyperlink ref="O89" r:id="rId172" xr:uid="{BA6720FD-FEE7-4DB0-A843-2EA5626483C1}"/>
-    <hyperlink ref="O76" r:id="rId173" xr:uid="{E146E9FE-BFFA-4CC4-B47B-1EA975C335A4}"/>
+    <hyperlink ref="O86" r:id="rId169" xr:uid="{38AD3B56-8CE4-4A88-8E60-759B3016A491}"/>
+    <hyperlink ref="O91" r:id="rId170" xr:uid="{86F4132D-8166-41D6-939D-D1945683D6A9}"/>
+    <hyperlink ref="O89" r:id="rId171" xr:uid="{66A7EF04-2FDB-4C3B-975E-7D3C74F244A9}"/>
+    <hyperlink ref="O93" r:id="rId172" xr:uid="{BA6720FD-FEE7-4DB0-A843-2EA5626483C1}"/>
+    <hyperlink ref="O78" r:id="rId173" xr:uid="{E146E9FE-BFFA-4CC4-B47B-1EA975C335A4}"/>
     <hyperlink ref="O17" r:id="rId174" xr:uid="{DEA61234-433D-41CE-982A-5C458C6C9CE7}"/>
-    <hyperlink ref="O90" r:id="rId175" xr:uid="{A3C3D363-450B-47FC-85E0-69B19823C28F}"/>
+    <hyperlink ref="O94" r:id="rId175" xr:uid="{A3C3D363-450B-47FC-85E0-69B19823C28F}"/>
     <hyperlink ref="O18" r:id="rId176" xr:uid="{B8F617E8-3043-49ED-A585-92DB248768F3}"/>
-    <hyperlink ref="O100" r:id="rId177" xr:uid="{D23D7F1D-2BBE-49F6-AC74-60F99A2EA57A}"/>
-    <hyperlink ref="O102" r:id="rId178" xr:uid="{EBD0BDC5-4ED9-4F5F-BF58-85383C670443}"/>
-    <hyperlink ref="O103" r:id="rId179" xr:uid="{A5B805CB-CAD5-41FA-9EBA-D9642CBFE26D}"/>
-    <hyperlink ref="O104" r:id="rId180" xr:uid="{19A859D1-052B-4DAB-B7CC-0A6AC9D8F7F2}"/>
-    <hyperlink ref="O105" r:id="rId181" xr:uid="{5C25EA57-1862-4EB2-B42F-C38878D6FDBB}"/>
-    <hyperlink ref="O106" r:id="rId182" xr:uid="{137F4CB3-5E96-4F0B-9112-FB0E767219A3}"/>
-    <hyperlink ref="O107" r:id="rId183" xr:uid="{381C9CC3-D7F0-4DA5-B89C-D32C1EFFAE7F}"/>
-    <hyperlink ref="O108" r:id="rId184" xr:uid="{442FADE2-705E-4347-9E1B-6BE95B74C7E9}"/>
-    <hyperlink ref="O101" r:id="rId185" xr:uid="{05D0A8E5-D137-468D-956A-C6A0EC0AF994}"/>
+    <hyperlink ref="O104" r:id="rId177" xr:uid="{D23D7F1D-2BBE-49F6-AC74-60F99A2EA57A}"/>
+    <hyperlink ref="O106" r:id="rId178" xr:uid="{EBD0BDC5-4ED9-4F5F-BF58-85383C670443}"/>
+    <hyperlink ref="O107" r:id="rId179" xr:uid="{A5B805CB-CAD5-41FA-9EBA-D9642CBFE26D}"/>
+    <hyperlink ref="O108" r:id="rId180" xr:uid="{19A859D1-052B-4DAB-B7CC-0A6AC9D8F7F2}"/>
+    <hyperlink ref="O109" r:id="rId181" xr:uid="{5C25EA57-1862-4EB2-B42F-C38878D6FDBB}"/>
+    <hyperlink ref="O110" r:id="rId182" xr:uid="{137F4CB3-5E96-4F0B-9112-FB0E767219A3}"/>
+    <hyperlink ref="O111" r:id="rId183" xr:uid="{381C9CC3-D7F0-4DA5-B89C-D32C1EFFAE7F}"/>
+    <hyperlink ref="O112" r:id="rId184" xr:uid="{442FADE2-705E-4347-9E1B-6BE95B74C7E9}"/>
+    <hyperlink ref="O105" r:id="rId185" xr:uid="{05D0A8E5-D137-468D-956A-C6A0EC0AF994}"/>
     <hyperlink ref="O30" r:id="rId186" xr:uid="{620792CE-5A18-431A-8E73-2089AAC2983A}"/>
     <hyperlink ref="N3" r:id="rId187" xr:uid="{18B11FEB-46B8-4F25-B7A7-43D0660773AF}"/>
     <hyperlink ref="O3" r:id="rId188" xr:uid="{DF8AF1A2-5F3B-473B-B683-E72393CE6C51}"/>
     <hyperlink ref="O26" r:id="rId189" xr:uid="{126CAD1B-6FF2-4635-9D25-3F3F7D9670EA}"/>
-    <hyperlink ref="N72" r:id="rId190" xr:uid="{489CA57F-DCF3-41DA-8898-872148FB6F5F}"/>
-    <hyperlink ref="O72" r:id="rId191" xr:uid="{9654F2F7-1E02-4E09-A37F-80D575E0BA5D}"/>
-    <hyperlink ref="N113" r:id="rId192" xr:uid="{379242D3-4097-44A4-BCAA-022CAB27D0A6}"/>
-    <hyperlink ref="O113" r:id="rId193" xr:uid="{C4642B4A-6CA6-4B1B-AEA7-F282A7BA1125}"/>
-    <hyperlink ref="N88" r:id="rId194" xr:uid="{E7B471DC-8260-46D5-8219-67CCDE010FF7}"/>
-    <hyperlink ref="O88" r:id="rId195" xr:uid="{E3CDA6E1-5BA4-46F2-A80F-5C15D83C0303}"/>
+    <hyperlink ref="N74" r:id="rId190" xr:uid="{489CA57F-DCF3-41DA-8898-872148FB6F5F}"/>
+    <hyperlink ref="O74" r:id="rId191" xr:uid="{9654F2F7-1E02-4E09-A37F-80D575E0BA5D}"/>
+    <hyperlink ref="N117" r:id="rId192" xr:uid="{379242D3-4097-44A4-BCAA-022CAB27D0A6}"/>
+    <hyperlink ref="O117" r:id="rId193" xr:uid="{C4642B4A-6CA6-4B1B-AEA7-F282A7BA1125}"/>
+    <hyperlink ref="N92" r:id="rId194" xr:uid="{E7B471DC-8260-46D5-8219-67CCDE010FF7}"/>
+    <hyperlink ref="O92" r:id="rId195" xr:uid="{E3CDA6E1-5BA4-46F2-A80F-5C15D83C0303}"/>
+    <hyperlink ref="N65" r:id="rId196" location=" " xr:uid="{59759E3E-3E56-4248-9A1D-100570F87189}"/>
+    <hyperlink ref="N66" r:id="rId197" xr:uid="{3EE4CC13-C8A8-4DC2-8307-EE051275073A}"/>
+    <hyperlink ref="O66" r:id="rId198" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{817CC67B-E10C-486B-B840-1A90AC8F8001}"/>
+    <hyperlink ref="O65" r:id="rId199" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{9872E0DC-DD1A-4F7D-990B-D11F499DF594}"/>
+    <hyperlink ref="N88" r:id="rId200" xr:uid="{C59116B7-9A37-45AD-944D-31FBA0AB37FA}"/>
+    <hyperlink ref="N87" r:id="rId201" xr:uid="{B3CB67E7-9836-4B7C-A6F0-C8CB27F2953C}"/>
+    <hyperlink ref="O88" r:id="rId202" xr:uid="{34F30490-219E-4B7D-A1EC-0B260FE981E2}"/>
+    <hyperlink ref="O87" r:id="rId203" xr:uid="{41BD3A7F-AFCD-4935-8926-4154FF4269C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId196"/>
+  <legacyDrawing r:id="rId204"/>
   <tableParts count="1">
-    <tablePart r:id="rId197"/>
+    <tablePart r:id="rId205"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -34485,7 +34904,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G2 F4:G25 F27:G118</xm:sqref>
+          <xm:sqref>F2:G2 F4:G25 F27:G118 F119:F122</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -40271,16 +40690,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -40484,6 +40893,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
   <ds:schemaRefs>
@@ -40493,16 +40912,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40520,6 +40929,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A59A148-F32D-4316-A9B5-9AA6E3FD2072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583D0CA0-EC0E-49DE-AF50-69F091EF6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     See also https://cui.unige.ch/isi/onto/citygml2.0.owl</t>
       </text>
     </comment>
-    <comment ref="A43" authorId="6" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+    <comment ref="A45" authorId="6" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -154,7 +154,7 @@
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
       </text>
     </comment>
-    <comment ref="A68" authorId="7" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
+    <comment ref="A70" authorId="7" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -162,7 +162,7 @@
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
       </text>
     </comment>
-    <comment ref="Q68" authorId="8" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
+    <comment ref="Q70" authorId="8" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -170,7 +170,7 @@
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
       </text>
     </comment>
-    <comment ref="O69" authorId="9" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
+    <comment ref="O71" authorId="9" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -178,7 +178,7 @@
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
       </text>
     </comment>
-    <comment ref="O78" authorId="10" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
+    <comment ref="O80" authorId="10" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -186,7 +186,7 @@
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
       </text>
     </comment>
-    <comment ref="A82" authorId="11" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
+    <comment ref="A84" authorId="11" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -194,7 +194,7 @@
     Note: used to be ontology iddo.</t>
       </text>
     </comment>
-    <comment ref="Z89" authorId="12" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+    <comment ref="Z91" authorId="12" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -206,7 +206,7 @@
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
       </text>
     </comment>
-    <comment ref="P98" authorId="13" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
+    <comment ref="P100" authorId="13" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -214,7 +214,7 @@
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
       </text>
     </comment>
-    <comment ref="O103" authorId="14" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
+    <comment ref="O105" authorId="14" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -1050,7 +1050,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6407" uniqueCount="1117">
   <si>
     <t>Count of Name</t>
   </si>
@@ -4421,6 +4421,42 @@
   </si>
   <si>
     <t>NEN 2660-2:2022</t>
+  </si>
+  <si>
+    <t>cdc</t>
+  </si>
+  <si>
+    <t>The Construction Dataset Context (CDC) ontology is an extension of DCAT v2.0, a W3C Recommendation ontology for describing (RDF and non-RDF) datasets published on the Web. Using this extension, it becomes possible to describe a context for construction-related datasets that are being distributed using Web technology as well as datasets that are not shared outside an organization such as local copies, work in progress and other datasets that remain internal. This dataset metadata encompasses the temporal context (period or snapshot), the type of content of the dataset (as-built, design, etc.) and relations between contextualized datasets (previous as-built, requirements related to a design, etc.). In addition, this DCAT extension also provides terminology for managing dataset distributions that are scoped to a certain (named or default) graph of an RDF file or quadstore</t>
+  </si>
+  <si>
+    <t>https://w3id.org/cdc#</t>
+  </si>
+  <si>
+    <t>bot, dot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dcat, dcterms, foaf, schema, vann, vcard, voaf, vs</t>
+  </si>
+  <si>
+    <t>conse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction Semantic Enrichment ontology offers a formal representation of visual information relevant to construction site imagery. It is designed to support the development of semantic-enriched visual analytic systems in the construction domain. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.aei.2024.102446</t>
+  </si>
+  <si>
+    <t>sosa, dica, dice</t>
+  </si>
+  <si>
+    <t>foaf, dolce</t>
+  </si>
+  <si>
+    <t>Construction Dataset Context Ontology</t>
+  </si>
+  <si>
+    <t>Construction Semantic Enrichment Ontology</t>
   </si>
 </sst>
 </file>
@@ -13400,10 +13436,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AF122" totalsRowShown="0">
-  <autoFilter ref="A1:AF122" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF122">
-    <sortCondition ref="A1:A122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AF124" totalsRowShown="0">
+  <autoFilter ref="A1:AF124" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF124">
+    <sortCondition ref="A1:A124"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Name"/>
@@ -13820,31 +13856,31 @@
   <threadedComment ref="O33" dT="2025-01-27T09:07:56.29" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{79AF74C8-61FA-441F-B37E-08E57B208671}">
     <text>See also https://cui.unige.ch/isi/onto/citygml2.0.owl</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-23T10:41:22.38" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-23T10:41:22.38" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>Probably doesn't exist</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-24T14:23:50.05" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{1600BCBC-1571-4A78-8D74-9704C5A28051}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-24T14:23:50.05" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{1600BCBC-1571-4A78-8D74-9704C5A28051}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>It does. But, only in the paper. So, we report the information we have, but we say it has no URI, no serialisation, etc.... It's score will just be poor.</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-24T18:52:24.36" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{952301E6-D2A1-48C1-A23A-2D168D77D3F5}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-24T18:52:24.36" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{952301E6-D2A1-48C1-A23A-2D168D77D3F5}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>based on the paper, it is the Damage Mechanics Ontology (dmo). I've renamed and updated the line accordingly. I couldn't find anything about damage model ontology in general by googling. Also, if cdo and dmo are parts of dot, do they have the same parameters (version, year, etc.)?</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-24T19:36:39.49" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C7732B6E-F72C-43AF-866B-3A1A696CD7F2}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-24T19:36:39.49" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C7732B6E-F72C-43AF-866B-3A1A696CD7F2}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>Don't know. Maybe yes. It would be a reasonable assumption.</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-26T16:30:14.80" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{83D082C3-C1F0-4DF8-B013-77C63CEECD09}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-26T16:30:14.80" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{83D082C3-C1F0-4DF8-B013-77C63CEECD09}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>Actually, probably not. It would appear that dmo may in fact never have really existed...</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-26T21:00:56.46" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{4E638D6C-4D66-42D5-A4AD-640CC6203701}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-26T21:00:56.46" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{4E638D6C-4D66-42D5-A4AD-640CC6203701}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>I agree. looks like developers named it as ontology in paper, but in the end its not. Also, Section 5 of paper Conclusions and Future Work "Furthermore, it is recommended to use DOT as a modular core ontology in combination with additional web ontologies as extensions when adding more specific information, e.g. taxonomies for various damage types or national assessment standards. In this regard, three example ontologies have been developed that extend DOT with a taxonomy for damages in reinforced concrete (CDO), mechanical parameters for damaged areas (DMO) and properties based on the German inspection standard DIN 1076" . So maybe it cannot be considered as a separate ontology.</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2025-01-27T08:48:21.00" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{07B0B213-D129-405D-889E-D4386AC14C09}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+  <threadedComment ref="A45" dT="2025-01-27T08:48:21.00" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{07B0B213-D129-405D-889E-D4386AC14C09}" parentId="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
     <text>So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</text>
   </threadedComment>
-  <threadedComment ref="A68" dT="2025-01-26T16:36:49.04" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
+  <threadedComment ref="A70" dT="2025-01-26T16:36:49.04" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
     <text>This ontology seems to have 6 sub-modules. Should we add them to our database?</text>
   </threadedComment>
-  <threadedComment ref="Q68" dT="2025-01-26T16:34:12.81" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
+  <threadedComment ref="Q70" dT="2025-01-26T16:34:12.81" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
     <text>Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -13854,7 +13890,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="O69" dT="2025-01-28T22:11:27.07" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
+  <threadedComment ref="O71" dT="2025-01-28T22:11:27.07" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
     <text xml:space="preserve">See also http://semantic.eurobau.com/eurobau-utility.owl </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -13863,7 +13899,7 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="O78" dT="2025-01-28T21:38:48.03" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
+  <threadedComment ref="O80" dT="2025-01-28T21:38:48.03" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
     <text xml:space="preserve">See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -13872,22 +13908,22 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="A82" dT="2025-01-26T16:57:22.56" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
+  <threadedComment ref="A84" dT="2025-01-26T16:57:22.56" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
     <text>Note: used to be ontology iddo.</text>
   </threadedComment>
-  <threadedComment ref="Z89" dT="2025-01-23T11:59:16.76" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+  <threadedComment ref="Z91" dT="2025-01-23T11:59:16.76" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
     <text>Occupant Property Taxonomy (2024). DOI: 10.3233/SW-223254</text>
   </threadedComment>
-  <threadedComment ref="Z89" dT="2025-01-24T14:29:34.39" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{B6B06869-5DFE-4585-B2D2-8A4FE6A12535}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+  <threadedComment ref="Z91" dT="2025-01-24T14:29:34.39" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{B6B06869-5DFE-4585-B2D2-8A4FE6A12535}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
     <text xml:space="preserve">If we miss an ontology in our database, just add it :) </text>
   </threadedComment>
-  <threadedComment ref="Z89" dT="2025-01-24T19:08:40.52" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{55AC32E9-6DF5-4BFA-9A88-BFE65D93E759}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+  <threadedComment ref="Z91" dT="2025-01-24T19:08:40.52" personId="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" id="{55AC32E9-6DF5-4BFA-9A88-BFE65D93E759}" parentId="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
     <text>We don't :) The ontology is extended by developers with this taxonomy in 2024</text>
   </threadedComment>
-  <threadedComment ref="P98" dT="2025-01-27T09:06:43.47" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
+  <threadedComment ref="P100" dT="2025-01-27T09:06:43.47" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
     <text>@Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</text>
   </threadedComment>
-  <threadedComment ref="O103" dT="2025-01-27T10:48:53.23" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
+  <threadedComment ref="O105" dT="2025-01-27T10:48:53.23" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
     <text>See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</text>
   </threadedComment>
 </ThreadedComments>
@@ -24332,7 +24368,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AG122"/>
+  <dimension ref="A1:AG124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:M1048576"/>
@@ -27850,34 +27886,34 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>1115</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>1105</v>
       </c>
       <c r="C41" t="s">
         <v>139</v>
       </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
         <v>212</v>
       </c>
       <c r="M41" t="s">
-        <v>213</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>215</v>
+        <v>1106</v>
+      </c>
+      <c r="N41" s="191" t="s">
+        <v>1107</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>217</v>
+        <v>1108</v>
+      </c>
+      <c r="Q41" s="196" t="s">
+        <v>1109</v>
       </c>
       <c r="R41" s="184" t="s">
         <v>67</v>
@@ -27886,7 +27922,7 @@
         <v>67</v>
       </c>
       <c r="T41" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U41" s="184" t="s">
         <v>67</v>
@@ -27904,63 +27940,60 @@
         <v>67</v>
       </c>
       <c r="Z41" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB41">
+        <v>67</v>
+      </c>
+      <c r="AB41" s="195">
         <f>COUNTIF(R41:T41, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="195">
         <f>COUNTIF(U41:W41, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="195">
         <f>COUNTIF(X41:Z41, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE41" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>1116</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>1110</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <v>2024</v>
       </c>
       <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M42" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>207</v>
+        <v>1111</v>
+      </c>
+      <c r="N42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O42" s="191" t="s">
+        <v>1112</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>209</v>
+        <v>1113</v>
+      </c>
+      <c r="Q42" s="196" t="s">
+        <v>1114</v>
       </c>
       <c r="R42" s="184" t="s">
         <v>67</v>
@@ -27972,16 +28005,16 @@
         <v>67</v>
       </c>
       <c r="U42" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V42" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="V42" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="W42" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X42" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y42" s="184" t="s">
         <v>67</v>
@@ -27989,144 +28022,138 @@
       <c r="Z42" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="AA42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB42">
+      <c r="AB42" s="195">
         <f>COUNTIF(R42:T42, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="195">
         <f>COUNTIF(U42:W42, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD42" s="195">
+        <f>COUNTIF(X42:Z42, "yes")</f>
         <v>2</v>
       </c>
-      <c r="AD42">
-        <f>COUNTIF(X42:Z42, "yes")</f>
-        <v>3</v>
+      <c r="AE42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="44" t="s">
-        <v>304</v>
+      <c r="A43" t="s">
+        <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43">
-        <v>2019</v>
-      </c>
-      <c r="E43" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="M43" t="s">
-        <v>197</v>
-      </c>
-      <c r="N43" t="s">
-        <v>84</v>
+        <v>213</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="P43" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="Q43" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="R43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T43" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y43" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z43" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA43" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AB43">
         <f>COUNTIF(R43:T43, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC43">
         <f>COUNTIF(U43:W43, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD43">
         <f>COUNTIF(X43:Z43, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE43" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF43" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44">
-        <v>0.8</v>
-      </c>
-      <c r="D44">
-        <v>2019</v>
-      </c>
-      <c r="E44" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M44" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="P44" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="Q44" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="R44" s="184" t="s">
         <v>67</v>
@@ -28135,11 +28162,11 @@
         <v>67</v>
       </c>
       <c r="T44" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U44" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="V44" s="184" t="s">
         <v>67</v>
       </c>
@@ -28153,87 +28180,84 @@
         <v>67</v>
       </c>
       <c r="Z44" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AB44">
         <f>COUNTIF(R44:T44, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC44">
         <f>COUNTIF(U44:W44, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD44">
         <f>COUNTIF(X44:Z44, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>333</v>
+      <c r="A45" s="44" t="s">
+        <v>304</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>305</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
       </c>
       <c r="D45">
-        <v>2023</v>
+        <v>2019</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>212</v>
-      </c>
-      <c r="L45" t="s">
-        <v>335</v>
+        <v>84</v>
       </c>
       <c r="M45" t="s">
-        <v>336</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>337</v>
+        <v>197</v>
+      </c>
+      <c r="N45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="P45" t="s">
-        <v>338</v>
+        <v>84</v>
       </c>
       <c r="Q45" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="R45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T45" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y45" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z45" s="184" t="s">
         <v>68</v>
@@ -28243,15 +28267,15 @@
       </c>
       <c r="AB45">
         <f>COUNTIF(R45:T45, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <f>COUNTIF(U45:W45, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD45">
         <f>COUNTIF(X45:Z45, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="s">
         <v>80</v>
@@ -28262,43 +28286,40 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <v>0.8</v>
       </c>
       <c r="D46">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" t="s">
-        <v>315</v>
+        <v>74</v>
+      </c>
+      <c r="M46" t="s">
+        <v>321</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P46" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q46" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="R46" s="184" t="s">
         <v>67</v>
@@ -28307,7 +28328,7 @@
         <v>67</v>
       </c>
       <c r="T46" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U46" s="184" t="s">
         <v>67</v>
@@ -28322,17 +28343,17 @@
         <v>67</v>
       </c>
       <c r="Y46" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z46" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA46" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB46">
         <f>COUNTIF(R46:T46, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC46">
         <f>COUNTIF(U46:W46, "yes")</f>
@@ -28340,7 +28361,7 @@
       </c>
       <c r="AD46">
         <f>COUNTIF(X46:Z46, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE46" t="s">
         <v>80</v>
@@ -28351,43 +28372,43 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="D47">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
       </c>
       <c r="M47" t="s">
-        <v>221</v>
-      </c>
-      <c r="N47" t="s">
-        <v>84</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>222</v>
+        <v>336</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P47" t="s">
+        <v>338</v>
       </c>
       <c r="Q47" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="R47" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S47" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T47" s="184" t="s">
         <v>68</v>
@@ -28399,31 +28420,31 @@
         <v>67</v>
       </c>
       <c r="W47" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X47" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y47" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z47" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA47" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AB47">
         <f>COUNTIF(R47:T47, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC47">
         <f>COUNTIF(U47:W47, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD47">
         <f>COUNTIF(X47:Z47, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE47" t="s">
         <v>80</v>
@@ -28434,40 +28455,43 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C48">
-        <v>0.5</v>
+        <v>314</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
       </c>
       <c r="D48">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
       </c>
       <c r="K48" t="s">
         <v>61</v>
       </c>
-      <c r="M48" t="s">
-        <v>230</v>
+      <c r="L48" t="s">
+        <v>315</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="Q48" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="R48" s="184" t="s">
         <v>67</v>
@@ -28476,32 +28500,32 @@
         <v>67</v>
       </c>
       <c r="T48" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U48" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V48" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W48" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X48" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y48" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="U48" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V48" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W48" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="X48" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y48" s="186" t="s">
-        <v>67</v>
-      </c>
       <c r="Z48" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA48" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AB48">
         <f>COUNTIF(R48:T48, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC48">
         <f>COUNTIF(U48:W48, "yes")</f>
@@ -28509,48 +28533,48 @@
       </c>
       <c r="AD48">
         <f>COUNTIF(X48:Z48, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49">
-        <v>0.5</v>
+        <v>219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
       </c>
       <c r="D49">
-        <v>2019</v>
-      </c>
-      <c r="E49" t="s">
-        <v>229</v>
+        <v>2024</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M49" t="s">
-        <v>238</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
+      </c>
+      <c r="N49" t="s">
+        <v>84</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="Q49" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="R49" s="184" t="s">
         <v>67</v>
@@ -28568,19 +28592,19 @@
         <v>67</v>
       </c>
       <c r="W49" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X49" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="Y49" s="186" t="s">
-        <v>67</v>
+      <c r="Y49" s="184" t="s">
+        <v>68</v>
       </c>
       <c r="Z49" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA49" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AB49">
         <f>COUNTIF(R49:T49, "yes")</f>
@@ -28588,55 +28612,55 @@
       </c>
       <c r="AC49">
         <f>COUNTIF(U49:W49, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD49">
         <f>COUNTIF(X49:Z49, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE49" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C50">
         <v>0.5</v>
       </c>
       <c r="D50">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="M50" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="Q50" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="R50" s="184" t="s">
         <v>67</v>
@@ -28663,10 +28687,10 @@
         <v>67</v>
       </c>
       <c r="Z50" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA50" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="AB50">
         <f>COUNTIF(R50:T50, "yes")</f>
@@ -28678,7 +28702,7 @@
       </c>
       <c r="AD50">
         <f>COUNTIF(X50:Z50, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE50" t="s">
         <v>70</v>
@@ -28689,16 +28713,16 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C51">
         <v>0.5</v>
       </c>
       <c r="D51">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E51" t="s">
         <v>229</v>
@@ -28709,29 +28733,23 @@
       <c r="K51" t="s">
         <v>212</v>
       </c>
-      <c r="L51" t="s">
-        <v>244</v>
-      </c>
       <c r="M51" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="P51" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q51" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="R51" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S51" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T51" s="184" t="s">
         <v>68</v>
@@ -28755,11 +28773,11 @@
         <v>67</v>
       </c>
       <c r="AA51" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB51">
         <f>COUNTIF(R51:T51, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <f>COUNTIF(U51:W51, "yes")</f>
@@ -28778,40 +28796,40 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C52">
         <v>0.5</v>
       </c>
       <c r="D52">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K52" t="s">
         <v>212</v>
       </c>
       <c r="M52" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q52" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="R52" s="184" t="s">
         <v>67</v>
@@ -28838,10 +28856,10 @@
         <v>67</v>
       </c>
       <c r="Z52" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA52" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AB52">
         <f>COUNTIF(R52:T52, "yes")</f>
@@ -28853,7 +28871,7 @@
       </c>
       <c r="AD52">
         <f>COUNTIF(X52:Z52, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE52" t="s">
         <v>70</v>
@@ -28864,29 +28882,49 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="s">
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>212</v>
+      </c>
+      <c r="L53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M53" t="s">
+        <v>245</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="P53" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="Q53" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="R53" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S53" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T53" s="184" t="s">
         <v>68</v>
@@ -28907,14 +28945,14 @@
         <v>67</v>
       </c>
       <c r="Z53" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA53" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="AB53">
         <f>COUNTIF(R53:T53, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC53">
         <f>COUNTIF(U53:W53, "yes")</f>
@@ -28922,48 +28960,51 @@
       </c>
       <c r="AD53">
         <f>COUNTIF(X53:Z53, "yes")</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C54">
         <v>0.5</v>
       </c>
       <c r="D54">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
         <v>212</v>
       </c>
-      <c r="L54" t="s">
-        <v>267</v>
-      </c>
       <c r="M54" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="P54" t="s">
         <v>262</v>
       </c>
       <c r="Q54" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="R54" s="184" t="s">
         <v>67</v>
@@ -28990,7 +29031,7 @@
         <v>67</v>
       </c>
       <c r="Z54" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA54" t="s">
         <v>89</v>
@@ -29005,7 +29046,7 @@
       </c>
       <c r="AD54">
         <f>COUNTIF(X54:Z54, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE54" t="s">
         <v>70</v>
@@ -29016,46 +29057,29 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
-      </c>
-      <c r="C55">
-        <v>0.5</v>
-      </c>
-      <c r="D55">
-        <v>2019</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" t="s">
-        <v>61</v>
-      </c>
-      <c r="M55" t="s">
-        <v>274</v>
+        <v>5</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>276</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="Q55" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="R55" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S55" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T55" s="184" t="s">
         <v>68</v>
@@ -29076,14 +29100,14 @@
         <v>67</v>
       </c>
       <c r="Z55" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA55" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AB55">
         <f>COUNTIF(R55:T55, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <f>COUNTIF(U55:W55, "yes")</f>
@@ -29091,54 +29115,48 @@
       </c>
       <c r="AD55">
         <f>COUNTIF(X55:Z55, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C56">
         <v>0.5</v>
       </c>
       <c r="D56">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
         <v>212</v>
       </c>
+      <c r="L56" t="s">
+        <v>267</v>
+      </c>
       <c r="M56" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P56" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="Q56" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="R56" s="184" t="s">
         <v>67</v>
@@ -29168,7 +29186,7 @@
         <v>68</v>
       </c>
       <c r="AA56" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AB56">
         <f>COUNTIF(R56:T56, "yes")</f>
@@ -29191,10 +29209,10 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C57">
         <v>0.5</v>
@@ -29203,28 +29221,28 @@
         <v>2019</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="M57" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="Q57" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="R57" s="184" t="s">
         <v>67</v>
@@ -29254,7 +29272,7 @@
         <v>67</v>
       </c>
       <c r="AA57" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AB57">
         <f>COUNTIF(R57:T57, "yes")</f>
@@ -29277,29 +29295,49 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>280</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>2019</v>
+      </c>
+      <c r="E58" t="s">
+        <v>251</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>212</v>
+      </c>
+      <c r="M58" t="s">
+        <v>281</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="P58" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="Q58" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="R58" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S58" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T58" s="184" t="s">
         <v>68</v>
@@ -29323,11 +29361,11 @@
         <v>68</v>
       </c>
       <c r="AA58" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AB58">
         <f>COUNTIF(R58:T58, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC58">
         <f>COUNTIF(U58:W58, "yes")</f>
@@ -29337,29 +29375,55 @@
         <f>COUNTIF(X58:Z58, "yes")</f>
         <v>2</v>
       </c>
+      <c r="AE58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>287</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>2019</v>
+      </c>
+      <c r="E59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>212</v>
+      </c>
+      <c r="M59" t="s">
+        <v>288</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="P59" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="Q59" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="R59" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S59" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T59" s="184" t="s">
         <v>68</v>
@@ -29383,11 +29447,11 @@
         <v>67</v>
       </c>
       <c r="AA59" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="AB59">
         <f>COUNTIF(R59:T59, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC59">
         <f>COUNTIF(U59:W59, "yes")</f>
@@ -29397,43 +29461,32 @@
         <f>COUNTIF(X59:Z59, "yes")</f>
         <v>3</v>
       </c>
+      <c r="AE59" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60">
-        <v>0.5</v>
-      </c>
-      <c r="D60">
-        <v>2020</v>
-      </c>
-      <c r="E60" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
-      <c r="K60" t="s">
-        <v>212</v>
-      </c>
-      <c r="M60" t="s">
-        <v>301</v>
-      </c>
       <c r="N60" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s">
         <v>84</v>
       </c>
       <c r="Q60" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="R60" s="184" t="s">
         <v>67</v>
@@ -29460,10 +29513,10 @@
         <v>67</v>
       </c>
       <c r="Z60" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA60" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AB60">
         <f>COUNTIF(R60:T60, "yes")</f>
@@ -29475,60 +29528,34 @@
       </c>
       <c r="AD60">
         <f>COUNTIF(X60:Z60, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
-      </c>
-      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s">
         <v>84</v>
       </c>
-      <c r="D61">
-        <v>2023</v>
-      </c>
-      <c r="E61" t="s">
-        <v>229</v>
-      </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>5</v>
-      </c>
-      <c r="K61" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" t="s">
-        <v>342</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="P61" t="s">
-        <v>344</v>
-      </c>
       <c r="Q61" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="R61" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S61" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T61" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U61" s="184" t="s">
         <v>67</v>
@@ -29542,18 +29569,18 @@
       <c r="X61" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="Y61" s="184" t="s">
+      <c r="Y61" s="186" t="s">
         <v>67</v>
       </c>
       <c r="Z61" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA61" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AB61">
         <f>COUNTIF(R61:T61, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <f>COUNTIF(U61:W61, "yes")</f>
@@ -29561,57 +29588,51 @@
       </c>
       <c r="AD61">
         <f>COUNTIF(X61:Z61, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>482</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
-        <v>483</v>
-      </c>
-      <c r="C62" t="s">
-        <v>122</v>
+        <v>300</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
       </c>
       <c r="D62">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E62" t="s">
         <v>229</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="M62" t="s">
-        <v>484</v>
+        <v>301</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>485</v>
+        <v>302</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="P62" t="s">
-        <v>1035</v>
+        <v>84</v>
       </c>
       <c r="Q62" t="s">
-        <v>486</v>
+        <v>241</v>
       </c>
       <c r="R62" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S62" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T62" s="184" t="s">
         <v>68</v>
@@ -29628,18 +29649,18 @@
       <c r="X62" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="Y62" s="184" t="s">
+      <c r="Y62" s="186" t="s">
         <v>67</v>
       </c>
       <c r="Z62" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA62" t="s">
         <v>119</v>
       </c>
       <c r="AB62">
         <f>COUNTIF(R62:T62, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC62">
         <f>COUNTIF(U62:W62, "yes")</f>
@@ -29647,54 +29668,51 @@
       </c>
       <c r="AD62">
         <f>COUNTIF(X62:Z62, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE62" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF62" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D63">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E63" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
         <v>5</v>
       </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
       <c r="K63" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M63" t="s">
-        <v>190</v>
+        <v>342</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="P63" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q63" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="R63" s="184" t="s">
         <v>67</v>
@@ -29703,7 +29721,7 @@
         <v>67</v>
       </c>
       <c r="T63" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U63" s="184" t="s">
         <v>67</v>
@@ -29717,18 +29735,18 @@
       <c r="X63" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="Y63" s="185" t="s">
-        <v>68</v>
+      <c r="Y63" s="184" t="s">
+        <v>67</v>
       </c>
       <c r="Z63" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA63" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AB63">
         <f>COUNTIF(R63:T63, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC63">
         <f>COUNTIF(U63:W63, "yes")</f>
@@ -29736,7 +29754,7 @@
       </c>
       <c r="AD63">
         <f>COUNTIF(X63:Z63, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE63" t="s">
         <v>80</v>
@@ -29747,43 +29765,46 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>352</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
-      </c>
-      <c r="D64" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="D64">
+        <v>2019</v>
+      </c>
+      <c r="E64" t="s">
+        <v>229</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
       </c>
       <c r="K64" t="s">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="M64" t="s">
-        <v>356</v>
+        <v>484</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="P64" t="s">
-        <v>84</v>
+        <v>1035</v>
       </c>
       <c r="Q64" t="s">
-        <v>359</v>
+        <v>486</v>
       </c>
       <c r="R64" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S64" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T64" s="184" t="s">
         <v>68</v>
@@ -29811,7 +29832,7 @@
       </c>
       <c r="AB64">
         <f>COUNTIF(R64:T64, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC64">
         <f>COUNTIF(U64:W64, "yes")</f>
@@ -29830,40 +29851,43 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1088</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s">
-        <v>1080</v>
+        <v>327</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="D65">
+        <v>2022</v>
+      </c>
+      <c r="E65" t="s">
+        <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
       </c>
       <c r="K65" t="s">
         <v>84</v>
       </c>
-      <c r="L65" t="s">
-        <v>1090</v>
-      </c>
       <c r="M65" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N65" s="191" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O65" s="191" t="s">
-        <v>1086</v>
+        <v>190</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="P65" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q65" s="196" t="s">
-        <v>1091</v>
+        <v>331</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>332</v>
       </c>
       <c r="R65" s="184" t="s">
         <v>67</v>
@@ -29872,7 +29896,7 @@
         <v>67</v>
       </c>
       <c r="T65" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U65" s="184" t="s">
         <v>67</v>
@@ -29886,76 +29910,76 @@
       <c r="X65" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="Y65" s="184" t="s">
-        <v>67</v>
+      <c r="Y65" s="185" t="s">
+        <v>68</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB65" s="195">
+        <v>68</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB65">
         <f>COUNTIF(R65:T65, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AC65" s="195">
+        <v>2</v>
+      </c>
+      <c r="AC65">
         <f>COUNTIF(U65:W65, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD65" s="195">
+      <c r="AD65">
         <f>COUNTIF(X65:Z65, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AE65" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF65" s="195" t="s">
-        <v>1092</v>
+        <v>1</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1087</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s">
-        <v>1079</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
         <v>84</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K66" t="s">
+        <v>355</v>
+      </c>
+      <c r="M66" t="s">
+        <v>356</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P66" t="s">
         <v>84</v>
       </c>
-      <c r="L66" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M66" t="s">
-        <v>1083</v>
-      </c>
-      <c r="N66" s="191" t="s">
-        <v>1082</v>
-      </c>
-      <c r="O66" s="191" t="s">
-        <v>1085</v>
-      </c>
-      <c r="P66" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q66" s="196" t="s">
-        <v>1091</v>
+      <c r="Q66" t="s">
+        <v>359</v>
       </c>
       <c r="R66" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S66" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T66" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U66" s="184" t="s">
         <v>67</v>
@@ -29973,66 +29997,78 @@
         <v>67</v>
       </c>
       <c r="Z66" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB66" s="195">
+        <v>68</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB66">
         <f>COUNTIF(R66:T66, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AC66" s="195">
+        <v>1</v>
+      </c>
+      <c r="AC66">
         <f>COUNTIF(U66:W66, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD66" s="195">
+      <c r="AD66">
         <f>COUNTIF(X66:Z66, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AE66" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF66" s="195" t="s">
-        <v>1092</v>
+        <v>2</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>705</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="C67">
-        <v>1.03</v>
-      </c>
-      <c r="D67">
-        <v>2013</v>
+        <v>1088</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>84</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1090</v>
       </c>
       <c r="M67" t="s">
-        <v>707</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>708</v>
+        <v>1084</v>
+      </c>
+      <c r="N67" s="191" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O67" s="191" t="s">
+        <v>1086</v>
       </c>
       <c r="P67" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="Q67" t="s">
-        <v>699</v>
+        <v>1091</v>
       </c>
       <c r="R67" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S67" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T67" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U67" s="184" t="s">
         <v>67</v>
@@ -30041,81 +30077,81 @@
         <v>67</v>
       </c>
       <c r="W67" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X67" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y67" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Z67" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="AB67">
         <f>COUNTIF(R67:T67, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC67">
         <f>COUNTIF(U67:W67, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD67">
         <f>COUNTIF(X67:Z67, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE67" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF67" t="s">
-        <v>81</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68" s="44" t="s">
-        <v>346</v>
+      <c r="A68" t="s">
+        <v>1087</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>2021</v>
-      </c>
-      <c r="E68" t="s">
-        <v>251</v>
+        <v>1079</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>84</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
       </c>
       <c r="K68" t="s">
-        <v>348</v>
+        <v>84</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1089</v>
       </c>
       <c r="M68" t="s">
-        <v>349</v>
-      </c>
-      <c r="N68" t="s">
-        <v>84</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>350</v>
+        <v>1083</v>
+      </c>
+      <c r="N68" s="191" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O68" s="191" t="s">
+        <v>1085</v>
       </c>
       <c r="P68" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q68" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="R68" s="185" t="s">
-        <v>80</v>
+        <v>366</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R68" s="184" t="s">
+        <v>67</v>
       </c>
       <c r="S68" s="184" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="T68" s="184" t="s">
         <v>67</v>
@@ -30130,20 +30166,17 @@
         <v>67</v>
       </c>
       <c r="X68" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y68" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z68" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="AB68">
         <f>COUNTIF(R68:T68, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC68">
         <f>COUNTIF(U68:W68, "yes")</f>
@@ -30151,51 +30184,45 @@
       </c>
       <c r="AD68">
         <f>COUNTIF(X68:Z68, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE68" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF68" t="s">
-        <v>81</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>705</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>369</v>
+        <v>706</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="D69">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" t="s">
-        <v>370</v>
-      </c>
-      <c r="L69" t="s">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="M69" t="s">
-        <v>372</v>
-      </c>
-      <c r="N69" t="s">
-        <v>84</v>
+        <v>707</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>373</v>
+        <v>708</v>
       </c>
       <c r="P69" t="s">
         <v>84</v>
       </c>
       <c r="Q69" t="s">
-        <v>374</v>
+        <v>699</v>
       </c>
       <c r="R69" s="184" t="s">
         <v>67</v>
@@ -30216,7 +30243,7 @@
         <v>68</v>
       </c>
       <c r="X69" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y69" s="184" t="s">
         <v>67</v>
@@ -30225,7 +30252,7 @@
         <v>68</v>
       </c>
       <c r="AA69" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AB69">
         <f>COUNTIF(R69:T69, "yes")</f>
@@ -30237,7 +30264,7 @@
       </c>
       <c r="AD69">
         <f>COUNTIF(X69:Z69, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE69" t="s">
         <v>80</v>
@@ -30247,65 +30274,62 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>732</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="A70" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>347</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2021</v>
+      </c>
+      <c r="E70" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" t="s">
+        <v>348</v>
+      </c>
+      <c r="M70" t="s">
+        <v>349</v>
+      </c>
+      <c r="N70" t="s">
         <v>84</v>
       </c>
-      <c r="D70">
-        <v>2022</v>
-      </c>
-      <c r="E70" t="s">
-        <v>534</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70" t="s">
-        <v>61</v>
-      </c>
-      <c r="M70" t="s">
-        <v>734</v>
-      </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="P70" t="s">
         <v>84</v>
       </c>
-      <c r="O70" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="P70" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>736</v>
-      </c>
-      <c r="R70" s="184" t="s">
-        <v>67</v>
+      <c r="Q70" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="R70" s="185" t="s">
+        <v>80</v>
       </c>
       <c r="S70" s="184" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T70" s="184" t="s">
         <v>67</v>
       </c>
       <c r="U70" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V70" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W70" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X70" s="184" t="s">
         <v>68</v>
-      </c>
-      <c r="V70" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W70" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="X70" s="184" t="s">
-        <v>67</v>
       </c>
       <c r="Y70" s="184" t="s">
         <v>68</v>
@@ -30318,15 +30342,15 @@
       </c>
       <c r="AB70">
         <f>COUNTIF(R70:T70, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <f>COUNTIF(U70:W70, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD70">
         <f>COUNTIF(X70:Z70, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="s">
         <v>80</v>
@@ -30337,40 +30361,40 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>397</v>
-      </c>
-      <c r="B71" t="s">
-        <v>398</v>
-      </c>
-      <c r="C71" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>2020</v>
-      </c>
-      <c r="E71" t="s">
-        <v>229</v>
+        <v>2006</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K71" t="s">
-        <v>61</v>
+        <v>370</v>
+      </c>
+      <c r="L71" t="s">
+        <v>371</v>
       </c>
       <c r="M71" t="s">
-        <v>400</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>401</v>
+        <v>372</v>
+      </c>
+      <c r="N71" t="s">
+        <v>84</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="P71" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="Q71" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="R71" s="184" t="s">
         <v>67</v>
@@ -30388,7 +30412,7 @@
         <v>67</v>
       </c>
       <c r="W71" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X71" s="184" t="s">
         <v>67</v>
@@ -30397,10 +30421,10 @@
         <v>67</v>
       </c>
       <c r="Z71" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA71" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB71">
         <f>COUNTIF(R71:T71, "yes")</f>
@@ -30408,11 +30432,11 @@
       </c>
       <c r="AC71">
         <f>COUNTIF(U71:W71, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD71">
         <f>COUNTIF(X71:Z71, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE71" t="s">
         <v>80</v>
@@ -30423,82 +30447,85 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>391</v>
-      </c>
-      <c r="B72" t="s">
-        <v>392</v>
+        <v>732</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>733</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D72">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E72" t="s">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
       </c>
       <c r="K72" t="s">
         <v>61</v>
       </c>
       <c r="M72" t="s">
-        <v>393</v>
+        <v>734</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>395</v>
+        <v>735</v>
       </c>
       <c r="P72" t="s">
-        <v>151</v>
+        <v>1034</v>
       </c>
       <c r="Q72" t="s">
-        <v>396</v>
+        <v>736</v>
       </c>
       <c r="R72" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S72" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T72" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U72" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T72" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U72" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="V72" s="184" t="s">
         <v>67</v>
       </c>
       <c r="W72" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X72" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y72" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z72" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA72" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AB72">
         <f>COUNTIF(R72:T72, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC72">
         <f>COUNTIF(U72:W72, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD72">
         <f>COUNTIF(X72:Z72, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="s">
         <v>80</v>
@@ -30509,40 +30536,40 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B73" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C73" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D73">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E73" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>387</v>
+        <v>61</v>
       </c>
       <c r="M73" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="P73" t="s">
-        <v>84</v>
+        <v>402</v>
       </c>
       <c r="Q73" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="R73" s="184" t="s">
         <v>67</v>
@@ -30569,10 +30596,10 @@
         <v>67</v>
       </c>
       <c r="Z73" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA73" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB73">
         <f>COUNTIF(R73:T73, "yes")</f>
@@ -30584,7 +30611,7 @@
       </c>
       <c r="AD73">
         <f>COUNTIF(X73:Z73, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE73" t="s">
         <v>80</v>
@@ -30594,47 +30621,47 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A74" s="23" t="s">
-        <v>1053</v>
+      <c r="A74" t="s">
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>1054</v>
+        <v>392</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D74">
-        <v>2021</v>
+        <v>2023</v>
+      </c>
+      <c r="E74" t="s">
+        <v>386</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K74" t="s">
         <v>61</v>
       </c>
       <c r="M74" t="s">
-        <v>1077</v>
-      </c>
-      <c r="N74" s="191" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O74" s="191" t="s">
-        <v>1056</v>
+        <v>393</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="P74" t="s">
         <v>151</v>
       </c>
       <c r="Q74" t="s">
-        <v>1057</v>
+        <v>396</v>
       </c>
       <c r="R74" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S74" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T74" s="184" t="s">
         <v>67</v>
@@ -30655,11 +30682,14 @@
         <v>67</v>
       </c>
       <c r="Z74" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>89</v>
       </c>
       <c r="AB74">
         <f>COUNTIF(R74:T74, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC74">
         <f>COUNTIF(U74:W74, "yes")</f>
@@ -30667,7 +30697,7 @@
       </c>
       <c r="AD74">
         <f>COUNTIF(X74:Z74, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE74" t="s">
         <v>80</v>
@@ -30678,41 +30708,43 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>737</v>
-      </c>
-      <c r="B75" s="24"/>
+        <v>383</v>
+      </c>
+      <c r="B75" t="s">
+        <v>384</v>
+      </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="D75">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E75" t="s">
-        <v>562</v>
+        <v>386</v>
       </c>
       <c r="F75" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K75" t="s">
-        <v>738</v>
+        <v>387</v>
       </c>
       <c r="M75" t="s">
-        <v>739</v>
-      </c>
-      <c r="N75" t="s">
-        <v>84</v>
+        <v>388</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>740</v>
+        <v>390</v>
       </c>
       <c r="P75" t="s">
         <v>84</v>
       </c>
       <c r="Q75" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="R75" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S75" s="184" t="s">
         <v>68</v>
@@ -30727,31 +30759,31 @@
         <v>67</v>
       </c>
       <c r="W75" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X75" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y75" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z75" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA75" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AB75">
         <f>COUNTIF(R75:T75, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <f>COUNTIF(U75:W75, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD75">
         <f>COUNTIF(X75:Z75, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE75" t="s">
         <v>80</v>
@@ -30762,37 +30794,40 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="B76" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D76">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
       <c r="K76" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M76" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N76" s="192" t="s">
-        <v>84</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
+      </c>
+      <c r="N76" s="191" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O76" s="191" t="s">
+        <v>1056</v>
       </c>
       <c r="P76" t="s">
-        <v>1075</v>
+        <v>151</v>
       </c>
       <c r="Q76" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="R76" s="184" t="s">
         <v>67</v>
@@ -30801,37 +30836,37 @@
         <v>67</v>
       </c>
       <c r="T76" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U76" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V76" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W76" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X76" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y76" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z76" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB76">
         <f>COUNTIF(R76:T76, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC76">
         <f>COUNTIF(U76:W76, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD76">
         <f>COUNTIF(X76:Z76, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE76" t="s">
         <v>80</v>
@@ -30842,52 +30877,41 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>419</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1034</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" t="s">
         <v>84</v>
       </c>
       <c r="D77">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E77" t="s">
-        <v>421</v>
+        <v>562</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
       </c>
-      <c r="G77" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>190</v>
-      </c>
-      <c r="J77" t="s">
-        <v>422</v>
-      </c>
       <c r="K77" t="s">
-        <v>370</v>
+        <v>738</v>
       </c>
       <c r="M77" t="s">
-        <v>423</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>424</v>
+        <v>739</v>
+      </c>
+      <c r="N77" t="s">
+        <v>84</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>425</v>
+        <v>740</v>
       </c>
       <c r="P77" t="s">
         <v>84</v>
       </c>
       <c r="Q77" t="s">
-        <v>426</v>
+        <v>84</v>
       </c>
       <c r="R77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S77" s="184" t="s">
         <v>68</v>
@@ -30902,31 +30926,31 @@
         <v>67</v>
       </c>
       <c r="W77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y77" s="184" t="s">
         <v>68</v>
       </c>
       <c r="Z77" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA77" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB77">
         <f>COUNTIF(R77:T77, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC77">
         <f>COUNTIF(U77:W77, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD77">
         <f>COUNTIF(X77:Z77, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="s">
         <v>80</v>
@@ -30936,44 +30960,44 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>523</v>
+      <c r="A78" s="23" t="s">
+        <v>1072</v>
       </c>
       <c r="B78" t="s">
-        <v>524</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
+        <v>1073</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
       </c>
       <c r="D78">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K78" t="s">
         <v>84</v>
       </c>
       <c r="M78" t="s">
-        <v>525</v>
-      </c>
-      <c r="N78" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N78" s="192" t="s">
         <v>84</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>526</v>
+        <v>1078</v>
       </c>
       <c r="P78" t="s">
-        <v>84</v>
+        <v>1075</v>
       </c>
       <c r="Q78" t="s">
-        <v>66</v>
+        <v>1076</v>
       </c>
       <c r="R78" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S78" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T78" s="184" t="s">
         <v>68</v>
@@ -30981,8 +31005,8 @@
       <c r="U78" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="V78" s="185" t="s">
-        <v>67</v>
+      <c r="V78" s="184" t="s">
+        <v>68</v>
       </c>
       <c r="W78" s="184" t="s">
         <v>68</v>
@@ -30991,25 +31015,22 @@
         <v>67</v>
       </c>
       <c r="Y78" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z78" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AA78" t="s">
-        <v>89</v>
-      </c>
       <c r="AB78">
         <f>COUNTIF(R78:T78, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC78">
         <f>COUNTIF(U78:W78, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD78">
         <f>COUNTIF(X78:Z78, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE78" t="s">
         <v>80</v>
@@ -31020,49 +31041,58 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B79" t="s">
-        <v>414</v>
-      </c>
-      <c r="C79">
-        <v>0.2</v>
+        <v>1034</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
       </c>
       <c r="D79">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" t="s">
+        <v>422</v>
       </c>
       <c r="K79" t="s">
-        <v>61</v>
-      </c>
-      <c r="L79" t="s">
-        <v>415</v>
+        <v>370</v>
+      </c>
+      <c r="M79" t="s">
+        <v>423</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P79" t="s">
-        <v>1036</v>
+        <v>84</v>
       </c>
       <c r="Q79" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="R79" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S79" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T79" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U79" s="184" t="s">
         <v>67</v>
@@ -31077,17 +31107,17 @@
         <v>67</v>
       </c>
       <c r="Y79" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z79" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA79" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB79">
         <f>COUNTIF(R79:T79, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <f>COUNTIF(U79:W79, "yes")</f>
@@ -31106,37 +31136,37 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="C80">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>2024</v>
-      </c>
-      <c r="E80" t="s">
-        <v>85</v>
+        <v>2005</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>74</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>429</v>
+        <v>84</v>
+      </c>
+      <c r="M80" t="s">
+        <v>525</v>
+      </c>
+      <c r="N80" t="s">
+        <v>84</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="P80" t="s">
         <v>84</v>
       </c>
       <c r="Q80" t="s">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="R80" s="184" t="s">
         <v>67</v>
@@ -31150,11 +31180,11 @@
       <c r="U80" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="V80" s="184" t="s">
+      <c r="V80" s="185" t="s">
         <v>67</v>
       </c>
       <c r="W80" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X80" s="184" t="s">
         <v>67</v>
@@ -31166,7 +31196,7 @@
         <v>68</v>
       </c>
       <c r="AA80" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="AB80">
         <f>COUNTIF(R80:T80, "yes")</f>
@@ -31174,7 +31204,7 @@
       </c>
       <c r="AC80">
         <f>COUNTIF(U80:W80, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD80">
         <f>COUNTIF(X80:Z80, "yes")</f>
@@ -31189,37 +31219,40 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>414</v>
+      </c>
+      <c r="C81">
+        <v>0.2</v>
       </c>
       <c r="D81">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>348</v>
-      </c>
-      <c r="M81" t="s">
-        <v>438</v>
+        <v>61</v>
+      </c>
+      <c r="L81" t="s">
+        <v>415</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="P81" t="s">
-        <v>441</v>
+        <v>1036</v>
       </c>
       <c r="Q81" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="R81" s="184" t="s">
         <v>67</v>
@@ -31228,7 +31261,7 @@
         <v>67</v>
       </c>
       <c r="T81" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U81" s="184" t="s">
         <v>67</v>
@@ -31249,11 +31282,11 @@
         <v>68</v>
       </c>
       <c r="AA81" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AB81">
         <f>COUNTIF(R81:T81, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC81">
         <f>COUNTIF(U81:W81, "yes")</f>
@@ -31272,31 +31305,43 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
+        <v>428</v>
+      </c>
+      <c r="C82">
+        <v>0.1</v>
+      </c>
+      <c r="D82">
+        <v>2024</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>74</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>452</v>
+        <v>429</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="P82" t="s">
-        <v>453</v>
+        <v>84</v>
       </c>
       <c r="Q82" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="R82" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S82" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T82" s="184" t="s">
         <v>68</v>
@@ -31317,14 +31362,14 @@
         <v>67</v>
       </c>
       <c r="Z82" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA82" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB82">
         <f>COUNTIF(R82:T82, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <f>COUNTIF(U82:W82, "yes")</f>
@@ -31332,7 +31377,7 @@
       </c>
       <c r="AD82">
         <f>COUNTIF(X82:Z82, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE82" t="s">
         <v>80</v>
@@ -31343,85 +31388,79 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s">
-        <v>462</v>
-      </c>
-      <c r="C83">
-        <v>1.1000000000000001</v>
+        <v>331</v>
       </c>
       <c r="D83">
-        <v>2020</v>
-      </c>
-      <c r="E83" t="s">
-        <v>463</v>
+        <v>2024</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="M83" t="s">
-        <v>464</v>
-      </c>
-      <c r="N83" t="s">
-        <v>84</v>
+        <v>438</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
       <c r="P83" t="s">
-        <v>84</v>
+        <v>441</v>
       </c>
       <c r="Q83" t="s">
-        <v>118</v>
+        <v>442</v>
       </c>
       <c r="R83" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S83" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T83" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U83" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V83" s="184" t="s">
         <v>67</v>
       </c>
       <c r="W83" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X83" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y83" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z83" s="184" t="s">
         <v>68</v>
       </c>
       <c r="AA83" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AB83">
         <f>COUNTIF(R83:T83, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC83">
         <f>COUNTIF(U83:W83, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD83">
         <f>COUNTIF(X83:Z83, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE83" t="s">
         <v>80</v>
@@ -31432,40 +31471,25 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
-      </c>
-      <c r="C84">
-        <v>0.2</v>
-      </c>
-      <c r="D84">
-        <v>2023</v>
+        <v>451</v>
       </c>
       <c r="E84" t="s">
         <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" t="s">
-        <v>61</v>
-      </c>
-      <c r="L84" t="s">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="P84" t="s">
-        <v>84</v>
+        <v>453</v>
       </c>
       <c r="Q84" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="R84" s="184" t="s">
         <v>67</v>
@@ -31474,7 +31498,7 @@
         <v>67</v>
       </c>
       <c r="T84" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U84" s="184" t="s">
         <v>67</v>
@@ -31499,7 +31523,7 @@
       </c>
       <c r="AB84">
         <f>COUNTIF(R84:T84, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC84">
         <f>COUNTIF(U84:W84, "yes")</f>
@@ -31518,61 +31542,64 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
-      </c>
-      <c r="C85" t="s">
-        <v>84</v>
+        <v>462</v>
+      </c>
+      <c r="C85">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D85">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>463</v>
       </c>
       <c r="K85" t="s">
-        <v>478</v>
+        <v>115</v>
       </c>
       <c r="M85" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="N85" t="s">
         <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>490</v>
+        <v>117</v>
       </c>
       <c r="P85" t="s">
-        <v>491</v>
+        <v>84</v>
       </c>
       <c r="Q85" t="s">
-        <v>492</v>
+        <v>118</v>
       </c>
       <c r="R85" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T85" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V85" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W85" s="184" t="s">
         <v>68</v>
       </c>
       <c r="X85" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y85" s="184" t="s">
         <v>68</v>
@@ -31585,7 +31612,7 @@
       </c>
       <c r="AB85">
         <f>COUNTIF(R85:T85, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <f>COUNTIF(U85:W85, "yes")</f>
@@ -31593,7 +31620,7 @@
       </c>
       <c r="AD85">
         <f>COUNTIF(X85:Z85, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="s">
         <v>80</v>
@@ -31604,49 +31631,49 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B86" t="s">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="C86">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D86">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>478</v>
-      </c>
-      <c r="M86" t="s">
-        <v>479</v>
+        <v>61</v>
+      </c>
+      <c r="L86" t="s">
+        <v>466</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P86" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="Q86" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="R86" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S86" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T86" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U86" s="184" t="s">
         <v>67</v>
@@ -31661,17 +31688,17 @@
         <v>67</v>
       </c>
       <c r="Y86" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z86" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA86" t="s">
         <v>112</v>
       </c>
       <c r="AB86">
         <f>COUNTIF(R86:T86, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC86">
         <f>COUNTIF(U86:W86, "yes")</f>
@@ -31679,7 +31706,7 @@
       </c>
       <c r="AD86">
         <f>COUNTIF(X86:Z86, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE86" t="s">
         <v>80</v>
@@ -31690,123 +31717,126 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1094</v>
+        <v>487</v>
       </c>
       <c r="B87" t="s">
-        <v>1095</v>
+        <v>488</v>
       </c>
       <c r="C87" t="s">
         <v>84</v>
       </c>
       <c r="D87">
-        <v>2022</v>
+        <v>2024</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K87" t="s">
+        <v>478</v>
+      </c>
+      <c r="M87" t="s">
+        <v>489</v>
+      </c>
+      <c r="N87" t="s">
         <v>84</v>
       </c>
-      <c r="L87" t="s">
-        <v>1100</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1102</v>
-      </c>
-      <c r="N87" s="191" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O87" s="191" t="s">
-        <v>1099</v>
+      <c r="O87" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="P87" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q87" s="196" t="s">
-        <v>1101</v>
+        <v>491</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>492</v>
       </c>
       <c r="R87" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S87" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T87" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T87" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="U87" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V87" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W87" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X87" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y87" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z87" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB87" s="195">
+        <v>68</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB87">
         <f>COUNTIF(R87:T87, "yes")</f>
         <v>2</v>
       </c>
-      <c r="AC87" s="195">
+      <c r="AC87">
         <f>COUNTIF(U87:W87, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AD87" s="195">
+        <v>1</v>
+      </c>
+      <c r="AD87">
         <f>COUNTIF(X87:Z87, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AE87" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF87" s="195" t="s">
-        <v>1104</v>
+        <v>1</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1093</v>
+        <v>476</v>
       </c>
       <c r="B88" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C88" t="s">
-        <v>84</v>
+        <v>477</v>
+      </c>
+      <c r="C88">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D88">
-        <v>2022</v>
+        <v>2019</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K88" t="s">
-        <v>84</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1100</v>
+        <v>478</v>
       </c>
       <c r="M88" t="s">
-        <v>1103</v>
-      </c>
-      <c r="N88" s="191" t="s">
-        <v>1097</v>
-      </c>
-      <c r="O88" s="191" t="s">
-        <v>1099</v>
+        <v>479</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="P88" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q88" s="196" t="s">
-        <v>1101</v>
+        <v>353</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>481</v>
       </c>
       <c r="R88" s="184" t="s">
         <v>67</v>
@@ -31815,7 +31845,7 @@
         <v>68</v>
       </c>
       <c r="T88" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U88" s="184" t="s">
         <v>67</v>
@@ -31830,66 +31860,72 @@
         <v>67</v>
       </c>
       <c r="Y88" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z88" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB88" s="195">
+        <v>68</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB88">
         <f>COUNTIF(R88:T88, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AC88" s="195">
+        <v>1</v>
+      </c>
+      <c r="AC88">
         <f>COUNTIF(U88:W88, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD88" s="195">
+      <c r="AD88">
         <f>COUNTIF(X88:Z88, "yes")</f>
-        <v>3</v>
-      </c>
-      <c r="AE88" s="195" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF88" s="195" t="s">
-        <v>1104</v>
+        <v>1</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>498</v>
+        <v>1094</v>
       </c>
       <c r="B89" t="s">
-        <v>499</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
+        <v>1095</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
       </c>
       <c r="D89">
         <v>2022</v>
       </c>
-      <c r="E89" t="s">
-        <v>500</v>
-      </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1100</v>
       </c>
       <c r="M89" t="s">
-        <v>501</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>503</v>
+        <v>1102</v>
+      </c>
+      <c r="N89" s="191" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O89" s="191" t="s">
+        <v>1099</v>
       </c>
       <c r="P89" t="s">
         <v>84</v>
       </c>
       <c r="Q89" t="s">
-        <v>504</v>
+        <v>1101</v>
       </c>
       <c r="R89" s="184" t="s">
         <v>67</v>
@@ -31917,9 +31953,6 @@
       </c>
       <c r="Z89" s="184" t="s">
         <v>67</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>102</v>
       </c>
       <c r="AB89">
         <f>COUNTIF(R89:T89, "yes")</f>
@@ -31934,60 +31967,60 @@
         <v>3</v>
       </c>
       <c r="AE89" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF89" t="s">
-        <v>81</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>511</v>
+        <v>1093</v>
       </c>
       <c r="B90" t="s">
-        <v>512</v>
+        <v>1096</v>
       </c>
       <c r="C90" t="s">
-        <v>513</v>
+        <v>84</v>
       </c>
       <c r="D90">
-        <v>2019</v>
-      </c>
-      <c r="E90" t="s">
-        <v>146</v>
+        <v>2022</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
       </c>
       <c r="K90" t="s">
         <v>84</v>
       </c>
       <c r="L90" t="s">
-        <v>514</v>
+        <v>1100</v>
       </c>
       <c r="M90" t="s">
-        <v>515</v>
-      </c>
-      <c r="N90" t="s">
-        <v>84</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>516</v>
+        <v>1103</v>
+      </c>
+      <c r="N90" s="191" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O90" s="191" t="s">
+        <v>1099</v>
       </c>
       <c r="P90" t="s">
         <v>84</v>
       </c>
       <c r="Q90" t="s">
-        <v>84</v>
+        <v>1101</v>
       </c>
       <c r="R90" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S90" s="184" t="s">
         <v>68</v>
       </c>
       <c r="T90" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U90" s="184" t="s">
         <v>67</v>
@@ -31996,69 +32029,72 @@
         <v>67</v>
       </c>
       <c r="W90" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X90" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y90" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Z90" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="AB90">
         <f>COUNTIF(R90:T90, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC90">
         <f>COUNTIF(U90:W90, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD90">
         <f>COUNTIF(X90:Z90, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE90" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF90" t="s">
-        <v>81</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B91" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C91">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>2022</v>
       </c>
+      <c r="E91" t="s">
+        <v>500</v>
+      </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K91" t="s">
+        <v>61</v>
+      </c>
+      <c r="M91" t="s">
+        <v>501</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P91" t="s">
         <v>84</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="P91" t="s">
-        <v>151</v>
-      </c>
       <c r="Q91" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="R91" s="184" t="s">
         <v>67</v>
@@ -32085,7 +32121,7 @@
         <v>67</v>
       </c>
       <c r="Z91" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA91" t="s">
         <v>102</v>
@@ -32100,7 +32136,7 @@
       </c>
       <c r="AD91">
         <f>COUNTIF(X91:Z91, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE91" t="s">
         <v>80</v>
@@ -32110,47 +32146,53 @@
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A92" s="23" t="s">
-        <v>1065</v>
+      <c r="A92" t="s">
+        <v>511</v>
       </c>
       <c r="B92" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
+        <v>512</v>
+      </c>
+      <c r="C92" t="s">
+        <v>513</v>
       </c>
       <c r="D92">
-        <v>2022</v>
+        <v>2019</v>
+      </c>
+      <c r="E92" t="s">
+        <v>146</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K92" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="L92" t="s">
+        <v>514</v>
       </c>
       <c r="M92" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N92" s="191" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O92" s="191" t="s">
-        <v>1069</v>
+        <v>515</v>
+      </c>
+      <c r="N92" t="s">
+        <v>84</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="P92" t="s">
-        <v>1070</v>
+        <v>84</v>
       </c>
       <c r="Q92" t="s">
-        <v>1071</v>
+        <v>84</v>
       </c>
       <c r="R92" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S92" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T92" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U92" s="184" t="s">
         <v>67</v>
@@ -32159,28 +32201,31 @@
         <v>67</v>
       </c>
       <c r="W92" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X92" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y92" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Z92" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>119</v>
       </c>
       <c r="AB92">
         <f>COUNTIF(R92:T92, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC92">
         <f>COUNTIF(U92:W92, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD92">
         <f>COUNTIF(X92:Z92, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE92" t="s">
         <v>80</v>
@@ -32191,46 +32236,40 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B93" t="s">
-        <v>402</v>
+        <v>494</v>
       </c>
       <c r="C93">
         <v>0.3</v>
       </c>
       <c r="D93">
-        <v>2019</v>
-      </c>
-      <c r="E93" t="s">
-        <v>229</v>
+        <v>2022</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
-        <v>61</v>
-      </c>
-      <c r="M93" t="s">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="P93" t="s">
-        <v>509</v>
+        <v>151</v>
       </c>
       <c r="Q93" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="R93" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S93" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T93" s="184" t="s">
         <v>67</v>
@@ -32251,14 +32290,14 @@
         <v>67</v>
       </c>
       <c r="Z93" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA93" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB93">
         <f>COUNTIF(R93:T93, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC93">
         <f>COUNTIF(U93:W93, "yes")</f>
@@ -32266,7 +32305,7 @@
       </c>
       <c r="AD93">
         <f>COUNTIF(X93:Z93, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE93" t="s">
         <v>80</v>
@@ -32276,41 +32315,38 @@
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>533</v>
+      <c r="A94" s="23" t="s">
+        <v>1065</v>
       </c>
       <c r="B94" t="s">
-        <v>453</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
+        <v>1066</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>2018</v>
-      </c>
-      <c r="E94" t="s">
-        <v>534</v>
+        <v>2022</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="M94" t="s">
-        <v>535</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>536</v>
+        <v>1067</v>
+      </c>
+      <c r="N94" s="191" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O94" s="191" t="s">
+        <v>1069</v>
       </c>
       <c r="P94" t="s">
-        <v>165</v>
+        <v>1070</v>
       </c>
       <c r="Q94" t="s">
-        <v>537</v>
+        <v>1071</v>
       </c>
       <c r="R94" s="184" t="s">
         <v>67</v>
@@ -32319,7 +32355,7 @@
         <v>67</v>
       </c>
       <c r="T94" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U94" s="184" t="s">
         <v>67</v>
@@ -32338,13 +32374,10 @@
       </c>
       <c r="Z94" s="184" t="s">
         <v>67</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>102</v>
       </c>
       <c r="AB94">
         <f>COUNTIF(R94:T94, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC94">
         <f>COUNTIF(U94:W94, "yes")</f>
@@ -32363,43 +32396,49 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>505</v>
       </c>
       <c r="B95" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" t="s">
-        <v>309</v>
+        <v>402</v>
+      </c>
+      <c r="C95">
+        <v>0.3</v>
       </c>
       <c r="D95">
         <v>2019</v>
       </c>
+      <c r="E95" t="s">
+        <v>229</v>
+      </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K95" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="M95" t="s">
-        <v>310</v>
+        <v>506</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>311</v>
+        <v>508</v>
+      </c>
+      <c r="P95" t="s">
+        <v>509</v>
       </c>
       <c r="Q95" t="s">
-        <v>312</v>
+        <v>510</v>
       </c>
       <c r="R95" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U95" s="184" t="s">
         <v>67</v>
@@ -32417,14 +32456,14 @@
         <v>67</v>
       </c>
       <c r="Z95" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA95" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB95">
         <f>COUNTIF(R95:T95, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC95">
         <f>COUNTIF(U95:W95, "yes")</f>
@@ -32432,7 +32471,7 @@
       </c>
       <c r="AD95">
         <f>COUNTIF(X95:Z95, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE95" t="s">
         <v>80</v>
@@ -32443,67 +32482,123 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1037</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N96" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q96" s="44"/>
+        <v>453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96">
+        <v>2018</v>
+      </c>
+      <c r="E96" t="s">
+        <v>534</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" t="s">
+        <v>153</v>
+      </c>
+      <c r="M96" t="s">
+        <v>535</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="P96" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>537</v>
+      </c>
+      <c r="R96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T96" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z96" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>102</v>
+      </c>
       <c r="AB96">
         <f>COUNTIF(R96:T96, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC96">
         <f>COUNTIF(U96:W96, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD96">
         <f>COUNTIF(X96:Z96, "yes")</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>662</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s">
-        <v>663</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="D97">
-        <v>2017</v>
-      </c>
-      <c r="E97" t="s">
-        <v>251</v>
+        <v>2019</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K97" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="M97" t="s">
-        <v>664</v>
-      </c>
-      <c r="N97" t="s">
-        <v>84</v>
+        <v>310</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="P97" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="Q97" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="R97" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S97" s="184" t="s">
         <v>68</v>
@@ -32512,19 +32607,19 @@
         <v>68</v>
       </c>
       <c r="U97" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V97" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W97" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X97" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y97" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z97" s="184" t="s">
         <v>68</v>
@@ -32534,15 +32629,15 @@
       </c>
       <c r="AB97">
         <f>COUNTIF(R97:T97, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <f>COUNTIF(U97:W97, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD97">
         <f>COUNTIF(X97:Z97, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE97" t="s">
         <v>80</v>
@@ -32553,125 +32648,63 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>553</v>
+        <v>1037</v>
       </c>
       <c r="B98" t="s">
-        <v>554</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>2019</v>
-      </c>
-      <c r="E98" t="s">
-        <v>534</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="K98" t="s">
-        <v>555</v>
-      </c>
-      <c r="M98" t="s">
-        <v>556</v>
+        <v>1038</v>
       </c>
       <c r="N98" t="s">
-        <v>84</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="P98" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>559</v>
-      </c>
-      <c r="R98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="S98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="T98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W98" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="X98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y98" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z98" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>89</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="Q98" s="44"/>
       <c r="AB98">
         <f>COUNTIF(R98:T98, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC98">
         <f>COUNTIF(U98:W98, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD98">
         <f>COUNTIF(X98:Z98, "yes")</f>
-        <v>2</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF98" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>560</v>
-      </c>
-      <c r="B99" s="44" t="s">
-        <v>561</v>
-      </c>
-      <c r="C99">
-        <v>1.1000000000000001</v>
+        <v>662</v>
+      </c>
+      <c r="B99" t="s">
+        <v>663</v>
+      </c>
+      <c r="C99" t="s">
+        <v>84</v>
       </c>
       <c r="D99">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E99" t="s">
-        <v>562</v>
+        <v>251</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
       </c>
       <c r="K99" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M99" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
       <c r="N99" t="s">
         <v>84</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>117</v>
+        <v>665</v>
       </c>
       <c r="P99" t="s">
         <v>84</v>
       </c>
-      <c r="Q99" s="44" t="s">
+      <c r="Q99" t="s">
         <v>84</v>
       </c>
       <c r="R99" s="184" t="s">
@@ -32684,10 +32717,10 @@
         <v>68</v>
       </c>
       <c r="U99" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V99" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W99" s="184" t="s">
         <v>68</v>
@@ -32702,7 +32735,7 @@
         <v>68</v>
       </c>
       <c r="AA99" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AB99">
         <f>COUNTIF(R99:T99, "yes")</f>
@@ -32710,7 +32743,7 @@
       </c>
       <c r="AC99">
         <f>COUNTIF(U99:W99, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD99">
         <f>COUNTIF(X99:Z99, "yes")</f>
@@ -32725,58 +32758,58 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>687</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s">
-        <v>688</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
+        <v>554</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
       </c>
       <c r="D100">
         <v>2019</v>
       </c>
       <c r="E100" t="s">
-        <v>689</v>
+        <v>534</v>
       </c>
       <c r="F100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" t="s">
-        <v>690</v>
+        <v>10</v>
       </c>
       <c r="K100" t="s">
+        <v>555</v>
+      </c>
+      <c r="M100" t="s">
+        <v>556</v>
+      </c>
+      <c r="N100" t="s">
         <v>84</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="O100" s="2" t="s">
-        <v>692</v>
+        <v>557</v>
       </c>
       <c r="P100" t="s">
-        <v>693</v>
+        <v>558</v>
       </c>
       <c r="Q100" t="s">
-        <v>84</v>
+        <v>559</v>
       </c>
       <c r="R100" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S100" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T100" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U100" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V100" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W100" s="184" t="s">
         <v>68</v>
-      </c>
-      <c r="S100" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="T100" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U100" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V100" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W100" s="184" t="s">
-        <v>67</v>
       </c>
       <c r="X100" s="184" t="s">
         <v>67</v>
@@ -32785,22 +32818,22 @@
         <v>68</v>
       </c>
       <c r="Z100" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA100" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AB100">
         <f>COUNTIF(R100:T100, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC100">
         <f>COUNTIF(U100:W100, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD100">
         <f>COUNTIF(X100:Z100, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE100" t="s">
         <v>80</v>
@@ -32811,46 +32844,49 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>679</v>
-      </c>
-      <c r="B101" t="s">
-        <v>366</v>
-      </c>
-      <c r="C101" t="s">
+        <v>560</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C101">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+      <c r="E101" t="s">
+        <v>562</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" t="s">
+        <v>115</v>
+      </c>
+      <c r="M101" t="s">
+        <v>563</v>
+      </c>
+      <c r="N101" t="s">
         <v>84</v>
       </c>
-      <c r="D101">
-        <v>2017</v>
-      </c>
-      <c r="E101" t="s">
-        <v>146</v>
-      </c>
-      <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101" t="s">
-        <v>84</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="O101" s="2" t="s">
-        <v>680</v>
+        <v>117</v>
       </c>
       <c r="P101" t="s">
         <v>84</v>
       </c>
-      <c r="Q101" t="s">
-        <v>681</v>
+      <c r="Q101" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="R101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S101" s="184" t="s">
         <v>68</v>
       </c>
       <c r="T101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U101" s="184" t="s">
         <v>67</v>
@@ -32859,31 +32895,31 @@
         <v>67</v>
       </c>
       <c r="W101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z101" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA101" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AB101">
         <f>COUNTIF(R101:T101, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC101">
         <f>COUNTIF(U101:W101, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD101">
         <f>COUNTIF(X101:Z101, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE101" t="s">
         <v>80</v>
@@ -32894,67 +32930,67 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B102" t="s">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="C102" t="s">
         <v>84</v>
       </c>
       <c r="D102">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E102" t="s">
-        <v>146</v>
+        <v>689</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>690</v>
       </c>
       <c r="K102" t="s">
         <v>84</v>
       </c>
-      <c r="M102" t="s">
-        <v>683</v>
-      </c>
       <c r="N102" s="2" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="P102" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="Q102" t="s">
-        <v>686</v>
+        <v>84</v>
       </c>
       <c r="R102" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S102" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T102" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U102" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V102" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W102" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X102" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y102" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T102" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U102" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V102" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W102" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="X102" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y102" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="Z102" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA102" t="s">
         <v>102</v>
@@ -32969,7 +33005,7 @@
       </c>
       <c r="AD102">
         <f>COUNTIF(X102:Z102, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE102" t="s">
         <v>80</v>
@@ -32980,77 +33016,79 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="B103" t="s">
-        <v>657</v>
+        <v>366</v>
       </c>
       <c r="C103" t="s">
         <v>84</v>
       </c>
-      <c r="D103" t="s">
-        <v>84</v>
+      <c r="D103">
+        <v>2017</v>
       </c>
       <c r="E103" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K103" t="s">
         <v>84</v>
       </c>
-      <c r="M103" t="s">
-        <v>658</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="N103" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="P103" t="s">
         <v>84</v>
       </c>
-      <c r="O103" s="189" t="s">
-        <v>659</v>
-      </c>
-      <c r="P103" t="s">
-        <v>660</v>
-      </c>
       <c r="Q103" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="R103" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S103" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T103" s="184" t="s">
         <v>67</v>
       </c>
+      <c r="U103" s="184" t="s">
+        <v>67</v>
+      </c>
       <c r="V103" s="184" t="s">
         <v>67</v>
       </c>
       <c r="W103" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="X103" s="190"/>
+        <v>67</v>
+      </c>
+      <c r="X103" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y103" s="184" t="s">
+        <v>67</v>
+      </c>
       <c r="Z103" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA103" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AB103">
         <f>COUNTIF(R103:T103, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC103">
         <f>COUNTIF(U103:W103, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD103">
         <f>COUNTIF(X103:Z103, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE103" t="s">
         <v>80</v>
@@ -33061,16 +33099,16 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>578</v>
+        <v>682</v>
       </c>
       <c r="B104" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="C104" t="s">
-        <v>580</v>
+        <v>84</v>
       </c>
       <c r="D104">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
@@ -33078,37 +33116,31 @@
       <c r="F104" t="s">
         <v>15</v>
       </c>
-      <c r="G104" t="s">
-        <v>5</v>
-      </c>
       <c r="K104" t="s">
-        <v>170</v>
-      </c>
-      <c r="L104" t="s">
-        <v>581</v>
+        <v>84</v>
       </c>
       <c r="M104" t="s">
-        <v>582</v>
-      </c>
-      <c r="N104" s="6" t="s">
-        <v>583</v>
+        <v>683</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
       <c r="P104" t="s">
-        <v>584</v>
+        <v>366</v>
       </c>
       <c r="Q104" t="s">
-        <v>585</v>
+        <v>686</v>
       </c>
       <c r="R104" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S104" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="T104" s="187" t="s">
+        <v>68</v>
+      </c>
+      <c r="T104" s="184" t="s">
         <v>67</v>
       </c>
       <c r="U104" s="184" t="s">
@@ -33130,11 +33162,11 @@
         <v>67</v>
       </c>
       <c r="AA104" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AB104">
         <f>COUNTIF(R104:T104, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC104">
         <f>COUNTIF(U104:W104, "yes")</f>
@@ -33145,48 +33177,51 @@
         <v>3</v>
       </c>
       <c r="AE104" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF104" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="B105" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="C105" t="s">
-        <v>644</v>
-      </c>
-      <c r="D105">
-        <v>2023</v>
+        <v>84</v>
+      </c>
+      <c r="D105" t="s">
+        <v>84</v>
       </c>
       <c r="E105" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
       </c>
       <c r="K105" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="M105" t="s">
-        <v>645</v>
-      </c>
-      <c r="N105" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
+      </c>
+      <c r="N105" t="s">
+        <v>84</v>
+      </c>
+      <c r="O105" s="189" t="s">
+        <v>659</v>
       </c>
       <c r="P105" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="Q105" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="R105" s="184" t="s">
         <v>67</v>
@@ -33195,57 +33230,49 @@
         <v>67</v>
       </c>
       <c r="T105" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V105" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W105" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="U105" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="V105" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W105" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="X105" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y105" s="184" t="s">
-        <v>67</v>
-      </c>
+      <c r="X105" s="190"/>
       <c r="Z105" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA105" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AB105">
         <f>COUNTIF(R105:T105, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC105">
         <f>COUNTIF(U105:W105, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD105">
         <f>COUNTIF(X105:Z105, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE105" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF105" t="s">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B106" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C106" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D106">
         <v>2020</v>
@@ -33257,25 +33284,28 @@
         <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>363</v>
+        <v>5</v>
       </c>
       <c r="K106" t="s">
         <v>170</v>
       </c>
+      <c r="L106" t="s">
+        <v>581</v>
+      </c>
       <c r="M106" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="P106" t="s">
         <v>584</v>
       </c>
       <c r="Q106" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="R106" s="184" t="s">
         <v>67</v>
@@ -33283,8 +33313,8 @@
       <c r="S106" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T106" s="185" t="s">
-        <v>68</v>
+      <c r="T106" s="187" t="s">
+        <v>67</v>
       </c>
       <c r="U106" s="184" t="s">
         <v>67</v>
@@ -33309,7 +33339,7 @@
       </c>
       <c r="AB106">
         <f>COUNTIF(R106:T106, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC106">
         <f>COUNTIF(U106:W106, "yes")</f>
@@ -33328,16 +33358,16 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>593</v>
+        <v>643</v>
       </c>
       <c r="B107" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C107" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="D107">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E107" t="s">
         <v>146</v>
@@ -33345,26 +33375,23 @@
       <c r="F107" t="s">
         <v>15</v>
       </c>
-      <c r="G107" t="s">
-        <v>9</v>
-      </c>
       <c r="K107" t="s">
         <v>170</v>
       </c>
       <c r="M107" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="P107" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="Q107" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="R107" s="184" t="s">
         <v>67</v>
@@ -33372,7 +33399,7 @@
       <c r="S107" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T107" s="185" t="s">
+      <c r="T107" s="184" t="s">
         <v>68</v>
       </c>
       <c r="U107" s="184" t="s">
@@ -33391,7 +33418,7 @@
         <v>67</v>
       </c>
       <c r="Z107" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA107" t="s">
         <v>69</v>
@@ -33406,7 +33433,7 @@
       </c>
       <c r="AD107">
         <f>COUNTIF(X107:Z107, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE107" t="s">
         <v>70</v>
@@ -33417,16 +33444,16 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B108" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C108" t="s">
         <v>589</v>
       </c>
       <c r="D108">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E108" t="s">
         <v>146</v>
@@ -33435,25 +33462,25 @@
         <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>601</v>
+        <v>363</v>
       </c>
       <c r="K108" t="s">
         <v>170</v>
       </c>
       <c r="M108" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="P108" t="s">
         <v>584</v>
       </c>
       <c r="Q108" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="R108" s="184" t="s">
         <v>67</v>
@@ -33480,7 +33507,7 @@
         <v>67</v>
       </c>
       <c r="Z108" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA108" t="s">
         <v>69</v>
@@ -33495,7 +33522,7 @@
       </c>
       <c r="AD108">
         <f>COUNTIF(X108:Z108, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE108" t="s">
         <v>70</v>
@@ -33506,16 +33533,16 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B109" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C109" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="D109">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E109" t="s">
         <v>146</v>
@@ -33530,19 +33557,19 @@
         <v>170</v>
       </c>
       <c r="M109" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P109" t="s">
         <v>584</v>
       </c>
       <c r="Q109" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="R109" s="184" t="s">
         <v>67</v>
@@ -33595,16 +33622,16 @@
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B110" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C110" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D110">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E110" t="s">
         <v>146</v>
@@ -33613,25 +33640,25 @@
         <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>5</v>
+        <v>601</v>
       </c>
       <c r="K110" t="s">
         <v>170</v>
       </c>
       <c r="M110" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="P110" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="Q110" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="R110" s="184" t="s">
         <v>67</v>
@@ -33639,8 +33666,8 @@
       <c r="S110" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T110" s="184" t="s">
-        <v>67</v>
+      <c r="T110" s="185" t="s">
+        <v>68</v>
       </c>
       <c r="U110" s="184" t="s">
         <v>67</v>
@@ -33665,7 +33692,7 @@
       </c>
       <c r="AB110">
         <f>COUNTIF(R110:T110, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC110">
         <f>COUNTIF(U110:W110, "yes")</f>
@@ -33684,16 +33711,16 @@
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B111" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C111" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="D111">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E111" t="s">
         <v>146</v>
@@ -33701,23 +33728,26 @@
       <c r="F111" t="s">
         <v>15</v>
       </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
       <c r="K111" t="s">
         <v>170</v>
       </c>
       <c r="M111" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="P111" t="s">
-        <v>84</v>
+        <v>584</v>
       </c>
       <c r="Q111" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="R111" s="184" t="s">
         <v>67</v>
@@ -33744,7 +33774,7 @@
         <v>67</v>
       </c>
       <c r="Z111" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA111" t="s">
         <v>69</v>
@@ -33759,7 +33789,7 @@
       </c>
       <c r="AD111">
         <f>COUNTIF(X111:Z111, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE111" t="s">
         <v>70</v>
@@ -33770,16 +33800,16 @@
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B112" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C112" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="D112">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E112" t="s">
         <v>146</v>
@@ -33788,25 +33818,25 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>625</v>
+        <v>5</v>
       </c>
       <c r="K112" t="s">
         <v>170</v>
       </c>
       <c r="M112" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="P112" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="Q112" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="R112" s="184" t="s">
         <v>67</v>
@@ -33814,8 +33844,8 @@
       <c r="S112" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T112" s="185" t="s">
-        <v>68</v>
+      <c r="T112" s="184" t="s">
+        <v>67</v>
       </c>
       <c r="U112" s="184" t="s">
         <v>67</v>
@@ -33840,7 +33870,7 @@
       </c>
       <c r="AB112">
         <f>COUNTIF(R112:T112, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC112">
         <f>COUNTIF(U112:W112, "yes")</f>
@@ -33859,43 +33889,40 @@
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="B113" t="s">
-        <v>649</v>
-      </c>
-      <c r="C113">
-        <v>0.6</v>
+        <v>618</v>
+      </c>
+      <c r="C113" t="s">
+        <v>589</v>
       </c>
       <c r="D113">
         <v>2020</v>
       </c>
       <c r="E113" t="s">
-        <v>650</v>
+        <v>146</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K113" t="s">
-        <v>651</v>
+        <v>170</v>
       </c>
       <c r="M113" t="s">
-        <v>652</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>653</v>
+        <v>619</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="P113" t="s">
-        <v>654</v>
+        <v>84</v>
       </c>
       <c r="Q113" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="R113" s="184" t="s">
         <v>67</v>
@@ -33903,7 +33930,7 @@
       <c r="S113" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T113" s="184" t="s">
+      <c r="T113" s="185" t="s">
         <v>68</v>
       </c>
       <c r="U113" s="184" t="s">
@@ -33922,10 +33949,10 @@
         <v>67</v>
       </c>
       <c r="Z113" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA113" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AB113">
         <f>COUNTIF(R113:T113, "yes")</f>
@@ -33937,51 +33964,54 @@
       </c>
       <c r="AD113">
         <f>COUNTIF(X113:Z113, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE113" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF113" t="s">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114">
-        <v>1.1000000000000001</v>
+        <v>623</v>
+      </c>
+      <c r="C114" t="s">
+        <v>624</v>
       </c>
       <c r="D114">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E114" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>5</v>
+        <v>625</v>
       </c>
       <c r="K114" t="s">
-        <v>220</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>672</v>
+        <v>170</v>
+      </c>
+      <c r="M114" t="s">
+        <v>626</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="P114" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="Q114" t="s">
-        <v>674</v>
+        <v>629</v>
       </c>
       <c r="R114" s="184" t="s">
         <v>67</v>
@@ -33989,8 +34019,8 @@
       <c r="S114" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="T114" s="184" t="s">
-        <v>67</v>
+      <c r="T114" s="185" t="s">
+        <v>68</v>
       </c>
       <c r="U114" s="184" t="s">
         <v>67</v>
@@ -34008,14 +34038,14 @@
         <v>67</v>
       </c>
       <c r="Z114" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA114" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="AB114">
         <f>COUNTIF(R114:T114, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC114">
         <f>COUNTIF(U114:W114, "yes")</f>
@@ -34023,54 +34053,57 @@
       </c>
       <c r="AD114">
         <f>COUNTIF(X114:Z114, "yes")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE114" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF114" t="s">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s">
-        <v>676</v>
-      </c>
-      <c r="C115" t="s">
-        <v>84</v>
+        <v>649</v>
+      </c>
+      <c r="C115">
+        <v>0.6</v>
       </c>
       <c r="D115">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>650</v>
       </c>
       <c r="F115" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K115" t="s">
-        <v>84</v>
-      </c>
-      <c r="N115" t="s">
-        <v>84</v>
+        <v>651</v>
+      </c>
+      <c r="M115" t="s">
+        <v>652</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="P115" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q115" s="181" t="s">
-        <v>84</v>
+        <v>654</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>655</v>
       </c>
       <c r="R115" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S115" s="184" t="s">
         <v>67</v>
@@ -34079,19 +34112,19 @@
         <v>68</v>
       </c>
       <c r="U115" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V115" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W115" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X115" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y115" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z115" s="184" t="s">
         <v>68</v>
@@ -34101,15 +34134,15 @@
       </c>
       <c r="AB115">
         <f>COUNTIF(R115:T115, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC115">
         <f>COUNTIF(U115:W115, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD115">
         <f>COUNTIF(X115:Z115, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE115" t="s">
         <v>80</v>
@@ -34120,37 +34153,40 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="B116" t="s">
-        <v>638</v>
-      </c>
-      <c r="C116" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D116">
+        <v>2017</v>
+      </c>
+      <c r="E116" t="s">
+        <v>251</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+      <c r="K116" t="s">
+        <v>220</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="P116" t="s">
         <v>84</v>
       </c>
-      <c r="D116">
-        <v>2016</v>
-      </c>
-      <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="K116" t="s">
-        <v>370</v>
-      </c>
-      <c r="M116" t="s">
-        <v>639</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="P116" t="s">
-        <v>641</v>
-      </c>
       <c r="Q116" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="R116" s="184" t="s">
         <v>67</v>
@@ -34174,13 +34210,13 @@
         <v>67</v>
       </c>
       <c r="Y116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z116" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA116" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB116">
         <f>COUNTIF(R116:T116, "yes")</f>
@@ -34192,7 +34228,7 @@
       </c>
       <c r="AD116">
         <f>COUNTIF(X116:Z116, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE116" t="s">
         <v>80</v>
@@ -34202,11 +34238,11 @@
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A117" s="23" t="s">
-        <v>1058</v>
+      <c r="A117" t="s">
+        <v>675</v>
       </c>
       <c r="B117" t="s">
-        <v>1059</v>
+        <v>676</v>
       </c>
       <c r="C117" t="s">
         <v>84</v>
@@ -34214,65 +34250,71 @@
       <c r="D117">
         <v>2024</v>
       </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
       </c>
       <c r="K117" t="s">
-        <v>212</v>
-      </c>
-      <c r="M117" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N117" s="191" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O117" s="191" t="s">
-        <v>1062</v>
+        <v>84</v>
+      </c>
+      <c r="N117" t="s">
+        <v>84</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="P117" t="s">
-        <v>1063</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>1064</v>
+        <v>678</v>
+      </c>
+      <c r="Q117" s="181" t="s">
+        <v>84</v>
       </c>
       <c r="R117" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S117" s="184" t="s">
         <v>67</v>
       </c>
       <c r="T117" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U117" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V117" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W117" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X117" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y117" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z117" s="184" t="s">
         <v>68</v>
       </c>
+      <c r="AA117" t="s">
+        <v>119</v>
+      </c>
       <c r="AB117">
         <f>COUNTIF(R117:T117, "yes")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC117">
         <f>COUNTIF(U117:W117, "yes")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD117">
         <f>COUNTIF(X117:Z117, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE117" t="s">
         <v>80</v>
@@ -34283,76 +34325,79 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>709</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>710</v>
-      </c>
-      <c r="C118">
-        <v>1.1399999999999999</v>
+        <v>637</v>
+      </c>
+      <c r="B118" t="s">
+        <v>638</v>
+      </c>
+      <c r="C118" t="s">
+        <v>84</v>
       </c>
       <c r="D118">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K118" t="s">
+        <v>370</v>
       </c>
       <c r="M118" t="s">
-        <v>711</v>
+        <v>639</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>712</v>
+        <v>640</v>
       </c>
       <c r="P118" t="s">
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="Q118" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="R118" s="184" t="s">
         <v>67</v>
       </c>
       <c r="S118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y118" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="T118" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="U118" s="184" t="s">
+      <c r="Z118" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="V118" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="W118" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="X118" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y118" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z118" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="AA118" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB118">
         <f>COUNTIF(R118:T118, "yes")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC118">
         <f>COUNTIF(U118:W118, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD118">
         <f>COUNTIF(X118:Z118, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE118" t="s">
         <v>80</v>
@@ -34362,80 +34407,77 @@
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>717</v>
+      <c r="A119" s="23" t="s">
+        <v>1058</v>
       </c>
       <c r="B119" t="s">
-        <v>718</v>
+        <v>1059</v>
       </c>
       <c r="C119" t="s">
         <v>84</v>
       </c>
       <c r="D119">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K119" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="M119" t="s">
-        <v>719</v>
-      </c>
-      <c r="N119" t="s">
-        <v>84</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>720</v>
+        <v>1060</v>
+      </c>
+      <c r="N119" s="191" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O119" s="191" t="s">
+        <v>1062</v>
       </c>
       <c r="P119" t="s">
-        <v>84</v>
+        <v>1063</v>
       </c>
       <c r="Q119" t="s">
-        <v>84</v>
+        <v>1064</v>
       </c>
       <c r="R119" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S119" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T119" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U119" s="184" t="s">
         <v>67</v>
       </c>
       <c r="V119" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W119" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X119" s="184" t="s">
         <v>67</v>
       </c>
       <c r="Y119" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z119" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AA119" t="s">
-        <v>119</v>
-      </c>
       <c r="AB119">
         <f>COUNTIF(R119:T119, "yes")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC119">
         <f>COUNTIF(U119:W119, "yes")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD119">
         <f>COUNTIF(X119:Z119, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE119" t="s">
         <v>80</v>
@@ -34446,69 +34488,68 @@
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>721</v>
-      </c>
-      <c r="B120" t="s">
-        <v>722</v>
-      </c>
-      <c r="C120" t="s">
-        <v>84</v>
+        <v>709</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="C120">
+        <v>1.1399999999999999</v>
       </c>
       <c r="D120">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="K120" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="M120" t="s">
-        <v>723</v>
-      </c>
-      <c r="N120" t="s">
-        <v>84</v>
+        <v>711</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="P120" t="s">
         <v>84</v>
       </c>
       <c r="Q120" t="s">
-        <v>84</v>
+        <v>699</v>
       </c>
       <c r="R120" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S120" s="184" t="s">
         <v>68</v>
       </c>
       <c r="T120" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U120" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="U120" s="184" t="s">
-        <v>67</v>
-      </c>
       <c r="V120" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W120" s="184" t="s">
         <v>68</v>
       </c>
       <c r="X120" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y120" s="184" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z120" s="190"/>
+        <v>67</v>
+      </c>
+      <c r="Z120" s="184" t="s">
+        <v>67</v>
+      </c>
       <c r="AA120" t="s">
         <v>112</v>
       </c>
       <c r="AB120">
         <f>COUNTIF(R120:T120, "yes")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC120">
         <f>COUNTIF(U120:W120, "yes")</f>
@@ -34516,7 +34557,7 @@
       </c>
       <c r="AD120">
         <f>COUNTIF(X120:Z120, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE120" t="s">
         <v>80</v>
@@ -34527,37 +34568,40 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>694</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="C121">
-        <v>1.01</v>
+        <v>717</v>
+      </c>
+      <c r="B121" t="s">
+        <v>718</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
       </c>
       <c r="D121">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="K121" t="s">
+        <v>84</v>
       </c>
       <c r="M121" t="s">
-        <v>696</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>697</v>
+        <v>719</v>
+      </c>
+      <c r="N121" t="s">
+        <v>84</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="P121" t="s">
         <v>84</v>
       </c>
       <c r="Q121" t="s">
-        <v>699</v>
+        <v>84</v>
       </c>
       <c r="R121" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S121" s="184" t="s">
         <v>68</v>
@@ -34569,16 +34613,16 @@
         <v>67</v>
       </c>
       <c r="V121" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W121" s="184" t="s">
         <v>68</v>
       </c>
       <c r="X121" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y121" s="184" t="s">
         <v>68</v>
-      </c>
-      <c r="Y121" s="184" t="s">
-        <v>67</v>
       </c>
       <c r="Z121" s="184" t="s">
         <v>68</v>
@@ -34588,11 +34632,11 @@
       </c>
       <c r="AB121">
         <f>COUNTIF(R121:T121, "yes")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
         <f>COUNTIF(U121:W121, "yes")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD121">
         <f>COUNTIF(X121:Z121, "yes")</f>
@@ -34607,68 +34651,69 @@
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>713</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>714</v>
-      </c>
-      <c r="C122">
-        <v>1.03</v>
+        <v>721</v>
+      </c>
+      <c r="B122" t="s">
+        <v>722</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
       </c>
       <c r="D122">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="K122" t="s">
+        <v>84</v>
       </c>
       <c r="M122" t="s">
-        <v>715</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>697</v>
+        <v>723</v>
+      </c>
+      <c r="N122" t="s">
+        <v>84</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="P122" t="s">
         <v>84</v>
       </c>
       <c r="Q122" t="s">
-        <v>699</v>
+        <v>84</v>
       </c>
       <c r="R122" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S122" s="184" t="s">
         <v>68</v>
       </c>
       <c r="T122" s="184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U122" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V122" s="184" t="s">
         <v>68</v>
-      </c>
-      <c r="V122" s="184" t="s">
-        <v>67</v>
       </c>
       <c r="W122" s="184" t="s">
         <v>68</v>
       </c>
       <c r="X122" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y122" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="Z122" s="184" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z122" s="190"/>
       <c r="AA122" t="s">
         <v>112</v>
       </c>
       <c r="AB122">
         <f>COUNTIF(R122:T122, "yes")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC122">
         <f>COUNTIF(U122:W122, "yes")</f>
@@ -34676,12 +34721,172 @@
       </c>
       <c r="AD122">
         <f>COUNTIF(X122:Z122, "yes")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE122" t="s">
         <v>80</v>
       </c>
       <c r="AF122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>694</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="C123">
+        <v>1.01</v>
+      </c>
+      <c r="D123">
+        <v>2013</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="M123" t="s">
+        <v>696</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="P123" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>699</v>
+      </c>
+      <c r="R123" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S123" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T123" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U123" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V123" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W123" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="X123" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y123" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z123" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB123">
+        <f>COUNTIF(R123:T123, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AC123">
+        <f>COUNTIF(U123:W123, "yes")</f>
+        <v>2</v>
+      </c>
+      <c r="AD123">
+        <f>COUNTIF(X123:Z123, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>713</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="C124">
+        <v>1.03</v>
+      </c>
+      <c r="D124">
+        <v>2013</v>
+      </c>
+      <c r="F124" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" t="s">
+        <v>715</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="P124" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>699</v>
+      </c>
+      <c r="R124" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S124" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T124" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="U124" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="V124" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W124" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="X124" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y124" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z124" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB124">
+        <f>COUNTIF(R124:T124, "yes")</f>
+        <v>2</v>
+      </c>
+      <c r="AC124">
+        <f>COUNTIF(U124:W124, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD124">
+        <f>COUNTIF(X124:Z124, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF124" t="s">
         <v>81</v>
       </c>
     </row>
@@ -34691,56 +34896,56 @@
     <hyperlink ref="O11" r:id="rId1" xr:uid="{78F85862-50CA-4DFE-BA27-24B020CDCA3F}"/>
     <hyperlink ref="O7" r:id="rId2" xr:uid="{7E7CEAD7-4929-4BE4-AAEB-FBA14DFBDD50}"/>
     <hyperlink ref="O10" r:id="rId3" location="s0035" xr:uid="{BC05914A-5E5E-4300-AC02-8638A6F1A5B3}"/>
-    <hyperlink ref="O43" r:id="rId4" xr:uid="{10C4F826-C939-4498-A8A3-BF5FD764AE63}"/>
-    <hyperlink ref="N45" r:id="rId5" xr:uid="{0697A09A-FCB6-44D4-B576-3107A919D348}"/>
-    <hyperlink ref="N73" r:id="rId6" xr:uid="{EAC941A4-A5E8-43D3-ADF9-6021B1D498AB}"/>
-    <hyperlink ref="O73" r:id="rId7" xr:uid="{E6418FDC-E286-4132-B0E9-E07316E00EA9}"/>
+    <hyperlink ref="O45" r:id="rId4" xr:uid="{10C4F826-C939-4498-A8A3-BF5FD764AE63}"/>
+    <hyperlink ref="N47" r:id="rId5" xr:uid="{0697A09A-FCB6-44D4-B576-3107A919D348}"/>
+    <hyperlink ref="N75" r:id="rId6" xr:uid="{EAC941A4-A5E8-43D3-ADF9-6021B1D498AB}"/>
+    <hyperlink ref="O75" r:id="rId7" xr:uid="{E6418FDC-E286-4132-B0E9-E07316E00EA9}"/>
     <hyperlink ref="N8" r:id="rId8" xr:uid="{96EDD7BD-A7DE-4C1B-A113-6187AD5FD881}"/>
     <hyperlink ref="N22" r:id="rId9" xr:uid="{B5550E26-FDF1-44C1-B405-F3538CC85D60}"/>
-    <hyperlink ref="N94" r:id="rId10" xr:uid="{F0884335-FE32-426C-BFDD-E2334F14660D}"/>
+    <hyperlink ref="N96" r:id="rId10" xr:uid="{F0884335-FE32-426C-BFDD-E2334F14660D}"/>
     <hyperlink ref="O33" r:id="rId11" xr:uid="{5EF8E520-7A3F-44EC-A8E1-6A5C0C87485A}"/>
-    <hyperlink ref="N95" r:id="rId12" xr:uid="{0E8DDB57-451B-45C1-9AE2-1297278067E0}"/>
-    <hyperlink ref="O97" r:id="rId13" xr:uid="{232BDB1C-908D-4757-A0D8-C0E4202A4CC8}"/>
-    <hyperlink ref="N100" r:id="rId14" xr:uid="{5E78CDFF-24A0-46A4-999C-BB59B2B1C022}"/>
-    <hyperlink ref="O100" r:id="rId15" location="f0020" xr:uid="{9A101CAC-3E4E-4FE0-8C1F-F66AAAA0DC2F}"/>
-    <hyperlink ref="O85" r:id="rId16" xr:uid="{86A5DD30-10C5-4160-A5BF-D1801CEFA817}"/>
-    <hyperlink ref="N102" r:id="rId17" xr:uid="{4458BCD0-C333-4EEF-ABF6-3D928F911827}"/>
-    <hyperlink ref="O116" r:id="rId18" xr:uid="{EC55B086-BCED-47D9-8FE6-7CCD3380B6EF}"/>
-    <hyperlink ref="N61" r:id="rId19" xr:uid="{144DD13A-F0E5-498C-90F5-88A2FD6DEA1F}"/>
+    <hyperlink ref="N97" r:id="rId12" xr:uid="{0E8DDB57-451B-45C1-9AE2-1297278067E0}"/>
+    <hyperlink ref="O99" r:id="rId13" xr:uid="{232BDB1C-908D-4757-A0D8-C0E4202A4CC8}"/>
+    <hyperlink ref="N102" r:id="rId14" xr:uid="{5E78CDFF-24A0-46A4-999C-BB59B2B1C022}"/>
+    <hyperlink ref="O102" r:id="rId15" location="f0020" xr:uid="{9A101CAC-3E4E-4FE0-8C1F-F66AAAA0DC2F}"/>
+    <hyperlink ref="O87" r:id="rId16" xr:uid="{86A5DD30-10C5-4160-A5BF-D1801CEFA817}"/>
+    <hyperlink ref="N104" r:id="rId17" xr:uid="{4458BCD0-C333-4EEF-ABF6-3D928F911827}"/>
+    <hyperlink ref="O118" r:id="rId18" xr:uid="{EC55B086-BCED-47D9-8FE6-7CCD3380B6EF}"/>
+    <hyperlink ref="N63" r:id="rId19" xr:uid="{144DD13A-F0E5-498C-90F5-88A2FD6DEA1F}"/>
     <hyperlink ref="N11" r:id="rId20" xr:uid="{F0E54000-716E-4747-9567-745BDA43AFD3}"/>
-    <hyperlink ref="N49" r:id="rId21" xr:uid="{AC9146EB-8383-471E-9EBF-148651804624}"/>
-    <hyperlink ref="N56" r:id="rId22" xr:uid="{C6651044-A196-4EE7-A7FE-12EAE624E060}"/>
-    <hyperlink ref="O56" r:id="rId23" xr:uid="{5380206B-7839-4EE4-BC56-519C6CAC06AD}"/>
-    <hyperlink ref="O122" r:id="rId24" xr:uid="{2AABD24C-26A7-4B3E-9CD3-A23BE96B79BB}"/>
+    <hyperlink ref="N51" r:id="rId21" xr:uid="{AC9146EB-8383-471E-9EBF-148651804624}"/>
+    <hyperlink ref="N58" r:id="rId22" xr:uid="{C6651044-A196-4EE7-A7FE-12EAE624E060}"/>
+    <hyperlink ref="O58" r:id="rId23" xr:uid="{5380206B-7839-4EE4-BC56-519C6CAC06AD}"/>
+    <hyperlink ref="O124" r:id="rId24" xr:uid="{2AABD24C-26A7-4B3E-9CD3-A23BE96B79BB}"/>
     <hyperlink ref="N5" r:id="rId25" xr:uid="{32320392-394D-4C48-8140-30284C9388F1}"/>
     <hyperlink ref="N6" r:id="rId26" xr:uid="{88A7D382-C4B2-48A1-B84A-37DED9A846FF}"/>
     <hyperlink ref="O2" r:id="rId27" xr:uid="{143846C3-024B-4D1C-89F7-1C7EFF074580}"/>
     <hyperlink ref="O9" r:id="rId28" location="s0035" xr:uid="{02513146-762C-4759-8541-77C369040CE2}"/>
-    <hyperlink ref="O119" r:id="rId29" xr:uid="{57B4FD60-751B-46AA-9362-4D1D62DFF859}"/>
-    <hyperlink ref="O120" r:id="rId30" xr:uid="{7AC6F5DD-D6BE-4E40-87AD-011476C12118}"/>
-    <hyperlink ref="N113" r:id="rId31" xr:uid="{D23D156B-B9BC-44EB-88C7-20CFD2F8C77C}"/>
-    <hyperlink ref="O113" r:id="rId32" xr:uid="{1D6F4DA0-CC7A-4319-A126-FF40E2FDEA5A}"/>
-    <hyperlink ref="O75" r:id="rId33" xr:uid="{25A66588-5090-4D9B-A017-7F5B2A14062F}"/>
+    <hyperlink ref="O121" r:id="rId29" xr:uid="{57B4FD60-751B-46AA-9362-4D1D62DFF859}"/>
+    <hyperlink ref="O122" r:id="rId30" xr:uid="{7AC6F5DD-D6BE-4E40-87AD-011476C12118}"/>
+    <hyperlink ref="N115" r:id="rId31" xr:uid="{D23D156B-B9BC-44EB-88C7-20CFD2F8C77C}"/>
+    <hyperlink ref="O115" r:id="rId32" xr:uid="{1D6F4DA0-CC7A-4319-A126-FF40E2FDEA5A}"/>
+    <hyperlink ref="O77" r:id="rId33" xr:uid="{25A66588-5090-4D9B-A017-7F5B2A14062F}"/>
     <hyperlink ref="N27" r:id="rId34" xr:uid="{C8D802F1-C1EC-404B-8227-CFA3AA98148E}"/>
     <hyperlink ref="O40" r:id="rId35" xr:uid="{38A394AF-D753-4AB9-AF99-4CE66AB7F191}"/>
-    <hyperlink ref="N41" r:id="rId36" xr:uid="{4168F030-70D5-4989-9119-2475009362E1}"/>
-    <hyperlink ref="O41" r:id="rId37" xr:uid="{5A92DAC5-EC7E-4D29-95AB-4823CEAB5BDA}"/>
-    <hyperlink ref="N50" r:id="rId38" xr:uid="{6D6E46C7-CF24-494C-8AEB-8E8DA672C3EA}"/>
-    <hyperlink ref="O60" r:id="rId39" xr:uid="{BA070329-49D5-4F78-B73D-25722BAB6BF2}"/>
-    <hyperlink ref="N44" r:id="rId40" xr:uid="{14A3D751-75C2-4733-B863-159021B6268F}"/>
-    <hyperlink ref="N64" r:id="rId41" xr:uid="{C94D9E15-CCEE-4789-A85A-30F6F2687DDB}"/>
-    <hyperlink ref="N80" r:id="rId42" xr:uid="{5295A881-8A97-4DCA-B4FF-5340FC387BB0}"/>
+    <hyperlink ref="N43" r:id="rId36" xr:uid="{4168F030-70D5-4989-9119-2475009362E1}"/>
+    <hyperlink ref="O43" r:id="rId37" xr:uid="{5A92DAC5-EC7E-4D29-95AB-4823CEAB5BDA}"/>
+    <hyperlink ref="N52" r:id="rId38" xr:uid="{6D6E46C7-CF24-494C-8AEB-8E8DA672C3EA}"/>
+    <hyperlink ref="O62" r:id="rId39" xr:uid="{BA070329-49D5-4F78-B73D-25722BAB6BF2}"/>
+    <hyperlink ref="N46" r:id="rId40" xr:uid="{14A3D751-75C2-4733-B863-159021B6268F}"/>
+    <hyperlink ref="N66" r:id="rId41" xr:uid="{C94D9E15-CCEE-4789-A85A-30F6F2687DDB}"/>
+    <hyperlink ref="N82" r:id="rId42" xr:uid="{5295A881-8A97-4DCA-B4FF-5340FC387BB0}"/>
     <hyperlink ref="N4" r:id="rId43" xr:uid="{93620433-4257-4E22-8C56-7210E438F4C0}"/>
     <hyperlink ref="O4" r:id="rId44" xr:uid="{DFF8E0C9-2683-4CE7-84CB-ABD2843D367F}"/>
-    <hyperlink ref="N81" r:id="rId45" xr:uid="{C234CDD0-279D-4208-B561-B9C90652DCA5}"/>
-    <hyperlink ref="N62" r:id="rId46" xr:uid="{4C9CB35A-98B5-4DC0-9E00-2B53DFA1EEB8}"/>
-    <hyperlink ref="O101" r:id="rId47" xr:uid="{7932F0E4-7F39-4C8A-B2DE-DEE5226F1E69}"/>
-    <hyperlink ref="O90" r:id="rId48" xr:uid="{74172E97-9606-46E4-9B69-BA8290FCC58B}"/>
-    <hyperlink ref="O115" r:id="rId49" xr:uid="{AF5B27F4-908C-4604-9FE5-C28D135D5B9A}"/>
-    <hyperlink ref="O67" r:id="rId50" xr:uid="{84C5678B-A0E7-4081-9DF7-0CD90C6B476F}"/>
-    <hyperlink ref="O99" r:id="rId51" xr:uid="{8328828A-CF10-4057-9A80-E5A6B7F0807B}"/>
-    <hyperlink ref="N121" r:id="rId52" xr:uid="{95D7483E-CB10-4C16-9099-FE490CD59B61}"/>
-    <hyperlink ref="O121" r:id="rId53" xr:uid="{933EAF14-86B8-4705-AE34-EA40D7613481}"/>
+    <hyperlink ref="N83" r:id="rId45" xr:uid="{C234CDD0-279D-4208-B561-B9C90652DCA5}"/>
+    <hyperlink ref="N64" r:id="rId46" xr:uid="{4C9CB35A-98B5-4DC0-9E00-2B53DFA1EEB8}"/>
+    <hyperlink ref="O103" r:id="rId47" xr:uid="{7932F0E4-7F39-4C8A-B2DE-DEE5226F1E69}"/>
+    <hyperlink ref="O92" r:id="rId48" xr:uid="{74172E97-9606-46E4-9B69-BA8290FCC58B}"/>
+    <hyperlink ref="O117" r:id="rId49" xr:uid="{AF5B27F4-908C-4604-9FE5-C28D135D5B9A}"/>
+    <hyperlink ref="O69" r:id="rId50" xr:uid="{84C5678B-A0E7-4081-9DF7-0CD90C6B476F}"/>
+    <hyperlink ref="O101" r:id="rId51" xr:uid="{8328828A-CF10-4057-9A80-E5A6B7F0807B}"/>
+    <hyperlink ref="N123" r:id="rId52" xr:uid="{95D7483E-CB10-4C16-9099-FE490CD59B61}"/>
+    <hyperlink ref="O123" r:id="rId53" xr:uid="{933EAF14-86B8-4705-AE34-EA40D7613481}"/>
     <hyperlink ref="O31" r:id="rId54" xr:uid="{0C9F7298-26BA-4D73-B520-73B5B0C885CB}"/>
     <hyperlink ref="O22" r:id="rId55" xr:uid="{DF902F85-F019-413D-A5AD-7FDDF343699B}"/>
     <hyperlink ref="N25" r:id="rId56" xr:uid="{6D603FA7-1F94-44ED-A39B-3872B5F432D7}"/>
@@ -34754,80 +34959,80 @@
     <hyperlink ref="O37" r:id="rId64" xr:uid="{DDAD72FF-B3C0-4351-B9B9-001CD0C8B001}"/>
     <hyperlink ref="O38" r:id="rId65" xr:uid="{B149B0D9-26AF-4DCA-8553-049F213EFB18}"/>
     <hyperlink ref="O39" r:id="rId66" xr:uid="{100DDCBE-3D38-445E-A452-EE5C5AFB144C}"/>
-    <hyperlink ref="N42" r:id="rId67" xr:uid="{8CE78BAA-FD61-48F7-9B9C-6A6D3C538448}"/>
-    <hyperlink ref="O42" r:id="rId68" xr:uid="{03A2E42E-543E-4979-8ED6-E30CF0DCB031}"/>
-    <hyperlink ref="O98" r:id="rId69" xr:uid="{BAF15FEF-FC9D-47B3-893E-CCF0E0E74DA8}"/>
-    <hyperlink ref="N116" r:id="rId70" xr:uid="{24D1D72D-844A-4582-89F8-113C55061937}"/>
-    <hyperlink ref="O103" r:id="rId71" xr:uid="{CD71B59B-7B01-4EE0-AAF5-A810CF9A1EB0}"/>
-    <hyperlink ref="O114" r:id="rId72" xr:uid="{15A7B146-272E-4726-939B-BF851BCB025D}"/>
-    <hyperlink ref="N122" r:id="rId73" xr:uid="{8D4218B3-DB8D-42B9-AB4E-0E58E2771FF3}"/>
-    <hyperlink ref="N118" r:id="rId74" xr:uid="{F6FDCAFD-1BAE-4ABF-9812-4CA6818C3593}"/>
-    <hyperlink ref="N67" r:id="rId75" xr:uid="{AB6E247C-6E4E-497D-BAF4-6B3E6AEE0D59}"/>
+    <hyperlink ref="N44" r:id="rId67" xr:uid="{8CE78BAA-FD61-48F7-9B9C-6A6D3C538448}"/>
+    <hyperlink ref="O44" r:id="rId68" xr:uid="{03A2E42E-543E-4979-8ED6-E30CF0DCB031}"/>
+    <hyperlink ref="O100" r:id="rId69" xr:uid="{BAF15FEF-FC9D-47B3-893E-CCF0E0E74DA8}"/>
+    <hyperlink ref="N118" r:id="rId70" xr:uid="{24D1D72D-844A-4582-89F8-113C55061937}"/>
+    <hyperlink ref="O105" r:id="rId71" xr:uid="{CD71B59B-7B01-4EE0-AAF5-A810CF9A1EB0}"/>
+    <hyperlink ref="O116" r:id="rId72" xr:uid="{15A7B146-272E-4726-939B-BF851BCB025D}"/>
+    <hyperlink ref="N124" r:id="rId73" xr:uid="{8D4218B3-DB8D-42B9-AB4E-0E58E2771FF3}"/>
+    <hyperlink ref="N120" r:id="rId74" xr:uid="{F6FDCAFD-1BAE-4ABF-9812-4CA6818C3593}"/>
+    <hyperlink ref="N69" r:id="rId75" xr:uid="{AB6E247C-6E4E-497D-BAF4-6B3E6AEE0D59}"/>
     <hyperlink ref="N20" r:id="rId76" xr:uid="{BCB93EB0-7FB4-4F75-B939-BC18FA0FE03F}"/>
     <hyperlink ref="O20" r:id="rId77" xr:uid="{72CFFA9D-C09A-4686-A97C-2F10993CAFF2}"/>
-    <hyperlink ref="O118" r:id="rId78" xr:uid="{FBB40418-FA0D-47E6-9CF5-23BA6A65E520}"/>
-    <hyperlink ref="O102" r:id="rId79" xr:uid="{D59CE17C-F9E2-4BCB-A342-083B5EB6E01E}"/>
-    <hyperlink ref="N101" r:id="rId80" xr:uid="{1616C9EC-B973-4BA6-B56A-7CD2E6C81B4F}"/>
-    <hyperlink ref="N114" r:id="rId81" xr:uid="{DA02441F-2DC7-4C12-9523-8E5F9F6BA024}"/>
+    <hyperlink ref="O120" r:id="rId78" xr:uid="{FBB40418-FA0D-47E6-9CF5-23BA6A65E520}"/>
+    <hyperlink ref="O104" r:id="rId79" xr:uid="{D59CE17C-F9E2-4BCB-A342-083B5EB6E01E}"/>
+    <hyperlink ref="N103" r:id="rId80" xr:uid="{1616C9EC-B973-4BA6-B56A-7CD2E6C81B4F}"/>
+    <hyperlink ref="N116" r:id="rId81" xr:uid="{DA02441F-2DC7-4C12-9523-8E5F9F6BA024}"/>
     <hyperlink ref="N19" r:id="rId82" xr:uid="{CA9B2AA9-2939-4AE7-BEDE-9858E4423AA3}"/>
     <hyperlink ref="O19" r:id="rId83" xr:uid="{FDF65663-AD6F-4B45-9D12-93472B988354}"/>
-    <hyperlink ref="O69" r:id="rId84" xr:uid="{75A4C036-9814-4771-BAB0-AF42B270117F}"/>
-    <hyperlink ref="O70" r:id="rId85" xr:uid="{705AC95E-10D7-4C8F-B92B-26C63B61962B}"/>
-    <hyperlink ref="O47" r:id="rId86" xr:uid="{21F432BA-DEE6-4108-A815-33033F04316E}"/>
-    <hyperlink ref="N59" r:id="rId87" xr:uid="{C04DB4E3-6A32-467F-9F58-D97B97B7D573}"/>
-    <hyperlink ref="N53" r:id="rId88" xr:uid="{BBC0A217-5E69-4DF2-BD6B-F1B6A936FCFE}"/>
-    <hyperlink ref="N58" r:id="rId89" xr:uid="{8597B19C-FDC2-4C60-BD1E-4570DD14FB14}"/>
-    <hyperlink ref="N48" r:id="rId90" xr:uid="{AF96AE78-5DA0-477F-B4CC-64F374C88271}"/>
-    <hyperlink ref="N55" r:id="rId91" xr:uid="{2329F997-2677-4AB8-BD76-8AAD0396E995}"/>
-    <hyperlink ref="N51" r:id="rId92" xr:uid="{E211CDBE-9290-4198-B9C3-6CCF88544EC3}"/>
-    <hyperlink ref="N52" r:id="rId93" xr:uid="{D40769B6-D987-48D9-8128-F1403A3D437B}"/>
-    <hyperlink ref="N54" r:id="rId94" xr:uid="{D1F530FA-4A06-409B-998A-554ABF030FF0}"/>
-    <hyperlink ref="N57" r:id="rId95" xr:uid="{6DC1560A-0A1A-483F-B860-097009F52E37}"/>
-    <hyperlink ref="N60" r:id="rId96" xr:uid="{4123037A-9ABE-4B38-9B56-BA849671D6F6}"/>
-    <hyperlink ref="O48" r:id="rId97" xr:uid="{47417BB8-0974-410C-9329-1383AA36DF21}"/>
-    <hyperlink ref="O55" r:id="rId98" xr:uid="{9DF1EE55-897E-4535-99DB-F838EC1A04BF}"/>
-    <hyperlink ref="O49" r:id="rId99" xr:uid="{ACD89E24-FC92-4B71-AC96-8BC13ABDFF2A}"/>
-    <hyperlink ref="O51" r:id="rId100" xr:uid="{B6D2817B-567C-4886-8411-9CFE322CFF5E}"/>
-    <hyperlink ref="O50" r:id="rId101" xr:uid="{BB457479-B226-41E3-B9B4-039239A17A33}"/>
-    <hyperlink ref="O52" r:id="rId102" xr:uid="{92B6B4B1-CBF6-4FF6-8C86-EE00CD9BB97B}"/>
-    <hyperlink ref="O54" r:id="rId103" xr:uid="{B027C521-FF13-4853-A00A-B683F179ED70}"/>
-    <hyperlink ref="N46" r:id="rId104" xr:uid="{07A8EC4B-3154-4F3F-86FE-359E3434837C}"/>
-    <hyperlink ref="N63" r:id="rId105" xr:uid="{C8008EEF-1FC6-44E1-80E0-1EECB0FFE573}"/>
+    <hyperlink ref="O71" r:id="rId84" xr:uid="{75A4C036-9814-4771-BAB0-AF42B270117F}"/>
+    <hyperlink ref="O72" r:id="rId85" xr:uid="{705AC95E-10D7-4C8F-B92B-26C63B61962B}"/>
+    <hyperlink ref="O49" r:id="rId86" xr:uid="{21F432BA-DEE6-4108-A815-33033F04316E}"/>
+    <hyperlink ref="N61" r:id="rId87" xr:uid="{C04DB4E3-6A32-467F-9F58-D97B97B7D573}"/>
+    <hyperlink ref="N55" r:id="rId88" xr:uid="{BBC0A217-5E69-4DF2-BD6B-F1B6A936FCFE}"/>
+    <hyperlink ref="N60" r:id="rId89" xr:uid="{8597B19C-FDC2-4C60-BD1E-4570DD14FB14}"/>
+    <hyperlink ref="N50" r:id="rId90" xr:uid="{AF96AE78-5DA0-477F-B4CC-64F374C88271}"/>
+    <hyperlink ref="N57" r:id="rId91" xr:uid="{2329F997-2677-4AB8-BD76-8AAD0396E995}"/>
+    <hyperlink ref="N53" r:id="rId92" xr:uid="{E211CDBE-9290-4198-B9C3-6CCF88544EC3}"/>
+    <hyperlink ref="N54" r:id="rId93" xr:uid="{D40769B6-D987-48D9-8128-F1403A3D437B}"/>
+    <hyperlink ref="N56" r:id="rId94" xr:uid="{D1F530FA-4A06-409B-998A-554ABF030FF0}"/>
+    <hyperlink ref="N59" r:id="rId95" xr:uid="{6DC1560A-0A1A-483F-B860-097009F52E37}"/>
+    <hyperlink ref="N62" r:id="rId96" xr:uid="{4123037A-9ABE-4B38-9B56-BA849671D6F6}"/>
+    <hyperlink ref="O50" r:id="rId97" xr:uid="{47417BB8-0974-410C-9329-1383AA36DF21}"/>
+    <hyperlink ref="O57" r:id="rId98" xr:uid="{9DF1EE55-897E-4535-99DB-F838EC1A04BF}"/>
+    <hyperlink ref="O51" r:id="rId99" xr:uid="{ACD89E24-FC92-4B71-AC96-8BC13ABDFF2A}"/>
+    <hyperlink ref="O53" r:id="rId100" xr:uid="{B6D2817B-567C-4886-8411-9CFE322CFF5E}"/>
+    <hyperlink ref="O52" r:id="rId101" xr:uid="{BB457479-B226-41E3-B9B4-039239A17A33}"/>
+    <hyperlink ref="O54" r:id="rId102" xr:uid="{92B6B4B1-CBF6-4FF6-8C86-EE00CD9BB97B}"/>
+    <hyperlink ref="O56" r:id="rId103" xr:uid="{B027C521-FF13-4853-A00A-B683F179ED70}"/>
+    <hyperlink ref="N48" r:id="rId104" xr:uid="{07A8EC4B-3154-4F3F-86FE-359E3434837C}"/>
+    <hyperlink ref="N65" r:id="rId105" xr:uid="{C8008EEF-1FC6-44E1-80E0-1EECB0FFE573}"/>
     <hyperlink ref="N34" r:id="rId106" xr:uid="{FA4D8C18-B9BA-4BFD-AA1F-65FFF16A3BF4}"/>
-    <hyperlink ref="N72" r:id="rId107" xr:uid="{2B7F649B-B6DC-4DC3-B321-53637AE6AFBD}"/>
-    <hyperlink ref="N71" r:id="rId108" xr:uid="{B65410BB-A2A5-4178-8033-FDAD11DB2FA0}"/>
-    <hyperlink ref="N79" r:id="rId109" xr:uid="{F0127DB6-E5D1-4584-A8F3-91D7B7135DA8}"/>
-    <hyperlink ref="N77" r:id="rId110" xr:uid="{D6675414-9854-4885-8C6B-95A3BF4F9F9D}"/>
+    <hyperlink ref="N74" r:id="rId107" xr:uid="{2B7F649B-B6DC-4DC3-B321-53637AE6AFBD}"/>
+    <hyperlink ref="N73" r:id="rId108" xr:uid="{B65410BB-A2A5-4178-8033-FDAD11DB2FA0}"/>
+    <hyperlink ref="N81" r:id="rId109" xr:uid="{F0127DB6-E5D1-4584-A8F3-91D7B7135DA8}"/>
+    <hyperlink ref="N79" r:id="rId110" xr:uid="{D6675414-9854-4885-8C6B-95A3BF4F9F9D}"/>
     <hyperlink ref="N13" r:id="rId111" xr:uid="{A5F355DA-0161-4583-B31C-6BA1E8D4FB65}"/>
     <hyperlink ref="N35" r:id="rId112" xr:uid="{44317B09-58EF-4A40-B136-2B9E691FF03E}"/>
-    <hyperlink ref="N82" r:id="rId113" xr:uid="{CABCEC00-F62E-4BDD-9690-C87878E8657E}"/>
+    <hyperlink ref="N84" r:id="rId113" xr:uid="{CABCEC00-F62E-4BDD-9690-C87878E8657E}"/>
     <hyperlink ref="N14" r:id="rId114" xr:uid="{5543C585-98C6-489E-B423-10F7A7573AFC}"/>
-    <hyperlink ref="N84" r:id="rId115" xr:uid="{207E6AAE-E897-4FCF-8386-83EBEA03A04D}"/>
+    <hyperlink ref="N86" r:id="rId115" xr:uid="{207E6AAE-E897-4FCF-8386-83EBEA03A04D}"/>
     <hyperlink ref="N15" r:id="rId116" xr:uid="{C1BC4D9C-019C-422A-B2BA-760EE6ACEA40}"/>
-    <hyperlink ref="N86" r:id="rId117" xr:uid="{5D6E8D8C-561F-4424-B72A-01EA95EC3776}"/>
-    <hyperlink ref="N91" r:id="rId118" xr:uid="{172F45E3-A464-4ADB-8CF5-B78D778D5448}"/>
-    <hyperlink ref="N89" r:id="rId119" xr:uid="{5DA3D3CD-B27D-4BB5-B445-517788D16158}"/>
-    <hyperlink ref="N93" r:id="rId120" xr:uid="{D9A7F3FA-D218-4461-AD74-8A68E49EBA97}"/>
+    <hyperlink ref="N88" r:id="rId117" xr:uid="{5D6E8D8C-561F-4424-B72A-01EA95EC3776}"/>
+    <hyperlink ref="N93" r:id="rId118" xr:uid="{172F45E3-A464-4ADB-8CF5-B78D778D5448}"/>
+    <hyperlink ref="N91" r:id="rId119" xr:uid="{5DA3D3CD-B27D-4BB5-B445-517788D16158}"/>
+    <hyperlink ref="N95" r:id="rId120" xr:uid="{D9A7F3FA-D218-4461-AD74-8A68E49EBA97}"/>
     <hyperlink ref="N17" r:id="rId121" xr:uid="{E57CD094-E3CE-48AC-B662-99D9D419C2ED}"/>
     <hyperlink ref="N36" r:id="rId122" xr:uid="{677809AF-F923-479B-9661-742E08875C40}"/>
     <hyperlink ref="N37" r:id="rId123" xr:uid="{A58DA0F5-693E-4B7D-9327-814865DF8970}"/>
     <hyperlink ref="N18" r:id="rId124" xr:uid="{52B4B470-C2A5-46F0-AC00-B5BB7C41C30E}"/>
     <hyperlink ref="N38" r:id="rId125" xr:uid="{14A63E12-DC26-4D6A-A5E5-AA603635D426}"/>
-    <hyperlink ref="N104" r:id="rId126" xr:uid="{413F22A8-77A1-4D62-9C62-31E380B63DCD}"/>
-    <hyperlink ref="N106" r:id="rId127" xr:uid="{E49F8478-4F8D-4721-928D-9DCE375E3853}"/>
-    <hyperlink ref="N107" r:id="rId128" xr:uid="{DC851697-7D78-4E87-9FF3-276BB1C162B8}"/>
-    <hyperlink ref="N108" r:id="rId129" xr:uid="{620AA8E8-E0E8-40E3-B937-8AFDB68BEDB0}"/>
-    <hyperlink ref="N109" r:id="rId130" xr:uid="{5C818DD8-36D7-4C31-902B-7183A792B93F}"/>
-    <hyperlink ref="N110" r:id="rId131" xr:uid="{7F94B65D-2F10-47F8-97C5-CDE9ADBBFF30}"/>
-    <hyperlink ref="N111" r:id="rId132" xr:uid="{9BB9757D-4D67-4713-AE94-9FCE116EC0F5}"/>
-    <hyperlink ref="N112" r:id="rId133" xr:uid="{F2D1BDA4-7D3F-4592-B53A-1D70FF1DB563}"/>
+    <hyperlink ref="N106" r:id="rId126" xr:uid="{413F22A8-77A1-4D62-9C62-31E380B63DCD}"/>
+    <hyperlink ref="N108" r:id="rId127" xr:uid="{E49F8478-4F8D-4721-928D-9DCE375E3853}"/>
+    <hyperlink ref="N109" r:id="rId128" xr:uid="{DC851697-7D78-4E87-9FF3-276BB1C162B8}"/>
+    <hyperlink ref="N110" r:id="rId129" xr:uid="{620AA8E8-E0E8-40E3-B937-8AFDB68BEDB0}"/>
+    <hyperlink ref="N111" r:id="rId130" xr:uid="{5C818DD8-36D7-4C31-902B-7183A792B93F}"/>
+    <hyperlink ref="N112" r:id="rId131" xr:uid="{7F94B65D-2F10-47F8-97C5-CDE9ADBBFF30}"/>
+    <hyperlink ref="N113" r:id="rId132" xr:uid="{9BB9757D-4D67-4713-AE94-9FCE116EC0F5}"/>
+    <hyperlink ref="N114" r:id="rId133" xr:uid="{F2D1BDA4-7D3F-4592-B53A-1D70FF1DB563}"/>
     <hyperlink ref="N39" r:id="rId134" xr:uid="{A1158297-62A0-42E7-9FE1-204617186BF6}"/>
-    <hyperlink ref="N105" r:id="rId135" xr:uid="{5ACDBDC5-78E8-4BE0-9AC3-EDA50147D007}"/>
+    <hyperlink ref="N107" r:id="rId135" xr:uid="{5ACDBDC5-78E8-4BE0-9AC3-EDA50147D007}"/>
     <hyperlink ref="N23" r:id="rId136" xr:uid="{9DF83799-9F93-458C-8D64-9A6CC34936E1}"/>
     <hyperlink ref="N16" r:id="rId137" xr:uid="{4C89344A-8DEB-4B5A-ACDE-5D23902D586F}"/>
     <hyperlink ref="N12" r:id="rId138" xr:uid="{23FB70CA-F436-4F7D-9520-3A6373FAF8B7}"/>
-    <hyperlink ref="O46" r:id="rId139" xr:uid="{5192A2B3-45D1-441D-BED1-87A711189B9E}"/>
-    <hyperlink ref="O95" r:id="rId140" xr:uid="{F3590D82-C684-4AF5-9C96-15F5BFA91410}"/>
+    <hyperlink ref="O48" r:id="rId139" xr:uid="{5192A2B3-45D1-441D-BED1-87A711189B9E}"/>
+    <hyperlink ref="O97" r:id="rId140" xr:uid="{F3590D82-C684-4AF5-9C96-15F5BFA91410}"/>
     <hyperlink ref="O5" r:id="rId141" xr:uid="{620B0FBE-7890-48E7-A886-13C1A1E19A93}"/>
     <hyperlink ref="O23" r:id="rId142" xr:uid="{E4777167-491D-4BD3-8E81-99C114A0834A}"/>
     <hyperlink ref="O24" r:id="rId143" xr:uid="{F876A216-F456-43FC-9FE9-D5EF77482822}"/>
@@ -34839,63 +35044,65 @@
     <hyperlink ref="O28" r:id="rId149" xr:uid="{2DD79063-AE11-48CE-9A7E-8E9B98571FBA}"/>
     <hyperlink ref="O21" r:id="rId150" xr:uid="{06D1A67B-2D87-4F9F-AF82-D8DA5455ACF4}"/>
     <hyperlink ref="O12" r:id="rId151" xr:uid="{8A88E0AF-425D-4E54-A093-32B4AE4FD8F6}"/>
-    <hyperlink ref="O57" r:id="rId152" xr:uid="{6FF346BA-0611-4AFA-B202-C074977875A2}"/>
-    <hyperlink ref="O44" r:id="rId153" xr:uid="{1F47C19E-B607-4B7A-ABFA-A967DE94BCA3}"/>
-    <hyperlink ref="O63" r:id="rId154" xr:uid="{98B5B714-C060-4931-9656-C947273C8A79}"/>
-    <hyperlink ref="O68" r:id="rId155" xr:uid="{C7FF86DD-F5FA-4A40-85D8-CA76230FC957}"/>
-    <hyperlink ref="O64" r:id="rId156" xr:uid="{C227D00F-58F4-4A68-8AAE-B2ABCE8FB85E}"/>
-    <hyperlink ref="O72" r:id="rId157" xr:uid="{5242DF62-4A22-4ED7-9F05-DCB734B2113C}"/>
-    <hyperlink ref="O71" r:id="rId158" xr:uid="{9A7609D3-7D8E-4C4A-8AEA-452AE0FA7D25}"/>
+    <hyperlink ref="O59" r:id="rId152" xr:uid="{6FF346BA-0611-4AFA-B202-C074977875A2}"/>
+    <hyperlink ref="O46" r:id="rId153" xr:uid="{1F47C19E-B607-4B7A-ABFA-A967DE94BCA3}"/>
+    <hyperlink ref="O65" r:id="rId154" xr:uid="{98B5B714-C060-4931-9656-C947273C8A79}"/>
+    <hyperlink ref="O70" r:id="rId155" xr:uid="{C7FF86DD-F5FA-4A40-85D8-CA76230FC957}"/>
+    <hyperlink ref="O66" r:id="rId156" xr:uid="{C227D00F-58F4-4A68-8AAE-B2ABCE8FB85E}"/>
+    <hyperlink ref="O74" r:id="rId157" xr:uid="{5242DF62-4A22-4ED7-9F05-DCB734B2113C}"/>
+    <hyperlink ref="O73" r:id="rId158" xr:uid="{9A7609D3-7D8E-4C4A-8AEA-452AE0FA7D25}"/>
     <hyperlink ref="O6" r:id="rId159" xr:uid="{51B25D32-FFD9-43F2-9C5F-06368A4DCF31}"/>
-    <hyperlink ref="O79" r:id="rId160" xr:uid="{457779B0-3910-4DF4-9287-78089B75614E}"/>
-    <hyperlink ref="O77" r:id="rId161" xr:uid="{8F4EF2FE-8372-4FD0-B21B-0C73B90F723E}"/>
-    <hyperlink ref="O80" r:id="rId162" xr:uid="{039752D6-A57E-42F7-BA40-8C6F6916F6AB}"/>
+    <hyperlink ref="O81" r:id="rId160" xr:uid="{457779B0-3910-4DF4-9287-78089B75614E}"/>
+    <hyperlink ref="O79" r:id="rId161" xr:uid="{8F4EF2FE-8372-4FD0-B21B-0C73B90F723E}"/>
+    <hyperlink ref="O82" r:id="rId162" xr:uid="{039752D6-A57E-42F7-BA40-8C6F6916F6AB}"/>
     <hyperlink ref="O13" r:id="rId163" xr:uid="{A90D194B-4E3C-444A-836D-6B5DB5BE736F}"/>
-    <hyperlink ref="O81" r:id="rId164" xr:uid="{43676EE7-6CC7-4535-89EF-4313B121B397}"/>
+    <hyperlink ref="O83" r:id="rId164" xr:uid="{43676EE7-6CC7-4535-89EF-4313B121B397}"/>
     <hyperlink ref="O14" r:id="rId165" xr:uid="{60E836C5-06DB-4B9A-BB8B-F3EA2AB8908E}"/>
-    <hyperlink ref="O83" r:id="rId166" xr:uid="{48445DE7-4124-459A-89FE-A5785E8E6D21}"/>
-    <hyperlink ref="O84" r:id="rId167" xr:uid="{92547D63-9E10-4C2A-B940-F80F86C31D6C}"/>
+    <hyperlink ref="O85" r:id="rId166" xr:uid="{48445DE7-4124-459A-89FE-A5785E8E6D21}"/>
+    <hyperlink ref="O86" r:id="rId167" xr:uid="{92547D63-9E10-4C2A-B940-F80F86C31D6C}"/>
     <hyperlink ref="O15" r:id="rId168" xr:uid="{07239EE8-B9CC-484E-8B7D-D4422BB013EF}"/>
-    <hyperlink ref="O86" r:id="rId169" xr:uid="{38AD3B56-8CE4-4A88-8E60-759B3016A491}"/>
-    <hyperlink ref="O91" r:id="rId170" xr:uid="{86F4132D-8166-41D6-939D-D1945683D6A9}"/>
-    <hyperlink ref="O89" r:id="rId171" xr:uid="{66A7EF04-2FDB-4C3B-975E-7D3C74F244A9}"/>
-    <hyperlink ref="O93" r:id="rId172" xr:uid="{BA6720FD-FEE7-4DB0-A843-2EA5626483C1}"/>
-    <hyperlink ref="O78" r:id="rId173" xr:uid="{E146E9FE-BFFA-4CC4-B47B-1EA975C335A4}"/>
+    <hyperlink ref="O88" r:id="rId169" xr:uid="{38AD3B56-8CE4-4A88-8E60-759B3016A491}"/>
+    <hyperlink ref="O93" r:id="rId170" xr:uid="{86F4132D-8166-41D6-939D-D1945683D6A9}"/>
+    <hyperlink ref="O91" r:id="rId171" xr:uid="{66A7EF04-2FDB-4C3B-975E-7D3C74F244A9}"/>
+    <hyperlink ref="O95" r:id="rId172" xr:uid="{BA6720FD-FEE7-4DB0-A843-2EA5626483C1}"/>
+    <hyperlink ref="O80" r:id="rId173" xr:uid="{E146E9FE-BFFA-4CC4-B47B-1EA975C335A4}"/>
     <hyperlink ref="O17" r:id="rId174" xr:uid="{DEA61234-433D-41CE-982A-5C458C6C9CE7}"/>
-    <hyperlink ref="O94" r:id="rId175" xr:uid="{A3C3D363-450B-47FC-85E0-69B19823C28F}"/>
+    <hyperlink ref="O96" r:id="rId175" xr:uid="{A3C3D363-450B-47FC-85E0-69B19823C28F}"/>
     <hyperlink ref="O18" r:id="rId176" xr:uid="{B8F617E8-3043-49ED-A585-92DB248768F3}"/>
-    <hyperlink ref="O104" r:id="rId177" xr:uid="{D23D7F1D-2BBE-49F6-AC74-60F99A2EA57A}"/>
-    <hyperlink ref="O106" r:id="rId178" xr:uid="{EBD0BDC5-4ED9-4F5F-BF58-85383C670443}"/>
-    <hyperlink ref="O107" r:id="rId179" xr:uid="{A5B805CB-CAD5-41FA-9EBA-D9642CBFE26D}"/>
-    <hyperlink ref="O108" r:id="rId180" xr:uid="{19A859D1-052B-4DAB-B7CC-0A6AC9D8F7F2}"/>
-    <hyperlink ref="O109" r:id="rId181" xr:uid="{5C25EA57-1862-4EB2-B42F-C38878D6FDBB}"/>
-    <hyperlink ref="O110" r:id="rId182" xr:uid="{137F4CB3-5E96-4F0B-9112-FB0E767219A3}"/>
-    <hyperlink ref="O111" r:id="rId183" xr:uid="{381C9CC3-D7F0-4DA5-B89C-D32C1EFFAE7F}"/>
-    <hyperlink ref="O112" r:id="rId184" xr:uid="{442FADE2-705E-4347-9E1B-6BE95B74C7E9}"/>
-    <hyperlink ref="O105" r:id="rId185" xr:uid="{05D0A8E5-D137-468D-956A-C6A0EC0AF994}"/>
+    <hyperlink ref="O106" r:id="rId177" xr:uid="{D23D7F1D-2BBE-49F6-AC74-60F99A2EA57A}"/>
+    <hyperlink ref="O108" r:id="rId178" xr:uid="{EBD0BDC5-4ED9-4F5F-BF58-85383C670443}"/>
+    <hyperlink ref="O109" r:id="rId179" xr:uid="{A5B805CB-CAD5-41FA-9EBA-D9642CBFE26D}"/>
+    <hyperlink ref="O110" r:id="rId180" xr:uid="{19A859D1-052B-4DAB-B7CC-0A6AC9D8F7F2}"/>
+    <hyperlink ref="O111" r:id="rId181" xr:uid="{5C25EA57-1862-4EB2-B42F-C38878D6FDBB}"/>
+    <hyperlink ref="O112" r:id="rId182" xr:uid="{137F4CB3-5E96-4F0B-9112-FB0E767219A3}"/>
+    <hyperlink ref="O113" r:id="rId183" xr:uid="{381C9CC3-D7F0-4DA5-B89C-D32C1EFFAE7F}"/>
+    <hyperlink ref="O114" r:id="rId184" xr:uid="{442FADE2-705E-4347-9E1B-6BE95B74C7E9}"/>
+    <hyperlink ref="O107" r:id="rId185" xr:uid="{05D0A8E5-D137-468D-956A-C6A0EC0AF994}"/>
     <hyperlink ref="O30" r:id="rId186" xr:uid="{620792CE-5A18-431A-8E73-2089AAC2983A}"/>
     <hyperlink ref="N3" r:id="rId187" xr:uid="{18B11FEB-46B8-4F25-B7A7-43D0660773AF}"/>
     <hyperlink ref="O3" r:id="rId188" xr:uid="{DF8AF1A2-5F3B-473B-B683-E72393CE6C51}"/>
     <hyperlink ref="O26" r:id="rId189" xr:uid="{126CAD1B-6FF2-4635-9D25-3F3F7D9670EA}"/>
-    <hyperlink ref="N74" r:id="rId190" xr:uid="{489CA57F-DCF3-41DA-8898-872148FB6F5F}"/>
-    <hyperlink ref="O74" r:id="rId191" xr:uid="{9654F2F7-1E02-4E09-A37F-80D575E0BA5D}"/>
-    <hyperlink ref="N117" r:id="rId192" xr:uid="{379242D3-4097-44A4-BCAA-022CAB27D0A6}"/>
-    <hyperlink ref="O117" r:id="rId193" xr:uid="{C4642B4A-6CA6-4B1B-AEA7-F282A7BA1125}"/>
-    <hyperlink ref="N92" r:id="rId194" xr:uid="{E7B471DC-8260-46D5-8219-67CCDE010FF7}"/>
-    <hyperlink ref="O92" r:id="rId195" xr:uid="{E3CDA6E1-5BA4-46F2-A80F-5C15D83C0303}"/>
-    <hyperlink ref="N65" r:id="rId196" location=" " xr:uid="{59759E3E-3E56-4248-9A1D-100570F87189}"/>
-    <hyperlink ref="N66" r:id="rId197" xr:uid="{3EE4CC13-C8A8-4DC2-8307-EE051275073A}"/>
-    <hyperlink ref="O66" r:id="rId198" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{817CC67B-E10C-486B-B840-1A90AC8F8001}"/>
-    <hyperlink ref="O65" r:id="rId199" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{9872E0DC-DD1A-4F7D-990B-D11F499DF594}"/>
-    <hyperlink ref="N88" r:id="rId200" xr:uid="{C59116B7-9A37-45AD-944D-31FBA0AB37FA}"/>
-    <hyperlink ref="N87" r:id="rId201" xr:uid="{B3CB67E7-9836-4B7C-A6F0-C8CB27F2953C}"/>
-    <hyperlink ref="O88" r:id="rId202" xr:uid="{34F30490-219E-4B7D-A1EC-0B260FE981E2}"/>
-    <hyperlink ref="O87" r:id="rId203" xr:uid="{41BD3A7F-AFCD-4935-8926-4154FF4269C0}"/>
+    <hyperlink ref="N76" r:id="rId190" xr:uid="{489CA57F-DCF3-41DA-8898-872148FB6F5F}"/>
+    <hyperlink ref="O76" r:id="rId191" xr:uid="{9654F2F7-1E02-4E09-A37F-80D575E0BA5D}"/>
+    <hyperlink ref="N119" r:id="rId192" xr:uid="{379242D3-4097-44A4-BCAA-022CAB27D0A6}"/>
+    <hyperlink ref="O119" r:id="rId193" xr:uid="{C4642B4A-6CA6-4B1B-AEA7-F282A7BA1125}"/>
+    <hyperlink ref="N94" r:id="rId194" xr:uid="{E7B471DC-8260-46D5-8219-67CCDE010FF7}"/>
+    <hyperlink ref="O94" r:id="rId195" xr:uid="{E3CDA6E1-5BA4-46F2-A80F-5C15D83C0303}"/>
+    <hyperlink ref="N67" r:id="rId196" location=" " xr:uid="{59759E3E-3E56-4248-9A1D-100570F87189}"/>
+    <hyperlink ref="N68" r:id="rId197" xr:uid="{3EE4CC13-C8A8-4DC2-8307-EE051275073A}"/>
+    <hyperlink ref="O68" r:id="rId198" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{817CC67B-E10C-486B-B840-1A90AC8F8001}"/>
+    <hyperlink ref="O67" r:id="rId199" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{9872E0DC-DD1A-4F7D-990B-D11F499DF594}"/>
+    <hyperlink ref="N90" r:id="rId200" xr:uid="{C59116B7-9A37-45AD-944D-31FBA0AB37FA}"/>
+    <hyperlink ref="N89" r:id="rId201" xr:uid="{B3CB67E7-9836-4B7C-A6F0-C8CB27F2953C}"/>
+    <hyperlink ref="O90" r:id="rId202" xr:uid="{34F30490-219E-4B7D-A1EC-0B260FE981E2}"/>
+    <hyperlink ref="O89" r:id="rId203" xr:uid="{41BD3A7F-AFCD-4935-8926-4154FF4269C0}"/>
+    <hyperlink ref="N41" r:id="rId204" xr:uid="{255E7D4D-6124-4B25-BBDC-95ECD936A489}"/>
+    <hyperlink ref="O42" r:id="rId205" xr:uid="{B14227AF-54CC-4C9C-B4D0-136F1D70BCA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId204"/>
+  <legacyDrawing r:id="rId206"/>
   <tableParts count="1">
-    <tablePart r:id="rId205"/>
+    <tablePart r:id="rId207"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -34904,7 +35111,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G2 F4:G25 F27:G118 F119:F122</xm:sqref>
+          <xm:sqref>F2:G2 F4:G25 F27:G118 F119:F124</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -40681,15 +40888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -40893,6 +41091,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -40904,14 +41111,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40925,6 +41124,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C504A9CC-FCAD-4EAD-82C0-257046B09A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D0DFE-0F65-485E-B2B9-402E0FF3396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -1607,7 +1607,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6579" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6579" uniqueCount="1135">
   <si>
     <t>Count of Name</t>
   </si>
@@ -5058,13 +5058,16 @@
     <t>https://doi.org/10.1016/j.aei.2025.103761</t>
   </si>
   <si>
-    <t>geosparql</t>
-  </si>
-  <si>
     <t>DAnO is designed to standardize the representation of technical drawing data extracted through computer vision techniques. Focusing on floor plans, DAnO enables the aggregation, integration, and validation of extracted elements by defining key concepts, such as DrawingElement, DisplayElement, and DescriptionElement, and their relationships.</t>
   </si>
   <si>
     <t xml:space="preserve">beo, bot, sbeo, seas </t>
+  </si>
+  <si>
+    <t>https://w3id.org/dano</t>
+  </si>
+  <si>
+    <t>dc, schema, vann, foaf, skos, geosparql</t>
   </si>
 </sst>
 </file>
@@ -25031,10 +25034,10 @@
   <dimension ref="A1:AH126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27502,8 +27505,8 @@
       <c r="B28" s="205" t="s">
         <v>1125</v>
       </c>
-      <c r="C28" s="196" t="s">
-        <v>80</v>
+      <c r="C28" s="196">
+        <v>0.2</v>
       </c>
       <c r="D28" s="205">
         <v>2025</v>
@@ -27511,20 +27514,23 @@
       <c r="F28" s="205" t="s">
         <v>13</v>
       </c>
+      <c r="K28" s="205" t="s">
+        <v>198</v>
+      </c>
       <c r="M28" s="205" t="s">
-        <v>1132</v>
-      </c>
-      <c r="N28" s="38" t="s">
-        <v>80</v>
+        <v>1131</v>
+      </c>
+      <c r="N28" s="191" t="s">
+        <v>1133</v>
       </c>
       <c r="O28" s="191" t="s">
         <v>1130</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>1133</v>
-      </c>
-      <c r="Q28" s="202" t="s">
-        <v>1131</v>
+        <v>1132</v>
+      </c>
+      <c r="Q28" s="201" t="s">
+        <v>1134</v>
       </c>
       <c r="R28" s="184" t="s">
         <v>67</v>
@@ -27542,12 +27548,14 @@
         <v>68</v>
       </c>
       <c r="W28" s="184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X28" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="Y28" s="184"/>
+      <c r="Y28" s="184" t="s">
+        <v>67</v>
+      </c>
       <c r="Z28" s="199" t="s">
         <v>68</v>
       </c>
@@ -27558,11 +27566,11 @@
       </c>
       <c r="AC28" s="194">
         <f>COUNTIF(U28:W28, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="194">
         <f>COUNTIF(X28:Z28, "yes")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="194" t="s">
         <v>68</v>
@@ -32995,9 +33003,7 @@
       <c r="M90" t="s">
         <v>508</v>
       </c>
-      <c r="N90" s="198" t="s">
-        <v>80</v>
-      </c>
+      <c r="N90" s="191"/>
       <c r="O90" s="191" t="s">
         <v>509</v>
       </c>
@@ -36477,12 +36483,13 @@
     <hyperlink ref="O69" r:id="rId207" xr:uid="{8F6CA822-1BD4-4EE0-B1E1-9F4149E95A51}"/>
     <hyperlink ref="N69" r:id="rId208" xr:uid="{6C55BAE3-AC52-4A54-ADFB-4C03AECDF46E}"/>
     <hyperlink ref="O28" r:id="rId209" xr:uid="{C4B9ED1E-BBE3-49BD-842E-4772F661899A}"/>
+    <hyperlink ref="N28" r:id="rId210" xr:uid="{8E2664D8-B1A3-4730-A93D-55B9FD57EEDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
-  <legacyDrawing r:id="rId211"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId211"/>
+  <legacyDrawing r:id="rId212"/>
   <tableParts count="1">
-    <tablePart r:id="rId212"/>
+    <tablePart r:id="rId213"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -42268,6 +42275,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -42471,16 +42488,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42491,6 +42498,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42508,16 +42525,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
   <ds:schemaRefs>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnak\OneDrive\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDD9EB-84DF-4062-B4E3-5906EF56331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71722B2-648B-4B6B-85B9-8934CDBA1CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -47,6 +47,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -124,24 +127,50 @@
     </comment>
     <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Arghavan: one issue we have I think is that there is a difference between explicitly reuse concepts from another ontology and providing some alignment information. I think we need to keep our lives easy and only consider explicit reuse, i.e. explicitly referred to within the owl file</t>
+        </r>
       </text>
     </comment>
     <comment ref="P12" authorId="2" shapeId="0" xr:uid="{885FB683-17A8-485A-8691-53C79CD2DF41}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     https://www.freeclass.eu/download
 The Free Class (FC) ontology requires me to give my details to get access. But, it is otherwise an AECO ontology. Should I add it?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q18" authorId="3" shapeId="0" xr:uid="{973D48F1-79B3-4920-8BDA-8C16C92B26F0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This may need to include quantity kind (qk) and unit (unit), that are both from qudt.
@@ -149,11 +178,20 @@
     New list: bacnet, bsh, qudt, qudtqk, rec, ref, s223, sdo, sh, skos, sosa, tag, unit, vcard
 Reply:
     That seems better. Where did you find that list?</t>
+        </r>
       </text>
     </comment>
     <comment ref="R24" authorId="4" shapeId="0" xr:uid="{4B8EE336-FBE0-47A3-9930-259BDD87F0E2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Place Reference Theory (PRT) ontology
@@ -166,11 +204,20 @@
     Good question. Either PRT is UPPER, or we consider it AECO (we should change that columns to BE :) ). Please, ask Arghavan for her opinion.
 Reply:
     @Arghavan</t>
+        </r>
       </text>
     </comment>
     <comment ref="A43" authorId="5" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Probably doesn't exist
@@ -186,43 +233,88 @@
     I agree. looks like developers named it as ontology in paper, but in the end its not. Also, Section 5 of paper Conclusions and Future Work "Furthermore, it is recommended to use DOT as a modular core ontology in combination with additional web ontologies as extensions when adding more specific information, e.g. taxonomies for various damage types or national assessment standards. In this regard, three example ontologies have been developed that extend DOT with a taxonomy for damages in reinforced concrete (CDO), mechanical parameters for damaged areas (DMO) and properties based on the German inspection standard DIN 1076" . So maybe it cannot be considered as a separate ontology.
 Reply:
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A50" authorId="6" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q50" authorId="7" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O53" authorId="8" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
+        </r>
       </text>
     </comment>
     <comment ref="A68" authorId="9" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Note: used to be ontology iddo.</t>
+        </r>
       </text>
     </comment>
     <comment ref="Z81" authorId="10" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Occupant Property Taxonomy (2024). DOI: 10.3233/SW-223254
@@ -230,54 +322,109 @@
     If we miss an ontology in our database, just add it :) 
 Reply:
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
+        </r>
       </text>
     </comment>
     <comment ref="O84" authorId="11" shapeId="0" xr:uid="{79AF74C8-61FA-441F-B37E-08E57B208671}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://cui.unige.ch/isi/onto/citygml2.0.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="O85" authorId="12" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
+        </r>
       </text>
     </comment>
     <comment ref="P90" authorId="13" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O106" authorId="14" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="O117" authorId="15" shapeId="0" xr:uid="{FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="O120" authorId="16" shapeId="0" xr:uid="{69563DD9-E157-466B-B7C0-685744C5F29A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -297,7 +444,15 @@
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D6C76610-3956-4D53-93DD-9937BBD3132B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Some ontologies (like BPO) have multiple versions that are still accessible, each have their individual URIs and are published/updated in different years. I suggest we add a column for “first year published” and “version” and “last update year”
@@ -307,6 +462,7 @@
     This is a best practice. So, I consider as common. Also, a good thing for the 5star ranking
 Reply:
     Hmmm. But, it's really hard to track this, no?</t>
+        </r>
       </text>
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{B9598717-BE64-4B34-A117-64507F6A9C95}">
@@ -338,11 +494,20 @@
     </comment>
     <comment ref="E3" authorId="2" shapeId="0" xr:uid="{84AD55E6-6851-4962-8413-9A9898F42E2F}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Also is kind of a connector/convertor
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="B12" authorId="1" shapeId="0" xr:uid="{5F8BEEB7-D90D-46E6-8B1C-D885D7DEAC24}">
@@ -371,29 +536,56 @@
     </comment>
     <comment ref="R15" authorId="3" shapeId="0" xr:uid="{433E1899-7CB2-4FD1-9E2E-894E39A7E436}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Link Avaiable but not working. Should we still go with n/a? Then, how static a 5star system is? Because the link was working some years ago, but not now. I will flag them as orange
 Reply:
     We could remove the link to reflect the fact that there is no link. 5star should then reflect this.</t>
+        </r>
       </text>
     </comment>
     <comment ref="B16" authorId="4" shapeId="0" xr:uid="{CF0A6FE0-E89A-4C86-8294-8300BAB058D3}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used to be linked to DOT
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="B34" authorId="5" shapeId="0" xr:uid="{19563D49-1A8D-42FB-9488-C28B64E879B7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used to be linked to DOT</t>
+        </r>
       </text>
     </comment>
     <comment ref="B41" authorId="1" shapeId="0" xr:uid="{D0490F3A-B625-4654-889F-D182C7194A5D}">
@@ -501,7 +693,15 @@
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{8DE388CC-78AF-42AF-A65E-BFB9B5C0A991}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including sustainability of construction materials
@@ -512,11 +712,20 @@
 Glass, see 81.040.20
 Plastics products, see 83.140
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C4" authorId="1" shapeId="0" xr:uid="{7A1F8F17-428F-40B9-AE56-C8191D2B3AA0}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including sustainability of construction materials
@@ -527,168 +736,331 @@
 Glass, see 81.040.20
 Plastics products, see 83.140
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C6" authorId="2" shapeId="0" xr:uid="{DEE29434-711F-4A89-BB35-D3951B19967B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including measuring methods, construction sites, demolition of structures, etc.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C7" authorId="3" shapeId="0" xr:uid="{258FFE25-07A8-4CC5-88E1-C89ECE528E15}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Burners and boilers for industrial purposes, see 27.060
 Heat pumps, see 27.080
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="D7" authorId="4" shapeId="0" xr:uid="{93F7B78D-9807-4EF4-817D-6EEB9C196D98}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including ventilation ducts
 Ventilators and air-conditioners, see 23.120
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C9" authorId="5" shapeId="0" xr:uid="{D8C76D51-853F-478B-BE6B-79B81F0A291C}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including energy audits
 Energy management systems, see 03.100.70
 Energy efficiency of buildings, see 91.120.10
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C11" authorId="6" shapeId="0" xr:uid="{50C9CA57-73D0-4402-9C26-C2BC2860754F}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Transport, see 03.220
 Postal services, see 03.240
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="D11" authorId="7" shapeId="0" xr:uid="{06797E9C-C4D1-4BE8-8A96-FB93E6404E0B}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including cleaning and pest control
 Sterilization and desinfection in health care, see 11.080
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C14" authorId="8" shapeId="0" xr:uid="{977A7A4A-3A80-4B86-83BA-A5E68F90395D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including network (system) aspects</t>
+        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="9" shapeId="0" xr:uid="{A14C3143-9611-4F2D-947E-B8E636291559}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Energy efficiency, see 27.015</t>
+        </r>
       </text>
     </comment>
     <comment ref="D15" authorId="10" shapeId="0" xr:uid="{1734272B-ADEF-4B86-9AB3-00C9C632ECB5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including environmental footprint, carbon neutrality</t>
+        </r>
       </text>
     </comment>
     <comment ref="C16" authorId="11" shapeId="0" xr:uid="{20308EF8-BD4F-4931-AAC2-09C59383CDB5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Energy efficiency, see 27.015</t>
+        </r>
       </text>
     </comment>
     <comment ref="D16" authorId="12" shapeId="0" xr:uid="{D92C8796-517A-427A-A33C-0E6EE6302C88}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including ecotoxicology and greenhouse gas emissions</t>
+        </r>
       </text>
     </comment>
     <comment ref="C17" authorId="13" shapeId="0" xr:uid="{8D435FC5-A43A-4142-96B9-D0A506E1EFF3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including measuring methods, construction sites, demolition of structures, etc.</t>
+        </r>
       </text>
     </comment>
     <comment ref="C18" authorId="14" shapeId="0" xr:uid="{370F7087-418C-4529-B3AB-39988A94E01B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Transport of dangerous goods, see 13.300</t>
+        </r>
       </text>
     </comment>
     <comment ref="D21" authorId="15" shapeId="0" xr:uid="{1CACD48B-B464-4495-8DC3-B43E6B1178F4}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including staff training, staff responsibilities, staff qualifications and certification
 Welders' qualifications, see 25.160.01
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C23" authorId="16" shapeId="0" xr:uid="{DEC1B7E9-AEAC-4C50-94C0-1EAEDE35F2D5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including design, loading on and calculation of structures</t>
+        </r>
       </text>
     </comment>
     <comment ref="C24" authorId="17" shapeId="0" xr:uid="{8B0A374E-53A6-4A15-B43A-076BE1C12F6E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including network (system) aspects</t>
+        </r>
       </text>
     </comment>
     <comment ref="C25" authorId="18" shapeId="0" xr:uid="{81706AA9-6757-42CA-BE86-5B7510DCA77E}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including measuring instruments in general, preferred numbers, standard measures, general aspects of reference materials, etc.
 Quantities and units, see 01.060
 Chemical reference materials, see 71.040.30
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="C27" authorId="19" shapeId="0" xr:uid="{1BAFFAAB-BB49-4F84-94CB-B7AFDC1285F0}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Including coding of audio, picture, multimedia and hypermedia information, bar coding, etc.
 IT security techniques, see 35.030
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -710,12 +1082,21 @@
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{21DBF1C4-611A-40A4-91D8-C2D6FBF6A7CB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Some ontologies (like BPO) have multiple versions that are still accessible, each have their individual URIs and are published/updated in different years. I suggest we add a column for “first year published” and “version” and “last update year”
 Reply:
     We could. But, is this common or an oddity?</t>
+        </r>
       </text>
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{24F8E678-4390-4DDD-9A21-D3D0503BF5CF}">
@@ -747,11 +1128,20 @@
     </comment>
     <comment ref="E3" authorId="2" shapeId="0" xr:uid="{20CB6942-0160-491A-89E8-5D52651DDFBE}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Also is kind of a connector/convertor
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="B14" authorId="1" shapeId="0" xr:uid="{111D3853-D068-4C54-9D78-8E4568235176}">
@@ -780,36 +1170,72 @@
     </comment>
     <comment ref="N17" authorId="3" shapeId="0" xr:uid="{4D59AEC2-7287-4C1B-92CC-51108D004A8A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Fred Link is http://ld-ce.com/vocab/CEO
 but it is not working. Should we go with N/a?</t>
+        </r>
       </text>
     </comment>
     <comment ref="B18" authorId="4" shapeId="0" xr:uid="{1AC5EB06-E7B2-44D7-BC85-DBA60AD9765F}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used to be linked to DOT
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="AC23" authorId="5" shapeId="0" xr:uid="{3CCE57CB-4A26-4F0E-B105-601C4666006E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     f.bosche@ed.ac.uk IDEA: maybe in the future we can have an index that measures frequency of use based on metrics from your  Network analysis.</t>
+        </r>
       </text>
     </comment>
     <comment ref="B34" authorId="6" shapeId="0" xr:uid="{C4C7C0F4-18EB-4BB5-B4B7-5918C1D74DA6}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used to be linked to DOT</t>
+        </r>
       </text>
     </comment>
     <comment ref="B41" authorId="1" shapeId="0" xr:uid="{DEEE9B49-3EB4-4526-BD7E-8037B6BF4688}">
@@ -888,13 +1314,22 @@
     </comment>
     <comment ref="O107" authorId="7" shapeId="0" xr:uid="{9B24984D-82A4-4302-8ADF-4DDD0A891D2B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Should we go with this one instead?https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/WeatherOntology.owl#
 It works with FOOPS. So, I consider it the URI
 Reply:
     Fine.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -916,12 +1351,21 @@
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{83AB7E72-B46A-4E41-B65C-C54E1156372B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Some ontologies (like BPO) have multiple versions that are still accessible, each have their individual URIs and are published/updated in different years. I suggest we add a column for “first year published” and “version” and “last update year”
 Reply:
     We could. But, is this common or an oddity?</t>
+        </r>
       </text>
     </comment>
     <comment ref="H1" authorId="1" shapeId="0" xr:uid="{284A98B3-4002-432F-891B-8EBC7EF8BB41}">
@@ -953,11 +1397,20 @@
     </comment>
     <comment ref="E3" authorId="2" shapeId="0" xr:uid="{648BE9AF-3FB2-4E9A-8F77-B666AFE81511}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Also is kind of a connector/convertor
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="B14" authorId="1" shapeId="0" xr:uid="{AF279CC8-964E-4F3C-AF6C-5F5AEC6970F8}">
@@ -986,36 +1439,72 @@
     </comment>
     <comment ref="N17" authorId="3" shapeId="0" xr:uid="{0DABEFDB-8058-4C32-A00E-88D77485BC59}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Fred Link is http://ld-ce.com/vocab/CEO
 but it is not working. Should we go with N/a?</t>
+        </r>
       </text>
     </comment>
     <comment ref="B18" authorId="4" shapeId="0" xr:uid="{F2E1D0EC-0608-43E5-BE89-11C956B556D9}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used to be linked to DOT
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="AA23" authorId="5" shapeId="0" xr:uid="{C32FCD8A-EF38-4D00-8BAE-B19AB7448141}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     f.bosche@ed.ac.uk IDEA: maybe in the future we can have an index that measures frequency of use based on metrics from your  Network analysis.</t>
+        </r>
       </text>
     </comment>
     <comment ref="B34" authorId="6" shapeId="0" xr:uid="{FF6EED1A-86BC-4A1C-93B0-CA9508281167}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Used to be linked to DOT</t>
+        </r>
       </text>
     </comment>
     <comment ref="B41" authorId="1" shapeId="0" xr:uid="{ABFD3400-6600-48E4-A7E8-D1BBAF095F45}">
@@ -1094,13 +1583,22 @@
     </comment>
     <comment ref="O107" authorId="7" shapeId="0" xr:uid="{8B127764-E85E-436E-8CA9-D6C19E8B379C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Should we go with this one instead?https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/WeatherOntology.owl#
 It works with FOOPS. So, I consider it the URI
 Reply:
     Fine.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1108,7 +1606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="1163">
   <si>
     <t>Count of Name</t>
   </si>
@@ -4585,12 +5083,81 @@
   <si>
     <t>https://opengeospatial.github.io/ogc-geosparql/</t>
   </si>
+  <si>
+    <t>Construction Terminology Ontology</t>
+  </si>
+  <si>
+    <t>cterm</t>
+  </si>
+  <si>
+    <t>The Construction Terminology (CTERM) ontology provides a multilingual and structured vocabulary for describing construction concepts and parameters. It defines classes such as cterm:Object, cterm:Material, cterm:Function, cterm:Aspect, and cterm:Finishing, used by CI and CR for consistent annotation. Parameter subclasses (cterm:DimensionParameter, cterm:PhysicalParameter, cterm:PerformanceParameter) model measurable or qualitative characteristics using QUDT units. CTERM supports multiple classification systems (DIN 276, UNI 8290, Uniclass, Omniclass, Uniformat, StLB) and includes multilingual labels (e.g., “Reinforcement”@en, “Bewehrung”@de, “Armatura”@it). It acts as the terminological backbone of the ontology network and can be exported as a SKOS vocabulary in future work.</t>
+  </si>
+  <si>
+    <t>http://w3id.org/cterm#</t>
+  </si>
+  <si>
+    <t>http://www.doi.org/10.35490/EC3.2025.263</t>
+  </si>
+  <si>
+    <t>Construction Resources Ontology</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>http://w3id.org/cr#</t>
+  </si>
+  <si>
+    <t>dct, vann, qudt</t>
+  </si>
+  <si>
+    <t>The Construction Resources (CR) ontology defines the shared resource domain connecting cost, scheduling and geometrical data. The central class cr:Resource specializes into cr:LabourResource, cr:EquipmentResource, and cr:MaterialResource, aligned respectively with DTC classes for workers, equipment, and materials. It includes mechanisms for aggregation (cr:hasSubResource), and cross-domain assignments (cr:AssignmentSet, cr:Assignment) linking ci:CostItem, dtc:Task, and ifc:IfcProduct. Parameters such as quantity, utilization rate, and formulas enable accurate data exchange between domains. CR bridges CI and DTC, ensuring unified representation of resources for cost- and time-centric project management.</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>Cost Item Ontology</t>
+  </si>
+  <si>
+    <t>ifc4-add2, cr, dtc</t>
+  </si>
+  <si>
+    <t>CTERM</t>
+  </si>
+  <si>
+    <t>http://w3id.org/ci#</t>
+  </si>
+  <si>
+    <t>ifc4-add2, cr, ci, dtc</t>
+  </si>
+  <si>
+    <t>ifc4-add2, dtc</t>
+  </si>
+  <si>
+    <t>Relative Location Ontology</t>
+  </si>
+  <si>
+    <t>reloc</t>
+  </si>
+  <si>
+    <t>The Relative Location Ontology (RELOC) enables the expression of the spatial relationship between two objects using directional-topological terms. The ontology is designed to be compatible with the natural language-based approach of describing relative locations, enabling the conversion of existing location descriptions into structured spatial graph representations. The ontology provides directional, axis-related properties (e.g., longitudinal axis: front, center, rear) and topological properties (e.g., meet, contained in, intersect). These properties are finally merged into combined properties (e.g., containedInFront) to reflect the spatial information of statements like 'A is in the front part of B'. The application context of the RELOC Ontology is the processing of existing damage documentation of bridges.</t>
+  </si>
+  <si>
+    <t>https://w3id.org/reloc#</t>
+  </si>
+  <si>
+    <t>https://ceur-ws.org/Vol-3824/paper7.pdf</t>
+  </si>
+  <si>
+    <t>dct, vann, skos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4943,7 +5510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -5329,9 +5896,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -6541,7 +7114,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6549,6 +7121,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7090,7 +7663,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7098,6 +7670,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7445,7 +8018,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7453,6 +8025,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13605,8 +14178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH127" totalsRowShown="0">
-  <autoFilter ref="A1:AH127" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH131" totalsRowShown="0">
+  <autoFilter ref="A1:AH131" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH126">
     <sortCondition ref="B1:B126"/>
   </sortState>
@@ -14332,47 +14905,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AH127"/>
+  <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" style="192" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="21.54296875" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="12" customWidth="1"/>
     <col min="17" max="17" width="46" style="12" customWidth="1"/>
-    <col min="18" max="18" width="27.54296875" style="184" customWidth="1"/>
-    <col min="19" max="19" width="34.54296875" style="184" customWidth="1"/>
-    <col min="20" max="20" width="34.1796875" style="184" customWidth="1"/>
-    <col min="21" max="21" width="32.1796875" style="184" customWidth="1"/>
-    <col min="22" max="22" width="26.1796875" style="184" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="184" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" style="184" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" style="184" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" style="184" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="184" customWidth="1"/>
     <col min="23" max="23" width="20" style="184" customWidth="1"/>
-    <col min="24" max="24" width="21.453125" style="184" customWidth="1"/>
-    <col min="25" max="25" width="19.54296875" style="184" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="184" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" style="184" customWidth="1"/>
     <col min="26" max="26" width="19" style="184" customWidth="1"/>
-    <col min="27" max="27" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -14476,7 +15049,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="30">
       <c r="A2" t="s">
         <v>975</v>
       </c>
@@ -14560,7 +15133,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -14652,7 +15225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -14738,7 +15311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -14833,7 +15406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -14919,7 +15492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -15011,7 +15584,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -15106,7 +15679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -15198,7 +15771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -15287,7 +15860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>981</v>
       </c>
@@ -15365,7 +15938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -15448,7 +16021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -15531,7 +16104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -15623,7 +16196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -15715,7 +16288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -15807,7 +16380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -15896,7 +16469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" ht="30">
       <c r="A18" s="194" t="s">
         <v>155</v>
       </c>
@@ -15991,7 +16564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -16080,7 +16653,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -16172,7 +16745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -16267,7 +16840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>1046</v>
       </c>
@@ -16348,7 +16921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" ht="30">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -16437,7 +17010,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -16532,7 +17105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
         <v>1047</v>
       </c>
@@ -16616,7 +17189,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="30">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -16696,7 +17269,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -16779,7 +17352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
         <v>1124</v>
       </c>
@@ -16860,7 +17433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -16946,7 +17519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
         <v>209</v>
       </c>
@@ -17021,7 +17594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
         <v>212</v>
       </c>
@@ -17110,7 +17683,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
         <v>221</v>
       </c>
@@ -17196,7 +17769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
         <v>227</v>
       </c>
@@ -17288,7 +17861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -17377,7 +17950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -17466,7 +18039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -17558,7 +18131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
         <v>254</v>
       </c>
@@ -17647,7 +18220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" ht="30">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -17739,7 +18312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
         <v>266</v>
       </c>
@@ -17828,7 +18401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
         <v>272</v>
       </c>
@@ -17894,7 +18467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" ht="30">
       <c r="A41" t="s">
         <v>275</v>
       </c>
@@ -17969,7 +18542,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -18058,7 +18631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34">
       <c r="A43" s="44" t="s">
         <v>283</v>
       </c>
@@ -18147,7 +18720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
         <v>286</v>
       </c>
@@ -18230,7 +18803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
         <v>291</v>
       </c>
@@ -18322,7 +18895,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34">
       <c r="A46" t="s">
         <v>297</v>
       </c>
@@ -18411,7 +18984,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34">
       <c r="A47" t="s">
         <v>302</v>
       </c>
@@ -18503,7 +19076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34">
       <c r="A48" t="s">
         <v>308</v>
       </c>
@@ -18589,7 +19162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
         <v>315</v>
       </c>
@@ -18678,7 +19251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34">
       <c r="A50" s="44" t="s">
         <v>320</v>
       </c>
@@ -18767,7 +19340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
         <v>326</v>
       </c>
@@ -18853,7 +19426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
         <v>333</v>
       </c>
@@ -18945,7 +19518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
         <v>340</v>
       </c>
@@ -19034,7 +19607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
         <v>346</v>
       </c>
@@ -19123,7 +19696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
         <v>353</v>
       </c>
@@ -19212,7 +19785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
         <v>361</v>
       </c>
@@ -19301,7 +19874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
         <v>668</v>
       </c>
@@ -19393,7 +19966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
         <v>366</v>
       </c>
@@ -19482,7 +20055,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34">
       <c r="A59" s="23" t="s">
         <v>987</v>
       </c>
@@ -19569,7 +20142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" ht="30">
       <c r="A60" s="23" t="s">
         <v>1004</v>
       </c>
@@ -19653,7 +20226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
         <v>372</v>
       </c>
@@ -19751,7 +20324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
         <v>380</v>
       </c>
@@ -19840,7 +20413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
         <v>385</v>
       </c>
@@ -19938,7 +20511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
         <v>393</v>
       </c>
@@ -20024,7 +20597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
         <v>397</v>
       </c>
@@ -20116,7 +20689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
         <v>402</v>
       </c>
@@ -20202,7 +20775,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
         <v>407</v>
       </c>
@@ -20291,7 +20864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" ht="30">
       <c r="A68" t="s">
         <v>413</v>
       </c>
@@ -20365,7 +20938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
         <v>973</v>
       </c>
@@ -20412,7 +20985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
         <v>417</v>
       </c>
@@ -20501,7 +21074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
         <v>422</v>
       </c>
@@ -20593,7 +21166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
         <v>426</v>
       </c>
@@ -20682,7 +21255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
         <v>430</v>
       </c>
@@ -20771,7 +21344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -20860,7 +21433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
         <v>441</v>
       </c>
@@ -20949,7 +21522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
         <v>445</v>
       </c>
@@ -21038,7 +21611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34">
       <c r="A77" t="s">
         <v>1026</v>
       </c>
@@ -21128,7 +21701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34">
       <c r="A78" t="s">
         <v>1025</v>
       </c>
@@ -21218,7 +21791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" ht="30">
       <c r="A79" t="s">
         <v>451</v>
       </c>
@@ -21301,7 +21874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34">
       <c r="A80" s="23" t="s">
         <v>998</v>
       </c>
@@ -21385,7 +21958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34">
       <c r="A81" t="s">
         <v>455</v>
       </c>
@@ -21474,7 +22047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34">
       <c r="A82" t="s">
         <v>461</v>
       </c>
@@ -21563,7 +22136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34">
       <c r="A83" t="s">
         <v>466</v>
       </c>
@@ -21655,7 +22228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34">
       <c r="A84" t="s">
         <v>472</v>
       </c>
@@ -21744,7 +22317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34">
       <c r="A85" t="s">
         <v>478</v>
       </c>
@@ -21830,7 +22403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34">
       <c r="A86" t="s">
         <v>482</v>
       </c>
@@ -21919,7 +22492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34">
       <c r="A87" t="s">
         <v>487</v>
       </c>
@@ -22008,7 +22581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34">
       <c r="A88" t="s">
         <v>492</v>
       </c>
@@ -22097,7 +22670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34">
       <c r="A89" t="s">
         <v>499</v>
       </c>
@@ -22186,7 +22759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34">
       <c r="A90" t="s">
         <v>505</v>
       </c>
@@ -22273,7 +22846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34">
       <c r="A91" t="s">
         <v>512</v>
       </c>
@@ -22362,7 +22935,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34">
       <c r="A92" t="s">
         <v>516</v>
       </c>
@@ -22451,7 +23024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34">
       <c r="A93" t="s">
         <v>523</v>
       </c>
@@ -22540,7 +23113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34">
       <c r="A94" t="s">
         <v>529</v>
       </c>
@@ -22635,7 +23208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34">
       <c r="A95" t="s">
         <v>537</v>
       </c>
@@ -22727,7 +23300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34">
       <c r="A96" t="s">
         <v>542</v>
       </c>
@@ -22819,7 +23392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34">
       <c r="A97" t="s">
         <v>547</v>
       </c>
@@ -22911,7 +23484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34">
       <c r="A98" t="s">
         <v>552</v>
       </c>
@@ -23003,7 +23576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34">
       <c r="A99" t="s">
         <v>557</v>
       </c>
@@ -23095,7 +23668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34">
       <c r="A100" t="s">
         <v>562</v>
       </c>
@@ -23184,7 +23757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34">
       <c r="A101" t="s">
         <v>566</v>
       </c>
@@ -23276,7 +23849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34">
       <c r="A102" t="s">
         <v>573</v>
       </c>
@@ -23365,7 +23938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34">
       <c r="A103" t="s">
         <v>579</v>
       </c>
@@ -23451,7 +24024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34">
       <c r="A104" t="s">
         <v>585</v>
       </c>
@@ -23540,7 +24113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34">
       <c r="A105" t="s">
         <v>589</v>
       </c>
@@ -23632,7 +24205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34">
       <c r="A106" t="s">
         <v>596</v>
       </c>
@@ -23716,7 +24289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
         <v>601</v>
       </c>
@@ -23805,7 +24378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34">
       <c r="A108" t="s">
         <v>605</v>
       </c>
@@ -23894,7 +24467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34">
       <c r="A109" t="s">
         <v>609</v>
       </c>
@@ -23983,7 +24556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34">
       <c r="A110" t="s">
         <v>612</v>
       </c>
@@ -24072,7 +24645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34">
       <c r="A111" t="s">
         <v>1020</v>
       </c>
@@ -24162,7 +24735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34">
       <c r="A112" t="s">
         <v>1019</v>
       </c>
@@ -24252,7 +24825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" ht="30">
       <c r="A113" t="s">
         <v>616</v>
       </c>
@@ -24338,7 +24911,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34">
       <c r="A114" t="s">
         <v>619</v>
       </c>
@@ -24427,7 +25000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34">
       <c r="A115" t="s">
         <v>624</v>
       </c>
@@ -24516,7 +25089,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
         <v>631</v>
       </c>
@@ -24599,7 +25172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
         <v>637</v>
       </c>
@@ -24688,7 +25261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34">
       <c r="A118" t="s">
         <v>642</v>
       </c>
@@ -24771,7 +25344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34">
       <c r="A119" t="s">
         <v>646</v>
       </c>
@@ -24854,7 +25427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34">
       <c r="A120" t="s">
         <v>1049</v>
       </c>
@@ -24923,7 +25496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34">
       <c r="A121" t="s">
         <v>650</v>
       </c>
@@ -25006,7 +25579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34">
       <c r="A122" t="s">
         <v>654</v>
       </c>
@@ -25092,7 +25665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34">
       <c r="A123" s="23" t="s">
         <v>991</v>
       </c>
@@ -25176,7 +25749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34">
       <c r="A124" t="s">
         <v>658</v>
       </c>
@@ -25260,7 +25833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34">
       <c r="A125" t="s">
         <v>662</v>
       </c>
@@ -25352,7 +25925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34">
       <c r="A126" t="s">
         <v>673</v>
       </c>
@@ -25439,7 +26012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34">
       <c r="A127" t="s">
         <v>1135</v>
       </c>
@@ -25452,7 +26025,7 @@
       <c r="D127">
         <v>2023</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="198" t="s">
         <v>12</v>
       </c>
       <c r="K127" t="s">
@@ -25464,7 +26037,7 @@
       <c r="N127" s="197" t="s">
         <v>1138</v>
       </c>
-      <c r="O127" t="s">
+      <c r="O127" s="2" t="s">
         <v>1139</v>
       </c>
       <c r="Q127" s="195"/>
@@ -25514,6 +26087,331 @@
       <c r="AF127" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="128" spans="1:34">
+      <c r="A128" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C128" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D128">
+        <v>2024</v>
+      </c>
+      <c r="F128" s="198" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" s="198" t="s">
+        <v>61</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P128" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q128" s="202" t="s">
+        <v>1148</v>
+      </c>
+      <c r="R128" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S128" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T128" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U128" s="203" t="s">
+        <v>67</v>
+      </c>
+      <c r="V128" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W128" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X128" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y128" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z128" s="193" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA128" s="180"/>
+      <c r="AB128" s="201">
+        <f t="shared" ref="AB128:AB131" si="12">COUNTIF(R128:T128, "yes")</f>
+        <v>2</v>
+      </c>
+      <c r="AC128" s="201">
+        <f t="shared" ref="AC128:AC131" si="13">COUNTIF(U128:W128, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AD128" s="201">
+        <f t="shared" ref="AD128:AD131" si="14">COUNTIF(X128:Z128, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AE128" s="201" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF128" s="201" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AG128" s="201"/>
+      <c r="AH128" s="201"/>
+    </row>
+    <row r="129" spans="1:34">
+      <c r="A129" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C129" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D129">
+        <v>2024</v>
+      </c>
+      <c r="F129" s="198" t="s">
+        <v>21</v>
+      </c>
+      <c r="K129" s="198" t="s">
+        <v>61</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P129" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q129" s="202" t="s">
+        <v>1148</v>
+      </c>
+      <c r="R129" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S129" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T129" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U129" s="203" t="s">
+        <v>67</v>
+      </c>
+      <c r="V129" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W129" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X129" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y129" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z129" s="193" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA129" s="180"/>
+      <c r="AB129" s="201">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AC129" s="201">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AD129" s="201">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AE129" s="201" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF129" s="201" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AG129" s="201"/>
+      <c r="AH129" s="201"/>
+    </row>
+    <row r="130" spans="1:34">
+      <c r="A130" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C130" s="192">
+        <v>0.2</v>
+      </c>
+      <c r="D130">
+        <v>2024</v>
+      </c>
+      <c r="F130" s="198" t="s">
+        <v>834</v>
+      </c>
+      <c r="K130" s="198" t="s">
+        <v>61</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P130" s="12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q130" s="202" t="s">
+        <v>1148</v>
+      </c>
+      <c r="R130" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S130" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T130" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U130" s="203" t="s">
+        <v>67</v>
+      </c>
+      <c r="V130" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W130" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X130" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y130" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z130" s="193" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA130" s="180"/>
+      <c r="AB130" s="201">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AC130" s="201">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AD130" s="201">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AE130" s="201" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF130" s="201" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AG130" s="201"/>
+      <c r="AH130" s="201"/>
+    </row>
+    <row r="131" spans="1:34">
+      <c r="A131" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C131" s="192" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131">
+        <v>2024</v>
+      </c>
+      <c r="F131" s="198" t="s">
+        <v>13</v>
+      </c>
+      <c r="K131" t="s">
+        <v>198</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1159</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P131" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q131" s="202" t="s">
+        <v>1162</v>
+      </c>
+      <c r="R131" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="S131" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T131" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U131" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V131" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W131" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X131" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y131" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z131" s="193" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA131" s="180"/>
+      <c r="AB131" s="201">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AC131" s="201">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AD131" s="201">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AE131" s="201"/>
+      <c r="AF131" s="201"/>
+      <c r="AG131" s="201"/>
+      <c r="AH131" s="201"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -25729,12 +26627,21 @@
     <hyperlink ref="O28" r:id="rId209" xr:uid="{C4B9ED1E-BBE3-49BD-842E-4772F661899A}"/>
     <hyperlink ref="N28" r:id="rId210" xr:uid="{8E2664D8-B1A3-4730-A93D-55B9FD57EEDA}"/>
     <hyperlink ref="N127" r:id="rId211" xr:uid="{08C5E487-88FE-4DF1-B467-1395F7A4BC9B}"/>
+    <hyperlink ref="N128" r:id="rId212" xr:uid="{65D5C98C-7FB5-4D0C-9129-AC9BA38E326C}"/>
+    <hyperlink ref="O127" r:id="rId213" xr:uid="{71DF83D9-A3F2-4617-81EC-6509843A9ECB}"/>
+    <hyperlink ref="N129" r:id="rId214" xr:uid="{49173063-ADBB-4AF0-8A41-43F101EE5D98}"/>
+    <hyperlink ref="O128" r:id="rId215" xr:uid="{C86B7AA1-7720-453B-96B5-40E5111F1D5E}"/>
+    <hyperlink ref="O129" r:id="rId216" xr:uid="{47DAFF98-112D-4BFE-94B5-9B24AD785751}"/>
+    <hyperlink ref="O130" r:id="rId217" xr:uid="{522AA585-6EDD-4DCB-9E01-8F5F0E73DE41}"/>
+    <hyperlink ref="N130" r:id="rId218" xr:uid="{6D639257-A493-4310-B78E-4BA9F050859C}"/>
+    <hyperlink ref="N131" r:id="rId219" xr:uid="{4B8F988B-83C8-49C2-8219-51C094F40A60}"/>
+    <hyperlink ref="O131" r:id="rId220" xr:uid="{7A03C06B-D9CF-477A-9D1E-259582B74BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
-  <legacyDrawing r:id="rId213"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId221"/>
+  <legacyDrawing r:id="rId222"/>
   <tableParts count="1">
-    <tablePart r:id="rId214"/>
+    <tablePart r:id="rId223"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -25743,7 +26650,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G2 F4:G25 F27:G120 F121:F126</xm:sqref>
+          <xm:sqref>F2:G2 F4:G25 F27:G120 F121:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25759,43 +26666,43 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="18" max="18" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B1" s="198" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="200" t="s">
         <v>895</v>
       </c>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200" t="s">
         <v>899</v>
       </c>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199" t="s">
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200" t="s">
         <v>937</v>
       </c>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199" t="s">
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200" t="s">
         <v>913</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="90">
       <c r="B2" s="12" t="s">
         <v>938</v>
       </c>
@@ -25842,7 +26749,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -25892,7 +26799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="R7" t="s">
         <v>52</v>
       </c>
@@ -25900,7 +26807,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="R8" t="s">
         <v>52</v>
       </c>
@@ -25908,7 +26815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="R9" t="s">
         <v>52</v>
       </c>
@@ -25916,7 +26823,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="R10" t="s">
         <v>899</v>
       </c>
@@ -25924,7 +26831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="R11" t="s">
         <v>899</v>
       </c>
@@ -25932,7 +26839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="R12" t="s">
         <v>899</v>
       </c>
@@ -25940,7 +26847,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="R13" t="s">
         <v>906</v>
       </c>
@@ -25948,7 +26855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19">
       <c r="R14" t="s">
         <v>906</v>
       </c>
@@ -25956,7 +26863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="R15" t="s">
         <v>906</v>
       </c>
@@ -25964,7 +26871,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="R16" t="s">
         <v>928</v>
       </c>
@@ -25972,7 +26879,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="17" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="18:19">
       <c r="R17" t="s">
         <v>928</v>
       </c>
@@ -25980,7 +26887,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="18" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="18:19">
       <c r="R18" t="s">
         <v>928</v>
       </c>
@@ -25988,7 +26895,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="19" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="18:19">
       <c r="R19" t="s">
         <v>895</v>
       </c>
@@ -25996,7 +26903,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="20" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="18:19">
       <c r="R20" t="s">
         <v>895</v>
       </c>
@@ -26004,7 +26911,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="21" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="18:19">
       <c r="R21" t="s">
         <v>895</v>
       </c>
@@ -26037,17 +26944,17 @@
       <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
-    <col min="14" max="14" width="26.453125" customWidth="1"/>
-    <col min="35" max="35" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="90">
       <c r="A1" s="141" t="s">
         <v>25</v>
       </c>
@@ -26145,7 +27052,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" s="57" t="s">
         <v>57</v>
       </c>
@@ -26225,7 +27132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" s="60" t="s">
         <v>78</v>
       </c>
@@ -26268,7 +27175,7 @@
       </c>
       <c r="Q3" s="62"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37">
       <c r="A4" s="57" t="s">
         <v>91</v>
       </c>
@@ -26311,7 +27218,7 @@
       </c>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37">
       <c r="A5" s="60" t="s">
         <v>97</v>
       </c>
@@ -26354,7 +27261,7 @@
       </c>
       <c r="Q5" s="62"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37">
       <c r="A6" s="57" t="s">
         <v>118</v>
       </c>
@@ -26387,7 +27294,7 @@
       <c r="P6" s="58"/>
       <c r="Q6" s="59"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37">
       <c r="A7" s="60" t="s">
         <v>124</v>
       </c>
@@ -26420,7 +27327,7 @@
       <c r="P7" s="61"/>
       <c r="Q7" s="62"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37">
       <c r="A8" s="57" t="s">
         <v>106</v>
       </c>
@@ -26461,7 +27368,7 @@
       </c>
       <c r="Q8" s="59"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37">
       <c r="A9" s="60" t="s">
         <v>112</v>
       </c>
@@ -26502,7 +27409,7 @@
       </c>
       <c r="Q9" s="62"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37">
       <c r="A10" s="57" t="s">
         <v>128</v>
       </c>
@@ -26552,7 +27459,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37">
       <c r="A11" s="60" t="s">
         <v>133</v>
       </c>
@@ -26604,7 +27511,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37">
       <c r="A12" s="131" t="s">
         <v>139</v>
       </c>
@@ -26656,7 +27563,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37">
       <c r="A13" s="132" t="s">
         <v>147</v>
       </c>
@@ -26706,7 +27613,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37">
       <c r="A14" s="76" t="s">
         <v>155</v>
       </c>
@@ -26758,7 +27665,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37">
       <c r="A15" s="60" t="s">
         <v>163</v>
       </c>
@@ -26808,7 +27715,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37">
       <c r="A16" s="57" t="s">
         <v>168</v>
       </c>
@@ -26858,7 +27765,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37">
       <c r="A17" s="60" t="s">
         <v>175</v>
       </c>
@@ -26912,7 +27819,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37">
       <c r="A18" s="57" t="s">
         <v>181</v>
       </c>
@@ -26962,7 +27869,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37">
       <c r="A19" s="60" t="s">
         <v>188</v>
       </c>
@@ -27016,7 +27923,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37">
       <c r="A20" s="57" t="s">
         <v>472</v>
       </c>
@@ -27057,7 +27964,7 @@
       </c>
       <c r="Q20" s="150"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37">
       <c r="A21" s="60" t="s">
         <v>196</v>
       </c>
@@ -27094,7 +28001,7 @@
       </c>
       <c r="Q21" s="149"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37">
       <c r="A22" s="57" t="s">
         <v>715</v>
       </c>
@@ -27135,7 +28042,7 @@
       </c>
       <c r="Q22" s="150"/>
     </row>
-    <row r="23" spans="1:37" s="160" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" s="160" customFormat="1">
       <c r="A23" s="151" t="s">
         <v>212</v>
       </c>
@@ -27200,7 +28107,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37">
       <c r="A24" s="84" t="s">
         <v>717</v>
       </c>
@@ -27241,7 +28148,7 @@
       </c>
       <c r="Q24" s="59"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37">
       <c r="A25" s="82" t="s">
         <v>221</v>
       </c>
@@ -27280,7 +28187,7 @@
       <c r="P25" s="83"/>
       <c r="Q25" s="62"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37">
       <c r="A26" s="84" t="s">
         <v>227</v>
       </c>
@@ -27323,7 +28230,7 @@
       </c>
       <c r="Q26" s="59"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37">
       <c r="A27" s="82" t="s">
         <v>234</v>
       </c>
@@ -27364,7 +28271,7 @@
       </c>
       <c r="Q27" s="62"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37">
       <c r="A28" s="84" t="s">
         <v>241</v>
       </c>
@@ -27405,7 +28312,7 @@
       </c>
       <c r="Q28" s="59"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37">
       <c r="A29" s="82" t="s">
         <v>247</v>
       </c>
@@ -27448,7 +28355,7 @@
       </c>
       <c r="Q29" s="62"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37">
       <c r="A30" s="84" t="s">
         <v>260</v>
       </c>
@@ -27491,7 +28398,7 @@
       </c>
       <c r="Q30" s="59"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37">
       <c r="A31" s="82" t="s">
         <v>266</v>
       </c>
@@ -27532,7 +28439,7 @@
       </c>
       <c r="Q31" s="62"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37">
       <c r="A32" s="84" t="s">
         <v>278</v>
       </c>
@@ -27573,7 +28480,7 @@
       </c>
       <c r="Q32" s="59"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26">
       <c r="A33" s="82" t="s">
         <v>220</v>
       </c>
@@ -27614,7 +28521,7 @@
       <c r="P33" s="83"/>
       <c r="Q33" s="62"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26">
       <c r="A34" s="57" t="s">
         <v>730</v>
       </c>
@@ -27655,7 +28562,7 @@
       </c>
       <c r="Q34" s="59"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26">
       <c r="A35" s="60" t="s">
         <v>286</v>
       </c>
@@ -27694,7 +28601,7 @@
       </c>
       <c r="Q35" s="62"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26">
       <c r="A36" s="57" t="s">
         <v>308</v>
       </c>
@@ -27723,7 +28630,7 @@
       <c r="P36" s="58"/>
       <c r="Q36" s="59"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26">
       <c r="A37" s="60" t="s">
         <v>291</v>
       </c>
@@ -27766,7 +28673,7 @@
       </c>
       <c r="Q37" s="62"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26">
       <c r="A38" s="57" t="s">
         <v>297</v>
       </c>
@@ -27807,7 +28714,7 @@
       </c>
       <c r="Q38" s="59"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26">
       <c r="A39" s="60" t="s">
         <v>302</v>
       </c>
@@ -27850,7 +28757,7 @@
       </c>
       <c r="Q39" s="62"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26">
       <c r="A40" s="57" t="s">
         <v>315</v>
       </c>
@@ -27891,7 +28798,7 @@
       </c>
       <c r="Q40" s="59"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26">
       <c r="A41" s="88" t="s">
         <v>320</v>
       </c>
@@ -27930,7 +28837,7 @@
       <c r="P41" s="89"/>
       <c r="Q41" s="62"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26">
       <c r="A42" s="57" t="s">
         <v>326</v>
       </c>
@@ -27969,7 +28876,7 @@
       </c>
       <c r="Q42" s="59"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26">
       <c r="A43" s="82" t="s">
         <v>333</v>
       </c>
@@ -28010,7 +28917,7 @@
       </c>
       <c r="Q43" s="62"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26">
       <c r="A44" s="57" t="s">
         <v>346</v>
       </c>
@@ -28051,7 +28958,7 @@
       </c>
       <c r="Q44" s="59"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26">
       <c r="A45" s="97" t="s">
         <v>353</v>
       </c>
@@ -28092,7 +28999,7 @@
       </c>
       <c r="Q45" s="62"/>
     </row>
-    <row r="46" spans="1:26" s="180" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" s="180" customFormat="1">
       <c r="A46" s="169" t="s">
         <v>361</v>
       </c>
@@ -28151,7 +29058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26">
       <c r="A47" s="60" t="s">
         <v>366</v>
       </c>
@@ -28192,7 +29099,7 @@
       </c>
       <c r="Q47" s="62"/>
     </row>
-    <row r="48" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="60">
       <c r="A48" s="57" t="s">
         <v>673</v>
       </c>
@@ -28233,7 +29140,7 @@
       </c>
       <c r="Q48" s="59"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17">
       <c r="A49" s="60" t="s">
         <v>372</v>
       </c>
@@ -28278,7 +29185,7 @@
       </c>
       <c r="Q49" s="62"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17">
       <c r="A50" s="57" t="s">
         <v>752</v>
       </c>
@@ -28319,7 +29226,7 @@
       </c>
       <c r="Q50" s="59"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17">
       <c r="A51" s="60" t="s">
         <v>380</v>
       </c>
@@ -28360,7 +29267,7 @@
       </c>
       <c r="Q51" s="62"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17">
       <c r="A52" s="57" t="s">
         <v>385</v>
       </c>
@@ -28407,7 +29314,7 @@
       </c>
       <c r="Q52" s="59"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17">
       <c r="A53" s="60" t="s">
         <v>393</v>
       </c>
@@ -28446,7 +29353,7 @@
       </c>
       <c r="Q53" s="62"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17">
       <c r="A54" s="57" t="s">
         <v>397</v>
       </c>
@@ -28487,7 +29394,7 @@
       </c>
       <c r="Q54" s="59"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17">
       <c r="A55" s="60" t="s">
         <v>402</v>
       </c>
@@ -28526,7 +29433,7 @@
       </c>
       <c r="Q55" s="62"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17">
       <c r="A56" s="57" t="s">
         <v>407</v>
       </c>
@@ -28567,7 +29474,7 @@
       </c>
       <c r="Q56" s="59"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17">
       <c r="A57" s="60" t="s">
         <v>413</v>
       </c>
@@ -28598,7 +29505,7 @@
       </c>
       <c r="Q57" s="62"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17">
       <c r="A58" s="57" t="s">
         <v>417</v>
       </c>
@@ -28639,7 +29546,7 @@
       </c>
       <c r="Q58" s="59"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17">
       <c r="A59" s="60" t="s">
         <v>422</v>
       </c>
@@ -28682,7 +29589,7 @@
       </c>
       <c r="Q59" s="62"/>
     </row>
-    <row r="60" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="30">
       <c r="A60" s="115" t="s">
         <v>426</v>
       </c>
@@ -28723,7 +29630,7 @@
       </c>
       <c r="Q60" s="59"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17">
       <c r="A61" s="60" t="s">
         <v>430</v>
       </c>
@@ -28764,7 +29671,7 @@
       </c>
       <c r="Q61" s="62"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17">
       <c r="A62" s="57" t="s">
         <v>436</v>
       </c>
@@ -28805,7 +29712,7 @@
       </c>
       <c r="Q62" s="59"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17">
       <c r="A63" s="60" t="s">
         <v>441</v>
       </c>
@@ -28846,7 +29753,7 @@
       </c>
       <c r="Q63" s="62"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17">
       <c r="A64" s="57" t="s">
         <v>445</v>
       </c>
@@ -28887,7 +29794,7 @@
       </c>
       <c r="Q64" s="59"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17">
       <c r="A65" s="60" t="s">
         <v>451</v>
       </c>
@@ -28924,7 +29831,7 @@
       </c>
       <c r="Q65" s="62"/>
     </row>
-    <row r="66" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="60">
       <c r="A66" s="57" t="s">
         <v>455</v>
       </c>
@@ -28965,7 +29872,7 @@
       </c>
       <c r="Q66" s="59"/>
     </row>
-    <row r="67" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="30">
       <c r="A67" s="116" t="s">
         <v>461</v>
       </c>
@@ -29006,7 +29913,7 @@
       </c>
       <c r="Q67" s="62"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17">
       <c r="A68" s="57" t="s">
         <v>466</v>
       </c>
@@ -29049,7 +29956,7 @@
       </c>
       <c r="Q68" s="59"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17">
       <c r="A69" s="60" t="s">
         <v>478</v>
       </c>
@@ -29088,7 +29995,7 @@
       </c>
       <c r="Q69" s="62"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17">
       <c r="A70" s="57" t="s">
         <v>482</v>
       </c>
@@ -29129,7 +30036,7 @@
       </c>
       <c r="Q70" s="59"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17">
       <c r="A71" s="60" t="s">
         <v>487</v>
       </c>
@@ -29170,7 +30077,7 @@
       </c>
       <c r="Q71" s="62"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17">
       <c r="A72" s="57" t="s">
         <v>492</v>
       </c>
@@ -29211,7 +30118,7 @@
       </c>
       <c r="Q72" s="59"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17">
       <c r="A73" s="60" t="s">
         <v>499</v>
       </c>
@@ -29252,7 +30159,7 @@
       </c>
       <c r="Q73" s="62"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17">
       <c r="A74" s="57" t="s">
         <v>505</v>
       </c>
@@ -29293,7 +30200,7 @@
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17">
       <c r="A75" s="60" t="s">
         <v>516</v>
       </c>
@@ -29334,7 +30241,7 @@
       </c>
       <c r="Q75" s="62"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17">
       <c r="A76" s="57" t="s">
         <v>523</v>
       </c>
@@ -29375,7 +30282,7 @@
       </c>
       <c r="Q76" s="59"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17">
       <c r="A77" s="60" t="s">
         <v>573</v>
       </c>
@@ -29416,7 +30323,7 @@
       </c>
       <c r="Q77" s="62"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17">
       <c r="A78" s="57" t="s">
         <v>579</v>
       </c>
@@ -29455,7 +30362,7 @@
       </c>
       <c r="Q78" s="59"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17">
       <c r="A79" s="60" t="s">
         <v>529</v>
       </c>
@@ -29500,7 +30407,7 @@
       </c>
       <c r="Q79" s="62"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17">
       <c r="A80" s="57" t="s">
         <v>789</v>
       </c>
@@ -29543,7 +30450,7 @@
       </c>
       <c r="Q80" s="59"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17">
       <c r="A81" s="60" t="s">
         <v>793</v>
       </c>
@@ -29586,7 +30493,7 @@
       </c>
       <c r="Q81" s="62"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17">
       <c r="A82" s="57" t="s">
         <v>796</v>
       </c>
@@ -29629,7 +30536,7 @@
       </c>
       <c r="Q82" s="59"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17">
       <c r="A83" s="60" t="s">
         <v>800</v>
       </c>
@@ -29672,7 +30579,7 @@
       </c>
       <c r="Q83" s="62"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17">
       <c r="A84" s="57" t="s">
         <v>804</v>
       </c>
@@ -29715,7 +30622,7 @@
       </c>
       <c r="Q84" s="59"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17">
       <c r="A85" s="60" t="s">
         <v>808</v>
       </c>
@@ -29756,7 +30663,7 @@
       </c>
       <c r="Q85" s="62"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17">
       <c r="A86" s="57" t="s">
         <v>811</v>
       </c>
@@ -29799,7 +30706,7 @@
       </c>
       <c r="Q86" s="59"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17">
       <c r="A87" s="60" t="s">
         <v>585</v>
       </c>
@@ -29840,7 +30747,7 @@
       </c>
       <c r="Q87" s="62"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17">
       <c r="A88" s="103" t="s">
         <v>589</v>
       </c>
@@ -29883,7 +30790,7 @@
       </c>
       <c r="Q88" s="59"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17">
       <c r="A89" s="76" t="s">
         <v>596</v>
       </c>
@@ -29918,7 +30825,7 @@
       <c r="P89" s="77"/>
       <c r="Q89" s="62"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17">
       <c r="A90" s="57" t="s">
         <v>601</v>
       </c>
@@ -29959,7 +30866,7 @@
       </c>
       <c r="Q90" s="59"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17">
       <c r="A91" s="60" t="s">
         <v>605</v>
       </c>
@@ -30000,7 +30907,7 @@
       </c>
       <c r="Q91" s="62"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17">
       <c r="A92" s="126" t="s">
         <v>609</v>
       </c>
@@ -30041,7 +30948,7 @@
       </c>
       <c r="Q92" s="59"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17">
       <c r="A93" s="60" t="s">
         <v>612</v>
       </c>
@@ -30082,7 +30989,7 @@
       </c>
       <c r="Q93" s="62"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17">
       <c r="A94" s="57" t="s">
         <v>616</v>
       </c>
@@ -30121,7 +31028,7 @@
       </c>
       <c r="Q94" s="59"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17">
       <c r="A95" s="60" t="s">
         <v>619</v>
       </c>
@@ -30162,7 +31069,7 @@
       </c>
       <c r="Q95" s="62"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17">
       <c r="A96" s="57" t="s">
         <v>624</v>
       </c>
@@ -30203,7 +31110,7 @@
       </c>
       <c r="Q96" s="59"/>
     </row>
-    <row r="97" spans="1:29" s="168" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:29" s="168" customFormat="1">
       <c r="A97" s="161" t="s">
         <v>654</v>
       </c>
@@ -30269,7 +31176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:29">
       <c r="A98" s="57" t="s">
         <v>658</v>
       </c>
@@ -30308,7 +31215,7 @@
       </c>
       <c r="Q98" s="59"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:29">
       <c r="A99" s="60" t="s">
         <v>662</v>
       </c>
@@ -30349,7 +31256,7 @@
       </c>
       <c r="Q99" s="62"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:29">
       <c r="A100" s="57" t="s">
         <v>668</v>
       </c>
@@ -30390,7 +31297,7 @@
       </c>
       <c r="Q100" s="59"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:29">
       <c r="A101" s="60" t="s">
         <v>512</v>
       </c>
@@ -30429,7 +31336,7 @@
       </c>
       <c r="Q101" s="62"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:29">
       <c r="A102" s="57" t="s">
         <v>340</v>
       </c>
@@ -30466,7 +31373,7 @@
       </c>
       <c r="Q102" s="59"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:29">
       <c r="A103" s="60" t="s">
         <v>637</v>
       </c>
@@ -30501,7 +31408,7 @@
       </c>
       <c r="Q103" s="62"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:29">
       <c r="A104" s="57" t="s">
         <v>642</v>
       </c>
@@ -30536,7 +31443,7 @@
       </c>
       <c r="Q104" s="59"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:29">
       <c r="A105" s="60" t="s">
         <v>646</v>
       </c>
@@ -30571,7 +31478,7 @@
       </c>
       <c r="Q105" s="62"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:29">
       <c r="A106" s="57" t="s">
         <v>631</v>
       </c>
@@ -30606,7 +31513,7 @@
       </c>
       <c r="Q106" s="59"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:29">
       <c r="A107" s="60" t="s">
         <v>650</v>
       </c>
@@ -30853,17 +31760,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="87.453125" customWidth="1"/>
+    <col min="1" max="1" width="87.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="221.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="221.1" customHeight="1">
       <c r="A2" t="s">
         <v>964</v>
       </c>
@@ -30887,39 +31794,39 @@
       <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.42578125" customWidth="1"/>
     <col min="14" max="14" width="38" customWidth="1"/>
-    <col min="15" max="15" width="43.453125" customWidth="1"/>
-    <col min="16" max="16" width="31.54296875" customWidth="1"/>
-    <col min="17" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="22.453125" customWidth="1"/>
-    <col min="19" max="19" width="25.54296875" customWidth="1"/>
-    <col min="20" max="20" width="32.1796875" customWidth="1"/>
-    <col min="21" max="21" width="31.81640625" customWidth="1"/>
-    <col min="22" max="22" width="30.1796875" customWidth="1"/>
-    <col min="23" max="23" width="24.1796875" customWidth="1"/>
-    <col min="24" max="24" width="18.81640625" customWidth="1"/>
-    <col min="25" max="25" width="19.81640625" customWidth="1"/>
-    <col min="26" max="26" width="18.54296875" customWidth="1"/>
-    <col min="27" max="27" width="17.54296875" customWidth="1"/>
-    <col min="28" max="28" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.42578125" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" customWidth="1"/>
+    <col min="21" max="21" width="31.85546875" customWidth="1"/>
+    <col min="22" max="22" width="30.140625" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -31005,7 +31912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -31078,7 +31985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -31121,7 +32028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -31164,7 +32071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -31207,7 +32114,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -31247,7 +32154,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -31287,7 +32194,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -31318,7 +32225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -31349,7 +32256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -31395,7 +32302,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -31438,7 +32345,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28">
       <c r="A12" s="14" t="s">
         <v>139</v>
       </c>
@@ -31481,7 +32388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28">
       <c r="A13" s="14" t="s">
         <v>147</v>
       </c>
@@ -31521,7 +32428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28">
       <c r="A14" s="24" t="s">
         <v>155</v>
       </c>
@@ -31564,7 +32471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -31604,7 +32511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -31644,7 +32551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -31690,7 +32597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -31730,7 +32637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" s="20" customFormat="1">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -31787,7 +32694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" s="20" customFormat="1">
       <c r="A20" t="s">
         <v>472</v>
       </c>
@@ -31840,7 +32747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" s="20" customFormat="1">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -31889,7 +32796,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" s="20" customFormat="1">
       <c r="A22" t="s">
         <v>715</v>
       </c>
@@ -31942,7 +32849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" s="20" customFormat="1">
       <c r="A23" s="20" t="s">
         <v>212</v>
       </c>
@@ -32011,7 +32918,7 @@
       </c>
       <c r="AB23"/>
     </row>
-    <row r="24" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28">
       <c r="A24" s="20" t="s">
         <v>717</v>
       </c>
@@ -32055,7 +32962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28">
       <c r="A25" s="20" t="s">
         <v>221</v>
       </c>
@@ -32093,7 +33000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28">
       <c r="A26" s="20" t="s">
         <v>227</v>
       </c>
@@ -32136,7 +33043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28">
       <c r="A27" s="20" t="s">
         <v>234</v>
       </c>
@@ -32176,7 +33083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
@@ -32216,7 +33123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28">
       <c r="A29" s="20" t="s">
         <v>247</v>
       </c>
@@ -32259,7 +33166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28">
       <c r="A30" s="20" t="s">
         <v>260</v>
       </c>
@@ -32302,7 +33209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28">
       <c r="A31" s="20" t="s">
         <v>266</v>
       </c>
@@ -32342,7 +33249,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28">
       <c r="A32" s="20" t="s">
         <v>278</v>
       </c>
@@ -32382,7 +33289,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28">
       <c r="A33" s="20" t="s">
         <v>220</v>
       </c>
@@ -32425,7 +33332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>730</v>
       </c>
@@ -32465,7 +33372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>286</v>
       </c>
@@ -32503,7 +33410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>291</v>
       </c>
@@ -32547,7 +33454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>297</v>
       </c>
@@ -32587,7 +33494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>302</v>
       </c>
@@ -32630,7 +33537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>308</v>
       </c>
@@ -32654,7 +33561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>315</v>
       </c>
@@ -32694,7 +33601,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28">
       <c r="A41" s="44" t="s">
         <v>320</v>
       </c>
@@ -32736,7 +33643,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>326</v>
       </c>
@@ -32774,7 +33681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28">
       <c r="A43" s="20" t="s">
         <v>333</v>
       </c>
@@ -32816,7 +33723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
         <v>346</v>
       </c>
@@ -32856,7 +33763,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28">
       <c r="A45" s="15" t="s">
         <v>353</v>
       </c>
@@ -32897,7 +33804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28">
       <c r="A46" s="15" t="s">
         <v>361</v>
       </c>
@@ -32962,7 +33869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
         <v>366</v>
       </c>
@@ -33002,7 +33909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>673</v>
       </c>
@@ -33043,7 +33950,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -33089,7 +33996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
         <v>752</v>
       </c>
@@ -33130,7 +34037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
         <v>380</v>
       </c>
@@ -33171,7 +34078,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
         <v>385</v>
       </c>
@@ -33220,7 +34127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
         <v>393</v>
       </c>
@@ -33259,7 +34166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
         <v>397</v>
       </c>
@@ -33299,7 +34206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -33337,7 +34244,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
         <v>407</v>
       </c>
@@ -33377,7 +34284,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
         <v>413</v>
       </c>
@@ -33404,7 +34311,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
         <v>417</v>
       </c>
@@ -33444,7 +34351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
         <v>422</v>
       </c>
@@ -33487,7 +34394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28">
       <c r="A60" s="12" t="s">
         <v>426</v>
       </c>
@@ -33528,7 +34435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
         <v>430</v>
       </c>
@@ -33568,7 +34475,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>436</v>
       </c>
@@ -33608,7 +34515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
         <v>441</v>
       </c>
@@ -33648,7 +34555,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
         <v>445</v>
       </c>
@@ -33688,7 +34595,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>451</v>
       </c>
@@ -33724,7 +34631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>455</v>
       </c>
@@ -33765,7 +34672,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28">
       <c r="A67" s="3" t="s">
         <v>461</v>
       </c>
@@ -33808,7 +34715,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
         <v>466</v>
       </c>
@@ -33851,7 +34758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
         <v>478</v>
       </c>
@@ -33891,7 +34798,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
         <v>482</v>
       </c>
@@ -33931,7 +34838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1">
       <c r="A71" t="s">
         <v>487</v>
       </c>
@@ -33971,7 +34878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
         <v>492</v>
       </c>
@@ -34011,7 +34918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
         <v>499</v>
       </c>
@@ -34051,7 +34958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
         <v>505</v>
       </c>
@@ -34091,7 +34998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
         <v>516</v>
       </c>
@@ -34131,7 +35038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
         <v>523</v>
       </c>
@@ -34171,7 +35078,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
         <v>529</v>
       </c>
@@ -34217,7 +35124,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
         <v>789</v>
       </c>
@@ -34260,7 +35167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
         <v>793</v>
       </c>
@@ -34303,7 +35210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
         <v>573</v>
       </c>
@@ -34343,7 +35250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
         <v>579</v>
       </c>
@@ -34381,7 +35288,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
         <v>796</v>
       </c>
@@ -34424,7 +35331,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
         <v>800</v>
       </c>
@@ -34467,7 +35374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
         <v>804</v>
       </c>
@@ -34510,7 +35417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
         <v>808</v>
       </c>
@@ -34550,7 +35457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
         <v>811</v>
       </c>
@@ -34593,7 +35500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
         <v>585</v>
       </c>
@@ -34633,7 +35540,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28">
       <c r="A88" s="15" t="s">
         <v>589</v>
       </c>
@@ -34676,7 +35583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28">
       <c r="A89" s="24" t="s">
         <v>596</v>
       </c>
@@ -34714,7 +35621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
         <v>601</v>
       </c>
@@ -34754,7 +35661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
         <v>605</v>
       </c>
@@ -34794,7 +35701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="15" customHeight="1">
       <c r="A92" s="23" t="s">
         <v>609</v>
       </c>
@@ -34835,7 +35742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="15" customHeight="1">
       <c r="A93" t="s">
         <v>612</v>
       </c>
@@ -34876,7 +35783,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="15" customHeight="1">
       <c r="A94" t="s">
         <v>616</v>
       </c>
@@ -34914,7 +35821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="15" customHeight="1">
       <c r="A95" t="s">
         <v>619</v>
       </c>
@@ -34954,7 +35861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="15" customHeight="1">
       <c r="A96" t="s">
         <v>624</v>
       </c>
@@ -34995,7 +35902,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="15" customHeight="1">
       <c r="A97" t="s">
         <v>654</v>
       </c>
@@ -35059,7 +35966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>658</v>
       </c>
@@ -35099,7 +36006,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="15" customHeight="1">
       <c r="A99" t="s">
         <v>662</v>
       </c>
@@ -35139,7 +36046,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="15" customHeight="1">
       <c r="A100" t="s">
         <v>637</v>
       </c>
@@ -35172,7 +36079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="15" customHeight="1">
       <c r="A101" t="s">
         <v>642</v>
       </c>
@@ -35205,7 +36112,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="15" customHeight="1">
       <c r="A102" t="s">
         <v>340</v>
       </c>
@@ -35240,7 +36147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="15" customHeight="1">
       <c r="A103" t="s">
         <v>668</v>
       </c>
@@ -35280,7 +36187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" ht="15" customHeight="1">
       <c r="A104" t="s">
         <v>512</v>
       </c>
@@ -35317,7 +36224,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" ht="15" customHeight="1">
       <c r="A105" t="s">
         <v>646</v>
       </c>
@@ -35347,7 +36254,7 @@
       </c>
       <c r="Q105" s="44"/>
     </row>
-    <row r="106" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="15" customHeight="1">
       <c r="A106" t="s">
         <v>631</v>
       </c>
@@ -35377,7 +36284,7 @@
       </c>
       <c r="Q106" s="44"/>
     </row>
-    <row r="107" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" ht="15" customHeight="1">
       <c r="A107" t="s">
         <v>650</v>
       </c>
@@ -35626,15 +36533,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -35642,7 +36549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
@@ -35662,7 +36569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="31">
         <v>0</v>
       </c>
@@ -35679,7 +36586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -35699,7 +36606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -35719,7 +36626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -35739,7 +36646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
@@ -35773,13 +36680,13 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
@@ -35787,7 +36694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -35795,7 +36702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
@@ -35803,7 +36710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
@@ -35811,7 +36718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
         <v>8</v>
       </c>
@@ -35819,7 +36726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -35827,7 +36734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>10</v>
       </c>
@@ -35835,7 +36742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>11</v>
       </c>
@@ -35843,7 +36750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>12</v>
       </c>
@@ -35851,7 +36758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
         <v>13</v>
       </c>
@@ -35859,7 +36766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>14</v>
       </c>
@@ -35867,7 +36774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>15</v>
       </c>
@@ -35875,7 +36782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
@@ -35883,7 +36790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
         <v>17</v>
       </c>
@@ -35891,7 +36798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
         <v>18</v>
       </c>
@@ -35899,7 +36806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
@@ -35907,7 +36814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
         <v>20</v>
       </c>
@@ -35915,7 +36822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -35923,7 +36830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
         <v>22</v>
       </c>
@@ -35931,7 +36838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
         <v>23</v>
       </c>
@@ -35939,7 +36846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
         <v>24</v>
       </c>
@@ -35947,7 +36854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
         <v>3</v>
       </c>
@@ -35969,12 +36876,12 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.54296875" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -36030,7 +36937,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19">
       <c r="A2" s="57" t="s">
         <v>57</v>
       </c>
@@ -36073,7 +36980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="A3" s="60" t="s">
         <v>78</v>
       </c>
@@ -36118,7 +37025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="A4" s="57" t="s">
         <v>91</v>
       </c>
@@ -36163,7 +37070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19">
       <c r="A5" s="60" t="s">
         <v>97</v>
       </c>
@@ -36208,7 +37115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19">
       <c r="A6" s="57" t="s">
         <v>106</v>
       </c>
@@ -36254,7 +37161,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="A7" s="60" t="s">
         <v>112</v>
       </c>
@@ -36297,7 +37204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19">
       <c r="A8" s="57" t="s">
         <v>128</v>
       </c>
@@ -36340,7 +37247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="A9" s="60" t="s">
         <v>133</v>
       </c>
@@ -36385,7 +37292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="A10" s="131" t="s">
         <v>139</v>
       </c>
@@ -36430,7 +37337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="A11" s="132" t="s">
         <v>147</v>
       </c>
@@ -36473,7 +37380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="A12" s="76" t="s">
         <v>155</v>
       </c>
@@ -36515,7 +37422,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19">
       <c r="A13" s="60" t="s">
         <v>163</v>
       </c>
@@ -36555,7 +37462,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19">
       <c r="A14" s="57" t="s">
         <v>168</v>
       </c>
@@ -36598,7 +37505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="A15" s="60" t="s">
         <v>175</v>
       </c>
@@ -36646,7 +37553,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="A16" s="57" t="s">
         <v>181</v>
       </c>
@@ -36686,7 +37593,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20">
       <c r="A17" s="60" t="s">
         <v>188</v>
       </c>
@@ -36733,7 +37640,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20">
       <c r="A18" s="57" t="s">
         <v>472</v>
       </c>
@@ -36779,7 +37686,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20">
       <c r="A19" s="60" t="s">
         <v>196</v>
       </c>
@@ -36818,7 +37725,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20">
       <c r="A20" s="129" t="s">
         <v>715</v>
       </c>
@@ -36858,7 +37765,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20">
       <c r="A21" s="82" t="s">
         <v>212</v>
       </c>
@@ -36898,7 +37805,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20">
       <c r="A22" s="84" t="s">
         <v>717</v>
       </c>
@@ -36938,7 +37845,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20">
       <c r="A23" s="82" t="s">
         <v>221</v>
       </c>
@@ -36976,7 +37883,7 @@
       </c>
       <c r="P23" s="83"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" s="84" t="s">
         <v>227</v>
       </c>
@@ -37018,7 +37925,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20">
       <c r="A25" s="82" t="s">
         <v>720</v>
       </c>
@@ -37058,7 +37965,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20">
       <c r="A26" s="84" t="s">
         <v>241</v>
       </c>
@@ -37098,7 +38005,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20">
       <c r="A27" s="82" t="s">
         <v>247</v>
       </c>
@@ -37140,7 +38047,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20">
       <c r="A28" s="84" t="s">
         <v>260</v>
       </c>
@@ -37182,7 +38089,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20">
       <c r="A29" s="82" t="s">
         <v>266</v>
       </c>
@@ -37222,7 +38129,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20">
       <c r="A30" s="84" t="s">
         <v>278</v>
       </c>
@@ -37262,7 +38169,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -37284,7 +38191,7 @@
       <c r="O31" s="68"/>
       <c r="P31" s="87"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20">
       <c r="A32" s="84" t="s">
         <v>724</v>
       </c>
@@ -37308,7 +38215,7 @@
       <c r="O32" s="68"/>
       <c r="P32" s="87"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" s="82" t="s">
         <v>220</v>
       </c>
@@ -37348,7 +38255,7 @@
       </c>
       <c r="P33" s="83"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" s="57" t="s">
         <v>730</v>
       </c>
@@ -37388,7 +38295,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="A35" s="60" t="s">
         <v>286</v>
       </c>
@@ -37426,7 +38333,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="A36" s="57" t="s">
         <v>308</v>
       </c>
@@ -37450,7 +38357,7 @@
       <c r="O36" s="68"/>
       <c r="P36" s="58"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" s="60" t="s">
         <v>291</v>
       </c>
@@ -37492,7 +38399,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="A38" s="57" t="s">
         <v>297</v>
       </c>
@@ -37532,7 +38439,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="A39" s="60" t="s">
         <v>302</v>
       </c>
@@ -37574,7 +38481,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" s="57" t="s">
         <v>315</v>
       </c>
@@ -37614,7 +38521,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" s="88" t="s">
         <v>320</v>
       </c>
@@ -37652,7 +38559,7 @@
       </c>
       <c r="P41" s="89"/>
     </row>
-    <row r="42" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="45">
       <c r="A42" s="57" t="s">
         <v>326</v>
       </c>
@@ -37690,7 +38597,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" s="82" t="s">
         <v>333</v>
       </c>
@@ -37730,7 +38637,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="A44" s="57" t="s">
         <v>346</v>
       </c>
@@ -37770,7 +38677,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="A45" s="97" t="s">
         <v>353</v>
       </c>
@@ -37810,7 +38717,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="A46" s="103" t="s">
         <v>361</v>
       </c>
@@ -37850,7 +38757,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" s="60" t="s">
         <v>366</v>
       </c>
@@ -37890,7 +38797,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="60">
       <c r="A48" s="57" t="s">
         <v>673</v>
       </c>
@@ -37930,7 +38837,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16">
       <c r="A49" s="60" t="s">
         <v>372</v>
       </c>
@@ -37974,7 +38881,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16">
       <c r="A50" s="133" t="s">
         <v>752</v>
       </c>
@@ -38014,7 +38921,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16">
       <c r="A51" s="60" t="s">
         <v>380</v>
       </c>
@@ -38054,7 +38961,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16">
       <c r="A52" s="57" t="s">
         <v>385</v>
       </c>
@@ -38100,7 +39007,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16">
       <c r="A53" s="60" t="s">
         <v>393</v>
       </c>
@@ -38138,7 +39045,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16">
       <c r="A54" s="57" t="s">
         <v>397</v>
       </c>
@@ -38178,7 +39085,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16">
       <c r="A55" s="60" t="s">
         <v>402</v>
       </c>
@@ -38216,7 +39123,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16">
       <c r="A56" s="57" t="s">
         <v>407</v>
       </c>
@@ -38256,7 +39163,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16">
       <c r="A57" s="60" t="s">
         <v>413</v>
       </c>
@@ -38282,7 +39189,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16">
       <c r="A58" s="57" t="s">
         <v>417</v>
       </c>
@@ -38322,7 +39229,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16">
       <c r="A59" s="60" t="s">
         <v>422</v>
       </c>
@@ -38364,7 +39271,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16">
       <c r="A60" s="115" t="s">
         <v>426</v>
       </c>
@@ -38404,7 +39311,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16">
       <c r="A61" s="60" t="s">
         <v>430</v>
       </c>
@@ -38444,7 +39351,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16">
       <c r="A62" s="57" t="s">
         <v>436</v>
       </c>
@@ -38484,7 +39391,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16">
       <c r="A63" s="60" t="s">
         <v>441</v>
       </c>
@@ -38524,7 +39431,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16">
       <c r="A64" s="57" t="s">
         <v>445</v>
       </c>
@@ -38564,7 +39471,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16">
       <c r="A65" s="60" t="s">
         <v>451</v>
       </c>
@@ -38600,7 +39507,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="60">
       <c r="A66" s="57" t="s">
         <v>455</v>
       </c>
@@ -38640,7 +39547,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="45">
       <c r="A67" s="116" t="s">
         <v>461</v>
       </c>
@@ -38680,7 +39587,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16">
       <c r="A68" s="57" t="s">
         <v>466</v>
       </c>
@@ -38722,7 +39629,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16">
       <c r="A69" s="60" t="s">
         <v>478</v>
       </c>
@@ -38760,7 +39667,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16">
       <c r="A70" s="57" t="s">
         <v>482</v>
       </c>
@@ -38800,7 +39707,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16">
       <c r="A71" s="60" t="s">
         <v>487</v>
       </c>
@@ -38840,7 +39747,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16">
       <c r="A72" s="57" t="s">
         <v>492</v>
       </c>
@@ -38880,7 +39787,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16">
       <c r="A73" s="60" t="s">
         <v>499</v>
       </c>
@@ -38920,7 +39827,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16">
       <c r="A74" s="57" t="s">
         <v>505</v>
       </c>
@@ -38960,7 +39867,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16">
       <c r="A75" s="60" t="s">
         <v>516</v>
       </c>
@@ -39000,7 +39907,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16">
       <c r="A76" s="57" t="s">
         <v>523</v>
       </c>
@@ -39040,7 +39947,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16">
       <c r="A77" s="60" t="s">
         <v>573</v>
       </c>
@@ -39080,7 +39987,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16">
       <c r="A78" s="57" t="s">
         <v>579</v>
       </c>
@@ -39118,7 +40025,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16">
       <c r="A79" s="60" t="s">
         <v>529</v>
       </c>
@@ -39162,7 +40069,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16">
       <c r="A80" s="57" t="s">
         <v>789</v>
       </c>
@@ -39204,7 +40111,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16">
       <c r="A81" s="60" t="s">
         <v>793</v>
       </c>
@@ -39246,7 +40153,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16">
       <c r="A82" s="57" t="s">
         <v>796</v>
       </c>
@@ -39288,7 +40195,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16">
       <c r="A83" s="60" t="s">
         <v>800</v>
       </c>
@@ -39330,7 +40237,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16">
       <c r="A84" s="57" t="s">
         <v>804</v>
       </c>
@@ -39372,7 +40279,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16">
       <c r="A85" s="60" t="s">
         <v>808</v>
       </c>
@@ -39412,7 +40319,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16">
       <c r="A86" s="57" t="s">
         <v>811</v>
       </c>
@@ -39454,7 +40361,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16">
       <c r="A87" s="60" t="s">
         <v>585</v>
       </c>
@@ -39494,7 +40401,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16">
       <c r="A88" s="103" t="s">
         <v>589</v>
       </c>
@@ -39536,7 +40443,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16">
       <c r="A89" s="76" t="s">
         <v>596</v>
       </c>
@@ -39570,7 +40477,7 @@
       <c r="O89" s="77"/>
       <c r="P89" s="77"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16">
       <c r="A90" s="57" t="s">
         <v>601</v>
       </c>
@@ -39610,7 +40517,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16">
       <c r="A91" s="60" t="s">
         <v>605</v>
       </c>
@@ -39650,7 +40557,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16">
       <c r="A92" s="126" t="s">
         <v>609</v>
       </c>
@@ -39690,7 +40597,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16">
       <c r="A93" s="60" t="s">
         <v>612</v>
       </c>
@@ -39730,7 +40637,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16">
       <c r="A94" s="57" t="s">
         <v>616</v>
       </c>
@@ -39768,7 +40675,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16">
       <c r="A95" s="60" t="s">
         <v>619</v>
       </c>
@@ -39808,7 +40715,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16">
       <c r="A96" s="133" t="s">
         <v>624</v>
       </c>
@@ -39848,7 +40755,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16">
       <c r="A97" s="60" t="s">
         <v>654</v>
       </c>
@@ -39886,7 +40793,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16">
       <c r="A98" s="57" t="s">
         <v>658</v>
       </c>
@@ -39924,7 +40831,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16">
       <c r="A99" s="60" t="s">
         <v>662</v>
       </c>
@@ -39964,7 +40871,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16">
       <c r="A100" s="57" t="s">
         <v>668</v>
       </c>
@@ -40004,7 +40911,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16">
       <c r="A101" s="60" t="s">
         <v>512</v>
       </c>
@@ -40042,7 +40949,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16">
       <c r="A102" s="57" t="s">
         <v>340</v>
       </c>
@@ -40078,7 +40985,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16">
       <c r="A103" s="60" t="s">
         <v>637</v>
       </c>
@@ -40112,7 +41019,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16">
       <c r="A104" s="57" t="s">
         <v>642</v>
       </c>
@@ -40146,7 +41053,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16">
       <c r="A105" s="60" t="s">
         <v>646</v>
       </c>
@@ -40180,7 +41087,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16">
       <c r="A106" s="57" t="s">
         <v>631</v>
       </c>
@@ -40214,7 +41121,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16">
       <c r="A107" s="60" t="s">
         <v>650</v>
       </c>
@@ -40464,13 +41371,13 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
         <v>826</v>
       </c>
@@ -40478,7 +41385,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>828</v>
       </c>
@@ -40486,7 +41393,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>336</v>
       </c>
@@ -40494,7 +41401,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40502,7 +41409,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40510,7 +41417,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -40518,122 +41425,122 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -40659,17 +41566,17 @@
       <selection activeCell="A27" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>826</v>
       </c>
@@ -40687,7 +41594,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>828</v>
       </c>
@@ -40698,7 +41605,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>336</v>
       </c>
@@ -40706,7 +41613,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40714,7 +41621,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40722,7 +41629,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -40730,7 +41637,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40741,7 +41648,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>834</v>
       </c>
@@ -40752,7 +41659,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -40763,7 +41670,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>835</v>
       </c>
@@ -40774,7 +41681,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -40782,7 +41689,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -40790,7 +41697,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -40798,7 +41705,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -40806,7 +41713,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -40814,7 +41721,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -40822,7 +41729,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>549</v>
       </c>
@@ -40830,7 +41737,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -40838,7 +41745,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>850</v>
       </c>
@@ -40849,7 +41756,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -40857,7 +41764,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -40865,32 +41772,32 @@
         <v>853</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -40914,16 +41821,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" customWidth="1"/>
-    <col min="5" max="5" width="84.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="84.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>854</v>
       </c>
@@ -40940,7 +41847,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="51" t="s">
         <v>828</v>
       </c>
@@ -40957,7 +41864,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="51" t="s">
         <v>336</v>
       </c>
@@ -40972,7 +41879,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
@@ -40985,7 +41892,7 @@
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="51" t="s">
         <v>6</v>
       </c>
@@ -40996,7 +41903,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
@@ -41009,7 +41916,7 @@
       <c r="D6" s="53"/>
       <c r="E6" s="51"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
@@ -41024,7 +41931,7 @@
       </c>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="55" t="s">
         <v>834</v>
       </c>
@@ -41037,7 +41944,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="51" t="s">
         <v>9</v>
       </c>
@@ -41050,7 +41957,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="55" t="s">
         <v>835</v>
       </c>
@@ -41061,7 +41968,7 @@
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="51" t="s">
         <v>10</v>
       </c>
@@ -41076,7 +41983,7 @@
       </c>
       <c r="E11" s="51"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="51" t="s">
         <v>11</v>
       </c>
@@ -41089,7 +41996,7 @@
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="51" t="s">
         <v>12</v>
       </c>
@@ -41098,7 +42005,7 @@
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="51" t="s">
         <v>15</v>
       </c>
@@ -41111,7 +42018,7 @@
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="51" t="s">
         <v>424</v>
       </c>
@@ -41126,7 +42033,7 @@
       </c>
       <c r="E15" s="51"/>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="51" t="s">
         <v>549</v>
       </c>
@@ -41141,7 +42048,7 @@
       </c>
       <c r="E16" s="51"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="51" t="s">
         <v>16</v>
       </c>
@@ -41154,7 +42061,7 @@
       <c r="D17" s="51"/>
       <c r="E17" s="51"/>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="51" t="s">
         <v>850</v>
       </c>
@@ -41167,7 +42074,7 @@
       <c r="D18" s="51"/>
       <c r="E18" s="51"/>
     </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="51" t="s">
         <v>19</v>
       </c>
@@ -41182,7 +42089,7 @@
       </c>
       <c r="E19" s="51"/>
     </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="51" t="s">
         <v>20</v>
       </c>
@@ -41195,7 +42102,7 @@
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="45">
       <c r="A21" s="51" t="s">
         <v>21</v>
       </c>
@@ -41210,7 +42117,7 @@
       </c>
       <c r="E21" s="51"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="51" t="s">
         <v>22</v>
       </c>
@@ -41221,7 +42128,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="51" t="s">
         <v>693</v>
       </c>
@@ -41234,7 +42141,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="51" t="s">
         <v>569</v>
       </c>
@@ -41247,7 +42154,7 @@
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="51" t="s">
         <v>23</v>
       </c>
@@ -41260,7 +42167,7 @@
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" s="51" t="s">
         <v>18</v>
       </c>
@@ -41273,7 +42180,7 @@
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" s="51" t="s">
         <v>13</v>
       </c>
@@ -41303,20 +42210,20 @@
       <selection activeCell="D36" sqref="C34:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7">
       <c r="F1" s="9" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1">
       <c r="B2" s="136" t="s">
         <v>52</v>
       </c>
@@ -41330,7 +42237,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="15.75" thickBot="1">
       <c r="B3" s="136" t="s">
         <v>52</v>
       </c>
@@ -41344,7 +42251,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="15.75" thickBot="1">
       <c r="B4" s="136" t="s">
         <v>52</v>
       </c>
@@ -41358,7 +42265,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="15.75" thickBot="1">
       <c r="B5" s="136" t="s">
         <v>895</v>
       </c>
@@ -41369,7 +42276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
       <c r="B6" s="136" t="s">
         <v>895</v>
       </c>
@@ -41380,7 +42287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1">
       <c r="B7" s="136" t="s">
         <v>895</v>
       </c>
@@ -41388,7 +42295,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1">
       <c r="B8" s="136" t="s">
         <v>899</v>
       </c>
@@ -41399,7 +42306,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="15.75" thickBot="1">
       <c r="B9" s="136" t="s">
         <v>899</v>
       </c>
@@ -41410,7 +42317,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="15.75" thickBot="1">
       <c r="B10" s="136" t="s">
         <v>899</v>
       </c>
@@ -41421,12 +42328,12 @@
         <v>905</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="15.75" thickBot="1">
       <c r="B11" s="136" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="15.75" thickBot="1">
       <c r="B12" s="136" t="s">
         <v>906</v>
       </c>
@@ -41434,7 +42341,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="15.75" thickBot="1">
       <c r="B13" s="136" t="s">
         <v>906</v>
       </c>
@@ -41442,7 +42349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7">
       <c r="B14" s="137" t="s">
         <v>908</v>
       </c>
@@ -41450,7 +42357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7">
       <c r="B15" s="137" t="s">
         <v>909</v>
       </c>
@@ -41458,7 +42365,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="15.75" thickBot="1">
       <c r="B16" s="138" t="s">
         <v>911</v>
       </c>
@@ -41466,7 +42373,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="B17" s="138" t="s">
         <v>913</v>
       </c>
@@ -41474,7 +42381,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="B18" s="138" t="s">
         <v>913</v>
       </c>
@@ -41482,7 +42389,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="E24" t="s">
         <v>916</v>
       </c>
@@ -41490,7 +42397,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -41510,7 +42417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>920</v>
       </c>
@@ -41530,7 +42437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" t="s">
         <v>922</v>
       </c>
@@ -41550,7 +42457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="B28" s="136" t="s">
         <v>899</v>
       </c>
@@ -41564,7 +42471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="B29" s="136" t="s">
         <v>899</v>
       </c>
@@ -41578,7 +42485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="B30" s="136" t="s">
         <v>899</v>
       </c>
@@ -41592,7 +42499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="29.25" thickBot="1">
       <c r="B31" s="136" t="s">
         <v>906</v>
       </c>
@@ -41607,7 +42514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="29.25" thickBot="1">
       <c r="B32" s="136" t="s">
         <v>906</v>
       </c>
@@ -41618,7 +42525,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" ht="15.75" thickBot="1">
       <c r="B33" s="136" t="s">
         <v>906</v>
       </c>
@@ -41629,7 +42536,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
       <c r="B34" s="136" t="s">
         <v>928</v>
       </c>
@@ -41640,7 +42547,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" ht="15.75" thickBot="1">
       <c r="B35" s="136" t="s">
         <v>928</v>
       </c>
@@ -41651,7 +42558,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1">
       <c r="B36" s="136" t="s">
         <v>928</v>
       </c>
@@ -41662,7 +42569,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" ht="15.75" thickBot="1">
       <c r="B37" s="136" t="s">
         <v>895</v>
       </c>
@@ -41673,7 +42580,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" ht="15.75" thickBot="1">
       <c r="B38" s="136" t="s">
         <v>895</v>
       </c>
@@ -41681,7 +42588,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" ht="15.75" thickBot="1">
       <c r="B39" s="136" t="s">
         <v>895</v>
       </c>
@@ -41709,14 +42616,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>936</v>
       </c>
@@ -41934,15 +42841,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
@@ -41950,6 +42848,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41971,14 +42878,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -41988,6 +42887,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnak\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAE7911-A377-42AA-8C10-3D492C7288EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4D43A-AF7D-41EC-BB61-41140A3F6705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -105,24 +108,50 @@
     </comment>
     <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Arghavan: one issue we have I think is that there is a difference between explicitly reuse concepts from another ontology and providing some alignment information. I think we need to keep our lives easy and only consider explicit reuse, i.e. explicitly referred to within the owl file</t>
+        </r>
       </text>
     </comment>
     <comment ref="P12" authorId="2" shapeId="0" xr:uid="{885FB683-17A8-485A-8691-53C79CD2DF41}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     https://www.freeclass.eu/download
 The Free Class (FC) ontology requires me to give my details to get access. But, it is otherwise an AECO ontology. Should I add it?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q18" authorId="3" shapeId="0" xr:uid="{973D48F1-79B3-4920-8BDA-8C16C92B26F0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This may need to include quantity kind (qk) and unit (unit), that are both from qudt.
@@ -130,11 +159,20 @@
     New list: bacnet, bsh, qudt, qudtqk, rec, ref, s223, sdo, sh, skos, sosa, tag, unit, vcard
 Reply:
     That seems better. Where did you find that list?</t>
+        </r>
       </text>
     </comment>
     <comment ref="R24" authorId="4" shapeId="0" xr:uid="{4B8EE336-FBE0-47A3-9930-259BDD87F0E2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Place Reference Theory (PRT) ontology
@@ -147,11 +185,20 @@
     Good question. Either PRT is UPPER, or we consider it AECO (we should change that columns to BE :) ). Please, ask Arghavan for her opinion.
 Reply:
     @Arghavan</t>
+        </r>
       </text>
     </comment>
     <comment ref="A43" authorId="5" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Probably doesn't exist
@@ -167,43 +214,88 @@
     I agree. looks like developers named it as ontology in paper, but in the end its not. Also, Section 5 of paper Conclusions and Future Work "Furthermore, it is recommended to use DOT as a modular core ontology in combination with additional web ontologies as extensions when adding more specific information, e.g. taxonomies for various damage types or national assessment standards. In this regard, three example ontologies have been developed that extend DOT with a taxonomy for damages in reinforced concrete (CDO), mechanical parameters for damaged areas (DMO) and properties based on the German inspection standard DIN 1076" . So maybe it cannot be considered as a separate ontology.
 Reply:
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A50" authorId="6" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q50" authorId="7" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O53" authorId="8" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
+        </r>
       </text>
     </comment>
     <comment ref="A68" authorId="9" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Note: used to be ontology iddo.</t>
+        </r>
       </text>
     </comment>
     <comment ref="Z81" authorId="10" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Occupant Property Taxonomy (2024). DOI: 10.3233/SW-223254
@@ -211,54 +303,109 @@
     If we miss an ontology in our database, just add it :) 
 Reply:
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
+        </r>
       </text>
     </comment>
     <comment ref="O84" authorId="11" shapeId="0" xr:uid="{79AF74C8-61FA-441F-B37E-08E57B208671}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://cui.unige.ch/isi/onto/citygml2.0.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="O85" authorId="12" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
+        </r>
       </text>
     </comment>
     <comment ref="P90" authorId="13" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O106" authorId="14" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="O117" authorId="15" shapeId="0" xr:uid="{FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="O120" authorId="16" shapeId="0" xr:uid="{69563DD9-E157-466B-B7C0-685744C5F29A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -266,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="860">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -2846,6 +2993,9 @@
   </si>
   <si>
     <t>dct, vann, skos</t>
+  </si>
+  <si>
+    <t>The Cost Item (CI) ontology represents the cost domain and defines a structured model for describing and aggregating cost items and their components. It extends IfcCostItem from IFC4x3 and introduces the class ci:CostItem, which aggregates instances of ci:CostComponent through ci:hasPart. The ontology integrates QUDT for units, supports connections to IFC geometry, and aligns cost activities with DTC tasks. By linking with CR, it ensures consistent semantic mapping between cost, resources, and geometry for model-based estimation.</t>
   </si>
 </sst>
 </file>
@@ -3542,41 +3692,41 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="21.54296875" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="46" style="3" customWidth="1"/>
-    <col min="18" max="18" width="27.54296875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="34.54296875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="34.1796875" style="9" customWidth="1"/>
-    <col min="21" max="21" width="32.1796875" style="9" customWidth="1"/>
-    <col min="22" max="22" width="26.1796875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="9" customWidth="1"/>
     <col min="23" max="23" width="20" style="9" customWidth="1"/>
-    <col min="24" max="24" width="21.453125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="19.54296875" style="9" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" style="9" customWidth="1"/>
     <col min="26" max="26" width="19" style="9" customWidth="1"/>
-    <col min="27" max="27" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3680,7 +3830,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>671</v>
       </c>
@@ -3764,7 +3914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3856,7 +4006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3942,7 +4092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4037,7 +4187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -4123,7 +4273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -4310,7 +4460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -4402,7 +4552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -4491,7 +4641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>677</v>
       </c>
@@ -4569,7 +4719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -4652,7 +4802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -4735,7 +4885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4827,7 +4977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -4919,7 +5069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>132</v>
       </c>
@@ -5011,7 +5161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -5100,7 +5250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>148</v>
       </c>
@@ -5195,7 +5345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -5284,7 +5434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -5376,7 +5526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -5471,7 +5621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>742</v>
       </c>
@@ -5552,7 +5702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -5641,7 +5791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -5736,7 +5886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>743</v>
       </c>
@@ -5820,7 +5970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -5900,7 +6050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -5983,7 +6133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>820</v>
       </c>
@@ -6064,7 +6214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -6150,7 +6300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -6225,7 +6375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -6314,7 +6464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>212</v>
       </c>
@@ -6400,7 +6550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -6492,7 +6642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -6581,7 +6731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>231</v>
       </c>
@@ -6670,7 +6820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>237</v>
       </c>
@@ -6762,7 +6912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>244</v>
       </c>
@@ -6851,7 +7001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>250</v>
       </c>
@@ -6943,7 +7093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -7032,7 +7182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>262</v>
       </c>
@@ -7098,7 +7248,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>265</v>
       </c>
@@ -7173,7 +7323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -7262,7 +7412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>273</v>
       </c>
@@ -7351,7 +7501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>276</v>
       </c>
@@ -7434,7 +7584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>281</v>
       </c>
@@ -7526,7 +7676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>287</v>
       </c>
@@ -7615,7 +7765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -7707,7 +7857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -7793,7 +7943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>305</v>
       </c>
@@ -7882,7 +8032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>310</v>
       </c>
@@ -7971,7 +8121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -8057,7 +8207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>323</v>
       </c>
@@ -8149,7 +8299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>330</v>
       </c>
@@ -8238,7 +8388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>336</v>
       </c>
@@ -8327,7 +8477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>343</v>
       </c>
@@ -8416,7 +8566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>351</v>
       </c>
@@ -8505,7 +8655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>656</v>
       </c>
@@ -8597,7 +8747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>356</v>
       </c>
@@ -8686,7 +8836,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>683</v>
       </c>
@@ -8773,7 +8923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>700</v>
       </c>
@@ -8857,7 +9007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>362</v>
       </c>
@@ -8955,7 +9105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>369</v>
       </c>
@@ -9044,7 +9194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>374</v>
       </c>
@@ -9142,7 +9292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -9228,7 +9378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>385</v>
       </c>
@@ -9320,7 +9470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>390</v>
       </c>
@@ -9406,7 +9556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -9495,7 +9645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>401</v>
       </c>
@@ -9569,7 +9719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>669</v>
       </c>
@@ -9616,7 +9766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>405</v>
       </c>
@@ -9705,7 +9855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>410</v>
       </c>
@@ -9797,7 +9947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>414</v>
       </c>
@@ -9886,7 +10036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>418</v>
       </c>
@@ -9975,7 +10125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>424</v>
       </c>
@@ -10064,7 +10214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>429</v>
       </c>
@@ -10153,7 +10303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>433</v>
       </c>
@@ -10242,7 +10392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>722</v>
       </c>
@@ -10332,7 +10482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>721</v>
       </c>
@@ -10422,7 +10572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>439</v>
       </c>
@@ -10505,7 +10655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>694</v>
       </c>
@@ -10589,7 +10739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>443</v>
       </c>
@@ -10678,7 +10828,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>449</v>
       </c>
@@ -10767,7 +10917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>454</v>
       </c>
@@ -10859,7 +11009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>460</v>
       </c>
@@ -10948,7 +11098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>466</v>
       </c>
@@ -11034,7 +11184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>470</v>
       </c>
@@ -11123,7 +11273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>475</v>
       </c>
@@ -11212,7 +11362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>480</v>
       </c>
@@ -11301,7 +11451,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>487</v>
       </c>
@@ -11390,7 +11540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>493</v>
       </c>
@@ -11477,7 +11627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>500</v>
       </c>
@@ -11566,7 +11716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>504</v>
       </c>
@@ -11655,7 +11805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>511</v>
       </c>
@@ -11744,7 +11894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>517</v>
       </c>
@@ -11839,7 +11989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>525</v>
       </c>
@@ -11931,7 +12081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>530</v>
       </c>
@@ -12023,7 +12173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>535</v>
       </c>
@@ -12115,7 +12265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>540</v>
       </c>
@@ -12207,7 +12357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>545</v>
       </c>
@@ -12299,7 +12449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>550</v>
       </c>
@@ -12388,7 +12538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>554</v>
       </c>
@@ -12480,7 +12630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>561</v>
       </c>
@@ -12569,7 +12719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>567</v>
       </c>
@@ -12655,7 +12805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>573</v>
       </c>
@@ -12744,7 +12894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>577</v>
       </c>
@@ -12836,7 +12986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>584</v>
       </c>
@@ -12920,7 +13070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>589</v>
       </c>
@@ -13009,7 +13159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>593</v>
       </c>
@@ -13098,7 +13248,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>597</v>
       </c>
@@ -13187,7 +13337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>600</v>
       </c>
@@ -13276,7 +13426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>716</v>
       </c>
@@ -13366,7 +13516,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>715</v>
       </c>
@@ -13456,7 +13606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>604</v>
       </c>
@@ -13542,7 +13692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>607</v>
       </c>
@@ -13631,7 +13781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>612</v>
       </c>
@@ -13720,7 +13870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>619</v>
       </c>
@@ -13803,7 +13953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>625</v>
       </c>
@@ -13892,7 +14042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>630</v>
       </c>
@@ -13975,7 +14125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>634</v>
       </c>
@@ -14058,7 +14208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>745</v>
       </c>
@@ -14127,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>638</v>
       </c>
@@ -14210,7 +14360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>642</v>
       </c>
@@ -14296,7 +14446,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>687</v>
       </c>
@@ -14380,7 +14530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>646</v>
       </c>
@@ -14464,7 +14614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>650</v>
       </c>
@@ -14556,7 +14706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>661</v>
       </c>
@@ -14643,7 +14793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>831</v>
       </c>
@@ -14719,7 +14869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>836</v>
       </c>
@@ -14800,7 +14950,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>841</v>
       </c>
@@ -14881,7 +15031,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>847</v>
       </c>
@@ -14899,6 +15049,9 @@
       </c>
       <c r="K130" t="s">
         <v>54</v>
+      </c>
+      <c r="M130" t="s">
+        <v>859</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>850</v>
@@ -14959,7 +15112,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>853</v>
       </c>
@@ -15036,6 +15189,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F4:G25 F27:G120 F121:F131" xr:uid="{54FEA7E7-B503-4583-B7B9-ED02FA3CD165}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1" xr:uid="{78F85862-50CA-4DFE-BA27-24B020CDCA3F}"/>
     <hyperlink ref="O9" r:id="rId2" xr:uid="{7E7CEAD7-4929-4BE4-AAEB-FBA14DFBDD50}"/>
@@ -15264,32 +15422,10 @@
   <tableParts count="1">
     <tablePart r:id="rId223"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54FEA7E7-B503-4583-B7B9-ED02FA3CD165}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:G2 F4:G25 F27:G120 F121:F131</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -15493,6 +15629,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15503,16 +15649,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15530,6 +15666,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
   <ds:schemaRefs>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4D43A-AF7D-41EC-BB61-41140A3F6705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B866937-AC49-426F-8823-3A194BEF4A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
+    <sheet name="Domains" sheetId="16" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Domains!$A$1:$A$26</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -413,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="865">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -2996,13 +3000,28 @@
   </si>
   <si>
     <t>The Cost Item (CI) ontology represents the cost domain and defines a structured model for describing and aggregating cost items and their components. It extends IfcCostItem from IFC4x3 and introduces the class ci:CostItem, which aggregates instances of ci:CostComponent through ci:hasPart. The ontology integrates QUDT for units, supports connections to IFC geometry, and aligns cost activities with DTC tasks. By linking with CR, it ensures consistent semantic mapping between cost, resources, and geometry for model-based estimation.</t>
+  </si>
+  <si>
+    <t>Domains / Use Cases</t>
+  </si>
+  <si>
+    <t>Acoustics</t>
+  </si>
+  <si>
+    <t>Fabrication</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Structural (Performance)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3057,6 +3076,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3109,7 +3136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3146,6 +3173,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3689,10 +3717,10 @@
   <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomRight" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15189,11 +15217,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 F4:G25 F27:G120 F121:F131" xr:uid="{54FEA7E7-B503-4583-B7B9-ED02FA3CD165}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1" xr:uid="{78F85862-50CA-4DFE-BA27-24B020CDCA3F}"/>
     <hyperlink ref="O9" r:id="rId2" xr:uid="{7E7CEAD7-4929-4BE4-AAEB-FBA14DFBDD50}"/>
@@ -15422,10 +15445,202 @@
   <tableParts count="1">
     <tablePart r:id="rId223"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CCDC8F2-63C6-4CC6-9EE9-8F1647842C6C}">
+          <x14:formula1>
+            <xm:f>Domains!$A$2:$A$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:G131</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6A62F-F708-4237-968B-A43D72E1AFD7}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A26" xr:uid="{F0871C5B-CD79-4468-81A6-B119B629A3EF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
+      <sortCondition ref="A1:A25"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classification - Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -15629,26 +15844,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15666,24 +15880,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C37DA-B9AC-49A8-9384-345E0A29B9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F3087-5A20-47E5-A7F1-8FE4AD36ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="20055" yWindow="1380" windowWidth="15690" windowHeight="13305" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="867">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -2873,9 +2873,6 @@
     <t>The vocabulary of building accessibility was created within the project Maps without Barriers realized under Charta 77 Foundation – Barriers Account. It is based on the Object Accessibility Categorization Methodology, however, it is completed with entities arising from the needs of the project. This vocabulary is also part of a diploma thesis entitled Ontology of Building Accessibility. The project is co-financed from resources provided by the European Union and European Regional Development Fund.</t>
   </si>
   <si>
-    <t>https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3</t>
-  </si>
-  <si>
     <t>http://w3id.org/charta77/jup</t>
   </si>
   <si>
@@ -3021,6 +3018,9 @@
   </si>
   <si>
     <t>Real Estate</t>
+  </si>
+  <si>
+    <t>https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3; https://presbariery.cz/en/help</t>
   </si>
 </sst>
 </file>
@@ -3722,11 +3722,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
   <dimension ref="A1:AH131"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -3927,15 +3927,15 @@
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2">
-        <f>COUNTIF(R2:T2, "yes")</f>
+        <f t="shared" ref="AB2:AB33" si="0">COUNTIF(R2:T2, "yes")</f>
         <v>2</v>
       </c>
       <c r="AC2">
-        <f>COUNTIF(U2:W2, "yes")</f>
+        <f t="shared" ref="AC2:AC33" si="1">COUNTIF(U2:W2, "yes")</f>
         <v>2</v>
       </c>
       <c r="AD2">
-        <f>COUNTIF(X2:Z2, "yes")</f>
+        <f t="shared" ref="AD2:AD33" si="2">COUNTIF(X2:Z2, "yes")</f>
         <v>2</v>
       </c>
       <c r="AE2" t="s">
@@ -4016,15 +4016,15 @@
         <v>62</v>
       </c>
       <c r="AB3">
-        <f>COUNTIF(R3:T3, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC3">
-        <f>COUNTIF(U3:W3, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f>COUNTIF(X3:Z3, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE3" t="s">
@@ -4105,15 +4105,15 @@
         <v>62</v>
       </c>
       <c r="AB4">
-        <f>COUNTIF(R4:T4, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC4">
-        <f>COUNTIF(U4:W4, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD4">
-        <f>COUNTIF(X4:Z4, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE4" t="s">
@@ -4197,15 +4197,15 @@
         <v>78</v>
       </c>
       <c r="AB5">
-        <f>COUNTIF(R5:T5, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f>COUNTIF(U5:W5, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD5">
-        <f>COUNTIF(X5:Z5, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE5" t="s">
@@ -4286,15 +4286,15 @@
         <v>62</v>
       </c>
       <c r="AB6">
-        <f>COUNTIF(R6:T6, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC6">
-        <f>COUNTIF(U6:W6, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD6">
-        <f>COUNTIF(X6:Z6, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE6" t="s">
@@ -4378,15 +4378,15 @@
         <v>89</v>
       </c>
       <c r="AB7">
-        <f>COUNTIF(R7:T7, "yes")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>COUNTIF(U7:W7, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD7">
-        <f>COUNTIF(X7:Z7, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE7" t="s">
@@ -4470,15 +4470,15 @@
         <v>98</v>
       </c>
       <c r="AB8">
-        <f>COUNTIF(R8:T8, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC8">
-        <f>COUNTIF(U8:W8, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD8">
-        <f>COUNTIF(X8:Z8, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE8" t="s">
@@ -4562,15 +4562,15 @@
         <v>104</v>
       </c>
       <c r="AB9">
-        <f>COUNTIF(R9:T9, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC9">
-        <f>COUNTIF(U9:W9, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD9">
-        <f>COUNTIF(X9:Z9, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE9" t="s">
@@ -4654,15 +4654,15 @@
         <v>78</v>
       </c>
       <c r="AB10">
-        <f>COUNTIF(R10:T10, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC10">
-        <f>COUNTIF(U10:W10, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD10">
-        <f>COUNTIF(X10:Z10, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE10" t="s">
@@ -4732,15 +4732,15 @@
       </c>
       <c r="AA11" s="8"/>
       <c r="AB11">
-        <f>COUNTIF(R11:T11, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC11">
-        <f>COUNTIF(U11:W11, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD11">
-        <f>COUNTIF(X11:Z11, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE11" t="s">
@@ -4812,15 +4812,15 @@
         <v>78</v>
       </c>
       <c r="AB12">
-        <f>COUNTIF(R12:T12, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC12">
-        <f>COUNTIF(U12:W12, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD12">
-        <f>COUNTIF(X12:Z12, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE12" t="s">
@@ -4895,15 +4895,15 @@
         <v>89</v>
       </c>
       <c r="AB13">
-        <f>COUNTIF(R13:T13, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC13">
-        <f>COUNTIF(U13:W13, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD13">
-        <f>COUNTIF(X13:Z13, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE13" t="s">
@@ -4987,15 +4987,15 @@
         <v>62</v>
       </c>
       <c r="AB14">
-        <f>COUNTIF(R14:T14, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC14">
-        <f>COUNTIF(U14:W14, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD14">
-        <f>COUNTIF(X14:Z14, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE14" t="s">
@@ -5082,15 +5082,15 @@
         <v>104</v>
       </c>
       <c r="AB15">
-        <f>COUNTIF(R15:T15, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC15">
-        <f>COUNTIF(U15:W15, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD15">
-        <f>COUNTIF(X15:Z15, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE15" t="s">
@@ -5174,15 +5174,15 @@
         <v>78</v>
       </c>
       <c r="AB16">
-        <f>COUNTIF(R16:T16, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC16">
-        <f>COUNTIF(U16:W16, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD16">
-        <f>COUNTIF(X16:Z16, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE16" t="s">
@@ -5263,15 +5263,15 @@
         <v>98</v>
       </c>
       <c r="AB17">
-        <f>COUNTIF(R17:T17, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC17">
-        <f>COUNTIF(U17:W17, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD17">
-        <f>COUNTIF(X17:Z17, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE17" t="s">
@@ -5355,15 +5355,15 @@
         <v>89</v>
       </c>
       <c r="AB18">
-        <f>COUNTIF(R18:T18, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC18">
-        <f>COUNTIF(U18:W18, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD18">
-        <f>COUNTIF(X18:Z18, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE18" t="s">
@@ -5447,15 +5447,15 @@
         <v>98</v>
       </c>
       <c r="AB19">
-        <f>COUNTIF(R19:T19, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC19">
-        <f>COUNTIF(U19:W19, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD19">
-        <f>COUNTIF(X19:Z19, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE19" t="s">
@@ -5536,15 +5536,15 @@
         <v>62</v>
       </c>
       <c r="AB20">
-        <f>COUNTIF(R20:T20, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC20">
-        <f>COUNTIF(U20:W20, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD20">
-        <f>COUNTIF(X20:Z20, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE20" t="s">
@@ -5634,15 +5634,15 @@
         <v>89</v>
       </c>
       <c r="AB21">
-        <f>COUNTIF(R21:T21, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC21">
-        <f>COUNTIF(U21:W21, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD21">
-        <f>COUNTIF(X21:Z21, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE21" t="s">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="AA22" s="8"/>
       <c r="AB22">
-        <f>COUNTIF(R22:T22, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC22">
-        <f>COUNTIF(U22:W22, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD22">
-        <f>COUNTIF(X22:Z22, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE22" t="s">
@@ -5804,15 +5804,15 @@
         <v>104</v>
       </c>
       <c r="AB23">
-        <f>COUNTIF(R23:T23, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC23">
-        <f>COUNTIF(U23:W23, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD23">
-        <f>COUNTIF(X23:Z23, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE23" t="s">
@@ -5899,15 +5899,15 @@
         <v>89</v>
       </c>
       <c r="AB24">
-        <f>COUNTIF(R24:T24, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC24">
-        <f>COUNTIF(U24:W24, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD24">
-        <f>COUNTIF(X24:Z24, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE24" t="s">
@@ -5922,10 +5922,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C25" s="17">
         <v>0.2</v>
@@ -5940,19 +5940,19 @@
         <v>54</v>
       </c>
       <c r="M25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>60</v>
@@ -5983,22 +5983,22 @@
       </c>
       <c r="AA25" s="8"/>
       <c r="AB25">
-        <f>COUNTIF(R25:T25, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC25">
-        <f>COUNTIF(U25:W25, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD25">
-        <f>COUNTIF(X25:Z25, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE25" t="s">
         <v>60</v>
       </c>
       <c r="AF25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
@@ -6064,15 +6064,15 @@
       </c>
       <c r="AA26" s="8"/>
       <c r="AB26">
-        <f>COUNTIF(R26:T26, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC26">
-        <f>COUNTIF(U26:W26, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD26">
-        <f>COUNTIF(X26:Z26, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE26" t="s">
@@ -6085,7 +6085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -6150,15 +6150,15 @@
         <v>62</v>
       </c>
       <c r="AB27">
-        <f>COUNTIF(R27:T27, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC27">
-        <f>COUNTIF(U27:W27, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD27">
-        <f>COUNTIF(X27:Z27, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AH27" t="s">
@@ -6167,10 +6167,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>839</v>
+      </c>
+      <c r="B28" t="s">
         <v>840</v>
-      </c>
-      <c r="B28" t="s">
-        <v>841</v>
       </c>
       <c r="C28" s="17">
         <v>0.2</v>
@@ -6185,19 +6185,19 @@
         <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>843</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>60</v>
@@ -6228,30 +6228,30 @@
       </c>
       <c r="AA28" s="8"/>
       <c r="AB28">
-        <f>COUNTIF(R28:T28, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC28">
-        <f>COUNTIF(U28:W28, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD28">
-        <f>COUNTIF(X28:Z28, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE28" t="s">
         <v>60</v>
       </c>
       <c r="AF28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>834</v>
+      </c>
+      <c r="B29" t="s">
         <v>835</v>
-      </c>
-      <c r="B29" t="s">
-        <v>836</v>
       </c>
       <c r="C29" s="17">
         <v>0.2</v>
@@ -6266,19 +6266,19 @@
         <v>54</v>
       </c>
       <c r="M29" t="s">
+        <v>836</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>839</v>
-      </c>
       <c r="P29" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>60</v>
@@ -6309,22 +6309,22 @@
       </c>
       <c r="AA29" s="8"/>
       <c r="AB29">
-        <f>COUNTIF(R29:T29, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC29">
-        <f>COUNTIF(U29:W29, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD29">
-        <f>COUNTIF(X29:Z29, "yes")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE29" t="s">
         <v>60</v>
       </c>
       <c r="AF29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -6389,15 +6389,15 @@
         <v>104</v>
       </c>
       <c r="AB30">
-        <f>COUNTIF(R30:T30, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC30">
-        <f>COUNTIF(U30:W30, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD30">
-        <f>COUNTIF(X30:Z30, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE30" t="s">
@@ -6412,10 +6412,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>818</v>
+      </c>
+      <c r="B31" t="s">
         <v>819</v>
-      </c>
-      <c r="B31" t="s">
-        <v>820</v>
       </c>
       <c r="C31" s="17">
         <v>0.2</v>
@@ -6430,19 +6430,19 @@
         <v>191</v>
       </c>
       <c r="M31" t="s">
+        <v>825</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="Q31" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>60</v>
@@ -6473,15 +6473,15 @@
       </c>
       <c r="AA31" s="8"/>
       <c r="AB31">
-        <f>COUNTIF(R31:T31, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC31">
-        <f>COUNTIF(U31:W31, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD31">
-        <f>COUNTIF(X31:Z31, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE31" t="s">
@@ -6514,7 +6514,7 @@
         <v>199</v>
       </c>
       <c r="M32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N32" t="s">
         <v>73</v>
@@ -6522,6 +6522,9 @@
       <c r="O32" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="P32" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="Q32" s="3" t="s">
         <v>752</v>
       </c>
@@ -6556,15 +6559,15 @@
         <v>78</v>
       </c>
       <c r="AB32">
-        <f>COUNTIF(R32:T32, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC32">
-        <f>COUNTIF(U32:W32, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD32">
-        <f>COUNTIF(X32:Z32, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE32" t="s">
@@ -6594,7 +6597,7 @@
         <v>73</v>
       </c>
       <c r="M33" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>203</v>
@@ -6637,15 +6640,15 @@
         <v>62</v>
       </c>
       <c r="AB33">
-        <f>COUNTIF(R33:T33, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC33">
-        <f>COUNTIF(U33:W33, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD33">
-        <f>COUNTIF(X33:Z33, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH33" t="s">
@@ -6675,7 +6678,7 @@
         <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>207</v>
@@ -6720,15 +6723,15 @@
         <v>78</v>
       </c>
       <c r="AB34">
-        <f>COUNTIF(R34:T34, "yes")</f>
+        <f t="shared" ref="AB34:AB65" si="3">COUNTIF(R34:T34, "yes")</f>
         <v>2</v>
       </c>
       <c r="AC34">
-        <f>COUNTIF(U34:W34, "yes")</f>
+        <f t="shared" ref="AC34:AC65" si="4">COUNTIF(U34:W34, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD34">
-        <f>COUNTIF(X34:Z34, "yes")</f>
+        <f t="shared" ref="AD34:AD65" si="5">COUNTIF(X34:Z34, "yes")</f>
         <v>3</v>
       </c>
       <c r="AE34" t="s">
@@ -6764,7 +6767,7 @@
         <v>191</v>
       </c>
       <c r="M35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>214</v>
@@ -6806,15 +6809,15 @@
         <v>89</v>
       </c>
       <c r="AB35">
-        <f>COUNTIF(R35:T35, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC35">
-        <f>COUNTIF(U35:W35, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD35">
-        <f>COUNTIF(X35:Z35, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE35" t="s">
@@ -6898,15 +6901,15 @@
         <v>98</v>
       </c>
       <c r="AB36">
-        <f>COUNTIF(R36:T36, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC36">
-        <f>COUNTIF(U36:W36, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD36">
-        <f>COUNTIF(X36:Z36, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE36" t="s">
@@ -6987,15 +6990,15 @@
         <v>104</v>
       </c>
       <c r="AB37">
-        <f>COUNTIF(R37:T37, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC37">
-        <f>COUNTIF(U37:W37, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD37">
-        <f>COUNTIF(X37:Z37, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE37" t="s">
@@ -7076,15 +7079,15 @@
         <v>78</v>
       </c>
       <c r="AB38">
-        <f>COUNTIF(R38:T38, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC38">
-        <f>COUNTIF(U38:W38, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD38">
-        <f>COUNTIF(X38:Z38, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE38" t="s">
@@ -7168,15 +7171,15 @@
         <v>78</v>
       </c>
       <c r="AB39">
-        <f>COUNTIF(R39:T39, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC39">
-        <f>COUNTIF(U39:W39, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD39">
-        <f>COUNTIF(X39:Z39, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE39" t="s">
@@ -7257,15 +7260,15 @@
         <v>78</v>
       </c>
       <c r="AB40">
-        <f>COUNTIF(R40:T40, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC40">
-        <f>COUNTIF(U40:W40, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD40">
-        <f>COUNTIF(X40:Z40, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE40" t="s">
@@ -7349,15 +7352,15 @@
         <v>89</v>
       </c>
       <c r="AB41">
-        <f>COUNTIF(R41:T41, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC41">
-        <f>COUNTIF(U41:W41, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD41">
-        <f>COUNTIF(X41:Z41, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE41" t="s">
@@ -7438,15 +7441,15 @@
         <v>98</v>
       </c>
       <c r="AB42">
-        <f>COUNTIF(R42:T42, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC42">
-        <f>COUNTIF(U42:W42, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD42">
-        <f>COUNTIF(X42:Z42, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE42" t="s">
@@ -7510,22 +7513,22 @@
         <v>62</v>
       </c>
       <c r="AB43">
-        <f>COUNTIF(R43:T43, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC43">
-        <f>COUNTIF(U43:W43, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD43">
-        <f>COUNTIF(X43:Z43, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AH43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>265</v>
       </c>
@@ -7585,15 +7588,15 @@
         <v>62</v>
       </c>
       <c r="AB44">
-        <f>COUNTIF(R44:T44, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC44">
-        <f>COUNTIF(U44:W44, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD44">
-        <f>COUNTIF(X44:Z44, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AH44" t="s">
@@ -7668,15 +7671,15 @@
         <v>104</v>
       </c>
       <c r="AB45">
-        <f>COUNTIF(R45:T45, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC45">
-        <f>COUNTIF(U45:W45, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD45">
-        <f>COUNTIF(X45:Z45, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE45" t="s">
@@ -7757,15 +7760,15 @@
         <v>89</v>
       </c>
       <c r="AB46">
-        <f>COUNTIF(R46:T46, "yes")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f>COUNTIF(U46:W46, "yes")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f>COUNTIF(X46:Z46, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE46" t="s">
@@ -7840,15 +7843,15 @@
         <v>89</v>
       </c>
       <c r="AB47">
-        <f>COUNTIF(R47:T47, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC47">
-        <f>COUNTIF(U47:W47, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD47">
-        <f>COUNTIF(X47:Z47, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE47" t="s">
@@ -7932,15 +7935,15 @@
         <v>98</v>
       </c>
       <c r="AB48">
-        <f>COUNTIF(R48:T48, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC48">
-        <f>COUNTIF(U48:W48, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD48">
-        <f>COUNTIF(X48:Z48, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE48" t="s">
@@ -8021,15 +8024,15 @@
         <v>104</v>
       </c>
       <c r="AB49">
-        <f>COUNTIF(R49:T49, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC49">
-        <f>COUNTIF(U49:W49, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD49">
-        <f>COUNTIF(X49:Z49, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE49" t="s">
@@ -8113,15 +8116,15 @@
         <v>78</v>
       </c>
       <c r="AB50">
-        <f>COUNTIF(R50:T50, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC50">
-        <f>COUNTIF(U50:W50, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD50">
-        <f>COUNTIF(X50:Z50, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE50" t="s">
@@ -8199,15 +8202,15 @@
         <v>89</v>
       </c>
       <c r="AB51">
-        <f>COUNTIF(R51:T51, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC51">
-        <f>COUNTIF(U51:W51, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD51">
-        <f>COUNTIF(X51:Z51, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE51" t="s">
@@ -8288,15 +8291,15 @@
         <v>89</v>
       </c>
       <c r="AB52">
-        <f>COUNTIF(R52:T52, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC52">
-        <f>COUNTIF(U52:W52, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD52">
-        <f>COUNTIF(X52:Z52, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE52" t="s">
@@ -8377,15 +8380,15 @@
         <v>98</v>
       </c>
       <c r="AB53">
-        <f>COUNTIF(R53:T53, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC53">
-        <f>COUNTIF(U53:W53, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD53">
-        <f>COUNTIF(X53:Z53, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE53" t="s">
@@ -8463,15 +8466,15 @@
         <v>104</v>
       </c>
       <c r="AB54">
-        <f>COUNTIF(R54:T54, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC54">
-        <f>COUNTIF(U54:W54, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD54">
-        <f>COUNTIF(X54:Z54, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE54" t="s">
@@ -8555,15 +8558,15 @@
         <v>78</v>
       </c>
       <c r="AB55">
-        <f>COUNTIF(R55:T55, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC55">
-        <f>COUNTIF(U55:W55, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD55">
-        <f>COUNTIF(X55:Z55, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE55" t="s">
@@ -8644,15 +8647,15 @@
         <v>89</v>
       </c>
       <c r="AB56">
-        <f>COUNTIF(R56:T56, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC56">
-        <f>COUNTIF(U56:W56, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD56">
-        <f>COUNTIF(X56:Z56, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE56" t="s">
@@ -8733,15 +8736,15 @@
         <v>62</v>
       </c>
       <c r="AB57">
-        <f>COUNTIF(R57:T57, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC57">
-        <f>COUNTIF(U57:W57, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD57">
-        <f>COUNTIF(X57:Z57, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE57" t="s">
@@ -8822,15 +8825,15 @@
         <v>89</v>
       </c>
       <c r="AB58">
-        <f>COUNTIF(R58:T58, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC58">
-        <f>COUNTIF(U58:W58, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD58">
-        <f>COUNTIF(X58:Z58, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE58" t="s">
@@ -8911,15 +8914,15 @@
         <v>78</v>
       </c>
       <c r="AB59">
-        <f>COUNTIF(R59:T59, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC59">
-        <f>COUNTIF(U59:W59, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD59">
-        <f>COUNTIF(X59:Z59, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE59" t="s">
@@ -9003,15 +9006,15 @@
         <v>98</v>
       </c>
       <c r="AB60">
-        <f>COUNTIF(R60:T60, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC60">
-        <f>COUNTIF(U60:W60, "yes")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD60">
-        <f>COUNTIF(X60:Z60, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE60" t="s">
@@ -9092,15 +9095,15 @@
         <v>98</v>
       </c>
       <c r="AB61">
-        <f>COUNTIF(R61:T61, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC61">
-        <f>COUNTIF(U61:W61, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD61">
-        <f>COUNTIF(X61:Z61, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE61" t="s">
@@ -9179,15 +9182,15 @@
       </c>
       <c r="AA62" s="8"/>
       <c r="AB62">
-        <f>COUNTIF(R62:T62, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC62">
-        <f>COUNTIF(U62:W62, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD62">
-        <f>COUNTIF(X62:Z62, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE62" t="s">
@@ -9202,10 +9205,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C63" s="17">
         <v>1.1000000000000001</v>
@@ -9217,16 +9220,16 @@
         <v>7</v>
       </c>
       <c r="K63" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L63" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N63" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="9" t="s">
@@ -9258,15 +9261,15 @@
       </c>
       <c r="AA63" s="8"/>
       <c r="AB63">
-        <f>COUNTIF(R63:T63, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC63">
-        <f>COUNTIF(U63:W63, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD63">
-        <f>COUNTIF(X63:Z63, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE63" t="s">
@@ -9339,15 +9342,15 @@
       </c>
       <c r="AA64" s="8"/>
       <c r="AB64">
-        <f>COUNTIF(R64:T64, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC64">
-        <f>COUNTIF(U64:W64, "yes")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD64">
-        <f>COUNTIF(X64:Z64, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE64" t="s">
@@ -9434,15 +9437,15 @@
         <v>78</v>
       </c>
       <c r="AB65">
-        <f>COUNTIF(R65:T65, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC65">
-        <f>COUNTIF(U65:W65, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD65">
-        <f>COUNTIF(X65:Z65, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE65" t="s">
@@ -9526,15 +9529,15 @@
         <v>89</v>
       </c>
       <c r="AB66">
-        <f>COUNTIF(R66:T66, "yes")</f>
+        <f t="shared" ref="AB66:AB97" si="6">COUNTIF(R66:T66, "yes")</f>
         <v>3</v>
       </c>
       <c r="AC66">
-        <f>COUNTIF(U66:W66, "yes")</f>
+        <f t="shared" ref="AC66:AC97" si="7">COUNTIF(U66:W66, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD66">
-        <f>COUNTIF(X66:Z66, "yes")</f>
+        <f t="shared" ref="AD66:AD97" si="8">COUNTIF(X66:Z66, "yes")</f>
         <v>2</v>
       </c>
       <c r="AE66" t="s">
@@ -9624,15 +9627,15 @@
         <v>98</v>
       </c>
       <c r="AB67">
-        <f>COUNTIF(R67:T67, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC67">
-        <f>COUNTIF(U67:W67, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD67">
-        <f>COUNTIF(X67:Z67, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE67" t="s">
@@ -9710,15 +9713,15 @@
         <v>104</v>
       </c>
       <c r="AB68">
-        <f>COUNTIF(R68:T68, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC68">
-        <f>COUNTIF(U68:W68, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD68">
-        <f>COUNTIF(X68:Z68, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE68" t="s">
@@ -9799,15 +9802,15 @@
         <v>62</v>
       </c>
       <c r="AB69">
-        <f>COUNTIF(R69:T69, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC69">
-        <f>COUNTIF(U69:W69, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD69">
-        <f>COUNTIF(X69:Z69, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE69" t="s">
@@ -9888,15 +9891,15 @@
         <v>104</v>
       </c>
       <c r="AB70">
-        <f>COUNTIF(R70:T70, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC70">
-        <f>COUNTIF(U70:W70, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD70">
-        <f>COUNTIF(X70:Z70, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE70" t="s">
@@ -9977,15 +9980,15 @@
         <v>62</v>
       </c>
       <c r="AB71">
-        <f>COUNTIF(R71:T71, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC71">
-        <f>COUNTIF(U71:W71, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD71">
-        <f>COUNTIF(X71:Z71, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE71" t="s">
@@ -9998,7 +10001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>401</v>
       </c>
@@ -10051,15 +10054,15 @@
         <v>98</v>
       </c>
       <c r="AB72">
-        <f>COUNTIF(R72:T72, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC72">
-        <f>COUNTIF(U72:W72, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD72">
-        <f>COUNTIF(X72:Z72, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE72" t="s">
@@ -10095,24 +10098,24 @@
         <v>816</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>817</v>
+        <v>866</v>
       </c>
       <c r="Q73" s="20"/>
       <c r="Z73" s="18"/>
       <c r="AA73" s="8"/>
       <c r="AB73">
-        <f>COUNTIF(R73:T73, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC73">
-        <f>COUNTIF(U73:W73, "yes")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD73">
-        <f>COUNTIF(X73:Z73, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH73" t="s">
@@ -10187,15 +10190,15 @@
         <v>62</v>
       </c>
       <c r="AB74">
-        <f>COUNTIF(R74:T74, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC74">
-        <f>COUNTIF(U74:W74, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD74">
-        <f>COUNTIF(X74:Z74, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE74" t="s">
@@ -10279,15 +10282,15 @@
         <v>78</v>
       </c>
       <c r="AB75">
-        <f>COUNTIF(R75:T75, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC75">
-        <f>COUNTIF(U75:W75, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD75">
-        <f>COUNTIF(X75:Z75, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE75" t="s">
@@ -10368,15 +10371,15 @@
         <v>98</v>
       </c>
       <c r="AB76">
-        <f>COUNTIF(R76:T76, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC76">
-        <f>COUNTIF(U76:W76, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD76">
-        <f>COUNTIF(X76:Z76, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE76" t="s">
@@ -10457,15 +10460,15 @@
         <v>62</v>
       </c>
       <c r="AB77">
-        <f>COUNTIF(R77:T77, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC77">
-        <f>COUNTIF(U77:W77, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD77">
-        <f>COUNTIF(X77:Z77, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE77" t="s">
@@ -10513,7 +10516,7 @@
         <v>73</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>60</v>
@@ -10546,15 +10549,15 @@
         <v>98</v>
       </c>
       <c r="AB78">
-        <f>COUNTIF(R78:T78, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC78">
-        <f>COUNTIF(U78:W78, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD78">
-        <f>COUNTIF(X78:Z78, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE78" t="s">
@@ -10635,15 +10638,15 @@
         <v>104</v>
       </c>
       <c r="AB79">
-        <f>COUNTIF(R79:T79, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC79">
-        <f>COUNTIF(U79:W79, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD79">
-        <f>COUNTIF(X79:Z79, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE79" t="s">
@@ -10724,15 +10727,15 @@
         <v>78</v>
       </c>
       <c r="AB80">
-        <f>COUNTIF(R80:T80, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC80">
-        <f>COUNTIF(U80:W80, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD80">
-        <f>COUNTIF(X80:Z80, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE80" t="s">
@@ -10814,15 +10817,15 @@
       </c>
       <c r="AA81" s="8"/>
       <c r="AB81">
-        <f>COUNTIF(R81:T81, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC81">
-        <f>COUNTIF(U81:W81, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD81">
-        <f>COUNTIF(X81:Z81, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE81" t="s">
@@ -10904,15 +10907,15 @@
       </c>
       <c r="AA82" s="8"/>
       <c r="AB82">
-        <f>COUNTIF(R82:T82, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC82">
-        <f>COUNTIF(U82:W82, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD82">
-        <f>COUNTIF(X82:Z82, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE82" t="s">
@@ -10987,15 +10990,15 @@
         <v>89</v>
       </c>
       <c r="AB83">
-        <f>COUNTIF(R83:T83, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC83">
-        <f>COUNTIF(U83:W83, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD83">
-        <f>COUNTIF(X83:Z83, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE83" t="s">
@@ -11071,15 +11074,15 @@
       </c>
       <c r="AA84" s="8"/>
       <c r="AB84">
-        <f>COUNTIF(R84:T84, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC84">
-        <f>COUNTIF(U84:W84, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD84">
-        <f>COUNTIF(X84:Z84, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE84" t="s">
@@ -11160,15 +11163,15 @@
         <v>89</v>
       </c>
       <c r="AB85">
-        <f>COUNTIF(R85:T85, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC85">
-        <f>COUNTIF(U85:W85, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD85">
-        <f>COUNTIF(X85:Z85, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE85" t="s">
@@ -11249,15 +11252,15 @@
         <v>98</v>
       </c>
       <c r="AB86">
-        <f>COUNTIF(R86:T86, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC86">
-        <f>COUNTIF(U86:W86, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD86">
-        <f>COUNTIF(X86:Z86, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE86" t="s">
@@ -11341,15 +11344,15 @@
         <v>104</v>
       </c>
       <c r="AB87">
-        <f>COUNTIF(R87:T87, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC87">
-        <f>COUNTIF(U87:W87, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD87">
-        <f>COUNTIF(X87:Z87, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE87" t="s">
@@ -11430,15 +11433,15 @@
         <v>98</v>
       </c>
       <c r="AB88">
-        <f>COUNTIF(R88:T88, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC88">
-        <f>COUNTIF(U88:W88, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD88">
-        <f>COUNTIF(X88:Z88, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE88" t="s">
@@ -11516,15 +11519,15 @@
         <v>78</v>
       </c>
       <c r="AB89">
-        <f>COUNTIF(R89:T89, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC89">
-        <f>COUNTIF(U89:W89, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD89">
-        <f>COUNTIF(X89:Z89, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE89" t="s">
@@ -11605,15 +11608,15 @@
         <v>62</v>
       </c>
       <c r="AB90">
-        <f>COUNTIF(R90:T90, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC90">
-        <f>COUNTIF(U90:W90, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD90">
-        <f>COUNTIF(X90:Z90, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE90" t="s">
@@ -11694,15 +11697,15 @@
         <v>89</v>
       </c>
       <c r="AB91">
-        <f>COUNTIF(R91:T91, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC91">
-        <f>COUNTIF(U91:W91, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD91">
-        <f>COUNTIF(X91:Z91, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE91" t="s">
@@ -11783,15 +11786,15 @@
         <v>62</v>
       </c>
       <c r="AB92">
-        <f>COUNTIF(R92:T92, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC92">
-        <f>COUNTIF(U92:W92, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD92">
-        <f>COUNTIF(X92:Z92, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE92" t="s">
@@ -11872,15 +11875,15 @@
         <v>62</v>
       </c>
       <c r="AB93">
-        <f>COUNTIF(R93:T93, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC93">
-        <f>COUNTIF(U93:W93, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD93">
-        <f>COUNTIF(X93:Z93, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE93" t="s">
@@ -11910,7 +11913,7 @@
         <v>476</v>
       </c>
       <c r="F94" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K94" t="s">
         <v>495</v>
@@ -11959,15 +11962,15 @@
         <v>78</v>
       </c>
       <c r="AB94">
-        <f>COUNTIF(R94:T94, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC94">
-        <f>COUNTIF(U94:W94, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD94">
-        <f>COUNTIF(X94:Z94, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE94" t="s">
@@ -11982,10 +11985,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>851</v>
+      </c>
+      <c r="B95" t="s">
         <v>852</v>
-      </c>
-      <c r="B95" t="s">
-        <v>853</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>318</v>
@@ -12000,19 +12003,19 @@
         <v>191</v>
       </c>
       <c r="M95" t="s">
+        <v>853</v>
+      </c>
+      <c r="N95" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="P95" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q95" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="P95" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>857</v>
       </c>
       <c r="R95" s="9" t="s">
         <v>60</v>
@@ -12043,15 +12046,15 @@
       </c>
       <c r="AA95" s="8"/>
       <c r="AB95">
-        <f>COUNTIF(R95:T95, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC95">
-        <f>COUNTIF(U95:W95, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD95">
-        <f>COUNTIF(X95:Z95, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -12123,15 +12126,15 @@
         <v>104</v>
       </c>
       <c r="AB96">
-        <f>COUNTIF(R96:T96, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC96">
-        <f>COUNTIF(U96:W96, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD96">
-        <f>COUNTIF(X96:Z96, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE96" t="s">
@@ -12212,15 +12215,15 @@
         <v>62</v>
       </c>
       <c r="AB97">
-        <f>COUNTIF(R97:T97, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC97">
-        <f>COUNTIF(U97:W97, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD97">
-        <f>COUNTIF(X97:Z97, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE97" t="s">
@@ -12301,15 +12304,15 @@
         <v>62</v>
       </c>
       <c r="AB98">
-        <f>COUNTIF(R98:T98, "yes")</f>
+        <f t="shared" ref="AB98:AB131" si="9">COUNTIF(R98:T98, "yes")</f>
         <v>2</v>
       </c>
       <c r="AC98">
-        <f>COUNTIF(U98:W98, "yes")</f>
+        <f t="shared" ref="AC98:AC131" si="10">COUNTIF(U98:W98, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD98">
-        <f>COUNTIF(X98:Z98, "yes")</f>
+        <f t="shared" ref="AD98:AD131" si="11">COUNTIF(X98:Z98, "yes")</f>
         <v>3</v>
       </c>
       <c r="AE98" t="s">
@@ -12396,15 +12399,15 @@
         <v>62</v>
       </c>
       <c r="AB99">
-        <f>COUNTIF(R99:T99, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC99">
-        <f>COUNTIF(U99:W99, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD99">
-        <f>COUNTIF(X99:Z99, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE99" t="s">
@@ -12488,15 +12491,15 @@
         <v>62</v>
       </c>
       <c r="AB100">
-        <f>COUNTIF(R100:T100, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC100">
-        <f>COUNTIF(U100:W100, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD100">
-        <f>COUNTIF(X100:Z100, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE100" t="s">
@@ -12580,15 +12583,15 @@
         <v>62</v>
       </c>
       <c r="AB101">
-        <f>COUNTIF(R101:T101, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC101">
-        <f>COUNTIF(U101:W101, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD101">
-        <f>COUNTIF(X101:Z101, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE101" t="s">
@@ -12672,15 +12675,15 @@
         <v>62</v>
       </c>
       <c r="AB102">
-        <f>COUNTIF(R102:T102, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC102">
-        <f>COUNTIF(U102:W102, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD102">
-        <f>COUNTIF(X102:Z102, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE102" t="s">
@@ -12764,15 +12767,15 @@
         <v>62</v>
       </c>
       <c r="AB103">
-        <f>COUNTIF(R103:T103, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC103">
-        <f>COUNTIF(U103:W103, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD103">
-        <f>COUNTIF(X103:Z103, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE103" t="s">
@@ -12856,15 +12859,15 @@
         <v>62</v>
       </c>
       <c r="AB104">
-        <f>COUNTIF(R104:T104, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC104">
-        <f>COUNTIF(U104:W104, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD104">
-        <f>COUNTIF(X104:Z104, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE104" t="s">
@@ -12945,15 +12948,15 @@
         <v>62</v>
       </c>
       <c r="AB105">
-        <f>COUNTIF(R105:T105, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC105">
-        <f>COUNTIF(U105:W105, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD105">
-        <f>COUNTIF(X105:Z105, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE105" t="s">
@@ -13037,15 +13040,15 @@
         <v>62</v>
       </c>
       <c r="AB106">
-        <f>COUNTIF(R106:T106, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC106">
-        <f>COUNTIF(U106:W106, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD106">
-        <f>COUNTIF(X106:Z106, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE106" t="s">
@@ -13126,15 +13129,15 @@
         <v>62</v>
       </c>
       <c r="AB107">
-        <f>COUNTIF(R107:T107, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC107">
-        <f>COUNTIF(U107:W107, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD107">
-        <f>COUNTIF(X107:Z107, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE107" t="s">
@@ -13212,15 +13215,15 @@
         <v>89</v>
       </c>
       <c r="AB108">
-        <f>COUNTIF(R108:T108, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC108">
-        <f>COUNTIF(U108:W108, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD108">
-        <f>COUNTIF(X108:Z108, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE108" t="s">
@@ -13301,15 +13304,15 @@
         <v>62</v>
       </c>
       <c r="AB109">
-        <f>COUNTIF(R109:T109, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC109">
-        <f>COUNTIF(U109:W109, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD109">
-        <f>COUNTIF(X109:Z109, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE109" t="s">
@@ -13393,15 +13396,15 @@
         <v>104</v>
       </c>
       <c r="AB110">
-        <f>COUNTIF(R110:T110, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC110">
-        <f>COUNTIF(U110:W110, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD110">
-        <f>COUNTIF(X110:Z110, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE110" t="s">
@@ -13477,15 +13480,15 @@
         <v>78</v>
       </c>
       <c r="AB111">
-        <f>COUNTIF(R111:T111, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC111">
-        <f>COUNTIF(U111:W111, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD111">
-        <f>COUNTIF(X111:Z111, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE111" t="s">
@@ -13566,15 +13569,15 @@
         <v>89</v>
       </c>
       <c r="AB112">
-        <f>COUNTIF(R112:T112, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC112">
-        <f>COUNTIF(U112:W112, "yes")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD112">
-        <f>COUNTIF(X112:Z112, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE112" t="s">
@@ -13587,7 +13590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>593</v>
       </c>
@@ -13655,15 +13658,15 @@
         <v>62</v>
       </c>
       <c r="AB113">
-        <f>COUNTIF(R113:T113, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC113">
-        <f>COUNTIF(U113:W113, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD113">
-        <f>COUNTIF(X113:Z113, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE113" t="s">
@@ -13744,15 +13747,15 @@
         <v>98</v>
       </c>
       <c r="AB114">
-        <f>COUNTIF(R114:T114, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC114">
-        <f>COUNTIF(U114:W114, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD114">
-        <f>COUNTIF(X114:Z114, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE114" t="s">
@@ -13833,15 +13836,15 @@
         <v>104</v>
       </c>
       <c r="AB115">
-        <f>COUNTIF(R115:T115, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC115">
-        <f>COUNTIF(U115:W115, "yes")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD115">
-        <f>COUNTIF(X115:Z115, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE115" t="s">
@@ -13923,15 +13926,15 @@
       </c>
       <c r="AA116" s="8"/>
       <c r="AB116">
-        <f>COUNTIF(R116:T116, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC116">
-        <f>COUNTIF(U116:W116, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD116">
-        <f>COUNTIF(X116:Z116, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE116" t="s">
@@ -14013,15 +14016,15 @@
       </c>
       <c r="AA117" s="8"/>
       <c r="AB117">
-        <f>COUNTIF(R117:T117, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC117">
-        <f>COUNTIF(U117:W117, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD117">
-        <f>COUNTIF(X117:Z117, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE117" t="s">
@@ -14034,7 +14037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>604</v>
       </c>
@@ -14099,15 +14102,15 @@
         <v>89</v>
       </c>
       <c r="AB118">
-        <f>COUNTIF(R118:T118, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC118">
-        <f>COUNTIF(U118:W118, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD118">
-        <f>COUNTIF(X118:Z118, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE118" t="s">
@@ -14188,15 +14191,15 @@
         <v>89</v>
       </c>
       <c r="AB119">
-        <f>COUNTIF(R119:T119, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC119">
-        <f>COUNTIF(U119:W119, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD119">
-        <f>COUNTIF(X119:Z119, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE119" t="s">
@@ -14277,15 +14280,15 @@
         <v>89</v>
       </c>
       <c r="AB120">
-        <f>COUNTIF(R120:T120, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC120">
-        <f>COUNTIF(U120:W120, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD120">
-        <f>COUNTIF(X120:Z120, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE120" t="s">
@@ -14360,15 +14363,15 @@
         <v>104</v>
       </c>
       <c r="AB121">
-        <f>COUNTIF(R121:T121, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC121">
-        <f>COUNTIF(U121:W121, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD121">
-        <f>COUNTIF(X121:Z121, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE121" t="s">
@@ -14446,15 +14449,15 @@
         <v>78</v>
       </c>
       <c r="AB122">
-        <f>COUNTIF(R122:T122, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC122">
-        <f>COUNTIF(U122:W122, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD122">
-        <f>COUNTIF(X122:Z122, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE122" t="s">
@@ -14532,15 +14535,15 @@
         <v>104</v>
       </c>
       <c r="AB123">
-        <f>COUNTIF(R123:T123, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC123">
-        <f>COUNTIF(U123:W123, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD123">
-        <f>COUNTIF(X123:Z123, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE123" t="s">
@@ -14615,15 +14618,15 @@
         <v>98</v>
       </c>
       <c r="AB124">
-        <f>COUNTIF(R124:T124, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC124">
-        <f>COUNTIF(U124:W124, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD124">
-        <f>COUNTIF(X124:Z124, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE124" t="s">
@@ -14693,15 +14696,15 @@
       </c>
       <c r="AA125" s="8"/>
       <c r="AB125">
-        <f>COUNTIF(R125:T125, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC125">
-        <f>COUNTIF(U125:W125, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD125">
-        <f>COUNTIF(X125:Z125, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -14767,15 +14770,15 @@
         <v>98</v>
       </c>
       <c r="AB126">
-        <f>COUNTIF(R126:T126, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC126">
-        <f>COUNTIF(U126:W126, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD126">
-        <f>COUNTIF(X126:Z126, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE126" t="s">
@@ -14853,15 +14856,15 @@
         <v>104</v>
       </c>
       <c r="AB127">
-        <f>COUNTIF(R127:T127, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC127">
-        <f>COUNTIF(U127:W127, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD127">
-        <f>COUNTIF(X127:Z127, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE127" t="s">
@@ -14937,15 +14940,15 @@
       </c>
       <c r="AA128" s="8"/>
       <c r="AB128">
-        <f>COUNTIF(R128:T128, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC128">
-        <f>COUNTIF(U128:W128, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD128">
-        <f>COUNTIF(X128:Z128, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE128" t="s">
@@ -15021,15 +15024,15 @@
         <v>98</v>
       </c>
       <c r="AB129">
-        <f>COUNTIF(R129:T129, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC129">
-        <f>COUNTIF(U129:W129, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD129">
-        <f>COUNTIF(X129:Z129, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE129" t="s">
@@ -15110,15 +15113,15 @@
         <v>62</v>
       </c>
       <c r="AB130">
-        <f>COUNTIF(R130:T130, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC130">
-        <f>COUNTIF(U130:W130, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD130">
-        <f>COUNTIF(X130:Z130, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE130" t="s">
@@ -15200,15 +15203,15 @@
         <v>104</v>
       </c>
       <c r="AB131">
-        <f>COUNTIF(R131:T131, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC131">
-        <f>COUNTIF(U131:W131, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD131">
-        <f>COUNTIF(X131:Z131, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE131" t="s">
@@ -15430,7 +15433,7 @@
     <hyperlink ref="N22" r:id="rId204" xr:uid="{255E7D4D-6124-4B25-BBDC-95ECD936A489}"/>
     <hyperlink ref="O26" r:id="rId205" xr:uid="{B14227AF-54CC-4C9C-B4D0-136F1D70BCA7}"/>
     <hyperlink ref="O125" r:id="rId206" xr:uid="{1434D078-B9AA-47C8-82EB-C4A9A03293DC}"/>
-    <hyperlink ref="O73" r:id="rId207" xr:uid="{8F6CA822-1BD4-4EE0-B1E1-9F4149E95A51}"/>
+    <hyperlink ref="O73" r:id="rId207" display="https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3" xr:uid="{8F6CA822-1BD4-4EE0-B1E1-9F4149E95A51}"/>
     <hyperlink ref="N73" r:id="rId208" xr:uid="{6C55BAE3-AC52-4A54-ADFB-4C03AECDF46E}"/>
     <hyperlink ref="O31" r:id="rId209" xr:uid="{C4B9ED1E-BBE3-49BD-842E-4772F661899A}"/>
     <hyperlink ref="N31" r:id="rId210" xr:uid="{8E2664D8-B1A3-4730-A93D-55B9FD57EEDA}"/>
@@ -15470,8 +15473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6A62F-F708-4237-968B-A43D72E1AFD7}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15481,12 +15484,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -15526,7 +15529,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -15566,7 +15569,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -15591,7 +15594,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -15616,12 +15619,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -15638,6 +15641,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -15841,26 +15863,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15878,24 +15899,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F3087-5A20-47E5-A7F1-8FE4AD36ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89436C22-B47A-4B70-B3FE-DD0238A45388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20055" yWindow="1380" windowWidth="15690" windowHeight="13305" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="19740" yWindow="705" windowWidth="15690" windowHeight="13305" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
     <sheet name="Domains" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Domains!$A$1:$A$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Domains!$A$1:$A$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="867">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -3002,9 +3002,6 @@
     <t>Acoustics</t>
   </si>
   <si>
-    <t>Fabrication</t>
-  </si>
-  <si>
     <t>Mobility</t>
   </si>
   <si>
@@ -3021,6 +3018,9 @@
   </si>
   <si>
     <t>https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3; https://presbariery.cz/en/help</t>
+  </si>
+  <si>
+    <t>Life Cycle Analysis</t>
   </si>
 </sst>
 </file>
@@ -3723,10 +3723,10 @@
   <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,6 +5755,9 @@
       <c r="F23" t="s">
         <v>15</v>
       </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" t="s">
         <v>73</v>
       </c>
@@ -7709,6 +7712,9 @@
         <v>176</v>
       </c>
       <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="K46" t="s">
@@ -7973,6 +7979,9 @@
         <v>176</v>
       </c>
       <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="K49" t="s">
@@ -10101,7 +10110,7 @@
         <v>817</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q73" s="20"/>
       <c r="Z73" s="18"/>
@@ -10516,7 +10525,7 @@
         <v>73</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>60</v>
@@ -11913,7 +11922,7 @@
         <v>476</v>
       </c>
       <c r="F94" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K94" t="s">
         <v>495</v>
@@ -15459,7 +15468,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CCDC8F2-63C6-4CC6-9EE9-8F1647842C6C}">
           <x14:formula1>
-            <xm:f>Domains!$A$2:$A$29</xm:f>
+            <xm:f>Domains!$A$2:$A$28</xm:f>
           </x14:formula1>
           <xm:sqref>F2:G131</xm:sqref>
         </x14:dataValidation>
@@ -15471,10 +15480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6A62F-F708-4237-968B-A43D72E1AFD7}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15529,22 +15538,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>860</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -15553,8 +15562,8 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>412</v>
+      <c r="A15" s="6" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -15563,74 +15572,69 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
+      <c r="A17" s="6" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>861</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>557</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
+      <c r="A26" s="6" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
+      <c r="A27" s="6" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>865</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A26" xr:uid="{F0871C5B-CD79-4468-81A6-B119B629A3EF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
-      <sortCondition ref="A1:A25"/>
+  <autoFilter ref="A1:A28" xr:uid="{F0871C5B-CD79-4468-81A6-B119B629A3EF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
+      <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89436C22-B47A-4B70-B3FE-DD0238A45388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8340A-74A0-4796-BE16-5DAC050EF755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="705" windowWidth="15690" windowHeight="13305" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="875">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -1973,15 +1973,9 @@
     <t>saref, iot</t>
   </si>
   <si>
-    <t>Smart Applications Reference - Building devices</t>
-  </si>
-  <si>
     <t>s4bldg</t>
   </si>
   <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISO 16739 </t>
   </si>
   <si>
@@ -1997,9 +1991,6 @@
     <t>Smart Applications Reference</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4city</t>
-  </si>
-  <si>
     <t>s4city</t>
   </si>
   <si>
@@ -2012,24 +2003,15 @@
     <t>https://saref.etsi.org/s4city/</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4ener</t>
-  </si>
-  <si>
     <t>s4ener</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
     <t>Extension of SAREF to enable the interconnection of (different) data models.</t>
   </si>
   <si>
     <t>https://saref.etsi.org/s4ener/</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4envi</t>
-  </si>
-  <si>
     <t>s4envi</t>
   </si>
   <si>
@@ -2042,24 +2024,15 @@
     <t>https://saref.etsi.org/s4envi/</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4grid</t>
-  </si>
-  <si>
     <t>s4grid</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
     <t>Estension of SAREF for the Smart Grid</t>
   </si>
   <si>
     <t>https://saref.etsi.org/s4grid/</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4lift</t>
-  </si>
-  <si>
     <t>s4lift</t>
   </si>
   <si>
@@ -2072,9 +2045,6 @@
     <t>saref, s4bldg, s4syst</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4syst</t>
-  </si>
-  <si>
     <t>s4syst</t>
   </si>
   <si>
@@ -2084,15 +2054,9 @@
     <t>https://saref.etsi.org/s4syst/</t>
   </si>
   <si>
-    <t>Smart Applications Reference - s4water</t>
-  </si>
-  <si>
     <t>s4water</t>
   </si>
   <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -2102,9 +2066,6 @@
     <t>https://saref.etsi.org/saref4watr/</t>
   </si>
   <si>
-    <t>saref, s4city, s4syst, s4water</t>
-  </si>
-  <si>
     <t>COGITO Safety ontology</t>
   </si>
   <si>
@@ -2144,9 +2105,6 @@
     <t>Smart Applications Reference - Core</t>
   </si>
   <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
     <t>SAREF specifies the recurring core concepts in the Smart Applications domain, the main relationships between these concepts, and axioms to constrain the usage of these concepts and relationships.</t>
   </si>
   <si>
@@ -2729,9 +2687,6 @@
     <t>dc, dct, dcat</t>
   </si>
   <si>
-    <t>dc, dctersm, dct, geosparql</t>
-  </si>
-  <si>
     <t>dc, dct, sf</t>
   </si>
   <si>
@@ -2825,27 +2780,15 @@
     <t xml:space="preserve">qudt, foaf, dct, voaf, schema, vann, </t>
   </si>
   <si>
-    <t>dct, vann, prov</t>
-  </si>
-  <si>
     <t>dct, vann, time, foaf, skos</t>
   </si>
   <si>
-    <t>dct, vann, time, prov, cpsv, geosparql, wgs84_pos</t>
-  </si>
-  <si>
     <t>dct, vann, time, foaf</t>
   </si>
   <si>
-    <t>dct, vann, time, wgs84_pos</t>
-  </si>
-  <si>
     <t>dct, vann, onem2m, schema</t>
   </si>
   <si>
-    <t>dct, vann, skos, schema</t>
-  </si>
-  <si>
     <t>dct, vann, voaf, skos, schema</t>
   </si>
   <si>
@@ -3021,6 +2964,87 @@
   </si>
   <si>
     <t>Life Cycle Analysis</t>
+  </si>
+  <si>
+    <t>gbmto</t>
+  </si>
+  <si>
+    <t>Green Building Material Name Ontology</t>
+  </si>
+  <si>
+    <t>gbmno</t>
+  </si>
+  <si>
+    <t>Green Building Material Type Ontology</t>
+  </si>
+  <si>
+    <t>material type ontology of interior materials</t>
+  </si>
+  <si>
+    <t>material name ontology of interior materials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.autcon.2019.01.015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.autcon.2016.05.003</t>
+  </si>
+  <si>
+    <t>Defect Ontology</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>An ontology to describe defects</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Buildings</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Energy Flexibility</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Smart City</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Water</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Smart Lifts</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Smart Grid</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Environment</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Smart Applications Reference - Typology of systems and their inter-connections</t>
+  </si>
+  <si>
+    <t>dct, vann, time, geosparql</t>
+  </si>
+  <si>
+    <t>dct, vann, prov, geosparql</t>
+  </si>
+  <si>
+    <t>dc, dct, geosparql</t>
+  </si>
+  <si>
+    <t>dct, vann, time, prov, cpsv, geosparql</t>
+  </si>
+  <si>
+    <t>saref, s4city, s4syst, sf</t>
+  </si>
+  <si>
+    <t>dct, vann, skos, schema, geosparql</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3180,6 +3204,10 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3284,8 +3312,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH131" totalsRowShown="0">
-  <autoFilter ref="A1:AH131" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH134" totalsRowShown="0">
+  <autoFilter ref="A1:AH134" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH131">
     <sortCondition ref="B1:B131"/>
   </sortState>
@@ -3720,13 +3748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AH131"/>
+  <dimension ref="A1:AH134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -3837,7 +3865,7 @@
         <v>43</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="AA1" t="s">
         <v>44</v>
@@ -3861,15 +3889,15 @@
         <v>49</v>
       </c>
       <c r="AH1" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>73</v>
@@ -3884,19 +3912,19 @@
         <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>60</v>
@@ -4063,16 +4091,16 @@
         <v>68</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>60</v>
@@ -4164,7 +4192,7 @@
         <v>73</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>60</v>
@@ -4253,7 +4281,7 @@
         <v>73</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>60</v>
@@ -4437,7 +4465,7 @@
         <v>73</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>60</v>
@@ -4529,7 +4557,7 @@
         <v>73</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>60</v>
@@ -4618,10 +4646,10 @@
         <v>110</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>60</v>
@@ -4677,10 +4705,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="D11">
         <v>2023</v>
@@ -4688,20 +4716,23 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
       <c r="M11" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>60</v>
@@ -4766,6 +4797,9 @@
       <c r="F12" t="s">
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
       <c r="M12" t="s">
         <v>113</v>
       </c>
@@ -4849,6 +4883,9 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
       <c r="M13" t="s">
         <v>119</v>
       </c>
@@ -4954,7 +4991,7 @@
         <v>73</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>60</v>
@@ -5049,7 +5086,7 @@
         <v>73</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>60</v>
@@ -5141,7 +5178,7 @@
         <v>73</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>60</v>
@@ -5414,7 +5451,7 @@
         <v>73</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>60</v>
@@ -5657,10 +5694,10 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B22" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>123</v>
@@ -5675,16 +5712,16 @@
         <v>191</v>
       </c>
       <c r="M22" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>60</v>
@@ -5925,10 +5962,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="B25" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="C25" s="17">
         <v>0.2</v>
@@ -5937,25 +5974,25 @@
         <v>2024</v>
       </c>
       <c r="F25" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="K25" t="s">
         <v>54</v>
       </c>
       <c r="M25" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>60</v>
@@ -6001,15 +6038,15 @@
         <v>60</v>
       </c>
       <c r="AF25" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B26" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>73</v>
@@ -6024,19 +6061,19 @@
         <v>73</v>
       </c>
       <c r="M26" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="N26" t="s">
         <v>73</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>60</v>
@@ -6120,7 +6157,7 @@
         <v>188</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>60</v>
@@ -6164,16 +6201,22 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="AE27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>73</v>
+      </c>
       <c r="AH27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="B28" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="C28" s="17">
         <v>0.2</v>
@@ -6188,19 +6231,19 @@
         <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="R28" s="9" t="s">
         <v>60</v>
@@ -6246,15 +6289,15 @@
         <v>60</v>
       </c>
       <c r="AF28" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="B29" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="C29" s="17">
         <v>0.2</v>
@@ -6269,19 +6312,19 @@
         <v>54</v>
       </c>
       <c r="M29" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>60</v>
@@ -6327,7 +6370,7 @@
         <v>60</v>
       </c>
       <c r="AF29" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -6415,10 +6458,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="B31" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="C31" s="17">
         <v>0.2</v>
@@ -6433,19 +6476,19 @@
         <v>191</v>
       </c>
       <c r="M31" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>60</v>
@@ -6517,7 +6560,7 @@
         <v>199</v>
       </c>
       <c r="M32" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="N32" t="s">
         <v>73</v>
@@ -6529,7 +6572,7 @@
         <v>73</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>60</v>
@@ -6600,7 +6643,7 @@
         <v>73</v>
       </c>
       <c r="M33" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>203</v>
@@ -6610,7 +6653,7 @@
         <v>73</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>60</v>
@@ -6653,6 +6696,12 @@
       <c r="AD33">
         <f t="shared" si="2"/>
         <v>2</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>211</v>
       </c>
       <c r="AH33" t="s">
         <v>61</v>
@@ -6681,7 +6730,7 @@
         <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>207</v>
@@ -6770,7 +6819,7 @@
         <v>191</v>
       </c>
       <c r="M35" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>214</v>
@@ -6960,7 +7009,7 @@
         <v>230</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>60</v>
@@ -7049,7 +7098,7 @@
         <v>236</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>60</v>
@@ -7141,7 +7190,7 @@
         <v>236</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>60</v>
@@ -7230,7 +7279,7 @@
         <v>249</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>60</v>
@@ -7322,7 +7371,7 @@
         <v>255</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>60</v>
@@ -7483,7 +7532,7 @@
         <v>73</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>60</v>
@@ -7526,6 +7575,12 @@
       <c r="AD43">
         <f t="shared" si="5"/>
         <v>2</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>211</v>
       </c>
       <c r="AH43" t="s">
         <v>61</v>
@@ -7545,7 +7600,7 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="K44" t="s">
         <v>191</v>
@@ -7558,7 +7613,7 @@
         <v>73</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>60</v>
@@ -7601,6 +7656,12 @@
       <c r="AD44">
         <f t="shared" si="5"/>
         <v>3</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>211</v>
       </c>
       <c r="AH44" t="s">
         <v>61</v>
@@ -7816,7 +7877,7 @@
         <v>280</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>60</v>
@@ -7908,7 +7969,7 @@
         <v>286</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>60</v>
@@ -8000,7 +8061,7 @@
         <v>291</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>60</v>
@@ -8092,7 +8153,7 @@
         <v>297</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>60</v>
@@ -8267,7 +8328,7 @@
         <v>309</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>60</v>
@@ -8442,7 +8503,7 @@
         <v>73</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="R54" s="9" t="s">
         <v>60</v>
@@ -8534,7 +8595,7 @@
         <v>329</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="R55" s="9" t="s">
         <v>60</v>
@@ -8623,7 +8684,7 @@
         <v>73</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="R56" s="9" t="s">
         <v>60</v>
@@ -8712,7 +8773,7 @@
         <v>342</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="R57" s="9" t="s">
         <v>60</v>
@@ -8801,7 +8862,7 @@
         <v>73</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="R58" s="9" t="s">
         <v>60</v>
@@ -8890,7 +8951,7 @@
         <v>133</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>60</v>
@@ -8944,12 +9005,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>73</v>
@@ -8970,19 +9031,19 @@
         <v>54</v>
       </c>
       <c r="M60" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="R60" s="9" t="s">
         <v>60</v>
@@ -9071,7 +9132,7 @@
         <v>361</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="R61" s="9" t="s">
         <v>60</v>
@@ -9127,10 +9188,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B62" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>107</v>
@@ -9148,19 +9209,19 @@
         <v>54</v>
       </c>
       <c r="M62" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>133</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="R62" s="9" t="s">
         <v>60</v>
@@ -9214,10 +9275,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="B63" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="C63" s="17">
         <v>1.1000000000000001</v>
@@ -9229,16 +9290,16 @@
         <v>7</v>
       </c>
       <c r="K63" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="L63" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="N63" s="22" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="9" t="s">
@@ -9288,12 +9349,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="B64" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>73</v>
@@ -9308,19 +9369,19 @@
         <v>73</v>
       </c>
       <c r="M64" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="N64" s="16" t="s">
         <v>73</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="R64" s="9" t="s">
         <v>60</v>
@@ -9401,7 +9462,7 @@
         <v>365</v>
       </c>
       <c r="M65" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>366</v>
@@ -9413,7 +9474,7 @@
         <v>368</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>60</v>
@@ -9502,10 +9563,10 @@
         <v>373</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>60</v>
@@ -9564,7 +9625,7 @@
         <v>374</v>
       </c>
       <c r="B67" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>73</v>
@@ -9657,7 +9718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -9689,7 +9750,7 @@
         <v>73</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>60</v>
@@ -9778,7 +9839,7 @@
         <v>73</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>60</v>
@@ -9867,7 +9928,7 @@
         <v>394</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>60</v>
@@ -9956,7 +10017,7 @@
         <v>400</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="R71" s="9" t="s">
         <v>60</v>
@@ -10023,6 +10084,9 @@
       <c r="F72" t="s">
         <v>5</v>
       </c>
+      <c r="K72" t="s">
+        <v>73</v>
+      </c>
       <c r="N72" s="1" t="s">
         <v>403</v>
       </c>
@@ -10030,7 +10094,7 @@
         <v>404</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="R72" s="9" t="s">
         <v>60</v>
@@ -10086,10 +10150,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B73" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="C73" s="17">
         <v>2</v>
@@ -10101,16 +10165,16 @@
         <v>12</v>
       </c>
       <c r="K73" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="M73" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="Q73" s="20"/>
       <c r="Z73" s="18"/>
@@ -10127,6 +10191,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="AF73" t="s">
+        <v>73</v>
+      </c>
       <c r="AH73" t="s">
         <v>61</v>
       </c>
@@ -10166,7 +10233,7 @@
         <v>409</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>60</v>
@@ -10258,7 +10325,7 @@
         <v>73</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>60</v>
@@ -10347,7 +10414,7 @@
         <v>73</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="R76" s="9" t="s">
         <v>60</v>
@@ -10525,7 +10592,7 @@
         <v>73</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>60</v>
@@ -10579,7 +10646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>429</v>
       </c>
@@ -10611,10 +10678,10 @@
         <v>432</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>60</v>
@@ -10759,10 +10826,10 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="B81" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>73</v>
@@ -10780,22 +10847,22 @@
         <v>73</v>
       </c>
       <c r="L81" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="M81" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="R81" s="9" t="s">
         <v>60</v>
@@ -10841,7 +10908,7 @@
         <v>60</v>
       </c>
       <c r="AF81" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="AH81" t="s">
         <v>61</v>
@@ -10849,10 +10916,10 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="B82" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>73</v>
@@ -10870,22 +10937,22 @@
         <v>73</v>
       </c>
       <c r="L82" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="M82" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>60</v>
@@ -10931,13 +10998,13 @@
         <v>60</v>
       </c>
       <c r="AF82" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="AH82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>439</v>
       </c>
@@ -10966,7 +11033,7 @@
         <v>133</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>60</v>
@@ -11022,10 +11089,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="B84" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C84" s="17">
         <v>1</v>
@@ -11040,19 +11107,19 @@
         <v>67</v>
       </c>
       <c r="M84" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="R84" s="9" t="s">
         <v>60</v>
@@ -11139,7 +11206,7 @@
         <v>73</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="R85" s="9" t="s">
         <v>60</v>
@@ -11228,7 +11295,7 @@
         <v>453</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="R86" s="9" t="s">
         <v>60</v>
@@ -11584,7 +11651,7 @@
         <v>474</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="R90" s="9" t="s">
         <v>60</v>
@@ -11762,7 +11829,7 @@
         <v>486</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="R92" s="9" t="s">
         <v>60</v>
@@ -11851,7 +11918,7 @@
         <v>492</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="R93" s="9" t="s">
         <v>60</v>
@@ -11922,7 +11989,7 @@
         <v>476</v>
       </c>
       <c r="F94" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="K94" t="s">
         <v>495</v>
@@ -11994,10 +12061,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="B95" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>318</v>
@@ -12012,19 +12079,19 @@
         <v>191</v>
       </c>
       <c r="M95" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="R95" s="9" t="s">
         <v>60</v>
@@ -12276,11 +12343,11 @@
       <c r="O98" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="P98" s="3" t="s">
+      <c r="P98" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="Q98" s="3" t="s">
-        <v>769</v>
+      <c r="Q98" s="26" t="s">
+        <v>871</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>60</v>
@@ -12336,16 +12403,16 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>860</v>
+      </c>
+      <c r="B99" t="s">
         <v>517</v>
       </c>
-      <c r="B99" t="s">
-        <v>518</v>
-      </c>
       <c r="C99" s="17" t="s">
-        <v>519</v>
+        <v>859</v>
       </c>
       <c r="D99">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="E99" t="s">
         <v>129</v>
@@ -12360,22 +12427,22 @@
         <v>151</v>
       </c>
       <c r="L99" t="s">
+        <v>518</v>
+      </c>
+      <c r="M99" t="s">
+        <v>519</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="M99" t="s">
+      <c r="O99" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="P99" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="N99" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="P99" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q99" s="3" t="s">
-        <v>801</v>
+      <c r="Q99" s="26" t="s">
+        <v>870</v>
       </c>
       <c r="R99" s="9" t="s">
         <v>60</v>
@@ -12423,7 +12490,7 @@
         <v>60</v>
       </c>
       <c r="AF99" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH99" t="s">
         <v>61</v>
@@ -12431,16 +12498,16 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>525</v>
+        <v>862</v>
       </c>
       <c r="B100" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>527</v>
+        <v>859</v>
       </c>
       <c r="D100">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="E100" t="s">
         <v>129</v>
@@ -12455,19 +12522,19 @@
         <v>151</v>
       </c>
       <c r="M100" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>803</v>
+        <v>526</v>
+      </c>
+      <c r="P100" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q100" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="R100" s="9" t="s">
         <v>60</v>
@@ -12515,7 +12582,7 @@
         <v>60</v>
       </c>
       <c r="AF100" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH100" t="s">
         <v>61</v>
@@ -12523,16 +12590,16 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>530</v>
+        <v>861</v>
       </c>
       <c r="B101" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>532</v>
+        <v>859</v>
       </c>
       <c r="D101">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E101" t="s">
         <v>129</v>
@@ -12547,19 +12614,19 @@
         <v>151</v>
       </c>
       <c r="M101" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>804</v>
+        <v>529</v>
+      </c>
+      <c r="P101" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q101" s="26" t="s">
+        <v>787</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>60</v>
@@ -12607,7 +12674,7 @@
         <v>60</v>
       </c>
       <c r="AF101" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH101" t="s">
         <v>61</v>
@@ -12615,16 +12682,16 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>535</v>
+        <v>866</v>
       </c>
       <c r="B102" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>527</v>
+        <v>859</v>
       </c>
       <c r="D102">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E102" t="s">
         <v>129</v>
@@ -12633,25 +12700,25 @@
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K102" t="s">
         <v>151</v>
       </c>
       <c r="M102" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>805</v>
+        <v>533</v>
+      </c>
+      <c r="P102" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q102" s="26" t="s">
+        <v>869</v>
       </c>
       <c r="R102" s="9" t="s">
         <v>60</v>
@@ -12699,7 +12766,7 @@
         <v>60</v>
       </c>
       <c r="AF102" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH102" t="s">
         <v>61</v>
@@ -12707,16 +12774,16 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>540</v>
+        <v>865</v>
       </c>
       <c r="B103" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>542</v>
+        <v>859</v>
       </c>
       <c r="D103">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E103" t="s">
         <v>129</v>
@@ -12731,19 +12798,19 @@
         <v>151</v>
       </c>
       <c r="M103" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>806</v>
+        <v>536</v>
+      </c>
+      <c r="P103" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q103" s="26" t="s">
+        <v>788</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>60</v>
@@ -12791,7 +12858,7 @@
         <v>60</v>
       </c>
       <c r="AF103" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH103" t="s">
         <v>61</v>
@@ -12799,16 +12866,16 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>545</v>
+        <v>864</v>
       </c>
       <c r="B104" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>542</v>
+        <v>859</v>
       </c>
       <c r="D104">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E104" t="s">
         <v>129</v>
@@ -12823,19 +12890,19 @@
         <v>151</v>
       </c>
       <c r="M104" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q104" s="3" t="s">
-        <v>807</v>
+        <v>539</v>
+      </c>
+      <c r="P104" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q104" s="26" t="s">
+        <v>874</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>60</v>
@@ -12883,7 +12950,7 @@
         <v>60</v>
       </c>
       <c r="AF104" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH104" t="s">
         <v>61</v>
@@ -12891,13 +12958,13 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>550</v>
+        <v>868</v>
       </c>
       <c r="B105" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D105">
         <v>2020</v>
@@ -12912,19 +12979,19 @@
         <v>151</v>
       </c>
       <c r="M105" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q105" s="3" t="s">
-        <v>808</v>
+        <v>543</v>
+      </c>
+      <c r="P105" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q105" s="26" t="s">
+        <v>789</v>
       </c>
       <c r="R105" s="9" t="s">
         <v>60</v>
@@ -12972,7 +13039,7 @@
         <v>60</v>
       </c>
       <c r="AF105" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH105" t="s">
         <v>61</v>
@@ -12980,16 +13047,16 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>554</v>
+        <v>863</v>
       </c>
       <c r="B106" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>556</v>
+        <v>859</v>
       </c>
       <c r="D106">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="E106" t="s">
         <v>129</v>
@@ -12998,25 +13065,25 @@
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K106" t="s">
         <v>151</v>
       </c>
       <c r="M106" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q106" s="3" t="s">
-        <v>809</v>
+        <v>547</v>
+      </c>
+      <c r="P106" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q106" s="26" t="s">
+        <v>790</v>
       </c>
       <c r="R106" s="9" t="s">
         <v>60</v>
@@ -13064,7 +13131,7 @@
         <v>60</v>
       </c>
       <c r="AF106" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH106" t="s">
         <v>61</v>
@@ -13072,13 +13139,13 @@
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B107" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="D107">
         <v>2022</v>
@@ -13093,19 +13160,19 @@
         <v>54</v>
       </c>
       <c r="M107" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="R107" s="9" t="s">
         <v>60</v>
@@ -13161,10 +13228,10 @@
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B108" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C108" s="17" t="s">
         <v>73</v>
@@ -13179,19 +13246,19 @@
         <v>332</v>
       </c>
       <c r="M108" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="R108" s="9" t="s">
         <v>60</v>
@@ -13247,16 +13314,16 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B109" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>574</v>
+        <v>867</v>
       </c>
       <c r="D109">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E109" t="s">
         <v>129</v>
@@ -13268,19 +13335,19 @@
         <v>151</v>
       </c>
       <c r="M109" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="R109" s="9" t="s">
         <v>60</v>
@@ -13328,7 +13395,7 @@
         <v>60</v>
       </c>
       <c r="AF109" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AH109" t="s">
         <v>61</v>
@@ -13336,10 +13403,10 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B110" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="C110" s="17">
         <v>0.6</v>
@@ -13348,7 +13415,7 @@
         <v>2020</v>
       </c>
       <c r="E110" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -13357,22 +13424,22 @@
         <v>6</v>
       </c>
       <c r="K110" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="M110" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="R110" s="9" t="s">
         <v>60</v>
@@ -13428,10 +13495,10 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B111" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>73</v>
@@ -13452,19 +13519,19 @@
         <v>73</v>
       </c>
       <c r="M111" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="N111" t="s">
         <v>73</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>60</v>
@@ -13512,10 +13579,10 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B112" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>73</v>
@@ -13533,13 +13600,13 @@
         <v>73</v>
       </c>
       <c r="M112" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="N112" t="s">
         <v>73</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>73</v>
@@ -13601,10 +13668,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>387</v>
@@ -13622,10 +13689,10 @@
         <v>54</v>
       </c>
       <c r="M113" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>57</v>
@@ -13634,7 +13701,7 @@
         <v>422</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="R113" s="9" t="s">
         <v>60</v>
@@ -13690,7 +13757,7 @@
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B114" t="s">
         <v>146</v>
@@ -13714,16 +13781,16 @@
         <v>199</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="R114" s="9" t="s">
         <v>60</v>
@@ -13779,10 +13846,10 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B115" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>73</v>
@@ -13806,10 +13873,10 @@
         <v>73</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="Q115" s="21" t="s">
         <v>73</v>
@@ -13868,10 +13935,10 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="B116" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>73</v>
@@ -13889,22 +13956,22 @@
         <v>73</v>
       </c>
       <c r="L116" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="M116" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>329</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="R116" s="9" t="s">
         <v>60</v>
@@ -13950,7 +14017,7 @@
         <v>60</v>
       </c>
       <c r="AF116" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="AH116" t="s">
         <v>61</v>
@@ -13958,10 +14025,10 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="B117" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>73</v>
@@ -13979,22 +14046,22 @@
         <v>73</v>
       </c>
       <c r="L117" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="M117" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>329</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="R117" s="9" t="s">
         <v>60</v>
@@ -14040,7 +14107,7 @@
         <v>60</v>
       </c>
       <c r="AF117" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="AH117" t="s">
         <v>61</v>
@@ -14048,7 +14115,7 @@
     </row>
     <row r="118" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B118" t="s">
         <v>329</v>
@@ -14069,16 +14136,16 @@
         <v>73</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="R118" s="9" t="s">
         <v>60</v>
@@ -14134,10 +14201,10 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B119" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>73</v>
@@ -14155,19 +14222,19 @@
         <v>73</v>
       </c>
       <c r="M119" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>329</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="R119" s="9" t="s">
         <v>60</v>
@@ -14223,10 +14290,10 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>73</v>
@@ -14235,25 +14302,25 @@
         <v>2019</v>
       </c>
       <c r="E120" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="K120" t="s">
         <v>73</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="Q120" s="3" t="s">
         <v>73</v>
@@ -14312,10 +14379,10 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="C121" s="17">
         <v>1.01</v>
@@ -14326,20 +14393,23 @@
       <c r="F121" t="s">
         <v>3</v>
       </c>
+      <c r="K121" t="s">
+        <v>73</v>
+      </c>
       <c r="M121" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="R121" s="9" t="s">
         <v>60</v>
@@ -14395,10 +14465,10 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="C122" s="17">
         <v>1.1200000000000001</v>
@@ -14413,16 +14483,16 @@
         <v>73</v>
       </c>
       <c r="M122" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="N122" t="s">
         <v>73</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="Q122" s="3" t="s">
         <v>73</v>
@@ -14484,10 +14554,10 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="C123" s="17">
         <v>1.03</v>
@@ -14498,20 +14568,23 @@
       <c r="F123" t="s">
         <v>4</v>
       </c>
+      <c r="K123" t="s">
+        <v>73</v>
+      </c>
       <c r="M123" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="R123" s="9" t="s">
         <v>60</v>
@@ -14567,10 +14640,10 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="C124" s="17">
         <v>1.1399999999999999</v>
@@ -14581,20 +14654,23 @@
       <c r="F124" t="s">
         <v>4</v>
       </c>
+      <c r="K124" t="s">
+        <v>73</v>
+      </c>
       <c r="M124" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="R124" s="9" t="s">
         <v>60</v>
@@ -14650,10 +14726,10 @@
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C125" s="17">
         <v>1.1200000000000001</v>
@@ -14668,10 +14744,10 @@
         <v>73</v>
       </c>
       <c r="M125" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>73</v>
@@ -14716,13 +14792,22 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
+      <c r="AE125" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF125" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH125" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="C126" s="17">
         <v>1.03</v>
@@ -14733,20 +14818,23 @@
       <c r="F126" t="s">
         <v>18</v>
       </c>
+      <c r="K126" t="s">
+        <v>73</v>
+      </c>
       <c r="M126" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>73</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>60</v>
@@ -14802,10 +14890,10 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="B127" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>73</v>
@@ -14820,13 +14908,13 @@
         <v>73</v>
       </c>
       <c r="M127" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="N127" t="s">
         <v>73</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>73</v>
@@ -14888,10 +14976,10 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="B128" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>73</v>
@@ -14906,19 +14994,19 @@
         <v>191</v>
       </c>
       <c r="M128" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="R128" s="9" t="s">
         <v>60</v>
@@ -14972,10 +15060,10 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B129" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>73</v>
@@ -14990,13 +15078,13 @@
         <v>73</v>
       </c>
       <c r="M129" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="N129" t="s">
         <v>73</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>73</v>
@@ -15056,10 +15144,10 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B130" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>73</v>
@@ -15068,7 +15156,7 @@
         <v>2020</v>
       </c>
       <c r="E130" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
@@ -15077,19 +15165,19 @@
         <v>54</v>
       </c>
       <c r="M130" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="R130" s="9" t="s">
         <v>60</v>
@@ -15148,7 +15236,7 @@
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="17" t="s">
@@ -15164,16 +15252,16 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="M131" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="N131" t="s">
         <v>73</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>73</v>
@@ -15230,6 +15318,261 @@
         <v>73</v>
       </c>
       <c r="AH131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>851</v>
+      </c>
+      <c r="B132" t="s">
+        <v>848</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132">
+        <v>2019</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2</v>
+      </c>
+      <c r="K132" t="s">
+        <v>73</v>
+      </c>
+      <c r="M132" t="s">
+        <v>852</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="P132" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q132" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R132" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S132" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T132" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U132" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V132" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W132" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X132" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y132" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z132" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA132" s="8"/>
+      <c r="AB132" s="25">
+        <f>COUNTIF(R132:T132, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AC132" s="25">
+        <f>COUNTIF(U132:W132, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD132" s="25">
+        <f>COUNTIF(X132:Z132, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE132" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF132" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG132" s="25"/>
+      <c r="AH132" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>849</v>
+      </c>
+      <c r="B133" t="s">
+        <v>850</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133">
+        <v>2019</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>2</v>
+      </c>
+      <c r="K133" t="s">
+        <v>73</v>
+      </c>
+      <c r="M133" t="s">
+        <v>853</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="P133" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q133" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R133" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S133" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T133" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U133" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V133" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W133" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X133" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y133" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z133" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA133" s="8"/>
+      <c r="AB133" s="25">
+        <f>COUNTIF(R133:T133, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AC133" s="25">
+        <f>COUNTIF(U133:W133, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD133" s="25">
+        <f>COUNTIF(X133:Z133, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE133" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF133" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG133" s="25"/>
+      <c r="AH133" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>856</v>
+      </c>
+      <c r="B134" t="s">
+        <v>857</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134">
+        <v>2016</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" t="s">
+        <v>73</v>
+      </c>
+      <c r="M134" t="s">
+        <v>858</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q134" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R134" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S134" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T134" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U134" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V134" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W134" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X134" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y134" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z134" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA134" s="8"/>
+      <c r="AB134" s="25">
+        <f>COUNTIF(R134:T134, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AC134" s="25">
+        <f>COUNTIF(U134:W134, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AD134" s="25">
+        <f>COUNTIF(X134:Z134, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AE134" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF134" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG134" s="25"/>
+      <c r="AH134" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -15456,12 +15799,15 @@
     <hyperlink ref="N25" r:id="rId218" xr:uid="{6D639257-A493-4310-B78E-4BA9F050859C}"/>
     <hyperlink ref="N95" r:id="rId219" xr:uid="{4B8F988B-83C8-49C2-8219-51C094F40A60}"/>
     <hyperlink ref="O95" r:id="rId220" xr:uid="{7A03C06B-D9CF-477A-9D1E-259582B74BF4}"/>
+    <hyperlink ref="O132" r:id="rId221" xr:uid="{E087CEFA-3678-4500-9D1B-55CF085965DE}"/>
+    <hyperlink ref="O133" r:id="rId222" xr:uid="{A1442788-16F5-4178-B392-1B700DEF638B}"/>
+    <hyperlink ref="O134" r:id="rId223" xr:uid="{2A27FCF3-313D-42DA-A837-C791ED670B49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId221"/>
-  <legacyDrawing r:id="rId222"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId224"/>
+  <legacyDrawing r:id="rId225"/>
   <tableParts count="1">
-    <tablePart r:id="rId223"/>
+    <tablePart r:id="rId226"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -15470,7 +15816,7 @@
           <x14:formula1>
             <xm:f>Domains!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G131</xm:sqref>
+          <xm:sqref>F2:G134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15493,12 +15839,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -15528,7 +15874,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -15563,17 +15909,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -15583,7 +15929,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -15603,7 +15949,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -15618,12 +15964,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F1CF9-84F5-450E-A553-0948EFFDB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380E3A8-AECB-4043-B894-F6E0DFC57609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="2115" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -112,32 +112,67 @@
     </comment>
     <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     @Arghavan: one issue we have I think is that there is a difference between explicitly reuse concepts from another ontology and providing some alignment information. I think we need to keep our lives easy and only consider explicit reuse, i.e. explicitly referred to within the owl file</t>
+        </r>
       </text>
     </comment>
     <comment ref="O2" authorId="2" shapeId="0" xr:uid="{FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="P9" authorId="3" shapeId="0" xr:uid="{885FB683-17A8-485A-8691-53C79CD2DF41}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     https://www.freeclass.eu/download
 The Free Class (FC) ontology requires me to give my details to get access. But, it is otherwise an AECO ontology. Should I add it?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q21" authorId="4" shapeId="0" xr:uid="{973D48F1-79B3-4920-8BDA-8C16C92B26F0}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     This may need to include quantity kind (qk) and unit (unit), that are both from qudt.
@@ -145,19 +180,37 @@
     New list: bacnet, bsh, qudt, qudtqk, rec, ref, s223, sdo, sh, skos, sosa, tag, unit, vcard
 Відповідь:
     That seems better. Where did you find that list?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O30" authorId="5" shapeId="0" xr:uid="{69563DD9-E157-466B-B7C0-685744C5F29A}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="R32" authorId="6" shapeId="0" xr:uid="{4B8EE336-FBE0-47A3-9930-259BDD87F0E2}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     Place Reference Theory (PRT) ontology
@@ -170,19 +223,37 @@
     Good question. Either PRT is UPPER, or we consider it AECO (we should change that columns to BE :) ). Please, ask Arghavan for her opinion.
 Відповідь:
     @Arghavan</t>
+        </r>
       </text>
     </comment>
     <comment ref="O34" authorId="7" shapeId="0" xr:uid="{79AF74C8-61FA-441F-B37E-08E57B208671}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     See also https://cui.unige.ch/isi/onto/citygml2.0.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="A49" authorId="8" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     Probably doesn't exist
@@ -198,51 +269,105 @@
     I agree. looks like developers named it as ontology in paper, but in the end its not. Also, Section 5 of paper Conclusions and Future Work "Furthermore, it is recommended to use DOT as a modular core ontology in combination with additional web ontologies as extensions when adding more specific information, e.g. taxonomies for various damage types or national assessment standards. In this regard, three example ontologies have been developed that extend DOT with a taxonomy for damages in reinforced concrete (CDO), mechanical parameters for damaged areas (DMO) and properties based on the German inspection standard DIN 1076" . So maybe it cannot be considered as a separate ontology.
 Відповідь:
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A76" authorId="9" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q76" authorId="10" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O77" authorId="11" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
-        <t xml:space="preserve">[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
+        </r>
       </text>
     </comment>
     <comment ref="O90" authorId="12" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
-        <t xml:space="preserve">[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
+        </r>
       </text>
     </comment>
     <comment ref="A94" authorId="13" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     Note: used to be ontology iddo.</t>
+        </r>
       </text>
     </comment>
     <comment ref="Z101" authorId="14" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     Occupant Property Taxonomy (2024). DOI: 10.3233/SW-223254
@@ -250,22 +375,41 @@
     If we miss an ontology in our database, just add it :) 
 Відповідь:
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
+        </r>
       </text>
     </comment>
     <comment ref="P110" authorId="15" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O116" authorId="16" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
-        <t>[Ланцюжок приміток]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
 Примітка:
     See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -3129,9 +3273,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
@@ -3180,17 +3323,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Гіперпосилання" xfId="2" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -3292,7 +3434,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH140" totalsRowShown="0">
-  <autoFilter ref="A1:AH140" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+  <autoFilter ref="A1:AH140" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Fire Safety"/>
+        <filter val="Safety"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH140">
     <sortCondition ref="A1:A140"/>
   </sortState>
@@ -3730,44 +3879,44 @@
   <dimension ref="A1:AH140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF130" sqref="AF130"/>
+      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="21.54296875" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="46" style="3" customWidth="1"/>
-    <col min="18" max="18" width="27.54296875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="34.54296875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="34.1796875" style="9" customWidth="1"/>
-    <col min="21" max="21" width="32.1796875" style="9" customWidth="1"/>
-    <col min="22" max="22" width="26.1796875" style="9" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="9" customWidth="1"/>
     <col min="23" max="23" width="20" style="9" customWidth="1"/>
-    <col min="24" max="24" width="21.453125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="19.54296875" style="9" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" style="9" customWidth="1"/>
     <col min="26" max="26" width="19" style="9" customWidth="1"/>
-    <col min="27" max="27" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3871,7 +4020,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -3936,15 +4085,15 @@
         <v>78</v>
       </c>
       <c r="AB2">
-        <f>COUNTIF(R2:T2, "yes")</f>
+        <f t="shared" ref="AB2:AB33" si="0">COUNTIF(R2:T2, "yes")</f>
         <v>1</v>
       </c>
       <c r="AC2">
-        <f>COUNTIF(U2:W2, "yes")</f>
+        <f t="shared" ref="AC2:AC33" si="1">COUNTIF(U2:W2, "yes")</f>
         <v>1</v>
       </c>
       <c r="AD2">
-        <f>COUNTIF(X2:Z2, "yes")</f>
+        <f t="shared" ref="AD2:AD33" si="2">COUNTIF(X2:Z2, "yes")</f>
         <v>0</v>
       </c>
       <c r="AE2" t="s">
@@ -3960,7 +4109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>657</v>
       </c>
@@ -4023,15 +4172,15 @@
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3">
-        <f>COUNTIF(R3:T3, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC3">
-        <f>COUNTIF(U3:W3, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD3">
-        <f>COUNTIF(X3:Z3, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE3" t="s">
@@ -4044,7 +4193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4109,15 +4258,15 @@
         <v>62</v>
       </c>
       <c r="AB4">
-        <f>COUNTIF(R4:T4, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC4">
-        <f>COUNTIF(U4:W4, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD4">
-        <f>COUNTIF(X4:Z4, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE4" t="s">
@@ -4130,7 +4279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4201,15 +4350,15 @@
         <v>78</v>
       </c>
       <c r="AB5">
-        <f>COUNTIF(R5:T5, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f>COUNTIF(U5:W5, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD5">
-        <f>COUNTIF(X5:Z5, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE5" t="s">
@@ -4225,7 +4374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>362</v>
       </c>
@@ -4299,15 +4448,15 @@
         <v>78</v>
       </c>
       <c r="AB6">
-        <f>COUNTIF(R6:T6, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC6">
-        <f>COUNTIF(U6:W6, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD6">
-        <f>COUNTIF(X6:Z6, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE6" t="s">
@@ -4323,7 +4472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -4391,15 +4540,15 @@
         <v>104</v>
       </c>
       <c r="AB7">
-        <f>COUNTIF(R7:T7, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC7">
-        <f>COUNTIF(U7:W7, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD7">
-        <f>COUNTIF(X7:Z7, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE7" t="s">
@@ -4415,7 +4564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -4486,15 +4635,15 @@
         <v>98</v>
       </c>
       <c r="AB8">
-        <f>COUNTIF(R8:T8, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC8">
-        <f>COUNTIF(U8:W8, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD8">
-        <f>COUNTIF(X8:Z8, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE8" t="s">
@@ -4510,7 +4659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -4572,15 +4721,15 @@
         <v>78</v>
       </c>
       <c r="AB9">
-        <f>COUNTIF(R9:T9, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC9">
-        <f>COUNTIF(U9:W9, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD9">
-        <f>COUNTIF(X9:Z9, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE9" t="s">
@@ -4596,7 +4745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4658,15 +4807,15 @@
         <v>89</v>
       </c>
       <c r="AB10">
-        <f>COUNTIF(R10:T10, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC10">
-        <f>COUNTIF(U10:W10, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD10">
-        <f>COUNTIF(X10:Z10, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE10" t="s">
@@ -4682,7 +4831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4750,15 +4899,15 @@
         <v>62</v>
       </c>
       <c r="AB11">
-        <f>COUNTIF(R11:T11, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC11">
-        <f>COUNTIF(U11:W11, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD11">
-        <f>COUNTIF(X11:Z11, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE11" t="s">
@@ -4774,7 +4923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -4842,15 +4991,15 @@
         <v>62</v>
       </c>
       <c r="AB12">
-        <f>COUNTIF(R12:T12, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC12">
-        <f>COUNTIF(U12:W12, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD12">
-        <f>COUNTIF(X12:Z12, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE12" t="s">
@@ -4866,7 +5015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>385</v>
       </c>
@@ -4934,15 +5083,15 @@
         <v>62</v>
       </c>
       <c r="AB13">
-        <f>COUNTIF(R13:T13, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC13">
-        <f>COUNTIF(U13:W13, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD13">
-        <f>COUNTIF(X13:Z13, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE13" t="s">
@@ -4958,7 +5107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>405</v>
       </c>
@@ -5026,15 +5175,15 @@
         <v>62</v>
       </c>
       <c r="AB14">
-        <f>COUNTIF(R14:T14, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC14">
-        <f>COUNTIF(U14:W14, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD14">
-        <f>COUNTIF(X14:Z14, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE14" t="s">
@@ -5047,7 +5196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>418</v>
       </c>
@@ -5115,15 +5264,15 @@
         <v>62</v>
       </c>
       <c r="AB15">
-        <f>COUNTIF(R15:T15, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC15">
-        <f>COUNTIF(U15:W15, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD15">
-        <f>COUNTIF(X15:Z15, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE15" t="s">
@@ -5136,7 +5285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5204,15 +5353,15 @@
         <v>62</v>
       </c>
       <c r="AB16">
-        <f>COUNTIF(R16:T16, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC16">
-        <f>COUNTIF(U16:W16, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD16">
-        <f>COUNTIF(X16:Z16, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE16" t="s">
@@ -5228,7 +5377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>470</v>
       </c>
@@ -5296,15 +5445,15 @@
         <v>62</v>
       </c>
       <c r="AB17">
-        <f>COUNTIF(R17:T17, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC17">
-        <f>COUNTIF(U17:W17, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD17">
-        <f>COUNTIF(X17:Z17, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE17" t="s">
@@ -5317,7 +5466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>504</v>
       </c>
@@ -5385,15 +5534,15 @@
         <v>62</v>
       </c>
       <c r="AB18">
-        <f>COUNTIF(R18:T18, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC18">
-        <f>COUNTIF(U18:W18, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD18">
-        <f>COUNTIF(X18:Z18, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE18" t="s">
@@ -5406,7 +5555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>579</v>
       </c>
@@ -5474,15 +5623,15 @@
         <v>62</v>
       </c>
       <c r="AB19">
-        <f>COUNTIF(R19:T19, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC19">
-        <f>COUNTIF(U19:W19, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD19">
-        <f>COUNTIF(X19:Z19, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE19" t="s">
@@ -5495,7 +5644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>636</v>
       </c>
@@ -5563,15 +5712,15 @@
         <v>62</v>
       </c>
       <c r="AB20">
-        <f>COUNTIF(R20:T20, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC20">
-        <f>COUNTIF(U20:W20, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD20">
-        <f>COUNTIF(X20:Z20, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE20" t="s">
@@ -5587,7 +5736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>148</v>
       </c>
@@ -5658,15 +5807,15 @@
         <v>89</v>
       </c>
       <c r="AB21">
-        <f>COUNTIF(R21:T21, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC21">
-        <f>COUNTIF(U21:W21, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD21">
-        <f>COUNTIF(X21:Z21, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE21" t="s">
@@ -5682,7 +5831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -5750,15 +5899,15 @@
         <v>98</v>
       </c>
       <c r="AB22">
-        <f>COUNTIF(R22:T22, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC22">
-        <f>COUNTIF(U22:W22, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD22">
-        <f>COUNTIF(X22:Z22, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE22" t="s">
@@ -5771,7 +5920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -5836,15 +5985,15 @@
         <v>62</v>
       </c>
       <c r="AB23">
-        <f>COUNTIF(R23:T23, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC23">
-        <f>COUNTIF(U23:W23, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD23">
-        <f>COUNTIF(X23:Z23, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE23" t="s">
@@ -5857,7 +6006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -5928,15 +6077,15 @@
         <v>89</v>
       </c>
       <c r="AB24">
-        <f>COUNTIF(R24:T24, "yes")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>COUNTIF(U24:W24, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD24">
-        <f>COUNTIF(X24:Z24, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE24" t="s">
@@ -5949,7 +6098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -6017,15 +6166,15 @@
         <v>78</v>
       </c>
       <c r="AB25">
-        <f>COUNTIF(R25:T25, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC25">
-        <f>COUNTIF(U25:W25, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD25">
-        <f>COUNTIF(X25:Z25, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE25" t="s">
@@ -6038,7 +6187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>663</v>
       </c>
@@ -6098,15 +6247,15 @@
       </c>
       <c r="AA26" s="8"/>
       <c r="AB26">
-        <f>COUNTIF(R26:T26, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC26">
-        <f>COUNTIF(U26:W26, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD26">
-        <f>COUNTIF(X26:Z26, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE26" t="s">
@@ -6119,7 +6268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -6190,15 +6339,15 @@
         <v>104</v>
       </c>
       <c r="AB27">
-        <f>COUNTIF(R27:T27, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC27">
-        <f>COUNTIF(U27:W27, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD27">
-        <f>COUNTIF(X27:Z27, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE27" t="s">
@@ -6211,7 +6360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -6279,15 +6428,15 @@
         <v>98</v>
       </c>
       <c r="AB28">
-        <f>COUNTIF(R28:T28, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC28">
-        <f>COUNTIF(U28:W28, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD28">
-        <f>COUNTIF(X28:Z28, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE28" t="s">
@@ -6300,7 +6449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -6371,15 +6520,15 @@
         <v>78</v>
       </c>
       <c r="AB29">
-        <f>COUNTIF(R29:T29, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC29">
-        <f>COUNTIF(U29:W29, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD29">
-        <f>COUNTIF(X29:Z29, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE29" t="s">
@@ -6392,7 +6541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>731</v>
       </c>
@@ -6449,15 +6598,15 @@
       </c>
       <c r="AA30" s="8"/>
       <c r="AB30">
-        <f>COUNTIF(R30:T30, "yes")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f>COUNTIF(U30:W30, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD30">
-        <f>COUNTIF(X30:Z30, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE30" t="s">
@@ -6470,7 +6619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>323</v>
       </c>
@@ -6541,15 +6690,15 @@
         <v>78</v>
       </c>
       <c r="AB31">
-        <f>COUNTIF(R31:T31, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC31">
-        <f>COUNTIF(U31:W31, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD31">
-        <f>COUNTIF(X31:Z31, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE31" t="s">
@@ -6562,7 +6711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -6636,15 +6785,15 @@
         <v>89</v>
       </c>
       <c r="AB32">
-        <f>COUNTIF(R32:T32, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC32">
-        <f>COUNTIF(U32:W32, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD32">
-        <f>COUNTIF(X32:Z32, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE32" t="s">
@@ -6657,7 +6806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -6731,15 +6880,15 @@
         <v>89</v>
       </c>
       <c r="AB33">
-        <f>COUNTIF(R33:T33, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC33">
-        <f>COUNTIF(U33:W33, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD33">
-        <f>COUNTIF(X33:Z33, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE33" t="s">
@@ -6752,7 +6901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>460</v>
       </c>
@@ -6820,15 +6969,15 @@
         <v>98</v>
       </c>
       <c r="AB34">
-        <f>COUNTIF(R34:T34, "yes")</f>
+        <f t="shared" ref="AB34:AB65" si="3">COUNTIF(R34:T34, "yes")</f>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f>COUNTIF(U34:W34, "yes")</f>
+        <f t="shared" ref="AC34:AC65" si="4">COUNTIF(U34:W34, "yes")</f>
         <v>1</v>
       </c>
       <c r="AD34">
-        <f>COUNTIF(X34:Z34, "yes")</f>
+        <f t="shared" ref="AD34:AD65" si="5">COUNTIF(X34:Z34, "yes")</f>
         <v>1</v>
       </c>
       <c r="AE34" t="s">
@@ -6841,7 +6990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -6909,15 +7058,15 @@
         <v>62</v>
       </c>
       <c r="AB35">
-        <f>COUNTIF(R35:T35, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC35">
-        <f>COUNTIF(U35:W35, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD35">
-        <f>COUNTIF(X35:Z35, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE35" t="s">
@@ -6930,7 +7079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>395</v>
       </c>
@@ -6998,15 +7147,15 @@
         <v>62</v>
       </c>
       <c r="AB36">
-        <f>COUNTIF(R36:T36, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC36">
-        <f>COUNTIF(U36:W36, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD36">
-        <f>COUNTIF(X36:Z36, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE36" t="s">
@@ -7019,7 +7168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>480</v>
       </c>
@@ -7087,15 +7236,15 @@
         <v>62</v>
       </c>
       <c r="AB37">
-        <f>COUNTIF(R37:T37, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC37">
-        <f>COUNTIF(U37:W37, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD37">
-        <f>COUNTIF(X37:Z37, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE37" t="s">
@@ -7108,7 +7257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>487</v>
       </c>
@@ -7176,15 +7325,15 @@
         <v>62</v>
       </c>
       <c r="AB38">
-        <f>COUNTIF(R38:T38, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC38">
-        <f>COUNTIF(U38:W38, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD38">
-        <f>COUNTIF(X38:Z38, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE38" t="s">
@@ -7197,7 +7346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>511</v>
       </c>
@@ -7265,15 +7414,15 @@
         <v>62</v>
       </c>
       <c r="AB39">
-        <f>COUNTIF(R39:T39, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC39">
-        <f>COUNTIF(U39:W39, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD39">
-        <f>COUNTIF(X39:Z39, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE39" t="s">
@@ -7286,7 +7435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>548</v>
       </c>
@@ -7354,15 +7503,15 @@
         <v>62</v>
       </c>
       <c r="AB40">
-        <f>COUNTIF(R40:T40, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC40">
-        <f>COUNTIF(U40:W40, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD40">
-        <f>COUNTIF(X40:Z40, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE40" t="s">
@@ -7375,7 +7524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -7446,15 +7595,15 @@
         <v>104</v>
       </c>
       <c r="AB41">
-        <f>COUNTIF(R41:T41, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC41">
-        <f>COUNTIF(U41:W41, "yes")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD41">
-        <f>COUNTIF(X41:Z41, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE41" t="s">
@@ -7467,7 +7616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>728</v>
       </c>
@@ -7527,15 +7676,15 @@
       </c>
       <c r="AA42" s="8"/>
       <c r="AB42">
-        <f>COUNTIF(R42:T42, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC42">
-        <f>COUNTIF(U42:W42, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD42">
-        <f>COUNTIF(X42:Z42, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE42" t="s">
@@ -7548,7 +7697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>820</v>
       </c>
@@ -7611,15 +7760,15 @@
       </c>
       <c r="AA43" s="8"/>
       <c r="AB43">
-        <f>COUNTIF(R43:T43, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC43">
-        <f>COUNTIF(U43:W43, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD43">
-        <f>COUNTIF(X43:Z43, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE43" t="s">
@@ -7629,7 +7778,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>729</v>
       </c>
@@ -7692,15 +7841,15 @@
       </c>
       <c r="AA44" s="8"/>
       <c r="AB44">
-        <f>COUNTIF(R44:T44, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC44">
-        <f>COUNTIF(U44:W44, "yes")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD44">
-        <f>COUNTIF(X44:Z44, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE44" t="s">
@@ -7713,7 +7862,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -7775,15 +7924,15 @@
         <v>104</v>
       </c>
       <c r="AB45">
-        <f>COUNTIF(R45:T45, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC45">
-        <f>COUNTIF(U45:W45, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD45">
-        <f>COUNTIF(X45:Z45, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE45" t="s">
@@ -7796,7 +7945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>815</v>
       </c>
@@ -7859,15 +8008,15 @@
       </c>
       <c r="AA46" s="8"/>
       <c r="AB46">
-        <f>COUNTIF(R46:T46, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC46">
-        <f>COUNTIF(U46:W46, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD46">
-        <f>COUNTIF(X46:Z46, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE46" t="s">
@@ -7877,7 +8026,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -7942,15 +8091,15 @@
         <v>62</v>
       </c>
       <c r="AB47">
-        <f>COUNTIF(R47:T47, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC47">
-        <f>COUNTIF(U47:W47, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD47">
-        <f>COUNTIF(X47:Z47, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE47" t="s">
@@ -7963,7 +8112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>826</v>
       </c>
@@ -8026,15 +8175,15 @@
       </c>
       <c r="AA48" s="8"/>
       <c r="AB48">
-        <f>COUNTIF(R48:T48, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC48">
-        <f>COUNTIF(U48:W48, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD48">
-        <f>COUNTIF(X48:Z48, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE48" t="s">
@@ -8044,7 +8193,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>273</v>
       </c>
@@ -8115,15 +8264,15 @@
         <v>89</v>
       </c>
       <c r="AB49">
-        <f>COUNTIF(R49:T49, "yes")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f>COUNTIF(U49:W49, "yes")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD49">
-        <f>COUNTIF(X49:Z49, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE49" t="s">
@@ -8136,7 +8285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>287</v>
       </c>
@@ -8207,15 +8356,15 @@
         <v>104</v>
       </c>
       <c r="AB50">
-        <f>COUNTIF(R50:T50, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC50">
-        <f>COUNTIF(U50:W50, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD50">
-        <f>COUNTIF(X50:Z50, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE50" t="s">
@@ -8228,7 +8377,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>298</v>
       </c>
@@ -8293,15 +8442,15 @@
         <v>89</v>
       </c>
       <c r="AB51">
-        <f>COUNTIF(R51:T51, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC51">
-        <f>COUNTIF(U51:W51, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD51">
-        <f>COUNTIF(X51:Z51, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE51" t="s">
@@ -8314,7 +8463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>281</v>
       </c>
@@ -8385,15 +8534,15 @@
         <v>98</v>
       </c>
       <c r="AB52">
-        <f>COUNTIF(R52:T52, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC52">
-        <f>COUNTIF(U52:W52, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD52">
-        <f>COUNTIF(X52:Z52, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE52" t="s">
@@ -8406,7 +8555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>856</v>
       </c>
@@ -8469,15 +8618,15 @@
       </c>
       <c r="AA53" s="8"/>
       <c r="AB53">
-        <f>COUNTIF(R53:T53, "yes")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC53">
-        <f>COUNTIF(U53:W53, "yes")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD53">
-        <f>COUNTIF(X53:Z53, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE53" t="s">
@@ -8490,7 +8639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -8558,15 +8707,15 @@
         <v>78</v>
       </c>
       <c r="AB54">
-        <f>COUNTIF(R54:T54, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC54">
-        <f>COUNTIF(U54:W54, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD54">
-        <f>COUNTIF(X54:Z54, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE54" t="s">
@@ -8579,7 +8728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -8647,15 +8796,15 @@
         <v>78</v>
       </c>
       <c r="AB55">
-        <f>COUNTIF(R55:T55, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC55">
-        <f>COUNTIF(U55:W55, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD55">
-        <f>COUNTIF(X55:Z55, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE55" t="s">
@@ -8668,7 +8817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>212</v>
       </c>
@@ -8733,15 +8882,15 @@
         <v>89</v>
       </c>
       <c r="AB56">
-        <f>COUNTIF(R56:T56, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC56">
-        <f>COUNTIF(U56:W56, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD56">
-        <f>COUNTIF(X56:Z56, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE56" t="s">
@@ -8754,7 +8903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -8822,15 +8971,15 @@
         <v>104</v>
       </c>
       <c r="AB57">
-        <f>COUNTIF(R57:T57, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC57">
-        <f>COUNTIF(U57:W57, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD57">
-        <f>COUNTIF(X57:Z57, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE57" t="s">
@@ -8843,7 +8992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -8914,15 +9063,15 @@
         <v>98</v>
       </c>
       <c r="AB58">
-        <f>COUNTIF(R58:T58, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC58">
-        <f>COUNTIF(U58:W58, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD58">
-        <f>COUNTIF(X58:Z58, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE58" t="s">
@@ -8935,7 +9084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -9003,15 +9152,15 @@
         <v>78</v>
       </c>
       <c r="AB59">
-        <f>COUNTIF(R59:T59, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC59">
-        <f>COUNTIF(U59:W59, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD59">
-        <f>COUNTIF(X59:Z59, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE59" t="s">
@@ -9024,7 +9173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>201</v>
       </c>
@@ -9084,15 +9233,15 @@
         <v>62</v>
       </c>
       <c r="AB60">
-        <f>COUNTIF(R60:T60, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC60">
-        <f>COUNTIF(U60:W60, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD60">
-        <f>COUNTIF(X60:Z60, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE60" t="s">
@@ -9105,7 +9254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>237</v>
       </c>
@@ -9176,15 +9325,15 @@
         <v>78</v>
       </c>
       <c r="AB61">
-        <f>COUNTIF(R61:T61, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC61">
-        <f>COUNTIF(U61:W61, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD61">
-        <f>COUNTIF(X61:Z61, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE61" t="s">
@@ -9197,7 +9346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -9265,15 +9414,15 @@
         <v>78</v>
       </c>
       <c r="AB62">
-        <f>COUNTIF(R62:T62, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC62">
-        <f>COUNTIF(U62:W62, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD62">
-        <f>COUNTIF(X62:Z62, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE62" t="s">
@@ -9286,7 +9435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -9357,15 +9506,15 @@
         <v>89</v>
       </c>
       <c r="AB63">
-        <f>COUNTIF(R63:T63, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC63">
-        <f>COUNTIF(U63:W63, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD63">
-        <f>COUNTIF(X63:Z63, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE63" t="s">
@@ -9378,7 +9527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>256</v>
       </c>
@@ -9446,15 +9595,15 @@
         <v>98</v>
       </c>
       <c r="AB64">
-        <f>COUNTIF(R64:T64, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC64">
-        <f>COUNTIF(U64:W64, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD64">
-        <f>COUNTIF(X64:Z64, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE64" t="s">
@@ -9467,7 +9616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>262</v>
       </c>
@@ -9518,15 +9667,15 @@
         <v>62</v>
       </c>
       <c r="AB65">
-        <f>COUNTIF(R65:T65, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC65">
-        <f>COUNTIF(U65:W65, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD65">
-        <f>COUNTIF(X65:Z65, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE65" t="s">
@@ -9539,7 +9688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>265</v>
       </c>
@@ -9599,15 +9748,15 @@
         <v>62</v>
       </c>
       <c r="AB66">
-        <f>COUNTIF(R66:T66, "yes")</f>
+        <f t="shared" ref="AB66:AB97" si="6">COUNTIF(R66:T66, "yes")</f>
         <v>1</v>
       </c>
       <c r="AC66">
-        <f>COUNTIF(U66:W66, "yes")</f>
+        <f t="shared" ref="AC66:AC97" si="7">COUNTIF(U66:W66, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD66">
-        <f>COUNTIF(X66:Z66, "yes")</f>
+        <f t="shared" ref="AD66:AD97" si="8">COUNTIF(X66:Z66, "yes")</f>
         <v>3</v>
       </c>
       <c r="AE66" t="s">
@@ -9620,7 +9769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -9688,15 +9837,15 @@
         <v>104</v>
       </c>
       <c r="AB67">
-        <f>COUNTIF(R67:T67, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC67">
-        <f>COUNTIF(U67:W67, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD67">
-        <f>COUNTIF(X67:Z67, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE67" t="s">
@@ -9709,7 +9858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>305</v>
       </c>
@@ -9777,15 +9926,15 @@
         <v>89</v>
       </c>
       <c r="AB68">
-        <f>COUNTIF(R68:T68, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC68">
-        <f>COUNTIF(U68:W68, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD68">
-        <f>COUNTIF(X68:Z68, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE68" t="s">
@@ -9798,7 +9947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>429</v>
       </c>
@@ -9866,15 +10015,15 @@
         <v>104</v>
       </c>
       <c r="AB69">
-        <f>COUNTIF(R69:T69, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC69">
-        <f>COUNTIF(U69:W69, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD69">
-        <f>COUNTIF(X69:Z69, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE69" t="s">
@@ -9887,7 +10036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>799</v>
       </c>
@@ -9950,15 +10099,15 @@
       </c>
       <c r="AA70" s="8"/>
       <c r="AB70">
-        <f>COUNTIF(R70:T70, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC70">
-        <f>COUNTIF(U70:W70, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD70">
-        <f>COUNTIF(X70:Z70, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE70" t="s">
@@ -9968,7 +10117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -10039,15 +10188,15 @@
         <v>78</v>
       </c>
       <c r="AB71">
-        <f>COUNTIF(R71:T71, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC71">
-        <f>COUNTIF(U71:W71, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD71">
-        <f>COUNTIF(X71:Z71, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE71" t="s">
@@ -10060,7 +10209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>316</v>
       </c>
@@ -10125,15 +10274,15 @@
         <v>104</v>
       </c>
       <c r="AB72">
-        <f>COUNTIF(R72:T72, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC72">
-        <f>COUNTIF(U72:W72, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD72">
-        <f>COUNTIF(X72:Z72, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE72" t="s">
@@ -10146,7 +10295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>702</v>
       </c>
@@ -10215,15 +10364,15 @@
       </c>
       <c r="AA73" s="8"/>
       <c r="AB73">
-        <f>COUNTIF(R73:T73, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC73">
-        <f>COUNTIF(U73:W73, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD73">
-        <f>COUNTIF(X73:Z73, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE73" t="s">
@@ -10236,7 +10385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>701</v>
       </c>
@@ -10305,15 +10454,15 @@
       </c>
       <c r="AA74" s="8"/>
       <c r="AB74">
-        <f>COUNTIF(R74:T74, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC74">
-        <f>COUNTIF(U74:W74, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD74">
-        <f>COUNTIF(X74:Z74, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE74" t="s">
@@ -10326,7 +10475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>616</v>
       </c>
@@ -10391,15 +10540,15 @@
         <v>104</v>
       </c>
       <c r="AB75">
-        <f>COUNTIF(R75:T75, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC75">
-        <f>COUNTIF(U75:W75, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD75">
-        <f>COUNTIF(X75:Z75, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE75" t="s">
@@ -10412,7 +10561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>310</v>
       </c>
@@ -10480,15 +10629,15 @@
         <v>98</v>
       </c>
       <c r="AB76">
-        <f>COUNTIF(R76:T76, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC76">
-        <f>COUNTIF(U76:W76, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD76">
-        <f>COUNTIF(X76:Z76, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE76" t="s">
@@ -10501,7 +10650,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>330</v>
       </c>
@@ -10569,15 +10718,15 @@
         <v>89</v>
       </c>
       <c r="AB77">
-        <f>COUNTIF(R77:T77, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC77">
-        <f>COUNTIF(U77:W77, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD77">
-        <f>COUNTIF(X77:Z77, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE77" t="s">
@@ -10590,7 +10739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>642</v>
       </c>
@@ -10661,15 +10810,15 @@
         <v>98</v>
       </c>
       <c r="AB78">
-        <f>COUNTIF(R78:T78, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC78">
-        <f>COUNTIF(U78:W78, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD78">
-        <f>COUNTIF(X78:Z78, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE78" t="s">
@@ -10682,7 +10831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -10750,15 +10899,15 @@
         <v>98</v>
       </c>
       <c r="AB79">
-        <f>COUNTIF(R79:T79, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC79">
-        <f>COUNTIF(U79:W79, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD79">
-        <f>COUNTIF(X79:Z79, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE79" t="s">
@@ -10771,7 +10920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>351</v>
       </c>
@@ -10839,15 +10988,15 @@
         <v>78</v>
       </c>
       <c r="AB80">
-        <f>COUNTIF(R80:T80, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC80">
-        <f>COUNTIF(U80:W80, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD80">
-        <f>COUNTIF(X80:Z80, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE80" t="s">
@@ -10860,7 +11009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>343</v>
       </c>
@@ -10928,15 +11077,15 @@
         <v>89</v>
       </c>
       <c r="AB81">
-        <f>COUNTIF(R81:T81, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC81">
-        <f>COUNTIF(U81:W81, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD81">
-        <f>COUNTIF(X81:Z81, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE81" t="s">
@@ -10949,7 +11098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>905</v>
       </c>
@@ -11014,15 +11163,15 @@
         <v>61</v>
       </c>
       <c r="AB82" s="31">
-        <f>COUNTIF(R82:T82, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC82" s="31">
-        <f>COUNTIF(U82:W82, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD82" s="31">
-        <f>COUNTIF(X82:Z82, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE82" s="31" t="s">
@@ -11032,7 +11181,7 @@
       <c r="AG82" s="31"/>
       <c r="AH82" s="31"/>
     </row>
-    <row r="83" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>669</v>
       </c>
@@ -11098,15 +11247,15 @@
       </c>
       <c r="AA83" s="8"/>
       <c r="AB83">
-        <f>COUNTIF(R83:T83, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC83">
-        <f>COUNTIF(U83:W83, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD83">
-        <f>COUNTIF(X83:Z83, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE83" t="s">
@@ -11119,7 +11268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>810</v>
       </c>
@@ -11177,15 +11326,15 @@
       </c>
       <c r="AA84" s="8"/>
       <c r="AB84">
-        <f>COUNTIF(R84:T84, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC84">
-        <f>COUNTIF(U84:W84, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD84">
-        <f>COUNTIF(X84:Z84, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE84" t="s">
@@ -11195,7 +11344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>647</v>
       </c>
@@ -11261,15 +11410,15 @@
         <v>104</v>
       </c>
       <c r="AB85">
-        <f>COUNTIF(R85:T85, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC85">
-        <f>COUNTIF(U85:W85, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD85">
-        <f>COUNTIF(X85:Z85, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE85" t="s">
@@ -11282,7 +11431,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>849</v>
       </c>
@@ -11345,15 +11494,15 @@
       </c>
       <c r="AA86" s="8"/>
       <c r="AB86">
-        <f>COUNTIF(R86:T86, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC86">
-        <f>COUNTIF(U86:W86, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD86">
-        <f>COUNTIF(X86:Z86, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE86" t="s">
@@ -11366,7 +11515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>851</v>
       </c>
@@ -11429,15 +11578,15 @@
       </c>
       <c r="AA87" s="8"/>
       <c r="AB87">
-        <f>COUNTIF(R87:T87, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC87">
-        <f>COUNTIF(U87:W87, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD87">
-        <f>COUNTIF(X87:Z87, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE87" t="s">
@@ -11450,7 +11599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>686</v>
       </c>
@@ -11513,15 +11662,15 @@
       </c>
       <c r="AA88" s="8"/>
       <c r="AB88">
-        <f>COUNTIF(R88:T88, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC88">
-        <f>COUNTIF(U88:W88, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD88">
-        <f>COUNTIF(X88:Z88, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE88" t="s">
@@ -11534,7 +11683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>374</v>
       </c>
@@ -11611,15 +11760,15 @@
         <v>98</v>
       </c>
       <c r="AB89">
-        <f>COUNTIF(R89:T89, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC89">
-        <f>COUNTIF(U89:W89, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD89">
-        <f>COUNTIF(X89:Z89, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE89" t="s">
@@ -11632,7 +11781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>466</v>
       </c>
@@ -11697,15 +11846,15 @@
         <v>78</v>
       </c>
       <c r="AB90">
-        <f>COUNTIF(R90:T90, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC90">
-        <f>COUNTIF(U90:W90, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD90">
-        <f>COUNTIF(X90:Z90, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE90" t="s">
@@ -11718,7 +11867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>369</v>
       </c>
@@ -11786,15 +11935,15 @@
         <v>89</v>
       </c>
       <c r="AB91">
-        <f>COUNTIF(R91:T91, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC91">
-        <f>COUNTIF(U91:W91, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD91">
-        <f>COUNTIF(X91:Z91, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE91" t="s">
@@ -11807,7 +11956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>381</v>
       </c>
@@ -11872,15 +12021,15 @@
         <v>104</v>
       </c>
       <c r="AB92">
-        <f>COUNTIF(R92:T92, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC92">
-        <f>COUNTIF(U92:W92, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD92">
-        <f>COUNTIF(X92:Z92, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE92" t="s">
@@ -11893,7 +12042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>390</v>
       </c>
@@ -11958,15 +12107,15 @@
         <v>104</v>
       </c>
       <c r="AB93">
-        <f>COUNTIF(R93:T93, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC93">
-        <f>COUNTIF(U93:W93, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD93">
-        <f>COUNTIF(X93:Z93, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE93" t="s">
@@ -11979,7 +12128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>401</v>
       </c>
@@ -12035,15 +12184,15 @@
         <v>98</v>
       </c>
       <c r="AB94">
-        <f>COUNTIF(R94:T94, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC94">
-        <f>COUNTIF(U94:W94, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD94">
-        <f>COUNTIF(X94:Z94, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE94" t="s">
@@ -12056,7 +12205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>410</v>
       </c>
@@ -12127,15 +12276,15 @@
         <v>78</v>
       </c>
       <c r="AB95">
-        <f>COUNTIF(R95:T95, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC95">
-        <f>COUNTIF(U95:W95, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD95">
-        <f>COUNTIF(X95:Z95, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE95" t="s">
@@ -12148,7 +12297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>414</v>
       </c>
@@ -12216,15 +12365,15 @@
         <v>98</v>
       </c>
       <c r="AB96">
-        <f>COUNTIF(R96:T96, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC96">
-        <f>COUNTIF(U96:W96, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD96">
-        <f>COUNTIF(X96:Z96, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE96" t="s">
@@ -12237,7 +12386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>433</v>
       </c>
@@ -12305,15 +12454,15 @@
         <v>78</v>
       </c>
       <c r="AB97">
-        <f>COUNTIF(R97:T97, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC97">
-        <f>COUNTIF(U97:W97, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD97">
-        <f>COUNTIF(X97:Z97, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE97" t="s">
@@ -12326,7 +12475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>424</v>
       </c>
@@ -12394,15 +12543,15 @@
         <v>98</v>
       </c>
       <c r="AB98">
-        <f>COUNTIF(R98:T98, "yes")</f>
+        <f t="shared" ref="AB98:AB129" si="9">COUNTIF(R98:T98, "yes")</f>
         <v>1</v>
       </c>
       <c r="AC98">
-        <f>COUNTIF(U98:W98, "yes")</f>
+        <f t="shared" ref="AC98:AC129" si="10">COUNTIF(U98:W98, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD98">
-        <f>COUNTIF(X98:Z98, "yes")</f>
+        <f t="shared" ref="AD98:AD129" si="11">COUNTIF(X98:Z98, "yes")</f>
         <v>2</v>
       </c>
       <c r="AE98" t="s">
@@ -12415,7 +12564,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>708</v>
       </c>
@@ -12484,15 +12633,15 @@
       </c>
       <c r="AA99" s="8"/>
       <c r="AB99">
-        <f>COUNTIF(R99:T99, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC99">
-        <f>COUNTIF(U99:W99, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD99">
-        <f>COUNTIF(X99:Z99, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE99" t="s">
@@ -12505,7 +12654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>707</v>
       </c>
@@ -12574,15 +12723,15 @@
       </c>
       <c r="AA100" s="8"/>
       <c r="AB100">
-        <f>COUNTIF(R100:T100, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC100">
-        <f>COUNTIF(U100:W100, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD100">
-        <f>COUNTIF(X100:Z100, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE100" t="s">
@@ -12595,7 +12744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>443</v>
       </c>
@@ -12663,15 +12812,15 @@
         <v>89</v>
       </c>
       <c r="AB101">
-        <f>COUNTIF(R101:T101, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC101">
-        <f>COUNTIF(U101:W101, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD101">
-        <f>COUNTIF(X101:Z101, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE101" t="s">
@@ -12684,7 +12833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>454</v>
       </c>
@@ -12755,15 +12904,15 @@
         <v>104</v>
       </c>
       <c r="AB102">
-        <f>COUNTIF(R102:T102, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC102">
-        <f>COUNTIF(U102:W102, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD102">
-        <f>COUNTIF(X102:Z102, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE102" t="s">
@@ -12776,7 +12925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>439</v>
       </c>
@@ -12838,15 +12987,15 @@
         <v>89</v>
       </c>
       <c r="AB103">
-        <f>COUNTIF(R103:T103, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC103">
-        <f>COUNTIF(U103:W103, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD103">
-        <f>COUNTIF(X103:Z103, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE103" t="s">
@@ -12859,7 +13008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>680</v>
       </c>
@@ -12922,15 +13071,15 @@
       </c>
       <c r="AA104" s="8"/>
       <c r="AB104">
-        <f>COUNTIF(R104:T104, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC104">
-        <f>COUNTIF(U104:W104, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD104">
-        <f>COUNTIF(X104:Z104, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE104" t="s">
@@ -12943,7 +13092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>449</v>
       </c>
@@ -13011,15 +13160,15 @@
         <v>98</v>
       </c>
       <c r="AB105">
-        <f>COUNTIF(R105:T105, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC105">
-        <f>COUNTIF(U105:W105, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD105">
-        <f>COUNTIF(X105:Z105, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE105" t="s">
@@ -13032,7 +13181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>475</v>
       </c>
@@ -13100,15 +13249,15 @@
         <v>89</v>
       </c>
       <c r="AB106">
-        <f>COUNTIF(R106:T106, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC106">
-        <f>COUNTIF(U106:W106, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD106">
-        <f>COUNTIF(X106:Z106, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE106" t="s">
@@ -13121,7 +13270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>276</v>
       </c>
@@ -13183,15 +13332,15 @@
         <v>89</v>
       </c>
       <c r="AB107">
-        <f>COUNTIF(R107:T107, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC107">
-        <f>COUNTIF(U107:W107, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD107">
-        <f>COUNTIF(X107:Z107, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE107" t="s">
@@ -13204,7 +13353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>655</v>
       </c>
@@ -13236,15 +13385,15 @@
       <c r="Z108" s="18"/>
       <c r="AA108" s="8"/>
       <c r="AB108">
-        <f>COUNTIF(R108:T108, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC108">
-        <f>COUNTIF(U108:W108, "yes")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD108">
-        <f>COUNTIF(X108:Z108, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF108" t="s">
@@ -13254,7 +13403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>575</v>
       </c>
@@ -13322,15 +13471,15 @@
         <v>89</v>
       </c>
       <c r="AB109">
-        <f>COUNTIF(R109:T109, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC109">
-        <f>COUNTIF(U109:W109, "yes")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD109">
-        <f>COUNTIF(X109:Z109, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE109" t="s">
@@ -13343,7 +13492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>493</v>
       </c>
@@ -13409,15 +13558,15 @@
         <v>78</v>
       </c>
       <c r="AB110">
-        <f>COUNTIF(R110:T110, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC110">
-        <f>COUNTIF(U110:W110, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD110">
-        <f>COUNTIF(X110:Z110, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE110" t="s">
@@ -13430,7 +13579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>832</v>
       </c>
@@ -13493,19 +13642,19 @@
       </c>
       <c r="AA111" s="8"/>
       <c r="AB111">
-        <f>COUNTIF(R111:T111, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC111">
-        <f>COUNTIF(U111:W111, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD111">
-        <f>COUNTIF(X111:Z111, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>500</v>
       </c>
@@ -13573,15 +13722,15 @@
         <v>104</v>
       </c>
       <c r="AB112">
-        <f>COUNTIF(R112:T112, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC112">
-        <f>COUNTIF(U112:W112, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD112">
-        <f>COUNTIF(X112:Z112, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE112" t="s">
@@ -13594,7 +13743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>598</v>
       </c>
@@ -13662,15 +13811,15 @@
         <v>89</v>
       </c>
       <c r="AB113">
-        <f>COUNTIF(R113:T113, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC113">
-        <f>COUNTIF(U113:W113, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD113">
-        <f>COUNTIF(X113:Z113, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE113" t="s">
@@ -13683,7 +13832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>590</v>
       </c>
@@ -13748,15 +13897,15 @@
         <v>89</v>
       </c>
       <c r="AB114">
-        <f>COUNTIF(R114:T114, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC114">
-        <f>COUNTIF(U114:W114, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD114">
-        <f>COUNTIF(X114:Z114, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE114" t="s">
@@ -13769,7 +13918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>593</v>
       </c>
@@ -13837,15 +13986,15 @@
         <v>89</v>
       </c>
       <c r="AB115">
-        <f>COUNTIF(R115:T115, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC115">
-        <f>COUNTIF(U115:W115, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD115">
-        <f>COUNTIF(X115:Z115, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE115" t="s">
@@ -13858,7 +14007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>570</v>
       </c>
@@ -13921,15 +14070,15 @@
         <v>78</v>
       </c>
       <c r="AB116">
-        <f>COUNTIF(R116:T116, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC116">
-        <f>COUNTIF(U116:W116, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD116">
-        <f>COUNTIF(X116:Z116, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE116" t="s">
@@ -13942,7 +14091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>882</v>
       </c>
@@ -14007,15 +14156,15 @@
         <v>61</v>
       </c>
       <c r="AB117" s="31">
-        <f>COUNTIF(R117:T117, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC117" s="31">
-        <f>COUNTIF(U117:W117, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD117" s="31">
-        <f>COUNTIF(X117:Z117, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE117" s="31" t="s">
@@ -14026,7 +14175,7 @@
       </c>
       <c r="AG117" s="31"/>
     </row>
-    <row r="118" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>860</v>
       </c>
@@ -14100,15 +14249,15 @@
         <v>62</v>
       </c>
       <c r="AB118">
-        <f>COUNTIF(R118:T118, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC118">
-        <f>COUNTIF(U118:W118, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD118">
-        <f>COUNTIF(X118:Z118, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE118" t="s">
@@ -14121,7 +14270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>560</v>
       </c>
@@ -14189,15 +14338,15 @@
         <v>62</v>
       </c>
       <c r="AB119">
-        <f>COUNTIF(R119:T119, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC119">
-        <f>COUNTIF(U119:W119, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD119">
-        <f>COUNTIF(X119:Z119, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE119" t="s">
@@ -14210,7 +14359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>888</v>
       </c>
@@ -14272,15 +14421,15 @@
         <v>61</v>
       </c>
       <c r="AB120" s="31">
-        <f>COUNTIF(R120:T120, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC120" s="31">
-        <f>COUNTIF(U120:W120, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD120" s="31">
-        <f>COUNTIF(X120:Z120, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE120" s="31" t="s">
@@ -14292,7 +14441,7 @@
       <c r="AG120" s="31"/>
       <c r="AH120" s="31"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>861</v>
       </c>
@@ -14363,15 +14512,15 @@
         <v>62</v>
       </c>
       <c r="AB121">
-        <f>COUNTIF(R121:T121, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC121">
-        <f>COUNTIF(U121:W121, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD121">
-        <f>COUNTIF(X121:Z121, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE121" t="s">
@@ -14384,7 +14533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>866</v>
       </c>
@@ -14455,15 +14604,15 @@
         <v>62</v>
       </c>
       <c r="AB122">
-        <f>COUNTIF(R122:T122, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC122">
-        <f>COUNTIF(U122:W122, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD122">
-        <f>COUNTIF(X122:Z122, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE122" t="s">
@@ -14476,7 +14625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>893</v>
       </c>
@@ -14541,15 +14690,15 @@
         <v>61</v>
       </c>
       <c r="AB123" s="31">
-        <f>COUNTIF(R123:T123, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC123" s="31">
-        <f>COUNTIF(U123:W123, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD123" s="31">
-        <f>COUNTIF(X123:Z123, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE123" s="31" t="s">
@@ -14561,7 +14710,7 @@
       <c r="AG123" s="31"/>
       <c r="AH123" s="31"/>
     </row>
-    <row r="124" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>876</v>
       </c>
@@ -14623,15 +14772,15 @@
         <v>61</v>
       </c>
       <c r="AB124" s="31">
-        <f>COUNTIF(R124:T124, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC124" s="31">
-        <f>COUNTIF(U124:W124, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD124" s="31">
-        <f>COUNTIF(X124:Z124, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE124" s="31" t="s">
@@ -14642,7 +14791,7 @@
       </c>
       <c r="AG124" s="31"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>862</v>
       </c>
@@ -14713,15 +14862,15 @@
         <v>62</v>
       </c>
       <c r="AB125">
-        <f>COUNTIF(R125:T125, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC125">
-        <f>COUNTIF(U125:W125, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD125">
-        <f>COUNTIF(X125:Z125, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE125" t="s">
@@ -14734,7 +14883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>865</v>
       </c>
@@ -14805,15 +14954,15 @@
         <v>62</v>
       </c>
       <c r="AB126">
-        <f>COUNTIF(R126:T126, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC126">
-        <f>COUNTIF(U126:W126, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD126">
-        <f>COUNTIF(X126:Z126, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE126" t="s">
@@ -14826,7 +14975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>864</v>
       </c>
@@ -14897,15 +15046,15 @@
         <v>62</v>
       </c>
       <c r="AB127">
-        <f>COUNTIF(R127:T127, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC127">
-        <f>COUNTIF(U127:W127, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD127">
-        <f>COUNTIF(X127:Z127, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE127" t="s">
@@ -14918,7 +15067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>868</v>
       </c>
@@ -14986,15 +15135,15 @@
         <v>62</v>
       </c>
       <c r="AB128">
-        <f>COUNTIF(R128:T128, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC128">
-        <f>COUNTIF(U128:W128, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD128">
-        <f>COUNTIF(X128:Z128, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE128" t="s">
@@ -15007,7 +15156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>863</v>
       </c>
@@ -15078,15 +15227,15 @@
         <v>62</v>
       </c>
       <c r="AB129">
-        <f>COUNTIF(R129:T129, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC129">
-        <f>COUNTIF(U129:W129, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD129">
-        <f>COUNTIF(X129:Z129, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE129" t="s">
@@ -15099,7 +15248,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>899</v>
       </c>
@@ -15161,15 +15310,15 @@
         <v>60</v>
       </c>
       <c r="AB130" s="31">
-        <f>COUNTIF(R130:T130, "yes")</f>
+        <f t="shared" ref="AB130:AB140" si="12">COUNTIF(R130:T130, "yes")</f>
         <v>3</v>
       </c>
       <c r="AC130" s="31">
-        <f>COUNTIF(U130:W130, "yes")</f>
+        <f t="shared" ref="AC130:AC140" si="13">COUNTIF(U130:W130, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD130" s="31">
-        <f>COUNTIF(X130:Z130, "yes")</f>
+        <f t="shared" ref="AD130:AD140" si="14">COUNTIF(X130:Z130, "yes")</f>
         <v>3</v>
       </c>
       <c r="AE130" s="31" t="s">
@@ -15181,7 +15330,7 @@
       <c r="AG130" s="31"/>
       <c r="AH130" s="31"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>563</v>
       </c>
@@ -15198,10 +15347,10 @@
         <v>565</v>
       </c>
       <c r="F131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" t="s">
         <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>6</v>
       </c>
       <c r="K131" t="s">
         <v>566</v>
@@ -15252,15 +15401,15 @@
         <v>104</v>
       </c>
       <c r="AB131">
-        <f>COUNTIF(R131:T131, "yes")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AC131">
-        <f>COUNTIF(U131:W131, "yes")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AD131">
-        <f>COUNTIF(X131:Z131, "yes")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AE131" t="s">
@@ -15273,7 +15422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>583</v>
       </c>
@@ -15341,15 +15490,15 @@
         <v>98</v>
       </c>
       <c r="AB132">
-        <f>COUNTIF(R132:T132, "yes")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC132">
-        <f>COUNTIF(U132:W132, "yes")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AD132">
-        <f>COUNTIF(X132:Z132, "yes")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AE132" t="s">
@@ -15362,7 +15511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>586</v>
       </c>
@@ -15430,15 +15579,15 @@
         <v>104</v>
       </c>
       <c r="AB133">
-        <f>COUNTIF(R133:T133, "yes")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC133">
-        <f>COUNTIF(U133:W133, "yes")</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD133">
-        <f>COUNTIF(X133:Z133, "yes")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE133" t="s">
@@ -15451,7 +15600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>554</v>
       </c>
@@ -15516,15 +15665,15 @@
         <v>89</v>
       </c>
       <c r="AB134">
-        <f>COUNTIF(R134:T134, "yes")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC134">
-        <f>COUNTIF(U134:W134, "yes")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AD134">
-        <f>COUNTIF(X134:Z134, "yes")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE134" t="s">
@@ -15537,7 +15686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>673</v>
       </c>
@@ -15606,15 +15755,15 @@
       </c>
       <c r="AA135" s="8"/>
       <c r="AB135">
-        <f>COUNTIF(R135:T135, "yes")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC135">
-        <f>COUNTIF(U135:W135, "yes")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AD135">
-        <f>COUNTIF(X135:Z135, "yes")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AE135" t="s">
@@ -15628,7 +15777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:34" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>620</v>
       </c>
@@ -15699,15 +15848,15 @@
         <v>98</v>
       </c>
       <c r="AB136">
-        <f>COUNTIF(R136:T136, "yes")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AC136">
-        <f>COUNTIF(U136:W136, "yes")</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD136">
-        <f>COUNTIF(X136:Z136, "yes")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AE136" t="s">
@@ -15721,7 +15870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>628</v>
       </c>
@@ -15786,15 +15935,15 @@
         <v>104</v>
       </c>
       <c r="AB137">
-        <f>COUNTIF(R137:T137, "yes")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC137">
-        <f>COUNTIF(U137:W137, "yes")</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD137">
-        <f>COUNTIF(X137:Z137, "yes")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE137" t="s">
@@ -15807,7 +15956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>632</v>
       </c>
@@ -15870,15 +16019,15 @@
         <v>98</v>
       </c>
       <c r="AB138">
-        <f>COUNTIF(R138:T138, "yes")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC138">
-        <f>COUNTIF(U138:W138, "yes")</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD138">
-        <f>COUNTIF(X138:Z138, "yes")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE138" t="s">
@@ -15891,7 +16040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>605</v>
       </c>
@@ -15956,15 +16105,15 @@
         <v>104</v>
       </c>
       <c r="AB139">
-        <f>COUNTIF(R139:T139, "yes")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC139">
-        <f>COUNTIF(U139:W139, "yes")</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AD139">
-        <f>COUNTIF(X139:Z139, "yes")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AE139" t="s">
@@ -15977,7 +16126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:34" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>624</v>
       </c>
@@ -16048,15 +16197,15 @@
         <v>98</v>
       </c>
       <c r="AB140">
-        <f>COUNTIF(R140:T140, "yes")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AC140">
-        <f>COUNTIF(U140:W140, "yes")</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD140">
-        <f>COUNTIF(X140:Z140, "yes")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE140" t="s">
@@ -16333,151 +16482,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6A62F-F708-4237-968B-A43D72E1AFD7}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -16496,6 +16645,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -16699,26 +16867,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16736,24 +16903,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/a_akbarieh_tue_nl/Documents/Pictures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7F8D0847-A4D5-4BFA-BA6D-F8E91FF0BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB55E4E-9203-490A-A76C-CEB09DE06C1D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7F8D0847-A4D5-4BFA-BA6D-F8E91FF0BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD224530-F9D6-4B4D-899F-6D42418D2C29}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="911">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -2240,9 +2240,6 @@
     <t>jup</t>
   </si>
   <si>
-    <t>Architecture, Engineering, Construction, Compliance Checking and Permitting Ontology (AEC3PO)</t>
-  </si>
-  <si>
     <t>aec3po</t>
   </si>
   <si>
@@ -3006,6 +3003,9 @@
   </si>
   <si>
     <t>Documentation &amp; Reuse</t>
+  </si>
+  <si>
+    <t>Architecture, Engineering, Construction, Compliance Checking and Permitting Ontology</t>
   </si>
 </sst>
 </file>
@@ -3281,10 +3281,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH140" totalsRowShown="0">
   <autoFilter ref="A1:AH140" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}">
-    <filterColumn colId="5">
+    <filterColumn colId="10">
       <filters>
-        <filter val="Fire Safety"/>
-        <filter val="Safety"/>
+        <filter val="n/d"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3724,16 +3723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
   <dimension ref="A1:AH140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="1" max="1" width="126.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
@@ -3797,13 +3796,13 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O1" t="s">
         <v>32</v>
@@ -3839,19 +3838,19 @@
         <v>42</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AA1" t="s">
         <v>43</v>
       </c>
       <c r="AB1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AC1" t="s">
         <v>44</v>
       </c>
       <c r="AD1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AE1" t="s">
         <v>45</v>
@@ -3863,10 +3862,10 @@
         <v>47</v>
       </c>
       <c r="AH1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>609</v>
       </c>
@@ -3955,12 +3954,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B3" t="s">
         <v>655</v>
-      </c>
-      <c r="B3" t="s">
-        <v>656</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>71</v>
@@ -3975,19 +3974,19 @@
         <v>71</v>
       </c>
       <c r="M3" t="s">
+        <v>656</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>660</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>58</v>
@@ -4039,7 +4038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4062,16 +4061,16 @@
         <v>66</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>58</v>
@@ -4125,7 +4124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>71</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>58</v>
@@ -4220,7 +4219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>363</v>
       </c>
       <c r="M6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>364</v>
@@ -4261,7 +4260,7 @@
         <v>366</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>58</v>
@@ -4318,7 +4317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>71</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>58</v>
@@ -4410,7 +4409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>71</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>58</v>
@@ -4505,7 +4504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>383</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>71</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>58</v>
@@ -4953,7 +4952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>407</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>58</v>
@@ -5042,7 +5041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>416</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>71</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>58</v>
@@ -5223,7 +5222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>468</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>472</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>58</v>
@@ -5312,7 +5311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>502</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>577</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>420</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
@@ -5490,7 +5489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>634</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>639</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
@@ -5582,7 +5581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>146</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>71</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>58</v>
@@ -5766,7 +5765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>71</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>58</v>
@@ -5852,7 +5851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>651</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>58</v>
@@ -6035,10 +6034,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>660</v>
+      </c>
+      <c r="B26" t="s">
         <v>661</v>
-      </c>
-      <c r="B26" t="s">
-        <v>662</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -6050,19 +6049,19 @@
         <v>71</v>
       </c>
       <c r="M26" t="s">
+        <v>662</v>
+      </c>
+      <c r="N26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="N26" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="20" t="s">
         <v>665</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>666</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>58</v>
@@ -6114,7 +6113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>71</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>58</v>
@@ -6206,7 +6205,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>71</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>58</v>
@@ -6387,12 +6386,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="C30" s="17">
         <v>1.1200000000000001</v>
@@ -6407,7 +6406,7 @@
         <v>71</v>
       </c>
       <c r="M30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>612</v>
@@ -6465,7 +6464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>327</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>58</v>
@@ -6557,7 +6556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>179</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>458</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>340</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>58</v>
@@ -6925,7 +6924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>393</v>
       </c>
@@ -6960,7 +6959,7 @@
         <v>398</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>58</v>
@@ -7014,7 +7013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>478</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>484</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>58</v>
@@ -7103,7 +7102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>485</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>490</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>58</v>
@@ -7192,7 +7191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>509</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>514</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>58</v>
@@ -7316,7 +7315,7 @@
         <v>551</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>58</v>
@@ -7370,7 +7369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -7462,12 +7461,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>121</v>
@@ -7482,16 +7481,16 @@
         <v>189</v>
       </c>
       <c r="M42" t="s">
+        <v>717</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="P42" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="Q42" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>58</v>
@@ -7543,12 +7542,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>817</v>
+      </c>
+      <c r="B43" t="s">
         <v>818</v>
-      </c>
-      <c r="B43" t="s">
-        <v>819</v>
       </c>
       <c r="C43" s="17">
         <v>0.2</v>
@@ -7563,19 +7562,19 @@
         <v>52</v>
       </c>
       <c r="M43" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>820</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>821</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>58</v>
@@ -7621,15 +7620,15 @@
         <v>58</v>
       </c>
       <c r="AF43" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>71</v>
@@ -7644,19 +7643,19 @@
         <v>71</v>
       </c>
       <c r="M44" t="s">
+        <v>721</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="N44" t="s">
-        <v>71</v>
-      </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>725</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>58</v>
@@ -7708,7 +7707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -7791,12 +7790,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>812</v>
+      </c>
+      <c r="B46" t="s">
         <v>813</v>
-      </c>
-      <c r="B46" t="s">
-        <v>814</v>
       </c>
       <c r="C46" s="17">
         <v>0.2</v>
@@ -7811,19 +7810,19 @@
         <v>52</v>
       </c>
       <c r="M46" t="s">
+        <v>814</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>817</v>
-      </c>
       <c r="P46" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>58</v>
@@ -7869,10 +7868,10 @@
         <v>58</v>
       </c>
       <c r="AF46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>186</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>58</v>
@@ -7958,12 +7957,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B48" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C48" s="17">
         <v>0.2</v>
@@ -7978,19 +7977,19 @@
         <v>52</v>
       </c>
       <c r="M48" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>58</v>
@@ -8036,10 +8035,10 @@
         <v>58</v>
       </c>
       <c r="AF48" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>271</v>
       </c>
@@ -8131,7 +8130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>285</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>289</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>58</v>
@@ -8223,7 +8222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>296</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>279</v>
       </c>
@@ -8347,7 +8346,7 @@
         <v>284</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>58</v>
@@ -8401,12 +8400,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>853</v>
+      </c>
+      <c r="B53" t="s">
         <v>854</v>
-      </c>
-      <c r="B53" t="s">
-        <v>855</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>71</v>
@@ -8424,10 +8423,10 @@
         <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>71</v>
@@ -8485,7 +8484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>195</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>197</v>
       </c>
       <c r="M54" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N54" t="s">
         <v>71</v>
@@ -8520,7 +8519,7 @@
         <v>71</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R54" s="9" t="s">
         <v>58</v>
@@ -8574,7 +8573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>52</v>
       </c>
       <c r="M55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>205</v>
@@ -8663,7 +8662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>189</v>
       </c>
       <c r="M56" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>212</v>
@@ -8749,7 +8748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>228</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R57" s="9" t="s">
         <v>58</v>
@@ -8838,7 +8837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>234</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>58</v>
@@ -9019,7 +9018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>199</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>71</v>
       </c>
       <c r="M60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>201</v>
@@ -9046,7 +9045,7 @@
         <v>71</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R60" s="9" t="s">
         <v>58</v>
@@ -9100,7 +9099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>234</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R61" s="9" t="s">
         <v>58</v>
@@ -9192,7 +9191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>242</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>247</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R62" s="9" t="s">
         <v>58</v>
@@ -9281,7 +9280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -9319,7 +9318,7 @@
         <v>253</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R63" s="9" t="s">
         <v>58</v>
@@ -9373,7 +9372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>260</v>
       </c>
@@ -9472,6 +9471,9 @@
       <c r="F65" t="s">
         <v>14</v>
       </c>
+      <c r="K65" t="s">
+        <v>71</v>
+      </c>
       <c r="N65" s="1" t="s">
         <v>262</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>71</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>58</v>
@@ -9534,7 +9536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>263</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>71</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>58</v>
@@ -9615,7 +9617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>307</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>58</v>
@@ -9793,7 +9795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>427</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>651</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>58</v>
@@ -9882,12 +9884,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>796</v>
+      </c>
+      <c r="B70" t="s">
         <v>797</v>
-      </c>
-      <c r="B70" t="s">
-        <v>798</v>
       </c>
       <c r="C70" s="17">
         <v>0.2</v>
@@ -9902,19 +9904,19 @@
         <v>189</v>
       </c>
       <c r="M70" t="s">
+        <v>803</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="Q70" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>807</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>58</v>
@@ -9963,7 +9965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>295</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R71" s="9" t="s">
         <v>58</v>
@@ -10055,7 +10057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>314</v>
       </c>
@@ -10087,7 +10089,7 @@
         <v>71</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R72" s="9" t="s">
         <v>58</v>
@@ -10141,12 +10143,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B73" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>71</v>
@@ -10164,22 +10166,22 @@
         <v>71</v>
       </c>
       <c r="L73" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M73" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>327</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R73" s="9" t="s">
         <v>58</v>
@@ -10225,18 +10227,18 @@
         <v>58</v>
       </c>
       <c r="AF73" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AH73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B74" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>71</v>
@@ -10254,22 +10256,22 @@
         <v>71</v>
       </c>
       <c r="L74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M74" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>327</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>58</v>
@@ -10315,13 +10317,13 @@
         <v>58</v>
       </c>
       <c r="AF74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AH74" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>614</v>
       </c>
@@ -10407,7 +10409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>308</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>328</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>71</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R77" s="9" t="s">
         <v>58</v>
@@ -10585,7 +10587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>640</v>
       </c>
@@ -10677,7 +10679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>359</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>58</v>
@@ -10801,7 +10803,7 @@
         <v>131</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>58</v>
@@ -10890,7 +10892,7 @@
         <v>71</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R81" s="9" t="s">
         <v>58</v>
@@ -10946,13 +10948,13 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B82" t="s">
-        <v>904</v>
+        <v>71</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>904</v>
+        <v>71</v>
       </c>
       <c r="D82">
         <v>2010</v>
@@ -10964,22 +10966,22 @@
         <v>10</v>
       </c>
       <c r="K82" t="s">
+        <v>903</v>
+      </c>
+      <c r="M82" t="s">
         <v>904</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
+        <v>71</v>
+      </c>
+      <c r="O82" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="N82" t="s">
-        <v>71</v>
-      </c>
-      <c r="O82" s="4" t="s">
+      <c r="P82" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q82" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="P82" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>58</v>
@@ -11024,12 +11026,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B83" t="s">
         <v>667</v>
-      </c>
-      <c r="B83" t="s">
-        <v>668</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>105</v>
@@ -11047,19 +11049,19 @@
         <v>52</v>
       </c>
       <c r="M83" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N83" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>131</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>58</v>
@@ -11111,12 +11113,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B84" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C84" s="17">
         <v>1.1000000000000001</v>
@@ -11128,16 +11130,16 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L84" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N84" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="Q84" s="20"/>
       <c r="R84" s="9" t="s">
@@ -11187,7 +11189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>645</v>
       </c>
@@ -11274,12 +11276,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>846</v>
+      </c>
+      <c r="B86" t="s">
         <v>847</v>
-      </c>
-      <c r="B86" t="s">
-        <v>848</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>71</v>
@@ -11297,10 +11299,10 @@
         <v>71</v>
       </c>
       <c r="M86" t="s">
+        <v>850</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>71</v>
@@ -11358,12 +11360,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B87" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>71</v>
@@ -11381,10 +11383,10 @@
         <v>71</v>
       </c>
       <c r="M87" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>71</v>
@@ -11442,12 +11444,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B88" t="s">
         <v>684</v>
-      </c>
-      <c r="B88" t="s">
-        <v>685</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>71</v>
@@ -11462,19 +11464,19 @@
         <v>71</v>
       </c>
       <c r="M88" t="s">
+        <v>685</v>
+      </c>
+      <c r="N88" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="P88" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="N88" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="P88" s="3" t="s">
+      <c r="Q88" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>688</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>58</v>
@@ -11526,7 +11528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -11624,7 +11626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>464</v>
       </c>
@@ -11710,7 +11712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>367</v>
       </c>
@@ -11745,7 +11747,7 @@
         <v>652</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R91" s="9" t="s">
         <v>58</v>
@@ -11799,7 +11801,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>379</v>
       </c>
@@ -11831,7 +11833,7 @@
         <v>71</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R92" s="9" t="s">
         <v>58</v>
@@ -11885,7 +11887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>388</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>392</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R93" s="9" t="s">
         <v>58</v>
@@ -11971,7 +11973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>399</v>
       </c>
@@ -11994,7 +11996,7 @@
         <v>402</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R94" s="9" t="s">
         <v>58</v>
@@ -12048,7 +12050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>408</v>
       </c>
@@ -12086,7 +12088,7 @@
         <v>71</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R95" s="9" t="s">
         <v>58</v>
@@ -12140,7 +12142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>412</v>
       </c>
@@ -12175,7 +12177,7 @@
         <v>71</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R96" s="9" t="s">
         <v>58</v>
@@ -12229,7 +12231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>431</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>422</v>
       </c>
@@ -12353,7 +12355,7 @@
         <v>71</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>58</v>
@@ -12407,12 +12409,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>705</v>
+      </c>
+      <c r="B99" t="s">
         <v>706</v>
-      </c>
-      <c r="B99" t="s">
-        <v>707</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>71</v>
@@ -12430,22 +12432,22 @@
         <v>71</v>
       </c>
       <c r="L99" t="s">
+        <v>711</v>
+      </c>
+      <c r="M99" t="s">
+        <v>713</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q99" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="M99" t="s">
-        <v>714</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="P99" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q99" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="R99" s="9" t="s">
         <v>58</v>
@@ -12491,18 +12493,18 @@
         <v>58</v>
       </c>
       <c r="AF99" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AH99" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B100" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>71</v>
@@ -12520,22 +12522,22 @@
         <v>71</v>
       </c>
       <c r="L100" t="s">
+        <v>711</v>
+      </c>
+      <c r="M100" t="s">
+        <v>714</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q100" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="M100" t="s">
-        <v>715</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>713</v>
       </c>
       <c r="R100" s="9" t="s">
         <v>58</v>
@@ -12581,13 +12583,13 @@
         <v>58</v>
       </c>
       <c r="AF100" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AH100" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>441</v>
       </c>
@@ -12622,7 +12624,7 @@
         <v>71</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>58</v>
@@ -12676,7 +12678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>452</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>437</v>
       </c>
@@ -12797,7 +12799,7 @@
         <v>131</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>58</v>
@@ -12851,12 +12853,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B104" t="s">
         <v>678</v>
-      </c>
-      <c r="B104" t="s">
-        <v>679</v>
       </c>
       <c r="C104" s="17">
         <v>1</v>
@@ -12871,19 +12873,19 @@
         <v>65</v>
       </c>
       <c r="M104" t="s">
+        <v>679</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="O104" s="1" t="s">
+      <c r="P104" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="P104" s="3" t="s">
-        <v>683</v>
-      </c>
       <c r="Q104" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>58</v>
@@ -12935,7 +12937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>447</v>
       </c>
@@ -12970,7 +12972,7 @@
         <v>451</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R105" s="9" t="s">
         <v>58</v>
@@ -13024,7 +13026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>473</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>274</v>
       </c>
@@ -13142,7 +13144,7 @@
         <v>278</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R107" s="9" t="s">
         <v>58</v>
@@ -13196,7 +13198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>653</v>
       </c>
@@ -13213,16 +13215,16 @@
         <v>12</v>
       </c>
       <c r="K108" t="s">
+        <v>793</v>
+      </c>
+      <c r="M108" t="s">
         <v>794</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>796</v>
-      </c>
       <c r="O108" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q108" s="20"/>
       <c r="Z108" s="18"/>
@@ -13246,7 +13248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>573</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>491</v>
       </c>
@@ -13352,7 +13354,7 @@
         <v>474</v>
       </c>
       <c r="F110" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K110" t="s">
         <v>493</v>
@@ -13422,12 +13424,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>829</v>
+      </c>
+      <c r="B111" t="s">
         <v>830</v>
-      </c>
-      <c r="B111" t="s">
-        <v>831</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>316</v>
@@ -13442,19 +13444,19 @@
         <v>189</v>
       </c>
       <c r="M111" t="s">
+        <v>831</v>
+      </c>
+      <c r="N111" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="O111" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="O111" s="1" t="s">
+      <c r="P111" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q111" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q111" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>58</v>
@@ -13497,7 +13499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>498</v>
       </c>
@@ -13586,7 +13588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>596</v>
       </c>
@@ -13675,7 +13677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>588</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>591</v>
       </c>
@@ -13850,7 +13852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>568</v>
       </c>
@@ -13888,7 +13890,7 @@
         <v>572</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R116" s="9" t="s">
         <v>58</v>
@@ -13934,15 +13936,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>879</v>
+      </c>
+      <c r="B117" t="s">
         <v>880</v>
       </c>
-      <c r="B117" t="s">
-        <v>881</v>
-      </c>
       <c r="C117" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D117">
         <v>2025</v>
@@ -13951,25 +13953,25 @@
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K117" t="s">
         <v>149</v>
       </c>
       <c r="M117" t="s">
+        <v>881</v>
+      </c>
+      <c r="N117" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="N117" s="4" t="s">
+      <c r="O117" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="P117" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="O117" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="P117" s="3" t="s">
+      <c r="Q117" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="Q117" s="3" t="s">
-        <v>885</v>
       </c>
       <c r="R117" s="9" t="s">
         <v>58</v>
@@ -14017,15 +14019,15 @@
         <v>520</v>
       </c>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B118" t="s">
         <v>515</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D118">
         <v>2025</v>
@@ -14058,7 +14060,7 @@
         <v>519</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="R118" s="9" t="s">
         <v>58</v>
@@ -14112,7 +14114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>558</v>
       </c>
@@ -14120,7 +14122,7 @@
         <v>519</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D119">
         <v>2024</v>
@@ -14147,7 +14149,7 @@
         <v>539</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R119" s="9" t="s">
         <v>58</v>
@@ -14201,15 +14203,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>885</v>
+      </c>
+      <c r="B120" t="s">
         <v>886</v>
       </c>
-      <c r="B120" t="s">
-        <v>887</v>
-      </c>
       <c r="C120" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D120">
         <v>2025</v>
@@ -14221,19 +14223,19 @@
         <v>149</v>
       </c>
       <c r="M120" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="N120" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="P120" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="O120" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="P120" s="3" t="s">
+      <c r="Q120" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="Q120" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="R120" s="9" t="s">
         <v>58</v>
@@ -14281,15 +14283,15 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B121" t="s">
         <v>525</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D121">
         <v>2025</v>
@@ -14319,7 +14321,7 @@
         <v>519</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R121" s="9" t="s">
         <v>58</v>
@@ -14373,15 +14375,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B122" t="s">
         <v>528</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D122">
         <v>2025</v>
@@ -14411,7 +14413,7 @@
         <v>519</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R122" s="9" t="s">
         <v>58</v>
@@ -14465,15 +14467,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>890</v>
+      </c>
+      <c r="B123" t="s">
         <v>891</v>
       </c>
-      <c r="B123" t="s">
-        <v>892</v>
-      </c>
       <c r="C123" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D123">
         <v>2025</v>
@@ -14482,25 +14484,25 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K123" t="s">
         <v>149</v>
       </c>
       <c r="M123" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>519</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="R123" s="9" t="s">
         <v>58</v>
@@ -14548,15 +14550,15 @@
         <v>520</v>
       </c>
     </row>
-    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B124" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D124">
         <v>2025</v>
@@ -14568,19 +14570,19 @@
         <v>149</v>
       </c>
       <c r="M124" t="s">
+        <v>874</v>
+      </c>
+      <c r="N124" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="N124" s="4" t="s">
+      <c r="O124" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="O124" s="4" t="s">
+      <c r="P124" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="P124" s="3" t="s">
+      <c r="Q124" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="Q124" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="R124" s="9" t="s">
         <v>58</v>
@@ -14628,15 +14630,15 @@
         <v>520</v>
       </c>
     </row>
-    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B125" t="s">
         <v>521</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D125">
         <v>2025</v>
@@ -14666,7 +14668,7 @@
         <v>519</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R125" s="9" t="s">
         <v>58</v>
@@ -14720,15 +14722,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B126" t="s">
         <v>532</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D126">
         <v>2025</v>
@@ -14758,7 +14760,7 @@
         <v>519</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>58</v>
@@ -14812,15 +14814,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B127" t="s">
         <v>535</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D127">
         <v>2025</v>
@@ -14850,7 +14852,7 @@
         <v>538</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="R127" s="9" t="s">
         <v>58</v>
@@ -14904,9 +14906,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B128" t="s">
         <v>539</v>
@@ -14939,7 +14941,7 @@
         <v>71</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R128" s="9" t="s">
         <v>58</v>
@@ -14993,15 +14995,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B129" t="s">
         <v>542</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D129">
         <v>2025</v>
@@ -15028,10 +15030,10 @@
         <v>545</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R129" s="9" t="s">
         <v>58</v>
@@ -15085,15 +15087,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>896</v>
+      </c>
+      <c r="B130" t="s">
         <v>897</v>
       </c>
-      <c r="B130" t="s">
-        <v>898</v>
-      </c>
       <c r="C130" s="26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D130">
         <v>2025</v>
@@ -15105,19 +15107,19 @@
         <v>149</v>
       </c>
       <c r="M130" t="s">
+        <v>898</v>
+      </c>
+      <c r="N130" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="N130" s="4" t="s">
+      <c r="O130" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="P130" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="O130" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="P130" s="3" t="s">
+      <c r="Q130" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="Q130" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="R130" s="9" t="s">
         <v>58</v>
@@ -15203,7 +15205,7 @@
         <v>567</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R131" s="9" t="s">
         <v>58</v>
@@ -15257,7 +15259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>581</v>
       </c>
@@ -15292,7 +15294,7 @@
         <v>71</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>58</v>
@@ -15346,7 +15348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>584</v>
       </c>
@@ -15435,7 +15437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>552</v>
       </c>
@@ -15523,10 +15525,10 @@
     </row>
     <row r="135" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B135" t="s">
         <v>671</v>
-      </c>
-      <c r="B135" t="s">
-        <v>672</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>71</v>
@@ -15547,19 +15549,19 @@
       </c>
       <c r="L135"/>
       <c r="M135" t="s">
+        <v>672</v>
+      </c>
+      <c r="N135" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="O135" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="O135" s="1" t="s">
+      <c r="P135" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="P135" s="3" t="s">
+      <c r="Q135" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="Q135" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="R135" s="9" t="s">
         <v>58</v>
@@ -15612,7 +15614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:34" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>618</v>
       </c>
@@ -15705,7 +15707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>626</v>
       </c>
@@ -15791,7 +15793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>630</v>
       </c>
@@ -15875,7 +15877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>603</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:34" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>622</v>
       </c>
@@ -16328,12 +16330,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -16398,7 +16400,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -16408,7 +16410,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -16418,7 +16420,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -16438,7 +16440,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -16453,7 +16455,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -16480,25 +16482,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ca410b711d7e1dbb3b8812b94cae59a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5d67c1cae84893d945a781f540d5af9" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -16702,25 +16685,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3977A69D-27CD-4AC0-B4CF-1D599E9E2EF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16738,6 +16722,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac.sharepoint.com/sites/EC3-1.ModellingandStandards/Shared Documents/1. Modelling and Standards/Material/Project D_Ontologies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7F8D0847-A4D5-4BFA-BA6D-F8E91FF0BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED8B562-A7C5-461C-A17A-7209D92E1A4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D38FB38-956F-4470-B5D4-20051938C6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="-20832" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="922">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -1204,9 +1204,6 @@
     <t>CC BY</t>
   </si>
   <si>
-    <t>The EEPSA (Energy Efficiency Prediction Semantic Assistant) ontology puts together all the ontology modules and ODPs that form the EEPSA Ontology.</t>
-  </si>
-  <si>
     <t>https://iesnaola.github.io/eepsa/EEPSA/index-en.html</t>
   </si>
   <si>
@@ -1225,9 +1222,6 @@
     <t>CB BY 4.0</t>
   </si>
   <si>
-    <t>standard representational ontology framework based on current materials modelling and characterization knowledge</t>
-  </si>
-  <si>
     <t>http://emmo.info/emmo</t>
   </si>
   <si>
@@ -1267,9 +1261,6 @@
     <t xml:space="preserve"> ISO 3166-2</t>
   </si>
   <si>
-    <t>provides utility elements for describing building materials and respective offerings from the Eurobau semantic dataspace</t>
-  </si>
-  <si>
     <t>http://semantic.eurobau.com/</t>
   </si>
   <si>
@@ -1309,9 +1300,6 @@
     <t xml:space="preserve">CC BY NC 4.0 </t>
   </si>
   <si>
-    <t>An ontology defines building and environmental data needed by firefighters during a building fire emergency</t>
-  </si>
-  <si>
     <t>https://purl.org/ffdr-ontology</t>
   </si>
   <si>
@@ -1396,9 +1384,6 @@
     <t>Recommended not to use</t>
   </si>
   <si>
-    <t>Representation of the IFC schema via OWL</t>
-  </si>
-  <si>
     <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD2_TC1/OWL</t>
   </si>
   <si>
@@ -1438,9 +1423,6 @@
     <t>Internet of Construction Process Ontology</t>
   </si>
   <si>
-    <t>top-level ontology for describing processes and process-data in the domain of construction.</t>
-  </si>
-  <si>
     <t>http://w3id.org/ioc</t>
   </si>
   <si>
@@ -1504,9 +1486,6 @@
     <t>LCA</t>
   </si>
   <si>
-    <t>An ontology for LCA/LCC assessments in renovation projects</t>
-  </si>
-  <si>
     <t>Level of Information Needs Ontology</t>
   </si>
   <si>
@@ -1603,9 +1582,6 @@
     <t>Occupant Feedback</t>
   </si>
   <si>
-    <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
-  </si>
-  <si>
     <t>https://w3id.org/ofo#</t>
   </si>
   <si>
@@ -1639,10 +1615,6 @@
     <t>TS-0012</t>
   </si>
   <si>
-    <t xml:space="preserve">Syntactic and semantic interoperability of the
-oneM2M System with external systems. </t>
-  </si>
-  <si>
     <t>https://git.onem2m.org/MAS/BaseOntology/-/blob/master/base_ontology.owl</t>
   </si>
   <si>
@@ -1670,9 +1642,6 @@
     <t>ontonav</t>
   </si>
   <si>
-    <t>The path searching and the presentation tasks of an indoor navigation system</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/237021171_OntoNav_A_Semantic_Indoor_Navigation_System</t>
   </si>
   <si>
@@ -1754,9 +1723,6 @@
     <t>BSD 3-Clause License</t>
   </si>
   <si>
-    <t>RealEstateCore is a common language that enable control over buildings and development of new services. RealEstateCore is a domain ontology preparing buildings to interact with the Smart City.</t>
-  </si>
-  <si>
     <t>https://github.com/RealEstateCore/rec</t>
   </si>
   <si>
@@ -1775,9 +1741,6 @@
     <t>Building Renovation</t>
   </si>
   <si>
-    <t>An ontology for installation of components in building renovation projects</t>
-  </si>
-  <si>
     <t>BIMERR Renovation Process Ontology</t>
   </si>
   <si>
@@ -1823,9 +1786,6 @@
     <t xml:space="preserve">ISO 16739 </t>
   </si>
   <si>
-    <t>Extension of SAREF for the building domain based on the ISO 16739 standard (IFC).</t>
-  </si>
-  <si>
     <t>https://w3id.org/def/saref4bldg</t>
   </si>
   <si>
@@ -1841,18 +1801,12 @@
     <t>1.1.2</t>
   </si>
   <si>
-    <t>Estension of SAREF for the Smart Cities domain</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/s4city/</t>
   </si>
   <si>
     <t>s4ener</t>
   </si>
   <si>
-    <t>Extension of SAREF to enable the interconnection of (different) data models.</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/s4ener/</t>
   </si>
   <si>
@@ -1862,27 +1816,18 @@
     <t>Lighting</t>
   </si>
   <si>
-    <t>Extension of SAREF for the environment domain (light polution)</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/s4envi/</t>
   </si>
   <si>
     <t>s4grid</t>
   </si>
   <si>
-    <t>Estension of SAREF for the Smart Grid</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/s4grid/</t>
   </si>
   <si>
     <t>s4lift</t>
   </si>
   <si>
-    <t>Estension of SAREF for the Smart Lift</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/s4lift/</t>
   </si>
   <si>
@@ -1904,9 +1849,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Estension of SAREF for the Water domain</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/saref4watr/</t>
   </si>
   <si>
@@ -1982,9 +1924,6 @@
     <t>sbim</t>
   </si>
   <si>
-    <t>The sbim ontology represents data about a two storey building generated through the process of translating of RDF data into the IFC data model.</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/344442780_Facilitating_Information_Exchange_for_3D_Retrofit_Models_of_Existing_Assets_Using_Semantic_Web_Technologies/download</t>
   </si>
   <si>
@@ -1997,9 +1936,6 @@
     <t>sbonto</t>
   </si>
   <si>
-    <t>basic knowledge about a smart building</t>
-  </si>
-  <si>
     <t>http://dx.doi.org/10.17654/EC017051101</t>
   </si>
   <si>
@@ -2087,9 +2023,6 @@
     <t>th-actor</t>
   </si>
   <si>
-    <t>An ontology describing user information and preferences for a Smart Home System. Part of ThinkHome ontologies</t>
-  </si>
-  <si>
     <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/</t>
   </si>
   <si>
@@ -2120,9 +2053,6 @@
     <t>th-energy</t>
   </si>
   <si>
-    <t>An ontology representing energy information for Smart Home Systems. Part of ThinkHome ontologies</t>
-  </si>
-  <si>
     <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/energy-and-resource-information</t>
   </si>
   <si>
@@ -2132,9 +2062,6 @@
     <t>th-process</t>
   </si>
   <si>
-    <t>An ontology representing processes in Smart Home Systems. Part of ThinkHome ontologies</t>
-  </si>
-  <si>
     <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/user-behavior-and-building-process-information</t>
   </si>
   <si>
@@ -2144,9 +2071,6 @@
     <t>th-weather</t>
   </si>
   <si>
-    <t>An ontology representing exterior influences for Smart Home Systems. Part of ThinkHome ontologies</t>
-  </si>
-  <si>
     <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/weather-and-exterior-influence-information</t>
   </si>
   <si>
@@ -2156,9 +2080,6 @@
     <t>uno</t>
   </si>
   <si>
-    <t>Tracking user’s movement on the suggested path and providing with useful information about user location and motion state</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/228579405_Ontology-based_user_modeling_for_pedestrian_navigation_systems</t>
   </si>
   <si>
@@ -2168,9 +2089,6 @@
     <t>upo</t>
   </si>
   <si>
-    <t xml:space="preserve">UPO includes classes that describe different types of user, and other information which is required for classifying users under specific user groups. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.3233/AIS-2009-0033</t>
   </si>
   <si>
@@ -2327,18 +2245,12 @@
     <t>HBPO</t>
   </si>
   <si>
-    <t>HBPO is designed to be unified and generalized building performance ontology as a comprehensive knowledge repository that bridges the gap between building information and performance models and embodies form, function, and behavior. HBPO focuses on acoustic, lighting, and energy domains as subsets to represent a range of sufficiently different domains. It encompasses essential data, relationships, and information requirements within and across these domains.</t>
-  </si>
-  <si>
     <t>mep, beo, bot, mat, ifc4-add2</t>
   </si>
   <si>
     <t>geosparql, express, list</t>
   </si>
   <si>
-    <t>The FSO is an ontology for describing interconnected systems with material or energy flow connections, and their components.</t>
-  </si>
-  <si>
     <t>https://github.com/duyguutkucu/HBPO; https://doi.org/10.1016/j.autcon.2025.106197</t>
   </si>
   <si>
@@ -2354,12 +2266,6 @@
     <t>https://w3id.org/sml/term#</t>
   </si>
   <si>
-    <t>Defines the terms from CEN-EN 17632</t>
-  </si>
-  <si>
-    <t>Defines: 1) RDFS classes and properties related to SKOS terms; 2) OWL class and property types for the definitions in the RDFS file; 3) SHACL shapes for the classes and properties in the RDFS file.</t>
-  </si>
-  <si>
     <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C    https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
   </si>
   <si>
@@ -2819,12 +2725,6 @@
     <t>Green Building Material Type Ontology</t>
   </si>
   <si>
-    <t>material type ontology of interior materials</t>
-  </si>
-  <si>
-    <t>material name ontology of interior materials</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.autcon.2019.01.015</t>
   </si>
   <si>
@@ -2894,9 +2794,6 @@
     <t>Smart Applications Reference - Smart Agriculture and Food Chain</t>
   </si>
   <si>
-    <t>Estension of SAREF for the agriculture and food domain</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/saref4agri/v2.1.1/</t>
   </si>
   <si>
@@ -2915,9 +2812,6 @@
     <t>s4auto</t>
   </si>
   <si>
-    <t>Estension of SAREF for the automotive domain</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/saref4auto/v2.1.1/</t>
   </si>
   <si>
@@ -2948,12 +2842,6 @@
     <t>s4inma</t>
   </si>
   <si>
-    <t>Estension of SAREF for the industry and manufacturing domain</t>
-  </si>
-  <si>
-    <t>Estension of SAREF for eHealth Ageing Well domain</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/saref4inma/v2.1.1/</t>
   </si>
   <si>
@@ -2966,9 +2854,6 @@
     <t>s4wear</t>
   </si>
   <si>
-    <t>Estension of SAREF for the wearables domain</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/saref4wear/v2.1.1/</t>
   </si>
   <si>
@@ -2984,9 +2869,6 @@
     <t>n/d</t>
   </si>
   <si>
-    <t>Describes the concepts of State-Parameters, Events, Hazards, Space and Time in relation to fire-incident description.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.jpdc.2010.06.005</t>
   </si>
   <si>
@@ -3006,6 +2888,160 @@
   </si>
   <si>
     <t>Year Issued</t>
+  </si>
+  <si>
+    <t>Represents steel construction components, profiles, tolerances, and manufacturing processes to enable semantic integration into robotics and automation systems. Supports the DSTV‑NC standard by formalizing process data and quality metrics for steel fabrication workflows.</t>
+  </si>
+  <si>
+    <t>Developed by the European Materials Modelling Council, this ontology provides a physics-informed framework to describe materials—from elementary particles to macroscopic structures—supporting standardized modeling in materials science across scales and disciplines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines the normative RDFS, OWL, and SHACL classes and properties for construction digital data, promoting consistent semantic modeling and validation following CEN/TC 442 standards for interoperability across lifecycle information. </t>
+  </si>
+  <si>
+    <t>Provides a SKOS-based vocabulary of standardized terms aligned with EN 17632, enabling consistent semantic reference for asset, region, and relation concepts, facilitating multilingual and interoperable construction data exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models energy usage and resource flows in smart home systems with versioned OWL ontologies, capturing consumption metrics, device interactions, and resource dependencies to support intelligent energy management. </t>
+  </si>
+  <si>
+    <t>The EEPSA (Energy Efficiency Prediction Semantic Assistant) ontology puts together all the ontology modules and ODPs that form the EEPSA Ontology. It structures semantic guidance for energy efficiency modeling using the Ontology Design Patterns. Supports KDD-driven decision workflows for building performance optimization.</t>
+  </si>
+  <si>
+    <t>Extends GoodRelations to describe material offerings, such as delivery modes and product attributes, within the Eurobau linked‑data ecosystem for building materials and procurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines building and environmental data needed by firefighters during emergencies. Captures spatial layouts, hazard indicators, and operational parameters to improve decision-making and response strategies. The ontology  ontology can be a basis for developing intelligent tools and systems that collect building components and environmental data from different sources. </t>
+  </si>
+  <si>
+    <t>Models concepts of state parameters, events, hazards, and spatiotemporal relationships at the rooms level for fire incident description. Supports distributed simulation and decision support systems by integrating sensor data and predictive models for fire dynamics.</t>
+  </si>
+  <si>
+    <t>Describes interconnected systems with material or energy flows. Represents components, connections, and operational states to enable analysis of building services and energy networks.</t>
+  </si>
+  <si>
+    <t>An OGC standard ontology for representing and querying geospatial data in RDF. Defines classes and properties for geometries, spatial relationships, and topological operations. Enables semantic interoperability across GIS and linked data applications. GeoSPARQL does not define a comprehensive vocabulary for representing spatial information. Instead GeoSPARQL defines a core set of classes, properties and datatypes that can be used to construct query patterns.</t>
+  </si>
+  <si>
+    <t>Provides a controlled vocabulary for naming interior building materials. Supports semantic annotation of material specifications to enable sustainable design and procurement workflows. Facilitates integration with green building certification systems.</t>
+  </si>
+  <si>
+    <t>Defines a structured taxonomy for categorizing interior building materials, facilitating lifecycle analysis and circular economy processes. It supports interoperability between material databases and BIM systems</t>
+  </si>
+  <si>
+    <t>HBPO is designed to be unified and generalized building performance ontology as a comprehensive knowledge repository that bridges the gap between building information and performance models and embodies form, function, and behavior. HBPO focuses on acoustic, lighting, and energy domains as subsets to represent a range of sufficiently different domains. It encompasses essential data, relationships, and information requirements within and across these domains at the building level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translates the IFC schema into OWL to represent BIM data as RDF graphs. Created via EXPRESS‑to‑OWL conversion for semantic interoperability across systems. For further reference, see https://technical.buildingsmart.org/standards/ifc/ifc-schema-specifications/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines semantic models for indoor route guidance, including navigation paths, spatial context, and user motion states. It supports ontology-based pedestrian navigation systems by structuring user profiles, path suggestions, and spatial semantics at the space and element level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models information delivery workflows in building projects, based on ISO 19650 and BPMN. Captures actors, appointments, information containers, requirements, and SHACL validation templates, facilitating semantic compliance and structured data delivery in construction planning. </t>
+  </si>
+  <si>
+    <t>The Infrastructure Topology Ontology (INTO) allows the definition of topologies that represent the infrastructure network and supports the modeling of microtopologies and all macrotopologies at higher abstraction levels as well as additional linking components for connecting the topology with geometry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Internet of Construction Process Ontology (ioc) is a top-level ontology for describing processes and process-data in the domain of construction. It is a ongoing work as part of the research project “Internet of Construction” lead by Prof. Dr. Sigrid Brell-Cokcan. The research is funded by the Federal Ministry of Education and Research of Germany within the indirective on a joint funding initiative in the field of innovation for production, services and labor of tomorrow. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implements standardized property assignments based on ISO 23386. Defines classes like AssignedProperty, Dictionary, and DictionarySubset to describe property references, dictionary structures, and values within data dictionaries for construction objects. </t>
+  </si>
+  <si>
+    <t>Facilitates life‑cycle assessment and life‑cycle costing for renovation projects. Defines physical features, environmental and cost indicators, renovation products, and LCA/LCC workflows to support holistic evaluation of renovation options</t>
+  </si>
+  <si>
+    <t>The Level of Information Need (LOIN) Ontology is defined for specifying information requirements for delivery of data in a buildings' life cycle. The LOIN ontology is based on the standard BS EN 17412-1 (2020). Furthermore, it is extended with vocabulary for connecing Information Delivery Specifications (IDS) and Information containers for linked document delivery (ICDD) as per ISO 21597-1 (2020).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data. Specifies the location of the occupants as in the building spaces. </t>
+  </si>
+  <si>
+    <t>oneM2M (The Global Community That Develops Standards For IoT )'s Base Ontology constitutes a basis framework for specifying the
+semantics of data that are handled in oneM2M. Sub-classes of some of its
+concepts are expected to be defined by other bodies in order to enable
+semantic interworking. In particular interworking with non-oneM2M
+systems (e.g. Area Networks and their devices) should be facilitated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ontology that covers a semantic representation of a building permit authority along with a subprocess of the building permit process called the assignment process. The assignment process describes how and on what basis building applications are assigned to appropriate building officials. </t>
+  </si>
+  <si>
+    <t>basic knowledge about a smart building, at the building level. The notion of the smart building is applied to any building equipped with computer and communication technology, which can automatically respond to internal or external stimuli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RealEstateCore is a common language that enable control over buildings and development of new services. RealEstateCore is a domain ontology preparing buildings to interact with the Smart City. It bridges existing standards and find the common denominators at the space and asset level. </t>
+  </si>
+  <si>
+    <t>The Reno-Inst ontology was developed to represent concepts related to the installation of renovation elements in order to support the planning and scheduling of construction activities in residential building renovation projects. The ontology covers the installation of windows, ETICS panels, and radiators, which are common renovation elements. Other elements could be easily included. The ontology includes information on physical features, general installation procedures, constraints that should be considered, and additional elements such as workforce, time, and tools requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A framework called ‘scan-to-graph’ (STG) is proposed to integrate the concepts of scan-to-BIM with Semantic Web technologies, as these could provide answers to the above-mentioned challenges, most notably on documentation of uncertainties, sources and modelling decisions, element classification and cross-discipline information linking. </t>
+  </si>
+  <si>
+    <t>The Semantic Sensor Network (SSN) ontology is an ontology for describing sensors and their observations, the involved procedures, the studied features of interest, the samples used to do so, and the observed properties, as well as actuators. SSN follows a horizontal and vertical modularization architecture by including a lightweight but self-contained core ontology called SOSA (Sensor, Observation, Sample, and Actuator) for its elementary classes and properties. With their different scope and different degrees of axiomatization, SSN and SOSA are able to support a wide range of applications and use cases, including satellite imagery, large-scale scientific monitoring, industrial and household infrastructures, social sensing, citizen science, observation-driven ontology engineering, and the Web of Things. Both ontologies are described below, and examples of their usage are given.</t>
+  </si>
+  <si>
+    <t>The sbim ontology represents data about building elements of a two storey building generated through the process of translating of RDF data into the IFC data model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estension of SAREF for the automotive domain. For all the entities described in the technical specification ETSI TS 103 410-7, it is indicated whether they are defined in the SAREF4AUTO extension or elsewhere by the prefix included before their identifier, i.e. if the element is defined in SAREF4AUTO, the prefix is s4auto, while if the element is reused from another ontology, it is indicated by a prefix according to the Namespace Declarations section. </t>
+  </si>
+  <si>
+    <t>Extension of SAREF for the building domain based on the ISO 16739 standard (IFC). SAREF4BLDG is meant to enable the (currently missing) interoperability among various actors (architects, engineers, consultants, contractors, and product component manufacturers, among others) and applications managing building information involved in the different phases of the building life cycle (Planning and Design, Construction, Commissioning, Operation, Retrofitting/Refurbishment/Reconfiguration, and Demolition/Recycling). By using SAREF4BLDG, smart appliances from manufacturers that support the IFC data model will easily communicate with each other. Towards this aim, SAREF4BLDG should be used to annotate (or generate) neutral device descriptions to be shared among various stakeholders.</t>
+  </si>
+  <si>
+    <t>Estension of SAREF for eHealth Ageing Well domain. It has the following modules: HealthActor module that models eHealth system actors, i.e. caregivers, patients, users, helpers and responsibility parties; Ban module that models Body Area Networks or BANs; HealthDevice module that models health devices, e.g. sensors and actuators; FunctionalDevice module that models functional devices: Those devices are non-purely eHealth/ageing-well devices that can be used for modelling/detecting activities or behaviours of patients/users, like for example beacons that can detect indoor positioning of a patient in a house; Function module that models observation and actuation functions (via the Command class), as well as observations.</t>
+  </si>
+  <si>
+    <t>Extension of SAREF to enable the interconnection of (different) data models. Extends SAREF to model demand-response scenarios for smart homes. Defines classes for flexibility in energy loads, control events, device states, and slots, enabling semantic interconnection of appliances and energy management systems. Complies with ETSI TS 103 410‑1 and CENELEC standards</t>
+  </si>
+  <si>
+    <t>Extension of SAREF for the environment domain (light polution). Enhances SAREF with environmental and light pollution concepts. Introduces classes for photometers, light properties, measurement interfaces, and communication protocols. Built per ETSI TS 103 410‑2 with expert input from the STARS4ALL project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estension of SAREF for the industry and manufacturing domain. Models industry and manufacturing domain aspects within SAREF. Defines categories for production equipment, materials, deployments, and processes. Supports traceability of factory items and aligns with RAMI 4.0 standards, as specified in ETSI TS 103 410‑5. </t>
+  </si>
+  <si>
+    <t>Estension of SAREF for the agriculture and food domain. Extends SAREF for agriculture with classes for sensors, platforms, crop yield, livestock, and irrigation. Aligned with SSN, SOSA, GeoSPARQL, ICAR, Plant Ontology, and AEF. Defined in ETSI TS 103 410‑6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estension of SAREF for the Smart Cities domain. Adds urban concepts to SAREF including event, public service, KPI, city object, spatial area, and measurement. Captures smart city use cases like eHealth, parking, street lighting, mobility, and air quality, per ETSI TS 103 410‑4. </t>
+  </si>
+  <si>
+    <t>Estension of SAREF for the Smart Grid. Models smart grid entities such as meters, network interfaces, activity calendars, firmware, schedules, breaker states, and actions. Designed for grid management, demand control, and remote meter interaction under ETSI TS 103 410‑12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estension of SAREF for the Smart Lift. Introduces concepts for elevators including systems, connections, alarms, sensors, and maintenance states. Represents lift domain scenarios based on industrial use cases, formalized in ETSI TS 103 410‑11. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estension of SAREF for the Water domain. Extends SAREF with water-system semantics, defining tariffs, water use, infrastructure assets, devices, meters, and environmental features like aquifers and channels. Based on ETSI TS 103 410‑10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estension of SAREF for the wearables domain. Defines wearable device and sensor concepts, including user health monitoring and event detection. Built modularly for healthcare, open-air events, and indoor tracking, as per ETSI TS 103 410‑9. </t>
+  </si>
+  <si>
+    <t>A modular OWL ontology modeling energy systems and devices in buildings. It reuses standards and supports extensibility for gas, water, and more. Designed following best practices, it underpins applications using RDF vocabularies and linked infrastructure</t>
+  </si>
+  <si>
+    <t>An ontology assessing reusability of steel beams in audits. It captures material properties, structural conditions, lifecycle data, and reuse criteria, supporting circular construction practices based on literature, interviews, and structured coding</t>
+  </si>
+  <si>
+    <t>An ontology from the ThinkHome project capturing user occupancy parameters and interactions with building systems. It models behavioral patterns and process information to support energy efficiency and adaptive control.</t>
+  </si>
+  <si>
+    <t>An ontology for indoor pedestrian navigation that integrates semantic building structures, spatial context, and user profiles. It supports personalized route selection by combining geospatial data with user capabilities</t>
+  </si>
+  <si>
+    <t>UPO includes classes that describe different types of user, and other information which is required for classifying users under specific user groups. It is a structured OWL ontology defining user profiles with demographic, preference, context, and device information. It standardizes representation for personalization and adaptive systems across domains.</t>
+  </si>
+  <si>
+    <t>An ontology describing user information and preferences for a Smart Home System. Part of ThinkHome ontologies. It is an OWL model representing user comfort preferences within a smart home. It supports multi-value schedules and aligns with energy optimization use cases.</t>
+  </si>
+  <si>
+    <t>An ontology representing exterior influences for Smart Home Systems. Part of ThinkHome ontologies. It captures external weather observations (temperature, humidity, pressure, wind, pollution) tied to spatial locations and time, enabling predictive control in smart home systems.</t>
   </si>
 </sst>
 </file>
@@ -3723,16 +3759,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
   <dimension ref="A1:AH140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
@@ -3744,7 +3780,7 @@
     <col min="10" max="10" width="13.5546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="94.5546875" customWidth="1"/>
     <col min="14" max="14" width="21.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" customWidth="1"/>
     <col min="16" max="16" width="26.5546875" style="3" customWidth="1"/>
@@ -3772,7 +3808,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>910</v>
+        <v>871</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -3796,13 +3832,13 @@
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="M1" t="s">
         <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>906</v>
+        <v>867</v>
       </c>
       <c r="O1" t="s">
         <v>31</v>
@@ -3838,19 +3874,19 @@
         <v>41</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="AA1" t="s">
         <v>42</v>
       </c>
       <c r="AB1" t="s">
-        <v>907</v>
+        <v>868</v>
       </c>
       <c r="AC1" t="s">
         <v>43</v>
       </c>
       <c r="AD1" t="s">
-        <v>908</v>
+        <v>869</v>
       </c>
       <c r="AE1" t="s">
         <v>44</v>
@@ -3862,15 +3898,15 @@
         <v>46</v>
       </c>
       <c r="AH1" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="C2" s="17">
         <v>1.1200000000000001</v>
@@ -3885,16 +3921,16 @@
         <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="N2" t="s">
         <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>70</v>
@@ -3956,10 +3992,10 @@
     </row>
     <row r="3" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>909</v>
+        <v>870</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>70</v>
@@ -3974,19 +4010,19 @@
         <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>57</v>
@@ -4061,16 +4097,16 @@
         <v>65</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>57</v>
@@ -4162,7 +4198,7 @@
         <v>70</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>57</v>
@@ -4221,10 +4257,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>70</v>
@@ -4233,7 +4269,7 @@
         <v>2021</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -4245,22 +4281,22 @@
         <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M6" t="s">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>57</v>
@@ -4352,7 +4388,7 @@
         <v>70</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>57</v>
@@ -4447,7 +4483,7 @@
         <v>70</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>57</v>
@@ -4862,13 +4898,13 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -4883,10 +4919,10 @@
         <v>51</v>
       </c>
       <c r="M13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>54</v>
@@ -4895,7 +4931,7 @@
         <v>70</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>57</v>
@@ -4954,10 +4990,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>160</v>
@@ -4975,19 +5011,19 @@
         <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>57</v>
@@ -5043,10 +5079,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>104</v>
@@ -5064,19 +5100,19 @@
         <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>57</v>
@@ -5165,7 +5201,7 @@
         <v>70</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>57</v>
@@ -5224,10 +5260,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>104</v>
@@ -5245,19 +5281,19 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>57</v>
@@ -5313,13 +5349,13 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D18">
         <v>2020</v>
@@ -5334,19 +5370,19 @@
         <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>57</v>
@@ -5402,13 +5438,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B19" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D19">
         <v>2020</v>
@@ -5423,19 +5459,19 @@
         <v>51</v>
       </c>
       <c r="M19" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>57</v>
@@ -5491,10 +5527,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="B20" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>70</v>
@@ -5503,7 +5539,7 @@
         <v>2020</v>
       </c>
       <c r="E20" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -5512,19 +5548,19 @@
         <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>57</v>
@@ -5711,7 +5747,7 @@
         <v>70</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>57</v>
@@ -5797,7 +5833,7 @@
         <v>70</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>57</v>
@@ -5975,10 +6011,10 @@
         <v>107</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>57</v>
@@ -6034,10 +6070,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="B26" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -6049,19 +6085,19 @@
         <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="N26" t="s">
         <v>70</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>57</v>
@@ -6151,7 +6187,7 @@
         <v>70</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>57</v>
@@ -6332,7 +6368,7 @@
         <v>70</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>57</v>
@@ -6388,10 +6424,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="C30" s="17">
         <v>1.1200000000000001</v>
@@ -6406,10 +6442,10 @@
         <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>70</v>
@@ -6466,13 +6502,13 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>320</v>
-      </c>
-      <c r="B31" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="D31">
         <v>2019</v>
@@ -6484,25 +6520,25 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s">
         <v>51</v>
       </c>
       <c r="M31" t="s">
+        <v>322</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="Q31" s="3" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>57</v>
@@ -6748,19 +6784,19 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
       <c r="E34" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -6769,13 +6805,13 @@
         <v>70</v>
       </c>
       <c r="M34" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="N34" t="s">
         <v>70</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>70</v>
@@ -6837,13 +6873,13 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -6858,19 +6894,19 @@
         <v>51</v>
       </c>
       <c r="M35" t="s">
+        <v>333</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="Q35" s="3" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>57</v>
@@ -6926,13 +6962,13 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -6947,19 +6983,19 @@
         <v>51</v>
       </c>
       <c r="M36" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>57</v>
@@ -7015,19 +7051,19 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B37" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -7036,19 +7072,19 @@
         <v>51</v>
       </c>
       <c r="M37" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>57</v>
@@ -7104,13 +7140,13 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -7125,19 +7161,19 @@
         <v>51</v>
       </c>
       <c r="M38" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>57</v>
@@ -7193,19 +7229,19 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D39">
         <v>2022</v>
       </c>
       <c r="E39" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -7214,19 +7250,19 @@
         <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>57</v>
@@ -7282,13 +7318,13 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B40" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="D40">
         <v>2022</v>
@@ -7303,19 +7339,19 @@
         <v>51</v>
       </c>
       <c r="M40" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>57</v>
@@ -7463,10 +7499,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="B42" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>120</v>
@@ -7481,16 +7517,16 @@
         <v>188</v>
       </c>
       <c r="M42" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>57</v>
@@ -7544,10 +7580,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="B43" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="C43" s="17">
         <v>0.2</v>
@@ -7562,19 +7598,19 @@
         <v>51</v>
       </c>
       <c r="M43" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>57</v>
@@ -7620,15 +7656,15 @@
         <v>57</v>
       </c>
       <c r="AF43" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="B44" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>70</v>
@@ -7643,19 +7679,19 @@
         <v>70</v>
       </c>
       <c r="M44" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="N44" t="s">
         <v>70</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>57</v>
@@ -7792,10 +7828,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="B46" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="C46" s="17">
         <v>0.2</v>
@@ -7810,19 +7846,19 @@
         <v>51</v>
       </c>
       <c r="M46" t="s">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>57</v>
@@ -7868,7 +7904,7 @@
         <v>57</v>
       </c>
       <c r="AF46" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
@@ -7903,7 +7939,7 @@
         <v>185</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>57</v>
@@ -7959,10 +7995,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="B48" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="C48" s="17">
         <v>0.2</v>
@@ -7971,25 +8007,25 @@
         <v>2024</v>
       </c>
       <c r="F48" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="K48" t="s">
         <v>51</v>
       </c>
       <c r="M48" t="s">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>57</v>
@@ -8035,7 +8071,7 @@
         <v>57</v>
       </c>
       <c r="AF48" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.3">
@@ -8168,7 +8204,7 @@
         <v>288</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>57</v>
@@ -8346,7 +8382,7 @@
         <v>283</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>57</v>
@@ -8402,10 +8438,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="B53" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>70</v>
@@ -8423,10 +8459,10 @@
         <v>70</v>
       </c>
       <c r="M53" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>70</v>
@@ -8507,7 +8543,7 @@
         <v>196</v>
       </c>
       <c r="M54" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="N54" t="s">
         <v>70</v>
@@ -8519,7 +8555,7 @@
         <v>70</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="R54" s="9" t="s">
         <v>57</v>
@@ -8596,7 +8632,7 @@
         <v>51</v>
       </c>
       <c r="M55" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>204</v>
@@ -8685,7 +8721,7 @@
         <v>188</v>
       </c>
       <c r="M56" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>211</v>
@@ -8783,7 +8819,7 @@
         <v>227</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="R57" s="9" t="s">
         <v>57</v>
@@ -8964,7 +9000,7 @@
         <v>233</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>57</v>
@@ -9035,7 +9071,7 @@
         <v>70</v>
       </c>
       <c r="M60" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>200</v>
@@ -9045,7 +9081,7 @@
         <v>70</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="R60" s="9" t="s">
         <v>57</v>
@@ -9137,7 +9173,7 @@
         <v>233</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="R61" s="9" t="s">
         <v>57</v>
@@ -9226,7 +9262,7 @@
         <v>246</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="R62" s="9" t="s">
         <v>57</v>
@@ -9318,7 +9354,7 @@
         <v>252</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="R63" s="9" t="s">
         <v>57</v>
@@ -9482,7 +9518,7 @@
         <v>70</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>57</v>
@@ -9550,7 +9586,7 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="K66" t="s">
         <v>188</v>
@@ -9563,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>57</v>
@@ -9741,7 +9777,7 @@
         <v>306</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>57</v>
@@ -9797,10 +9833,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>104</v>
@@ -9821,16 +9857,16 @@
         <v>64</v>
       </c>
       <c r="M69" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>57</v>
@@ -9886,10 +9922,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="B70" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="C70" s="17">
         <v>0.2</v>
@@ -9904,19 +9940,19 @@
         <v>188</v>
       </c>
       <c r="M70" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>57</v>
@@ -9991,7 +10027,7 @@
         <v>70</v>
       </c>
       <c r="M71" t="s">
-        <v>167</v>
+        <v>872</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>292</v>
@@ -10003,7 +10039,7 @@
         <v>294</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="R71" s="9" t="s">
         <v>57</v>
@@ -10059,13 +10095,13 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
         <v>313</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -10074,22 +10110,22 @@
         <v>11</v>
       </c>
       <c r="K72" t="s">
+        <v>315</v>
+      </c>
+      <c r="M72" t="s">
+        <v>873</v>
+      </c>
+      <c r="N72" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M72" t="s">
+      <c r="O72" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="R72" s="9" t="s">
         <v>57</v>
@@ -10145,10 +10181,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="B73" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>70</v>
@@ -10166,22 +10202,22 @@
         <v>70</v>
       </c>
       <c r="L73" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="M73" t="s">
-        <v>694</v>
+        <v>874</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="R73" s="9" t="s">
         <v>57</v>
@@ -10227,7 +10263,7 @@
         <v>57</v>
       </c>
       <c r="AF73" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="AH73" t="s">
         <v>58</v>
@@ -10235,10 +10271,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="B74" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>70</v>
@@ -10256,22 +10292,22 @@
         <v>70</v>
       </c>
       <c r="L74" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="M74" t="s">
-        <v>693</v>
+        <v>875</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>57</v>
@@ -10317,7 +10353,7 @@
         <v>57</v>
       </c>
       <c r="AF74" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="AH74" t="s">
         <v>58</v>
@@ -10325,10 +10361,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C75" s="17">
         <v>1.03</v>
@@ -10343,19 +10379,19 @@
         <v>70</v>
       </c>
       <c r="M75" t="s">
-        <v>615</v>
+        <v>876</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>57</v>
@@ -10432,19 +10468,19 @@
         <v>309</v>
       </c>
       <c r="M76" t="s">
+        <v>877</v>
+      </c>
+      <c r="N76" t="s">
+        <v>70</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N76" t="s">
-        <v>70</v>
-      </c>
-      <c r="O76" s="1" t="s">
+      <c r="P76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q76" s="20" t="s">
         <v>311</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q76" s="20" t="s">
-        <v>312</v>
       </c>
       <c r="R76" s="10" t="s">
         <v>67</v>
@@ -10500,10 +10536,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -10515,25 +10551,25 @@
         <v>11</v>
       </c>
       <c r="K77" t="s">
+        <v>327</v>
+      </c>
+      <c r="L77" t="s">
+        <v>328</v>
+      </c>
+      <c r="M77" t="s">
+        <v>878</v>
+      </c>
+      <c r="N77" t="s">
+        <v>70</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L77" t="s">
-        <v>330</v>
-      </c>
-      <c r="M77" t="s">
-        <v>331</v>
-      </c>
-      <c r="N77" t="s">
-        <v>70</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="P77" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="R77" s="9" t="s">
         <v>57</v>
@@ -10589,10 +10625,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>70</v>
@@ -10601,7 +10637,7 @@
         <v>2022</v>
       </c>
       <c r="E78" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F78" t="s">
         <v>5</v>
@@ -10613,19 +10649,19 @@
         <v>51</v>
       </c>
       <c r="M78" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>70</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>57</v>
@@ -10681,13 +10717,13 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D79">
         <v>2020</v>
@@ -10702,19 +10738,19 @@
         <v>51</v>
       </c>
       <c r="M79" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>57</v>
@@ -10770,10 +10806,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>120</v>
@@ -10782,7 +10818,7 @@
         <v>2023</v>
       </c>
       <c r="E80" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -10791,19 +10827,19 @@
         <v>51</v>
       </c>
       <c r="M80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>130</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>57</v>
@@ -10859,40 +10895,40 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D81">
         <v>2022</v>
       </c>
       <c r="E81" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
       </c>
       <c r="K81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M81" t="s">
-        <v>345</v>
+        <v>879</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="R81" s="9" t="s">
         <v>57</v>
@@ -10948,7 +10984,7 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>901</v>
+        <v>863</v>
       </c>
       <c r="B82" t="s">
         <v>70</v>
@@ -10966,22 +11002,22 @@
         <v>10</v>
       </c>
       <c r="K82" t="s">
-        <v>902</v>
+        <v>864</v>
       </c>
       <c r="M82" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="N82" t="s">
         <v>70</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>904</v>
+        <v>865</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>905</v>
+        <v>866</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>57</v>
@@ -11028,10 +11064,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="B83" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>104</v>
@@ -11049,19 +11085,19 @@
         <v>51</v>
       </c>
       <c r="M83" t="s">
-        <v>687</v>
+        <v>881</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>130</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>57</v>
@@ -11115,10 +11151,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="B84" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="C84" s="17">
         <v>1.1000000000000001</v>
@@ -11130,16 +11166,19 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="L84" t="s">
-        <v>807</v>
+        <v>776</v>
+      </c>
+      <c r="M84" t="s">
+        <v>882</v>
       </c>
       <c r="N84" s="22" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="Q84" s="20"/>
       <c r="R84" s="9" t="s">
@@ -11191,7 +11230,7 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="17" t="s">
@@ -11201,22 +11240,22 @@
         <v>2020</v>
       </c>
       <c r="E85" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="M85" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="N85" t="s">
         <v>70</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>70</v>
@@ -11278,10 +11317,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="B86" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>70</v>
@@ -11299,10 +11338,10 @@
         <v>70</v>
       </c>
       <c r="M86" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>70</v>
@@ -11362,10 +11401,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="B87" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>70</v>
@@ -11383,10 +11422,10 @@
         <v>70</v>
       </c>
       <c r="M87" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>70</v>
@@ -11446,10 +11485,10 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="B88" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>70</v>
@@ -11464,19 +11503,19 @@
         <v>70</v>
       </c>
       <c r="M88" t="s">
-        <v>684</v>
+        <v>885</v>
       </c>
       <c r="N88" s="16" t="s">
         <v>70</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>57</v>
@@ -11530,10 +11569,10 @@
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>70</v>
@@ -11542,7 +11581,7 @@
         <v>2019</v>
       </c>
       <c r="E89" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -11554,25 +11593,25 @@
         <v>167</v>
       </c>
       <c r="J89" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K89" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M89" t="s">
-        <v>374</v>
+        <v>886</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="R89" s="9" t="s">
         <v>57</v>
@@ -11628,10 +11667,10 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B90" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C90" s="17">
         <v>5</v>
@@ -11646,13 +11685,13 @@
         <v>70</v>
       </c>
       <c r="M90" t="s">
-        <v>465</v>
+        <v>887</v>
       </c>
       <c r="N90" t="s">
         <v>70</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>70</v>
@@ -11714,10 +11753,10 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C91" s="17">
         <v>0.2</v>
@@ -11735,19 +11774,22 @@
         <v>51</v>
       </c>
       <c r="L91" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="M91" t="s">
+        <v>888</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="R91" s="9" t="s">
         <v>57</v>
@@ -11803,10 +11845,10 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B92" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C92" s="17">
         <v>0.1</v>
@@ -11823,17 +11865,20 @@
       <c r="K92" t="s">
         <v>64</v>
       </c>
+      <c r="M92" t="s">
+        <v>889</v>
+      </c>
       <c r="N92" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
       <c r="R92" s="9" t="s">
         <v>57</v>
@@ -11889,7 +11934,7 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s">
         <v>294</v>
@@ -11907,19 +11952,19 @@
         <v>309</v>
       </c>
       <c r="M93" t="s">
-        <v>388</v>
+        <v>890</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="R93" s="9" t="s">
         <v>57</v>
@@ -11975,10 +12020,10 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E94" t="s">
         <v>90</v>
@@ -11989,14 +12034,17 @@
       <c r="K94" t="s">
         <v>70</v>
       </c>
+      <c r="M94" t="s">
+        <v>891</v>
+      </c>
       <c r="N94" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="R94" s="9" t="s">
         <v>57</v>
@@ -12052,10 +12100,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C95" s="17">
         <v>1.1000000000000001</v>
@@ -12064,19 +12112,19 @@
         <v>2020</v>
       </c>
       <c r="E95" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K95" t="s">
         <v>98</v>
       </c>
       <c r="M95" t="s">
-        <v>410</v>
+        <v>892</v>
       </c>
       <c r="N95" t="s">
         <v>70</v>
@@ -12088,7 +12136,7 @@
         <v>70</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="R95" s="9" t="s">
         <v>57</v>
@@ -12144,7 +12192,7 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B96" t="s">
         <v>300</v>
@@ -12165,19 +12213,22 @@
         <v>51</v>
       </c>
       <c r="L96" t="s">
-        <v>412</v>
+        <v>405</v>
+      </c>
+      <c r="M96" t="s">
+        <v>893</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="R96" s="9" t="s">
         <v>57</v>
@@ -12233,10 +12284,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B97" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>70</v>
@@ -12251,22 +12302,22 @@
         <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M97" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="N97" t="s">
         <v>70</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="R97" s="9" t="s">
         <v>57</v>
@@ -12322,10 +12373,10 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B98" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C98" s="17">
         <v>1.1000000000000001</v>
@@ -12340,22 +12391,22 @@
         <v>11</v>
       </c>
       <c r="K98" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M98" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>57</v>
@@ -12411,10 +12462,10 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="B99" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>70</v>
@@ -12432,22 +12483,22 @@
         <v>70</v>
       </c>
       <c r="L99" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="M99" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="R99" s="9" t="s">
         <v>57</v>
@@ -12493,7 +12544,7 @@
         <v>57</v>
       </c>
       <c r="AF99" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="AH99" t="s">
         <v>58</v>
@@ -12501,10 +12552,10 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="B100" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>70</v>
@@ -12522,22 +12573,22 @@
         <v>70</v>
       </c>
       <c r="L100" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="M100" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="R100" s="9" t="s">
         <v>57</v>
@@ -12583,7 +12634,7 @@
         <v>57</v>
       </c>
       <c r="AF100" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="AH100" t="s">
         <v>58</v>
@@ -12591,10 +12642,10 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B101" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C101" s="17">
         <v>1</v>
@@ -12603,7 +12654,7 @@
         <v>2022</v>
       </c>
       <c r="E101" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
@@ -12612,19 +12663,19 @@
         <v>51</v>
       </c>
       <c r="M101" t="s">
-        <v>443</v>
+        <v>894</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>57</v>
@@ -12680,13 +12731,13 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B102" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D102">
         <v>2019</v>
@@ -12701,16 +12752,16 @@
         <v>70</v>
       </c>
       <c r="L102" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M102" t="s">
-        <v>455</v>
+        <v>895</v>
       </c>
       <c r="N102" t="s">
         <v>70</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>70</v>
@@ -12772,10 +12823,10 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B103" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C103" s="17">
         <v>0.3</v>
@@ -12789,17 +12840,20 @@
       <c r="K103" t="s">
         <v>70</v>
       </c>
+      <c r="M103" t="s">
+        <v>896</v>
+      </c>
       <c r="N103" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>130</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>57</v>
@@ -12855,10 +12909,10 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="B104" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="C104" s="17">
         <v>1</v>
@@ -12873,19 +12927,19 @@
         <v>64</v>
       </c>
       <c r="M104" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>57</v>
@@ -12939,10 +12993,10 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C105" s="17">
         <v>0.3</v>
@@ -12960,19 +13014,19 @@
         <v>51</v>
       </c>
       <c r="M105" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="R105" s="9" t="s">
         <v>57</v>
@@ -13028,10 +13082,10 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B106" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>70</v>
@@ -13040,7 +13094,7 @@
         <v>2018</v>
       </c>
       <c r="E106" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -13049,19 +13103,19 @@
         <v>132</v>
       </c>
       <c r="M106" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>143</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="R106" s="9" t="s">
         <v>57</v>
@@ -13144,7 +13198,7 @@
         <v>277</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="R107" s="9" t="s">
         <v>57</v>
@@ -13200,10 +13254,10 @@
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C108" s="17">
         <v>2</v>
@@ -13215,16 +13269,16 @@
         <v>12</v>
       </c>
       <c r="K108" t="s">
-        <v>792</v>
+        <v>761</v>
       </c>
       <c r="M108" t="s">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
       <c r="Q108" s="20"/>
       <c r="Z108" s="18"/>
@@ -13250,10 +13304,10 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>70</v>
@@ -13271,13 +13325,13 @@
         <v>70</v>
       </c>
       <c r="M109" t="s">
-        <v>574</v>
+        <v>897</v>
       </c>
       <c r="N109" t="s">
         <v>70</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>70</v>
@@ -13339,10 +13393,10 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B110" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C110" s="17">
         <v>4</v>
@@ -13351,26 +13405,26 @@
         <v>2019</v>
       </c>
       <c r="E110" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F110" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="K110" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M110" t="s">
-        <v>493</v>
+        <v>898</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="R110" s="9" t="s">
         <v>57</v>
@@ -13426,13 +13480,13 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
       <c r="B111" t="s">
-        <v>829</v>
+        <v>798</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111">
         <v>2024</v>
@@ -13444,19 +13498,19 @@
         <v>188</v>
       </c>
       <c r="M111" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>57</v>
@@ -13501,10 +13555,10 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C112" s="17">
         <v>1.1000000000000001</v>
@@ -13513,7 +13567,7 @@
         <v>2020</v>
       </c>
       <c r="E112" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
@@ -13522,7 +13576,7 @@
         <v>98</v>
       </c>
       <c r="M112" t="s">
-        <v>500</v>
+        <v>899</v>
       </c>
       <c r="N112" t="s">
         <v>70</v>
@@ -13590,10 +13644,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B113" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>70</v>
@@ -13602,25 +13656,28 @@
         <v>2019</v>
       </c>
       <c r="E113" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="K113" t="s">
         <v>70</v>
       </c>
+      <c r="M113" t="s">
+        <v>900</v>
+      </c>
       <c r="N113" s="1" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="Q113" s="3" t="s">
         <v>70</v>
@@ -13679,10 +13736,10 @@
     </row>
     <row r="114" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>70</v>
@@ -13699,17 +13756,20 @@
       <c r="K114" t="s">
         <v>70</v>
       </c>
+      <c r="M114" t="s">
+        <v>901</v>
+      </c>
       <c r="N114" s="1" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="R114" s="9" t="s">
         <v>57</v>
@@ -13765,10 +13825,10 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B115" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>70</v>
@@ -13786,19 +13846,19 @@
         <v>70</v>
       </c>
       <c r="M115" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="P115" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="R115" s="9" t="s">
         <v>57</v>
@@ -13854,10 +13914,10 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B116" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>70</v>
@@ -13878,19 +13938,19 @@
         <v>70</v>
       </c>
       <c r="M116" t="s">
-        <v>569</v>
+        <v>902</v>
       </c>
       <c r="N116" t="s">
         <v>70</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="R116" s="9" t="s">
         <v>57</v>
@@ -13938,13 +13998,13 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="B117" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D117">
         <v>2025</v>
@@ -13953,25 +14013,25 @@
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="K117" t="s">
         <v>148</v>
       </c>
       <c r="M117" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="R117" s="9" t="s">
         <v>57</v>
@@ -14016,18 +14076,18 @@
         <v>57</v>
       </c>
       <c r="AF117" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="B118" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D118">
         <v>2025</v>
@@ -14045,22 +14105,22 @@
         <v>148</v>
       </c>
       <c r="L118" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="M118" t="s">
-        <v>516</v>
+        <v>904</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P118" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="R118" s="9" t="s">
         <v>57</v>
@@ -14108,7 +14168,7 @@
         <v>57</v>
       </c>
       <c r="AF118" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH118" t="s">
         <v>58</v>
@@ -14116,13 +14176,13 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B119" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="D119">
         <v>2024</v>
@@ -14137,19 +14197,19 @@
         <v>148</v>
       </c>
       <c r="M119" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="R119" s="9" t="s">
         <v>57</v>
@@ -14197,7 +14257,7 @@
         <v>57</v>
       </c>
       <c r="AF119" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH119" t="s">
         <v>58</v>
@@ -14205,13 +14265,13 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="B120" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D120">
         <v>2025</v>
@@ -14223,19 +14283,19 @@
         <v>148</v>
       </c>
       <c r="M120" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="R120" s="9" t="s">
         <v>57</v>
@@ -14280,18 +14340,18 @@
         <v>57</v>
       </c>
       <c r="AF120" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="B121" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D121">
         <v>2025</v>
@@ -14309,19 +14369,19 @@
         <v>148</v>
       </c>
       <c r="M121" t="s">
-        <v>525</v>
+        <v>906</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="R121" s="9" t="s">
         <v>57</v>
@@ -14369,7 +14429,7 @@
         <v>57</v>
       </c>
       <c r="AF121" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH121" t="s">
         <v>58</v>
@@ -14377,13 +14437,13 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="B122" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D122">
         <v>2025</v>
@@ -14395,25 +14455,25 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="K122" t="s">
         <v>148</v>
       </c>
       <c r="M122" t="s">
-        <v>529</v>
+        <v>907</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="R122" s="9" t="s">
         <v>57</v>
@@ -14461,7 +14521,7 @@
         <v>57</v>
       </c>
       <c r="AF122" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH122" t="s">
         <v>58</v>
@@ -14469,13 +14529,13 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="B123" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D123">
         <v>2025</v>
@@ -14484,25 +14544,25 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="K123" t="s">
         <v>148</v>
       </c>
       <c r="M123" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>893</v>
+        <v>856</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>894</v>
+        <v>857</v>
       </c>
       <c r="R123" s="9" t="s">
         <v>57</v>
@@ -14547,18 +14607,18 @@
         <v>57</v>
       </c>
       <c r="AF123" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="B124" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D124">
         <v>2025</v>
@@ -14570,19 +14630,19 @@
         <v>148</v>
       </c>
       <c r="M124" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="R124" s="9" t="s">
         <v>57</v>
@@ -14627,18 +14687,18 @@
         <v>57</v>
       </c>
       <c r="AF124" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="B125" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D125">
         <v>2025</v>
@@ -14650,25 +14710,25 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K125" t="s">
         <v>148</v>
       </c>
       <c r="M125" t="s">
-        <v>522</v>
+        <v>910</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="R125" s="9" t="s">
         <v>57</v>
@@ -14716,7 +14776,7 @@
         <v>57</v>
       </c>
       <c r="AF125" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH125" t="s">
         <v>58</v>
@@ -14724,13 +14784,13 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="B126" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D126">
         <v>2025</v>
@@ -14748,19 +14808,19 @@
         <v>148</v>
       </c>
       <c r="M126" t="s">
-        <v>532</v>
+        <v>911</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>57</v>
@@ -14808,7 +14868,7 @@
         <v>57</v>
       </c>
       <c r="AF126" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH126" t="s">
         <v>58</v>
@@ -14816,13 +14876,13 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="B127" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D127">
         <v>2025</v>
@@ -14840,19 +14900,19 @@
         <v>148</v>
       </c>
       <c r="M127" t="s">
-        <v>535</v>
+        <v>912</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="R127" s="9" t="s">
         <v>57</v>
@@ -14900,7 +14960,7 @@
         <v>57</v>
       </c>
       <c r="AF127" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH127" t="s">
         <v>58</v>
@@ -14908,13 +14968,13 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="B128" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D128">
         <v>2020</v>
@@ -14929,19 +14989,19 @@
         <v>148</v>
       </c>
       <c r="M128" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>785</v>
+        <v>754</v>
       </c>
       <c r="R128" s="9" t="s">
         <v>57</v>
@@ -14989,7 +15049,7 @@
         <v>57</v>
       </c>
       <c r="AF128" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH128" t="s">
         <v>58</v>
@@ -14997,13 +15057,13 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="B129" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D129">
         <v>2025</v>
@@ -15015,25 +15075,25 @@
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="K129" t="s">
         <v>148</v>
       </c>
       <c r="M129" t="s">
-        <v>543</v>
+        <v>913</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="R129" s="9" t="s">
         <v>57</v>
@@ -15081,7 +15141,7 @@
         <v>57</v>
       </c>
       <c r="AF129" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AH129" t="s">
         <v>58</v>
@@ -15089,13 +15149,13 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>895</v>
+        <v>858</v>
       </c>
       <c r="B130" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D130">
         <v>2025</v>
@@ -15107,19 +15167,19 @@
         <v>148</v>
       </c>
       <c r="M130" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>899</v>
+        <v>861</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>900</v>
+        <v>862</v>
       </c>
       <c r="R130" s="9" t="s">
         <v>57</v>
@@ -15164,15 +15224,15 @@
         <v>57</v>
       </c>
       <c r="AF130" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B131" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="C131" s="17">
         <v>0.6</v>
@@ -15181,7 +15241,7 @@
         <v>2020</v>
       </c>
       <c r="E131" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -15190,22 +15250,22 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="M131" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="R131" s="9" t="s">
         <v>57</v>
@@ -15261,7 +15321,7 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="B132" t="s">
         <v>143</v>
@@ -15284,17 +15344,20 @@
       <c r="K132" t="s">
         <v>196</v>
       </c>
+      <c r="M132" t="s">
+        <v>915</v>
+      </c>
       <c r="N132" s="1" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>57</v>
@@ -15350,10 +15413,10 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B133" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>70</v>
@@ -15373,14 +15436,17 @@
       <c r="K133" t="s">
         <v>70</v>
       </c>
+      <c r="M133" t="s">
+        <v>916</v>
+      </c>
       <c r="N133" t="s">
         <v>70</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="Q133" s="21" t="s">
         <v>70</v>
@@ -15439,10 +15505,10 @@
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B134" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>70</v>
@@ -15454,22 +15520,22 @@
         <v>10</v>
       </c>
       <c r="K134" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M134" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="R134" s="9" t="s">
         <v>57</v>
@@ -15525,10 +15591,10 @@
     </row>
     <row r="135" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="B135" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>70</v>
@@ -15549,19 +15615,19 @@
       </c>
       <c r="L135"/>
       <c r="M135" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="R135" s="9" t="s">
         <v>57</v>
@@ -15616,10 +15682,10 @@
     </row>
     <row r="136" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C136" s="17">
         <v>1.1399999999999999</v>
@@ -15640,19 +15706,19 @@
       </c>
       <c r="L136"/>
       <c r="M136" t="s">
-        <v>619</v>
+        <v>917</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="R136" s="9" t="s">
         <v>57</v>
@@ -15709,10 +15775,10 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B137" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>70</v>
@@ -15727,13 +15793,13 @@
         <v>70</v>
       </c>
       <c r="M137" t="s">
-        <v>627</v>
+        <v>918</v>
       </c>
       <c r="N137" t="s">
         <v>70</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>70</v>
@@ -15795,10 +15861,10 @@
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="B138" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>70</v>
@@ -15813,13 +15879,13 @@
         <v>70</v>
       </c>
       <c r="M138" t="s">
-        <v>631</v>
+        <v>919</v>
       </c>
       <c r="N138" t="s">
         <v>70</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>70</v>
@@ -15879,10 +15945,10 @@
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="C139" s="17">
         <v>1.01</v>
@@ -15897,19 +15963,19 @@
         <v>70</v>
       </c>
       <c r="M139" t="s">
-        <v>604</v>
+        <v>920</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="R139" s="9" t="s">
         <v>57</v>
@@ -15965,10 +16031,10 @@
     </row>
     <row r="140" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="C140" s="17">
         <v>1.03</v>
@@ -15989,19 +16055,19 @@
       </c>
       <c r="L140"/>
       <c r="M140" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>70</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="R140" s="9" t="s">
         <v>57</v>
@@ -16330,17 +16396,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -16365,7 +16431,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -16400,17 +16466,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -16420,7 +16486,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -16440,7 +16506,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -16455,12 +16521,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -16482,25 +16548,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ff84ddffcc90b35ddafa68a8e3f57c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aaa14ffaad9a81e002c763535d74184" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -16704,25 +16751,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B3783E-F272-4FB2-B0CD-BE7CB395B3FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16740,6 +16788,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac.sharepoint.com/sites/EC3-1.ModellingandStandards/Shared Documents/1. Modelling and Standards/Material/Project D_Ontologies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7F8D0847-A4D5-4BFA-BA6D-F8E91FF0BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED8B562-A7C5-461C-A17A-7209D92E1A4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08029F5A-362F-4634-BB39-1DA1CDDA21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="12495" yWindow="3780" windowWidth="20820" windowHeight="11295" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="14" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -109,32 +112,67 @@
     </comment>
     <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Arghavan: one issue we have I think is that there is a difference between explicitly reuse concepts from another ontology and providing some alignment information. I think we need to keep our lives easy and only consider explicit reuse, i.e. explicitly referred to within the owl file</t>
+        </r>
       </text>
     </comment>
     <comment ref="O2" authorId="2" shapeId="0" xr:uid="{FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="P9" authorId="3" shapeId="0" xr:uid="{885FB683-17A8-485A-8691-53C79CD2DF41}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     https://www.freeclass.eu/download
 The Free Class (FC) ontology requires me to give my details to get access. But, it is otherwise an AECO ontology. Should I add it?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q21" authorId="4" shapeId="0" xr:uid="{973D48F1-79B3-4920-8BDA-8C16C92B26F0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This may need to include quantity kind (qk) and unit (unit), that are both from qudt.
@@ -142,19 +180,37 @@
     New list: bacnet, bsh, qudt, qudtqk, rec, ref, s223, sdo, sh, skos, sosa, tag, unit, vcard
 Reply:
     That seems better. Where did you find that list?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O30" authorId="5" shapeId="0" xr:uid="{69563DD9-E157-466B-B7C0-685744C5F29A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="R32" authorId="6" shapeId="0" xr:uid="{4B8EE336-FBE0-47A3-9930-259BDD87F0E2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Place Reference Theory (PRT) ontology
@@ -167,19 +223,37 @@
     Good question. Either PRT is UPPER, or we consider it AECO (we should change that columns to BE :) ). Please, ask Arghavan for her opinion.
 Reply:
     @Arghavan</t>
+        </r>
       </text>
     </comment>
     <comment ref="O34" authorId="7" shapeId="0" xr:uid="{79AF74C8-61FA-441F-B37E-08E57B208671}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also https://cui.unige.ch/isi/onto/citygml2.0.owl</t>
+        </r>
       </text>
     </comment>
     <comment ref="A49" authorId="8" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Probably doesn't exist
@@ -195,51 +269,105 @@
     I agree. looks like developers named it as ontology in paper, but in the end its not. Also, Section 5 of paper Conclusions and Future Work "Furthermore, it is recommended to use DOT as a modular core ontology in combination with additional web ontologies as extensions when adding more specific information, e.g. taxonomies for various damage types or national assessment standards. In this regard, three example ontologies have been developed that extend DOT with a taxonomy for damages in reinforced concrete (CDO), mechanical parameters for damaged areas (DMO) and properties based on the German inspection standard DIN 1076" . So maybe it cannot be considered as a separate ontology.
 Reply:
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A76" authorId="9" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q76" authorId="10" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O77" authorId="11" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
+        </r>
       </text>
     </comment>
     <comment ref="O90" authorId="12" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
+        </r>
       </text>
     </comment>
     <comment ref="A94" authorId="13" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Note: used to be ontology iddo.</t>
+        </r>
       </text>
     </comment>
     <comment ref="Z101" authorId="14" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Occupant Property Taxonomy (2024). DOI: 10.3233/SW-223254
@@ -247,22 +375,41 @@
     If we miss an ontology in our database, just add it :) 
 Reply:
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
+        </r>
       </text>
     </comment>
     <comment ref="P110" authorId="15" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
+        </r>
       </text>
     </comment>
     <comment ref="O116" authorId="16" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -270,7 +417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="936">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -3006,6 +3153,82 @@
   </si>
   <si>
     <t>Year Issued</t>
+  </si>
+  <si>
+    <t>aic</t>
+  </si>
+  <si>
+    <t>The Agents in Construction (AiC) ontology is a lightweight semantic model for coordinating on-site production in construction. It represents construction agents (human workers, robots, and other autonomous hardware) as they operate on a site: the processes they carry out, the elements they modify, the resources they handle, and the operational modes and metrics used to assess their performance and impact. To express how agent activities evolve over time, AiC introduces meta-properties that specify when a statement holds (at an instant or over an interval), what dimension of information it represents (planned, simulated, or performed), and who generated it. The ontology emphasizes generic, trade-agnostic concepts to ensure broad applicability across project types and delivery methods.</t>
+  </si>
+  <si>
+    <t>https://w3id.org/aic#</t>
+  </si>
+  <si>
+    <t>https://digiconstructlab-tu-delft.github.io/AiC-Ontology/</t>
+  </si>
+  <si>
+    <t>Agents in Construction (AiC) Ontology</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>ECO - Eurocode Core Ontology</t>
+  </si>
+  <si>
+    <t>The Eurocode Core Ontology (ECO) provides a formal semantic representation of foundational concepts from the Eurocodes, the European standards for structural design. It enables machine-readable interpretation of regulatory knowledge, supporting automated reasoning, semantic interoperability, and integration with engineering workflows. ECO is designed as a modular, extensible framework for use in intelligent, standards-compliant design tools within the AECO industry.</t>
+  </si>
+  <si>
+    <t>https://mlaura1996.github.io/EC1990/; https://doi.org/10.1016/j.aei.2025.104218</t>
+  </si>
+  <si>
+    <t>bot, omg, beo</t>
+  </si>
+  <si>
+    <t>dct, skos</t>
+  </si>
+  <si>
+    <t>Failure Mechanism Ontology</t>
+  </si>
+  <si>
+    <t>fmo</t>
+  </si>
+  <si>
+    <t>hmo</t>
+  </si>
+  <si>
+    <t>Historic Masonry Ontology</t>
+  </si>
+  <si>
+    <t>https://w3id.org/hmo#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Historic Masonry Ontology (HMO) aims to represent the historic masonry material by considering its heterogeneous nature and defining the configuration of units and joints in the wall. The proposed namespace is , with the preferred prefix hmo.
+The ontology includes reference masonry types and their mechanical parameters, together with a set of SWRL rules to deduce masonry quality and mechanical parameters for any other masonry type. The ontology is designed to be used with other existing ontologies and as a semantic enrichment of Building Information Modeling models, offering a wide range of applications in the field of construction and historic preservation. </t>
+  </si>
+  <si>
+    <t>The primary objective of the Failure Mechanism Ontology (FMO) is to represent masonry walls taking into account features and vulnerabilities that leads to a specific type of failure mechanism. This ontology is complementary to the Historic Masonry Ontology (HMO), of which represents an extension. The recommended prefix for this ontology is FMO, and its proposed namespace is https://w3id.org/fmo#. By utilizing the FMO ontology, it becomes possible to determine whether the structure is more susceptible to out-of-plane collapse or if in-plane failures are more likely. The scope is to facilitate the definition of the modeling assmptions, while employing global models for the structural analysis of unreinforced masonry constructions.</t>
+  </si>
+  <si>
+    <t>https://w3id.org/fmo#</t>
+  </si>
+  <si>
+    <t>https://www.w3id.org/eurocodes/ec1990#</t>
+  </si>
+  <si>
+    <t>https://mlaura1996.github.io/HistoricMasonryOntology/</t>
+  </si>
+  <si>
+    <t>https://mlaura1996.github.io/FailureMechanismOntology/</t>
+  </si>
+  <si>
+    <t>dot, beo, saref, mat</t>
+  </si>
+  <si>
+    <t>dct, vann, foaf, ombibo2</t>
+  </si>
+  <si>
+    <t>dot, beo, hmo</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3175,6 +3398,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3279,8 +3508,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH140" totalsRowShown="0">
-  <autoFilter ref="A1:AH140" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH144" totalsRowShown="0">
+  <autoFilter ref="A1:AH144" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}">
     <filterColumn colId="10">
       <filters>
         <filter val="n/d"/>
@@ -3721,47 +3950,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AH140"/>
+  <dimension ref="A1:AH144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="22" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="46" style="3" customWidth="1"/>
-    <col min="18" max="18" width="27.5546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="34.5546875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="34.109375" style="9" customWidth="1"/>
-    <col min="21" max="21" width="32.109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="9" customWidth="1"/>
     <col min="23" max="23" width="20" style="9" customWidth="1"/>
-    <col min="24" max="24" width="21.44140625" style="9" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="9" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" style="9" customWidth="1"/>
     <col min="26" max="26" width="19" style="9" customWidth="1"/>
-    <col min="27" max="27" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3865,7 +4094,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -3954,7 +4183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>909</v>
       </c>
@@ -4038,7 +4267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -4124,7 +4353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -4219,7 +4448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>359</v>
       </c>
@@ -4317,7 +4546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -4409,7 +4638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -4504,7 +4733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -4590,7 +4819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -4676,7 +4905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -4768,7 +4997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4860,7 +5089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>382</v>
       </c>
@@ -4952,7 +5181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>402</v>
       </c>
@@ -5041,7 +5270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>415</v>
       </c>
@@ -5103,7 +5332,7 @@
         <v>57</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>59</v>
@@ -5118,7 +5347,7 @@
       </c>
       <c r="AD15">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="s">
         <v>57</v>
@@ -5130,7 +5359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -5222,7 +5451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -5311,7 +5540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>501</v>
       </c>
@@ -5400,7 +5629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>576</v>
       </c>
@@ -5489,7 +5718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>633</v>
       </c>
@@ -5581,7 +5810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>145</v>
       </c>
@@ -5676,7 +5905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -5765,7 +5994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -5851,7 +6080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5943,7 +6172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -6032,7 +6261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>659</v>
       </c>
@@ -6113,7 +6342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -6205,7 +6434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -6294,7 +6523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -6386,7 +6615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>727</v>
       </c>
@@ -6464,7 +6693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -6556,7 +6785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -6651,7 +6880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -6746,7 +6975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>457</v>
       </c>
@@ -6835,7 +7064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>333</v>
       </c>
@@ -6924,7 +7153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -7013,7 +7242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>477</v>
       </c>
@@ -7102,7 +7331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>484</v>
       </c>
@@ -7191,7 +7420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -7280,7 +7509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>545</v>
       </c>
@@ -7369,7 +7598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -7461,7 +7690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>724</v>
       </c>
@@ -7542,7 +7771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>816</v>
       </c>
@@ -7623,7 +7852,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>725</v>
       </c>
@@ -7707,7 +7936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -7790,7 +8019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>811</v>
       </c>
@@ -7871,7 +8100,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -7957,7 +8186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>822</v>
       </c>
@@ -8038,7 +8267,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>270</v>
       </c>
@@ -8130,7 +8359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>284</v>
       </c>
@@ -8222,7 +8451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>295</v>
       </c>
@@ -8308,7 +8537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -8400,7 +8629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>852</v>
       </c>
@@ -8484,7 +8713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -8573,7 +8802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>201</v>
       </c>
@@ -8662,7 +8891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -8748,7 +8977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>221</v>
       </c>
@@ -8837,7 +9066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -8929,7 +9158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -9018,7 +9247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>198</v>
       </c>
@@ -9099,7 +9328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>234</v>
       </c>
@@ -9191,7 +9420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -9280,7 +9509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>247</v>
       </c>
@@ -9372,7 +9601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>253</v>
       </c>
@@ -9461,7 +9690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>259</v>
       </c>
@@ -9536,7 +9765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>262</v>
       </c>
@@ -9617,7 +9846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>265</v>
       </c>
@@ -9706,7 +9935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>302</v>
       </c>
@@ -9795,7 +10024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>426</v>
       </c>
@@ -9884,7 +10113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>795</v>
       </c>
@@ -9965,7 +10194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>289</v>
       </c>
@@ -10057,7 +10286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>313</v>
       </c>
@@ -10143,7 +10372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>698</v>
       </c>
@@ -10233,7 +10462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>697</v>
       </c>
@@ -10323,7 +10552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>613</v>
       </c>
@@ -10409,7 +10638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>307</v>
       </c>
@@ -10498,7 +10727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>327</v>
       </c>
@@ -10587,7 +10816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>639</v>
       </c>
@@ -10679,7 +10908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -10768,7 +10997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>348</v>
       </c>
@@ -10857,7 +11086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>340</v>
       </c>
@@ -10946,7 +11175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>901</v>
       </c>
@@ -11026,7 +11255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>665</v>
       </c>
@@ -11113,7 +11342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>806</v>
       </c>
@@ -11189,7 +11418,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>644</v>
       </c>
@@ -11276,7 +11505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>845</v>
       </c>
@@ -11360,7 +11589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>847</v>
       </c>
@@ -11444,7 +11673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>682</v>
       </c>
@@ -11528,7 +11757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -11626,7 +11855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>463</v>
       </c>
@@ -11712,7 +11941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>366</v>
       </c>
@@ -11801,7 +12030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -11887,7 +12116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>387</v>
       </c>
@@ -11973,7 +12202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>398</v>
       </c>
@@ -12050,7 +12279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>407</v>
       </c>
@@ -12142,7 +12371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>411</v>
       </c>
@@ -12231,7 +12460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>430</v>
       </c>
@@ -12320,7 +12549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>421</v>
       </c>
@@ -12409,7 +12638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>704</v>
       </c>
@@ -12499,7 +12728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>703</v>
       </c>
@@ -12589,7 +12818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>440</v>
       </c>
@@ -12678,7 +12907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>451</v>
       </c>
@@ -12770,7 +12999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>436</v>
       </c>
@@ -12853,7 +13082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>676</v>
       </c>
@@ -12937,7 +13166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>446</v>
       </c>
@@ -13026,7 +13255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>472</v>
       </c>
@@ -13115,7 +13344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>273</v>
       </c>
@@ -13198,7 +13427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>652</v>
       </c>
@@ -13248,7 +13477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>572</v>
       </c>
@@ -13337,7 +13566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>490</v>
       </c>
@@ -13424,7 +13653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>828</v>
       </c>
@@ -13499,7 +13728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>497</v>
       </c>
@@ -13588,7 +13817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>595</v>
       </c>
@@ -13677,7 +13906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>587</v>
       </c>
@@ -13763,7 +13992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>590</v>
       </c>
@@ -13852,7 +14081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>567</v>
       </c>
@@ -13936,7 +14165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>878</v>
       </c>
@@ -14019,7 +14248,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>856</v>
       </c>
@@ -14114,7 +14343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>557</v>
       </c>
@@ -14203,7 +14432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>884</v>
       </c>
@@ -14283,7 +14512,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>857</v>
       </c>
@@ -14375,7 +14604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>862</v>
       </c>
@@ -14467,7 +14696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>889</v>
       </c>
@@ -14550,7 +14779,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>872</v>
       </c>
@@ -14630,7 +14859,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>858</v>
       </c>
@@ -14722,7 +14951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>861</v>
       </c>
@@ -14814,7 +15043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>860</v>
       </c>
@@ -14906,7 +15135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>864</v>
       </c>
@@ -14995,7 +15224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>859</v>
       </c>
@@ -15087,7 +15316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>895</v>
       </c>
@@ -15167,7 +15396,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>560</v>
       </c>
@@ -15259,7 +15488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>580</v>
       </c>
@@ -15348,7 +15577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>583</v>
       </c>
@@ -15437,7 +15666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>551</v>
       </c>
@@ -15523,7 +15752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>669</v>
       </c>
@@ -15614,7 +15843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>617</v>
       </c>
@@ -15707,7 +15936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>625</v>
       </c>
@@ -15793,7 +16022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>629</v>
       </c>
@@ -15851,7 +16080,9 @@
       <c r="Y138" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Z138" s="18"/>
+      <c r="Z138" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="AA138" s="8" t="s">
         <v>95</v>
       </c>
@@ -15877,7 +16108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>602</v>
       </c>
@@ -15963,7 +16194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>621</v>
       </c>
@@ -16053,6 +16284,352 @@
       </c>
       <c r="AG140"/>
       <c r="AH140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>915</v>
+      </c>
+      <c r="B141" t="s">
+        <v>911</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D141">
+        <v>2025</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s">
+        <v>188</v>
+      </c>
+      <c r="M141" s="28" t="s">
+        <v>912</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q141" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="R141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S141" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T141" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y141" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z141" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA141" s="8"/>
+      <c r="AB141" s="27">
+        <f t="shared" ref="AB141:AB143" si="15">COUNTIF(R141:T141, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AC141" s="27">
+        <f t="shared" ref="AC141:AC143" si="16">COUNTIF(U141:W141, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AD141" s="27">
+        <f t="shared" ref="AD141:AD143" si="17">COUNTIF(X141:Z141, "yes")</f>
+        <v>2</v>
+      </c>
+      <c r="AE141" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF141" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG141" s="27"/>
+      <c r="AH141" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>917</v>
+      </c>
+      <c r="B142" t="s">
+        <v>916</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D142">
+        <v>2025</v>
+      </c>
+      <c r="F142" t="s">
+        <v>838</v>
+      </c>
+      <c r="K142" t="s">
+        <v>329</v>
+      </c>
+      <c r="M142" t="s">
+        <v>918</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="O142" t="s">
+        <v>919</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q142" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="R142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y142" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z142" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA142" s="8"/>
+      <c r="AB142" s="27">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AC142" s="27">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AD142" s="27">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AE142" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF142" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG142" s="27"/>
+      <c r="AH142" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>922</v>
+      </c>
+      <c r="B143" t="s">
+        <v>923</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143">
+        <v>2024</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>838</v>
+      </c>
+      <c r="K143" t="s">
+        <v>64</v>
+      </c>
+      <c r="M143" t="s">
+        <v>928</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="P143" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q143" s="29" t="s">
+        <v>734</v>
+      </c>
+      <c r="R143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T143" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y143" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z143" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA143" s="8"/>
+      <c r="AB143" s="27">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AC143" s="27">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AD143" s="27">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AE143" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF143" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG143" s="27"/>
+      <c r="AH143" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>925</v>
+      </c>
+      <c r="B144" t="s">
+        <v>924</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D144">
+        <v>2024</v>
+      </c>
+      <c r="F144" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>64</v>
+      </c>
+      <c r="M144" s="30" t="s">
+        <v>927</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q144" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="R144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y144" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z144" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA144" s="8"/>
+      <c r="AB144" s="27">
+        <f>COUNTIF(R144:T144, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AC144" s="27">
+        <f>COUNTIF(U144:W144, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AD144" s="27">
+        <f>COUNTIF(X144:Z144, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AE144" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF144" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG144" s="27"/>
+      <c r="AH144" s="27" t="s">
         <v>58</v>
       </c>
     </row>
@@ -16293,12 +16870,19 @@
     <hyperlink ref="N130" r:id="rId232" xr:uid="{CF1F8098-F930-45E0-80E5-4564F180CF5A}"/>
     <hyperlink ref="O130" r:id="rId233" xr:uid="{85C86255-2EFE-412B-8C7A-5093F2959238}"/>
     <hyperlink ref="O82" r:id="rId234" xr:uid="{F40C8C8B-C3B0-4FA4-825C-82BC99AA456D}"/>
+    <hyperlink ref="N141" r:id="rId235" xr:uid="{7ADFBE34-97FF-4F43-908A-001BF3B2781E}"/>
+    <hyperlink ref="O141" r:id="rId236" xr:uid="{94710006-BA26-43E2-A645-55FCE25D4FB9}"/>
+    <hyperlink ref="N142" r:id="rId237" xr:uid="{6B27BBF5-6A3F-464E-884F-09439291A1D8}"/>
+    <hyperlink ref="N144" r:id="rId238" display="https://w3id.org/hmo" xr:uid="{7F86E95E-8F78-4306-BDB5-E42739A9F497}"/>
+    <hyperlink ref="N143" r:id="rId239" xr:uid="{D1049976-4189-4098-8B7A-A4FBB294F09E}"/>
+    <hyperlink ref="O144" r:id="rId240" xr:uid="{30C86014-BA17-46D9-869F-D0EB293E3CC6}"/>
+    <hyperlink ref="O143" r:id="rId241" xr:uid="{707EF97C-857E-4A6D-8457-A87CEB3939FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId235"/>
-  <legacyDrawing r:id="rId236"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId242"/>
+  <legacyDrawing r:id="rId243"/>
   <tableParts count="1">
-    <tablePart r:id="rId237"/>
+    <tablePart r:id="rId244"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -16307,7 +16891,7 @@
           <x14:formula1>
             <xm:f>Domains!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G140</xm:sqref>
+          <xm:sqref>F2:G144</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16323,147 +16907,147 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -16482,25 +17066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ff84ddffcc90b35ddafa68a8e3f57c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aaa14ffaad9a81e002c763535d74184" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -16704,25 +17269,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B3783E-F272-4FB2-B0CD-BE7CB395B3FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16740,6 +17306,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABDA2F3-AED3-47BC-AFB4-D193EFFF54CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A5B22-EBB2-4F7C-A5BD-FD95C4CB5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -3069,28 +3069,28 @@
     <t>voaf, foaf, vann, schema, skos, dbr, dbo</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Issued</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Conforms To Standart</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
     <t>https://saref.etsi.org/saref4city/</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Year Issued</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>Use+L:Ld Standards</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -3234,7 +3234,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3276,14 +3276,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -3406,21 +3398,21 @@
     <sortCondition ref="A1:A140"/>
   </sortState>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Title"/>
+    <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Name"/>
     <tableColumn id="2" xr3:uid="{73BDDD59-2968-475D-8401-2BF3E8999200}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{5E6AD3D9-048B-4D2F-B847-6C1A6067C850}" name="Version" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Issued"/>
+    <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Year Issued"/>
     <tableColumn id="5" xr3:uid="{8109B890-26AB-4E82-A593-277A5ACB9BEB}" name="Domain (deprecated)"/>
     <tableColumn id="6" xr3:uid="{FB87D2A8-5ECE-421B-BEEB-99CE3D46958C}" name="Primary Domain"/>
     <tableColumn id="7" xr3:uid="{881499B9-131D-4DE5-A339-98DFD60C9A69}" name="Secondary Domain"/>
     <tableColumn id="8" xr3:uid="{7DE7FAE7-F6AC-4DEB-B0A7-79E0910FD899}" name="FAIR - 5 star"/>
     <tableColumn id="9" xr3:uid="{04843D66-C3BB-4164-8392-A39781E8C45C}" name="Level of maintenance"/>
     <tableColumn id="10" xr3:uid="{31FD2BEC-7152-4DA6-ADFB-23A952D38D7D}" name="Level of use"/>
-    <tableColumn id="11" xr3:uid="{E1FC5A2F-8FAA-4353-A30F-F29A7749AB2B}" name="License"/>
-    <tableColumn id="12" xr3:uid="{50E2CFE4-419A-4D16-AEC4-D9C7962383EE}" name="Conforms To Standart"/>
-    <tableColumn id="13" xr3:uid="{5D297276-66F9-4459-BDF9-0A8DBD573003}" name="Description"/>
-    <tableColumn id="14" xr3:uid="{2B3CEEC7-8EDA-4CF0-86E7-B36012BB1130}" name="Identifier"/>
-    <tableColumn id="15" xr3:uid="{33DE9137-9047-46DC-B97D-FC9A03311E62}" name="References"/>
+    <tableColumn id="11" xr3:uid="{E1FC5A2F-8FAA-4353-A30F-F29A7749AB2B}" name="Licensing"/>
+    <tableColumn id="12" xr3:uid="{50E2CFE4-419A-4D16-AEC4-D9C7962383EE}" name="Use+L:Ld Standards"/>
+    <tableColumn id="13" xr3:uid="{5D297276-66F9-4459-BDF9-0A8DBD573003}" name="Short Description"/>
+    <tableColumn id="14" xr3:uid="{2B3CEEC7-8EDA-4CF0-86E7-B36012BB1130}" name="URI"/>
+    <tableColumn id="15" xr3:uid="{33DE9137-9047-46DC-B97D-FC9A03311E62}" name="Reference"/>
     <tableColumn id="16" xr3:uid="{B2A4823A-8123-4352-B2A2-6077AF9C5141}" name="Linked-to ontologies AECO" dataDxfId="18"/>
     <tableColumn id="17" xr3:uid="{22B21384-AC91-4BE5-9B73-D33D0CFF9782}" name="Linked-to ontologies UPPER" dataDxfId="17"/>
     <tableColumn id="19" xr3:uid="{08126F14-AB7C-40B4-B232-7308649DC55E}" name="Linkage to upper ontologies" dataDxfId="16"/>
@@ -3842,7 +3834,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3877,8 +3869,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>930</v>
+      <c r="A1" s="27" t="s">
+        <v>931</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3886,8 +3878,8 @@
       <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>931</v>
+      <c r="D1" s="28" t="s">
+        <v>932</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -3907,20 +3899,20 @@
       <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>932</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="28" t="s">
         <v>933</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="L1" s="28" t="s">
         <v>934</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="28" t="s">
         <v>935</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="27" t="s">
         <v>936</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>937</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>28</v>
@@ -5880,30 +5872,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="17">
         <v>0.2</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23">
         <v>2021</v>
       </c>
-      <c r="E23"/>
-      <c r="F23" s="27" t="s">
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="27" t="s">
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
         <v>74</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -5912,61 +5900,61 @@
       <c r="O23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="29" t="s">
+      <c r="P23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="R23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="W23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z23" s="30" t="s">
+      <c r="R23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AB23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC23" s="27">
+      <c r="AC23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AD23" s="27">
+      <c r="AD23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AE23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH23" s="27" t="s">
+      <c r="AE23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6232,35 +6220,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27">
         <v>2021</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" t="s">
         <v>4</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27" s="27" t="s">
+      <c r="K27" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" t="s">
         <v>123</v>
       </c>
       <c r="N27" s="4" t="s">
@@ -6269,61 +6254,61 @@
       <c r="O27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" s="29" t="s">
+      <c r="P27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="R27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="V27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z27" s="30" t="s">
+      <c r="R27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z27" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AA27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AB27" s="27">
+      <c r="AB27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC27" s="27">
+      <c r="AC27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AD27" s="27">
+      <c r="AD27">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AE27" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH27" s="27" t="s">
+      <c r="AE27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6416,35 +6401,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29">
         <v>2021</v>
       </c>
       <c r="E29" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" t="s">
         <v>0</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29" s="27" t="s">
+      <c r="K29" t="s">
         <v>128</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" t="s">
         <v>129</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M29" t="s">
         <v>130</v>
       </c>
       <c r="N29" s="4" t="s">
@@ -6453,61 +6435,61 @@
       <c r="O29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P29" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q29" s="29" t="s">
+      <c r="P29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="R29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="T29" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="U29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="V29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="W29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z29" s="30" t="s">
+      <c r="R29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z29" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AA29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="27">
+      <c r="AB29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC29" s="27">
+      <c r="AC29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AD29" s="27">
+      <c r="AD29">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AE29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF29" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH29" s="27" t="s">
+      <c r="AE29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13323,30 +13305,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="27" t="s">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>648</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" t="s">
         <v>649</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C108" s="17">
         <v>2</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108">
         <v>2016</v>
       </c>
-      <c r="E108"/>
-      <c r="F108" s="27" t="s">
+      <c r="F108" t="s">
         <v>12</v>
       </c>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108" s="27" t="s">
+      <c r="K108" t="s">
         <v>788</v>
       </c>
-      <c r="M108" s="27" t="s">
+      <c r="M108" t="s">
         <v>789</v>
       </c>
       <c r="N108" s="4" t="s">
@@ -13355,57 +13333,56 @@
       <c r="O108" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29" t="s">
+      <c r="Q108" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="R108" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S108" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="T108" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="U108" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="V108" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="W108" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="X108" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y108" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z108" s="30" t="s">
+      <c r="R108" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S108" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T108" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U108" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V108" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W108" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X108" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y108" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z108" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AA108" s="8"/>
-      <c r="AB108" s="27">
+      <c r="AB108">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AC108" s="27">
+      <c r="AC108">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AD108" s="27">
+      <c r="AD108">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AE108" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF108" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH108" s="27" t="s">
+      <c r="AE108" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -14819,8 +14796,8 @@
       <c r="M125" t="s">
         <v>518</v>
       </c>
-      <c r="N125" s="33" t="s">
-        <v>937</v>
+      <c r="N125" s="29" t="s">
+        <v>930</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>519</v>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A5B22-EBB2-4F7C-A5BD-FD95C4CB5A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FC047-DD26-4B10-9129-C3B57BECA018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -55,11 +55,13 @@
     <author>tc={23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}</author>
     <author>tc={F740CA61-96DA-4774-9A8A-ED9440FE2098}</author>
     <author>tc={62695919-9F9A-40CF-9011-F3B8FA1114C9}</author>
+    <author>tc={1E091BA1-9F74-4A1F-AB26-EF125F3AC8A3}</author>
     <author>tc={9A5C529B-FA1E-4373-8A74-C3F792561B4A}</author>
     <author>tc={0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}</author>
     <author>tc={51CFF48A-CD78-4902-8B0C-DC9E113097CA}</author>
     <author>tc={9B4FF538-E0FF-4ED4-A111-F93178D73F43}</author>
     <author>tc={C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}</author>
+    <author>tc={927B62E8-0FF6-4EF1-936E-463477F0E0BD}</author>
   </authors>
   <commentList>
     <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1FC545F3-2336-4BC5-91B8-D4A837C4557B}">
@@ -224,7 +226,15 @@
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
       </text>
     </comment>
-    <comment ref="O90" authorId="12" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
+    <comment ref="P78" authorId="12" shapeId="0" xr:uid="{1E091BA1-9F74-4A1F-AB26-EF125F3AC8A3}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    Retired version</t>
+      </text>
+    </comment>
+    <comment ref="O90" authorId="13" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -232,7 +242,7 @@
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
       </text>
     </comment>
-    <comment ref="A94" authorId="13" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
+    <comment ref="A94" authorId="14" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -240,7 +250,7 @@
     Note: used to be ontology iddo.</t>
       </text>
     </comment>
-    <comment ref="Z101" authorId="14" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+    <comment ref="Z101" authorId="15" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -252,7 +262,7 @@
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
       </text>
     </comment>
-    <comment ref="P110" authorId="15" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
+    <comment ref="P110" authorId="16" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -260,7 +270,7 @@
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
       </text>
     </comment>
-    <comment ref="O116" authorId="16" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
+    <comment ref="O116" authorId="17" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -268,12 +278,20 @@
     See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</t>
       </text>
     </comment>
+    <comment ref="P145" authorId="18" shapeId="0" xr:uid="{927B62E8-0FF6-4EF1-936E-463477F0E0BD}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    It’s not clear which exact ifc is being used (no info in ttl)</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="946">
   <si>
     <t>BE Product (Building)</t>
   </si>
@@ -1390,12 +1408,6 @@
     <t>Representation of the IFC schema via OWL</t>
   </si>
   <si>
-    <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD2_TC1/OWL</t>
-  </si>
-  <si>
-    <t>https://technical.buildingsmart.org/standards/ifc/ifc-formats/ifcowl/</t>
-  </si>
-  <si>
     <t>dc, cc, express, list, vann</t>
   </si>
   <si>
@@ -1550,9 +1562,6 @@
   </si>
   <si>
     <t>The Distribution Element Ontology provides an ontology based on the IfcDistributionElement subtree in the IFC specification, containing a taxonomy of classes that allow to define common distribution elements (actuators, flowterminals, ...).</t>
-  </si>
-  <si>
-    <t>https://pi.pauwel.be/voc/distributionelement/index-en.html</t>
   </si>
   <si>
     <t>Material Passport Ontology</t>
@@ -2732,16 +2741,10 @@
     <t>Cost Item Ontology</t>
   </si>
   <si>
-    <t>ifc4-add2, cr, dtc</t>
-  </si>
-  <si>
     <t>CTERM</t>
   </si>
   <si>
     <t>http://w3id.org/ci#</t>
-  </si>
-  <si>
-    <t>ifc4-add2, cr, ci, dtc</t>
   </si>
   <si>
     <t>ifc4-add2, dtc</t>
@@ -3072,32 +3075,74 @@
     <t>https://saref.etsi.org/saref4city/</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Year Issued</t>
-  </si>
-  <si>
-    <t>Licensing</t>
-  </si>
-  <si>
-    <t>Use+L:Ld Standards</t>
-  </si>
-  <si>
-    <t>Short Description</t>
-  </si>
-  <si>
     <t>URI</t>
   </si>
   <si>
-    <t>Reference</t>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Conforms To Standard</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>https://pi.pauwel.be/voc/distributionelement</t>
+  </si>
+  <si>
+    <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD2/OWL</t>
+  </si>
+  <si>
+    <t>cr, ci, dtc</t>
+  </si>
+  <si>
+    <t>cr, dtc</t>
+  </si>
+  <si>
+    <t>IFC 4 ADD1</t>
+  </si>
+  <si>
+    <t>ifcOWL: https://technical.buildingsmart.org/standards/ifc/ifc-formats/ifcowl/     IFC Specifications Database and available versions: https://technical.buildingsmart.org/standards/ifc/ifc-schema-specifications/</t>
+  </si>
+  <si>
+    <t>Ontology for Building Permit Inspection Planning</t>
+  </si>
+  <si>
+    <t>OBPI</t>
+  </si>
+  <si>
+    <t>OBPI is a formal, modular OWL ontology capturing the domain of inspection planning for building‐permit authorities</t>
+  </si>
+  <si>
+    <t>https://sebseis.github.io/OBPI/</t>
+  </si>
+  <si>
+    <t>dice, dicp, dica, ifc, bot</t>
+  </si>
+  <si>
+    <t>org, foaf</t>
+  </si>
+  <si>
+    <t>https://w3id.org/obpi#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3175,6 +3220,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3234,7 +3286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3280,6 +3332,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3380,14 +3446,15 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Iryna Osadcha" id="{1897075C-2302-4D30-BAB3-34D253D1BE65}" userId="S::iryosa@ktu.lt::6240cfaf-d7a4-45d4-9faa-c3205551e2c9" providerId="AD"/>
   <person displayName="BOSCHE Frederic" id="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" userId="S::fbosche_ed.ac.uk#ext#@liveuclac.onmicrosoft.com::78e476be-b313-40b3-b6b6-5177469377c4" providerId="AD"/>
   <person displayName="Iryna Osadcha" id="{ECEF308F-25A6-4C3A-A39F-3B56B7068468}" userId="S::iryna.osadcha_ktu.lt#ext#@liveuclac.onmicrosoft.com::d5702856-02db-46c8-901b-ae9272e3ee10" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH144" totalsRowShown="0">
-  <autoFilter ref="A1:AH144" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AH145" totalsRowShown="0">
+  <autoFilter ref="A1:AH145" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}">
     <filterColumn colId="10">
       <filters>
         <filter val="n/d"/>
@@ -3398,21 +3465,21 @@
     <sortCondition ref="A1:A140"/>
   </sortState>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Name"/>
+    <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Title"/>
     <tableColumn id="2" xr3:uid="{73BDDD59-2968-475D-8401-2BF3E8999200}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{5E6AD3D9-048B-4D2F-B847-6C1A6067C850}" name="Version" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Year Issued"/>
+    <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Issued"/>
     <tableColumn id="5" xr3:uid="{8109B890-26AB-4E82-A593-277A5ACB9BEB}" name="Domain (deprecated)"/>
     <tableColumn id="6" xr3:uid="{FB87D2A8-5ECE-421B-BEEB-99CE3D46958C}" name="Primary Domain"/>
     <tableColumn id="7" xr3:uid="{881499B9-131D-4DE5-A339-98DFD60C9A69}" name="Secondary Domain"/>
     <tableColumn id="8" xr3:uid="{7DE7FAE7-F6AC-4DEB-B0A7-79E0910FD899}" name="FAIR - 5 star"/>
     <tableColumn id="9" xr3:uid="{04843D66-C3BB-4164-8392-A39781E8C45C}" name="Level of maintenance"/>
     <tableColumn id="10" xr3:uid="{31FD2BEC-7152-4DA6-ADFB-23A952D38D7D}" name="Level of use"/>
-    <tableColumn id="11" xr3:uid="{E1FC5A2F-8FAA-4353-A30F-F29A7749AB2B}" name="Licensing"/>
-    <tableColumn id="12" xr3:uid="{50E2CFE4-419A-4D16-AEC4-D9C7962383EE}" name="Use+L:Ld Standards"/>
-    <tableColumn id="13" xr3:uid="{5D297276-66F9-4459-BDF9-0A8DBD573003}" name="Short Description"/>
+    <tableColumn id="11" xr3:uid="{E1FC5A2F-8FAA-4353-A30F-F29A7749AB2B}" name="License"/>
+    <tableColumn id="12" xr3:uid="{50E2CFE4-419A-4D16-AEC4-D9C7962383EE}" name="Conforms To Standard"/>
+    <tableColumn id="13" xr3:uid="{5D297276-66F9-4459-BDF9-0A8DBD573003}" name="Description"/>
     <tableColumn id="14" xr3:uid="{2B3CEEC7-8EDA-4CF0-86E7-B36012BB1130}" name="URI"/>
-    <tableColumn id="15" xr3:uid="{33DE9137-9047-46DC-B97D-FC9A03311E62}" name="Reference"/>
+    <tableColumn id="15" xr3:uid="{33DE9137-9047-46DC-B97D-FC9A03311E62}" name="References"/>
     <tableColumn id="16" xr3:uid="{B2A4823A-8123-4352-B2A2-6077AF9C5141}" name="Linked-to ontologies AECO" dataDxfId="18"/>
     <tableColumn id="17" xr3:uid="{22B21384-AC91-4BE5-9B73-D33D0CFF9782}" name="Linked-to ontologies UPPER" dataDxfId="17"/>
     <tableColumn id="19" xr3:uid="{08126F14-AB7C-40B4-B232-7308649DC55E}" name="Linkage to upper ontologies" dataDxfId="16"/>
@@ -3796,6 +3863,9 @@
       </x:ext>
     </extLst>
   </threadedComment>
+  <threadedComment ref="P78" dT="2026-01-15T11:45:30.51" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{1E091BA1-9F74-4A1F-AB26-EF125F3AC8A3}">
+    <text>Retired version</text>
+  </threadedComment>
   <threadedComment ref="O90" dT="2025-01-28T21:38:48.03" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
     <text xml:space="preserve">See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </text>
     <extLst>
@@ -3823,24 +3893,27 @@
   <threadedComment ref="O116" dT="2025-01-27T10:48:53.23" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
     <text>See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</text>
   </threadedComment>
+  <threadedComment ref="P145" dT="2026-01-15T11:44:27.26" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{927B62E8-0FF6-4EF1-936E-463477F0E0BD}">
+    <text>It’s not clear which exact ifc is being used (no info in ttl)</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AH144"/>
+  <dimension ref="A1:AH145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="22" hidden="1" customWidth="1"/>
@@ -3870,7 +3943,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3879,7 +3952,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -3900,19 +3973,19 @@
         <v>27</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>28</v>
@@ -3945,19 +4018,19 @@
         <v>37</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AA1" t="s">
         <v>38</v>
       </c>
       <c r="AB1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AC1" t="s">
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="AE1" t="s">
         <v>40</v>
@@ -3969,15 +4042,15 @@
         <v>42</v>
       </c>
       <c r="AH1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C2" s="17">
         <v>1.1200000000000001</v>
@@ -3992,16 +4065,16 @@
         <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N2" t="s">
         <v>66</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>66</v>
@@ -4063,10 +4136,10 @@
     </row>
     <row r="3" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>66</v>
@@ -4081,19 +4154,19 @@
         <v>66</v>
       </c>
       <c r="M3" t="s">
+        <v>648</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>654</v>
-      </c>
       <c r="Q3" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>53</v>
@@ -4168,16 +4241,16 @@
         <v>61</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>53</v>
@@ -4269,7 +4342,7 @@
         <v>66</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>53</v>
@@ -4355,7 +4428,7 @@
         <v>358</v>
       </c>
       <c r="M6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>359</v>
@@ -4367,7 +4440,7 @@
         <v>361</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>53</v>
@@ -4459,7 +4532,7 @@
         <v>66</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>53</v>
@@ -4554,7 +4627,7 @@
         <v>66</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>53</v>
@@ -4969,13 +5042,13 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="B13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -4990,10 +5063,10 @@
         <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>50</v>
@@ -5002,7 +5075,7 @@
         <v>66</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>53</v>
@@ -5061,10 +5134,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>156</v>
@@ -5082,19 +5155,19 @@
         <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>53</v>
@@ -5150,10 +5223,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>100</v>
@@ -5171,19 +5244,19 @@
         <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>53</v>
@@ -5272,7 +5345,7 @@
         <v>66</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>53</v>
@@ -5331,10 +5404,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>100</v>
@@ -5352,19 +5425,19 @@
         <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>53</v>
@@ -5420,13 +5493,13 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D18">
         <v>2020</v>
@@ -5441,19 +5514,19 @@
         <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>53</v>
@@ -5509,13 +5582,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D19">
         <v>2020</v>
@@ -5530,19 +5603,19 @@
         <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>53</v>
@@ -5598,10 +5671,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>66</v>
@@ -5610,7 +5683,7 @@
         <v>2020</v>
       </c>
       <c r="E20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -5619,19 +5692,19 @@
         <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>53</v>
@@ -5818,7 +5891,7 @@
         <v>66</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>53</v>
@@ -5904,7 +5977,7 @@
         <v>120</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>53</v>
@@ -6081,11 +6154,11 @@
       <c r="O25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>646</v>
+      <c r="P25" s="21" t="s">
+        <v>643</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>53</v>
@@ -6141,10 +6214,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B26" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D26">
         <v>2023</v>
@@ -6156,19 +6229,19 @@
         <v>66</v>
       </c>
       <c r="M26" t="s">
+        <v>654</v>
+      </c>
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q26" s="20" t="s">
         <v>657</v>
-      </c>
-      <c r="N26" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>660</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>53</v>
@@ -6258,7 +6331,7 @@
         <v>66</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>53</v>
@@ -6439,7 +6512,7 @@
         <v>66</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="R29" s="9" t="s">
         <v>53</v>
@@ -6495,10 +6568,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C30" s="17">
         <v>1.1200000000000001</v>
@@ -6513,10 +6586,10 @@
         <v>66</v>
       </c>
       <c r="M30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>66</v>
@@ -6609,7 +6682,7 @@
         <v>322</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>53</v>
@@ -6855,19 +6928,19 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
       <c r="E34" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -6876,13 +6949,13 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N34" t="s">
         <v>66</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>66</v>
@@ -6977,7 +7050,7 @@
         <v>335</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="R35" s="9" t="s">
         <v>53</v>
@@ -7033,13 +7106,13 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="B36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>390</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -7054,19 +7127,19 @@
         <v>47</v>
       </c>
       <c r="M36" t="s">
+        <v>389</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="Q36" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>53</v>
@@ -7122,19 +7195,19 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B37" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -7143,19 +7216,19 @@
         <v>47</v>
       </c>
       <c r="M37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="R37" s="9" t="s">
         <v>53</v>
@@ -7211,13 +7284,13 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B38" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -7232,19 +7305,19 @@
         <v>47</v>
       </c>
       <c r="M38" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>53</v>
@@ -7300,19 +7373,19 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B39" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D39">
         <v>2022</v>
       </c>
       <c r="E39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -7321,19 +7394,19 @@
         <v>47</v>
       </c>
       <c r="M39" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>53</v>
@@ -7389,13 +7462,13 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B40" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D40">
         <v>2022</v>
@@ -7410,19 +7483,19 @@
         <v>47</v>
       </c>
       <c r="M40" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="R40" s="9" t="s">
         <v>53</v>
@@ -7570,10 +7643,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B42" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>116</v>
@@ -7588,16 +7661,16 @@
         <v>184</v>
       </c>
       <c r="M42" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>53</v>
@@ -7651,10 +7724,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B43" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C43" s="17">
         <v>0.2</v>
@@ -7669,19 +7742,19 @@
         <v>47</v>
       </c>
       <c r="M43" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>822</v>
+        <v>807</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>817</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>53</v>
@@ -7727,15 +7800,15 @@
         <v>53</v>
       </c>
       <c r="AF43" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B44" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>66</v>
@@ -7750,19 +7823,19 @@
         <v>66</v>
       </c>
       <c r="M44" t="s">
+        <v>713</v>
+      </c>
+      <c r="N44" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="N44" t="s">
-        <v>66</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>719</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>53</v>
@@ -7899,10 +7972,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B46" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C46" s="17">
         <v>0.2</v>
@@ -7917,19 +7990,19 @@
         <v>47</v>
       </c>
       <c r="M46" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>821</v>
+        <v>807</v>
+      </c>
+      <c r="P46" s="32" t="s">
+        <v>935</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>53</v>
@@ -7975,7 +8048,7 @@
         <v>53</v>
       </c>
       <c r="AF46" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="29" x14ac:dyDescent="0.35">
@@ -8010,7 +8083,7 @@
         <v>181</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>53</v>
@@ -8066,10 +8139,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B48" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C48" s="17">
         <v>0.2</v>
@@ -8078,25 +8151,25 @@
         <v>2024</v>
       </c>
       <c r="F48" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K48" t="s">
         <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>818</v>
+        <v>807</v>
+      </c>
+      <c r="P48" s="32" t="s">
+        <v>936</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="R48" s="9" t="s">
         <v>53</v>
@@ -8142,7 +8215,7 @@
         <v>53</v>
       </c>
       <c r="AF48" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
@@ -8275,7 +8348,7 @@
         <v>284</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>53</v>
@@ -8453,7 +8526,7 @@
         <v>279</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="R52" s="9" t="s">
         <v>53</v>
@@ -8509,10 +8582,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B53" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>66</v>
@@ -8530,10 +8603,10 @@
         <v>66</v>
       </c>
       <c r="M53" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>66</v>
@@ -8614,7 +8687,7 @@
         <v>192</v>
       </c>
       <c r="M54" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="N54" t="s">
         <v>66</v>
@@ -8626,7 +8699,7 @@
         <v>66</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R54" s="9" t="s">
         <v>53</v>
@@ -8703,7 +8776,7 @@
         <v>47</v>
       </c>
       <c r="M55" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>200</v>
@@ -8792,7 +8865,7 @@
         <v>184</v>
       </c>
       <c r="M56" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>207</v>
@@ -8890,7 +8963,7 @@
         <v>223</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="R57" s="9" t="s">
         <v>53</v>
@@ -9071,7 +9144,7 @@
         <v>229</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="R59" s="9" t="s">
         <v>53</v>
@@ -9142,7 +9215,7 @@
         <v>66</v>
       </c>
       <c r="M60" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>196</v>
@@ -9152,7 +9225,7 @@
         <v>66</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="R60" s="9" t="s">
         <v>53</v>
@@ -9244,7 +9317,7 @@
         <v>229</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="R61" s="9" t="s">
         <v>53</v>
@@ -9333,7 +9406,7 @@
         <v>242</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="R62" s="9" t="s">
         <v>53</v>
@@ -9425,7 +9498,7 @@
         <v>248</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="R63" s="9" t="s">
         <v>53</v>
@@ -9589,7 +9662,7 @@
         <v>66</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="R65" s="9" t="s">
         <v>53</v>
@@ -9657,7 +9730,7 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K66" t="s">
         <v>184</v>
@@ -9670,7 +9743,7 @@
         <v>66</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="R66" s="9" t="s">
         <v>53</v>
@@ -9848,7 +9921,7 @@
         <v>302</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="R68" s="9" t="s">
         <v>53</v>
@@ -9904,10 +9977,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>100</v>
@@ -9928,16 +10001,16 @@
         <v>60</v>
       </c>
       <c r="M69" t="s">
-        <v>424</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>646</v>
+        <v>422</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="P69" s="21" t="s">
+        <v>643</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>53</v>
@@ -9993,10 +10066,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B70" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C70" s="17">
         <v>0.2</v>
@@ -10011,19 +10084,19 @@
         <v>184</v>
       </c>
       <c r="M70" t="s">
+        <v>795</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q70" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>53</v>
@@ -10110,7 +10183,7 @@
         <v>290</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="R71" s="9" t="s">
         <v>53</v>
@@ -10196,7 +10269,7 @@
         <v>66</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="R72" s="9" t="s">
         <v>53</v>
@@ -10252,10 +10325,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B73" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>66</v>
@@ -10273,22 +10346,22 @@
         <v>66</v>
       </c>
       <c r="L73" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M73" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>322</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="R73" s="9" t="s">
         <v>53</v>
@@ -10334,7 +10407,7 @@
         <v>53</v>
       </c>
       <c r="AF73" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AH73" t="s">
         <v>54</v>
@@ -10342,10 +10415,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B74" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>66</v>
@@ -10363,22 +10436,22 @@
         <v>66</v>
       </c>
       <c r="L74" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M74" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="N74" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>322</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>53</v>
@@ -10424,7 +10497,7 @@
         <v>53</v>
       </c>
       <c r="AF74" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AH74" t="s">
         <v>54</v>
@@ -10432,10 +10505,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C75" s="17">
         <v>1.03</v>
@@ -10450,19 +10523,19 @@
         <v>66</v>
       </c>
       <c r="M75" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>53</v>
@@ -10640,7 +10713,7 @@
         <v>66</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="R77" s="9" t="s">
         <v>53</v>
@@ -10696,10 +10769,10 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>66</v>
@@ -10708,7 +10781,7 @@
         <v>2022</v>
       </c>
       <c r="E78" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F78" t="s">
         <v>5</v>
@@ -10720,19 +10793,19 @@
         <v>47</v>
       </c>
       <c r="M78" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>645</v>
+        <v>635</v>
+      </c>
+      <c r="P78" s="21" t="s">
+        <v>937</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>53</v>
@@ -10821,7 +10894,7 @@
         <v>354</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>53</v>
@@ -10910,7 +10983,7 @@
         <v>126</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="R80" s="9" t="s">
         <v>53</v>
@@ -10999,7 +11072,7 @@
         <v>66</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R81" s="9" t="s">
         <v>53</v>
@@ -11055,7 +11128,7 @@
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B82" t="s">
         <v>66</v>
@@ -11073,22 +11146,22 @@
         <v>10</v>
       </c>
       <c r="K82" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M82" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="N82" t="s">
         <v>66</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>53</v>
@@ -11135,10 +11208,10 @@
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B83" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>100</v>
@@ -11156,19 +11229,19 @@
         <v>47</v>
       </c>
       <c r="M83" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>126</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>53</v>
@@ -11222,10 +11295,10 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B84" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C84" s="17">
         <v>1.1000000000000001</v>
@@ -11237,16 +11310,16 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="L84" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="N84" s="22" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="Q84" s="20"/>
       <c r="R84" s="9" t="s">
@@ -11298,7 +11371,7 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="17" t="s">
@@ -11308,22 +11381,22 @@
         <v>2020</v>
       </c>
       <c r="E85" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M85" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N85" t="s">
         <v>66</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>66</v>
@@ -11385,10 +11458,10 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B86" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>66</v>
@@ -11406,10 +11479,10 @@
         <v>66</v>
       </c>
       <c r="M86" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>66</v>
@@ -11469,10 +11542,10 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B87" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>66</v>
@@ -11490,10 +11563,10 @@
         <v>66</v>
       </c>
       <c r="M87" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>66</v>
@@ -11553,10 +11626,10 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B88" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>66</v>
@@ -11571,19 +11644,19 @@
         <v>66</v>
       </c>
       <c r="M88" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="N88" s="16" t="s">
         <v>66</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="P88" s="3" t="s">
         <v>681</v>
       </c>
+      <c r="P88" s="21" t="s">
+        <v>678</v>
+      </c>
       <c r="Q88" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>53</v>
@@ -11635,110 +11708,111 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="1:34" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="B89" t="s">
-        <v>645</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89">
+      <c r="B89" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="31">
         <v>2019</v>
       </c>
       <c r="E89" t="s">
         <v>368</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="31" t="s">
         <v>1</v>
       </c>
+      <c r="H89"/>
       <c r="I89" t="s">
         <v>163</v>
       </c>
       <c r="J89" t="s">
         <v>369</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="N89" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="O89" s="34" t="s">
+        <v>938</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q89" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="O89" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T89" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U89" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V89" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W89" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="X89" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y89" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z89" s="18" t="s">
+      <c r="R89" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S89" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T89" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U89" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V89" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="W89" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="X89" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y89" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z89" s="15" t="s">
         <v>53</v>
       </c>
       <c r="AA89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AB89">
+      <c r="AB89" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC89">
+      <c r="AC89" s="31">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AD89">
+      <c r="AD89" s="31">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AE89" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH89" t="s">
+      <c r="AE89" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF89" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH89" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B90" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C90" s="17">
         <v>5</v>
@@ -11753,13 +11827,13 @@
         <v>66</v>
       </c>
       <c r="M90" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N90" t="s">
         <v>66</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>66</v>
@@ -11850,11 +11924,11 @@
       <c r="O91" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>647</v>
+      <c r="P91" s="21" t="s">
+        <v>644</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="R91" s="9" t="s">
         <v>53</v>
@@ -11910,10 +11984,10 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B92" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C92" s="17">
         <v>0.1</v>
@@ -11931,16 +12005,16 @@
         <v>60</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="R92" s="9" t="s">
         <v>53</v>
@@ -11996,7 +12070,7 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
         <v>290</v>
@@ -12014,19 +12088,19 @@
         <v>305</v>
       </c>
       <c r="M93" t="s">
+        <v>382</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O93" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="P93" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="O93" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="Q93" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="R93" s="9" t="s">
         <v>53</v>
@@ -12082,10 +12156,10 @@
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B94" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E94" t="s">
         <v>86</v>
@@ -12097,13 +12171,13 @@
         <v>66</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="R94" s="9" t="s">
         <v>53</v>
@@ -12159,10 +12233,10 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C95" s="17">
         <v>1.1000000000000001</v>
@@ -12171,19 +12245,19 @@
         <v>2020</v>
       </c>
       <c r="E95" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K95" t="s">
         <v>94</v>
       </c>
       <c r="M95" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N95" t="s">
         <v>66</v>
@@ -12195,7 +12269,7 @@
         <v>66</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R95" s="9" t="s">
         <v>53</v>
@@ -12251,7 +12325,7 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B96" t="s">
         <v>296</v>
@@ -12272,19 +12346,19 @@
         <v>47</v>
       </c>
       <c r="L96" t="s">
+        <v>406</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="N96" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="P96" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="R96" s="9" t="s">
         <v>53</v>
@@ -12340,10 +12414,10 @@
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>66</v>
@@ -12358,22 +12432,22 @@
         <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M97" t="s">
+        <v>425</v>
+      </c>
+      <c r="N97" t="s">
+        <v>66</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q97" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="N97" t="s">
-        <v>66</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="R97" s="9" t="s">
         <v>53</v>
@@ -12429,10 +12503,10 @@
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B98" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C98" s="17">
         <v>1.1000000000000001</v>
@@ -12447,22 +12521,22 @@
         <v>11</v>
       </c>
       <c r="K98" t="s">
+        <v>417</v>
+      </c>
+      <c r="M98" t="s">
+        <v>418</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="M98" t="s">
-        <v>420</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="O98" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>53</v>
@@ -12518,10 +12592,10 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B99" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>66</v>
@@ -12539,22 +12613,22 @@
         <v>66</v>
       </c>
       <c r="L99" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M99" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="N99" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q99" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="P99" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q99" s="3" t="s">
-        <v>707</v>
       </c>
       <c r="R99" s="9" t="s">
         <v>53</v>
@@ -12600,7 +12674,7 @@
         <v>53</v>
       </c>
       <c r="AF99" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AH99" t="s">
         <v>54</v>
@@ -12608,10 +12682,10 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>696</v>
+      </c>
+      <c r="B100" t="s">
         <v>699</v>
-      </c>
-      <c r="B100" t="s">
-        <v>702</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>66</v>
@@ -12629,22 +12703,22 @@
         <v>66</v>
       </c>
       <c r="L100" t="s">
+        <v>703</v>
+      </c>
+      <c r="M100" t="s">
         <v>706</v>
       </c>
-      <c r="M100" t="s">
-        <v>709</v>
-      </c>
       <c r="N100" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="R100" s="9" t="s">
         <v>53</v>
@@ -12690,7 +12764,7 @@
         <v>53</v>
       </c>
       <c r="AF100" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AH100" t="s">
         <v>54</v>
@@ -12698,10 +12772,10 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C101" s="17">
         <v>1</v>
@@ -12710,7 +12784,7 @@
         <v>2022</v>
       </c>
       <c r="E101" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
@@ -12719,19 +12793,19 @@
         <v>47</v>
       </c>
       <c r="M101" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>120</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>53</v>
@@ -12787,13 +12861,13 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D102">
         <v>2019</v>
@@ -12808,16 +12882,16 @@
         <v>66</v>
       </c>
       <c r="L102" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M102" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N102" t="s">
         <v>66</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>66</v>
@@ -12879,10 +12953,10 @@
     </row>
     <row r="103" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B103" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C103" s="17">
         <v>0.3</v>
@@ -12897,16 +12971,16 @@
         <v>66</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>126</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="R103" s="9" t="s">
         <v>53</v>
@@ -12962,10 +13036,10 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B104" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C104" s="17">
         <v>1</v>
@@ -12980,19 +13054,19 @@
         <v>60</v>
       </c>
       <c r="M104" t="s">
+        <v>671</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="P104" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="N104" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="Q104" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="R104" s="9" t="s">
         <v>53</v>
@@ -13046,7 +13120,7 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B105" t="s">
         <v>354</v>
@@ -13067,19 +13141,19 @@
         <v>47</v>
       </c>
       <c r="M105" t="s">
+        <v>440</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P105" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="Q105" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="R105" s="9" t="s">
         <v>53</v>
@@ -13135,10 +13209,10 @@
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>66</v>
@@ -13147,7 +13221,7 @@
         <v>2018</v>
       </c>
       <c r="E106" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
@@ -13156,19 +13230,19 @@
         <v>128</v>
       </c>
       <c r="M106" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>139</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="R106" s="9" t="s">
         <v>53</v>
@@ -13251,7 +13325,7 @@
         <v>273</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="R107" s="9" t="s">
         <v>53</v>
@@ -13307,10 +13381,10 @@
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B108" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C108" s="17">
         <v>2</v>
@@ -13322,19 +13396,19 @@
         <v>12</v>
       </c>
       <c r="K108" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="M108" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="R108" s="9" t="s">
         <v>53</v>
@@ -13388,10 +13462,10 @@
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B109" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>66</v>
@@ -13409,13 +13483,13 @@
         <v>66</v>
       </c>
       <c r="M109" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="N109" t="s">
         <v>66</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>66</v>
@@ -13477,10 +13551,10 @@
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B110" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C110" s="17">
         <v>4</v>
@@ -13489,26 +13563,26 @@
         <v>2019</v>
       </c>
       <c r="E110" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F110" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="K110" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M110" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="R110" s="9" t="s">
         <v>53</v>
@@ -13564,10 +13638,10 @@
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B111" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>311</v>
@@ -13582,19 +13656,19 @@
         <v>184</v>
       </c>
       <c r="M111" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>53</v>
@@ -13639,10 +13713,10 @@
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C112" s="17">
         <v>1.1000000000000001</v>
@@ -13651,7 +13725,7 @@
         <v>2020</v>
       </c>
       <c r="E112" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
@@ -13660,7 +13734,7 @@
         <v>94</v>
       </c>
       <c r="M112" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N112" t="s">
         <v>66</v>
@@ -13728,10 +13802,10 @@
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B113" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>66</v>
@@ -13740,25 +13814,25 @@
         <v>2019</v>
       </c>
       <c r="E113" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
       </c>
       <c r="G113" t="s">
+        <v>591</v>
+      </c>
+      <c r="K113" t="s">
+        <v>66</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="P113" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="K113" t="s">
-        <v>66</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="Q113" s="3" t="s">
         <v>66</v>
@@ -13817,7 +13891,7 @@
     </row>
     <row r="114" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B114" t="s">
         <v>322</v>
@@ -13838,16 +13912,16 @@
         <v>66</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="R114" s="9" t="s">
         <v>53</v>
@@ -13903,10 +13977,10 @@
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B115" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>66</v>
@@ -13924,19 +13998,19 @@
         <v>66</v>
       </c>
       <c r="M115" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>322</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="R115" s="9" t="s">
         <v>53</v>
@@ -13992,10 +14066,10 @@
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B116" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>66</v>
@@ -14016,19 +14090,19 @@
         <v>66</v>
       </c>
       <c r="M116" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N116" t="s">
         <v>66</v>
       </c>
       <c r="O116" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P116" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="R116" s="9" t="s">
         <v>53</v>
@@ -14076,13 +14150,13 @@
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B117" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D117">
         <v>2025</v>
@@ -14091,25 +14165,25 @@
         <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="K117" t="s">
         <v>144</v>
       </c>
       <c r="M117" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="R117" s="9" t="s">
         <v>53</v>
@@ -14154,18 +14228,18 @@
         <v>53</v>
       </c>
       <c r="AF117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B118" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D118">
         <v>2025</v>
@@ -14183,22 +14257,22 @@
         <v>144</v>
       </c>
       <c r="L118" t="s">
+        <v>508</v>
+      </c>
+      <c r="M118" t="s">
+        <v>509</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P118" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="M118" t="s">
-        <v>512</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="P118" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="Q118" s="3" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="R118" s="9" t="s">
         <v>53</v>
@@ -14246,7 +14320,7 @@
         <v>53</v>
       </c>
       <c r="AF118" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH118" t="s">
         <v>54</v>
@@ -14254,13 +14328,13 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B119" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D119">
         <v>2024</v>
@@ -14275,19 +14349,19 @@
         <v>144</v>
       </c>
       <c r="M119" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="R119" s="9" t="s">
         <v>53</v>
@@ -14335,7 +14409,7 @@
         <v>53</v>
       </c>
       <c r="AF119" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH119" t="s">
         <v>54</v>
@@ -14343,13 +14417,13 @@
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B120" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D120">
         <v>2025</v>
@@ -14361,19 +14435,19 @@
         <v>144</v>
       </c>
       <c r="M120" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="P120" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="R120" s="9" t="s">
         <v>53</v>
@@ -14418,18 +14492,18 @@
         <v>53</v>
       </c>
       <c r="AF120" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D121">
         <v>2025</v>
@@ -14447,19 +14521,19 @@
         <v>144</v>
       </c>
       <c r="M121" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P121" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="R121" s="9" t="s">
         <v>53</v>
@@ -14507,7 +14581,7 @@
         <v>53</v>
       </c>
       <c r="AF121" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH121" t="s">
         <v>54</v>
@@ -14515,13 +14589,13 @@
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B122" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D122">
         <v>2025</v>
@@ -14533,25 +14607,25 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K122" t="s">
         <v>144</v>
       </c>
       <c r="M122" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="R122" s="9" t="s">
         <v>53</v>
@@ -14599,7 +14673,7 @@
         <v>53</v>
       </c>
       <c r="AF122" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH122" t="s">
         <v>54</v>
@@ -14607,13 +14681,13 @@
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B123" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D123">
         <v>2025</v>
@@ -14622,25 +14696,25 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="K123" t="s">
         <v>144</v>
       </c>
       <c r="M123" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="R123" s="9" t="s">
         <v>53</v>
@@ -14685,18 +14759,18 @@
         <v>53</v>
       </c>
       <c r="AF123" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B124" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D124">
         <v>2025</v>
@@ -14708,19 +14782,19 @@
         <v>144</v>
       </c>
       <c r="M124" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="R124" s="9" t="s">
         <v>53</v>
@@ -14765,18 +14839,18 @@
         <v>53</v>
       </c>
       <c r="AF124" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B125" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D125">
         <v>2025</v>
@@ -14794,19 +14868,19 @@
         <v>144</v>
       </c>
       <c r="M125" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N125" s="29" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="R125" s="9" t="s">
         <v>53</v>
@@ -14854,7 +14928,7 @@
         <v>53</v>
       </c>
       <c r="AF125" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH125" t="s">
         <v>54</v>
@@ -14862,13 +14936,13 @@
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B126" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D126">
         <v>2025</v>
@@ -14886,19 +14960,19 @@
         <v>144</v>
       </c>
       <c r="M126" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>53</v>
@@ -14946,7 +15020,7 @@
         <v>53</v>
       </c>
       <c r="AF126" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH126" t="s">
         <v>54</v>
@@ -14954,13 +15028,13 @@
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B127" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D127">
         <v>2025</v>
@@ -14978,19 +15052,19 @@
         <v>144</v>
       </c>
       <c r="M127" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="R127" s="9" t="s">
         <v>53</v>
@@ -15038,7 +15112,7 @@
         <v>53</v>
       </c>
       <c r="AF127" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH127" t="s">
         <v>54</v>
@@ -15046,13 +15120,13 @@
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B128" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D128">
         <v>2020</v>
@@ -15067,19 +15141,19 @@
         <v>144</v>
       </c>
       <c r="M128" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="R128" s="9" t="s">
         <v>53</v>
@@ -15127,7 +15201,7 @@
         <v>53</v>
       </c>
       <c r="AF128" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH128" t="s">
         <v>54</v>
@@ -15135,13 +15209,13 @@
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B129" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D129">
         <v>2025</v>
@@ -15153,25 +15227,25 @@
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K129" t="s">
         <v>144</v>
       </c>
       <c r="M129" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="R129" s="9" t="s">
         <v>53</v>
@@ -15219,7 +15293,7 @@
         <v>53</v>
       </c>
       <c r="AF129" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AH129" t="s">
         <v>54</v>
@@ -15227,13 +15301,13 @@
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B130" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D130">
         <v>2025</v>
@@ -15245,19 +15319,19 @@
         <v>144</v>
       </c>
       <c r="M130" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="R130" s="9" t="s">
         <v>53</v>
@@ -15302,15 +15376,15 @@
         <v>53</v>
       </c>
       <c r="AF130" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B131" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C131" s="17">
         <v>0.6</v>
@@ -15319,7 +15393,7 @@
         <v>2020</v>
       </c>
       <c r="E131" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -15328,22 +15402,22 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
+        <v>556</v>
+      </c>
+      <c r="M131" t="s">
+        <v>557</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="P131" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="M131" t="s">
-        <v>560</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="O131" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="P131" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="Q131" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="R131" s="9" t="s">
         <v>53</v>
@@ -15399,7 +15473,7 @@
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B132" t="s">
         <v>139</v>
@@ -15423,16 +15497,16 @@
         <v>192</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>53</v>
@@ -15488,10 +15562,10 @@
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B133" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>66</v>
@@ -15515,10 +15589,10 @@
         <v>66</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q133" s="21" t="s">
         <v>66</v>
@@ -15577,10 +15651,10 @@
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>66</v>
@@ -15595,19 +15669,19 @@
         <v>325</v>
       </c>
       <c r="M134" t="s">
+        <v>546</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q134" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="P134" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q134" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="R134" s="9" t="s">
         <v>53</v>
@@ -15663,10 +15737,10 @@
     </row>
     <row r="135" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B135" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>66</v>
@@ -15687,19 +15761,19 @@
       </c>
       <c r="L135"/>
       <c r="M135" t="s">
+        <v>664</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="P135" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="Q135" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="P135" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q135" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="R135" s="9" t="s">
         <v>53</v>
@@ -15754,10 +15828,10 @@
     </row>
     <row r="136" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C136" s="17">
         <v>1.1399999999999999</v>
@@ -15778,19 +15852,19 @@
       </c>
       <c r="L136"/>
       <c r="M136" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="R136" s="9" t="s">
         <v>53</v>
@@ -15847,10 +15921,10 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B137" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>66</v>
@@ -15865,13 +15939,13 @@
         <v>66</v>
       </c>
       <c r="M137" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="N137" t="s">
         <v>66</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>66</v>
@@ -15933,10 +16007,10 @@
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B138" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>66</v>
@@ -15951,13 +16025,13 @@
         <v>66</v>
       </c>
       <c r="M138" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="N138" t="s">
         <v>66</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>66</v>
@@ -16019,10 +16093,10 @@
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C139" s="17">
         <v>1.01</v>
@@ -16037,19 +16111,19 @@
         <v>66</v>
       </c>
       <c r="M139" t="s">
+        <v>597</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q139" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="P139" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q139" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="R139" s="9" t="s">
         <v>53</v>
@@ -16105,10 +16179,10 @@
     </row>
     <row r="140" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C140" s="17">
         <v>1.03</v>
@@ -16129,19 +16203,19 @@
       </c>
       <c r="L140"/>
       <c r="M140" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="R140" s="9" t="s">
         <v>53</v>
@@ -16198,10 +16272,10 @@
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B141" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C141" s="26" t="s">
         <v>318</v>
@@ -16216,19 +16290,19 @@
         <v>184</v>
       </c>
       <c r="M141" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R141" s="9" t="s">
         <v>53</v>
@@ -16282,10 +16356,10 @@
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B142" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C142" s="17" t="s">
         <v>311</v>
@@ -16294,25 +16368,25 @@
         <v>2025</v>
       </c>
       <c r="F142" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="K142" t="s">
         <v>325</v>
       </c>
       <c r="M142" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="O142" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="R142" s="9" t="s">
         <v>53</v>
@@ -16366,10 +16440,10 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B143" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C143" s="26" t="s">
         <v>116</v>
@@ -16381,25 +16455,25 @@
         <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="K143" t="s">
         <v>60</v>
       </c>
       <c r="M143" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="R143" s="9" t="s">
         <v>53</v>
@@ -16453,10 +16527,10 @@
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B144" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>116</v>
@@ -16474,19 +16548,19 @@
         <v>60</v>
       </c>
       <c r="M144" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="N144" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="O144" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="P144" s="3" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="R144" s="9" t="s">
         <v>53</v>
@@ -16535,6 +16609,91 @@
         <v>66</v>
       </c>
       <c r="AH144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>939</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>940</v>
+      </c>
+      <c r="C145" s="37">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>2025</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" t="s">
+        <v>184</v>
+      </c>
+      <c r="M145" t="s">
+        <v>941</v>
+      </c>
+      <c r="N145" s="30" t="s">
+        <v>945</v>
+      </c>
+      <c r="O145" s="30" t="s">
+        <v>942</v>
+      </c>
+      <c r="P145" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q145" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="R145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z145" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA145" s="8"/>
+      <c r="AB145" s="35">
+        <f>COUNTIF(R145:T145, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AC145" s="35">
+        <f>COUNTIF(U145:W145, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AD145" s="35">
+        <f>COUNTIF(X145:Z145, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG145" s="35"/>
+      <c r="AH145" t="s">
         <v>54</v>
       </c>
     </row>
@@ -16701,93 +16860,95 @@
     <hyperlink ref="O79" r:id="rId158" xr:uid="{9A7609D3-7D8E-4C4A-8AEA-452AE0FA7D25}"/>
     <hyperlink ref="O6" r:id="rId159" xr:uid="{51B25D32-FFD9-43F2-9C5F-06368A4DCF31}"/>
     <hyperlink ref="O91" r:id="rId160" xr:uid="{457779B0-3910-4DF4-9287-78089B75614E}"/>
-    <hyperlink ref="O89" r:id="rId161" xr:uid="{8F4EF2FE-8372-4FD0-B21B-0C73B90F723E}"/>
-    <hyperlink ref="O92" r:id="rId162" xr:uid="{039752D6-A57E-42F7-BA40-8C6F6916F6AB}"/>
-    <hyperlink ref="O13" r:id="rId163" xr:uid="{A90D194B-4E3C-444A-836D-6B5DB5BE736F}"/>
-    <hyperlink ref="O93" r:id="rId164" xr:uid="{43676EE7-6CC7-4535-89EF-4313B121B397}"/>
-    <hyperlink ref="O14" r:id="rId165" xr:uid="{60E836C5-06DB-4B9A-BB8B-F3EA2AB8908E}"/>
-    <hyperlink ref="O95" r:id="rId166" xr:uid="{48445DE7-4124-459A-89FE-A5785E8E6D21}"/>
-    <hyperlink ref="O96" r:id="rId167" xr:uid="{92547D63-9E10-4C2A-B940-F80F86C31D6C}"/>
-    <hyperlink ref="O15" r:id="rId168" xr:uid="{07239EE8-B9CC-484E-8B7D-D4422BB013EF}"/>
-    <hyperlink ref="O98" r:id="rId169" xr:uid="{38AD3B56-8CE4-4A88-8E60-759B3016A491}"/>
-    <hyperlink ref="O103" r:id="rId170" xr:uid="{86F4132D-8166-41D6-939D-D1945683D6A9}"/>
-    <hyperlink ref="O101" r:id="rId171" xr:uid="{66A7EF04-2FDB-4C3B-975E-7D3C74F244A9}"/>
-    <hyperlink ref="O105" r:id="rId172" xr:uid="{BA6720FD-FEE7-4DB0-A843-2EA5626483C1}"/>
-    <hyperlink ref="O90" r:id="rId173" xr:uid="{E146E9FE-BFFA-4CC4-B47B-1EA975C335A4}"/>
-    <hyperlink ref="O17" r:id="rId174" xr:uid="{DEA61234-433D-41CE-982A-5C458C6C9CE7}"/>
-    <hyperlink ref="O106" r:id="rId175" xr:uid="{A3C3D363-450B-47FC-85E0-69B19823C28F}"/>
-    <hyperlink ref="O18" r:id="rId176" xr:uid="{B8F617E8-3043-49ED-A585-92DB248768F3}"/>
-    <hyperlink ref="O118" r:id="rId177" xr:uid="{D23D7F1D-2BBE-49F6-AC74-60F99A2EA57A}"/>
-    <hyperlink ref="O125" r:id="rId178" xr:uid="{EBD0BDC5-4ED9-4F5F-BF58-85383C670443}"/>
-    <hyperlink ref="O121" r:id="rId179" xr:uid="{A5B805CB-CAD5-41FA-9EBA-D9642CBFE26D}"/>
-    <hyperlink ref="O122" r:id="rId180" xr:uid="{19A859D1-052B-4DAB-B7CC-0A6AC9D8F7F2}"/>
-    <hyperlink ref="O126" r:id="rId181" xr:uid="{5C25EA57-1862-4EB2-B42F-C38878D6FDBB}"/>
-    <hyperlink ref="O127" r:id="rId182" xr:uid="{137F4CB3-5E96-4F0B-9112-FB0E767219A3}"/>
-    <hyperlink ref="O128" r:id="rId183" xr:uid="{381C9CC3-D7F0-4DA5-B89C-D32C1EFFAE7F}"/>
-    <hyperlink ref="O129" r:id="rId184" xr:uid="{442FADE2-705E-4347-9E1B-6BE95B74C7E9}"/>
-    <hyperlink ref="O119" r:id="rId185" xr:uid="{05D0A8E5-D137-468D-956A-C6A0EC0AF994}"/>
-    <hyperlink ref="O31" r:id="rId186" xr:uid="{620792CE-5A18-431A-8E73-2089AAC2983A}"/>
-    <hyperlink ref="N3" r:id="rId187" xr:uid="{18B11FEB-46B8-4F25-B7A7-43D0660773AF}"/>
-    <hyperlink ref="O3" r:id="rId188" xr:uid="{DF8AF1A2-5F3B-473B-B683-E72393CE6C51}"/>
-    <hyperlink ref="O26" r:id="rId189" xr:uid="{126CAD1B-6FF2-4635-9D25-3F3F7D9670EA}"/>
-    <hyperlink ref="N83" r:id="rId190" xr:uid="{489CA57F-DCF3-41DA-8898-872148FB6F5F}"/>
-    <hyperlink ref="O83" r:id="rId191" xr:uid="{9654F2F7-1E02-4E09-A37F-80D575E0BA5D}"/>
-    <hyperlink ref="N135" r:id="rId192" xr:uid="{379242D3-4097-44A4-BCAA-022CAB27D0A6}"/>
-    <hyperlink ref="O135" r:id="rId193" xr:uid="{C4642B4A-6CA6-4B1B-AEA7-F282A7BA1125}"/>
-    <hyperlink ref="N104" r:id="rId194" xr:uid="{E7B471DC-8260-46D5-8219-67CCDE010FF7}"/>
-    <hyperlink ref="O104" r:id="rId195" xr:uid="{E3CDA6E1-5BA4-46F2-A80F-5C15D83C0303}"/>
-    <hyperlink ref="N73" r:id="rId196" location=" " xr:uid="{59759E3E-3E56-4248-9A1D-100570F87189}"/>
-    <hyperlink ref="N74" r:id="rId197" xr:uid="{3EE4CC13-C8A8-4DC2-8307-EE051275073A}"/>
-    <hyperlink ref="O74" r:id="rId198" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{817CC67B-E10C-486B-B840-1A90AC8F8001}"/>
-    <hyperlink ref="O73" r:id="rId199" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{9872E0DC-DD1A-4F7D-990B-D11F499DF594}"/>
-    <hyperlink ref="N100" r:id="rId200" xr:uid="{C59116B7-9A37-45AD-944D-31FBA0AB37FA}"/>
-    <hyperlink ref="N99" r:id="rId201" xr:uid="{B3CB67E7-9836-4B7C-A6F0-C8CB27F2953C}"/>
-    <hyperlink ref="O100" r:id="rId202" xr:uid="{34F30490-219E-4B7D-A1EC-0B260FE981E2}"/>
-    <hyperlink ref="O99" r:id="rId203" xr:uid="{41BD3A7F-AFCD-4935-8926-4154FF4269C0}"/>
-    <hyperlink ref="N42" r:id="rId204" xr:uid="{255E7D4D-6124-4B25-BBDC-95ECD936A489}"/>
-    <hyperlink ref="O44" r:id="rId205" xr:uid="{B14227AF-54CC-4C9C-B4D0-136F1D70BCA7}"/>
-    <hyperlink ref="O30" r:id="rId206" xr:uid="{1434D078-B9AA-47C8-82EB-C4A9A03293DC}"/>
-    <hyperlink ref="O108" r:id="rId207" display="https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3" xr:uid="{8F6CA822-1BD4-4EE0-B1E1-9F4149E95A51}"/>
-    <hyperlink ref="N108" r:id="rId208" xr:uid="{6C55BAE3-AC52-4A54-ADFB-4C03AECDF46E}"/>
-    <hyperlink ref="O70" r:id="rId209" xr:uid="{C4B9ED1E-BBE3-49BD-842E-4772F661899A}"/>
-    <hyperlink ref="N70" r:id="rId210" xr:uid="{8E2664D8-B1A3-4730-A93D-55B9FD57EEDA}"/>
-    <hyperlink ref="N84" r:id="rId211" xr:uid="{08C5E487-88FE-4DF1-B467-1395F7A4BC9B}"/>
-    <hyperlink ref="N46" r:id="rId212" xr:uid="{65D5C98C-7FB5-4D0C-9129-AC9BA38E326C}"/>
-    <hyperlink ref="O84" r:id="rId213" xr:uid="{71DF83D9-A3F2-4617-81EC-6509843A9ECB}"/>
-    <hyperlink ref="N43" r:id="rId214" xr:uid="{49173063-ADBB-4AF0-8A41-43F101EE5D98}"/>
-    <hyperlink ref="O46" r:id="rId215" xr:uid="{C86B7AA1-7720-453B-96B5-40E5111F1D5E}"/>
-    <hyperlink ref="O43" r:id="rId216" xr:uid="{47DAFF98-112D-4BFE-94B5-9B24AD785751}"/>
-    <hyperlink ref="O48" r:id="rId217" xr:uid="{522AA585-6EDD-4DCB-9E01-8F5F0E73DE41}"/>
-    <hyperlink ref="N48" r:id="rId218" xr:uid="{6D639257-A493-4310-B78E-4BA9F050859C}"/>
-    <hyperlink ref="N111" r:id="rId219" xr:uid="{4B8F988B-83C8-49C2-8219-51C094F40A60}"/>
-    <hyperlink ref="O111" r:id="rId220" xr:uid="{7A03C06B-D9CF-477A-9D1E-259582B74BF4}"/>
-    <hyperlink ref="O87" r:id="rId221" xr:uid="{E087CEFA-3678-4500-9D1B-55CF085965DE}"/>
-    <hyperlink ref="O86" r:id="rId222" xr:uid="{A1442788-16F5-4178-B392-1B700DEF638B}"/>
-    <hyperlink ref="O53" r:id="rId223" xr:uid="{2A27FCF3-313D-42DA-A837-C791ED670B49}"/>
-    <hyperlink ref="N124" r:id="rId224" xr:uid="{2BC9F386-788E-4C18-BDCF-75459CA653C0}"/>
-    <hyperlink ref="O124" r:id="rId225" xr:uid="{05BEBE7E-E8D6-422A-8AA4-CC58C2AF732F}"/>
-    <hyperlink ref="N117" r:id="rId226" xr:uid="{CD9528AE-555C-40BA-83B2-4E0332AF6CBF}"/>
-    <hyperlink ref="O117" r:id="rId227" xr:uid="{2F5723C5-E134-4E8F-80CD-53C0B091B446}"/>
-    <hyperlink ref="N120" r:id="rId228" xr:uid="{F4F5FCC7-62FC-4E9B-86B0-E57E517947CD}"/>
-    <hyperlink ref="O120" r:id="rId229" xr:uid="{40DD2012-78E9-4A7C-AF57-D63B5446252D}"/>
-    <hyperlink ref="N123" r:id="rId230" xr:uid="{2D7B95A9-8090-46E9-883B-982469E636D3}"/>
-    <hyperlink ref="O123" r:id="rId231" xr:uid="{63381EF1-2ADD-4F5E-9521-90EAF42FED35}"/>
-    <hyperlink ref="N130" r:id="rId232" xr:uid="{CF1F8098-F930-45E0-80E5-4564F180CF5A}"/>
-    <hyperlink ref="O130" r:id="rId233" xr:uid="{85C86255-2EFE-412B-8C7A-5093F2959238}"/>
-    <hyperlink ref="O82" r:id="rId234" xr:uid="{F40C8C8B-C3B0-4FA4-825C-82BC99AA456D}"/>
-    <hyperlink ref="N141" r:id="rId235" xr:uid="{7ADFBE34-97FF-4F43-908A-001BF3B2781E}"/>
-    <hyperlink ref="O141" r:id="rId236" xr:uid="{94710006-BA26-43E2-A645-55FCE25D4FB9}"/>
-    <hyperlink ref="N142" r:id="rId237" xr:uid="{6B27BBF5-6A3F-464E-884F-09439291A1D8}"/>
-    <hyperlink ref="N144" r:id="rId238" display="https://w3id.org/hmo" xr:uid="{7F86E95E-8F78-4306-BDB5-E42739A9F497}"/>
-    <hyperlink ref="N143" r:id="rId239" xr:uid="{D1049976-4189-4098-8B7A-A4FBB294F09E}"/>
-    <hyperlink ref="O144" r:id="rId240" xr:uid="{30C86014-BA17-46D9-869F-D0EB293E3CC6}"/>
-    <hyperlink ref="O143" r:id="rId241" xr:uid="{707EF97C-857E-4A6D-8457-A87CEB3939FC}"/>
+    <hyperlink ref="O92" r:id="rId161" xr:uid="{039752D6-A57E-42F7-BA40-8C6F6916F6AB}"/>
+    <hyperlink ref="O13" r:id="rId162" xr:uid="{A90D194B-4E3C-444A-836D-6B5DB5BE736F}"/>
+    <hyperlink ref="O93" r:id="rId163" xr:uid="{43676EE7-6CC7-4535-89EF-4313B121B397}"/>
+    <hyperlink ref="O14" r:id="rId164" xr:uid="{60E836C5-06DB-4B9A-BB8B-F3EA2AB8908E}"/>
+    <hyperlink ref="O95" r:id="rId165" xr:uid="{48445DE7-4124-459A-89FE-A5785E8E6D21}"/>
+    <hyperlink ref="O96" r:id="rId166" xr:uid="{92547D63-9E10-4C2A-B940-F80F86C31D6C}"/>
+    <hyperlink ref="O15" r:id="rId167" xr:uid="{07239EE8-B9CC-484E-8B7D-D4422BB013EF}"/>
+    <hyperlink ref="O98" r:id="rId168" xr:uid="{38AD3B56-8CE4-4A88-8E60-759B3016A491}"/>
+    <hyperlink ref="O103" r:id="rId169" xr:uid="{86F4132D-8166-41D6-939D-D1945683D6A9}"/>
+    <hyperlink ref="O101" r:id="rId170" xr:uid="{66A7EF04-2FDB-4C3B-975E-7D3C74F244A9}"/>
+    <hyperlink ref="O105" r:id="rId171" xr:uid="{BA6720FD-FEE7-4DB0-A843-2EA5626483C1}"/>
+    <hyperlink ref="O90" r:id="rId172" xr:uid="{E146E9FE-BFFA-4CC4-B47B-1EA975C335A4}"/>
+    <hyperlink ref="O17" r:id="rId173" xr:uid="{DEA61234-433D-41CE-982A-5C458C6C9CE7}"/>
+    <hyperlink ref="O106" r:id="rId174" xr:uid="{A3C3D363-450B-47FC-85E0-69B19823C28F}"/>
+    <hyperlink ref="O18" r:id="rId175" xr:uid="{B8F617E8-3043-49ED-A585-92DB248768F3}"/>
+    <hyperlink ref="O118" r:id="rId176" xr:uid="{D23D7F1D-2BBE-49F6-AC74-60F99A2EA57A}"/>
+    <hyperlink ref="O125" r:id="rId177" xr:uid="{EBD0BDC5-4ED9-4F5F-BF58-85383C670443}"/>
+    <hyperlink ref="O121" r:id="rId178" xr:uid="{A5B805CB-CAD5-41FA-9EBA-D9642CBFE26D}"/>
+    <hyperlink ref="O122" r:id="rId179" xr:uid="{19A859D1-052B-4DAB-B7CC-0A6AC9D8F7F2}"/>
+    <hyperlink ref="O126" r:id="rId180" xr:uid="{5C25EA57-1862-4EB2-B42F-C38878D6FDBB}"/>
+    <hyperlink ref="O127" r:id="rId181" xr:uid="{137F4CB3-5E96-4F0B-9112-FB0E767219A3}"/>
+    <hyperlink ref="O128" r:id="rId182" xr:uid="{381C9CC3-D7F0-4DA5-B89C-D32C1EFFAE7F}"/>
+    <hyperlink ref="O129" r:id="rId183" xr:uid="{442FADE2-705E-4347-9E1B-6BE95B74C7E9}"/>
+    <hyperlink ref="O119" r:id="rId184" xr:uid="{05D0A8E5-D137-468D-956A-C6A0EC0AF994}"/>
+    <hyperlink ref="O31" r:id="rId185" xr:uid="{620792CE-5A18-431A-8E73-2089AAC2983A}"/>
+    <hyperlink ref="N3" r:id="rId186" xr:uid="{18B11FEB-46B8-4F25-B7A7-43D0660773AF}"/>
+    <hyperlink ref="O3" r:id="rId187" xr:uid="{DF8AF1A2-5F3B-473B-B683-E72393CE6C51}"/>
+    <hyperlink ref="O26" r:id="rId188" xr:uid="{126CAD1B-6FF2-4635-9D25-3F3F7D9670EA}"/>
+    <hyperlink ref="N83" r:id="rId189" xr:uid="{489CA57F-DCF3-41DA-8898-872148FB6F5F}"/>
+    <hyperlink ref="O83" r:id="rId190" xr:uid="{9654F2F7-1E02-4E09-A37F-80D575E0BA5D}"/>
+    <hyperlink ref="N135" r:id="rId191" xr:uid="{379242D3-4097-44A4-BCAA-022CAB27D0A6}"/>
+    <hyperlink ref="O135" r:id="rId192" xr:uid="{C4642B4A-6CA6-4B1B-AEA7-F282A7BA1125}"/>
+    <hyperlink ref="N104" r:id="rId193" xr:uid="{E7B471DC-8260-46D5-8219-67CCDE010FF7}"/>
+    <hyperlink ref="O104" r:id="rId194" xr:uid="{E3CDA6E1-5BA4-46F2-A80F-5C15D83C0303}"/>
+    <hyperlink ref="N73" r:id="rId195" location=" " xr:uid="{59759E3E-3E56-4248-9A1D-100570F87189}"/>
+    <hyperlink ref="N74" r:id="rId196" xr:uid="{3EE4CC13-C8A8-4DC2-8307-EE051275073A}"/>
+    <hyperlink ref="O74" r:id="rId197" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{817CC67B-E10C-486B-B840-1A90AC8F8001}"/>
+    <hyperlink ref="O73" r:id="rId198" display="https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D " xr:uid="{9872E0DC-DD1A-4F7D-990B-D11F499DF594}"/>
+    <hyperlink ref="N100" r:id="rId199" xr:uid="{C59116B7-9A37-45AD-944D-31FBA0AB37FA}"/>
+    <hyperlink ref="N99" r:id="rId200" xr:uid="{B3CB67E7-9836-4B7C-A6F0-C8CB27F2953C}"/>
+    <hyperlink ref="O100" r:id="rId201" xr:uid="{34F30490-219E-4B7D-A1EC-0B260FE981E2}"/>
+    <hyperlink ref="O99" r:id="rId202" xr:uid="{41BD3A7F-AFCD-4935-8926-4154FF4269C0}"/>
+    <hyperlink ref="N42" r:id="rId203" xr:uid="{255E7D4D-6124-4B25-BBDC-95ECD936A489}"/>
+    <hyperlink ref="O44" r:id="rId204" xr:uid="{B14227AF-54CC-4C9C-B4D0-136F1D70BCA7}"/>
+    <hyperlink ref="O30" r:id="rId205" xr:uid="{1434D078-B9AA-47C8-82EB-C4A9A03293DC}"/>
+    <hyperlink ref="O108" r:id="rId206" display="https://lov.linkeddata.es/dataset/lov/vocabs/jup/versions/2016-07-14.n3" xr:uid="{8F6CA822-1BD4-4EE0-B1E1-9F4149E95A51}"/>
+    <hyperlink ref="N108" r:id="rId207" xr:uid="{6C55BAE3-AC52-4A54-ADFB-4C03AECDF46E}"/>
+    <hyperlink ref="O70" r:id="rId208" xr:uid="{C4B9ED1E-BBE3-49BD-842E-4772F661899A}"/>
+    <hyperlink ref="N70" r:id="rId209" xr:uid="{8E2664D8-B1A3-4730-A93D-55B9FD57EEDA}"/>
+    <hyperlink ref="N84" r:id="rId210" xr:uid="{08C5E487-88FE-4DF1-B467-1395F7A4BC9B}"/>
+    <hyperlink ref="N46" r:id="rId211" xr:uid="{65D5C98C-7FB5-4D0C-9129-AC9BA38E326C}"/>
+    <hyperlink ref="O84" r:id="rId212" xr:uid="{71DF83D9-A3F2-4617-81EC-6509843A9ECB}"/>
+    <hyperlink ref="N43" r:id="rId213" xr:uid="{49173063-ADBB-4AF0-8A41-43F101EE5D98}"/>
+    <hyperlink ref="O46" r:id="rId214" xr:uid="{C86B7AA1-7720-453B-96B5-40E5111F1D5E}"/>
+    <hyperlink ref="O43" r:id="rId215" xr:uid="{47DAFF98-112D-4BFE-94B5-9B24AD785751}"/>
+    <hyperlink ref="O48" r:id="rId216" xr:uid="{522AA585-6EDD-4DCB-9E01-8F5F0E73DE41}"/>
+    <hyperlink ref="N48" r:id="rId217" xr:uid="{6D639257-A493-4310-B78E-4BA9F050859C}"/>
+    <hyperlink ref="N111" r:id="rId218" xr:uid="{4B8F988B-83C8-49C2-8219-51C094F40A60}"/>
+    <hyperlink ref="O111" r:id="rId219" xr:uid="{7A03C06B-D9CF-477A-9D1E-259582B74BF4}"/>
+    <hyperlink ref="O87" r:id="rId220" xr:uid="{E087CEFA-3678-4500-9D1B-55CF085965DE}"/>
+    <hyperlink ref="O86" r:id="rId221" xr:uid="{A1442788-16F5-4178-B392-1B700DEF638B}"/>
+    <hyperlink ref="O53" r:id="rId222" xr:uid="{2A27FCF3-313D-42DA-A837-C791ED670B49}"/>
+    <hyperlink ref="N124" r:id="rId223" xr:uid="{2BC9F386-788E-4C18-BDCF-75459CA653C0}"/>
+    <hyperlink ref="O124" r:id="rId224" xr:uid="{05BEBE7E-E8D6-422A-8AA4-CC58C2AF732F}"/>
+    <hyperlink ref="N117" r:id="rId225" xr:uid="{CD9528AE-555C-40BA-83B2-4E0332AF6CBF}"/>
+    <hyperlink ref="O117" r:id="rId226" xr:uid="{2F5723C5-E134-4E8F-80CD-53C0B091B446}"/>
+    <hyperlink ref="N120" r:id="rId227" xr:uid="{F4F5FCC7-62FC-4E9B-86B0-E57E517947CD}"/>
+    <hyperlink ref="O120" r:id="rId228" xr:uid="{40DD2012-78E9-4A7C-AF57-D63B5446252D}"/>
+    <hyperlink ref="N123" r:id="rId229" xr:uid="{2D7B95A9-8090-46E9-883B-982469E636D3}"/>
+    <hyperlink ref="O123" r:id="rId230" xr:uid="{63381EF1-2ADD-4F5E-9521-90EAF42FED35}"/>
+    <hyperlink ref="N130" r:id="rId231" xr:uid="{CF1F8098-F930-45E0-80E5-4564F180CF5A}"/>
+    <hyperlink ref="O130" r:id="rId232" xr:uid="{85C86255-2EFE-412B-8C7A-5093F2959238}"/>
+    <hyperlink ref="O82" r:id="rId233" xr:uid="{F40C8C8B-C3B0-4FA4-825C-82BC99AA456D}"/>
+    <hyperlink ref="N141" r:id="rId234" xr:uid="{7ADFBE34-97FF-4F43-908A-001BF3B2781E}"/>
+    <hyperlink ref="O141" r:id="rId235" xr:uid="{94710006-BA26-43E2-A645-55FCE25D4FB9}"/>
+    <hyperlink ref="N142" r:id="rId236" xr:uid="{6B27BBF5-6A3F-464E-884F-09439291A1D8}"/>
+    <hyperlink ref="N144" r:id="rId237" display="https://w3id.org/hmo" xr:uid="{7F86E95E-8F78-4306-BDB5-E42739A9F497}"/>
+    <hyperlink ref="N143" r:id="rId238" xr:uid="{D1049976-4189-4098-8B7A-A4FBB294F09E}"/>
+    <hyperlink ref="O144" r:id="rId239" xr:uid="{30C86014-BA17-46D9-869F-D0EB293E3CC6}"/>
+    <hyperlink ref="O143" r:id="rId240" xr:uid="{707EF97C-857E-4A6D-8457-A87CEB3939FC}"/>
+    <hyperlink ref="O89" r:id="rId241" display="https://technical.buildingsmart.org/standards/ifc/ifc-formats/ifcowl/" xr:uid="{8F4EF2FE-8372-4FD0-B21B-0C73B90F723E}"/>
+    <hyperlink ref="N145" r:id="rId242" xr:uid="{E8197203-BF8A-4091-AED5-ED5E794B12A6}"/>
+    <hyperlink ref="O145" r:id="rId243" xr:uid="{4616C43F-48C0-4053-9CA5-9473C8807EDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId242"/>
-  <legacyDrawing r:id="rId243"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId244"/>
+  <legacyDrawing r:id="rId245"/>
   <tableParts count="1">
-    <tablePart r:id="rId244"/>
+    <tablePart r:id="rId246"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -16796,7 +16957,7 @@
           <x14:formula1>
             <xm:f>Domains!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G144</xm:sqref>
+          <xm:sqref>F2:G145</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16819,12 +16980,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -16854,7 +17015,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -16889,17 +17050,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -16909,7 +17070,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
@@ -16929,7 +17090,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
@@ -16944,12 +17105,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
@@ -16971,6 +17132,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ff84ddffcc90b35ddafa68a8e3f57c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aaa14ffaad9a81e002c763535d74184" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -17174,26 +17354,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B3783E-F272-4FB2-B0CD-BE7CB395B3FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17211,24 +17390,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FC047-DD26-4B10-9129-C3B57BECA018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3E666E-9C3E-4D79-B387-830C096149B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -3081,9 +3081,6 @@
     <t>Issued</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -3133,6 +3130,9 @@
   </si>
   <si>
     <t>https://w3id.org/obpi#</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -3221,11 +3221,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3286,7 +3287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3335,18 +3336,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3465,7 +3463,7 @@
     <sortCondition ref="A1:A140"/>
   </sortState>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Title"/>
+    <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Name"/>
     <tableColumn id="2" xr3:uid="{73BDDD59-2968-475D-8401-2BF3E8999200}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{5E6AD3D9-048B-4D2F-B847-6C1A6067C850}" name="Version" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Issued"/>
@@ -3907,7 +3905,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M152" sqref="M152"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,8 +3940,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>928</v>
+      <c r="A1" s="36" t="s">
+        <v>945</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3973,19 +3971,19 @@
         <v>27</v>
       </c>
       <c r="K1" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>929</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>930</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>931</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>926</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>28</v>
@@ -7998,8 +7996,8 @@
       <c r="O46" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="P46" s="32" t="s">
-        <v>935</v>
+      <c r="P46" s="3" t="s">
+        <v>934</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>811</v>
@@ -8165,8 +8163,8 @@
       <c r="O48" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="P48" s="32" t="s">
-        <v>936</v>
+      <c r="P48" s="3" t="s">
+        <v>935</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>811</v>
@@ -10004,7 +10002,7 @@
         <v>422</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="P69" s="21" t="s">
         <v>643</v>
@@ -10802,7 +10800,7 @@
         <v>635</v>
       </c>
       <c r="P78" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>636</v>
@@ -11715,7 +11713,7 @@
       <c r="B89" s="31" t="s">
         <v>642</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="32" t="s">
         <v>66</v>
       </c>
       <c r="D89" s="31">
@@ -11743,11 +11741,11 @@
       <c r="M89" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="N89" s="34" t="s">
-        <v>934</v>
-      </c>
-      <c r="O89" s="34" t="s">
-        <v>938</v>
+      <c r="N89" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="O89" s="33" t="s">
+        <v>937</v>
       </c>
       <c r="P89" s="21" t="s">
         <v>66</v>
@@ -16614,12 +16612,12 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>938</v>
+      </c>
+      <c r="B145" s="34" t="s">
         <v>939</v>
       </c>
-      <c r="B145" s="36" t="s">
-        <v>940</v>
-      </c>
-      <c r="C145" s="37">
+      <c r="C145" s="35">
         <v>1</v>
       </c>
       <c r="D145">
@@ -16632,20 +16630,20 @@
         <v>184</v>
       </c>
       <c r="M145" t="s">
+        <v>940</v>
+      </c>
+      <c r="N145" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="O145" s="30" t="s">
         <v>941</v>
       </c>
-      <c r="N145" s="30" t="s">
-        <v>945</v>
-      </c>
-      <c r="O145" s="30" t="s">
+      <c r="P145" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="P145" s="21" t="s">
+      <c r="Q145" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="Q145" s="32" t="s">
-        <v>944</v>
-      </c>
       <c r="R145" s="9" t="s">
         <v>53</v>
       </c>
@@ -16674,15 +16672,15 @@
         <v>53</v>
       </c>
       <c r="AA145" s="8"/>
-      <c r="AB145" s="35">
+      <c r="AB145">
         <f>COUNTIF(R145:T145, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AC145" s="35">
+      <c r="AC145">
         <f>COUNTIF(U145:W145, "yes")</f>
         <v>3</v>
       </c>
-      <c r="AD145" s="35">
+      <c r="AD145">
         <f>COUNTIF(X145:Z145, "yes")</f>
         <v>3</v>
       </c>
@@ -16692,7 +16690,6 @@
       <c r="AF145" t="s">
         <v>66</v>
       </c>
-      <c r="AG145" s="35"/>
       <c r="AH145" t="s">
         <v>54</v>
       </c>
@@ -17132,25 +17129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ff84ddffcc90b35ddafa68a8e3f57c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aaa14ffaad9a81e002c763535d74184" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -17354,25 +17332,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B3783E-F272-4FB2-B0CD-BE7CB395B3FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17390,6 +17369,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Іра\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3E666E-9C3E-4D79-B387-830C096149B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2429B6F-9686-43FA-B3B1-093E78DBD0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
@@ -43,6 +43,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={71B5F379-C086-4B92-983B-AFC244E3587F}</author>
+    <author>tc={989258E7-9F0B-4F05-8141-0D9109AC5F40}</author>
+    <author>tc={C6B5012E-44BF-4449-9E24-196A2D3017E4}</author>
+    <author>tc={074CC748-731F-4922-9404-3758D4569400}</author>
+    <author>tc={4C2AF009-BCC7-4140-953E-9EBC2CA18C13}</author>
+    <author>tc={A3277E1B-1B1D-452F-92F8-C600F866F5EF}</author>
     <author>Frederic Bosche</author>
     <author>tc={15ACBA56-A77C-4283-BBC4-F67788C8E63D}</author>
     <author>tc={FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}</author>
@@ -64,7 +70,55 @@
     <author>tc={927B62E8-0FF6-4EF1-936E-463477F0E0BD}</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1FC545F3-2336-4BC5-91B8-D4A837C4557B}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{71B5F379-C086-4B92-983B-AFC244E3587F}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    Title</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{989258E7-9F0B-4F05-8141-0D9109AC5F40}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    Issued</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{C6B5012E-44BF-4449-9E24-196A2D3017E4}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    License</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="3" shapeId="0" xr:uid="{074CC748-731F-4922-9404-3758D4569400}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    Conforms To Standard</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="4" shapeId="0" xr:uid="{4C2AF009-BCC7-4140-953E-9EBC2CA18C13}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    Description</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="5" shapeId="0" xr:uid="{A3277E1B-1B1D-452F-92F8-C600F866F5EF}">
+      <text>
+        <t>[Ланцюжок приміток]
+Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
+Примітка:
+    References</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="6" shapeId="0" xr:uid="{1FC545F3-2336-4BC5-91B8-D4A837C4557B}">
       <text>
         <r>
           <rPr>
@@ -88,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{DDC3F8C0-E372-4E58-9BFF-9363BC89A2D0}">
+    <comment ref="Y1" authorId="6" shapeId="0" xr:uid="{DDC3F8C0-E372-4E58-9BFF-9363BC89A2D0}">
       <text>
         <r>
           <rPr>
@@ -112,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
+    <comment ref="Z1" authorId="7" shapeId="0" xr:uid="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -120,7 +174,7 @@
     @Arghavan: one issue we have I think is that there is a difference between explicitly reuse concepts from another ontology and providing some alignment information. I think we need to keep our lives easy and only consider explicit reuse, i.e. explicitly referred to within the owl file</t>
       </text>
     </comment>
-    <comment ref="O2" authorId="2" shapeId="0" xr:uid="{FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}">
+    <comment ref="O2" authorId="8" shapeId="0" xr:uid="{FE4BDE30-982D-4AEE-9FF1-D227ED2BE257}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -128,7 +182,7 @@
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
       </text>
     </comment>
-    <comment ref="P9" authorId="3" shapeId="0" xr:uid="{885FB683-17A8-485A-8691-53C79CD2DF41}">
+    <comment ref="P9" authorId="9" shapeId="0" xr:uid="{885FB683-17A8-485A-8691-53C79CD2DF41}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -137,7 +191,7 @@
 The Free Class (FC) ontology requires me to give my details to get access. But, it is otherwise an AECO ontology. Should I add it?</t>
       </text>
     </comment>
-    <comment ref="Q21" authorId="4" shapeId="0" xr:uid="{973D48F1-79B3-4920-8BDA-8C16C92B26F0}">
+    <comment ref="Q21" authorId="10" shapeId="0" xr:uid="{973D48F1-79B3-4920-8BDA-8C16C92B26F0}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -149,7 +203,7 @@
     That seems better. Where did you find that list?</t>
       </text>
     </comment>
-    <comment ref="O30" authorId="5" shapeId="0" xr:uid="{69563DD9-E157-466B-B7C0-685744C5F29A}">
+    <comment ref="O30" authorId="11" shapeId="0" xr:uid="{69563DD9-E157-466B-B7C0-685744C5F29A}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -157,7 +211,7 @@
     See also https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl</t>
       </text>
     </comment>
-    <comment ref="R32" authorId="6" shapeId="0" xr:uid="{4B8EE336-FBE0-47A3-9930-259BDD87F0E2}">
+    <comment ref="R32" authorId="12" shapeId="0" xr:uid="{4B8EE336-FBE0-47A3-9930-259BDD87F0E2}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -174,7 +228,7 @@
     @Arghavan</t>
       </text>
     </comment>
-    <comment ref="O34" authorId="7" shapeId="0" xr:uid="{79AF74C8-61FA-441F-B37E-08E57B208671}">
+    <comment ref="O34" authorId="13" shapeId="0" xr:uid="{79AF74C8-61FA-441F-B37E-08E57B208671}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -182,7 +236,7 @@
     See also https://cui.unige.ch/isi/onto/citygml2.0.owl</t>
       </text>
     </comment>
-    <comment ref="A49" authorId="8" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
+    <comment ref="A49" authorId="14" shapeId="0" xr:uid="{F8B9D496-3A44-41C2-9AF2-0758B48A9DD7}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -202,7 +256,7 @@
     So, I think we are fine. Because we put "no" to everything on the right. But, maybe we should ask our colleagues for their opinion whether or not to keep it.</t>
       </text>
     </comment>
-    <comment ref="A76" authorId="9" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
+    <comment ref="A76" authorId="15" shapeId="0" xr:uid="{23BF3BDA-5DFC-4776-A2D7-8F9ADF115349}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -210,7 +264,7 @@
     This ontology seems to have 6 sub-modules. Should we add them to our database?</t>
       </text>
     </comment>
-    <comment ref="Q76" authorId="10" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
+    <comment ref="Q76" authorId="16" shapeId="0" xr:uid="{F740CA61-96DA-4774-9A8A-ED9440FE2098}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -218,7 +272,7 @@
     Should we add the AffectedBy ontology (aff; https://w3id.org/affectedBy#) and the epp ontology (https://w3id.org/eep# ) to our database?</t>
       </text>
     </comment>
-    <comment ref="O77" authorId="11" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
+    <comment ref="O77" authorId="17" shapeId="0" xr:uid="{62695919-9F9A-40CF-9011-F3B8FA1114C9}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -226,7 +280,7 @@
     See also http://semantic.eurobau.com/eurobau-utility.owl </t>
       </text>
     </comment>
-    <comment ref="P78" authorId="12" shapeId="0" xr:uid="{1E091BA1-9F74-4A1F-AB26-EF125F3AC8A3}">
+    <comment ref="P78" authorId="18" shapeId="0" xr:uid="{1E091BA1-9F74-4A1F-AB26-EF125F3AC8A3}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -234,7 +288,7 @@
     Retired version</t>
       </text>
     </comment>
-    <comment ref="O90" authorId="13" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
+    <comment ref="O90" authorId="19" shapeId="0" xr:uid="{9A5C529B-FA1E-4373-8A74-C3F792561B4A}">
       <text>
         <t xml:space="preserve">[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -242,7 +296,7 @@
     See also  http://p-comp.di.uoa.gr/projects/ontonav/INOdoc/index.html </t>
       </text>
     </comment>
-    <comment ref="A94" authorId="14" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
+    <comment ref="A94" authorId="20" shapeId="0" xr:uid="{0BE7EF65-0D94-4F3A-8D1B-9B7F0932BB6B}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -250,7 +304,7 @@
     Note: used to be ontology iddo.</t>
       </text>
     </comment>
-    <comment ref="Z101" authorId="15" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
+    <comment ref="Z101" authorId="21" shapeId="0" xr:uid="{51CFF48A-CD78-4902-8B0C-DC9E113097CA}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -262,7 +316,7 @@
     We don't :) The ontology is extended by developers with this taxonomy in 2024</t>
       </text>
     </comment>
-    <comment ref="P110" authorId="16" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
+    <comment ref="P110" authorId="22" shapeId="0" xr:uid="{9B4FF538-E0FF-4ED4-A111-F93178D73F43}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -270,7 +324,7 @@
     @Arghavan: I notice it refers to brickpatches and geojson. These are not in our database just now. Should we add them?</t>
       </text>
     </comment>
-    <comment ref="O116" authorId="17" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
+    <comment ref="O116" authorId="23" shapeId="0" xr:uid="{C1CFE5A4-62BC-4FCA-B09F-944B8ACAFADF}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -278,7 +332,7 @@
     See also http://www.semanticbim.com/ontologies/residentialBuilding.owl</t>
       </text>
     </comment>
-    <comment ref="P145" authorId="18" shapeId="0" xr:uid="{927B62E8-0FF6-4EF1-936E-463477F0E0BD}">
+    <comment ref="P145" authorId="24" shapeId="0" xr:uid="{927B62E8-0FF6-4EF1-936E-463477F0E0BD}">
       <text>
         <t>[Ланцюжок приміток]
 Ваша версія Excel дає змогу прочитати цей ланцюжок приміток, проте будь-які зміни в примітці буде вилучено, якщо відкрити цей файл у новішій версії Excel. Докладні відомості: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -3078,21 +3132,6 @@
     <t>URI</t>
   </si>
   <si>
-    <t>Issued</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Conforms To Standard</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
     <t>https://pi.pauwel.be/voc/distributionelement</t>
   </si>
   <si>
@@ -3133,6 +3172,21 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Year Issued</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>Use+L:Ld Standards</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3227,6 +3281,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3466,18 +3533,18 @@
     <tableColumn id="1" xr3:uid="{9A74C9B8-D669-464E-AF30-98194DC54E48}" name="Name"/>
     <tableColumn id="2" xr3:uid="{73BDDD59-2968-475D-8401-2BF3E8999200}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{5E6AD3D9-048B-4D2F-B847-6C1A6067C850}" name="Version" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Issued"/>
+    <tableColumn id="4" xr3:uid="{F5811825-18DF-4D53-8992-1DB0B4736D7E}" name="Year Issued"/>
     <tableColumn id="5" xr3:uid="{8109B890-26AB-4E82-A593-277A5ACB9BEB}" name="Domain (deprecated)"/>
     <tableColumn id="6" xr3:uid="{FB87D2A8-5ECE-421B-BEEB-99CE3D46958C}" name="Primary Domain"/>
     <tableColumn id="7" xr3:uid="{881499B9-131D-4DE5-A339-98DFD60C9A69}" name="Secondary Domain"/>
     <tableColumn id="8" xr3:uid="{7DE7FAE7-F6AC-4DEB-B0A7-79E0910FD899}" name="FAIR - 5 star"/>
     <tableColumn id="9" xr3:uid="{04843D66-C3BB-4164-8392-A39781E8C45C}" name="Level of maintenance"/>
     <tableColumn id="10" xr3:uid="{31FD2BEC-7152-4DA6-ADFB-23A952D38D7D}" name="Level of use"/>
-    <tableColumn id="11" xr3:uid="{E1FC5A2F-8FAA-4353-A30F-F29A7749AB2B}" name="License"/>
-    <tableColumn id="12" xr3:uid="{50E2CFE4-419A-4D16-AEC4-D9C7962383EE}" name="Conforms To Standard"/>
-    <tableColumn id="13" xr3:uid="{5D297276-66F9-4459-BDF9-0A8DBD573003}" name="Description"/>
+    <tableColumn id="11" xr3:uid="{E1FC5A2F-8FAA-4353-A30F-F29A7749AB2B}" name="Licensing"/>
+    <tableColumn id="12" xr3:uid="{50E2CFE4-419A-4D16-AEC4-D9C7962383EE}" name="Use+L:Ld Standards"/>
+    <tableColumn id="13" xr3:uid="{5D297276-66F9-4459-BDF9-0A8DBD573003}" name="Short Description"/>
     <tableColumn id="14" xr3:uid="{2B3CEEC7-8EDA-4CF0-86E7-B36012BB1130}" name="URI"/>
-    <tableColumn id="15" xr3:uid="{33DE9137-9047-46DC-B97D-FC9A03311E62}" name="References"/>
+    <tableColumn id="15" xr3:uid="{33DE9137-9047-46DC-B97D-FC9A03311E62}" name="Reference"/>
     <tableColumn id="16" xr3:uid="{B2A4823A-8123-4352-B2A2-6077AF9C5141}" name="Linked-to ontologies AECO" dataDxfId="18"/>
     <tableColumn id="17" xr3:uid="{22B21384-AC91-4BE5-9B73-D33D0CFF9782}" name="Linked-to ontologies UPPER" dataDxfId="17"/>
     <tableColumn id="19" xr3:uid="{08126F14-AB7C-40B4-B232-7308649DC55E}" name="Linkage to upper ontologies" dataDxfId="16"/>
@@ -3771,6 +3838,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2026-01-15T12:19:02.78" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{71B5F379-C086-4B92-983B-AFC244E3587F}">
+    <text>Title</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2026-01-15T12:19:26.06" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{989258E7-9F0B-4F05-8141-0D9109AC5F40}">
+    <text>Issued</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2026-01-15T12:20:11.84" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{C6B5012E-44BF-4449-9E24-196A2D3017E4}">
+    <text>License</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2026-01-15T12:20:35.38" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{074CC748-731F-4922-9404-3758D4569400}">
+    <text>Conforms To Standard</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2026-01-15T12:21:10.47" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{4C2AF009-BCC7-4140-953E-9EBC2CA18C13}">
+    <text>Description</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2026-01-15T12:21:49.70" personId="{1897075C-2302-4D30-BAB3-34D253D1BE65}" id="{A3277E1B-1B1D-452F-92F8-C600F866F5EF}">
+    <text>References</text>
+  </threadedComment>
   <threadedComment ref="Z1" dT="2025-01-26T10:26:15.62" personId="{0EE3F1E9-506E-4FC5-A865-C5CF5A3B9A85}" id="{15ACBA56-A77C-4283-BBC4-F67788C8E63D}">
     <text>@Arghavan: one issue we have I think is that there is a difference between explicitly reuse concepts from another ontology and providing some alignment information. I think we need to keep our lives easy and only consider explicit reuse, i.e. explicitly referred to within the owl file</text>
   </threadedComment>
@@ -3905,7 +3990,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3940,8 +4025,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>945</v>
+      <c r="A1" s="27" t="s">
+        <v>940</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -3950,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -3971,19 +4056,19 @@
         <v>27</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>930</v>
-      </c>
-      <c r="N1" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="N1" s="36" t="s">
         <v>926</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>28</v>
@@ -7997,7 +8082,7 @@
         <v>807</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>811</v>
@@ -8164,7 +8249,7 @@
         <v>807</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>811</v>
@@ -10002,7 +10087,7 @@
         <v>422</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="P69" s="21" t="s">
         <v>643</v>
@@ -10800,7 +10885,7 @@
         <v>635</v>
       </c>
       <c r="P78" s="21" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>636</v>
@@ -11742,10 +11827,10 @@
         <v>370</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="P89" s="21" t="s">
         <v>66</v>
@@ -16612,10 +16697,10 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C145" s="35">
         <v>1</v>
@@ -16630,19 +16715,19 @@
         <v>184</v>
       </c>
       <c r="M145" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="N145" s="30" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="O145" s="30" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="P145" s="21" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="R145" s="9" t="s">
         <v>53</v>
@@ -17129,6 +17214,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ff84ddffcc90b35ddafa68a8e3f57c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aaa14ffaad9a81e002c763535d74184" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -17332,26 +17436,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B3783E-F272-4FB2-B0CD-BE7CB395B3FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17369,24 +17472,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" enabled="0" method="" siteId="{1faf88fe-a998-4c5b-93c9-210a11d9a5c2}" removed="1"/>

--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0F534C-6E14-4C76-B760-B6E5DA40CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C2D0E-7B72-4308-AD07-27F4EDA35815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5460,7 +5460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -28233,25 +28235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100617EB9F8E3ABAA489A6191778AAEABC8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be0c97903f599d62d21cd63252cde9aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e06419a-bc24-4bca-aaf1-3b90bf7d837a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="784cf5edc76b43144e46369ffdbd4f65" ns2:_="">
     <xsd:import namespace="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
@@ -28455,25 +28438,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57874B87-94C2-4EC8-911D-8271965282CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5798C2B9-ADF6-4B63-9E02-5C931B722A0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1130DA5C-7101-4542-A84A-ADC9A3A2005F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28489,4 +28473,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5798C2B9-ADF6-4B63-9E02-5C931B722A0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57874B87-94C2-4EC8-911D-8271965282CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -985,8 +985,12 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AT2" t="n">
+        <v>0.6722222</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.6722222</v>
+      </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
@@ -1223,8 +1227,12 @@
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
@@ -1477,9 +1485,11 @@
       <c r="AS4" t="n">
         <v>15</v>
       </c>
-      <c r="AT4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>0.104166664</v>
       </c>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
@@ -1745,8 +1755,12 @@
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
+      <c r="AT5" t="n">
+        <v>0.6979166999999999</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.6979166999999999</v>
+      </c>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
@@ -1787,12 +1801,12 @@
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>n39bb303ddb28459489b3fd0a0fb4c73ab1</t>
+          <t>n3244b1251ee04b699f21ebdd1500db17b1</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>['n39bb303ddb28459489b3fd0a0fb4c73ab1']</t>
+          <t>['n3244b1251ee04b699f21ebdd1500db17b1']</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr"/>
@@ -1982,9 +1996,11 @@
       <c r="AS6" t="n">
         <v>15</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>0.65871125</v>
+      </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>0.65871125</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
@@ -2034,12 +2050,12 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>n7bd07ab275dc4507a3c1fb54b401dc13b1</t>
+          <t>nae7ce59cd1c74adb908fa80b10955ab5b1</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>['n7bd07ab275dc4507a3c1fb54b401dc13b1']</t>
+          <t>['nae7ce59cd1c74adb908fa80b10955ab5b1']</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr"/>
@@ -2083,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="CD6" t="n">
-        <v>1</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="7">
@@ -2224,8 +2240,12 @@
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
@@ -2424,8 +2444,12 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
       <c r="AV8" t="inlineStr">
         <is>
           <t>ISO/CEN 23386, ISO/CEN 23387</t>
@@ -2674,9 +2698,11 @@
       <c r="AS9" t="n">
         <v>22</v>
       </c>
-      <c r="AT9" t="inlineStr"/>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
       <c r="AU9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
@@ -2918,9 +2944,11 @@
       <c r="AS10" t="n">
         <v>15</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
@@ -3182,8 +3210,12 @@
         </is>
       </c>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>0.6666666999999999</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.6666666999999999</v>
+      </c>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
@@ -3224,12 +3256,12 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>nd4d092c0bb0b4b53a9bd515673ed020cb1</t>
+          <t>n34c3ada48c28465f83ed8415f038363bb1</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>['nd4d092c0bb0b4b53a9bd515673ed020cb1']</t>
+          <t>['n34c3ada48c28465f83ed8415f038363bb1']</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr"/>
@@ -3388,8 +3420,12 @@
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
@@ -3576,9 +3612,11 @@
       <c r="AS13" t="n">
         <v>15</v>
       </c>
-      <c r="AT13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
@@ -3766,9 +3804,11 @@
       <c r="AS14" t="n">
         <v>15</v>
       </c>
-      <c r="AT14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
@@ -3994,9 +4034,11 @@
       <c r="AS15" t="n">
         <v>15</v>
       </c>
-      <c r="AT15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>0.104166664</v>
       </c>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
@@ -4253,8 +4295,12 @@
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
@@ -4352,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="CD16" t="n">
-        <v>2</v>
+        <v>1.986</v>
       </c>
     </row>
     <row r="17">
@@ -4530,8 +4576,12 @@
         </is>
       </c>
       <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>0.8611111</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.8611111</v>
+      </c>
       <c r="AV17" t="inlineStr">
         <is>
           <t>ISO-12006</t>
@@ -4792,8 +4842,12 @@
         </is>
       </c>
       <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>0.6597222700000001</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.6597222700000001</v>
+      </c>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
@@ -4834,12 +4888,12 @@
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>nebe1d6eb1f264cada3404dcc572dbf92b8, nebe1d6eb1f264cada3404dcc572dbf92b9, nebe1d6eb1f264cada3404dcc572dbf92b10, nebe1d6eb1f264cada3404dcc572dbf92b11</t>
+          <t>n31739d9d92ad40e59072f273b243dbe2b8, n31739d9d92ad40e59072f273b243dbe2b9, n31739d9d92ad40e59072f273b243dbe2b10, n31739d9d92ad40e59072f273b243dbe2b11</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>['nebe1d6eb1f264cada3404dcc572dbf92b8', 'nebe1d6eb1f264cada3404dcc572dbf92b9', 'nebe1d6eb1f264cada3404dcc572dbf92b10', 'nebe1d6eb1f264cada3404dcc572dbf92b11']</t>
+          <t>['n31739d9d92ad40e59072f273b243dbe2b8', 'n31739d9d92ad40e59072f273b243dbe2b9', 'n31739d9d92ad40e59072f273b243dbe2b10', 'n31739d9d92ad40e59072f273b243dbe2b11']</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr"/>
@@ -5048,9 +5102,11 @@
       <c r="AS19" t="n">
         <v>78</v>
       </c>
-      <c r="AT19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
       <c r="AU19" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
@@ -5100,22 +5156,22 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>n498e4b99ddfa490d9a3f8c55fabe4319b7274</t>
+          <t>n44744923c071402ebde9a58be3d12dd6b7274</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>['n498e4b99ddfa490d9a3f8c55fabe4319b7274']</t>
+          <t>['n44744923c071402ebde9a58be3d12dd6b7274']</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>n498e4b99ddfa490d9a3f8c55fabe4319b7276</t>
+          <t>n44744923c071402ebde9a58be3d12dd6b7276</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>n498e4b99ddfa490d9a3f8c55fabe4319b7276</t>
+          <t>n44744923c071402ebde9a58be3d12dd6b7276</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
@@ -5308,8 +5364,12 @@
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>0.7395833000000001</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.7395833000000001</v>
+      </c>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
@@ -5350,12 +5410,12 @@
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>nc2ea097a19674b2995408b1e809df9d8b1, nc2ea097a19674b2995408b1e809df9d8b2</t>
+          <t>n4a99d86e00f44609a5555bb477f0c721b1, n4a99d86e00f44609a5555bb477f0c721b2</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>['nc2ea097a19674b2995408b1e809df9d8b1', 'nc2ea097a19674b2995408b1e809df9d8b2']</t>
+          <t>['n4a99d86e00f44609a5555bb477f0c721b1', 'n4a99d86e00f44609a5555bb477f0c721b2']</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr"/>
@@ -5566,9 +5626,11 @@
       <c r="AS21" t="n">
         <v>15</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
+      <c r="AT21" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>0.104166664</v>
       </c>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
@@ -5675,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="CD21" t="n">
-        <v>2</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="22">
@@ -5782,8 +5844,12 @@
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
@@ -6020,8 +6086,12 @@
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
+      <c r="AT23" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.8125</v>
+      </c>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
@@ -6054,12 +6124,12 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>n6842406de79b4da889bba858396c12bbb1</t>
+          <t>n67c76c94e3a14b7098d050656db422d8b1</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>['n6842406de79b4da889bba858396c12bbb1']</t>
+          <t>['n67c76c94e3a14b7098d050656db422d8b1']</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr"/>
@@ -6210,8 +6280,12 @@
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
@@ -6404,8 +6478,12 @@
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
@@ -6664,8 +6742,12 @@
         </is>
       </c>
       <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
+      <c r="AT26" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
@@ -6714,12 +6796,12 @@
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>n0e130e84f70548209e41d06d5be35fa2b3, n0e130e84f70548209e41d06d5be35fa2b4</t>
+          <t>nca51b53ad14c4384a9ecd0358baa5e8eb3, nca51b53ad14c4384a9ecd0358baa5e8eb4</t>
         </is>
       </c>
       <c r="BO26" t="inlineStr">
         <is>
-          <t>['n0e130e84f70548209e41d06d5be35fa2b3', 'n0e130e84f70548209e41d06d5be35fa2b4']</t>
+          <t>['nca51b53ad14c4384a9ecd0358baa5e8eb3', 'nca51b53ad14c4384a9ecd0358baa5e8eb4']</t>
         </is>
       </c>
       <c r="BP26" t="inlineStr"/>
@@ -6878,8 +6960,12 @@
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
@@ -6949,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="CD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7114,8 +7200,12 @@
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
+      <c r="AT28" t="n">
+        <v>0.7973485</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.7973485</v>
+      </c>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
@@ -7164,12 +7254,12 @@
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>n28ffd50793024d5b865e9a978242f20ab1</t>
+          <t>ne92fefd39a694cb3a94846113a8ffc30b1</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>['n28ffd50793024d5b865e9a978242f20ab1']</t>
+          <t>['ne92fefd39a694cb3a94846113a8ffc30b1']</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr"/>
@@ -7213,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="CD28" t="n">
-        <v>1</v>
+        <v>1.389</v>
       </c>
     </row>
     <row r="29">
@@ -7394,8 +7484,12 @@
         </is>
       </c>
       <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
+      <c r="AT29" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
@@ -7444,12 +7538,12 @@
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>n21b9e2b265b346888941d4adfa85e4dab3, n21b9e2b265b346888941d4adfa85e4dab4</t>
+          <t>n3a56e66f2729490cbc26c23fa43dc5edb3, n3a56e66f2729490cbc26c23fa43dc5edb4</t>
         </is>
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t>['n21b9e2b265b346888941d4adfa85e4dab3', 'n21b9e2b265b346888941d4adfa85e4dab4']</t>
+          <t>['n3a56e66f2729490cbc26c23fa43dc5edb3', 'n3a56e66f2729490cbc26c23fa43dc5edb4']</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr"/>
@@ -7674,8 +7768,12 @@
         </is>
       </c>
       <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
+      <c r="AT30" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
@@ -7724,12 +7822,12 @@
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>n6390b2ebfd974b50b08f99b1ef23cb6ab3, n6390b2ebfd974b50b08f99b1ef23cb6ab4</t>
+          <t>ne1dc41f433d441dc934dee8f4f0a064cb3, ne1dc41f433d441dc934dee8f4f0a064cb4</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>['n6390b2ebfd974b50b08f99b1ef23cb6ab3', 'n6390b2ebfd974b50b08f99b1ef23cb6ab4']</t>
+          <t>['ne1dc41f433d441dc934dee8f4f0a064cb3', 'ne1dc41f433d441dc934dee8f4f0a064cb4']</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr"/>
@@ -7947,8 +8045,12 @@
         </is>
       </c>
       <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AT31" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.8125</v>
+      </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
@@ -7997,12 +8099,12 @@
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr">
         <is>
-          <t>n2f7b303cdbea4cca9d230706edde4e4bb1</t>
+          <t>n44185ebbc4be42fd9f9a9a3b6c3a5c5eb1</t>
         </is>
       </c>
       <c r="BO31" t="inlineStr">
         <is>
-          <t>['n2f7b303cdbea4cca9d230706edde4e4bb1']</t>
+          <t>['n44185ebbc4be42fd9f9a9a3b6c3a5c5eb1']</t>
         </is>
       </c>
       <c r="BP31" t="inlineStr"/>
@@ -8046,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="CD31" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="32">
@@ -8220,8 +8322,12 @@
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
+      <c r="AT32" t="n">
+        <v>0.7892157400000001</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.7892157400000001</v>
+      </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
@@ -8262,22 +8368,22 @@
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr">
         <is>
-          <t>naec60fa6a2b14b379b49c030147b49f9b1</t>
+          <t>n02a4f2f658e84a55bfe7e389fc80fb4bb1</t>
         </is>
       </c>
       <c r="BO32" t="inlineStr">
         <is>
-          <t>['naec60fa6a2b14b379b49c030147b49f9b1']</t>
+          <t>['n02a4f2f658e84a55bfe7e389fc80fb4bb1']</t>
         </is>
       </c>
       <c r="BP32" t="inlineStr">
         <is>
-          <t>naec60fa6a2b14b379b49c030147b49f9b3</t>
+          <t>n02a4f2f658e84a55bfe7e389fc80fb4bb3</t>
         </is>
       </c>
       <c r="BQ32" t="inlineStr">
         <is>
-          <t>naec60fa6a2b14b379b49c030147b49f9b3</t>
+          <t>n02a4f2f658e84a55bfe7e389fc80fb4bb3</t>
         </is>
       </c>
       <c r="BR32" t="inlineStr">
@@ -8319,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="CD32" t="n">
-        <v>2</v>
+        <v>1.941</v>
       </c>
     </row>
     <row r="33">
@@ -8434,8 +8540,12 @@
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
@@ -8684,8 +8794,12 @@
         </is>
       </c>
       <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
@@ -8783,7 +8897,7 @@
         <v>3</v>
       </c>
       <c r="CD34" t="n">
-        <v>1</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="35">
@@ -8942,8 +9056,12 @@
         </is>
       </c>
       <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
@@ -9041,7 +9159,7 @@
         <v>3</v>
       </c>
       <c r="CD35" t="n">
-        <v>1</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="36">
@@ -9212,8 +9330,12 @@
         </is>
       </c>
       <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
       <c r="AV36" t="inlineStr">
         <is>
           <t>ISO/IEC 21838-2</t>
@@ -9319,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="CD36" t="n">
-        <v>2</v>
+        <v>1.647</v>
       </c>
     </row>
     <row r="37">
@@ -9476,8 +9598,12 @@
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
+      <c r="AT37" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
@@ -9583,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="CD37" t="n">
-        <v>1</v>
+        <v>1.497</v>
       </c>
     </row>
     <row r="38">
@@ -9754,8 +9880,12 @@
         </is>
       </c>
       <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
+      <c r="AT38" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
@@ -9853,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="CD38" t="n">
-        <v>1</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="39">
@@ -10024,8 +10154,12 @@
         </is>
       </c>
       <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
+      <c r="AT39" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV39" t="inlineStr">
         <is>
           <t>BS EN 16310:2013, HOAI, RIBA, ISO 22263</t>
@@ -10131,7 +10265,7 @@
         <v>3</v>
       </c>
       <c r="CD39" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="40">
@@ -10272,8 +10406,12 @@
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
+      <c r="AT40" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
@@ -10544,8 +10682,12 @@
         </is>
       </c>
       <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
+      <c r="AT41" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
@@ -10643,7 +10785,7 @@
         <v>3</v>
       </c>
       <c r="CD41" t="n">
-        <v>2</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="42">
@@ -10806,8 +10948,12 @@
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
+      <c r="AT42" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
@@ -10913,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="CD42" t="n">
-        <v>1</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="43">
@@ -11084,8 +11230,12 @@
         </is>
       </c>
       <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
+      <c r="AT43" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
@@ -11183,7 +11333,7 @@
         <v>3</v>
       </c>
       <c r="CD43" t="n">
-        <v>2</v>
+        <v>1.524</v>
       </c>
     </row>
     <row r="44">
@@ -11316,8 +11466,12 @@
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
+      <c r="AT44" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
@@ -11552,8 +11706,12 @@
         </is>
       </c>
       <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr"/>
+      <c r="AT45" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
@@ -11802,8 +11960,12 @@
         </is>
       </c>
       <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
+      <c r="AT46" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
@@ -11901,7 +12063,7 @@
         <v>3</v>
       </c>
       <c r="CD46" t="n">
-        <v>2</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="47">
@@ -12000,8 +12162,12 @@
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr"/>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
       <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
@@ -12178,8 +12344,12 @@
       <c r="AQ48" t="inlineStr"/>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="inlineStr"/>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
@@ -12423,8 +12593,12 @@
       <c r="AQ49" t="inlineStr"/>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
-      <c r="AU49" t="inlineStr"/>
+      <c r="AT49" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
       <c r="AX49" t="inlineStr"/>
@@ -12514,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="CD49" t="n">
-        <v>1</v>
+        <v>1.226</v>
       </c>
     </row>
     <row r="50">
@@ -12679,8 +12853,12 @@
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="inlineStr"/>
-      <c r="AU50" t="inlineStr"/>
+      <c r="AT50" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV50" t="inlineStr">
         <is>
           <t>ISO/DIS 59004</t>
@@ -12778,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="CD50" t="n">
-        <v>2</v>
+        <v>1.986</v>
       </c>
     </row>
     <row r="51">
@@ -12959,8 +13137,12 @@
         </is>
       </c>
       <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
+      <c r="AT51" t="n">
+        <v>0.8611111</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.8611111</v>
+      </c>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
       <c r="AX51" t="inlineStr"/>
@@ -13009,12 +13191,12 @@
       </c>
       <c r="BN51" t="inlineStr">
         <is>
-          <t>n47034cc08ce84de68f53454e9bddbf83b1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
+          <t>n0f5122232f024f6f987d3ad335536392b1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
         </is>
       </c>
       <c r="BO51" t="inlineStr">
         <is>
-          <t>['n47034cc08ce84de68f53454e9bddbf83b1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
+          <t>['n0f5122232f024f6f987d3ad335536392b1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
         </is>
       </c>
       <c r="BP51" t="inlineStr"/>
@@ -13217,8 +13399,12 @@
       <c r="AQ52" t="inlineStr"/>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
+      <c r="AT52" t="n">
+        <v>0.72222215</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.72222215</v>
+      </c>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
@@ -13475,8 +13661,12 @@
         </is>
       </c>
       <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
+      <c r="AT53" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.1875</v>
+      </c>
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
@@ -13725,8 +13915,12 @@
       <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
+      <c r="AT54" t="n">
+        <v>0.6388889</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.6388889</v>
+      </c>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="inlineStr"/>
@@ -13973,8 +14167,12 @@
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="inlineStr"/>
-      <c r="AU55" t="inlineStr"/>
+      <c r="AT55" t="n">
+        <v>0.68402785</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.68402785</v>
+      </c>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="inlineStr"/>
@@ -14230,8 +14428,12 @@
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr"/>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
       <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
@@ -14496,8 +14698,12 @@
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
+      <c r="AT57" t="n">
+        <v>0.6770833000000001</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.6770833000000001</v>
+      </c>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
@@ -14714,8 +14920,12 @@
       <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
+      <c r="AT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0</v>
+      </c>
       <c r="AV58" t="inlineStr">
         <is>
           <t xml:space="preserve"> ISO 3166-2</t>
@@ -14793,7 +15003,7 @@
         <v>2</v>
       </c>
       <c r="CD58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -14962,8 +15172,12 @@
         </is>
       </c>
       <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="inlineStr"/>
-      <c r="AU59" t="inlineStr"/>
+      <c r="AT59" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="inlineStr"/>
@@ -15213,8 +15427,12 @@
       <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
-      <c r="AT60" t="inlineStr"/>
-      <c r="AU60" t="inlineStr"/>
+      <c r="AT60" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="inlineStr"/>
@@ -15308,7 +15526,7 @@
         <v>3</v>
       </c>
       <c r="CD60" t="n">
-        <v>2</v>
+        <v>1.932</v>
       </c>
     </row>
     <row r="61">
@@ -15431,8 +15649,12 @@
       <c r="AQ61" t="inlineStr"/>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr"/>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
       <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="inlineStr"/>
@@ -15645,8 +15867,12 @@
       <c r="AQ62" t="inlineStr"/>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
-      <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr"/>
+      <c r="AT62" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
@@ -15716,7 +15942,7 @@
         <v>3</v>
       </c>
       <c r="CD62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -15839,8 +16065,12 @@
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
-      <c r="AT63" t="inlineStr"/>
-      <c r="AU63" t="inlineStr"/>
+      <c r="AT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0</v>
+      </c>
       <c r="AV63" t="inlineStr"/>
       <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="inlineStr"/>
@@ -16089,8 +16319,12 @@
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="inlineStr"/>
-      <c r="AU64" t="inlineStr"/>
+      <c r="AT64" t="n">
+        <v>0.3784722</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.3784722</v>
+      </c>
       <c r="AV64" t="inlineStr"/>
       <c r="AW64" t="inlineStr"/>
       <c r="AX64" t="inlineStr"/>
@@ -16188,7 +16422,7 @@
         <v>3</v>
       </c>
       <c r="CD64" t="n">
-        <v>2</v>
+        <v>1.913</v>
       </c>
     </row>
     <row r="65">
@@ -16369,8 +16603,12 @@
         </is>
       </c>
       <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
-      <c r="AU65" t="inlineStr"/>
+      <c r="AT65" t="n">
+        <v>0.81218195</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.81218195</v>
+      </c>
       <c r="AV65" t="inlineStr"/>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="inlineStr"/>
@@ -16460,7 +16698,7 @@
         <v>3</v>
       </c>
       <c r="CD65" t="n">
-        <v>2</v>
+        <v>1.992</v>
       </c>
     </row>
     <row r="66">
@@ -16627,8 +16865,12 @@
       <c r="AQ66" t="inlineStr"/>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
-      <c r="AU66" t="inlineStr"/>
+      <c r="AT66" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
@@ -16726,7 +16968,7 @@
         <v>3</v>
       </c>
       <c r="CD66" t="n">
-        <v>2</v>
+        <v>1.886</v>
       </c>
     </row>
     <row r="67">
@@ -16825,8 +17067,12 @@
       <c r="AQ67" t="inlineStr"/>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
-      <c r="AU67" t="inlineStr"/>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0</v>
+      </c>
       <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
@@ -17003,8 +17249,12 @@
       <c r="AQ68" t="inlineStr"/>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
-      <c r="AU68" t="inlineStr"/>
+      <c r="AT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0</v>
+      </c>
       <c r="AV68" t="inlineStr"/>
       <c r="AW68" t="inlineStr"/>
       <c r="AX68" t="inlineStr"/>
@@ -17239,8 +17489,12 @@
         </is>
       </c>
       <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
-      <c r="AU69" t="inlineStr"/>
+      <c r="AT69" t="n">
+        <v>0.8993056</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.8993056</v>
+      </c>
       <c r="AV69" t="inlineStr">
         <is>
           <t>OGC</t>
@@ -17299,12 +17553,12 @@
       </c>
       <c r="BP69" t="inlineStr">
         <is>
-          <t>n3f19c6bc39b74ecbb3ec1a1f90f91af6b1</t>
+          <t>nd6e9bf97cccd469d9294e6da77b119e5b1</t>
         </is>
       </c>
       <c r="BQ69" t="inlineStr">
         <is>
-          <t>n3f19c6bc39b74ecbb3ec1a1f90f91af6b1</t>
+          <t>nd6e9bf97cccd469d9294e6da77b119e5b1</t>
         </is>
       </c>
       <c r="BR69" t="inlineStr">
@@ -17461,8 +17715,12 @@
       <c r="AQ70" t="inlineStr"/>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
-      <c r="AU70" t="inlineStr"/>
+      <c r="AT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0</v>
+      </c>
       <c r="AV70" t="inlineStr"/>
       <c r="AW70" t="inlineStr"/>
       <c r="AX70" t="inlineStr"/>
@@ -17717,8 +17975,12 @@
         </is>
       </c>
       <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
-      <c r="AU71" t="inlineStr"/>
+      <c r="AT71" t="n">
+        <v>0.7361111</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.7361111</v>
+      </c>
       <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="inlineStr"/>
       <c r="AX71" t="inlineStr"/>
@@ -17977,9 +18239,11 @@
       <c r="AS72" t="n">
         <v>0</v>
       </c>
-      <c r="AT72" t="inlineStr"/>
+      <c r="AT72" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="AU72" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
@@ -18243,8 +18507,12 @@
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="inlineStr"/>
+      <c r="AT73" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="AV73" t="inlineStr">
         <is>
           <t>ISO 19650</t>
@@ -18293,22 +18561,22 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr">
         <is>
-          <t>n29e328aba23c4bd78a5a1ee8e7855805b1</t>
+          <t>nc4d210c79b634f7a8f62a48a3e1bbf56b1</t>
         </is>
       </c>
       <c r="BO73" t="inlineStr">
         <is>
-          <t>['n29e328aba23c4bd78a5a1ee8e7855805b1']</t>
+          <t>['nc4d210c79b634f7a8f62a48a3e1bbf56b1']</t>
         </is>
       </c>
       <c r="BP73" t="inlineStr">
         <is>
-          <t>n29e328aba23c4bd78a5a1ee8e7855805b3</t>
+          <t>nc4d210c79b634f7a8f62a48a3e1bbf56b3</t>
         </is>
       </c>
       <c r="BQ73" t="inlineStr">
         <is>
-          <t>n29e328aba23c4bd78a5a1ee8e7855805b3</t>
+          <t>nc4d210c79b634f7a8f62a48a3e1bbf56b3</t>
         </is>
       </c>
       <c r="BR73" t="inlineStr">
@@ -18350,7 +18618,7 @@
         <v>3</v>
       </c>
       <c r="CD73" t="n">
-        <v>2</v>
+        <v>1.933</v>
       </c>
     </row>
     <row r="74">
@@ -18495,8 +18763,12 @@
         </is>
       </c>
       <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
-      <c r="AU74" t="inlineStr"/>
+      <c r="AT74" t="n">
+        <v>0.56815</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.56815</v>
+      </c>
       <c r="AV74" t="inlineStr"/>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
@@ -18747,8 +19019,12 @@
       <c r="AQ75" t="inlineStr"/>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="inlineStr"/>
-      <c r="AU75" t="inlineStr"/>
+      <c r="AT75" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV75" t="inlineStr"/>
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
@@ -18789,12 +19065,12 @@
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr">
         <is>
-          <t>n5ddeeb3fa28b40c08b500efc110dd98fb1, n5ddeeb3fa28b40c08b500efc110dd98fb2</t>
+          <t>n3d430423b1914c95b9a573defad90fbcb1, n3d430423b1914c95b9a573defad90fbcb2</t>
         </is>
       </c>
       <c r="BO75" t="inlineStr">
         <is>
-          <t>['n5ddeeb3fa28b40c08b500efc110dd98fb1', 'n5ddeeb3fa28b40c08b500efc110dd98fb2']</t>
+          <t>['n3d430423b1914c95b9a573defad90fbcb1', 'n3d430423b1914c95b9a573defad90fbcb2']</t>
         </is>
       </c>
       <c r="BP75" t="inlineStr"/>
@@ -18993,9 +19269,11 @@
       <c r="AS76" t="n">
         <v>15</v>
       </c>
-      <c r="AT76" t="inlineStr"/>
+      <c r="AT76" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AU76" t="n">
-        <v>15</v>
+        <v>0.104166664</v>
       </c>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
@@ -19102,7 +19380,7 @@
         <v>3</v>
       </c>
       <c r="CD76" t="n">
-        <v>2</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="77">
@@ -19273,8 +19551,12 @@
         </is>
       </c>
       <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
-      <c r="AU77" t="inlineStr"/>
+      <c r="AT77" t="n">
+        <v>0.72023803</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.72023803</v>
+      </c>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
       <c r="AX77" t="inlineStr"/>
@@ -19372,7 +19654,7 @@
         <v>3</v>
       </c>
       <c r="CD77" t="n">
-        <v>2</v>
+        <v>1.984</v>
       </c>
     </row>
     <row r="78">
@@ -19541,8 +19823,12 @@
         </is>
       </c>
       <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
+      <c r="AT78" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
       <c r="AX78" t="inlineStr"/>
@@ -19810,8 +20096,12 @@
       <c r="AQ79" t="inlineStr"/>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
-      <c r="AU79" t="inlineStr"/>
+      <c r="AT79" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV79" t="inlineStr"/>
       <c r="AW79" t="inlineStr"/>
       <c r="AX79" t="inlineStr"/>
@@ -19844,22 +20134,22 @@
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr">
         <is>
-          <t>n36ffb28c8eac416b8b80b55bd7694105b3, n36ffb28c8eac416b8b80b55bd7694105b5</t>
+          <t>n1855b57938dd4b1e92b12a25be7ea42bb3, n1855b57938dd4b1e92b12a25be7ea42bb5</t>
         </is>
       </c>
       <c r="BO79" t="inlineStr">
         <is>
-          <t>['n36ffb28c8eac416b8b80b55bd7694105b3', 'n36ffb28c8eac416b8b80b55bd7694105b5']</t>
+          <t>['n1855b57938dd4b1e92b12a25be7ea42bb3', 'n1855b57938dd4b1e92b12a25be7ea42bb5']</t>
         </is>
       </c>
       <c r="BP79" t="inlineStr">
         <is>
-          <t>n36ffb28c8eac416b8b80b55bd7694105b7</t>
+          <t>n1855b57938dd4b1e92b12a25be7ea42bb7</t>
         </is>
       </c>
       <c r="BQ79" t="inlineStr">
         <is>
-          <t>n36ffb28c8eac416b8b80b55bd7694105b7</t>
+          <t>n1855b57938dd4b1e92b12a25be7ea42bb7</t>
         </is>
       </c>
       <c r="BR79" t="inlineStr">
@@ -19901,7 +20191,7 @@
         <v>3</v>
       </c>
       <c r="CD79" t="n">
-        <v>2</v>
+        <v>1.896</v>
       </c>
     </row>
     <row r="80">
@@ -20004,8 +20294,12 @@
       <c r="AQ80" t="inlineStr"/>
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
-      <c r="AT80" t="inlineStr"/>
-      <c r="AU80" t="inlineStr"/>
+      <c r="AT80" t="n">
+        <v>0.041666668</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.041666668</v>
+      </c>
       <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="inlineStr"/>
       <c r="AX80" t="inlineStr"/>
@@ -20244,8 +20538,12 @@
         </is>
       </c>
       <c r="AS81" t="inlineStr"/>
-      <c r="AT81" t="inlineStr"/>
-      <c r="AU81" t="inlineStr"/>
+      <c r="AT81" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV81" t="inlineStr"/>
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="inlineStr"/>
@@ -20343,7 +20641,7 @@
         <v>3</v>
       </c>
       <c r="CD81" t="n">
-        <v>2</v>
+        <v>1.865</v>
       </c>
     </row>
     <row r="82">
@@ -20462,8 +20760,12 @@
       <c r="AQ82" t="inlineStr"/>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
-      <c r="AT82" t="inlineStr"/>
-      <c r="AU82" t="inlineStr"/>
+      <c r="AT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0</v>
+      </c>
       <c r="AV82" t="inlineStr"/>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="inlineStr"/>
@@ -20711,8 +21013,12 @@
       <c r="AQ83" t="inlineStr"/>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
-      <c r="AU83" t="inlineStr"/>
+      <c r="AT83" t="n">
+        <v>0.87082696</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>0.87082696</v>
+      </c>
       <c r="AV83" t="inlineStr">
         <is>
           <t>LOIN</t>
@@ -20761,22 +21067,22 @@
       <c r="BM83" t="inlineStr"/>
       <c r="BN83" t="inlineStr">
         <is>
-          <t>nc11c0815d0b748b4a3f5be276dcfcea3b3, nc11c0815d0b748b4a3f5be276dcfcea3b5</t>
+          <t>ne269ecf3bfd34bc89e28c40f8506748cb3, ne269ecf3bfd34bc89e28c40f8506748cb5</t>
         </is>
       </c>
       <c r="BO83" t="inlineStr">
         <is>
-          <t>['nc11c0815d0b748b4a3f5be276dcfcea3b3', 'nc11c0815d0b748b4a3f5be276dcfcea3b5']</t>
+          <t>['ne269ecf3bfd34bc89e28c40f8506748cb3', 'ne269ecf3bfd34bc89e28c40f8506748cb5']</t>
         </is>
       </c>
       <c r="BP83" t="inlineStr">
         <is>
-          <t>nc11c0815d0b748b4a3f5be276dcfcea3b7</t>
+          <t>ne269ecf3bfd34bc89e28c40f8506748cb7</t>
         </is>
       </c>
       <c r="BQ83" t="inlineStr">
         <is>
-          <t>nc11c0815d0b748b4a3f5be276dcfcea3b7</t>
+          <t>ne269ecf3bfd34bc89e28c40f8506748cb7</t>
         </is>
       </c>
       <c r="BR83" t="inlineStr">
@@ -20818,7 +21124,7 @@
         <v>3</v>
       </c>
       <c r="CD83" t="n">
-        <v>2</v>
+        <v>1.815</v>
       </c>
     </row>
     <row r="84">
@@ -20987,8 +21293,12 @@
         </is>
       </c>
       <c r="AS84" t="inlineStr"/>
-      <c r="AT84" t="inlineStr"/>
-      <c r="AU84" t="inlineStr"/>
+      <c r="AT84" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV84" t="inlineStr"/>
       <c r="AW84" t="inlineStr"/>
       <c r="AX84" t="inlineStr"/>
@@ -21094,7 +21404,7 @@
         <v>3</v>
       </c>
       <c r="CD84" t="n">
-        <v>1</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="85">
@@ -21251,8 +21561,12 @@
       <c r="AQ85" t="inlineStr"/>
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="inlineStr"/>
-      <c r="AU85" t="inlineStr"/>
+      <c r="AT85" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV85" t="inlineStr"/>
       <c r="AW85" t="inlineStr"/>
       <c r="AX85" t="inlineStr"/>
@@ -21342,7 +21656,7 @@
         <v>3</v>
       </c>
       <c r="CD85" t="n">
-        <v>2</v>
+        <v>1.933</v>
       </c>
     </row>
     <row r="86">
@@ -21505,8 +21819,12 @@
       <c r="AQ86" t="inlineStr"/>
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="inlineStr"/>
-      <c r="AU86" t="inlineStr"/>
+      <c r="AT86" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV86" t="inlineStr"/>
       <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="inlineStr"/>
@@ -21547,12 +21865,12 @@
       </c>
       <c r="BN86" t="inlineStr">
         <is>
-          <t>nfd8ded3ccf0b4104a6a57ac23c99ccf8b1</t>
+          <t>na3f8de111d8a4b30abd84e3c819094bfb1</t>
         </is>
       </c>
       <c r="BO86" t="inlineStr">
         <is>
-          <t>['nfd8ded3ccf0b4104a6a57ac23c99ccf8b1']</t>
+          <t>['na3f8de111d8a4b30abd84e3c819094bfb1']</t>
         </is>
       </c>
       <c r="BP86" t="inlineStr"/>
@@ -21596,7 +21914,7 @@
         <v>3</v>
       </c>
       <c r="CD86" t="n">
-        <v>2</v>
+        <v>1.994</v>
       </c>
     </row>
     <row r="87">
@@ -21719,8 +22037,12 @@
       <c r="AQ87" t="inlineStr"/>
       <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="inlineStr"/>
-      <c r="AU87" t="inlineStr"/>
+      <c r="AT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>0</v>
+      </c>
       <c r="AV87" t="inlineStr"/>
       <c r="AW87" t="inlineStr"/>
       <c r="AX87" t="inlineStr"/>
@@ -21915,8 +22237,12 @@
       <c r="AQ88" t="inlineStr"/>
       <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
-      <c r="AU88" t="inlineStr"/>
+      <c r="AT88" t="n">
+        <v>0.20833333</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0.20833333</v>
+      </c>
       <c r="AV88" t="inlineStr">
         <is>
           <t>NEN 2660-2:2022 nl</t>
@@ -22141,8 +22467,12 @@
         </is>
       </c>
       <c r="AS89" t="inlineStr"/>
-      <c r="AT89" t="inlineStr"/>
-      <c r="AU89" t="inlineStr"/>
+      <c r="AT89" t="n">
+        <v>0.20833333</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>0.20833333</v>
+      </c>
       <c r="AV89" t="inlineStr">
         <is>
           <t>NEN 2660-2:2022 nl</t>
@@ -22236,7 +22566,7 @@
         <v>3</v>
       </c>
       <c r="CD89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -22351,8 +22681,12 @@
       <c r="AQ90" t="inlineStr"/>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="inlineStr"/>
-      <c r="AU90" t="inlineStr"/>
+      <c r="AT90" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV90" t="inlineStr"/>
       <c r="AW90" t="inlineStr"/>
       <c r="AX90" t="inlineStr"/>
@@ -22422,7 +22756,7 @@
         <v>3</v>
       </c>
       <c r="CD90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -22603,8 +22937,12 @@
         </is>
       </c>
       <c r="AS91" t="inlineStr"/>
-      <c r="AT91" t="inlineStr"/>
-      <c r="AU91" t="inlineStr"/>
+      <c r="AT91" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV91" t="inlineStr"/>
       <c r="AW91" t="inlineStr"/>
       <c r="AX91" t="inlineStr"/>
@@ -22694,7 +23032,7 @@
         <v>3</v>
       </c>
       <c r="CD91" t="n">
-        <v>1</v>
+        <v>1.257</v>
       </c>
     </row>
     <row r="92">
@@ -22841,8 +23179,12 @@
       <c r="AQ92" t="inlineStr"/>
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
-      <c r="AT92" t="inlineStr"/>
-      <c r="AU92" t="inlineStr"/>
+      <c r="AT92" t="n">
+        <v>0.6527777299999999</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0.6527777299999999</v>
+      </c>
       <c r="AV92" t="inlineStr"/>
       <c r="AW92" t="inlineStr"/>
       <c r="AX92" t="inlineStr"/>
@@ -23100,8 +23442,12 @@
         </is>
       </c>
       <c r="AS93" t="inlineStr"/>
-      <c r="AT93" t="inlineStr"/>
-      <c r="AU93" t="inlineStr"/>
+      <c r="AT93" t="n">
+        <v>0.7708333000000001</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.7708333000000001</v>
+      </c>
       <c r="AV93" t="inlineStr"/>
       <c r="AW93" t="inlineStr"/>
       <c r="AX93" t="inlineStr"/>
@@ -23191,7 +23537,7 @@
         <v>3</v>
       </c>
       <c r="CD93" t="n">
-        <v>2</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="94">
@@ -23300,8 +23646,12 @@
       <c r="AQ94" t="inlineStr"/>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
-      <c r="AT94" t="inlineStr"/>
-      <c r="AU94" t="inlineStr"/>
+      <c r="AT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>0</v>
+      </c>
       <c r="AV94" t="inlineStr">
         <is>
           <t>TS-0012</t>
@@ -23379,7 +23729,7 @@
         <v>2</v>
       </c>
       <c r="CD94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -23486,8 +23836,12 @@
       <c r="AQ95" t="inlineStr"/>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
-      <c r="AT95" t="inlineStr"/>
-      <c r="AU95" t="inlineStr"/>
+      <c r="AT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0</v>
+      </c>
       <c r="AV95" t="inlineStr"/>
       <c r="AW95" t="inlineStr"/>
       <c r="AX95" t="inlineStr"/>
@@ -23668,8 +24022,12 @@
       <c r="AQ96" t="inlineStr"/>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
-      <c r="AT96" t="inlineStr"/>
-      <c r="AU96" t="inlineStr"/>
+      <c r="AT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0</v>
+      </c>
       <c r="AV96" t="inlineStr"/>
       <c r="AW96" t="inlineStr"/>
       <c r="AX96" t="inlineStr"/>
@@ -23739,7 +24097,7 @@
         <v>2</v>
       </c>
       <c r="CD96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -23904,8 +24262,12 @@
       <c r="AQ97" t="inlineStr"/>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
-      <c r="AT97" t="inlineStr"/>
-      <c r="AU97" t="inlineStr"/>
+      <c r="AT97" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV97" t="inlineStr"/>
       <c r="AW97" t="inlineStr"/>
       <c r="AX97" t="inlineStr"/>
@@ -24011,7 +24373,7 @@
         <v>3</v>
       </c>
       <c r="CD97" t="n">
-        <v>2</v>
+        <v>1.963</v>
       </c>
     </row>
     <row r="98">
@@ -24170,8 +24532,12 @@
       <c r="AQ98" t="inlineStr"/>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
-      <c r="AT98" t="inlineStr"/>
-      <c r="AU98" t="inlineStr"/>
+      <c r="AT98" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV98" t="inlineStr"/>
       <c r="AW98" t="inlineStr"/>
       <c r="AX98" t="inlineStr"/>
@@ -24212,12 +24578,12 @@
       <c r="BM98" t="inlineStr"/>
       <c r="BN98" t="inlineStr">
         <is>
-          <t>n3aad4e1c1f00417297e72becc1c7650bb1, n3aad4e1c1f00417297e72becc1c7650bb2</t>
+          <t>n7907b3fb6d6c4be287c978cb92b27cabb1, n7907b3fb6d6c4be287c978cb92b27cabb2</t>
         </is>
       </c>
       <c r="BO98" t="inlineStr">
         <is>
-          <t>['n3aad4e1c1f00417297e72becc1c7650bb1', 'n3aad4e1c1f00417297e72becc1c7650bb2']</t>
+          <t>['n7907b3fb6d6c4be287c978cb92b27cabb1', 'n7907b3fb6d6c4be287c978cb92b27cabb2']</t>
         </is>
       </c>
       <c r="BP98" t="inlineStr"/>
@@ -24261,7 +24627,7 @@
         <v>3</v>
       </c>
       <c r="CD98" t="n">
-        <v>2</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="99">
@@ -24422,8 +24788,12 @@
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr"/>
-      <c r="AT99" t="inlineStr"/>
-      <c r="AU99" t="inlineStr"/>
+      <c r="AT99" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV99" t="inlineStr"/>
       <c r="AW99" t="inlineStr"/>
       <c r="AX99" t="inlineStr"/>
@@ -24682,8 +25052,12 @@
       <c r="AQ100" t="inlineStr"/>
       <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr"/>
-      <c r="AT100" t="inlineStr"/>
-      <c r="AU100" t="inlineStr"/>
+      <c r="AT100" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV100" t="inlineStr"/>
       <c r="AW100" t="inlineStr"/>
       <c r="AX100" t="inlineStr"/>
@@ -24908,8 +25282,12 @@
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr"/>
-      <c r="AT101" t="inlineStr"/>
-      <c r="AU101" t="inlineStr"/>
+      <c r="AT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0</v>
+      </c>
       <c r="AV101" t="inlineStr"/>
       <c r="AW101" t="inlineStr"/>
       <c r="AX101" t="inlineStr"/>
@@ -25134,8 +25512,12 @@
       <c r="AQ102" t="inlineStr"/>
       <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr"/>
-      <c r="AT102" t="inlineStr"/>
-      <c r="AU102" t="inlineStr"/>
+      <c r="AT102" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV102" t="inlineStr"/>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr"/>
@@ -25336,8 +25718,12 @@
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr"/>
-      <c r="AT103" t="inlineStr"/>
-      <c r="AU103" t="inlineStr"/>
+      <c r="AT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>0</v>
+      </c>
       <c r="AV103" t="inlineStr"/>
       <c r="AW103" t="inlineStr"/>
       <c r="AX103" t="inlineStr"/>
@@ -25568,8 +25954,12 @@
       <c r="AQ104" t="inlineStr"/>
       <c r="AR104" t="inlineStr"/>
       <c r="AS104" t="inlineStr"/>
-      <c r="AT104" t="inlineStr"/>
-      <c r="AU104" t="inlineStr"/>
+      <c r="AT104" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV104" t="inlineStr"/>
       <c r="AW104" t="inlineStr"/>
       <c r="AX104" t="inlineStr"/>
@@ -25675,7 +26065,7 @@
         <v>3</v>
       </c>
       <c r="CD104" t="n">
-        <v>1</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="105">
@@ -25844,8 +26234,12 @@
         </is>
       </c>
       <c r="AS105" t="inlineStr"/>
-      <c r="AT105" t="inlineStr"/>
-      <c r="AU105" t="inlineStr"/>
+      <c r="AT105" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV105" t="inlineStr"/>
       <c r="AW105" t="inlineStr"/>
       <c r="AX105" t="inlineStr"/>
@@ -26122,8 +26516,12 @@
       <c r="AQ106" t="inlineStr"/>
       <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr"/>
-      <c r="AT106" t="inlineStr"/>
-      <c r="AU106" t="inlineStr"/>
+      <c r="AT106" t="n">
+        <v>0.9270833000000001</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.9270833000000001</v>
+      </c>
       <c r="AV106" t="inlineStr"/>
       <c r="AW106" t="inlineStr"/>
       <c r="AX106" t="inlineStr"/>
@@ -26404,8 +26802,12 @@
       <c r="AQ107" t="inlineStr"/>
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
-      <c r="AT107" t="inlineStr"/>
-      <c r="AU107" t="inlineStr"/>
+      <c r="AT107" t="n">
+        <v>0.7708333000000001</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.7708333000000001</v>
+      </c>
       <c r="AV107" t="inlineStr"/>
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
@@ -26702,8 +27104,12 @@
         </is>
       </c>
       <c r="AS108" t="inlineStr"/>
-      <c r="AT108" t="inlineStr"/>
-      <c r="AU108" t="inlineStr"/>
+      <c r="AT108" t="n">
+        <v>0.8541666999999999</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.8541666999999999</v>
+      </c>
       <c r="AV108" t="inlineStr">
         <is>
           <t xml:space="preserve">ISO 16739 </t>
@@ -27008,8 +27414,12 @@
         </is>
       </c>
       <c r="AS109" t="inlineStr"/>
-      <c r="AT109" t="inlineStr"/>
-      <c r="AU109" t="inlineStr"/>
+      <c r="AT109" t="n">
+        <v>0.8958333000000001</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.8958333000000001</v>
+      </c>
       <c r="AV109" t="inlineStr"/>
       <c r="AW109" t="inlineStr"/>
       <c r="AX109" t="inlineStr"/>
@@ -27308,8 +27718,12 @@
       <c r="AQ110" t="inlineStr"/>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
-      <c r="AT110" t="inlineStr"/>
-      <c r="AU110" t="inlineStr"/>
+      <c r="AT110" t="n">
+        <v>0.8958333000000001</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>0.8958333000000001</v>
+      </c>
       <c r="AV110" t="inlineStr"/>
       <c r="AW110" t="inlineStr"/>
       <c r="AX110" t="inlineStr"/>
@@ -27605,8 +28019,12 @@
       <c r="AQ111" t="inlineStr"/>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="inlineStr"/>
+      <c r="AT111" t="n">
+        <v>0.8958333000000001</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.8958333000000001</v>
+      </c>
       <c r="AV111" t="inlineStr"/>
       <c r="AW111" t="inlineStr"/>
       <c r="AX111" t="inlineStr"/>
@@ -27895,8 +28313,12 @@
       <c r="AQ112" t="inlineStr"/>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
-      <c r="AT112" t="inlineStr"/>
-      <c r="AU112" t="inlineStr"/>
+      <c r="AT112" t="n">
+        <v>0.8958333000000001</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.8958333000000001</v>
+      </c>
       <c r="AV112" t="inlineStr"/>
       <c r="AW112" t="inlineStr"/>
       <c r="AX112" t="inlineStr"/>
@@ -28185,8 +28607,12 @@
       <c r="AQ113" t="inlineStr"/>
       <c r="AR113" t="inlineStr"/>
       <c r="AS113" t="inlineStr"/>
-      <c r="AT113" t="inlineStr"/>
-      <c r="AU113" t="inlineStr"/>
+      <c r="AT113" t="n">
+        <v>0.7708333000000001</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.7708333000000001</v>
+      </c>
       <c r="AV113" t="inlineStr"/>
       <c r="AW113" t="inlineStr"/>
       <c r="AX113" t="inlineStr"/>
@@ -28479,8 +28905,12 @@
       <c r="AQ114" t="inlineStr"/>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
-      <c r="AT114" t="inlineStr"/>
-      <c r="AU114" t="inlineStr"/>
+      <c r="AT114" t="n">
+        <v>0.9270833000000001</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.9270833000000001</v>
+      </c>
       <c r="AV114" t="inlineStr"/>
       <c r="AW114" t="inlineStr"/>
       <c r="AX114" t="inlineStr"/>
@@ -28769,8 +29199,12 @@
       <c r="AQ115" t="inlineStr"/>
       <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr"/>
-      <c r="AT115" t="inlineStr"/>
-      <c r="AU115" t="inlineStr"/>
+      <c r="AT115" t="n">
+        <v>0.7708333000000001</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0.7708333000000001</v>
+      </c>
       <c r="AV115" t="inlineStr"/>
       <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="inlineStr"/>
@@ -29073,8 +29507,12 @@
         </is>
       </c>
       <c r="AS116" t="inlineStr"/>
-      <c r="AT116" t="inlineStr"/>
-      <c r="AU116" t="inlineStr"/>
+      <c r="AT116" t="n">
+        <v>0.8541666999999999</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0.8541666999999999</v>
+      </c>
       <c r="AV116" t="inlineStr"/>
       <c r="AW116" t="inlineStr"/>
       <c r="AX116" t="inlineStr"/>
@@ -29355,8 +29793,12 @@
       <c r="AQ117" t="inlineStr"/>
       <c r="AR117" t="inlineStr"/>
       <c r="AS117" t="inlineStr"/>
-      <c r="AT117" t="inlineStr"/>
-      <c r="AU117" t="inlineStr"/>
+      <c r="AT117" t="n">
+        <v>0.8958333000000001</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0.8958333000000001</v>
+      </c>
       <c r="AV117" t="inlineStr"/>
       <c r="AW117" t="inlineStr"/>
       <c r="AX117" t="inlineStr"/>
@@ -29657,8 +30099,12 @@
         </is>
       </c>
       <c r="AS118" t="inlineStr"/>
-      <c r="AT118" t="inlineStr"/>
-      <c r="AU118" t="inlineStr"/>
+      <c r="AT118" t="n">
+        <v>0.9270833000000001</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0.9270833000000001</v>
+      </c>
       <c r="AV118" t="inlineStr"/>
       <c r="AW118" t="inlineStr"/>
       <c r="AX118" t="inlineStr"/>
@@ -29925,8 +30371,12 @@
       <c r="AQ119" t="inlineStr"/>
       <c r="AR119" t="inlineStr"/>
       <c r="AS119" t="inlineStr"/>
-      <c r="AT119" t="inlineStr"/>
-      <c r="AU119" t="inlineStr"/>
+      <c r="AT119" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV119" t="inlineStr"/>
       <c r="AW119" t="inlineStr"/>
       <c r="AX119" t="inlineStr"/>
@@ -30145,8 +30595,12 @@
       <c r="AQ120" t="inlineStr"/>
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
-      <c r="AT120" t="inlineStr"/>
-      <c r="AU120" t="inlineStr"/>
+      <c r="AT120" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV120" t="inlineStr"/>
       <c r="AW120" t="inlineStr"/>
       <c r="AX120" t="inlineStr"/>
@@ -30399,8 +30853,12 @@
         </is>
       </c>
       <c r="AS121" t="inlineStr"/>
-      <c r="AT121" t="inlineStr"/>
-      <c r="AU121" t="inlineStr"/>
+      <c r="AT121" t="n">
+        <v>0.8958333000000001</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>0.8958333000000001</v>
+      </c>
       <c r="AV121" t="inlineStr"/>
       <c r="AW121" t="inlineStr"/>
       <c r="AX121" t="inlineStr"/>
@@ -30681,8 +31139,12 @@
       <c r="AQ122" t="inlineStr"/>
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
-      <c r="AT122" t="inlineStr"/>
-      <c r="AU122" t="inlineStr"/>
+      <c r="AT122" t="n">
+        <v>0.76388884</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>0.76388884</v>
+      </c>
       <c r="AV122" t="inlineStr"/>
       <c r="AW122" t="inlineStr"/>
       <c r="AX122" t="inlineStr"/>
@@ -30883,8 +31345,12 @@
       <c r="AQ123" t="inlineStr"/>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
-      <c r="AT123" t="inlineStr"/>
-      <c r="AU123" t="inlineStr"/>
+      <c r="AT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>0</v>
+      </c>
       <c r="AV123" t="inlineStr"/>
       <c r="AW123" t="inlineStr"/>
       <c r="AX123" t="inlineStr"/>
@@ -31057,8 +31523,12 @@
       <c r="AQ124" t="inlineStr"/>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
-      <c r="AT124" t="inlineStr"/>
-      <c r="AU124" t="inlineStr"/>
+      <c r="AT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>0</v>
+      </c>
       <c r="AV124" t="inlineStr"/>
       <c r="AW124" t="inlineStr"/>
       <c r="AX124" t="inlineStr"/>
@@ -31293,8 +31763,12 @@
       <c r="AQ125" t="inlineStr"/>
       <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr"/>
-      <c r="AT125" t="inlineStr"/>
-      <c r="AU125" t="inlineStr"/>
+      <c r="AT125" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV125" t="inlineStr"/>
       <c r="AW125" t="inlineStr"/>
       <c r="AX125" t="inlineStr"/>
@@ -31547,8 +32021,12 @@
       <c r="AQ126" t="inlineStr"/>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
-      <c r="AT126" t="inlineStr"/>
-      <c r="AU126" t="inlineStr"/>
+      <c r="AT126" t="n">
+        <v>0.041666668</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>0.041666668</v>
+      </c>
       <c r="AV126" t="inlineStr"/>
       <c r="AW126" t="inlineStr"/>
       <c r="AX126" t="inlineStr"/>
@@ -31745,8 +32223,12 @@
       <c r="AQ127" t="inlineStr"/>
       <c r="AR127" t="inlineStr"/>
       <c r="AS127" t="inlineStr"/>
-      <c r="AT127" t="inlineStr"/>
-      <c r="AU127" t="inlineStr"/>
+      <c r="AT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>0</v>
+      </c>
       <c r="AV127" t="inlineStr"/>
       <c r="AW127" t="inlineStr"/>
       <c r="AX127" t="inlineStr"/>
@@ -31939,8 +32421,12 @@
       <c r="AQ128" t="inlineStr"/>
       <c r="AR128" t="inlineStr"/>
       <c r="AS128" t="inlineStr"/>
-      <c r="AT128" t="inlineStr"/>
-      <c r="AU128" t="inlineStr"/>
+      <c r="AT128" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV128" t="inlineStr">
         <is>
           <t>CEN EN 17632-1:2022, CEN EN 17632-2:2025</t>
@@ -32034,7 +32520,7 @@
         <v>3</v>
       </c>
       <c r="CD128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -32149,8 +32635,12 @@
       <c r="AQ129" t="inlineStr"/>
       <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr"/>
-      <c r="AT129" t="inlineStr"/>
-      <c r="AU129" t="inlineStr"/>
+      <c r="AT129" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV129" t="inlineStr">
         <is>
           <t>CEN EN 17632-1:2022, CEN EN 17632-2:2024</t>
@@ -32244,7 +32734,7 @@
         <v>3</v>
       </c>
       <c r="CD129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -32387,8 +32877,12 @@
         </is>
       </c>
       <c r="AS130" t="inlineStr"/>
-      <c r="AT130" t="inlineStr"/>
-      <c r="AU130" t="inlineStr"/>
+      <c r="AT130" t="n">
+        <v>0.8055556</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>0.8055556</v>
+      </c>
       <c r="AV130" t="inlineStr"/>
       <c r="AW130" t="inlineStr"/>
       <c r="AX130" t="inlineStr"/>
@@ -32429,12 +32923,12 @@
       <c r="BM130" t="inlineStr"/>
       <c r="BN130" t="inlineStr">
         <is>
-          <t>nbcb870bc0db648d4a0fcddfc1c38dfd5b1</t>
+          <t>n8d24cdc3698f49e1a74cb3a7ad364d77b1</t>
         </is>
       </c>
       <c r="BO130" t="inlineStr">
         <is>
-          <t>['nbcb870bc0db648d4a0fcddfc1c38dfd5b1']</t>
+          <t>['n8d24cdc3698f49e1a74cb3a7ad364d77b1']</t>
         </is>
       </c>
       <c r="BP130" t="inlineStr"/>
@@ -32653,8 +33147,12 @@
         </is>
       </c>
       <c r="AS131" t="inlineStr"/>
-      <c r="AT131" t="inlineStr"/>
-      <c r="AU131" t="inlineStr"/>
+      <c r="AT131" t="n">
+        <v>0.8159722700000001</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>0.8159722700000001</v>
+      </c>
       <c r="AV131" t="inlineStr"/>
       <c r="AW131" t="inlineStr"/>
       <c r="AX131" t="inlineStr"/>
@@ -32695,12 +33193,12 @@
       <c r="BM131" t="inlineStr"/>
       <c r="BN131" t="inlineStr">
         <is>
-          <t>n731bfc8356dd4934a46218a807f66e23b1</t>
+          <t>nf04f46bae1224b61be6d1b764f6ff66db1</t>
         </is>
       </c>
       <c r="BO131" t="inlineStr">
         <is>
-          <t>['n731bfc8356dd4934a46218a807f66e23b1']</t>
+          <t>['nf04f46bae1224b61be6d1b764f6ff66db1']</t>
         </is>
       </c>
       <c r="BP131" t="inlineStr"/>
@@ -32884,8 +33382,12 @@
       <c r="AQ132" t="inlineStr"/>
       <c r="AR132" t="inlineStr"/>
       <c r="AS132" t="inlineStr"/>
-      <c r="AT132" t="inlineStr"/>
-      <c r="AU132" t="inlineStr"/>
+      <c r="AT132" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV132" t="inlineStr"/>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="inlineStr"/>
@@ -33110,8 +33612,12 @@
         </is>
       </c>
       <c r="AS133" t="inlineStr"/>
-      <c r="AT133" t="inlineStr"/>
-      <c r="AU133" t="inlineStr"/>
+      <c r="AT133" t="n">
+        <v>0.8273566</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>0.8273566</v>
+      </c>
       <c r="AV133" t="inlineStr">
         <is>
           <t>ISO 23386, ISO 23387, ISO 7817</t>
@@ -33189,7 +33695,7 @@
         <v>3</v>
       </c>
       <c r="CD133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -33300,8 +33806,12 @@
       <c r="AQ134" t="inlineStr"/>
       <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr"/>
-      <c r="AT134" t="inlineStr"/>
-      <c r="AU134" t="inlineStr"/>
+      <c r="AT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>0</v>
+      </c>
       <c r="AV134" t="inlineStr"/>
       <c r="AW134" t="inlineStr"/>
       <c r="AX134" t="inlineStr"/>
@@ -33371,7 +33881,7 @@
         <v>2</v>
       </c>
       <c r="CD134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -33482,8 +33992,12 @@
       <c r="AQ135" t="inlineStr"/>
       <c r="AR135" t="inlineStr"/>
       <c r="AS135" t="inlineStr"/>
-      <c r="AT135" t="inlineStr"/>
-      <c r="AU135" t="inlineStr"/>
+      <c r="AT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>0</v>
+      </c>
       <c r="AV135" t="inlineStr"/>
       <c r="AW135" t="inlineStr"/>
       <c r="AX135" t="inlineStr"/>
@@ -33666,9 +34180,11 @@
       <c r="AS136" t="n">
         <v>15</v>
       </c>
-      <c r="AT136" t="inlineStr"/>
+      <c r="AT136" t="n">
+        <v>0</v>
+      </c>
       <c r="AU136" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV136" t="inlineStr"/>
       <c r="AW136" t="inlineStr"/>
@@ -33739,7 +34255,7 @@
         <v>2</v>
       </c>
       <c r="CD136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -33850,8 +34366,12 @@
       <c r="AQ137" t="inlineStr"/>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>
-      <c r="AT137" t="inlineStr"/>
-      <c r="AU137" t="inlineStr"/>
+      <c r="AT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>0</v>
+      </c>
       <c r="AV137" t="inlineStr"/>
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="inlineStr"/>
@@ -33921,7 +34441,7 @@
         <v>1</v>
       </c>
       <c r="CD137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -34024,8 +34544,12 @@
       <c r="AQ138" t="inlineStr"/>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
-      <c r="AT138" t="inlineStr"/>
-      <c r="AU138" t="inlineStr"/>
+      <c r="AT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>0</v>
+      </c>
       <c r="AV138" t="inlineStr"/>
       <c r="AW138" t="inlineStr"/>
       <c r="AX138" t="inlineStr"/>
@@ -34206,8 +34730,12 @@
       <c r="AQ139" t="inlineStr"/>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
-      <c r="AT139" t="inlineStr"/>
-      <c r="AU139" t="inlineStr"/>
+      <c r="AT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>0</v>
+      </c>
       <c r="AV139" t="inlineStr"/>
       <c r="AW139" t="inlineStr"/>
       <c r="AX139" t="inlineStr"/>
@@ -34376,8 +34904,12 @@
       <c r="AQ140" t="inlineStr"/>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
-      <c r="AT140" t="inlineStr"/>
-      <c r="AU140" t="inlineStr"/>
+      <c r="AT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>0</v>
+      </c>
       <c r="AV140" t="inlineStr"/>
       <c r="AW140" t="inlineStr"/>
       <c r="AX140" t="inlineStr"/>
@@ -34601,8 +35133,12 @@
       <c r="AQ141" t="inlineStr"/>
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
-      <c r="AT141" t="inlineStr"/>
-      <c r="AU141" t="inlineStr"/>
+      <c r="AT141" t="n">
+        <v>0.14583333</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>0.14583333</v>
+      </c>
       <c r="AV141" t="inlineStr"/>
       <c r="AW141" t="inlineStr"/>
       <c r="AX141" t="inlineStr"/>
@@ -34692,7 +35228,7 @@
         <v>3</v>
       </c>
       <c r="CD141" t="n">
-        <v>1</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="142">
@@ -34791,8 +35327,12 @@
       <c r="AQ142" t="inlineStr"/>
       <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr"/>
-      <c r="AT142" t="inlineStr"/>
-      <c r="AU142" t="inlineStr"/>
+      <c r="AT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>0</v>
+      </c>
       <c r="AV142" t="inlineStr"/>
       <c r="AW142" t="inlineStr"/>
       <c r="AX142" t="inlineStr"/>
@@ -34989,8 +35529,12 @@
       <c r="AQ143" t="inlineStr"/>
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
-      <c r="AT143" t="inlineStr"/>
-      <c r="AU143" t="inlineStr"/>
+      <c r="AT143" t="n">
+        <v>0.104166664</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>0.104166664</v>
+      </c>
       <c r="AV143" t="inlineStr"/>
       <c r="AW143" t="inlineStr"/>
       <c r="AX143" t="inlineStr"/>
@@ -35068,7 +35612,7 @@
         <v>3</v>
       </c>
       <c r="CD143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -35179,9 +35723,11 @@
       <c r="AS144" t="n">
         <v>30</v>
       </c>
-      <c r="AT144" t="inlineStr"/>
+      <c r="AT144" t="n">
+        <v>0</v>
+      </c>
       <c r="AU144" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AV144" t="inlineStr"/>
       <c r="AW144" t="inlineStr"/>
@@ -35371,8 +35917,12 @@
       <c r="AQ145" t="inlineStr"/>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
-      <c r="AT145" t="inlineStr"/>
-      <c r="AU145" t="inlineStr"/>
+      <c r="AT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>0</v>
+      </c>
       <c r="AV145" t="inlineStr"/>
       <c r="AW145" t="inlineStr"/>
       <c r="AX145" t="inlineStr"/>
@@ -35674,13 +36224,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DC3F84B-675E-497E-9228-BDBA253687C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A15022-15DF-4C4F-B02D-F8C9F383AAE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56FE8BDF-1559-4E42-8D8C-FDFF2B559F6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B62046-A9C9-4931-9958-45DB0AC62BE6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C106FD5E-F9B0-4363-A89A-2486B7B043A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7006F9-F14C-45C5-A5DC-E7A8D9514E93}"/>
 </file>
--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -1801,12 +1801,12 @@
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>n3244b1251ee04b699f21ebdd1500db17b1</t>
+          <t>n6a7d5322a38842bf86c5ad9d06b00ffcb1</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>['n3244b1251ee04b699f21ebdd1500db17b1']</t>
+          <t>['n6a7d5322a38842bf86c5ad9d06b00ffcb1']</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr"/>
@@ -2050,12 +2050,12 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>nae7ce59cd1c74adb908fa80b10955ab5b1</t>
+          <t>n279a682fe7b3414ca3dd05514f43cd8cb1</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>['nae7ce59cd1c74adb908fa80b10955ab5b1']</t>
+          <t>['n279a682fe7b3414ca3dd05514f43cd8cb1']</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.239</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -3256,12 +3256,12 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>n34c3ada48c28465f83ed8415f038363bb1</t>
+          <t>n905b6ca76e544a09a9e3e6fd19847975b1</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>['n34c3ada48c28465f83ed8415f038363bb1']</t>
+          <t>['n905b6ca76e544a09a9e3e6fd19847975b1']</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr"/>
@@ -4398,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="CD16" t="n">
-        <v>1.986</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -4888,12 +4888,12 @@
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>n31739d9d92ad40e59072f273b243dbe2b8, n31739d9d92ad40e59072f273b243dbe2b9, n31739d9d92ad40e59072f273b243dbe2b10, n31739d9d92ad40e59072f273b243dbe2b11</t>
+          <t>n193fb70772a342b996e7bdd5369cf6c0b8, n193fb70772a342b996e7bdd5369cf6c0b9, n193fb70772a342b996e7bdd5369cf6c0b10, n193fb70772a342b996e7bdd5369cf6c0b11</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>['n31739d9d92ad40e59072f273b243dbe2b8', 'n31739d9d92ad40e59072f273b243dbe2b9', 'n31739d9d92ad40e59072f273b243dbe2b10', 'n31739d9d92ad40e59072f273b243dbe2b11']</t>
+          <t>['n193fb70772a342b996e7bdd5369cf6c0b8', 'n193fb70772a342b996e7bdd5369cf6c0b9', 'n193fb70772a342b996e7bdd5369cf6c0b10', 'n193fb70772a342b996e7bdd5369cf6c0b11']</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr"/>
@@ -5156,22 +5156,22 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>n44744923c071402ebde9a58be3d12dd6b7274</t>
+          <t>nfbc208f787ed40398a97a7cd1dd6f02bb7274</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>['n44744923c071402ebde9a58be3d12dd6b7274']</t>
+          <t>['nfbc208f787ed40398a97a7cd1dd6f02bb7274']</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>n44744923c071402ebde9a58be3d12dd6b7276</t>
+          <t>nfbc208f787ed40398a97a7cd1dd6f02bb7276</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>n44744923c071402ebde9a58be3d12dd6b7276</t>
+          <t>nfbc208f787ed40398a97a7cd1dd6f02bb7276</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
@@ -5410,12 +5410,12 @@
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>n4a99d86e00f44609a5555bb477f0c721b1, n4a99d86e00f44609a5555bb477f0c721b2</t>
+          <t>n920037507b4849dd8240aa56169f3a7db1, n920037507b4849dd8240aa56169f3a7db2</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>['n4a99d86e00f44609a5555bb477f0c721b1', 'n4a99d86e00f44609a5555bb477f0c721b2']</t>
+          <t>['n920037507b4849dd8240aa56169f3a7db1', 'n920037507b4849dd8240aa56169f3a7db2']</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr"/>
@@ -5737,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="CD21" t="n">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22">
@@ -6124,12 +6124,12 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>n67c76c94e3a14b7098d050656db422d8b1</t>
+          <t>n0dbb84a1c7da462fba07c8020671c65ab1</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>['n67c76c94e3a14b7098d050656db422d8b1']</t>
+          <t>['n0dbb84a1c7da462fba07c8020671c65ab1']</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr"/>
@@ -6796,12 +6796,12 @@
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>nca51b53ad14c4384a9ecd0358baa5e8eb3, nca51b53ad14c4384a9ecd0358baa5e8eb4</t>
+          <t>n4af7659eea674dc4a0f2ea941a35496fb3, n4af7659eea674dc4a0f2ea941a35496fb4</t>
         </is>
       </c>
       <c r="BO26" t="inlineStr">
         <is>
-          <t>['nca51b53ad14c4384a9ecd0358baa5e8eb3', 'nca51b53ad14c4384a9ecd0358baa5e8eb4']</t>
+          <t>['n4af7659eea674dc4a0f2ea941a35496fb3', 'n4af7659eea674dc4a0f2ea941a35496fb4']</t>
         </is>
       </c>
       <c r="BP26" t="inlineStr"/>
@@ -7254,12 +7254,12 @@
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>ne92fefd39a694cb3a94846113a8ffc30b1</t>
+          <t>n77b5815d578943daad838473c52485aeb1</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>['ne92fefd39a694cb3a94846113a8ffc30b1']</t>
+          <t>['n77b5815d578943daad838473c52485aeb1']</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr"/>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="CD28" t="n">
-        <v>1.389</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="29">
@@ -7538,12 +7538,12 @@
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>n3a56e66f2729490cbc26c23fa43dc5edb3, n3a56e66f2729490cbc26c23fa43dc5edb4</t>
+          <t>nb6e51031ae924e30b99e73fe1a1fdc40b3, nb6e51031ae924e30b99e73fe1a1fdc40b4</t>
         </is>
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t>['n3a56e66f2729490cbc26c23fa43dc5edb3', 'n3a56e66f2729490cbc26c23fa43dc5edb4']</t>
+          <t>['nb6e51031ae924e30b99e73fe1a1fdc40b3', 'nb6e51031ae924e30b99e73fe1a1fdc40b4']</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr"/>
@@ -7822,12 +7822,12 @@
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>ne1dc41f433d441dc934dee8f4f0a064cb3, ne1dc41f433d441dc934dee8f4f0a064cb4</t>
+          <t>ne1aa0ce684f04059bdc38c9c82f71347b3, ne1aa0ce684f04059bdc38c9c82f71347b4</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>['ne1dc41f433d441dc934dee8f4f0a064cb3', 'ne1dc41f433d441dc934dee8f4f0a064cb4']</t>
+          <t>['ne1aa0ce684f04059bdc38c9c82f71347b3', 'ne1aa0ce684f04059bdc38c9c82f71347b4']</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr"/>
@@ -8099,12 +8099,12 @@
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr">
         <is>
-          <t>n44185ebbc4be42fd9f9a9a3b6c3a5c5eb1</t>
+          <t>n401ffcd421e74ebe91603b5493d9fcbeb1</t>
         </is>
       </c>
       <c r="BO31" t="inlineStr">
         <is>
-          <t>['n44185ebbc4be42fd9f9a9a3b6c3a5c5eb1']</t>
+          <t>['n401ffcd421e74ebe91603b5493d9fcbeb1']</t>
         </is>
       </c>
       <c r="BP31" t="inlineStr"/>
@@ -8148,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="CD31" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="32">
@@ -8368,22 +8368,22 @@
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr">
         <is>
-          <t>n02a4f2f658e84a55bfe7e389fc80fb4bb1</t>
+          <t>n9b6b7c172d524858a5d3724084fd915eb1</t>
         </is>
       </c>
       <c r="BO32" t="inlineStr">
         <is>
-          <t>['n02a4f2f658e84a55bfe7e389fc80fb4bb1']</t>
+          <t>['n9b6b7c172d524858a5d3724084fd915eb1']</t>
         </is>
       </c>
       <c r="BP32" t="inlineStr">
         <is>
-          <t>n02a4f2f658e84a55bfe7e389fc80fb4bb3</t>
+          <t>n9b6b7c172d524858a5d3724084fd915eb3</t>
         </is>
       </c>
       <c r="BQ32" t="inlineStr">
         <is>
-          <t>n02a4f2f658e84a55bfe7e389fc80fb4bb3</t>
+          <t>n9b6b7c172d524858a5d3724084fd915eb3</t>
         </is>
       </c>
       <c r="BR32" t="inlineStr">
@@ -8425,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="CD32" t="n">
-        <v>1.941</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="33">
@@ -8897,7 +8897,7 @@
         <v>3</v>
       </c>
       <c r="CD34" t="n">
-        <v>1.492</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35">
@@ -9159,7 +9159,7 @@
         <v>3</v>
       </c>
       <c r="CD35" t="n">
-        <v>1.458</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
@@ -9441,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="CD36" t="n">
-        <v>1.647</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="37">
@@ -9709,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="CD37" t="n">
-        <v>1.497</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38">
@@ -9983,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="CD38" t="n">
-        <v>1.428</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="39">
@@ -10265,7 +10265,7 @@
         <v>3</v>
       </c>
       <c r="CD39" t="n">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40">
@@ -10785,7 +10785,7 @@
         <v>3</v>
       </c>
       <c r="CD41" t="n">
-        <v>1.525</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
@@ -11059,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="CD42" t="n">
-        <v>1.067</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="43">
@@ -11333,7 +11333,7 @@
         <v>3</v>
       </c>
       <c r="CD43" t="n">
-        <v>1.524</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44">
@@ -12063,7 +12063,7 @@
         <v>3</v>
       </c>
       <c r="CD46" t="n">
-        <v>1.782</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47">
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="CD49" t="n">
-        <v>1.226</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50">
@@ -12956,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="CD50" t="n">
-        <v>1.986</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -13191,12 +13191,12 @@
       </c>
       <c r="BN51" t="inlineStr">
         <is>
-          <t>n0f5122232f024f6f987d3ad335536392b1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
+          <t>n49015c1b454e48838bcf2880c4be3fecb1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
         </is>
       </c>
       <c r="BO51" t="inlineStr">
         <is>
-          <t>['n0f5122232f024f6f987d3ad335536392b1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
+          <t>['n49015c1b454e48838bcf2880c4be3fecb1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
         </is>
       </c>
       <c r="BP51" t="inlineStr"/>
@@ -15526,7 +15526,7 @@
         <v>3</v>
       </c>
       <c r="CD60" t="n">
-        <v>1.932</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="61">
@@ -16422,7 +16422,7 @@
         <v>3</v>
       </c>
       <c r="CD64" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="65">
@@ -16698,7 +16698,7 @@
         <v>3</v>
       </c>
       <c r="CD65" t="n">
-        <v>1.992</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -16968,7 +16968,7 @@
         <v>3</v>
       </c>
       <c r="CD66" t="n">
-        <v>1.886</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="67">
@@ -17553,12 +17553,12 @@
       </c>
       <c r="BP69" t="inlineStr">
         <is>
-          <t>nd6e9bf97cccd469d9294e6da77b119e5b1</t>
+          <t>ndfca450f4fdd4658814578c5166fee6bb1</t>
         </is>
       </c>
       <c r="BQ69" t="inlineStr">
         <is>
-          <t>nd6e9bf97cccd469d9294e6da77b119e5b1</t>
+          <t>ndfca450f4fdd4658814578c5166fee6bb1</t>
         </is>
       </c>
       <c r="BR69" t="inlineStr">
@@ -18561,22 +18561,22 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr">
         <is>
-          <t>nc4d210c79b634f7a8f62a48a3e1bbf56b1</t>
+          <t>n026f0133ddbd47bfb7b225419485c1a9b1</t>
         </is>
       </c>
       <c r="BO73" t="inlineStr">
         <is>
-          <t>['nc4d210c79b634f7a8f62a48a3e1bbf56b1']</t>
+          <t>['n026f0133ddbd47bfb7b225419485c1a9b1']</t>
         </is>
       </c>
       <c r="BP73" t="inlineStr">
         <is>
-          <t>nc4d210c79b634f7a8f62a48a3e1bbf56b3</t>
+          <t>n026f0133ddbd47bfb7b225419485c1a9b3</t>
         </is>
       </c>
       <c r="BQ73" t="inlineStr">
         <is>
-          <t>nc4d210c79b634f7a8f62a48a3e1bbf56b3</t>
+          <t>n026f0133ddbd47bfb7b225419485c1a9b3</t>
         </is>
       </c>
       <c r="BR73" t="inlineStr">
@@ -18618,7 +18618,7 @@
         <v>3</v>
       </c>
       <c r="CD73" t="n">
-        <v>1.933</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="74">
@@ -19065,12 +19065,12 @@
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr">
         <is>
-          <t>n3d430423b1914c95b9a573defad90fbcb1, n3d430423b1914c95b9a573defad90fbcb2</t>
+          <t>nf17170b985cb4e3eb4472b6518650e83b1, nf17170b985cb4e3eb4472b6518650e83b2</t>
         </is>
       </c>
       <c r="BO75" t="inlineStr">
         <is>
-          <t>['n3d430423b1914c95b9a573defad90fbcb1', 'n3d430423b1914c95b9a573defad90fbcb2']</t>
+          <t>['nf17170b985cb4e3eb4472b6518650e83b1', 'nf17170b985cb4e3eb4472b6518650e83b2']</t>
         </is>
       </c>
       <c r="BP75" t="inlineStr"/>
@@ -19380,7 +19380,7 @@
         <v>3</v>
       </c>
       <c r="CD76" t="n">
-        <v>1.556</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="77">
@@ -19654,7 +19654,7 @@
         <v>3</v>
       </c>
       <c r="CD77" t="n">
-        <v>1.984</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -20134,22 +20134,22 @@
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr">
         <is>
-          <t>n1855b57938dd4b1e92b12a25be7ea42bb3, n1855b57938dd4b1e92b12a25be7ea42bb5</t>
+          <t>n5f0d79107b0245ffb9eb516eedb40e9eb3, n5f0d79107b0245ffb9eb516eedb40e9eb5</t>
         </is>
       </c>
       <c r="BO79" t="inlineStr">
         <is>
-          <t>['n1855b57938dd4b1e92b12a25be7ea42bb3', 'n1855b57938dd4b1e92b12a25be7ea42bb5']</t>
+          <t>['n5f0d79107b0245ffb9eb516eedb40e9eb3', 'n5f0d79107b0245ffb9eb516eedb40e9eb5']</t>
         </is>
       </c>
       <c r="BP79" t="inlineStr">
         <is>
-          <t>n1855b57938dd4b1e92b12a25be7ea42bb7</t>
+          <t>n5f0d79107b0245ffb9eb516eedb40e9eb7</t>
         </is>
       </c>
       <c r="BQ79" t="inlineStr">
         <is>
-          <t>n1855b57938dd4b1e92b12a25be7ea42bb7</t>
+          <t>n5f0d79107b0245ffb9eb516eedb40e9eb7</t>
         </is>
       </c>
       <c r="BR79" t="inlineStr">
@@ -20191,7 +20191,7 @@
         <v>3</v>
       </c>
       <c r="CD79" t="n">
-        <v>1.896</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="80">
@@ -20641,7 +20641,7 @@
         <v>3</v>
       </c>
       <c r="CD81" t="n">
-        <v>1.865</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="82">
@@ -21067,22 +21067,22 @@
       <c r="BM83" t="inlineStr"/>
       <c r="BN83" t="inlineStr">
         <is>
-          <t>ne269ecf3bfd34bc89e28c40f8506748cb3, ne269ecf3bfd34bc89e28c40f8506748cb5</t>
+          <t>n57a5a9640e114f0daea6cdab78ee6f06b3, n57a5a9640e114f0daea6cdab78ee6f06b5</t>
         </is>
       </c>
       <c r="BO83" t="inlineStr">
         <is>
-          <t>['ne269ecf3bfd34bc89e28c40f8506748cb3', 'ne269ecf3bfd34bc89e28c40f8506748cb5']</t>
+          <t>['n57a5a9640e114f0daea6cdab78ee6f06b3', 'n57a5a9640e114f0daea6cdab78ee6f06b5']</t>
         </is>
       </c>
       <c r="BP83" t="inlineStr">
         <is>
-          <t>ne269ecf3bfd34bc89e28c40f8506748cb7</t>
+          <t>n57a5a9640e114f0daea6cdab78ee6f06b7</t>
         </is>
       </c>
       <c r="BQ83" t="inlineStr">
         <is>
-          <t>ne269ecf3bfd34bc89e28c40f8506748cb7</t>
+          <t>n57a5a9640e114f0daea6cdab78ee6f06b7</t>
         </is>
       </c>
       <c r="BR83" t="inlineStr">
@@ -21124,7 +21124,7 @@
         <v>3</v>
       </c>
       <c r="CD83" t="n">
-        <v>1.815</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="84">
@@ -21404,7 +21404,7 @@
         <v>3</v>
       </c>
       <c r="CD84" t="n">
-        <v>1.179</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="85">
@@ -21656,7 +21656,7 @@
         <v>3</v>
       </c>
       <c r="CD85" t="n">
-        <v>1.933</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="86">
@@ -21865,12 +21865,12 @@
       </c>
       <c r="BN86" t="inlineStr">
         <is>
-          <t>na3f8de111d8a4b30abd84e3c819094bfb1</t>
+          <t>naf2dbc8f75b24a779a44109687c68e74b1</t>
         </is>
       </c>
       <c r="BO86" t="inlineStr">
         <is>
-          <t>['na3f8de111d8a4b30abd84e3c819094bfb1']</t>
+          <t>['naf2dbc8f75b24a779a44109687c68e74b1']</t>
         </is>
       </c>
       <c r="BP86" t="inlineStr"/>
@@ -21914,7 +21914,7 @@
         <v>3</v>
       </c>
       <c r="CD86" t="n">
-        <v>1.994</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -23032,7 +23032,7 @@
         <v>3</v>
       </c>
       <c r="CD91" t="n">
-        <v>1.257</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="92">
@@ -23537,7 +23537,7 @@
         <v>3</v>
       </c>
       <c r="CD93" t="n">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="94">
@@ -24373,7 +24373,7 @@
         <v>3</v>
       </c>
       <c r="CD97" t="n">
-        <v>1.963</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -24578,12 +24578,12 @@
       <c r="BM98" t="inlineStr"/>
       <c r="BN98" t="inlineStr">
         <is>
-          <t>n7907b3fb6d6c4be287c978cb92b27cabb1, n7907b3fb6d6c4be287c978cb92b27cabb2</t>
+          <t>na26e13b1f1884f1cb061816f673a69b4b1, na26e13b1f1884f1cb061816f673a69b4b2</t>
         </is>
       </c>
       <c r="BO98" t="inlineStr">
         <is>
-          <t>['n7907b3fb6d6c4be287c978cb92b27cabb1', 'n7907b3fb6d6c4be287c978cb92b27cabb2']</t>
+          <t>['na26e13b1f1884f1cb061816f673a69b4b1', 'na26e13b1f1884f1cb061816f673a69b4b2']</t>
         </is>
       </c>
       <c r="BP98" t="inlineStr"/>
@@ -24627,7 +24627,7 @@
         <v>3</v>
       </c>
       <c r="CD98" t="n">
-        <v>1.947</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="99">
@@ -26065,7 +26065,7 @@
         <v>3</v>
       </c>
       <c r="CD104" t="n">
-        <v>1.462</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105">
@@ -32923,12 +32923,12 @@
       <c r="BM130" t="inlineStr"/>
       <c r="BN130" t="inlineStr">
         <is>
-          <t>n8d24cdc3698f49e1a74cb3a7ad364d77b1</t>
+          <t>naf9f371e4cfb410d86f6001f5d7679bcb1</t>
         </is>
       </c>
       <c r="BO130" t="inlineStr">
         <is>
-          <t>['n8d24cdc3698f49e1a74cb3a7ad364d77b1']</t>
+          <t>['naf9f371e4cfb410d86f6001f5d7679bcb1']</t>
         </is>
       </c>
       <c r="BP130" t="inlineStr"/>
@@ -33193,12 +33193,12 @@
       <c r="BM131" t="inlineStr"/>
       <c r="BN131" t="inlineStr">
         <is>
-          <t>nf04f46bae1224b61be6d1b764f6ff66db1</t>
+          <t>na26a67ad03b449e5ba9f5d76cc4aa29ab1</t>
         </is>
       </c>
       <c r="BO131" t="inlineStr">
         <is>
-          <t>['nf04f46bae1224b61be6d1b764f6ff66db1']</t>
+          <t>['na26a67ad03b449e5ba9f5d76cc4aa29ab1']</t>
         </is>
       </c>
       <c r="BP131" t="inlineStr"/>
@@ -35228,7 +35228,7 @@
         <v>3</v>
       </c>
       <c r="CD141" t="n">
-        <v>1.014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -36224,13 +36224,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A15022-15DF-4C4F-B02D-F8C9F383AAE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA8D592-26A7-423E-AF08-9507D40F025D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B62046-A9C9-4931-9958-45DB0AC62BE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{706057D7-4F23-4809-8234-2BB76B24A7BF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7006F9-F14C-45C5-A5DC-E7A8D9514E93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8F566BE-512C-4487-B8CD-8154C7B2025D}"/>
 </file>
--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -986,10 +986,10 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="n">
-        <v>0.6722222</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.6722222</v>
+        <v>0.67</v>
       </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
@@ -1228,10 +1228,10 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
@@ -1486,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
@@ -1756,10 +1756,10 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>0.6979166999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.6979166999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
@@ -1801,12 +1801,12 @@
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>n6a7d5322a38842bf86c5ad9d06b00ffcb1</t>
+          <t>n15bc9c2e339a4b3ca7f4afa3c742c918b1</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>['n6a7d5322a38842bf86c5ad9d06b00ffcb1']</t>
+          <t>['n15bc9c2e339a4b3ca7f4afa3c742c918b1']</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr"/>
@@ -1997,10 +1997,10 @@
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.65871125</v>
+        <v>0.66</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.65871125</v>
+        <v>0.66</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
@@ -2050,12 +2050,12 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>n279a682fe7b3414ca3dd05514f43cd8cb1</t>
+          <t>n28b4a33a1a3c47afbc496e26c3cdbc21b1</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>['n279a682fe7b3414ca3dd05514f43cd8cb1']</t>
+          <t>['n28b4a33a1a3c47afbc496e26c3cdbc21b1']</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
@@ -3211,10 +3211,10 @@
       </c>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>0.6666666999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.6666666999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
@@ -3256,12 +3256,12 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>n905b6ca76e544a09a9e3e6fd19847975b1</t>
+          <t>n87b0615a1dd74723a3b1211284364afdb1</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>['n905b6ca76e544a09a9e3e6fd19847975b1']</t>
+          <t>['n87b0615a1dd74723a3b1211284364afdb1']</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr"/>
@@ -4035,10 +4035,10 @@
         <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
@@ -4296,10 +4296,10 @@
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
       </c>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="n">
-        <v>0.8611111</v>
+        <v>0.86</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.8611111</v>
+        <v>0.86</v>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
       </c>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
-        <v>0.6597222700000001</v>
+        <v>0.66</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.6597222700000001</v>
+        <v>0.66</v>
       </c>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
@@ -4888,12 +4888,12 @@
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>n193fb70772a342b996e7bdd5369cf6c0b8, n193fb70772a342b996e7bdd5369cf6c0b9, n193fb70772a342b996e7bdd5369cf6c0b10, n193fb70772a342b996e7bdd5369cf6c0b11</t>
+          <t>nb2f1c618ad41435cbfd118dd348a826bb8, nb2f1c618ad41435cbfd118dd348a826bb9, nb2f1c618ad41435cbfd118dd348a826bb10, nb2f1c618ad41435cbfd118dd348a826bb11</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>['n193fb70772a342b996e7bdd5369cf6c0b8', 'n193fb70772a342b996e7bdd5369cf6c0b9', 'n193fb70772a342b996e7bdd5369cf6c0b10', 'n193fb70772a342b996e7bdd5369cf6c0b11']</t>
+          <t>['nb2f1c618ad41435cbfd118dd348a826bb8', 'nb2f1c618ad41435cbfd118dd348a826bb9', 'nb2f1c618ad41435cbfd118dd348a826bb10', 'nb2f1c618ad41435cbfd118dd348a826bb11']</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr"/>
@@ -5156,22 +5156,22 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>nfbc208f787ed40398a97a7cd1dd6f02bb7274</t>
+          <t>nc689fbfbb68c48a4bb850489dc06615db7274</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>['nfbc208f787ed40398a97a7cd1dd6f02bb7274']</t>
+          <t>['nc689fbfbb68c48a4bb850489dc06615db7274']</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>nfbc208f787ed40398a97a7cd1dd6f02bb7276</t>
+          <t>nc689fbfbb68c48a4bb850489dc06615db7276</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>nfbc208f787ed40398a97a7cd1dd6f02bb7276</t>
+          <t>nc689fbfbb68c48a4bb850489dc06615db7276</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
@@ -5365,10 +5365,10 @@
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>0.7395833000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.7395833000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
@@ -5410,12 +5410,12 @@
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>n920037507b4849dd8240aa56169f3a7db1, n920037507b4849dd8240aa56169f3a7db2</t>
+          <t>nd5a555793efd425088f30c9880618a8cb1, nd5a555793efd425088f30c9880618a8cb2</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>['n920037507b4849dd8240aa56169f3a7db1', 'n920037507b4849dd8240aa56169f3a7db2']</t>
+          <t>['nd5a555793efd425088f30c9880618a8cb1', 'nd5a555793efd425088f30c9880618a8cb2']</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr"/>
@@ -5627,10 +5627,10 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
@@ -6087,10 +6087,10 @@
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="n">
-        <v>0.8125</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.8125</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
@@ -6124,12 +6124,12 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>n0dbb84a1c7da462fba07c8020671c65ab1</t>
+          <t>nc2db33f02b224b7f9d088f8361346b1cb1</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>['n0dbb84a1c7da462fba07c8020671c65ab1']</t>
+          <t>['nc2db33f02b224b7f9d088f8361346b1cb1']</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
       </c>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
@@ -6796,12 +6796,12 @@
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>n4af7659eea674dc4a0f2ea941a35496fb3, n4af7659eea674dc4a0f2ea941a35496fb4</t>
+          <t>nccc3d14c88044a58812e3f139ad2d1aab3, nccc3d14c88044a58812e3f139ad2d1aab4</t>
         </is>
       </c>
       <c r="BO26" t="inlineStr">
         <is>
-          <t>['n4af7659eea674dc4a0f2ea941a35496fb3', 'n4af7659eea674dc4a0f2ea941a35496fb4']</t>
+          <t>['nccc3d14c88044a58812e3f139ad2d1aab3', 'nccc3d14c88044a58812e3f139ad2d1aab4']</t>
         </is>
       </c>
       <c r="BP26" t="inlineStr"/>
@@ -7201,10 +7201,10 @@
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="n">
-        <v>0.7973485</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.7973485</v>
+        <v>0.8</v>
       </c>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
@@ -7254,12 +7254,12 @@
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>n77b5815d578943daad838473c52485aeb1</t>
+          <t>n79619e692a814d5e933caf3da7bcd356b1</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>['n77b5815d578943daad838473c52485aeb1']</t>
+          <t>['n79619e692a814d5e933caf3da7bcd356b1']</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr"/>
@@ -7485,10 +7485,10 @@
       </c>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
@@ -7538,12 +7538,12 @@
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>nb6e51031ae924e30b99e73fe1a1fdc40b3, nb6e51031ae924e30b99e73fe1a1fdc40b4</t>
+          <t>nc94a92cd905f440fbc2cdaeeb2cf0484b3, nc94a92cd905f440fbc2cdaeeb2cf0484b4</t>
         </is>
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t>['nb6e51031ae924e30b99e73fe1a1fdc40b3', 'nb6e51031ae924e30b99e73fe1a1fdc40b4']</t>
+          <t>['nc94a92cd905f440fbc2cdaeeb2cf0484b3', 'nc94a92cd905f440fbc2cdaeeb2cf0484b4']</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr"/>
@@ -7769,10 +7769,10 @@
       </c>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
@@ -7822,12 +7822,12 @@
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>ne1aa0ce684f04059bdc38c9c82f71347b3, ne1aa0ce684f04059bdc38c9c82f71347b4</t>
+          <t>nc16b2a79767847d8866a556bc24c1d01b3, nc16b2a79767847d8866a556bc24c1d01b4</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>['ne1aa0ce684f04059bdc38c9c82f71347b3', 'ne1aa0ce684f04059bdc38c9c82f71347b4']</t>
+          <t>['nc16b2a79767847d8866a556bc24c1d01b3', 'nc16b2a79767847d8866a556bc24c1d01b4']</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr"/>
@@ -8046,10 +8046,10 @@
       </c>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="n">
-        <v>0.8125</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.8125</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
@@ -8099,12 +8099,12 @@
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr">
         <is>
-          <t>n401ffcd421e74ebe91603b5493d9fcbeb1</t>
+          <t>ndb4e37ff2156491cb7d019ac2fa42cc3b1</t>
         </is>
       </c>
       <c r="BO31" t="inlineStr">
         <is>
-          <t>['n401ffcd421e74ebe91603b5493d9fcbeb1']</t>
+          <t>['ndb4e37ff2156491cb7d019ac2fa42cc3b1']</t>
         </is>
       </c>
       <c r="BP31" t="inlineStr"/>
@@ -8323,10 +8323,10 @@
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="n">
-        <v>0.7892157400000001</v>
+        <v>0.79</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.7892157400000001</v>
+        <v>0.79</v>
       </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
@@ -8368,22 +8368,22 @@
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr">
         <is>
-          <t>n9b6b7c172d524858a5d3724084fd915eb1</t>
+          <t>n989d0ef5426148a1aa32c442a6c82e99b1</t>
         </is>
       </c>
       <c r="BO32" t="inlineStr">
         <is>
-          <t>['n9b6b7c172d524858a5d3724084fd915eb1']</t>
+          <t>['n989d0ef5426148a1aa32c442a6c82e99b1']</t>
         </is>
       </c>
       <c r="BP32" t="inlineStr">
         <is>
-          <t>n9b6b7c172d524858a5d3724084fd915eb3</t>
+          <t>n989d0ef5426148a1aa32c442a6c82e99b3</t>
         </is>
       </c>
       <c r="BQ32" t="inlineStr">
         <is>
-          <t>n9b6b7c172d524858a5d3724084fd915eb3</t>
+          <t>n989d0ef5426148a1aa32c442a6c82e99b3</t>
         </is>
       </c>
       <c r="BR32" t="inlineStr">
@@ -9599,10 +9599,10 @@
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
@@ -9881,10 +9881,10 @@
       </c>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
@@ -10155,10 +10155,10 @@
       </c>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
@@ -10407,10 +10407,10 @@
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
@@ -10683,10 +10683,10 @@
       </c>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
@@ -10949,10 +10949,10 @@
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
@@ -11231,10 +11231,10 @@
       </c>
       <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
@@ -11467,10 +11467,10 @@
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
@@ -11707,10 +11707,10 @@
       </c>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
@@ -11961,10 +11961,10 @@
       </c>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
@@ -12594,10 +12594,10 @@
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
       <c r="AT49" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="inlineStr"/>
@@ -12854,10 +12854,10 @@
       <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
       <c r="AT50" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV50" t="inlineStr">
         <is>
@@ -13138,10 +13138,10 @@
       </c>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="n">
-        <v>0.8611111</v>
+        <v>0.86</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.8611111</v>
+        <v>0.86</v>
       </c>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
@@ -13191,12 +13191,12 @@
       </c>
       <c r="BN51" t="inlineStr">
         <is>
-          <t>n49015c1b454e48838bcf2880c4be3fecb1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
+          <t>n9f5dcdd845534f4b987d4cba50f885bfb1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
         </is>
       </c>
       <c r="BO51" t="inlineStr">
         <is>
-          <t>['n49015c1b454e48838bcf2880c4be3fecb1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
+          <t>['n9f5dcdd845534f4b987d4cba50f885bfb1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
         </is>
       </c>
       <c r="BP51" t="inlineStr"/>
@@ -13400,10 +13400,10 @@
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="n">
-        <v>0.72222215</v>
+        <v>0.72</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.72222215</v>
+        <v>0.72</v>
       </c>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
@@ -13662,10 +13662,10 @@
       </c>
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="n">
-        <v>0.1875</v>
+        <v>0.19</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.1875</v>
+        <v>0.19</v>
       </c>
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
@@ -13916,10 +13916,10 @@
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="n">
-        <v>0.6388889</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.6388889</v>
+        <v>0.64</v>
       </c>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
@@ -14168,10 +14168,10 @@
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="n">
-        <v>0.68402785</v>
+        <v>0.68</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.68402785</v>
+        <v>0.68</v>
       </c>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
@@ -14699,10 +14699,10 @@
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
       <c r="AT57" t="n">
-        <v>0.6770833000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AU57" t="n">
-        <v>0.6770833000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="inlineStr"/>
@@ -15173,10 +15173,10 @@
       </c>
       <c r="AS59" t="inlineStr"/>
       <c r="AT59" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV59" t="inlineStr"/>
       <c r="AW59" t="inlineStr"/>
@@ -15428,10 +15428,10 @@
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
@@ -15868,10 +15868,10 @@
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
       <c r="AT62" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU62" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
@@ -16320,10 +16320,10 @@
       <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr"/>
       <c r="AT64" t="n">
-        <v>0.3784722</v>
+        <v>0.38</v>
       </c>
       <c r="AU64" t="n">
-        <v>0.3784722</v>
+        <v>0.38</v>
       </c>
       <c r="AV64" t="inlineStr"/>
       <c r="AW64" t="inlineStr"/>
@@ -16604,10 +16604,10 @@
       </c>
       <c r="AS65" t="inlineStr"/>
       <c r="AT65" t="n">
-        <v>0.81218195</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU65" t="n">
-        <v>0.81218195</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AV65" t="inlineStr"/>
       <c r="AW65" t="inlineStr"/>
@@ -16866,10 +16866,10 @@
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
       <c r="AT66" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU66" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="inlineStr"/>
@@ -17490,10 +17490,10 @@
       </c>
       <c r="AS69" t="inlineStr"/>
       <c r="AT69" t="n">
-        <v>0.8993056</v>
+        <v>0.9</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.8993056</v>
+        <v>0.9</v>
       </c>
       <c r="AV69" t="inlineStr">
         <is>
@@ -17553,12 +17553,12 @@
       </c>
       <c r="BP69" t="inlineStr">
         <is>
-          <t>ndfca450f4fdd4658814578c5166fee6bb1</t>
+          <t>nf21d15b0c1d74ea2be6f2121e229069db1</t>
         </is>
       </c>
       <c r="BQ69" t="inlineStr">
         <is>
-          <t>ndfca450f4fdd4658814578c5166fee6bb1</t>
+          <t>nf21d15b0c1d74ea2be6f2121e229069db1</t>
         </is>
       </c>
       <c r="BR69" t="inlineStr">
@@ -17976,10 +17976,10 @@
       </c>
       <c r="AS71" t="inlineStr"/>
       <c r="AT71" t="n">
-        <v>0.7361111</v>
+        <v>0.74</v>
       </c>
       <c r="AU71" t="n">
-        <v>0.7361111</v>
+        <v>0.74</v>
       </c>
       <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="inlineStr"/>
@@ -18240,10 +18240,10 @@
         <v>0</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="AU72" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
@@ -18508,10 +18508,10 @@
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="AU73" t="n">
-        <v>0.0625</v>
+        <v>0.06</v>
       </c>
       <c r="AV73" t="inlineStr">
         <is>
@@ -18561,22 +18561,22 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr">
         <is>
-          <t>n026f0133ddbd47bfb7b225419485c1a9b1</t>
+          <t>n5fd7d7a83c45457ea66451a105083985b1</t>
         </is>
       </c>
       <c r="BO73" t="inlineStr">
         <is>
-          <t>['n026f0133ddbd47bfb7b225419485c1a9b1']</t>
+          <t>['n5fd7d7a83c45457ea66451a105083985b1']</t>
         </is>
       </c>
       <c r="BP73" t="inlineStr">
         <is>
-          <t>n026f0133ddbd47bfb7b225419485c1a9b3</t>
+          <t>n5fd7d7a83c45457ea66451a105083985b3</t>
         </is>
       </c>
       <c r="BQ73" t="inlineStr">
         <is>
-          <t>n026f0133ddbd47bfb7b225419485c1a9b3</t>
+          <t>n5fd7d7a83c45457ea66451a105083985b3</t>
         </is>
       </c>
       <c r="BR73" t="inlineStr">
@@ -18764,10 +18764,10 @@
       </c>
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="n">
-        <v>0.56815</v>
+        <v>0.57</v>
       </c>
       <c r="AU74" t="n">
-        <v>0.56815</v>
+        <v>0.57</v>
       </c>
       <c r="AV74" t="inlineStr"/>
       <c r="AW74" t="inlineStr"/>
@@ -19020,10 +19020,10 @@
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
       <c r="AT75" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU75" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV75" t="inlineStr"/>
       <c r="AW75" t="inlineStr"/>
@@ -19065,12 +19065,12 @@
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr">
         <is>
-          <t>nf17170b985cb4e3eb4472b6518650e83b1, nf17170b985cb4e3eb4472b6518650e83b2</t>
+          <t>n8012851f050e4f3eb5c9827a0dc99bd6b1, n8012851f050e4f3eb5c9827a0dc99bd6b2</t>
         </is>
       </c>
       <c r="BO75" t="inlineStr">
         <is>
-          <t>['nf17170b985cb4e3eb4472b6518650e83b1', 'nf17170b985cb4e3eb4472b6518650e83b2']</t>
+          <t>['n8012851f050e4f3eb5c9827a0dc99bd6b1', 'n8012851f050e4f3eb5c9827a0dc99bd6b2']</t>
         </is>
       </c>
       <c r="BP75" t="inlineStr"/>
@@ -19270,10 +19270,10 @@
         <v>15</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU76" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
@@ -19552,10 +19552,10 @@
       </c>
       <c r="AS77" t="inlineStr"/>
       <c r="AT77" t="n">
-        <v>0.72023803</v>
+        <v>0.72</v>
       </c>
       <c r="AU77" t="n">
-        <v>0.72023803</v>
+        <v>0.72</v>
       </c>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
@@ -19824,10 +19824,10 @@
       </c>
       <c r="AS78" t="inlineStr"/>
       <c r="AT78" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU78" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
@@ -20097,10 +20097,10 @@
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
       <c r="AT79" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU79" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV79" t="inlineStr"/>
       <c r="AW79" t="inlineStr"/>
@@ -20134,22 +20134,22 @@
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr">
         <is>
-          <t>n5f0d79107b0245ffb9eb516eedb40e9eb3, n5f0d79107b0245ffb9eb516eedb40e9eb5</t>
+          <t>n17e582eed7f74fd68f9a257592435f12b3, n17e582eed7f74fd68f9a257592435f12b5</t>
         </is>
       </c>
       <c r="BO79" t="inlineStr">
         <is>
-          <t>['n5f0d79107b0245ffb9eb516eedb40e9eb3', 'n5f0d79107b0245ffb9eb516eedb40e9eb5']</t>
+          <t>['n17e582eed7f74fd68f9a257592435f12b3', 'n17e582eed7f74fd68f9a257592435f12b5']</t>
         </is>
       </c>
       <c r="BP79" t="inlineStr">
         <is>
-          <t>n5f0d79107b0245ffb9eb516eedb40e9eb7</t>
+          <t>n17e582eed7f74fd68f9a257592435f12b7</t>
         </is>
       </c>
       <c r="BQ79" t="inlineStr">
         <is>
-          <t>n5f0d79107b0245ffb9eb516eedb40e9eb7</t>
+          <t>n17e582eed7f74fd68f9a257592435f12b7</t>
         </is>
       </c>
       <c r="BR79" t="inlineStr">
@@ -20295,10 +20295,10 @@
       <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr"/>
       <c r="AT80" t="n">
-        <v>0.041666668</v>
+        <v>0.04</v>
       </c>
       <c r="AU80" t="n">
-        <v>0.041666668</v>
+        <v>0.04</v>
       </c>
       <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="inlineStr"/>
@@ -20539,10 +20539,10 @@
       </c>
       <c r="AS81" t="inlineStr"/>
       <c r="AT81" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU81" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV81" t="inlineStr"/>
       <c r="AW81" t="inlineStr"/>
@@ -21014,10 +21014,10 @@
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
       <c r="AT83" t="n">
-        <v>0.87082696</v>
+        <v>0.87</v>
       </c>
       <c r="AU83" t="n">
-        <v>0.87082696</v>
+        <v>0.87</v>
       </c>
       <c r="AV83" t="inlineStr">
         <is>
@@ -21067,22 +21067,22 @@
       <c r="BM83" t="inlineStr"/>
       <c r="BN83" t="inlineStr">
         <is>
-          <t>n57a5a9640e114f0daea6cdab78ee6f06b3, n57a5a9640e114f0daea6cdab78ee6f06b5</t>
+          <t>n4f44a599c41e46038cdd6a513c8cfb9cb3, n4f44a599c41e46038cdd6a513c8cfb9cb5</t>
         </is>
       </c>
       <c r="BO83" t="inlineStr">
         <is>
-          <t>['n57a5a9640e114f0daea6cdab78ee6f06b3', 'n57a5a9640e114f0daea6cdab78ee6f06b5']</t>
+          <t>['n4f44a599c41e46038cdd6a513c8cfb9cb3', 'n4f44a599c41e46038cdd6a513c8cfb9cb5']</t>
         </is>
       </c>
       <c r="BP83" t="inlineStr">
         <is>
-          <t>n57a5a9640e114f0daea6cdab78ee6f06b7</t>
+          <t>n4f44a599c41e46038cdd6a513c8cfb9cb7</t>
         </is>
       </c>
       <c r="BQ83" t="inlineStr">
         <is>
-          <t>n57a5a9640e114f0daea6cdab78ee6f06b7</t>
+          <t>n4f44a599c41e46038cdd6a513c8cfb9cb7</t>
         </is>
       </c>
       <c r="BR83" t="inlineStr">
@@ -21294,10 +21294,10 @@
       </c>
       <c r="AS84" t="inlineStr"/>
       <c r="AT84" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU84" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV84" t="inlineStr"/>
       <c r="AW84" t="inlineStr"/>
@@ -21562,10 +21562,10 @@
       <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr"/>
       <c r="AT85" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU85" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV85" t="inlineStr"/>
       <c r="AW85" t="inlineStr"/>
@@ -21820,10 +21820,10 @@
       <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr"/>
       <c r="AT86" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU86" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV86" t="inlineStr"/>
       <c r="AW86" t="inlineStr"/>
@@ -21865,12 +21865,12 @@
       </c>
       <c r="BN86" t="inlineStr">
         <is>
-          <t>naf2dbc8f75b24a779a44109687c68e74b1</t>
+          <t>nc9db8e5cf4f74d15bc6a2a2730a05b57b1</t>
         </is>
       </c>
       <c r="BO86" t="inlineStr">
         <is>
-          <t>['naf2dbc8f75b24a779a44109687c68e74b1']</t>
+          <t>['nc9db8e5cf4f74d15bc6a2a2730a05b57b1']</t>
         </is>
       </c>
       <c r="BP86" t="inlineStr"/>
@@ -22238,10 +22238,10 @@
       <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr"/>
       <c r="AT88" t="n">
-        <v>0.20833333</v>
+        <v>0.21</v>
       </c>
       <c r="AU88" t="n">
-        <v>0.20833333</v>
+        <v>0.21</v>
       </c>
       <c r="AV88" t="inlineStr">
         <is>
@@ -22468,10 +22468,10 @@
       </c>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>0.20833333</v>
+        <v>0.21</v>
       </c>
       <c r="AU89" t="n">
-        <v>0.20833333</v>
+        <v>0.21</v>
       </c>
       <c r="AV89" t="inlineStr">
         <is>
@@ -22682,10 +22682,10 @@
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
       <c r="AT90" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV90" t="inlineStr"/>
       <c r="AW90" t="inlineStr"/>
@@ -22938,10 +22938,10 @@
       </c>
       <c r="AS91" t="inlineStr"/>
       <c r="AT91" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV91" t="inlineStr"/>
       <c r="AW91" t="inlineStr"/>
@@ -23180,10 +23180,10 @@
       <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr"/>
       <c r="AT92" t="n">
-        <v>0.6527777299999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU92" t="n">
-        <v>0.6527777299999999</v>
+        <v>0.65</v>
       </c>
       <c r="AV92" t="inlineStr"/>
       <c r="AW92" t="inlineStr"/>
@@ -23443,10 +23443,10 @@
       </c>
       <c r="AS93" t="inlineStr"/>
       <c r="AT93" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AV93" t="inlineStr"/>
       <c r="AW93" t="inlineStr"/>
@@ -24263,10 +24263,10 @@
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
       <c r="AT97" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU97" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV97" t="inlineStr"/>
       <c r="AW97" t="inlineStr"/>
@@ -24533,10 +24533,10 @@
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV98" t="inlineStr"/>
       <c r="AW98" t="inlineStr"/>
@@ -24578,12 +24578,12 @@
       <c r="BM98" t="inlineStr"/>
       <c r="BN98" t="inlineStr">
         <is>
-          <t>na26e13b1f1884f1cb061816f673a69b4b1, na26e13b1f1884f1cb061816f673a69b4b2</t>
+          <t>ne4084765d65c46d0b2f3dbddfe1e749bb1, ne4084765d65c46d0b2f3dbddfe1e749bb2</t>
         </is>
       </c>
       <c r="BO98" t="inlineStr">
         <is>
-          <t>['na26e13b1f1884f1cb061816f673a69b4b1', 'na26e13b1f1884f1cb061816f673a69b4b2']</t>
+          <t>['ne4084765d65c46d0b2f3dbddfe1e749bb1', 'ne4084765d65c46d0b2f3dbddfe1e749bb2']</t>
         </is>
       </c>
       <c r="BP98" t="inlineStr"/>
@@ -24789,10 +24789,10 @@
       <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr"/>
       <c r="AT99" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU99" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV99" t="inlineStr"/>
       <c r="AW99" t="inlineStr"/>
@@ -25053,10 +25053,10 @@
       <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr"/>
       <c r="AT100" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU100" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV100" t="inlineStr"/>
       <c r="AW100" t="inlineStr"/>
@@ -25513,10 +25513,10 @@
       <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr"/>
       <c r="AT102" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV102" t="inlineStr"/>
       <c r="AW102" t="inlineStr"/>
@@ -25955,10 +25955,10 @@
       <c r="AR104" t="inlineStr"/>
       <c r="AS104" t="inlineStr"/>
       <c r="AT104" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV104" t="inlineStr"/>
       <c r="AW104" t="inlineStr"/>
@@ -26235,10 +26235,10 @@
       </c>
       <c r="AS105" t="inlineStr"/>
       <c r="AT105" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU105" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV105" t="inlineStr"/>
       <c r="AW105" t="inlineStr"/>
@@ -26517,10 +26517,10 @@
       <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr"/>
       <c r="AT106" t="n">
-        <v>0.9270833000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.9270833000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AV106" t="inlineStr"/>
       <c r="AW106" t="inlineStr"/>
@@ -26803,10 +26803,10 @@
       <c r="AR107" t="inlineStr"/>
       <c r="AS107" t="inlineStr"/>
       <c r="AT107" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU107" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AV107" t="inlineStr"/>
       <c r="AW107" t="inlineStr"/>
@@ -27105,10 +27105,10 @@
       </c>
       <c r="AS108" t="inlineStr"/>
       <c r="AT108" t="n">
-        <v>0.8541666999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AU108" t="n">
-        <v>0.8541666999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AV108" t="inlineStr">
         <is>
@@ -27415,10 +27415,10 @@
       </c>
       <c r="AS109" t="inlineStr"/>
       <c r="AT109" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AU109" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AV109" t="inlineStr"/>
       <c r="AW109" t="inlineStr"/>
@@ -27719,10 +27719,10 @@
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
       <c r="AT110" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AU110" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AV110" t="inlineStr"/>
       <c r="AW110" t="inlineStr"/>
@@ -28020,10 +28020,10 @@
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
       <c r="AT111" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AU111" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AV111" t="inlineStr"/>
       <c r="AW111" t="inlineStr"/>
@@ -28314,10 +28314,10 @@
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
       <c r="AT112" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AV112" t="inlineStr"/>
       <c r="AW112" t="inlineStr"/>
@@ -28608,10 +28608,10 @@
       <c r="AR113" t="inlineStr"/>
       <c r="AS113" t="inlineStr"/>
       <c r="AT113" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU113" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AV113" t="inlineStr"/>
       <c r="AW113" t="inlineStr"/>
@@ -28906,10 +28906,10 @@
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
       <c r="AT114" t="n">
-        <v>0.9270833000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AU114" t="n">
-        <v>0.9270833000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AV114" t="inlineStr"/>
       <c r="AW114" t="inlineStr"/>
@@ -29200,10 +29200,10 @@
       <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr"/>
       <c r="AT115" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU115" t="n">
-        <v>0.7708333000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AV115" t="inlineStr"/>
       <c r="AW115" t="inlineStr"/>
@@ -29508,10 +29508,10 @@
       </c>
       <c r="AS116" t="inlineStr"/>
       <c r="AT116" t="n">
-        <v>0.8541666999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AU116" t="n">
-        <v>0.8541666999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AV116" t="inlineStr"/>
       <c r="AW116" t="inlineStr"/>
@@ -29794,10 +29794,10 @@
       <c r="AR117" t="inlineStr"/>
       <c r="AS117" t="inlineStr"/>
       <c r="AT117" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AU117" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AV117" t="inlineStr"/>
       <c r="AW117" t="inlineStr"/>
@@ -30100,10 +30100,10 @@
       </c>
       <c r="AS118" t="inlineStr"/>
       <c r="AT118" t="n">
-        <v>0.9270833000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AU118" t="n">
-        <v>0.9270833000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AV118" t="inlineStr"/>
       <c r="AW118" t="inlineStr"/>
@@ -30372,10 +30372,10 @@
       <c r="AR119" t="inlineStr"/>
       <c r="AS119" t="inlineStr"/>
       <c r="AT119" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU119" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV119" t="inlineStr"/>
       <c r="AW119" t="inlineStr"/>
@@ -30596,10 +30596,10 @@
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
       <c r="AT120" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU120" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV120" t="inlineStr"/>
       <c r="AW120" t="inlineStr"/>
@@ -30854,10 +30854,10 @@
       </c>
       <c r="AS121" t="inlineStr"/>
       <c r="AT121" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AU121" t="n">
-        <v>0.8958333000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AV121" t="inlineStr"/>
       <c r="AW121" t="inlineStr"/>
@@ -31140,10 +31140,10 @@
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
       <c r="AT122" t="n">
-        <v>0.76388884</v>
+        <v>0.76</v>
       </c>
       <c r="AU122" t="n">
-        <v>0.76388884</v>
+        <v>0.76</v>
       </c>
       <c r="AV122" t="inlineStr"/>
       <c r="AW122" t="inlineStr"/>
@@ -31764,10 +31764,10 @@
       <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr"/>
       <c r="AT125" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU125" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV125" t="inlineStr"/>
       <c r="AW125" t="inlineStr"/>
@@ -32022,10 +32022,10 @@
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
       <c r="AT126" t="n">
-        <v>0.041666668</v>
+        <v>0.04</v>
       </c>
       <c r="AU126" t="n">
-        <v>0.041666668</v>
+        <v>0.04</v>
       </c>
       <c r="AV126" t="inlineStr"/>
       <c r="AW126" t="inlineStr"/>
@@ -32422,10 +32422,10 @@
       <c r="AR128" t="inlineStr"/>
       <c r="AS128" t="inlineStr"/>
       <c r="AT128" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU128" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV128" t="inlineStr">
         <is>
@@ -32636,10 +32636,10 @@
       <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr"/>
       <c r="AT129" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU129" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV129" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
       </c>
       <c r="AS130" t="inlineStr"/>
       <c r="AT130" t="n">
-        <v>0.8055556</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU130" t="n">
-        <v>0.8055556</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AV130" t="inlineStr"/>
       <c r="AW130" t="inlineStr"/>
@@ -32923,12 +32923,12 @@
       <c r="BM130" t="inlineStr"/>
       <c r="BN130" t="inlineStr">
         <is>
-          <t>naf9f371e4cfb410d86f6001f5d7679bcb1</t>
+          <t>ne934ef65e9a04967be7a00061d311175b1</t>
         </is>
       </c>
       <c r="BO130" t="inlineStr">
         <is>
-          <t>['naf9f371e4cfb410d86f6001f5d7679bcb1']</t>
+          <t>['ne934ef65e9a04967be7a00061d311175b1']</t>
         </is>
       </c>
       <c r="BP130" t="inlineStr"/>
@@ -33148,10 +33148,10 @@
       </c>
       <c r="AS131" t="inlineStr"/>
       <c r="AT131" t="n">
-        <v>0.8159722700000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU131" t="n">
-        <v>0.8159722700000001</v>
+        <v>0.82</v>
       </c>
       <c r="AV131" t="inlineStr"/>
       <c r="AW131" t="inlineStr"/>
@@ -33193,12 +33193,12 @@
       <c r="BM131" t="inlineStr"/>
       <c r="BN131" t="inlineStr">
         <is>
-          <t>na26a67ad03b449e5ba9f5d76cc4aa29ab1</t>
+          <t>n0dd39a8a3e6b4f8498432d75a3bf4671b1</t>
         </is>
       </c>
       <c r="BO131" t="inlineStr">
         <is>
-          <t>['na26a67ad03b449e5ba9f5d76cc4aa29ab1']</t>
+          <t>['n0dd39a8a3e6b4f8498432d75a3bf4671b1']</t>
         </is>
       </c>
       <c r="BP131" t="inlineStr"/>
@@ -33383,10 +33383,10 @@
       <c r="AR132" t="inlineStr"/>
       <c r="AS132" t="inlineStr"/>
       <c r="AT132" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU132" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV132" t="inlineStr"/>
       <c r="AW132" t="inlineStr"/>
@@ -33613,10 +33613,10 @@
       </c>
       <c r="AS133" t="inlineStr"/>
       <c r="AT133" t="n">
-        <v>0.8273566</v>
+        <v>0.83</v>
       </c>
       <c r="AU133" t="n">
-        <v>0.8273566</v>
+        <v>0.83</v>
       </c>
       <c r="AV133" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
       <c r="AT141" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AU141" t="n">
-        <v>0.14583333</v>
+        <v>0.15</v>
       </c>
       <c r="AV141" t="inlineStr"/>
       <c r="AW141" t="inlineStr"/>
@@ -35530,10 +35530,10 @@
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
       <c r="AT143" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AU143" t="n">
-        <v>0.104166664</v>
+        <v>0.1</v>
       </c>
       <c r="AV143" t="inlineStr"/>
       <c r="AW143" t="inlineStr"/>
@@ -36224,13 +36224,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA8D592-26A7-423E-AF08-9507D40F025D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0D7783-3091-4DD8-9EAA-97FE4E5E148A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{706057D7-4F23-4809-8234-2BB76B24A7BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FD687FE-FDC9-406F-90D2-C888CCCF4DDD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8F566BE-512C-4487-B8CD-8154C7B2025D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30552C15-C933-4D4B-BBB0-77A2566C923E}"/>
 </file>
--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD145"/>
+  <dimension ref="A1:CD144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,10 +986,10 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.04</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.67</v>
+        <v>0.04</v>
       </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
@@ -1228,10 +1228,10 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
@@ -1756,10 +1756,10 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
@@ -1801,12 +1801,12 @@
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>n15bc9c2e339a4b3ca7f4afa3c742c918b1</t>
+          <t>n81c1fb85bc794fb1a2bd2c0f0fd42b3ab1</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>['n15bc9c2e339a4b3ca7f4afa3c742c918b1']</t>
+          <t>['n81c1fb85bc794fb1a2bd2c0f0fd42b3ab1']</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr"/>
@@ -1997,10 +1997,10 @@
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.66</v>
+        <v>0.04</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.66</v>
+        <v>0.04</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
@@ -2050,12 +2050,12 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>n28b4a33a1a3c47afbc496e26c3cdbc21b1</t>
+          <t>n0d091193132244879d0a82a9e28ec796b1</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>['n28b4a33a1a3c47afbc496e26c3cdbc21b1']</t>
+          <t>['n0d091193132244879d0a82a9e28ec796b1']</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr"/>
@@ -3201,20 +3201,20 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>contax, dtc, facility, fmo, hmo</t>
+          <t>contax, dtc, facility, fmo, hbpo, hmo</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>contax, dtc, facility, fmo, hmo</t>
+          <t>contax, dtc, facility, fmo, hbpo, hmo</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
@@ -3256,12 +3256,12 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>n87b0615a1dd74723a3b1211284364afdb1</t>
+          <t>nd0bd47af5e7c4466aacedcb3fb04f854b1</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>['n87b0615a1dd74723a3b1211284364afdb1']</t>
+          <t>['nd0bd47af5e7c4466aacedcb3fb04f854b1']</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr"/>
@@ -4296,10 +4296,10 @@
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
@@ -4517,7 +4517,7 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>dcterms, vann, voaf, vs, dce, dbo</t>
+          <t>dcterms, vann, voaf, vs, dce, db</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -4567,20 +4567,20 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>bcfowl, building, contax, cto, dor, dot, dtc, eco, facility, icdd2ams, ioc, unocs</t>
+          <t>bcfowl, building, contax, cto, dor, dot, dtc, eco, facility, hbpo, icdd2ams, ioc, unocs</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>bcfowl, building, contax, cto, dor, dot, dtc, eco, facility, icdd2ams, ioc, unocs</t>
+          <t>bcfowl, building, contax, cto, dor, dot, dtc, eco, facility, hbpo, icdd2ams, ioc, unocs</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
       </c>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
-        <v>0.66</v>
+        <v>0.04</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.66</v>
+        <v>0.04</v>
       </c>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
@@ -4888,12 +4888,12 @@
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>nb2f1c618ad41435cbfd118dd348a826bb8, nb2f1c618ad41435cbfd118dd348a826bb9, nb2f1c618ad41435cbfd118dd348a826bb10, nb2f1c618ad41435cbfd118dd348a826bb11</t>
+          <t>n5a4e53b53f974c4bb4c0fbf11b251b96b8, n5a4e53b53f974c4bb4c0fbf11b251b96b9, n5a4e53b53f974c4bb4c0fbf11b251b96b10, n5a4e53b53f974c4bb4c0fbf11b251b96b11</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>['nb2f1c618ad41435cbfd118dd348a826bb8', 'nb2f1c618ad41435cbfd118dd348a826bb9', 'nb2f1c618ad41435cbfd118dd348a826bb10', 'nb2f1c618ad41435cbfd118dd348a826bb11']</t>
+          <t>['n5a4e53b53f974c4bb4c0fbf11b251b96b8', 'n5a4e53b53f974c4bb4c0fbf11b251b96b9', 'n5a4e53b53f974c4bb4c0fbf11b251b96b10', 'n5a4e53b53f974c4bb4c0fbf11b251b96b11']</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr"/>
@@ -5156,22 +5156,22 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>nc689fbfbb68c48a4bb850489dc06615db7274</t>
+          <t>n91951ac3f34d45c9b5eadd848ddacedbb7274</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>['nc689fbfbb68c48a4bb850489dc06615db7274']</t>
+          <t>['n91951ac3f34d45c9b5eadd848ddacedbb7274']</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>nc689fbfbb68c48a4bb850489dc06615db7276</t>
+          <t>n91951ac3f34d45c9b5eadd848ddacedbb7276</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>nc689fbfbb68c48a4bb850489dc06615db7276</t>
+          <t>n91951ac3f34d45c9b5eadd848ddacedbb7276</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
@@ -5204,10 +5204,10 @@
         <v>1</v>
       </c>
       <c r="CA19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC19" t="n">
         <v>2</v>
@@ -5365,10 +5365,10 @@
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>0.74</v>
+        <v>0.04</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.74</v>
+        <v>0.04</v>
       </c>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
@@ -5410,12 +5410,12 @@
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>nd5a555793efd425088f30c9880618a8cb1, nd5a555793efd425088f30c9880618a8cb2</t>
+          <t>n00ff620de57b4c20a8658601fa3b9103b1, n00ff620de57b4c20a8658601fa3b9103b2</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>['nd5a555793efd425088f30c9880618a8cb1', 'nd5a555793efd425088f30c9880618a8cb2']</t>
+          <t>['n00ff620de57b4c20a8658601fa3b9103b1', 'n00ff620de57b4c20a8658601fa3b9103b2']</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr"/>
@@ -5570,12 +5570,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>dc, dcterms</t>
+          <t>dc, dcterms, wgs84_pos</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>dc, dcterms</t>
+          <t>dc, dcterms, wgs84_pos</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="BR21" t="inlineStr">
         <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://bimerr.iot.linkeddata.es/def/information-objects#}, {kpi: http://bimerr.iot.linkeddata.es/def/key-performance-indicator#}, {mat: http://bimerr.iot.linkeddata.es/def/material-properties#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {None: http://www.w3.org/2003/01/geo/wgs84_pos#}, {saref: https://saref.etsi.org/core/}, {bot: https://w3id.org/bot#}, {s4bldg: https://w3id.org/def/saref4bldg#}</t>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://bimerr.iot.linkeddata.es/def/information-objects#}, {kpi: http://bimerr.iot.linkeddata.es/def/key-performance-indicator#}, {mat: http://bimerr.iot.linkeddata.es/def/material-properties#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {wgs84_pos: http://www.w3.org/2003/01/geo/wgs84_pos#}, {saref: https://saref.etsi.org/core/}, {bot: https://w3id.org/bot#}, {s4bldg: https://w3id.org/def/saref4bldg#}</t>
         </is>
       </c>
       <c r="BS21" t="n">
@@ -6087,10 +6087,10 @@
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
@@ -6124,12 +6124,12 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>nc2db33f02b224b7f9d088f8361346b1cb1</t>
+          <t>n3876f6cd37854dba89851dcd5f6d2aacb1</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>['nc2db33f02b224b7f9d088f8361346b1cb1']</t>
+          <t>['n3876f6cd37854dba89851dcd5f6d2aacb1']</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
       </c>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
@@ -6796,12 +6796,12 @@
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>nccc3d14c88044a58812e3f139ad2d1aab3, nccc3d14c88044a58812e3f139ad2d1aab4</t>
+          <t>nf19c1b72e8444096900979fbdafd1447b3, nf19c1b72e8444096900979fbdafd1447b4</t>
         </is>
       </c>
       <c r="BO26" t="inlineStr">
         <is>
-          <t>['nccc3d14c88044a58812e3f139ad2d1aab3', 'nccc3d14c88044a58812e3f139ad2d1aab4']</t>
+          <t>['nf19c1b72e8444096900979fbdafd1447b3', 'nf19c1b72e8444096900979fbdafd1447b4']</t>
         </is>
       </c>
       <c r="BP26" t="inlineStr"/>
@@ -7026,10 +7026,10 @@
         <v>1</v>
       </c>
       <c r="CA27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC27" t="n">
         <v>1</v>
@@ -7201,10 +7201,10 @@
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="n">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
@@ -7254,12 +7254,12 @@
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>n79619e692a814d5e933caf3da7bcd356b1</t>
+          <t>ne82515fa19334711a69efe259980677fb1</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>['n79619e692a814d5e933caf3da7bcd356b1']</t>
+          <t>['ne82515fa19334711a69efe259980677fb1']</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr"/>
@@ -7485,10 +7485,10 @@
       </c>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
@@ -7538,12 +7538,12 @@
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>nc94a92cd905f440fbc2cdaeeb2cf0484b3, nc94a92cd905f440fbc2cdaeeb2cf0484b4</t>
+          <t>n946f289d9fa64409b6f907d0589c1b37b3, n946f289d9fa64409b6f907d0589c1b37b4</t>
         </is>
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t>['nc94a92cd905f440fbc2cdaeeb2cf0484b3', 'nc94a92cd905f440fbc2cdaeeb2cf0484b4']</t>
+          <t>['n946f289d9fa64409b6f907d0589c1b37b3', 'n946f289d9fa64409b6f907d0589c1b37b4']</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr"/>
@@ -7769,10 +7769,10 @@
       </c>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
@@ -7822,12 +7822,12 @@
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>nc16b2a79767847d8866a556bc24c1d01b3, nc16b2a79767847d8866a556bc24c1d01b4</t>
+          <t>n0b978a5aaebe40c78eefc8ec2788558ab3, n0b978a5aaebe40c78eefc8ec2788558ab4</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>['nc16b2a79767847d8866a556bc24c1d01b3', 'nc16b2a79767847d8866a556bc24c1d01b4']</t>
+          <t>['n0b978a5aaebe40c78eefc8ec2788558ab3', 'n0b978a5aaebe40c78eefc8ec2788558ab4']</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr"/>
@@ -8046,10 +8046,10 @@
       </c>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
@@ -8099,12 +8099,12 @@
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr">
         <is>
-          <t>ndb4e37ff2156491cb7d019ac2fa42cc3b1</t>
+          <t>nc7f2d50f26b344c788295c2b2276737ab1</t>
         </is>
       </c>
       <c r="BO31" t="inlineStr">
         <is>
-          <t>['ndb4e37ff2156491cb7d019ac2fa42cc3b1']</t>
+          <t>['nc7f2d50f26b344c788295c2b2276737ab1']</t>
         </is>
       </c>
       <c r="BP31" t="inlineStr"/>
@@ -8323,10 +8323,10 @@
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
@@ -8368,22 +8368,22 @@
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr">
         <is>
-          <t>n989d0ef5426148a1aa32c442a6c82e99b1</t>
+          <t>n1796c93f31974dcd9cfc5638e185f8e7b1</t>
         </is>
       </c>
       <c r="BO32" t="inlineStr">
         <is>
-          <t>['n989d0ef5426148a1aa32c442a6c82e99b1']</t>
+          <t>['n1796c93f31974dcd9cfc5638e185f8e7b1']</t>
         </is>
       </c>
       <c r="BP32" t="inlineStr">
         <is>
-          <t>n989d0ef5426148a1aa32c442a6c82e99b3</t>
+          <t>n1796c93f31974dcd9cfc5638e185f8e7b3</t>
         </is>
       </c>
       <c r="BQ32" t="inlineStr">
         <is>
-          <t>n989d0ef5426148a1aa32c442a6c82e99b3</t>
+          <t>n1796c93f31974dcd9cfc5638e185f8e7b3</t>
         </is>
       </c>
       <c r="BR32" t="inlineStr">
@@ -8431,22 +8431,18 @@
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>dbo</t>
+          <t>db</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>dbo</t>
+          <t>db</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8454,10 +8450,14 @@
           <t>Digital Building Ontology</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Digital Buildings</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Digital Building Ontology</t>
+          <t>Digital Buildings</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -8492,8 +8492,16 @@
         </is>
       </c>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -8502,17 +8510,21 @@
           <t>dcterms</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>db, ns5, ns6</t>
+        </is>
+      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>dcterms</t>
+          <t>db, ns5, ns6</t>
         </is>
       </c>
       <c r="AD33" t="b">
         <v>1</v>
       </c>
       <c r="AE33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="b">
         <v>1</v>
@@ -8525,18 +8537,24 @@
         <v>1</v>
       </c>
       <c r="AJ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>1</v>
+      </c>
       <c r="AL33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="b">
         <v>1</v>
       </c>
-      <c r="AP33" t="inlineStr"/>
+      <c r="AP33" t="b">
+        <v>1</v>
+      </c>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -8593,20 +8611,32 @@
         </is>
       </c>
       <c r="BN33" t="inlineStr"/>
-      <c r="BO33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
       <c r="BQ33" t="inlineStr"/>
-      <c r="BR33" t="inlineStr"/>
-      <c r="BS33" t="inlineStr"/>
-      <c r="BT33" t="inlineStr"/>
-      <c r="BU33" t="inlineStr"/>
-      <c r="BV33" t="inlineStr"/>
-      <c r="BW33" t="inlineStr"/>
-      <c r="BX33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>{db: http://www.google.com/digitalbuildings/0.0.1#}, {ns5: http://www.google.com/digitalbuildings/0.0.1/units#}, {ns6: http://purl.org/dc/terms#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://www.google.com/digitalbuildings/0.0.1/facilities#}, {None: http://www.google.com/digitalbuildings/0.0.1/fields#}, {None: http://www.google.com/digitalbuildings/0.0.1/hvac#}, {None: http://www.google.com/digitalbuildings/0.0.1/states#}, {None: http://www.google.com/digitalbuildings/0.0.1/subfields#}</t>
+        </is>
+      </c>
+      <c r="BS33" t="n">
+        <v>2043</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>2043</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>6</v>
+      </c>
       <c r="BY33" t="b">
         <v>1</v>
       </c>
@@ -8623,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="CD33" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="34">
@@ -8795,10 +8825,10 @@
       </c>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
@@ -9057,10 +9087,10 @@
       </c>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
@@ -9331,10 +9361,10 @@
       </c>
       <c r="AS36" t="inlineStr"/>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AU36" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
@@ -9599,10 +9629,10 @@
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
@@ -9881,10 +9911,10 @@
       </c>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
@@ -10155,10 +10185,10 @@
       </c>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
@@ -10407,10 +10437,10 @@
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
@@ -10683,10 +10713,10 @@
       </c>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
@@ -10949,10 +10979,10 @@
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
@@ -11231,10 +11261,10 @@
       </c>
       <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
@@ -11467,10 +11497,10 @@
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
@@ -11707,10 +11737,10 @@
       </c>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
@@ -11961,10 +11991,10 @@
       </c>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
@@ -13138,10 +13168,10 @@
       </c>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
@@ -13191,12 +13221,12 @@
       </c>
       <c r="BN51" t="inlineStr">
         <is>
-          <t>n9f5dcdd845534f4b987d4cba50f885bfb1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
+          <t>n256aa1983fc74e34b54e0bca922c8324b1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
         </is>
       </c>
       <c r="BO51" t="inlineStr">
         <is>
-          <t>['n9f5dcdd845534f4b987d4cba50f885bfb1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
+          <t>['n256aa1983fc74e34b54e0bca922c8324b1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
         </is>
       </c>
       <c r="BP51" t="inlineStr"/>
@@ -13400,10 +13430,10 @@
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
@@ -13493,10 +13523,10 @@
         <v>1</v>
       </c>
       <c r="CA52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CC52" t="n">
         <v>3</v>
@@ -13607,12 +13637,12 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>dc, dcterms, skos, vcard, foaf, pi, schema</t>
+          <t>dc, dcterms, wgs84_pos, skos, vcard, foaf, pi, schema</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>dc, dcterms, skos, vcard, foaf, pi, schema</t>
+          <t>dc, dcterms, wgs84_pos, skos, vcard, foaf, pi, schema</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -13662,10 +13692,10 @@
       </c>
       <c r="AS53" t="inlineStr"/>
       <c r="AT53" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AV53" t="inlineStr"/>
       <c r="AW53" t="inlineStr"/>
@@ -13711,7 +13741,7 @@
       <c r="BQ53" t="inlineStr"/>
       <c r="BR53" t="inlineStr">
         <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {geo: http://www.opengis.net/ont/geosparql#}, {None: http://www.w3.org/2003/01/geo/wgs84_pos#}, {skos: http://www.w3.org/2004/02/skos/core#}, {vcard: http://www.w3.org/2006/vcard/ns#}, {foaf: http://xmlns.com/foaf/0.1/}, {None: https://orcid.org/}, {pi: https://pi.pauwel.be/voc/}, {beo: https://pi.pauwel.be/voc/buildingelement#}, {schema: https://schema.org/}, {None: https://w3id.org/}, {bot: https://w3id.org/bot#}</t>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {geo: http://www.opengis.net/ont/geosparql#}, {wgs84_pos: http://www.w3.org/2003/01/geo/wgs84_pos#}, {skos: http://www.w3.org/2004/02/skos/core#}, {vcard: http://www.w3.org/2006/vcard/ns#}, {foaf: http://xmlns.com/foaf/0.1/}, {None: https://orcid.org/}, {pi: https://pi.pauwel.be/voc/}, {beo: https://pi.pauwel.be/voc/buildingelement#}, {schema: https://schema.org/}, {None: https://w3id.org/}, {bot: https://w3id.org/bot#}</t>
         </is>
       </c>
       <c r="BS53" t="n">
@@ -13916,10 +13946,10 @@
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
@@ -14168,10 +14198,10 @@
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="n">
-        <v>0.68</v>
+        <v>0.04</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.68</v>
+        <v>0.04</v>
       </c>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
@@ -14792,10 +14822,10 @@
         <v>1</v>
       </c>
       <c r="CA57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC57" t="n">
         <v>3</v>
@@ -15948,13 +15978,9 @@
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="b">
-        <v>0</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>fm-ener</t>
@@ -16016,10 +16042,14 @@
           <t>ifc4-add2</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>ifc4-add2</t>
+          <t>sosa</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -16027,17 +16057,21 @@
           <t>dc, vann, swrl, swrla, swrlb, cc</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>sh, sml, qudt, skos, time, quantitykind, dc, wgs84_pos, foaf</t>
+        </is>
+      </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>dc, vann, swrl, swrla, swrlb, cc</t>
+          <t>sh, sml, qudt, skos, time, quantitykind, dc, wgs84_pos, foaf</t>
         </is>
       </c>
       <c r="AD63" t="b">
         <v>1</v>
       </c>
       <c r="AE63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63" t="b">
         <v>1</v>
@@ -16052,16 +16086,22 @@
       <c r="AJ63" t="b">
         <v>0</v>
       </c>
-      <c r="AK63" t="inlineStr"/>
+      <c r="AK63" t="b">
+        <v>0</v>
+      </c>
       <c r="AL63" t="b">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr"/>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="b">
         <v>0</v>
       </c>
-      <c r="AP63" t="inlineStr"/>
+      <c r="AP63" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -16118,20 +16158,32 @@
         </is>
       </c>
       <c r="BN63" t="inlineStr"/>
-      <c r="BO63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO63" t="inlineStr"/>
       <c r="BP63" t="inlineStr"/>
       <c r="BQ63" t="inlineStr"/>
-      <c r="BR63" t="inlineStr"/>
-      <c r="BS63" t="inlineStr"/>
-      <c r="BT63" t="inlineStr"/>
-      <c r="BU63" t="inlineStr"/>
-      <c r="BV63" t="inlineStr"/>
-      <c r="BW63" t="inlineStr"/>
-      <c r="BX63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>{sh: http://www.w3.org/ns/shacl#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {sml: https://w3id.org/sml/def#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {qudt: http://qudt.org/schema/qudt/}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {sosa: http://www.w3.org/ns/sosa/}, {time: http://www.w3.org/2006/time#}, {quantitykind: http://qudt.org/vocab/quantitykind/}, {dc: http://purl.org/dc/elements/1.1/}, {None: http://qudt.org/2.1/schema/}, {None: http://qudt.org/2.1/vocab/}, {None: http://www.opengis.net/ont/}, {wgs84_pos: http://www.w3.org/2003/01/geo/wgs84_pos#}, {None: http://www.w3.org/2004/02/skos/}, {None: http://www.w3.org/2006/}, {None: http://www.w3.org/ns/}, {foaf: http://xmlns.com/foaf/0.1/}, {None: https://w3id.org/sml/2/rdfs/}, {None: https://w3id.org/sml/2/skos/}, {None: https://w3id.org/sml/owl/}, {None: https://w3id.org/sml/rdfs/}, {None: https://w3id.org/sml/shacl/}, {None: https://w3id.org/sml/skos/}, {None: https://w3id.org/sml/term#}</t>
+        </is>
+      </c>
+      <c r="BS63" t="n">
+        <v>58</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>58</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>36</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>36</v>
+      </c>
       <c r="BY63" t="b">
         <v>1</v>
       </c>
@@ -17490,10 +17542,10 @@
       </c>
       <c r="AS69" t="inlineStr"/>
       <c r="AT69" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AU69" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AV69" t="inlineStr">
         <is>
@@ -17553,12 +17605,12 @@
       </c>
       <c r="BP69" t="inlineStr">
         <is>
-          <t>nf21d15b0c1d74ea2be6f2121e229069db1</t>
+          <t>n73008469406e431a8e9f1f427528e081b1</t>
         </is>
       </c>
       <c r="BQ69" t="inlineStr">
         <is>
-          <t>nf21d15b0c1d74ea2be6f2121e229069db1</t>
+          <t>n73008469406e431a8e9f1f427528e081b1</t>
         </is>
       </c>
       <c r="BR69" t="inlineStr">
@@ -17606,13 +17658,9 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="b">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>hbpo</t>
@@ -17666,10 +17714,14 @@
           <t>mep, beo, bot, mat, ifc4-add2</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>mat, beo, bot</t>
+        </is>
+      </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>mep, beo, bot, mat, ifc4-add2</t>
+          <t>mat, beo, bot</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -17677,20 +17729,24 @@
           <t>geosparql, express, list</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>geosparql, express, list</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="AD70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" t="b">
         <v>1</v>
@@ -17702,16 +17758,22 @@
       <c r="AJ70" t="b">
         <v>0</v>
       </c>
-      <c r="AK70" t="inlineStr"/>
+      <c r="AK70" t="b">
+        <v>1</v>
+      </c>
       <c r="AL70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>83.40000000000001</v>
+      </c>
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="b">
         <v>0</v>
       </c>
-      <c r="AP70" t="inlineStr"/>
+      <c r="AP70" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ70" t="inlineStr"/>
       <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
@@ -17760,20 +17822,32 @@
       <c r="BL70" t="inlineStr"/>
       <c r="BM70" t="inlineStr"/>
       <c r="BN70" t="inlineStr"/>
-      <c r="BO70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO70" t="inlineStr"/>
       <c r="BP70" t="inlineStr"/>
       <c r="BQ70" t="inlineStr"/>
-      <c r="BR70" t="inlineStr"/>
-      <c r="BS70" t="inlineStr"/>
-      <c r="BT70" t="inlineStr"/>
-      <c r="BU70" t="inlineStr"/>
-      <c r="BV70" t="inlineStr"/>
-      <c r="BW70" t="inlineStr"/>
-      <c r="BX70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {mat: http://bimerr.iot.linkeddata.es/def/material-properties#}, {None: http://example.org/CBIM_Ontology#}, {None: http://lbd.arch.rwth-aachen.de/props#}, {pi: https://pi.pauwel.be/voc/}, {beo: https://pi.pauwel.be/voc/buildingelement#}, {bot: https://w3id.org/bot#}</t>
+        </is>
+      </c>
+      <c r="BS70" t="n">
+        <v>28</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>28</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>186</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>186</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>26</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>26</v>
+      </c>
       <c r="BY70" t="b">
         <v>1</v>
       </c>
@@ -17787,10 +17861,10 @@
         <v>3</v>
       </c>
       <c r="CC70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD70" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="71">
@@ -18561,22 +18635,22 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr">
         <is>
-          <t>n5fd7d7a83c45457ea66451a105083985b1</t>
+          <t>ne166b15af3114df2941d5735e52ac17cb1</t>
         </is>
       </c>
       <c r="BO73" t="inlineStr">
         <is>
-          <t>['n5fd7d7a83c45457ea66451a105083985b1']</t>
+          <t>['ne166b15af3114df2941d5735e52ac17cb1']</t>
         </is>
       </c>
       <c r="BP73" t="inlineStr">
         <is>
-          <t>n5fd7d7a83c45457ea66451a105083985b3</t>
+          <t>ne166b15af3114df2941d5735e52ac17cb3</t>
         </is>
       </c>
       <c r="BQ73" t="inlineStr">
         <is>
-          <t>n5fd7d7a83c45457ea66451a105083985b3</t>
+          <t>ne166b15af3114df2941d5735e52ac17cb3</t>
         </is>
       </c>
       <c r="BR73" t="inlineStr">
@@ -19065,12 +19139,12 @@
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr">
         <is>
-          <t>n8012851f050e4f3eb5c9827a0dc99bd6b1, n8012851f050e4f3eb5c9827a0dc99bd6b2</t>
+          <t>n1fc0ae429aec4e4492fd225212dfaee9b1, n1fc0ae429aec4e4492fd225212dfaee9b2</t>
         </is>
       </c>
       <c r="BO75" t="inlineStr">
         <is>
-          <t>['n8012851f050e4f3eb5c9827a0dc99bd6b1', 'n8012851f050e4f3eb5c9827a0dc99bd6b2']</t>
+          <t>['n1fc0ae429aec4e4492fd225212dfaee9b1', 'n1fc0ae429aec4e4492fd225212dfaee9b2']</t>
         </is>
       </c>
       <c r="BP75" t="inlineStr"/>
@@ -20134,22 +20208,22 @@
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr">
         <is>
-          <t>n17e582eed7f74fd68f9a257592435f12b3, n17e582eed7f74fd68f9a257592435f12b5</t>
+          <t>nc847728842c3437796451e6cf952805ab3, nc847728842c3437796451e6cf952805ab5</t>
         </is>
       </c>
       <c r="BO79" t="inlineStr">
         <is>
-          <t>['n17e582eed7f74fd68f9a257592435f12b3', 'n17e582eed7f74fd68f9a257592435f12b5']</t>
+          <t>['nc847728842c3437796451e6cf952805ab3', 'nc847728842c3437796451e6cf952805ab5']</t>
         </is>
       </c>
       <c r="BP79" t="inlineStr">
         <is>
-          <t>n17e582eed7f74fd68f9a257592435f12b7</t>
+          <t>nc847728842c3437796451e6cf952805ab7</t>
         </is>
       </c>
       <c r="BQ79" t="inlineStr">
         <is>
-          <t>n17e582eed7f74fd68f9a257592435f12b7</t>
+          <t>nc847728842c3437796451e6cf952805ab7</t>
         </is>
       </c>
       <c r="BR79" t="inlineStr">
@@ -20967,12 +21041,12 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>Container, Linkset, dc, dt, icdd4loin, ids4loin, schema, vann, vs, skos</t>
+          <t>Container, Linkset, dc, dt, icdd4loin, ids4loin, schema, vann, vs, skos, isoprops</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>Container, Linkset, dc, dt, icdd4loin, ids4loin, schema, vann, vs, skos</t>
+          <t>Container, Linkset, dc, dt, icdd4loin, ids4loin, schema, vann, vs, skos, isoprops</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -21010,8 +21084,16 @@
       <c r="AP83" t="b">
         <v>1</v>
       </c>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>tempo</t>
+        </is>
+      </c>
+      <c r="AR83" t="inlineStr">
+        <is>
+          <t>tempo</t>
+        </is>
+      </c>
       <c r="AS83" t="inlineStr"/>
       <c r="AT83" t="n">
         <v>0.87</v>
@@ -21067,27 +21149,27 @@
       <c r="BM83" t="inlineStr"/>
       <c r="BN83" t="inlineStr">
         <is>
-          <t>n4f44a599c41e46038cdd6a513c8cfb9cb3, n4f44a599c41e46038cdd6a513c8cfb9cb5</t>
+          <t>na308a401dd8246698d1dd76a69e08237b3, na308a401dd8246698d1dd76a69e08237b5</t>
         </is>
       </c>
       <c r="BO83" t="inlineStr">
         <is>
-          <t>['n4f44a599c41e46038cdd6a513c8cfb9cb3', 'n4f44a599c41e46038cdd6a513c8cfb9cb5']</t>
+          <t>['na308a401dd8246698d1dd76a69e08237b3', 'na308a401dd8246698d1dd76a69e08237b5']</t>
         </is>
       </c>
       <c r="BP83" t="inlineStr">
         <is>
-          <t>n4f44a599c41e46038cdd6a513c8cfb9cb7</t>
+          <t>na308a401dd8246698d1dd76a69e08237b7</t>
         </is>
       </c>
       <c r="BQ83" t="inlineStr">
         <is>
-          <t>n4f44a599c41e46038cdd6a513c8cfb9cb7</t>
+          <t>na308a401dd8246698d1dd76a69e08237b7</t>
         </is>
       </c>
       <c r="BR83" t="inlineStr">
         <is>
-          <t>{Container: https://standards.iso.org/iso/21597/-1/ed-1/en/Container#}, {Linkset: https://standards.iso.org/iso/21597/-1/ed-1/en/Linkset#}, {dc: http://purl.org/dc/terms/}, {dt: https://w3id.org/dt#}, {icdd4loin: https://w3id.org/loin/v2/icdd#}, {ids4loin: https://w3id.org/loin/v2/ids#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {schema: https://schema.org/}, {vann: http://purl.org/vocab/vann/}, {vs: http://www.w3.org/2003/06/sw-vocab-status/ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {None: https://}, {None: https://creativecommons.org/licenses/by/4.0/}, {None: https://linkedbuildingdata.net/ldac2024/files/papers/}, {None: https://orcid.org/}, {None: https://w3id.org/isoprops#}, {tempo: https://w3id.org/tempo#}, {None: https://www.inf.bi.ruhr-uni-bochum.de/iib/lehrstuhl/mitarbeiter/}</t>
+          <t>{Container: https://standards.iso.org/iso/21597/-1/ed-1/en/Container#}, {Linkset: https://standards.iso.org/iso/21597/-1/ed-1/en/Linkset#}, {dc: http://purl.org/dc/terms/}, {dt: https://w3id.org/dt#}, {icdd4loin: https://w3id.org/loin/v2/icdd#}, {ids4loin: https://w3id.org/loin/v2/ids#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {schema: https://schema.org/}, {vann: http://purl.org/vocab/vann/}, {vs: http://www.w3.org/2003/06/sw-vocab-status/ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {None: https://}, {None: https://creativecommons.org/licenses/by/4.0/}, {None: https://linkedbuildingdata.net/ldac2024/files/papers/}, {None: https://orcid.org/}, {isoprops: https://w3id.org/isoprops#}, {tempo: https://w3id.org/tempo#}, {None: https://www.inf.bi.ruhr-uni-bochum.de/iib/lehrstuhl/mitarbeiter/}</t>
         </is>
       </c>
       <c r="BS83" t="n">
@@ -21284,12 +21366,12 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>building, hmo, kpi</t>
+          <t>building, hbpo, hmo, kpi</t>
         </is>
       </c>
       <c r="AR84" t="inlineStr">
         <is>
-          <t>building, hmo, kpi</t>
+          <t>building, hbpo, hmo, kpi</t>
         </is>
       </c>
       <c r="AS84" t="inlineStr"/>
@@ -21865,12 +21947,12 @@
       </c>
       <c r="BN86" t="inlineStr">
         <is>
-          <t>nc9db8e5cf4f74d15bc6a2a2730a05b57b1</t>
+          <t>nd91e0dd233d748ff9d0e66f8f15c7d32b1</t>
         </is>
       </c>
       <c r="BO86" t="inlineStr">
         <is>
-          <t>['nc9db8e5cf4f74d15bc6a2a2730a05b57b1']</t>
+          <t>['nd91e0dd233d748ff9d0e66f8f15c7d32b1']</t>
         </is>
       </c>
       <c r="BP86" t="inlineStr"/>
@@ -22174,16 +22256,8 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nen2660-term </t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nen2660-term </t>
-        </is>
-      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr">
         <is>
           <t>qudt, quantitykind, unit, skos, time</t>
@@ -22191,12 +22265,12 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>sh, skos, qudt, qudtqk, time</t>
+          <t>quantitykind, qudt, sh, skos, time</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>sh, skos, qudt, qudtqk, time</t>
+          <t>quantitykind, qudt, sh, skos, time</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -22311,14 +22385,14 @@
       <c r="BQ88" t="inlineStr"/>
       <c r="BR88" t="inlineStr">
         <is>
-          <t>{sh: http://www.w3.org/ns/shacl#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {nen2660: https://w3id.org/nen2660/def#}, {None: http://org.semanticweb.owlapi/error#}, {None: http://qudt.org/2.1/schema/}, {None: http://qudt.org/2.1/vocab/}, {qudt: http://qudt.org/schema/qudt/}, {qudtqk: http://qudt.org/vocab/quantitykind/}, {None: http://www.w3.org/2004/02/skos/}, {None: http://www.w3.org/2006/}, {time: http://www.w3.org/2006/time#}, {None: http://www.w3.org/ns/}, {None: https://w3id.org/nen2660/rdfs/}, {None: https://w3id.org/nen2660/skos/}, {None: https://w3id.org/nen2660/term#}</t>
+          <t>{nen2660: https://w3id.org/nen2660/def#}, {owl: http://www.w3.org/2002/07/owl#}, {quantitykind: http://qudt.org/vocab/quantitykind/}, {qudt: http://qudt.org/schema/qudt/}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {sh: http://www.w3.org/ns/shacl#}, {skos: http://www.w3.org/2004/02/skos/core#}, {time: http://www.w3.org/2006/time#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {None: http://qudt.org/2.1/schema/}, {None: http://qudt.org/2.1/vocab/}, {None: http://www.w3.org/2004/02/skos/}, {None: http://www.w3.org/2006/}, {None: http://www.w3.org/ns/}, {None: https://w3id.org/nen2660/skos/}, {None: https://w3id.org/nen2660/term#}</t>
         </is>
       </c>
       <c r="BS88" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BT88" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BU88" t="n">
         <v>1</v>
@@ -22327,22 +22401,22 @@
         <v>1</v>
       </c>
       <c r="BW88" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BX88" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BY88" t="b">
         <v>1</v>
       </c>
       <c r="BZ88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA88" t="b">
         <v>0</v>
       </c>
       <c r="CB88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC88" t="n">
         <v>3</v>
@@ -22354,7 +22428,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://w3id.org/nen2660/term#</t>
+          <t>https://sebseis.github.io/OBPA/</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -22367,37 +22441,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">nen2660-term </t>
+          <t>obpa</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">nen2660-term </t>
+          <t>obpa</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative terminology (SKOS)</t>
+          <t xml:space="preserve">Ontology for Building Permit Authorities </t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative terminology (SKOS)</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>The NEN 2660 ontologies provide a standardized framework for information modeling in the built environment, aligning with the NEN 2660-2:2022 standard. SKOS-based vocabulary defines standardized terms and concepts used in the NEN 2660.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Ontology for Building Permit Authorities </t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>The NEN 2660 ontologies provide a standardized framework for information modeling in the built environment, aligning with the NEN 2660-2:2022 standard. SKOS-based vocabulary defines standardized terms and concepts used in the NEN 2660.</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>2022</v>
       </c>
@@ -22410,21 +22476,33 @@
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>0.3</v>
+      </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="W89" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>qudt, quantitykind, unit, skos, time</t>
+          <t>dc, dcterms, schema, skos, foaf, prov, ns, vcard, wgs84_pos</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>qudt, quantitykind, unit, skos, time</t>
+          <t>dc, dcterms, schema, skos, foaf, prov, ns, vcard, wgs84_pos</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -22456,34 +22534,18 @@
         <v>0</v>
       </c>
       <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr">
-        <is>
-          <t>nen2660</t>
-        </is>
-      </c>
-      <c r="AR89" t="inlineStr">
-        <is>
-          <t>nen2660</t>
-        </is>
-      </c>
+      <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="AU89" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AV89" t="inlineStr">
-        <is>
-          <t>NEN 2660-2:2022 nl</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AV89" t="inlineStr"/>
       <c r="AW89" t="inlineStr"/>
-      <c r="AX89" t="inlineStr">
-        <is>
-          <t>NEN 2660-2:2022 nl</t>
-        </is>
-      </c>
+      <c r="AX89" t="inlineStr"/>
       <c r="AY89" t="b">
         <v>1</v>
       </c>
@@ -22491,50 +22553,34 @@
       <c r="BA89" t="b">
         <v>1</v>
       </c>
-      <c r="BB89" t="inlineStr">
-        <is>
-          <t>NEN 2660-2:2022</t>
-        </is>
-      </c>
+      <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr"/>
-      <c r="BD89" t="inlineStr">
-        <is>
-          <t>NEN 2660-2:2022</t>
-        </is>
-      </c>
+      <c r="BD89" t="inlineStr"/>
       <c r="BE89" t="inlineStr">
         <is>
-          <t>https://www.nen.nl/nen-2660-2-2022-nl-291667</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S1474034623003440</t>
         </is>
       </c>
       <c r="BF89" t="inlineStr"/>
       <c r="BG89" t="inlineStr">
         <is>
-          <t>https://www.nen.nl/nen-2660-2-2022-nl-291667</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S1474034623003440</t>
         </is>
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>Planning Permission</t>
         </is>
       </c>
       <c r="BI89" t="inlineStr"/>
       <c r="BJ89" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
-        </is>
-      </c>
-      <c r="BK89" t="inlineStr">
-        <is>
-          <t>Information Management</t>
-        </is>
-      </c>
+          <t>Planning Permission</t>
+        </is>
+      </c>
+      <c r="BK89" t="inlineStr"/>
       <c r="BL89" t="inlineStr"/>
-      <c r="BM89" t="inlineStr">
-        <is>
-          <t>Information Management</t>
-        </is>
-      </c>
+      <c r="BM89" t="inlineStr"/>
       <c r="BN89" t="inlineStr"/>
       <c r="BO89" t="inlineStr">
         <is>
@@ -22554,13 +22600,13 @@
         <v>1</v>
       </c>
       <c r="BZ89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CC89" t="n">
         <v>3</v>
@@ -22572,88 +22618,140 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://sebseis.github.io/OBPA/</t>
+          <t>https://w3id.org/ocqa#</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>obpa</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>ocqa</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ocqa</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>obpa</t>
+          <t>ocqa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ontology for Building Permit Authorities </t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>Ontology for Construction Quality Assurence</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Ontology for Construction Quality Assurence (OCQA)</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ontology for Building Permit Authorities </t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+          <t>Ontology for Construction Quality Assurence (OCQA)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>OCQA is designed to represent explicit knowledge about the domain of quality inspection planning. The ontology is intended to provide a standardized vocabulary for describing concepts, entities, and relationships relevant to inspection planning in construction execution.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>The Ontology for Quality Assurance is a simple ontology defining the core concepts for quality quality assurence in construction.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>OCQA is designed to represent explicit knowledge about the domain of quality inspection planning. The ontology is intended to provide a standardized vocabulary for describing concepts, entities, and relationships relevant to inspection planning in construction execution.</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>2022</v>
       </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="n">
-        <v>2022</v>
-      </c>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CC BY 1.0 </t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/1.0</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/1.0</t>
+        </is>
+      </c>
       <c r="U90" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="n">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr"/>
+          <t>opm, dica, dice, dicp</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>dice, dicp, dica, dicv</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>dice, dicp, dica, dicv</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>dc, dcterms, schema, skos, foaf, prov, ns, vcard, wgs84_pos</t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr"/>
+          <t>vann, dcterms</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>opm, vann, dcterms, seas, schema</t>
+        </is>
+      </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>dc, dcterms, schema, skos, foaf, prov, ns, vcard, wgs84_pos</t>
+          <t>opm, vann, dcterms, seas, schema</t>
         </is>
       </c>
       <c r="AD90" t="b">
         <v>1</v>
       </c>
       <c r="AE90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF90" t="b">
         <v>1</v>
@@ -22668,24 +22766,38 @@
       <c r="AJ90" t="b">
         <v>1</v>
       </c>
-      <c r="AK90" t="inlineStr"/>
+      <c r="AK90" t="b">
+        <v>0</v>
+      </c>
       <c r="AL90" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>25.7</v>
+      </c>
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AP90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>unocs</t>
+        </is>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>unocs</t>
+        </is>
+      </c>
       <c r="AS90" t="inlineStr"/>
       <c r="AT90" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AV90" t="inlineStr"/>
       <c r="AW90" t="inlineStr"/>
@@ -22702,44 +22814,64 @@
       <c r="BD90" t="inlineStr"/>
       <c r="BE90" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S1474034623003440</t>
+          <t>https://github.com/SebSeis/ocqa</t>
         </is>
       </c>
       <c r="BF90" t="inlineStr"/>
       <c r="BG90" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S1474034623003440</t>
+          <t>https://github.com/SebSeis/ocqa</t>
         </is>
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>Planning Permission</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="BI90" t="inlineStr"/>
       <c r="BJ90" t="inlineStr">
         <is>
-          <t>Planning Permission</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="BK90" t="inlineStr"/>
       <c r="BL90" t="inlineStr"/>
       <c r="BM90" t="inlineStr"/>
-      <c r="BN90" t="inlineStr"/>
+      <c r="BN90" t="inlineStr">
+        <is>
+          <t>Sebastian Seiß</t>
+        </is>
+      </c>
       <c r="BO90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Sebastian Seiß']</t>
         </is>
       </c>
       <c r="BP90" t="inlineStr"/>
       <c r="BQ90" t="inlineStr"/>
-      <c r="BR90" t="inlineStr"/>
-      <c r="BS90" t="inlineStr"/>
-      <c r="BT90" t="inlineStr"/>
-      <c r="BU90" t="inlineStr"/>
-      <c r="BV90" t="inlineStr"/>
-      <c r="BW90" t="inlineStr"/>
-      <c r="BX90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>{opm: https://w3id.org/opm#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {dice: https://w3id.org/digitalconstruction/0.5/Entities#}, {dicp: https://w3id.org/digitalconstruction/0.5/Processes#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {vann: http://purl.org/vocab/vann/}, {dcterms: http://purl.org/dc/terms/}, {None: http://w3id.org/digitalconstruction/0.5/}, {seas: http://w3id.org/seas/}, {schema: https://schema.org/}, {dica: https://w3id.org/digitalconstruction/0.5/Agents#}, {dicv: https://w3id.org/digitalconstruction/0.5/Variables#}, {None: https://w3id.org/ocqa/catalog/}, {None: https://w3id.org/ocqa/contract#}, {None: https://w3id.org/ocqa/regulation/}, {None: https://w3id.org/ocqa/rules/}</t>
+        </is>
+      </c>
+      <c r="BS90" t="n">
+        <v>46</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>46</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV90" t="n">
+        <v>18</v>
+      </c>
+      <c r="BW90" t="n">
+        <v>20</v>
+      </c>
+      <c r="BX90" t="n">
+        <v>20</v>
+      </c>
       <c r="BY90" t="b">
         <v>1</v>
       </c>
@@ -22747,22 +22879,22 @@
         <v>1</v>
       </c>
       <c r="CA90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CC90" t="n">
         <v>3</v>
       </c>
       <c r="CD90" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://w3id.org/ocqa#</t>
+          <t>https://w3id.org/ofo#</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -22771,81 +22903,67 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>ofo</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>ofo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>ofo</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ontology for Construction Quality Assurence</t>
+          <t>Occupant Feedback Ontology</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Ontology for Construction Quality Assurence (OCQA)</t>
+          <t>Occupant Feedback Ontology</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Ontology for Construction Quality Assurence (OCQA)</t>
+          <t>Occupant Feedback Ontology</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>OCQA is designed to represent explicit knowledge about the domain of quality inspection planning. The ontology is intended to provide a standardized vocabulary for describing concepts, entities, and relationships relevant to inspection planning in construction execution.</t>
+          <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>The Ontology for Quality Assurance is a simple ontology defining the core concepts for quality quality assurence in construction.</t>
+          <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>OCQA is designed to represent explicit knowledge about the domain of quality inspection planning. The ontology is intended to provide a standardized vocabulary for describing concepts, entities, and relationships relevant to inspection planning in construction execution.</t>
+          <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>2022</v>
       </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>2024-03-18</t>
-        </is>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>2022</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t xml:space="preserve">CC BY 1.0 </t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>https://creativecommons.org/licenses/by/1.0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">CC BY 4.0 </t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>https://creativecommons.org/licenses/by/1.0</t>
+          <t xml:space="preserve">CC BY 4.0 </t>
         </is>
       </c>
       <c r="U91" t="n">
@@ -22861,34 +22979,22 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>opm, dica, dice, dicp</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>dice, dicp, dica, dicv</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>dice, dicp, dica, dicv</t>
-        </is>
-      </c>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>vann, dcterms</t>
+          <t>dcterms, vann, foaf, skos</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>opm, vann, dcterms, seas, schema</t>
+          <t>dcterms, vann, skos, foaf, schema</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>opm, vann, dcterms, seas, schema</t>
+          <t>dcterms, vann, skos, foaf, schema</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -22911,37 +23017,29 @@
         <v>1</v>
       </c>
       <c r="AK91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM91" t="n">
-        <v>25.7</v>
+        <v>100</v>
       </c>
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP91" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ91" t="inlineStr">
-        <is>
-          <t>unocs</t>
-        </is>
-      </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>unocs</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>
       <c r="AT91" t="n">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AV91" t="inlineStr"/>
       <c r="AW91" t="inlineStr"/>
@@ -22958,24 +23056,24 @@
       <c r="BD91" t="inlineStr"/>
       <c r="BE91" t="inlineStr">
         <is>
-          <t>https://github.com/SebSeis/ocqa</t>
+          <t>https://content.iospress.com/articles/semantic-web/sw223254</t>
         </is>
       </c>
       <c r="BF91" t="inlineStr"/>
       <c r="BG91" t="inlineStr">
         <is>
-          <t>https://github.com/SebSeis/ocqa</t>
+          <t>https://content.iospress.com/articles/semantic-web/sw223254</t>
         </is>
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="BI91" t="inlineStr"/>
       <c r="BJ91" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="BK91" t="inlineStr"/>
@@ -22983,62 +23081,62 @@
       <c r="BM91" t="inlineStr"/>
       <c r="BN91" t="inlineStr">
         <is>
-          <t>Sebastian Seiß</t>
+          <t>https://orcid.org/0000-0002-8809-3277</t>
         </is>
       </c>
       <c r="BO91" t="inlineStr">
         <is>
-          <t>['Sebastian Seiß']</t>
+          <t>['https://orcid.org/0000-0002-8809-3277']</t>
         </is>
       </c>
       <c r="BP91" t="inlineStr"/>
       <c r="BQ91" t="inlineStr"/>
       <c r="BR91" t="inlineStr">
         <is>
-          <t>{opm: https://w3id.org/opm#}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {dice: https://w3id.org/digitalconstruction/0.5/Entities#}, {dicp: https://w3id.org/digitalconstruction/0.5/Processes#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {vann: http://purl.org/vocab/vann/}, {dcterms: http://purl.org/dc/terms/}, {None: http://w3id.org/digitalconstruction/0.5/}, {seas: http://w3id.org/seas/}, {schema: https://schema.org/}, {dica: https://w3id.org/digitalconstruction/0.5/Agents#}, {dicv: https://w3id.org/digitalconstruction/0.5/Variables#}, {None: https://w3id.org/ocqa/catalog/}, {None: https://w3id.org/ocqa/contract#}, {None: https://w3id.org/ocqa/regulation/}, {None: https://w3id.org/ocqa/rules/}</t>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {skos: http://www.w3.org/2004/02/skos/core#}, {foaf: http://xmlns.com/foaf/0.1/}, {None: https://orcid.org/}, {schema: https://schema.org/}, {None: https://www.schema.org/}</t>
         </is>
       </c>
       <c r="BS91" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="BT91" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="BU91" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BV91" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BW91" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BX91" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BY91" t="b">
         <v>1</v>
       </c>
       <c r="BZ91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA91" t="b">
         <v>0</v>
       </c>
       <c r="CB91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC91" t="n">
         <v>3</v>
       </c>
       <c r="CD91" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://w3id.org/ofo#</t>
+          <t>http://w3id.org/omg#</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -23047,57 +23145,66 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ofo</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ofo</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ofo</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Occupant Feedback Ontology</t>
+          <t>Ontology for Managing Geometry</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Occupant Feedback Ontology</t>
+          <t>OMG: Ontology for Managing Geometry</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Occupant Feedback Ontology</t>
+          <t>OMG: Ontology for Managing Geometry</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
+          <t>OMG is an ontology for describing geometry descriptions of objects. It provides means to support the application of multiple geometry descriptions of the same object as well as the description of the geometry evolution over time. The OMG is based the concepts introduced in the Ontology for Property Management (OPM) ontology.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
+          <t>The Ontology for Managing Geometry (OMG) is an ontology for describing geometry descriptions of objects. It provides means to support the application of multiple geometry descriptions of the same object as well as the description of the geometry evolution over time. The OMG is based the concepts introduced in the Ontology for Property Management (OPM) ontology. 
+This ontology was created within the research project SCOPE, funded by the German Federal Ministry for Economic Affairs and Energy (BMWi).
+The initial version of the ontology (v0.1) is documented in:
+Wagner, Anna, Bonduel, Mathias, Pauwels, Pieter &amp; Rüppel, Uwe(2019). Relating Geometry Descriptions to its Derivatives on the Web. In Proceedings of the European Conference on Computing in Construction (EC3 2019). Chania, Greece. DOI: 10.35490/EC3.2019.146</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>The aim of the Occupant Feedback Ontology is to semantically describe passive and active occupant feedback and to enable integration of this feedback with linked building data.</t>
+          <t>OMG is an ontology for describing geometry descriptions of objects. It provides means to support the application of multiple geometry descriptions of the same object as well as the description of the geometry evolution over time. The OMG is based the concepts introduced in the Ontology for Property Management (OPM) ontology.</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2018-11-28</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="n">
-        <v>2022</v>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2018-11-28</t>
+        </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -23111,34 +23218,38 @@
         </is>
       </c>
       <c r="U92" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr"/>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>opm, seas</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>dcterms, vann, foaf, skos</t>
+          <t>dcterms, schema, vann, prov, foaf</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>dcterms, vann, skos, foaf, schema</t>
+          <t>dcterms, foaf, opm, prov, schema, seas, vann</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>dcterms, vann, skos, foaf, schema</t>
+          <t>dcterms, foaf, opm, prov, schema, seas, vann</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -23167,23 +23278,31 @@
         <v>1</v>
       </c>
       <c r="AM92" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP92" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>contax, fog, ioc</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>contax, fog, ioc</t>
+        </is>
+      </c>
       <c r="AS92" t="inlineStr"/>
       <c r="AT92" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="AU92" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="AV92" t="inlineStr"/>
       <c r="AW92" t="inlineStr"/>
@@ -23200,24 +23319,24 @@
       <c r="BD92" t="inlineStr"/>
       <c r="BE92" t="inlineStr">
         <is>
-          <t>https://content.iospress.com/articles/semantic-web/sw223254</t>
+          <t>https://github.com/tudaIIB/omg; https://ec-3.org/publications/conferences/EC32019/papers/EC32019_146.pdf</t>
         </is>
       </c>
       <c r="BF92" t="inlineStr"/>
       <c r="BG92" t="inlineStr">
         <is>
-          <t>https://content.iospress.com/articles/semantic-web/sw223254</t>
+          <t>https://github.com/tudaIIB/omg; https://ec-3.org/publications/conferences/EC32019/papers/EC32019_146.pdf</t>
         </is>
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BI92" t="inlineStr"/>
       <c r="BJ92" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BK92" t="inlineStr"/>
@@ -23225,38 +23344,38 @@
       <c r="BM92" t="inlineStr"/>
       <c r="BN92" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-8809-3277</t>
+          <t>https://www.researchgate.net/profile/Anna_Wagner13, https://www.researchgate.net/profile/Mathias_Bonduel, https://www.researchgate.net/profile/Pieter_Pauwels</t>
         </is>
       </c>
       <c r="BO92" t="inlineStr">
         <is>
-          <t>['https://orcid.org/0000-0002-8809-3277']</t>
+          <t>['https://www.researchgate.net/profile/Anna_Wagner13', 'https://www.researchgate.net/profile/Mathias_Bonduel', 'https://www.researchgate.net/profile/Pieter_Pauwels']</t>
         </is>
       </c>
       <c r="BP92" t="inlineStr"/>
       <c r="BQ92" t="inlineStr"/>
       <c r="BR92" t="inlineStr">
         <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {skos: http://www.w3.org/2004/02/skos/core#}, {foaf: http://xmlns.com/foaf/0.1/}, {None: https://orcid.org/}, {schema: https://schema.org/}, {None: https://www.schema.org/}</t>
+          <t>{dcterms: http://purl.org/dc/terms/}, {foaf: http://xmlns.com/foaf/0.1/}, {opm: https://w3id.org/opm#}, {owl: http://www.w3.org/2002/07/owl#}, {prov: http://www.w3.org/ns/prov#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {schema: http://schema.org/}, {seas: https://w3id.org/seas/#}, {vann: http://purl.org/vocab/vann/}, {None: https://www.researchgate.net/profile/}</t>
         </is>
       </c>
       <c r="BS92" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BT92" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BU92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BV92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BW92" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="BX92" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="BY92" t="b">
         <v>1</v>
@@ -23274,65 +23393,52 @@
         <v>3</v>
       </c>
       <c r="CD92" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>http://w3id.org/omg#</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="b">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>omg</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>omg</t>
-        </is>
-      </c>
+          <t>onem2m</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>onem2m</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ontology for Managing Geometry</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>OMG: Ontology for Managing Geometry</t>
-        </is>
-      </c>
+          <t>oneM2M Base Ontology</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>OMG: Ontology for Managing Geometry</t>
+          <t>oneM2M Base Ontology</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>OMG is an ontology for describing geometry descriptions of objects. It provides means to support the application of multiple geometry descriptions of the same object as well as the description of the geometry evolution over time. The OMG is based the concepts introduced in the Ontology for Property Management (OPM) ontology.</t>
+          <t xml:space="preserve">Syntactic and semantic interoperability of the
+oneM2M System with external systems. </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>The Ontology for Managing Geometry (OMG) is an ontology for describing geometry descriptions of objects. It provides means to support the application of multiple geometry descriptions of the same object as well as the description of the geometry evolution over time. The OMG is based the concepts introduced in the Ontology for Property Management (OPM) ontology. 
-This ontology was created within the research project SCOPE, funded by the German Federal Ministry for Economic Affairs and Energy (BMWi).
-The initial version of the ontology (v0.1) is documented in:
-Wagner, Anna, Bonduel, Mathias, Pauwels, Pieter &amp; Rüppel, Uwe(2019). Relating Geometry Descriptions to its Derivatives on the Web. In Proceedings of the European Conference on Computing in Construction (EC3 2019). Chania, Greece. DOI: 10.35490/EC3.2019.146</t>
+          <t>The LCA-C ontology was developed to represent concepts related to the LCA/C assessments to support the comparison of different renovation alternatives in residential buildings. The ontology covers concepts and relations regarding the LCA and LCC assessments for buildings under renovation. The ontology includes information on physical features, environmental and cost indicators, renovation products, and general information describing the goal and other aspects of the assessment.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>OMG is an ontology for describing geometry descriptions of objects. It provides means to support the application of multiple geometry descriptions of the same object as well as the description of the geometry evolution over time. The OMG is based the concepts introduced in the Ontology for Property Management (OPM) ontology.</t>
+          <t xml:space="preserve">Syntactic and semantic interoperability of the
+oneM2M System with external systems. </t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -23341,59 +23447,45 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2018-11-28</t>
+          <t>2020-10-31T12:00:00</t>
         </is>
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>2018-11-28</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CC BY 4.0 </t>
-        </is>
-      </c>
+          <t>2020-10-31T12:00:00</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CC BY 4.0 </t>
-        </is>
-      </c>
-      <c r="U93" t="n">
-        <v>0.3</v>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>3.7.3</t>
+        </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>opm, seas</t>
-        </is>
-      </c>
+          <t>0.1.1</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr">
-        <is>
-          <t>dcterms, schema, vann, prov, foaf</t>
-        </is>
-      </c>
+      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>dcterms, foaf, opm, prov, schema, seas, vann</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>dcterms, foaf, opm, prov, schema, seas, vann</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -23406,23 +23498,23 @@
         <v>1</v>
       </c>
       <c r="AG93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH93" t="inlineStr"/>
       <c r="AI93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ93" t="b">
         <v>1</v>
       </c>
       <c r="AK93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93" t="n">
-        <v>83.3</v>
+        <v>0</v>
       </c>
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="b">
@@ -23431,26 +23523,26 @@
       <c r="AP93" t="b">
         <v>1</v>
       </c>
-      <c r="AQ93" t="inlineStr">
-        <is>
-          <t>contax, fog, ioc</t>
-        </is>
-      </c>
-      <c r="AR93" t="inlineStr">
-        <is>
-          <t>contax, fog, ioc</t>
-        </is>
-      </c>
+      <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr"/>
       <c r="AT93" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="AU93" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AV93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>TS-0012</t>
+        </is>
+      </c>
       <c r="AW93" t="inlineStr"/>
-      <c r="AX93" t="inlineStr"/>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>TS-0012</t>
+        </is>
+      </c>
       <c r="AY93" t="b">
         <v>1</v>
       </c>
@@ -23463,24 +23555,24 @@
       <c r="BD93" t="inlineStr"/>
       <c r="BE93" t="inlineStr">
         <is>
-          <t>https://github.com/tudaIIB/omg; https://ec-3.org/publications/conferences/EC32019/papers/EC32019_146.pdf</t>
+          <t>https://git.onem2m.org/MAS/BaseOntology/-/blob/master/base_ontology.owl</t>
         </is>
       </c>
       <c r="BF93" t="inlineStr"/>
       <c r="BG93" t="inlineStr">
         <is>
-          <t>https://github.com/tudaIIB/omg; https://ec-3.org/publications/conferences/EC32019/papers/EC32019_146.pdf</t>
+          <t>https://git.onem2m.org/MAS/BaseOntology/-/blob/master/base_ontology.owl</t>
         </is>
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="BI93" t="inlineStr"/>
       <c r="BJ93" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="BK93" t="inlineStr"/>
@@ -23488,56 +23580,56 @@
       <c r="BM93" t="inlineStr"/>
       <c r="BN93" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/Anna_Wagner13, https://www.researchgate.net/profile/Mathias_Bonduel, https://www.researchgate.net/profile/Pieter_Pauwels</t>
+          <t>bim-speed/Jerson Pinzon</t>
         </is>
       </c>
       <c r="BO93" t="inlineStr">
         <is>
-          <t>['https://www.researchgate.net/profile/Anna_Wagner13', 'https://www.researchgate.net/profile/Mathias_Bonduel', 'https://www.researchgate.net/profile/Pieter_Pauwels']</t>
+          <t>['bim-speed/Jerson Pinzon']</t>
         </is>
       </c>
       <c r="BP93" t="inlineStr"/>
       <c r="BQ93" t="inlineStr"/>
       <c r="BR93" t="inlineStr">
         <is>
-          <t>{dcterms: http://purl.org/dc/terms/}, {foaf: http://xmlns.com/foaf/0.1/}, {opm: https://w3id.org/opm#}, {owl: http://www.w3.org/2002/07/owl#}, {prov: http://www.w3.org/ns/prov#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {schema: http://schema.org/}, {seas: https://w3id.org/seas/#}, {vann: http://purl.org/vocab/vann/}, {None: https://www.researchgate.net/profile/}</t>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {terms: http://purl.org/dc/terms/}</t>
         </is>
       </c>
       <c r="BS93" t="n">
-        <v>7</v>
+        <v>968</v>
       </c>
       <c r="BT93" t="n">
-        <v>7</v>
+        <v>968</v>
       </c>
       <c r="BU93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>43</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>43</v>
+      </c>
+      <c r="BY93" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ93" t="b">
+        <v>0</v>
+      </c>
+      <c r="CA93" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC93" t="n">
         <v>2</v>
       </c>
-      <c r="BV93" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW93" t="n">
-        <v>17</v>
-      </c>
-      <c r="BX93" t="n">
-        <v>17</v>
-      </c>
-      <c r="BY93" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ93" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA93" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB93" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC93" t="n">
-        <v>3</v>
-      </c>
       <c r="CD93" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -23552,60 +23644,58 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>onem2m</t>
+          <t xml:space="preserve">OntoCityGML </t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>onem2m</t>
+          <t xml:space="preserve">OntoCityGML </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>oneM2M Base Ontology</t>
+          <t>CityGML Ontology</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>oneM2M Base Ontology</t>
+          <t>CityGML Ontology</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syntactic and semantic interoperability of the
-oneM2M System with external systems. </t>
+          <t>Owl version of CityGML</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syntactic and semantic interoperability of the
-oneM2M System with external systems. </t>
+          <t>Owl version of CityGML</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>3.7.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr">
         <is>
-          <t>3.7.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X94" t="inlineStr"/>
@@ -23615,13 +23705,13 @@
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE94" t="b">
         <v>0</v>
       </c>
       <c r="AF94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG94" t="b">
         <v>0</v>
@@ -23631,16 +23721,16 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK94" t="inlineStr"/>
       <c r="AL94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr"/>
@@ -23652,17 +23742,9 @@
       <c r="AU94" t="n">
         <v>0</v>
       </c>
-      <c r="AV94" t="inlineStr">
-        <is>
-          <t>TS-0012</t>
-        </is>
-      </c>
+      <c r="AV94" t="inlineStr"/>
       <c r="AW94" t="inlineStr"/>
-      <c r="AX94" t="inlineStr">
-        <is>
-          <t>TS-0012</t>
-        </is>
-      </c>
+      <c r="AX94" t="inlineStr"/>
       <c r="AY94" t="b">
         <v>1</v>
       </c>
@@ -23675,24 +23757,24 @@
       <c r="BD94" t="inlineStr"/>
       <c r="BE94" t="inlineStr">
         <is>
-          <t>https://git.onem2m.org/MAS/BaseOntology/-/blob/master/base_ontology.owl</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S2666546821000574</t>
         </is>
       </c>
       <c r="BF94" t="inlineStr"/>
       <c r="BG94" t="inlineStr">
         <is>
-          <t>https://git.onem2m.org/MAS/BaseOntology/-/blob/master/base_ontology.owl</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S2666546821000574</t>
         </is>
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Geographic Information</t>
         </is>
       </c>
       <c r="BI94" t="inlineStr"/>
       <c r="BJ94" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Geographic Information</t>
         </is>
       </c>
       <c r="BK94" t="inlineStr"/>
@@ -23726,7 +23808,7 @@
         <v>0</v>
       </c>
       <c r="CC94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CD94" t="n">
         <v>0</v>
@@ -23744,88 +23826,92 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">OntoCityGML </t>
+          <t>ontonav</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">OntoCityGML </t>
+          <t>ontonav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CityGML Ontology</t>
+          <t>Indoor Navigation Ontology</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>CityGML Ontology</t>
+          <t>Indoor Navigation Ontology</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Owl version of CityGML</t>
+          <t>The path searching and the presentation tasks of an indoor navigation system</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Owl version of CityGML</t>
+          <t>The path searching and the presentation tasks of an indoor navigation system</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="n">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
+      <c r="U95" t="n">
+        <v>5</v>
       </c>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
+      <c r="W95" t="n">
+        <v>5</v>
       </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>dc</t>
+        </is>
+      </c>
       <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>dc</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
       <c r="AF95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH95" t="inlineStr"/>
       <c r="AI95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK95" t="inlineStr"/>
       <c r="AL95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr"/>
@@ -23857,24 +23943,24 @@
       <c r="BD95" t="inlineStr"/>
       <c r="BE95" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S2666546821000574</t>
+          <t>https://www.researchgate.net/publication/237021171_OntoNav_A_Semantic_Indoor_Navigation_System</t>
         </is>
       </c>
       <c r="BF95" t="inlineStr"/>
       <c r="BG95" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S2666546821000574</t>
+          <t>https://www.researchgate.net/publication/237021171_OntoNav_A_Semantic_Indoor_Navigation_System</t>
         </is>
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>Geographic Information</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="BI95" t="inlineStr"/>
       <c r="BJ95" t="inlineStr">
         <is>
-          <t>Geographic Information</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="BK95" t="inlineStr"/>
@@ -23896,7 +23982,7 @@
       <c r="BW95" t="inlineStr"/>
       <c r="BX95" t="inlineStr"/>
       <c r="BY95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ95" t="b">
         <v>0</v>
@@ -23905,96 +23991,144 @@
         <v>0</v>
       </c>
       <c r="CB95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>http://bimerr.iot.linkeddata.es/def/occupancy-profile#</t>
+        </is>
+      </c>
       <c r="B96" t="b">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ontonav</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ontonav</t>
+          <t>op</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Indoor Navigation Ontology</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
+          <t>BIMERR Occupancy Profile ontology</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Occupancy Profile ontology</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Indoor Navigation Ontology</t>
+          <t>Occupancy Profile ontology</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>The path searching and the presentation tasks of an indoor navigation system</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
+          <t>The Occupancy Profile ontology has been developed to represent people’s behavior inside buildings with a focus on the energy impact their actions produce. This ontology has been developed using the Occupancy Behavior XML Schema.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>The Occupancy Profile ontology has been developed to represent and define occupancy profiles in building spaces.|</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>The path searching and the presentation tasks of an indoor navigation system</t>
+          <t>The Occupancy Profile ontology has been developed to represent people’s behavior inside buildings with a focus on the energy impact their actions produce. This ontology has been developed using the Occupancy Behavior XML Schema.</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="n">
-        <v>2005</v>
-      </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="n">
-        <v>5</v>
-      </c>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="n">
-        <v>5</v>
-      </c>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+        <v>2020</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CC BY 4.0 </t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>http://purl.org/NET/rdflicense/cc-by4.0</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>http://purl.org/NET/rdflicense/cc-by4.0</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>0.1.2</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>0.1.2</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>s4bldg, saref, building</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>dc</t>
-        </is>
-      </c>
-      <c r="AB96" t="inlineStr"/>
+          <t>dc, dcterms, vann, time, skos, foaf</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, skos, time, foaf</t>
+        </is>
+      </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>dc</t>
+          <t>dc, dcterms, vann, skos, time, foaf</t>
         </is>
       </c>
       <c r="AD96" t="b">
         <v>1</v>
       </c>
       <c r="AE96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF96" t="b">
         <v>1</v>
@@ -24009,24 +24143,30 @@
       <c r="AJ96" t="b">
         <v>1</v>
       </c>
-      <c r="AK96" t="inlineStr"/>
+      <c r="AK96" t="b">
+        <v>1</v>
+      </c>
       <c r="AL96" t="b">
         <v>1</v>
       </c>
-      <c r="AM96" t="inlineStr"/>
+      <c r="AM96" t="n">
+        <v>96.3</v>
+      </c>
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="b">
         <v>0</v>
       </c>
-      <c r="AP96" t="inlineStr"/>
+      <c r="AP96" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ96" t="inlineStr"/>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
       <c r="AT96" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU96" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AV96" t="inlineStr"/>
       <c r="AW96" t="inlineStr"/>
@@ -24038,72 +24178,108 @@
       <c r="BA96" t="b">
         <v>1</v>
       </c>
-      <c r="BB96" t="inlineStr"/>
+      <c r="BB96" t="inlineStr">
+        <is>
+          <t>BIMERR</t>
+        </is>
+      </c>
       <c r="BC96" t="inlineStr"/>
-      <c r="BD96" t="inlineStr"/>
+      <c r="BD96" t="inlineStr">
+        <is>
+          <t>BIMERR</t>
+        </is>
+      </c>
       <c r="BE96" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/237021171_OntoNav_A_Semantic_Indoor_Navigation_System</t>
+          <t>https://bimerr.iot.linkeddata.es/</t>
         </is>
       </c>
       <c r="BF96" t="inlineStr"/>
       <c r="BG96" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/237021171_OntoNav_A_Semantic_Indoor_Navigation_System</t>
+          <t>https://bimerr.iot.linkeddata.es/</t>
         </is>
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="BI96" t="inlineStr"/>
       <c r="BJ96" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="BK96" t="inlineStr"/>
       <c r="BL96" t="inlineStr"/>
       <c r="BM96" t="inlineStr"/>
-      <c r="BN96" t="inlineStr"/>
+      <c r="BN96" t="inlineStr">
+        <is>
+          <t>http://www.oeg-upm.net/, María Poveda Villalón, Raúl García Castro, Serge Chávez Feria</t>
+        </is>
+      </c>
       <c r="BO96" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BP96" t="inlineStr"/>
-      <c r="BQ96" t="inlineStr"/>
-      <c r="BR96" t="inlineStr"/>
-      <c r="BS96" t="inlineStr"/>
-      <c r="BT96" t="inlineStr"/>
-      <c r="BU96" t="inlineStr"/>
-      <c r="BV96" t="inlineStr"/>
-      <c r="BW96" t="inlineStr"/>
-      <c r="BX96" t="inlineStr"/>
+          <t>['http://www.oeg-upm.net/', 'María Poveda Villalón', 'Raúl García Castro', 'Serge Chávez Feria']</t>
+        </is>
+      </c>
+      <c r="BP96" t="inlineStr">
+        <is>
+          <t>http://www.oeg-upm.net/</t>
+        </is>
+      </c>
+      <c r="BQ96" t="inlineStr">
+        <is>
+          <t>http://www.oeg-upm.net/</t>
+        </is>
+      </c>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://bimerr.iot.linkeddata.es/def/building#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {None: http://www.oeg-upm.net/}, {skos: http://www.w3.org/2004/02/skos/core#}, {time: http://www.w3.org/2006/time#}, {foaf: http://xmlns.com/foaf/0.1#}, {None: https://w3id.org/def/saref4building#}, {None: https://w3id.org/saref#}</t>
+        </is>
+      </c>
+      <c r="BS96" t="n">
+        <v>68</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>68</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>31</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>32</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>32</v>
+      </c>
       <c r="BY96" t="b">
         <v>1</v>
       </c>
       <c r="BZ96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA96" t="b">
         <v>0</v>
       </c>
       <c r="CB96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC96" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD96" t="n">
         <v>2</v>
-      </c>
-      <c r="CD96" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>http://bimerr.iot.linkeddata.es/def/occupancy-profile#</t>
+          <t>http://www.w3id.org/opm#</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -24112,116 +24288,110 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>opm</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>opm</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>opm</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BIMERR Occupancy Profile ontology</t>
+          <t>Ontology for Property Management</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Occupancy Profile ontology</t>
+          <t>OPM: Ontology for Property Management</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Occupancy Profile ontology</t>
+          <t>OPM: Ontology for Property Management</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>The Occupancy Profile ontology has been developed to represent people’s behavior inside buildings with a focus on the energy impact their actions produce. This ontology has been developed using the Occupancy Behavior XML Schema.</t>
+          <t>The Ontology for Property Management (OPM) is an ontology for describing temporal properties that are subject to changes as the building design evolves.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>The Occupancy Profile ontology has been developed to represent and define occupancy profiles in building spaces.|</t>
+          <t>The Ontology for Property Management (OPM) extends the concepts introduced in the Smart Energy Aware Systems (SEAS) Evaluations ontology.</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>The Occupancy Profile ontology has been developed to represent people’s behavior inside buildings with a focus on the energy impact their actions produce. This ontology has been developed using the Occupancy Behavior XML Schema.</t>
+          <t>The Ontology for Property Management (OPM) is an ontology for describing temporal properties that are subject to changes as the building design evolves.</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2018-05-25</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="n">
-        <v>2020</v>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2018-05-25</t>
+        </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t xml:space="preserve">CC BY 4.0 </t>
+          <t>W3C CLA</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>http://purl.org/NET/rdflicense/cc-by4.0</t>
+          <t>https://creativecommons.org/licenses/by/1.0/</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>http://purl.org/NET/rdflicense/cc-by4.0</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t>https://creativecommons.org/licenses/by/1.0/</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr">
         <is>
-          <t>0.1.2</t>
+          <t>May 25th 2018</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>0.1.2</t>
+          <t>May 25th 2018</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>s4bldg, saref, building</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
+          <t>seas</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>dc, dcterms, vann, time, skos, foaf</t>
+          <t>schema, prov, props, cdt</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>dc, dcterms, vann, skos, time, foaf</t>
+          <t>vann, voaf, vs, foaf, dce, seas, dcterms</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>dc, dcterms, vann, skos, time, foaf</t>
+          <t>vann, voaf, vs, foaf, dce, seas, dcterms</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -24250,23 +24420,23 @@
         <v>1</v>
       </c>
       <c r="AM97" t="n">
-        <v>96.3</v>
+        <v>94.7</v>
       </c>
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ97" t="inlineStr"/>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
       <c r="AT97" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AU97" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AV97" t="inlineStr"/>
       <c r="AW97" t="inlineStr"/>
@@ -24278,37 +24448,29 @@
       <c r="BA97" t="b">
         <v>1</v>
       </c>
-      <c r="BB97" t="inlineStr">
-        <is>
-          <t>BIMERR</t>
-        </is>
-      </c>
+      <c r="BB97" t="inlineStr"/>
       <c r="BC97" t="inlineStr"/>
-      <c r="BD97" t="inlineStr">
-        <is>
-          <t>BIMERR</t>
-        </is>
-      </c>
+      <c r="BD97" t="inlineStr"/>
       <c r="BE97" t="inlineStr">
         <is>
-          <t>https://bimerr.iot.linkeddata.es/</t>
+          <t>http://www.w3id.org/opm#</t>
         </is>
       </c>
       <c r="BF97" t="inlineStr"/>
       <c r="BG97" t="inlineStr">
         <is>
-          <t>https://bimerr.iot.linkeddata.es/</t>
+          <t>http://www.w3id.org/opm#</t>
         </is>
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="BI97" t="inlineStr"/>
       <c r="BJ97" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="BK97" t="inlineStr"/>
@@ -24316,192 +24478,152 @@
       <c r="BM97" t="inlineStr"/>
       <c r="BN97" t="inlineStr">
         <is>
-          <t>http://www.oeg-upm.net/, María Poveda Villalón, Raúl García Castro, Serge Chávez Feria</t>
+          <t>n9ba7776daae74af7a43db8f9490bac1ab1, n9ba7776daae74af7a43db8f9490bac1ab2</t>
         </is>
       </c>
       <c r="BO97" t="inlineStr">
         <is>
-          <t>['http://www.oeg-upm.net/', 'María Poveda Villalón', 'Raúl García Castro', 'Serge Chávez Feria']</t>
-        </is>
-      </c>
-      <c r="BP97" t="inlineStr">
-        <is>
-          <t>http://www.oeg-upm.net/</t>
-        </is>
-      </c>
-      <c r="BQ97" t="inlineStr">
-        <is>
-          <t>http://www.oeg-upm.net/</t>
-        </is>
-      </c>
+          <t>['n9ba7776daae74af7a43db8f9490bac1ab1', 'n9ba7776daae74af7a43db8f9490bac1ab2']</t>
+        </is>
+      </c>
+      <c r="BP97" t="inlineStr"/>
+      <c r="BQ97" t="inlineStr"/>
       <c r="BR97" t="inlineStr">
         <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://bimerr.iot.linkeddata.es/def/building#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {None: http://www.oeg-upm.net/}, {skos: http://www.w3.org/2004/02/skos/core#}, {time: http://www.w3.org/2006/time#}, {foaf: http://xmlns.com/foaf/0.1#}, {None: https://w3id.org/def/saref4building#}, {None: https://w3id.org/saref#}</t>
+          <t>{rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {owl: http://www.w3.org/2002/07/owl#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {vann: http://purl.org/vocab/vann/}, {voaf: http://purl.org/vocommons/voaf#}, {vs: http://www.w3.org/2003/06/sw-vocab-status/ns#}, {foaf: http://xmlns.com/foaf/0.1/}, {dce: http://purl.org/dc/elements/1.1/}, {seas: http://w3id.org/seas/}, {dcterms: http://purl.org/dc/terms/}, {None: https://creativecommons.org/licenses/by/1.0/}</t>
         </is>
       </c>
       <c r="BS97" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="BT97" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="BU97" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="BV97" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="BW97" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="BX97" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="BY97" t="b">
         <v>1</v>
       </c>
       <c r="BZ97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA97" t="b">
         <v>0</v>
       </c>
       <c r="CB97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC97" t="n">
         <v>3</v>
       </c>
       <c r="CD97" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>http://www.w3id.org/opm#</t>
+          <t>https://project-haystack.org/def/ph/4.0.0#</t>
         </is>
       </c>
       <c r="B98" t="b">
         <v>1</v>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>'preferred_prefix'</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>opm</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>opm</t>
-        </is>
-      </c>
+          <t>ph</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Ontology for Property Management</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>OPM: Ontology for Property Management</t>
-        </is>
-      </c>
+          <t>Project Haystack</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>OPM: Ontology for Property Management</t>
+          <t>Project Haystack</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>The Ontology for Property Management (OPM) is an ontology for describing temporal properties that are subject to changes as the building design evolves.</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>The Ontology for Property Management (OPM) extends the concepts introduced in the Smart Energy Aware Systems (SEAS) Evaluations ontology.</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> We standardize semantic data models and web services with the goal of making it easier to unlock value from the vast quantity of data being generated by the smart devices that permeate our homes, buildings, factories, and cities.
+Applications include automation, control, energy, HVAC, lighting, and other environmental systems.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>The Ontology for Property Management (OPM) is an ontology for describing temporal properties that are subject to changes as the building design evolves.</t>
+          <t xml:space="preserve"> We standardize semantic data models and web services with the goal of making it easier to unlock value from the vast quantity of data being generated by the smart devices that permeate our homes, buildings, factories, and cities.
+Applications include automation, control, energy, HVAC, lighting, and other environmental systems.</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>2018-05-25</t>
-        </is>
-      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>2018-05-25</t>
-        </is>
+      <c r="Q98" t="n">
+        <v>2025</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>W3C CLA</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>https://creativecommons.org/licenses/by/1.0/</t>
-        </is>
-      </c>
+          <t>Academic Free License 3.0</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>https://creativecommons.org/licenses/by/1.0/</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>May 25th 2018</t>
-        </is>
-      </c>
+          <t>Academic Free License 3.0</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>4.0.0</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr">
         <is>
-          <t>May 25th 2018</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>seas</t>
-        </is>
-      </c>
+          <t>4.0.0</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr">
-        <is>
-          <t>schema, prov, props, cdt</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>vann, voaf, vs, foaf, dce, seas, dcterms</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>vann, voaf, vs, foaf, dce, seas, dcterms</t>
-        </is>
-      </c>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="b">
         <v>1</v>
       </c>
       <c r="AE98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG98" t="b">
         <v>1</v>
@@ -24513,30 +24635,24 @@
       <c r="AJ98" t="b">
         <v>1</v>
       </c>
-      <c r="AK98" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL98" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>94.7</v>
-      </c>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ98" t="inlineStr"/>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AV98" t="inlineStr"/>
       <c r="AW98" t="inlineStr"/>
@@ -24553,66 +24669,46 @@
       <c r="BD98" t="inlineStr"/>
       <c r="BE98" t="inlineStr">
         <is>
-          <t>http://www.w3id.org/opm#</t>
+          <t>https://www.project-haystack.org/</t>
         </is>
       </c>
       <c r="BF98" t="inlineStr"/>
       <c r="BG98" t="inlineStr">
         <is>
-          <t>http://www.w3id.org/opm#</t>
+          <t>https://www.project-haystack.org/</t>
         </is>
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="BI98" t="inlineStr"/>
       <c r="BJ98" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="BK98" t="inlineStr"/>
       <c r="BL98" t="inlineStr"/>
       <c r="BM98" t="inlineStr"/>
-      <c r="BN98" t="inlineStr">
-        <is>
-          <t>ne4084765d65c46d0b2f3dbddfe1e749bb1, ne4084765d65c46d0b2f3dbddfe1e749bb2</t>
-        </is>
-      </c>
+      <c r="BN98" t="inlineStr"/>
       <c r="BO98" t="inlineStr">
         <is>
-          <t>['ne4084765d65c46d0b2f3dbddfe1e749bb1', 'ne4084765d65c46d0b2f3dbddfe1e749bb2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="BP98" t="inlineStr"/>
       <c r="BQ98" t="inlineStr"/>
-      <c r="BR98" t="inlineStr">
-        <is>
-          <t>{rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {owl: http://www.w3.org/2002/07/owl#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {vann: http://purl.org/vocab/vann/}, {voaf: http://purl.org/vocommons/voaf#}, {vs: http://www.w3.org/2003/06/sw-vocab-status/ns#}, {foaf: http://xmlns.com/foaf/0.1/}, {dce: http://purl.org/dc/elements/1.1/}, {seas: http://w3id.org/seas/}, {dcterms: http://purl.org/dc/terms/}, {None: https://creativecommons.org/licenses/by/1.0/}</t>
-        </is>
-      </c>
-      <c r="BS98" t="n">
-        <v>12</v>
-      </c>
-      <c r="BT98" t="n">
-        <v>12</v>
-      </c>
-      <c r="BU98" t="n">
-        <v>4</v>
-      </c>
-      <c r="BV98" t="n">
-        <v>4</v>
-      </c>
-      <c r="BW98" t="n">
-        <v>6</v>
-      </c>
-      <c r="BX98" t="n">
-        <v>6</v>
-      </c>
+      <c r="BR98" t="inlineStr"/>
+      <c r="BS98" t="inlineStr"/>
+      <c r="BT98" t="inlineStr"/>
+      <c r="BU98" t="inlineStr"/>
+      <c r="BV98" t="inlineStr"/>
+      <c r="BW98" t="inlineStr"/>
+      <c r="BX98" t="inlineStr"/>
       <c r="BY98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ98" t="b">
         <v>0</v>
@@ -24621,13 +24717,13 @@
         <v>0</v>
       </c>
       <c r="CB98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD98" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -25613,13 +25709,9 @@
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="b">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>reno-inst</t>
@@ -25647,7 +25739,24 @@
           <t>An ontology for installation of components in building renovation projects</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>This file contains the Base Ontology of oneM2M as specified in TS-0012
+=========================================
+Copyright Notification
+The oneM2M Partners authorize you to copy this document, provided that you retain all copyright and other proprietary notices contained in the original materials on any copies of the materials and that you comply strictly with these terms.
+This copyright permission does not constitute an endorsement of the products or services, nor does it encompass the granting of any patent rights. 
+The oneM2M Partners assume no responsibility for errors or omissions in this document.
+(c) 2016, oneM2M Partners Type 1 (ARIB, ATIS, CCSA, ETSI, TIA, TSDSI, TTA, TTC). All rights reserved.
+Notice of Disclaimer and Limitation of Liability
+The information provided in this document is directed solely to professionals who have the appropriate degree of experience to understand and interpret its contents in accordance with generally accepted engineering or other professional standards and applicable regulations.
+No recommendation as to products or vendors is made or should be implied.
+NO REPRESENTATION OR WARRANTY IS MADE THAT THE INFORMATION IS TECHNICALLY ACCURATE OR SUFFICIENT OR CONFORMS TO ANY STATUTE,GOVERNMENTAL RULE OR EGULATION, AND FURTHER, NO REPRESENTATION OR WARRANTY IS MADE OF MERCHANTABILITY OR FITNESS FOR ANY PARTICULAR PURPOSE OR AGAINST INFRINGEMENT OF INTELLECTUAL PROPERTY RIGHTS.
+NO oneM2M PARTNER TYPE 1 SHALL BE LIABLE, BEYOND THE AMOUNT OF ANY SUM RECEIVED IN PAYMENT BY THAT PARTNER FOR THIS DOCUMENT, WITH RESPECT TO ANY CLAIM, AND IN NO EVENT SHALL oneM2M BE LIABLE FOR LOST PROFITS OR OTHER INCIDENTAL OR ON SEQUENTIAL DAMAGES.
+oneM2M EXPRESSLY ADVISES ANY AND ALL USE OF OR RELIANCE UPON THIS INFORMATION PROVIDED IN THIS DOCUMENT IS AT THE RISK OF THE USER.
+=========================================</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>An ontology for installation of components in building renovation projects</t>
@@ -25690,7 +25799,7 @@
         <v>1</v>
       </c>
       <c r="AE103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF103" t="b">
         <v>1</v>
@@ -25705,16 +25814,22 @@
       <c r="AJ103" t="b">
         <v>0</v>
       </c>
-      <c r="AK103" t="inlineStr"/>
+      <c r="AK103" t="b">
+        <v>1</v>
+      </c>
       <c r="AL103" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>98.40000000000001</v>
+      </c>
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="b">
         <v>0</v>
       </c>
-      <c r="AP103" t="inlineStr"/>
+      <c r="AP103" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr"/>
@@ -25763,20 +25878,32 @@
       <c r="BL103" t="inlineStr"/>
       <c r="BM103" t="inlineStr"/>
       <c r="BN103" t="inlineStr"/>
-      <c r="BO103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO103" t="inlineStr"/>
       <c r="BP103" t="inlineStr"/>
       <c r="BQ103" t="inlineStr"/>
-      <c r="BR103" t="inlineStr"/>
-      <c r="BS103" t="inlineStr"/>
-      <c r="BT103" t="inlineStr"/>
-      <c r="BU103" t="inlineStr"/>
-      <c r="BV103" t="inlineStr"/>
-      <c r="BW103" t="inlineStr"/>
-      <c r="BX103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>{: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: https://git.onem2m.org/MAS/BaseOntology/raw/3_6_0/}</t>
+        </is>
+      </c>
+      <c r="BS103" t="n">
+        <v>29</v>
+      </c>
+      <c r="BT103" t="n">
+        <v>29</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>19</v>
+      </c>
+      <c r="BV103" t="n">
+        <v>19</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX103" t="n">
+        <v>21</v>
+      </c>
       <c r="BY103" t="b">
         <v>0</v>
       </c>
@@ -25793,7 +25920,7 @@
         <v>2</v>
       </c>
       <c r="CD103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -26618,10 +26745,10 @@
         <v>1</v>
       </c>
       <c r="CA106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC106" t="n">
         <v>3</v>
@@ -30844,12 +30971,12 @@
       </c>
       <c r="AQ121" t="inlineStr">
         <is>
-          <t>building, hmo, iot, mat, renp, resource, saref4agri, saref4auto, saref4bldg, saref4city, saref4ehaw, saref4ener, saref4envi, saref4grid, saref4inma, saref4lift, saref4watr, saref4wear</t>
+          <t>building, hmo, iot, mat, renp, resource, saref4agri, saref4auto, saref4bldg, saref4city, saref4ehaw, saref4ener, saref4envi, saref4grid, saref4inma, saref4lift, saref4watr, saref4wear, weat</t>
         </is>
       </c>
       <c r="AR121" t="inlineStr">
         <is>
-          <t>building, hmo, iot, mat, renp, resource, saref4agri, saref4auto, saref4bldg, saref4city, saref4ehaw, saref4ener, saref4envi, saref4grid, saref4inma, saref4lift, saref4watr, saref4wear</t>
+          <t>building, hmo, iot, mat, renp, resource, saref4agri, saref4auto, saref4bldg, saref4city, saref4ehaw, saref4ener, saref4envi, saref4grid, saref4inma, saref4lift, saref4watr, saref4wear, weat</t>
         </is>
       </c>
       <c r="AS121" t="inlineStr"/>
@@ -31233,10 +31360,10 @@
         <v>1</v>
       </c>
       <c r="CA122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC122" t="n">
         <v>3</v>
@@ -32316,13 +32443,9 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>sml</t>
@@ -32372,7 +32495,11 @@
           <t>sosa</t>
         </is>
       </c>
-      <c r="Y128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
       <c r="Z128" t="inlineStr">
         <is>
           <t>sosa</t>
@@ -32383,17 +32510,21 @@
           <t>qudt, quantitykind, skos, time, unit, sh, geosparql</t>
         </is>
       </c>
-      <c r="AB128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>quantitykind, qudt, sh, skos, sml, time</t>
+        </is>
+      </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>qudt, quantitykind, skos, time, unit, sh, geosparql</t>
+          <t>quantitykind, qudt, sh, skos, sml, time</t>
         </is>
       </c>
       <c r="AD128" t="b">
         <v>1</v>
       </c>
       <c r="AE128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF128" t="b">
         <v>1</v>
@@ -32408,16 +32539,22 @@
       <c r="AJ128" t="b">
         <v>1</v>
       </c>
-      <c r="AK128" t="inlineStr"/>
+      <c r="AK128" t="b">
+        <v>0</v>
+      </c>
       <c r="AL128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>0</v>
+      </c>
       <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="b">
         <v>0</v>
       </c>
-      <c r="AP128" t="inlineStr"/>
+      <c r="AP128" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ128" t="inlineStr"/>
       <c r="AR128" t="inlineStr"/>
       <c r="AS128" t="inlineStr"/>
@@ -32490,20 +32627,32 @@
         </is>
       </c>
       <c r="BN128" t="inlineStr"/>
-      <c r="BO128" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO128" t="inlineStr"/>
       <c r="BP128" t="inlineStr"/>
       <c r="BQ128" t="inlineStr"/>
-      <c r="BR128" t="inlineStr"/>
-      <c r="BS128" t="inlineStr"/>
-      <c r="BT128" t="inlineStr"/>
-      <c r="BU128" t="inlineStr"/>
-      <c r="BV128" t="inlineStr"/>
-      <c r="BW128" t="inlineStr"/>
-      <c r="BX128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {quantitykind: http://qudt.org/vocab/quantitykind/}, {qudt: http://qudt.org/schema/qudt/}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {sh: http://www.w3.org/ns/shacl#}, {skos: http://www.w3.org/2004/02/skos/core#}, {sml: https://w3id.org/sml/def#}, {sosa: http://www.w3.org/ns/sosa/}, {time: http://www.w3.org/2006/time#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {None: http://qudt.org/2.1/schema/}, {None: http://qudt.org/2.1/vocab/}, {None: http://www.opengis.net/ont/}, {None: http://www.w3.org/2003/01/geo/}, {None: http://www.w3.org/2004/02/skos/}, {None: http://www.w3.org/2006/}, {None: http://www.w3.org/ns/}, {None: https://w3id.org/sml/2/skos/}, {None: https://w3id.org/sml/skos/}, {None: https://w3id.org/sml/term#}</t>
+        </is>
+      </c>
+      <c r="BS128" t="n">
+        <v>53</v>
+      </c>
+      <c r="BT128" t="n">
+        <v>53</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW128" t="n">
+        <v>36</v>
+      </c>
+      <c r="BX128" t="n">
+        <v>36</v>
+      </c>
       <c r="BY128" t="b">
         <v>1</v>
       </c>
@@ -32511,10 +32660,10 @@
         <v>1</v>
       </c>
       <c r="CA128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC128" t="n">
         <v>3</v>
@@ -32526,88 +32675,102 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://w3id.org/sml/term#</t>
+          <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>sml-term</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+          <t>sosa</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>sml-term</t>
+          <t>sosa</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative terminology (SKOS)</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
+          <t>Semantic Sensor Network Ontology - SOSA</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Sensor, Observation, Sample, and Actuator (SOSA) Ontology</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative terminology (SKOS)</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Defines the terms from CEN-EN 17632</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Defines the terms from CEN-EN 17632</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
+          <t>Sensor, Observation, Sample, and Actuator (SOSA) Ontology</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>This ontology is based on the SSN Ontology by the W3C Semantic Sensor Networks Incubator Group (SSN-XG), together with considerations from the W3C/OGC Spatial Data on the Web Working Group.</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>2017</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2017-04-17</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>2017-04-17</t>
+        </is>
+      </c>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>http://www.opengeospatial.org/ogc/Software</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>http://www.opengeospatial.org/ogc/Software</t>
+        </is>
+      </c>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr">
-        <is>
-          <t>sosa</t>
-        </is>
-      </c>
+      <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>sosa</t>
-        </is>
-      </c>
+      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>qudt, quantitykind, skos, time, unit, sh, geosparql</t>
-        </is>
-      </c>
-      <c r="AB129" t="inlineStr"/>
+          <t>dul, iso19156-gfi, iso19156-om, iso19156-sf, iso19156-sfs, iso19156-sp, oboe, prov</t>
+        </is>
+      </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>foaf, skos, time, vann, voaf, schema, dcterms</t>
+        </is>
+      </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>qudt, quantitykind, skos, time, unit, sh, geosparql</t>
+          <t>foaf, skos, time, vann, voaf, schema, dcterms</t>
         </is>
       </c>
       <c r="AD129" t="b">
         <v>1</v>
       </c>
       <c r="AE129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF129" t="b">
         <v>1</v>
@@ -32622,36 +32785,42 @@
       <c r="AJ129" t="b">
         <v>1</v>
       </c>
-      <c r="AK129" t="inlineStr"/>
+      <c r="AK129" t="b">
+        <v>1</v>
+      </c>
       <c r="AL129" t="b">
         <v>1</v>
       </c>
-      <c r="AM129" t="inlineStr"/>
+      <c r="AM129" t="n">
+        <v>100</v>
+      </c>
       <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP129" t="inlineStr"/>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AP129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ129" t="inlineStr">
+        <is>
+          <t>brick, esair, fm-ener, saref4agri, sbeo, sml, ssn, weat</t>
+        </is>
+      </c>
+      <c r="AR129" t="inlineStr">
+        <is>
+          <t>brick, esair, fm-ener, saref4agri, sbeo, sml, ssn, weat</t>
+        </is>
+      </c>
       <c r="AS129" t="inlineStr"/>
       <c r="AT129" t="n">
-        <v>0.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU129" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AV129" t="inlineStr">
-        <is>
-          <t>CEN EN 17632-1:2022, CEN EN 17632-2:2024</t>
-        </is>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AV129" t="inlineStr"/>
       <c r="AW129" t="inlineStr"/>
-      <c r="AX129" t="inlineStr">
-        <is>
-          <t>CEN EN 17632-1:2022, CEN EN 17632-2:2024</t>
-        </is>
-      </c>
+      <c r="AX129" t="inlineStr"/>
       <c r="AY129" t="b">
         <v>1</v>
       </c>
@@ -32659,88 +32828,92 @@
       <c r="BA129" t="b">
         <v>1</v>
       </c>
-      <c r="BB129" t="inlineStr">
-        <is>
-          <t>EN 17632-1:2022 / EN 17632-2:2024</t>
-        </is>
-      </c>
+      <c r="BB129" t="inlineStr"/>
       <c r="BC129" t="inlineStr"/>
-      <c r="BD129" t="inlineStr">
-        <is>
-          <t>EN 17632-1:2022 / EN 17632-2:2024</t>
-        </is>
-      </c>
+      <c r="BD129" t="inlineStr"/>
       <c r="BE129" t="inlineStr">
         <is>
-          <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C    https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
+          <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
       <c r="BF129" t="inlineStr"/>
       <c r="BG129" t="inlineStr">
         <is>
-          <t>https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:67839,1991542&amp;cs=1BCE2DE4154949B53FB406C2D4EE5011D  https://standards.cencenelec.eu/dyn/www/f?p=CEN:110:0::::FSP_PROJECT,FSP_ORG_ID:76161,1991542&amp;cs=1D40D0701E13D1851B42C956BA0006B3C    https://github.com/Stichting-CROW/sml/?tab=readme-ov-file</t>
+          <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
       <c r="BH129" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="BI129" t="inlineStr"/>
       <c r="BJ129" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
-        </is>
-      </c>
-      <c r="BK129" t="inlineStr">
-        <is>
-          <t>Information Management</t>
-        </is>
-      </c>
+          <t>IoT Sensors/Actuators</t>
+        </is>
+      </c>
+      <c r="BK129" t="inlineStr"/>
       <c r="BL129" t="inlineStr"/>
-      <c r="BM129" t="inlineStr">
-        <is>
-          <t>Information Management</t>
-        </is>
-      </c>
-      <c r="BN129" t="inlineStr"/>
+      <c r="BM129" t="inlineStr"/>
+      <c r="BN129" t="inlineStr">
+        <is>
+          <t>nc89c61f8f25f4907b5a7d0060c5a373eb1</t>
+        </is>
+      </c>
       <c r="BO129" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nc89c61f8f25f4907b5a7d0060c5a373eb1']</t>
         </is>
       </c>
       <c r="BP129" t="inlineStr"/>
       <c r="BQ129" t="inlineStr"/>
-      <c r="BR129" t="inlineStr"/>
-      <c r="BS129" t="inlineStr"/>
-      <c r="BT129" t="inlineStr"/>
-      <c r="BU129" t="inlineStr"/>
-      <c r="BV129" t="inlineStr"/>
-      <c r="BW129" t="inlineStr"/>
-      <c r="BX129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {foaf: http://xmlns.com/foaf/0.1/}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {time: http://www.w3.org/2006/time#}, {vann: http://purl.org/vocab/vann/}, {voaf: http://purl.org/vocommons/voaf#}, {schema: http://schema.org/}, {dcterms: http://purl.org/dc/terms/}, {None: http://www.opengeospatial.org/ogc/}, {None: http://www.w3.org/Consortium/Legal/2015/}</t>
+        </is>
+      </c>
+      <c r="BS129" t="n">
+        <v>16</v>
+      </c>
+      <c r="BT129" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW129" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX129" t="n">
+        <v>21</v>
+      </c>
       <c r="BY129" t="b">
         <v>1</v>
       </c>
       <c r="BZ129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA129" t="b">
         <v>0</v>
       </c>
       <c r="CB129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC129" t="n">
         <v>3</v>
       </c>
       <c r="CD129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>http://www.w3.org/ns/ssn/</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -32749,41 +32922,49 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Semantic Sensor Network Ontology - SOSA</t>
+          <t>Semantic Sensor Network Ontology - SSN</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sensor, Observation, Sample, and Actuator (SOSA) Ontology</t>
+          <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Sensor, Observation, Sample, and Actuator (SOSA) Ontology</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
+          <t>Semantic Sensor Network Ontology</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>The Semantic Sensor Network (SSN) ontology is an ontology for describing sensors and their observations, the involved procedures, the studied features of interest, the samples used to do so, and the observed properties, as well as actuators. SSN follows a horizontal and vertical modularization architecture by including a lightweight but self-contained core ontology called SOSA (Sensor, Observation, Sample, and Actuator) for its elementary classes and properties. With their different scope and different degrees of axiomatization, SSN and SOSA are able to support a wide range of applications and use cases, including satellite imagery, large-scale scientific monitoring, industrial and household infrastructures, social sensing, citizen science, observation-driven ontology engineering, and the Web of Things</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>This ontology is based on the SSN Ontology by the W3C Semantic Sensor Networks Incubator Group (SSN-XG), together with considerations from the W3C/OGC Spatial Data on the Web Working Group.</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr"/>
+          <t>This ontology describes sensors, actuators and observations, and related concepts. It does not describe domain concepts, time, locations, etc. these are intended to be included from other ontologies via OWL imports.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>The Semantic Sensor Network (SSN) ontology is an ontology for describing sensors and their observations, the involved procedures, the studied features of interest, the samples used to do so, and the observed properties, as well as actuators. SSN follows a horizontal and vertical modularization architecture by including a lightweight but self-contained core ontology called SOSA (Sensor, Observation, Sample, and Actuator) for its elementary classes and properties. With their different scope and different degrees of axiomatization, SSN and SOSA are able to support a wide range of applications and use cases, including satellite imagery, large-scale scientific monitoring, industrial and household infrastructures, social sensing, citizen science, observation-driven ontology engineering, and the Web of Things</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>2017</v>
       </c>
@@ -32811,24 +32992,48 @@
         </is>
       </c>
       <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New modular version of the SSN ontology. 
+This ontology was originally developed in 2009-2011 by the W3C Semantic Sensor Networks Incubator Group (SSN-XG). For more information on the group's activities see: http://www.w3.org/2005/Incubator/ssn/. The ontology was revised and modularized in 2015-2017 by the W3C/OGC Spatial Data on the Web Working Group, see: https://www.w3.org/2015/spatial/wiki/Semantic_Sensor_Network_Ontology. 
+In particular, (a) the scope is extended to include actuation and sampling; (b) the core concepts and properties are factored out into the SOSA ontology. The SSN ontology imports SOSA and adds formal axiomatization consistent with the text definitions in SOSA, and adds classes and properties to accommodate the scope of the original SSN ontology. </t>
+        </is>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New modular version of the SSN ontology. 
+This ontology was originally developed in 2009-2011 by the W3C Semantic Sensor Networks Incubator Group (SSN-XG). For more information on the group's activities see: http://www.w3.org/2005/Incubator/ssn/. The ontology was revised and modularized in 2015-2017 by the W3C/OGC Spatial Data on the Web Working Group, see: https://www.w3.org/2015/spatial/wiki/Semantic_Sensor_Network_Ontology. 
+In particular, (a) the scope is extended to include actuation and sampling; (b) the core concepts and properties are factored out into the SOSA ontology. The SSN ontology imports SOSA and adds formal axiomatization consistent with the text definitions in SOSA, and adds classes and properties to accommodate the scope of the original SSN ontology. </t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>dul, iso19156-gfi, iso19156-om, iso19156-sf, iso19156-sfs, iso19156-sp, oboe, prov</t>
+          <t>dul</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>foaf, skos, time, vann, voaf, schema, dcterms</t>
+          <t>foaf, skos, vann, voaf, dcterms</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>foaf, skos, time, vann, voaf, schema, dcterms</t>
+          <t>foaf, skos, vann, voaf, dcterms</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -32868,20 +33073,20 @@
       </c>
       <c r="AQ130" t="inlineStr">
         <is>
-          <t>brick, esair, saref4agri, sbeo, ssn</t>
+          <t>saref4agri, weat</t>
         </is>
       </c>
       <c r="AR130" t="inlineStr">
         <is>
-          <t>brick, esair, saref4agri, sbeo, ssn</t>
+          <t>saref4agri, weat</t>
         </is>
       </c>
       <c r="AS130" t="inlineStr"/>
       <c r="AT130" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU130" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AV130" t="inlineStr"/>
       <c r="AW130" t="inlineStr"/>
@@ -32898,13 +33103,13 @@
       <c r="BD130" t="inlineStr"/>
       <c r="BE130" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>https://www.w3.org/TR/vocab-ssn/</t>
         </is>
       </c>
       <c r="BF130" t="inlineStr"/>
       <c r="BG130" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>https://www.w3.org/TR/vocab-ssn/</t>
         </is>
       </c>
       <c r="BH130" t="inlineStr">
@@ -32923,50 +33128,50 @@
       <c r="BM130" t="inlineStr"/>
       <c r="BN130" t="inlineStr">
         <is>
-          <t>ne934ef65e9a04967be7a00061d311175b1</t>
+          <t>n8ab0ee428f9f4bb8a7d0506919637400b1</t>
         </is>
       </c>
       <c r="BO130" t="inlineStr">
         <is>
-          <t>['ne934ef65e9a04967be7a00061d311175b1']</t>
+          <t>['n8ab0ee428f9f4bb8a7d0506919637400b1']</t>
         </is>
       </c>
       <c r="BP130" t="inlineStr"/>
       <c r="BQ130" t="inlineStr"/>
       <c r="BR130" t="inlineStr">
         <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {foaf: http://xmlns.com/foaf/0.1/}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {time: http://www.w3.org/2006/time#}, {vann: http://purl.org/vocab/vann/}, {voaf: http://purl.org/vocommons/voaf#}, {schema: http://schema.org/}, {dcterms: http://purl.org/dc/terms/}, {None: http://www.opengeospatial.org/ogc/}, {None: http://www.w3.org/Consortium/Legal/2015/}</t>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {foaf: http://xmlns.com/foaf/0.1/}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {sosa: http://www.w3.org/ns/sosa/}, {vann: http://purl.org/vocab/vann/}, {voaf: http://purl.org/vocommons/voaf#}, {dcterms: http://purl.org/dc/terms/}, {None: http://www.opengeospatial.org/ogc/}, {None: http://www.w3.org/Consortium/Legal/2015/}, {None: https://www.w3.org/2015/spatial/wiki/}</t>
         </is>
       </c>
       <c r="BS130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BT130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW130" t="n">
         <v>16</v>
       </c>
-      <c r="BT130" t="n">
+      <c r="BX130" t="n">
         <v>16</v>
       </c>
-      <c r="BU130" t="n">
-        <v>2</v>
-      </c>
-      <c r="BV130" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW130" t="n">
-        <v>21</v>
-      </c>
-      <c r="BX130" t="n">
-        <v>21</v>
-      </c>
       <c r="BY130" t="b">
         <v>1</v>
       </c>
       <c r="BZ130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CC130" t="n">
         <v>3</v>
@@ -32978,7 +33183,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/ssn/</t>
+          <t>https://github.com/JWerbrouck/scan-to-graph/blob/master/stg.ttl</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -32987,118 +33192,91 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ssn</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>ssn</t>
-        </is>
-      </c>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Semantic Sensor Network Ontology - SSN</t>
+          <t>Scan To Graph</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Semantic Sensor Network Ontology</t>
+          <t>STG: Scan-to-Graph</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Semantic Sensor Network Ontology</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>The Semantic Sensor Network (SSN) ontology is an ontology for describing sensors and their observations, the involved procedures, the studied features of interest, the samples used to do so, and the observed properties, as well as actuators. SSN follows a horizontal and vertical modularization architecture by including a lightweight but self-contained core ontology called SOSA (Sensor, Observation, Sample, and Actuator) for its elementary classes and properties. With their different scope and different degrees of axiomatization, SSN and SOSA are able to support a wide range of applications and use cases, including satellite imagery, large-scale scientific monitoring, industrial and household infrastructures, social sensing, citizen science, observation-driven ontology engineering, and the Web of Things</t>
-        </is>
-      </c>
+          <t>STG: Scan-to-Graph</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>This ontology describes sensors, actuators and observations, and related concepts. It does not describe domain concepts, time, locations, etc. these are intended to be included from other ontologies via OWL imports.</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>The Semantic Sensor Network (SSN) ontology is an ontology for describing sensors and their observations, the involved procedures, the studied features of interest, the samples used to do so, and the observed properties, as well as actuators. SSN follows a horizontal and vertical modularization architecture by including a lightweight but self-contained core ontology called SOSA (Sensor, Observation, Sample, and Actuator) for its elementary classes and properties. With their different scope and different degrees of axiomatization, SSN and SOSA are able to support a wide range of applications and use cases, including satellite imagery, large-scale scientific monitoring, industrial and household infrastructures, social sensing, citizen science, observation-driven ontology engineering, and the Web of Things</t>
-        </is>
-      </c>
+          <t>Scan-to-Graph (STG) is a simple vocabulary defining some concepts for linking instances with their geometry serialized in a certain format.
+It is meant as an aid for point-cloud based reconstruction of heritage or renovation projects, within a Linked Data context.</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>2017</v>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>2017-04-17</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr"/>
+        <v>2019</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>June 1st 2018</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>2017-04-17</t>
+          <t>June 1st 2018</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>http://www.opengeospatial.org/ogc/Software</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>http://www.opengeospatial.org/ogc/Software</t>
-        </is>
-      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t xml:space="preserve">New modular version of the SSN ontology. 
-This ontology was originally developed in 2009-2011 by the W3C Semantic Sensor Networks Incubator Group (SSN-XG). For more information on the group's activities see: http://www.w3.org/2005/Incubator/ssn/. The ontology was revised and modularized in 2015-2017 by the W3C/OGC Spatial Data on the Web Working Group, see: https://www.w3.org/2015/spatial/wiki/Semantic_Sensor_Network_Ontology. 
-In particular, (a) the scope is extended to include actuation and sampling; (b) the core concepts and properties are factored out into the SOSA ontology. The SSN ontology imports SOSA and adds formal axiomatization consistent with the text definitions in SOSA, and adds classes and properties to accommodate the scope of the original SSN ontology. </t>
+          <t>May 3rd 2018</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t xml:space="preserve">New modular version of the SSN ontology. 
-This ontology was originally developed in 2009-2011 by the W3C Semantic Sensor Networks Incubator Group (SSN-XG). For more information on the group's activities see: http://www.w3.org/2005/Incubator/ssn/. The ontology was revised and modularized in 2015-2017 by the W3C/OGC Spatial Data on the Web Working Group, see: https://www.w3.org/2015/spatial/wiki/Semantic_Sensor_Network_Ontology. 
-In particular, (a) the scope is extended to include actuation and sampling; (b) the core concepts and properties are factored out into the SOSA ontology. The SSN ontology imports SOSA and adds formal axiomatization consistent with the text definitions in SOSA, and adds classes and properties to accommodate the scope of the original SSN ontology. </t>
+          <t>May 3rd 2018</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>bot, beo, omg, bpo, fog</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>geosparql</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>sosa</t>
-        </is>
-      </c>
-      <c r="AA131" t="inlineStr">
-        <is>
-          <t>dul</t>
-        </is>
-      </c>
+          <t>geosparql</t>
+        </is>
+      </c>
+      <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>foaf, skos, vann, voaf, dcterms</t>
+          <t>dcterms, dce</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
-          <t>foaf, skos, vann, voaf, dcterms</t>
+          <t>dcterms, dce</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -33118,40 +33296,32 @@
         <v>1</v>
       </c>
       <c r="AJ131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN131" t="inlineStr"/>
       <c r="AO131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP131" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ131" t="inlineStr">
-        <is>
-          <t>saref4agri</t>
-        </is>
-      </c>
-      <c r="AR131" t="inlineStr">
-        <is>
-          <t>saref4agri</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ131" t="inlineStr"/>
+      <c r="AR131" t="inlineStr"/>
       <c r="AS131" t="inlineStr"/>
       <c r="AT131" t="n">
-        <v>0.82</v>
+        <v>0.1</v>
       </c>
       <c r="AU131" t="n">
-        <v>0.82</v>
+        <v>0.1</v>
       </c>
       <c r="AV131" t="inlineStr"/>
       <c r="AW131" t="inlineStr"/>
@@ -33168,63 +33338,63 @@
       <c r="BD131" t="inlineStr"/>
       <c r="BE131" t="inlineStr">
         <is>
-          <t>https://www.w3.org/TR/vocab-ssn/</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0926580520300674#f0020</t>
         </is>
       </c>
       <c r="BF131" t="inlineStr"/>
       <c r="BG131" t="inlineStr">
         <is>
-          <t>https://www.w3.org/TR/vocab-ssn/</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0926580520300674#f0020</t>
         </is>
       </c>
       <c r="BH131" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BI131" t="inlineStr"/>
       <c r="BJ131" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
-        </is>
-      </c>
-      <c r="BK131" t="inlineStr"/>
+          <t>BE Product (Building)</t>
+        </is>
+      </c>
+      <c r="BK131" t="inlineStr">
+        <is>
+          <t>Remote Sensing</t>
+        </is>
+      </c>
       <c r="BL131" t="inlineStr"/>
-      <c r="BM131" t="inlineStr"/>
-      <c r="BN131" t="inlineStr">
-        <is>
-          <t>n0dd39a8a3e6b4f8498432d75a3bf4671b1</t>
-        </is>
-      </c>
-      <c r="BO131" t="inlineStr">
-        <is>
-          <t>['n0dd39a8a3e6b4f8498432d75a3bf4671b1']</t>
-        </is>
-      </c>
+      <c r="BM131" t="inlineStr">
+        <is>
+          <t>Remote Sensing</t>
+        </is>
+      </c>
+      <c r="BN131" t="inlineStr"/>
+      <c r="BO131" t="inlineStr"/>
       <c r="BP131" t="inlineStr"/>
       <c r="BQ131" t="inlineStr"/>
       <c r="BR131" t="inlineStr">
         <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {foaf: http://xmlns.com/foaf/0.1/}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {skos: http://www.w3.org/2004/02/skos/core#}, {sosa: http://www.w3.org/ns/sosa/}, {vann: http://purl.org/vocab/vann/}, {voaf: http://purl.org/vocommons/voaf#}, {dcterms: http://purl.org/dc/terms/}, {None: http://www.opengeospatial.org/ogc/}, {None: http://www.w3.org/Consortium/Legal/2015/}, {None: https://www.w3.org/2015/spatial/wiki/}</t>
+          <t>{: https://raw.githubusercontent.com/JWerbrouck/Thesis/master/stg.ttl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {owl: http://www.w3.org/2002/07/owl#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dcterms: http://purl.org/dc/terms/}, {dce: http://purl.org/dc/elements/1.1/}, {geo: http://www.opengis.net/ont/geosparql#}</t>
         </is>
       </c>
       <c r="BS131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BT131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BU131" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BV131" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW131" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BX131" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BY131" t="b">
         <v>1</v>
@@ -33242,13 +33412,13 @@
         <v>3</v>
       </c>
       <c r="CD131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://github.com/JWerbrouck/scan-to-graph/blob/master/stg.ttl</t>
+          <t>https://w3id.org/tempo#</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -33257,91 +33427,126 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>stg</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>tempo</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>tempo</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>tempo</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Scan To Graph</t>
+          <t>Data Templates Ontology</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>STG: Scan-to-Graph</t>
+          <t>Data Template Ontology (TempO)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>STG: Scan-to-Graph</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
+          <t>Data Template Ontology (TempO)</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>The Data Template (DT) Ontology is based on concepts and principles for creating templates from ISO 23387 and the associated XML data schema</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Scan-to-Graph (STG) is a simple vocabulary defining some concepts for linking instances with their geometry serialized in a certain format.
-It is meant as an aid for point-cloud based reconstruction of heritage or renovation projects, within a Linked Data context.</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr"/>
+          <t xml:space="preserve">The Data Template Ontology (TempO) is based on concepts and principles for creating templates from ISO 23387 and the associated XML data schema, which is currently under development. </t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>The Data Template (DT) Ontology is based on concepts and principles for creating templates from ISO 23387 and the associated XML data schema</t>
+        </is>
+      </c>
       <c r="M132" t="n">
-        <v>2019</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>2023</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>June 1st 2018</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr"/>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>June 1st 2018</t>
-        </is>
-      </c>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>CC BY 4.0</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>May 3rd 2018</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>May 3rd 2018</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>bot, beo, omg, bpo, fog</t>
+          <t>loin</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>geosparql</t>
+          <t>loin</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>geosparql</t>
-        </is>
-      </c>
-      <c r="AA132" t="inlineStr"/>
+          <t>loin</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>dc, isoprops, prov, schema, skos, vann, vs</t>
+        </is>
+      </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>dcterms, dce</t>
+          <t>dc, dcat, qudt, vann, schema, isoprops, unit, skos</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>dcterms, dce</t>
+          <t>dc, dcat, qudt, vann, schema, isoprops, unit, skos</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -33361,16 +33566,16 @@
         <v>1</v>
       </c>
       <c r="AJ132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM132" t="n">
-        <v>0</v>
+        <v>59.7</v>
       </c>
       <c r="AN132" t="inlineStr"/>
       <c r="AO132" t="b">
@@ -33379,18 +33584,34 @@
       <c r="AP132" t="b">
         <v>0</v>
       </c>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
+      <c r="AQ132" t="inlineStr">
+        <is>
+          <t>isoprops, loin</t>
+        </is>
+      </c>
+      <c r="AR132" t="inlineStr">
+        <is>
+          <t>isoprops, loin</t>
+        </is>
+      </c>
       <c r="AS132" t="inlineStr"/>
       <c r="AT132" t="n">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="AU132" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AV132" t="inlineStr"/>
+        <v>0.83</v>
+      </c>
+      <c r="AV132" t="inlineStr">
+        <is>
+          <t>ISO 23386, ISO 23387, ISO 7817</t>
+        </is>
+      </c>
       <c r="AW132" t="inlineStr"/>
-      <c r="AX132" t="inlineStr"/>
+      <c r="AX132" t="inlineStr">
+        <is>
+          <t>ISO 23386, ISO 23387, ISO 7817</t>
+        </is>
+      </c>
       <c r="AY132" t="b">
         <v>1</v>
       </c>
@@ -33401,17 +33622,9 @@
       <c r="BB132" t="inlineStr"/>
       <c r="BC132" t="inlineStr"/>
       <c r="BD132" t="inlineStr"/>
-      <c r="BE132" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0926580520300674#f0020</t>
-        </is>
-      </c>
+      <c r="BE132" t="inlineStr"/>
       <c r="BF132" t="inlineStr"/>
-      <c r="BG132" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0926580520300674#f0020</t>
-        </is>
-      </c>
+      <c r="BG132" t="inlineStr"/>
       <c r="BH132" t="inlineStr">
         <is>
           <t>BE Product (Building)</t>
@@ -33425,41 +33638,57 @@
       </c>
       <c r="BK132" t="inlineStr">
         <is>
-          <t>Remote Sensing</t>
+          <t>BE Product (Infrastructure)</t>
         </is>
       </c>
       <c r="BL132" t="inlineStr"/>
       <c r="BM132" t="inlineStr">
         <is>
-          <t>Remote Sensing</t>
-        </is>
-      </c>
-      <c r="BN132" t="inlineStr"/>
-      <c r="BO132" t="inlineStr"/>
-      <c r="BP132" t="inlineStr"/>
-      <c r="BQ132" t="inlineStr"/>
+          <t>BE Product (Infrastructure)</t>
+        </is>
+      </c>
+      <c r="BN132" t="inlineStr">
+        <is>
+          <t>n061ec797826f4bfdbc7ac7d7d80d8732b1, n061ec797826f4bfdbc7ac7d7d80d8732b3, n061ec797826f4bfdbc7ac7d7d80d8732b5, n061ec797826f4bfdbc7ac7d7d80d8732b7</t>
+        </is>
+      </c>
+      <c r="BO132" t="inlineStr">
+        <is>
+          <t>['n061ec797826f4bfdbc7ac7d7d80d8732b1', 'n061ec797826f4bfdbc7ac7d7d80d8732b3', 'n061ec797826f4bfdbc7ac7d7d80d8732b5', 'n061ec797826f4bfdbc7ac7d7d80d8732b7']</t>
+        </is>
+      </c>
+      <c r="BP132" t="inlineStr">
+        <is>
+          <t>n061ec797826f4bfdbc7ac7d7d80d8732b9</t>
+        </is>
+      </c>
+      <c r="BQ132" t="inlineStr">
+        <is>
+          <t>n061ec797826f4bfdbc7ac7d7d80d8732b9</t>
+        </is>
+      </c>
       <c r="BR132" t="inlineStr">
         <is>
-          <t>{: https://raw.githubusercontent.com/JWerbrouck/Thesis/master/stg.ttl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {owl: http://www.w3.org/2002/07/owl#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dcterms: http://purl.org/dc/terms/}, {dce: http://purl.org/dc/elements/1.1/}, {geo: http://www.opengis.net/ont/geosparql#}</t>
+          <t>{dc: http://purl.org/dc/terms/}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {dcat: http://www.w3.org/ns/dcat#}, {loin: https://w3id.org/loin#}, {qudt: http://qudt.org/schema/qudt/}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {vann: http://purl.org/vocab/vann/}, {schema: https://schema.org/}, {isoprops: https://w3id.org/isoprops#}, {None: http://org.semanticweb.owlapi/error#}, {unit: http://qudt.org/vocab/unit/}, {skos: http://www.w3.org/2004/02/skos/core#}, {None: https://}, {None: https://creativecommons.org/licenses/by/4.0/}, {None: https://linkedbuildingdata.net/ldac2024/files/papers/}, {None: https://orcid.org/}, {None: https://www.inf.bi.ruhr-uni-bochum.de/iib/lehrstuhl/mitarbeiter/}, {None: https://www.uni-weimar.de/en/civil-and-environmental-engineering/chairs/construction-engineering-and-management/}, {None: https://www.uni-weimar.de/en/civil-engineering/chairs/construction-engineering-and-management/people/martina-mellenthin-filardo-msc/}</t>
         </is>
       </c>
       <c r="BS132" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="BT132" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="BU132" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BV132" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BW132" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BX132" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BY132" t="b">
         <v>1</v>
@@ -33477,158 +33706,140 @@
         <v>3</v>
       </c>
       <c r="CD132" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://w3id.org/tempo#</t>
+          <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/ActorOntology.owl#</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>tempo</t>
+          <t>th-actor</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>tempo</t>
+          <t>th-actor</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Data Templates Ontology</t>
+          <t>Users and Preference Information</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Data Templates Ontology</t>
+          <t>Users and Preference Information</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>The Data Template (DT) Ontology is based on concepts and principles for creating templates from ISO 23387 and the associated XML data schema</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
+          <t>An ontology describing user information and preferences for a Smart Home System. Part of ThinkHome ontologies</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1.01 Actor and Preference Ontology</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>The Data Template (DT) Ontology is based on concepts and principles for creating templates from ISO 23387 and the associated XML data schema</t>
+          <t>An ontology describing user information and preferences for a Smart Home System. Part of ThinkHome ontologies</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="n">
-        <v>2023</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>CC BY 4.0</t>
-        </is>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>CC BY 4.0</t>
-        </is>
-      </c>
-      <c r="U133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="n">
+        <v>1.01</v>
+      </c>
       <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr">
-        <is>
-          <t>loin</t>
-        </is>
-      </c>
+      <c r="W133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>loin</t>
-        </is>
-      </c>
+      <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>dc, isoprops, prov, schema, skos, vann, vs</t>
-        </is>
-      </c>
-      <c r="AB133" t="inlineStr"/>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
       <c r="AC133" t="inlineStr">
         <is>
-          <t>dc, isoprops, prov, schema, skos, vann, vs</t>
+          <t>time</t>
         </is>
       </c>
       <c r="AD133" t="b">
         <v>1</v>
       </c>
       <c r="AE133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF133" t="b">
         <v>1</v>
       </c>
       <c r="AG133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH133" t="inlineStr"/>
       <c r="AI133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ133" t="b">
         <v>1</v>
       </c>
-      <c r="AK133" t="inlineStr"/>
+      <c r="AK133" t="b">
+        <v>0</v>
+      </c>
       <c r="AL133" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>37.5</v>
+      </c>
       <c r="AN133" t="inlineStr"/>
       <c r="AO133" t="b">
         <v>0</v>
       </c>
-      <c r="AP133" t="inlineStr"/>
-      <c r="AQ133" t="inlineStr">
-        <is>
-          <t>isoprops, loin</t>
-        </is>
-      </c>
-      <c r="AR133" t="inlineStr">
-        <is>
-          <t>isoprops, loin</t>
-        </is>
-      </c>
+      <c r="AP133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ133" t="inlineStr"/>
+      <c r="AR133" t="inlineStr"/>
       <c r="AS133" t="inlineStr"/>
       <c r="AT133" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AU133" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AV133" t="inlineStr">
-        <is>
-          <t>ISO 23386, ISO 23387, ISO 7817</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AV133" t="inlineStr"/>
       <c r="AW133" t="inlineStr"/>
-      <c r="AX133" t="inlineStr">
-        <is>
-          <t>ISO 23386, ISO 23387, ISO 7817</t>
-        </is>
-      </c>
+      <c r="AX133" t="inlineStr"/>
       <c r="AY133" t="b">
         <v>1</v>
       </c>
@@ -33639,106 +33850,122 @@
       <c r="BB133" t="inlineStr"/>
       <c r="BC133" t="inlineStr"/>
       <c r="BD133" t="inlineStr"/>
-      <c r="BE133" t="inlineStr"/>
+      <c r="BE133" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/users-and-preference-information</t>
+        </is>
+      </c>
       <c r="BF133" t="inlineStr"/>
-      <c r="BG133" t="inlineStr"/>
+      <c r="BG133" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/users-and-preference-information</t>
+        </is>
+      </c>
       <c r="BH133" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="BI133" t="inlineStr"/>
       <c r="BJ133" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
-        </is>
-      </c>
-      <c r="BK133" t="inlineStr">
-        <is>
-          <t>BE Product (Infrastructure)</t>
-        </is>
-      </c>
+          <t>Comfort</t>
+        </is>
+      </c>
+      <c r="BK133" t="inlineStr"/>
       <c r="BL133" t="inlineStr"/>
-      <c r="BM133" t="inlineStr">
-        <is>
-          <t>BE Product (Infrastructure)</t>
-        </is>
-      </c>
+      <c r="BM133" t="inlineStr"/>
       <c r="BN133" t="inlineStr"/>
-      <c r="BO133" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO133" t="inlineStr"/>
       <c r="BP133" t="inlineStr"/>
       <c r="BQ133" t="inlineStr"/>
-      <c r="BR133" t="inlineStr"/>
-      <c r="BS133" t="inlineStr"/>
-      <c r="BT133" t="inlineStr"/>
-      <c r="BU133" t="inlineStr"/>
-      <c r="BV133" t="inlineStr"/>
-      <c r="BW133" t="inlineStr"/>
-      <c r="BX133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {time: http://www.w3.org/2006/time#}, {None: http://www.w3.org/2006/}, {None: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/actor/}</t>
+        </is>
+      </c>
+      <c r="BS133" t="n">
+        <v>60</v>
+      </c>
+      <c r="BT133" t="n">
+        <v>60</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW133" t="n">
+        <v>15</v>
+      </c>
+      <c r="BX133" t="n">
+        <v>15</v>
+      </c>
       <c r="BY133" t="b">
         <v>1</v>
       </c>
       <c r="BZ133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA133" t="b">
         <v>0</v>
       </c>
       <c r="CB133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC133" t="n">
         <v>3</v>
       </c>
       <c r="CD133" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntology.owl#</t>
+        </is>
+      </c>
       <c r="B134" t="b">
-        <v>0</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>th-actor</t>
+          <t>th-building</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>th-actor</t>
+          <t>th-building</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Users and Preference Information</t>
+          <t>Architecture and Building Physics Information Ontology</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Users and Preference Information</t>
+          <t>Architecture and Building Physics Information Ontology</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An ontology describing user information and preferences for a Smart Home System. Part of ThinkHome ontologies</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr"/>
+          <t>An ontology representing building information (e.g. structure, material, architecture) for Smart Home Systems. Part of ThinkHome ontologies</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>basic classes, properties and customized datatypes have been created through XSLT transformation from gbXML schema version 5.10 (2013) (www.gbxml.org)</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>An ontology describing user information and preferences for a Smart Home System. Part of ThinkHome ontologies</t>
+          <t>An ontology representing building information (e.g. structure, material, architecture) for Smart Home Systems. Part of ThinkHome ontologies</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -33754,31 +33981,53 @@
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
+        <v>1.12</v>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>1.12 Building Information Ontology</t>
+        </is>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>1.12 Building Information Ontology</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>th-sharedvoc</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr">
+        <is>
+          <t>th-sharedvoc</t>
+        </is>
+      </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>th-sharedvoc</t>
+        </is>
+      </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="AB134" t="inlineStr"/>
+          <t>swrl, swrlb</t>
+        </is>
+      </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>swrl, swrlb</t>
+        </is>
+      </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>swrl, swrlb</t>
         </is>
       </c>
       <c r="AD134" t="b">
         <v>1</v>
       </c>
       <c r="AE134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF134" t="b">
         <v>1</v>
@@ -33791,18 +34040,24 @@
         <v>0</v>
       </c>
       <c r="AJ134" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AK134" t="b">
+        <v>0</v>
+      </c>
       <c r="AL134" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>36.7</v>
+      </c>
       <c r="AN134" t="inlineStr"/>
       <c r="AO134" t="b">
         <v>0</v>
       </c>
-      <c r="AP134" t="inlineStr"/>
+      <c r="AP134" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ134" t="inlineStr"/>
       <c r="AR134" t="inlineStr"/>
       <c r="AS134" t="inlineStr"/>
@@ -33816,115 +34071,131 @@
       <c r="AW134" t="inlineStr"/>
       <c r="AX134" t="inlineStr"/>
       <c r="AY134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ134" t="inlineStr"/>
       <c r="BA134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB134" t="inlineStr"/>
       <c r="BC134" t="inlineStr"/>
       <c r="BD134" t="inlineStr"/>
       <c r="BE134" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/users-and-preference-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
         </is>
       </c>
       <c r="BF134" t="inlineStr"/>
       <c r="BG134" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/users-and-preference-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
         </is>
       </c>
       <c r="BH134" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BI134" t="inlineStr"/>
       <c r="BJ134" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BK134" t="inlineStr"/>
       <c r="BL134" t="inlineStr"/>
       <c r="BM134" t="inlineStr"/>
       <c r="BN134" t="inlineStr"/>
-      <c r="BO134" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO134" t="inlineStr"/>
       <c r="BP134" t="inlineStr"/>
       <c r="BQ134" t="inlineStr"/>
-      <c r="BR134" t="inlineStr"/>
-      <c r="BS134" t="inlineStr"/>
-      <c r="BT134" t="inlineStr"/>
-      <c r="BU134" t="inlineStr"/>
-      <c r="BV134" t="inlineStr"/>
-      <c r="BW134" t="inlineStr"/>
-      <c r="BX134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {swrl: http://www.w3.org/2003/11/swrl#}, {swrlb: http://www.w3.org/2003/11/swrlb#}, {BuildingOntologySharedVocabulary: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntologySharedVocabulary.owl#}, {None: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/building/}</t>
+        </is>
+      </c>
+      <c r="BS134" t="n">
+        <v>880</v>
+      </c>
+      <c r="BT134" t="n">
+        <v>880</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>207</v>
+      </c>
+      <c r="BV134" t="n">
+        <v>207</v>
+      </c>
+      <c r="BW134" t="n">
+        <v>232</v>
+      </c>
+      <c r="BX134" t="n">
+        <v>232</v>
+      </c>
       <c r="BY134" t="b">
         <v>1</v>
       </c>
       <c r="BZ134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA134" t="b">
         <v>0</v>
       </c>
       <c r="CB134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC134" t="n">
         <v>2</v>
       </c>
       <c r="CD134" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/EnergyResourceOntology.owl#</t>
+        </is>
+      </c>
       <c r="B135" t="b">
-        <v>0</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>th-building</t>
+          <t>th-energy</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>th-building</t>
+          <t>th-energy</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Architecture and Building Physics Information Ontology</t>
+          <t>Energy and Resource Information</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Architecture and Building Physics Information Ontology</t>
+          <t>Energy and Resource Information</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>An ontology representing building information (e.g. structure, material, architecture) for Smart Home Systems. Part of ThinkHome ontologies</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr"/>
+          <t>An ontology representing energy information for Smart Home Systems. Part of ThinkHome ontologies</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Home automation conceptualization is based on DogOnt 1.0.5 Home Automation Ontology.</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>An ontology representing building information (e.g. structure, material, architecture) for Smart Home Systems. Part of ThinkHome ontologies</t>
+          <t>An ontology representing energy information for Smart Home Systems. Part of ThinkHome ontologies</t>
         </is>
       </c>
       <c r="M135" t="n">
@@ -33940,31 +34211,41 @@
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X135" t="inlineStr">
-        <is>
-          <t>th-sharedvocab</t>
-        </is>
-      </c>
+        <v>1.03</v>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>1.03 EnergyResource Ontology</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>1.03 EnergyResource Ontology</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>th-sharedvocab</t>
-        </is>
-      </c>
-      <c r="AA135" t="inlineStr"/>
-      <c r="AB135" t="inlineStr"/>
-      <c r="AC135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>time, timezone, swrl, swrlb, owlapi</t>
+        </is>
+      </c>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>time, owlapi, timezone</t>
+        </is>
+      </c>
+      <c r="AC135" t="inlineStr">
+        <is>
+          <t>time, owlapi, timezone</t>
+        </is>
+      </c>
       <c r="AD135" t="b">
         <v>1</v>
       </c>
       <c r="AE135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF135" t="b">
         <v>1</v>
@@ -33977,21 +34258,29 @@
         <v>0</v>
       </c>
       <c r="AJ135" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AK135" t="b">
+        <v>1</v>
+      </c>
       <c r="AL135" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>58.6</v>
+      </c>
       <c r="AN135" t="inlineStr"/>
       <c r="AO135" t="b">
         <v>0</v>
       </c>
-      <c r="AP135" t="inlineStr"/>
+      <c r="AP135" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ135" t="inlineStr"/>
       <c r="AR135" t="inlineStr"/>
-      <c r="AS135" t="inlineStr"/>
+      <c r="AS135" t="n">
+        <v>15</v>
+      </c>
       <c r="AT135" t="n">
         <v>0</v>
       </c>
@@ -34002,60 +34291,72 @@
       <c r="AW135" t="inlineStr"/>
       <c r="AX135" t="inlineStr"/>
       <c r="AY135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ135" t="inlineStr"/>
       <c r="BA135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB135" t="inlineStr"/>
       <c r="BC135" t="inlineStr"/>
       <c r="BD135" t="inlineStr"/>
       <c r="BE135" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/energy-and-resource-information</t>
         </is>
       </c>
       <c r="BF135" t="inlineStr"/>
       <c r="BG135" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/energy-and-resource-information</t>
         </is>
       </c>
       <c r="BH135" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="BI135" t="inlineStr"/>
       <c r="BJ135" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="BK135" t="inlineStr"/>
       <c r="BL135" t="inlineStr"/>
       <c r="BM135" t="inlineStr"/>
       <c r="BN135" t="inlineStr"/>
-      <c r="BO135" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO135" t="inlineStr"/>
       <c r="BP135" t="inlineStr"/>
       <c r="BQ135" t="inlineStr"/>
-      <c r="BR135" t="inlineStr"/>
-      <c r="BS135" t="inlineStr"/>
-      <c r="BT135" t="inlineStr"/>
-      <c r="BU135" t="inlineStr"/>
-      <c r="BV135" t="inlineStr"/>
-      <c r="BW135" t="inlineStr"/>
-      <c r="BX135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {time: http://www.w3.org/2006/time#}, {owlapi: http://www.semanticweb.org/owlapi#}, {timezone: http://www.w3.org/2006/timezone#}, {None: http://www.w3.org/2006/}, {None: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/energy/}</t>
+        </is>
+      </c>
+      <c r="BS135" t="n">
+        <v>710</v>
+      </c>
+      <c r="BT135" t="n">
+        <v>710</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV135" t="n">
+        <v>44</v>
+      </c>
+      <c r="BW135" t="n">
+        <v>76</v>
+      </c>
+      <c r="BX135" t="n">
+        <v>76</v>
+      </c>
       <c r="BY135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA135" t="b">
         <v>0</v>
@@ -34064,53 +34365,57 @@
         <v>1</v>
       </c>
       <c r="CC135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD135" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/ProcessOntology.owl#</t>
+        </is>
+      </c>
       <c r="B136" t="b">
-        <v>0</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>th-energy</t>
+          <t>th-process</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>th-energy</t>
+          <t>th-process</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Energy and Resource Information</t>
+          <t>User Behavior and Building Process Information</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Energy and Resource Information</t>
+          <t>User Behavior and Building Process Information</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>An ontology representing energy information for Smart Home Systems. Part of ThinkHome ontologies</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr"/>
+          <t>An ontology representing processes in Smart Home Systems. Part of ThinkHome ontologies</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>an ontology to represent applications, processes, profiles and patterns for smart home operation</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>An ontology representing energy information for Smart Home Systems. Part of ThinkHome ontologies</t>
+          <t>An ontology representing processes in Smart Home Systems. Part of ThinkHome ontologies</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -34126,21 +34431,31 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>1.14 Process and Profiles Ontology</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>1.14 Process and Profiles Ontology</t>
+        </is>
       </c>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="inlineStr">
         <is>
+          <t>time, timezone</t>
+        </is>
+      </c>
+      <c r="AB136" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="AB136" t="inlineStr"/>
       <c r="AC136" t="inlineStr">
         <is>
           <t>time</t>
@@ -34150,7 +34465,7 @@
         <v>1</v>
       </c>
       <c r="AE136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF136" t="b">
         <v>1</v>
@@ -34165,21 +34480,25 @@
       <c r="AJ136" t="b">
         <v>1</v>
       </c>
-      <c r="AK136" t="inlineStr"/>
+      <c r="AK136" t="b">
+        <v>0</v>
+      </c>
       <c r="AL136" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>33</v>
+      </c>
       <c r="AN136" t="inlineStr"/>
       <c r="AO136" t="b">
         <v>0</v>
       </c>
-      <c r="AP136" t="inlineStr"/>
+      <c r="AP136" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ136" t="inlineStr"/>
       <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="n">
-        <v>15</v>
-      </c>
+      <c r="AS136" t="inlineStr"/>
       <c r="AT136" t="n">
         <v>0</v>
       </c>
@@ -34190,24 +34509,24 @@
       <c r="AW136" t="inlineStr"/>
       <c r="AX136" t="inlineStr"/>
       <c r="AY136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ136" t="inlineStr"/>
       <c r="BA136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB136" t="inlineStr"/>
       <c r="BC136" t="inlineStr"/>
       <c r="BD136" t="inlineStr"/>
       <c r="BE136" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/energy-and-resource-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/user-behavior-and-building-process-information</t>
         </is>
       </c>
       <c r="BF136" t="inlineStr"/>
       <c r="BG136" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/energy-and-resource-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/user-behavior-and-building-process-information</t>
         </is>
       </c>
       <c r="BH136" t="inlineStr">
@@ -34225,20 +34544,32 @@
       <c r="BL136" t="inlineStr"/>
       <c r="BM136" t="inlineStr"/>
       <c r="BN136" t="inlineStr"/>
-      <c r="BO136" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO136" t="inlineStr"/>
       <c r="BP136" t="inlineStr"/>
       <c r="BQ136" t="inlineStr"/>
-      <c r="BR136" t="inlineStr"/>
-      <c r="BS136" t="inlineStr"/>
-      <c r="BT136" t="inlineStr"/>
-      <c r="BU136" t="inlineStr"/>
-      <c r="BV136" t="inlineStr"/>
-      <c r="BW136" t="inlineStr"/>
-      <c r="BX136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {time: http://www.w3.org/2006/time#}, {None: http://www.w3.org/2006/}, {None: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/process/}</t>
+        </is>
+      </c>
+      <c r="BS136" t="n">
+        <v>240</v>
+      </c>
+      <c r="BT136" t="n">
+        <v>240</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW136" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX136" t="n">
+        <v>30</v>
+      </c>
       <c r="BY136" t="b">
         <v>1</v>
       </c>
@@ -34255,50 +34586,54 @@
         <v>2</v>
       </c>
       <c r="CD136" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/BuildingOntologySharedVocabulary.owl</t>
+        </is>
+      </c>
       <c r="B137" t="b">
-        <v>0</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>th-process</t>
+          <t>th-sharedvoc</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>th-process</t>
+          <t>th-sharedvoc</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>User Behavior and Building Process Information</t>
+          <t>Buildling Ontology Shared Vocabulary</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>User Behavior and Building Process Information</t>
+          <t>Buildling Ontology Shared Vocabulary</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An ontology representing processes in Smart Home Systems. Part of ThinkHome ontologies</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr"/>
+          <t>Shared vocabulary for th-building</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>simple shared vocabulary for Building Information Models</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>An ontology representing processes in Smart Home Systems. Part of ThinkHome ontologies</t>
+          <t>Shared vocabulary for th-building</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -34314,31 +34649,29 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>1.12 Building Information Shared Vocabulary Ontology</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>1.12 Building Information Shared Vocabulary Ontology</t>
+        </is>
       </c>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
+      <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
+      <c r="AC137" t="inlineStr"/>
       <c r="AD137" t="b">
         <v>1</v>
       </c>
       <c r="AE137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF137" t="b">
         <v>1</v>
@@ -34351,20 +34684,34 @@
         <v>0</v>
       </c>
       <c r="AJ137" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AK137" t="b">
+        <v>1</v>
+      </c>
       <c r="AL137" t="b">
         <v>1</v>
       </c>
-      <c r="AM137" t="inlineStr"/>
+      <c r="AM137" t="n">
+        <v>69.40000000000001</v>
+      </c>
       <c r="AN137" t="inlineStr"/>
       <c r="AO137" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP137" t="inlineStr"/>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AP137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ137" t="inlineStr">
+        <is>
+          <t>th-building</t>
+        </is>
+      </c>
+      <c r="AR137" t="inlineStr">
+        <is>
+          <t>th-building</t>
+        </is>
+      </c>
       <c r="AS137" t="inlineStr"/>
       <c r="AT137" t="n">
         <v>0</v>
@@ -34387,46 +34734,58 @@
       <c r="BD137" t="inlineStr"/>
       <c r="BE137" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/user-behavior-and-building-process-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
         </is>
       </c>
       <c r="BF137" t="inlineStr"/>
       <c r="BG137" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/user-behavior-and-building-process-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
         </is>
       </c>
       <c r="BH137" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BI137" t="inlineStr"/>
       <c r="BJ137" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BK137" t="inlineStr"/>
       <c r="BL137" t="inlineStr"/>
       <c r="BM137" t="inlineStr"/>
       <c r="BN137" t="inlineStr"/>
-      <c r="BO137" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO137" t="inlineStr"/>
       <c r="BP137" t="inlineStr"/>
       <c r="BQ137" t="inlineStr"/>
-      <c r="BR137" t="inlineStr"/>
-      <c r="BS137" t="inlineStr"/>
-      <c r="BT137" t="inlineStr"/>
-      <c r="BU137" t="inlineStr"/>
-      <c r="BV137" t="inlineStr"/>
-      <c r="BW137" t="inlineStr"/>
-      <c r="BX137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/building/}</t>
+        </is>
+      </c>
+      <c r="BS137" t="n">
+        <v>37</v>
+      </c>
+      <c r="BT137" t="n">
+        <v>37</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX137" t="n">
+        <v>5</v>
+      </c>
       <c r="BY137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ137" t="b">
         <v>0</v>
@@ -34435,56 +34794,60 @@
         <v>0</v>
       </c>
       <c r="CB137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD137" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/WeatherOntology.owl#</t>
+        </is>
+      </c>
       <c r="B138" t="b">
-        <v>0</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>th-sharedvocabulary</t>
+          <t>th-weather</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>th-sharedvocabulary</t>
+          <t>th-weather</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Buildling Ontology Shared Vocabulary</t>
+          <t>Weather and Exterior Influence Information</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Buildling Ontology Shared Vocabulary</t>
+          <t>Weather and Exterior Influence Information</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Shared vocabulary for th-building</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr"/>
+          <t>An ontology representing exterior influences for Smart Home Systems. Part of ThinkHome ontologies</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>smart home ontology for weather phenomena and exterior conditions</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Shared vocabulary for th-building</t>
+          <t>An ontology representing exterior influences for Smart Home Systems. Part of ThinkHome ontologies</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -34500,23 +34863,45 @@
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X138" t="inlineStr"/>
+        <v>1.03</v>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>wgs84</t>
+        </is>
+      </c>
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>time, wgs84_pos</t>
+        </is>
+      </c>
+      <c r="AC138" t="inlineStr">
+        <is>
+          <t>time, wgs84_pos</t>
+        </is>
+      </c>
       <c r="AD138" t="b">
         <v>1</v>
       </c>
       <c r="AE138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF138" t="b">
         <v>1</v>
@@ -34531,16 +34916,22 @@
       <c r="AJ138" t="b">
         <v>0</v>
       </c>
-      <c r="AK138" t="inlineStr"/>
+      <c r="AK138" t="b">
+        <v>0</v>
+      </c>
       <c r="AL138" t="b">
         <v>0</v>
       </c>
-      <c r="AM138" t="inlineStr"/>
+      <c r="AM138" t="n">
+        <v>22.3</v>
+      </c>
       <c r="AN138" t="inlineStr"/>
       <c r="AO138" t="b">
         <v>0</v>
       </c>
-      <c r="AP138" t="inlineStr"/>
+      <c r="AP138" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ138" t="inlineStr"/>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -34565,46 +34956,58 @@
       <c r="BD138" t="inlineStr"/>
       <c r="BE138" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/weather-and-exterior-influence-information</t>
         </is>
       </c>
       <c r="BF138" t="inlineStr"/>
       <c r="BG138" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/architecture-and-building-physics-information</t>
+          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/weather-and-exterior-influence-information</t>
         </is>
       </c>
       <c r="BH138" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Weather/Climate</t>
         </is>
       </c>
       <c r="BI138" t="inlineStr"/>
       <c r="BJ138" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Weather/Climate</t>
         </is>
       </c>
       <c r="BK138" t="inlineStr"/>
       <c r="BL138" t="inlineStr"/>
       <c r="BM138" t="inlineStr"/>
       <c r="BN138" t="inlineStr"/>
-      <c r="BO138" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO138" t="inlineStr"/>
       <c r="BP138" t="inlineStr"/>
       <c r="BQ138" t="inlineStr"/>
-      <c r="BR138" t="inlineStr"/>
-      <c r="BS138" t="inlineStr"/>
-      <c r="BT138" t="inlineStr"/>
-      <c r="BU138" t="inlineStr"/>
-      <c r="BV138" t="inlineStr"/>
-      <c r="BW138" t="inlineStr"/>
-      <c r="BX138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {time: http://www.w3.org/2006/time#}, {wgs84_pos: http://www.w3.org/2003/01/geo/wgs84_pos#}, {None: http://www.w3.org/2006/}, {None: https://www.auto.tuwien.ac.at/downloads/thinkhome/ontology/weather/}</t>
+        </is>
+      </c>
+      <c r="BS138" t="n">
+        <v>223</v>
+      </c>
+      <c r="BT138" t="n">
+        <v>223</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>16</v>
+      </c>
+      <c r="BV138" t="n">
+        <v>16</v>
+      </c>
+      <c r="BW138" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX138" t="n">
+        <v>21</v>
+      </c>
       <c r="BY138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ138" t="b">
         <v>0</v>
@@ -34613,13 +35016,13 @@
         <v>0</v>
       </c>
       <c r="CB138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD138" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="139">
@@ -34634,85 +35037,73 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>th-weather</t>
+          <t>uno</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>th-weather</t>
+          <t>uno</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Weather and Exterior Influence Information</t>
+          <t>User Navigation Ontology</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Weather and Exterior Influence Information</t>
+          <t>User Navigation Ontology</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>An ontology representing exterior influences for Smart Home Systems. Part of ThinkHome ontologies</t>
+          <t>Tracking user’s movement on the suggested path and providing with useful information about user location and motion state</t>
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
-          <t>An ontology representing exterior influences for Smart Home Systems. Part of ThinkHome ontologies</t>
+          <t>Tracking user’s movement on the suggested path and providing with useful information about user location and motion state</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
-      <c r="W139" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
+      <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
+      <c r="AC139" t="inlineStr"/>
       <c r="AD139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE139" t="b">
         <v>0</v>
       </c>
       <c r="AF139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH139" t="inlineStr"/>
       <c r="AI139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ139" t="b">
         <v>0</v>
@@ -34740,35 +35131,35 @@
       <c r="AW139" t="inlineStr"/>
       <c r="AX139" t="inlineStr"/>
       <c r="AY139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ139" t="inlineStr"/>
       <c r="BA139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB139" t="inlineStr"/>
       <c r="BC139" t="inlineStr"/>
       <c r="BD139" t="inlineStr"/>
       <c r="BE139" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/weather-and-exterior-influence-information</t>
+          <t>https://www.researchgate.net/publication/228579405_Ontology-based_user_modeling_for_pedestrian_navigation_systems</t>
         </is>
       </c>
       <c r="BF139" t="inlineStr"/>
       <c r="BG139" t="inlineStr">
         <is>
-          <t>https://www.auto.tuwien.ac.at/index.php/research-fields/ontology/weather-and-exterior-influence-information</t>
+          <t>https://www.researchgate.net/publication/228579405_Ontology-based_user_modeling_for_pedestrian_navigation_systems</t>
         </is>
       </c>
       <c r="BH139" t="inlineStr">
         <is>
-          <t>Weather/Climate</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="BI139" t="inlineStr"/>
       <c r="BJ139" t="inlineStr">
         <is>
-          <t>Weather/Climate</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="BK139" t="inlineStr"/>
@@ -34790,7 +35181,7 @@
       <c r="BW139" t="inlineStr"/>
       <c r="BX139" t="inlineStr"/>
       <c r="BY139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ139" t="b">
         <v>0</v>
@@ -34799,87 +35190,136 @@
         <v>0</v>
       </c>
       <c r="CB139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC139" t="n">
         <v>1</v>
       </c>
       <c r="CD139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://w3id.org/unocs#</t>
+        </is>
+      </c>
       <c r="B140" t="b">
-        <v>0</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>uno</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>unocs</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>unocs</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>uno</t>
+          <t>unocs</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>User Navigation Ontology</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr"/>
+          <t>UNified Ontology for Construction Safety</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Digital Construction Agents</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>User Navigation Ontology</t>
+          <t>Digital Construction Agents</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Tracking user’s movement on the suggested path and providing with useful information about user location and motion state</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr"/>
+          <t>UNOCS is a safety ontology designed to unify construction safety knowledge from diverse sources, enabling automated reasoning, safety rule checking, and improved hazard identification. By integrating data from BIM, IoT, and virtual training, it supports informed decision-making and enhances interoperability among stakeholders.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>- UNOCS
+- CoreModel</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Tracking user’s movement on the suggested path and providing with useful information about user location and motion state</t>
+          <t>UNOCS is a safety ontology designed to unify construction safety knowledge from diverse sources, enabling automated reasoning, safety rule checking, and improved hazard identification. By integrating data from BIM, IoT, and virtual training, it supports informed decision-making and enhances interoperability among stakeholders.</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="n">
-        <v>2009</v>
-      </c>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
+        <v>2024</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>CC BY 4.0</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
-      <c r="AB140" t="inlineStr"/>
-      <c r="AC140" t="inlineStr"/>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>dicu, bot, dici, ocqa, opm</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>bot, dica, dicc, dice, dici, dicp, dicv, ocqa</t>
+        </is>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>bot, dica, dicc, dice, dici, dicp, dicv, ocqa</t>
+        </is>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
+          <t>vann</t>
+        </is>
+      </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, schema, opm</t>
+        </is>
+      </c>
+      <c r="AC140" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, schema, opm</t>
+        </is>
+      </c>
       <c r="AD140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG140" t="b">
         <v>1</v>
@@ -34889,26 +35329,32 @@
         <v>1</v>
       </c>
       <c r="AJ140" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AK140" t="b">
+        <v>0</v>
+      </c>
       <c r="AL140" t="b">
         <v>0</v>
       </c>
-      <c r="AM140" t="inlineStr"/>
+      <c r="AM140" t="n">
+        <v>1.4</v>
+      </c>
       <c r="AN140" t="inlineStr"/>
       <c r="AO140" t="b">
         <v>0</v>
       </c>
-      <c r="AP140" t="inlineStr"/>
+      <c r="AP140" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ140" t="inlineStr"/>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
       <c r="AT140" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AU140" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AV140" t="inlineStr"/>
       <c r="AW140" t="inlineStr"/>
@@ -34925,184 +35371,155 @@
       <c r="BD140" t="inlineStr"/>
       <c r="BE140" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/228579405_Ontology-based_user_modeling_for_pedestrian_navigation_systems</t>
+          <t>https://doi.org/10.1016/j.autcon.2025.106293</t>
         </is>
       </c>
       <c r="BF140" t="inlineStr"/>
       <c r="BG140" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/publication/228579405_Ontology-based_user_modeling_for_pedestrian_navigation_systems</t>
+          <t>https://doi.org/10.1016/j.autcon.2025.106293</t>
         </is>
       </c>
       <c r="BH140" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="BI140" t="inlineStr"/>
       <c r="BJ140" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="BK140" t="inlineStr"/>
       <c r="BL140" t="inlineStr"/>
       <c r="BM140" t="inlineStr"/>
-      <c r="BN140" t="inlineStr"/>
+      <c r="BN140" t="inlineStr">
+        <is>
+          <t>Kilian Speiser, Sebastian Seiß</t>
+        </is>
+      </c>
       <c r="BO140" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Kilian Speiser', 'Sebastian Seiß']</t>
         </is>
       </c>
       <c r="BP140" t="inlineStr"/>
       <c r="BQ140" t="inlineStr"/>
-      <c r="BR140" t="inlineStr"/>
-      <c r="BS140" t="inlineStr"/>
-      <c r="BT140" t="inlineStr"/>
-      <c r="BU140" t="inlineStr"/>
-      <c r="BV140" t="inlineStr"/>
-      <c r="BW140" t="inlineStr"/>
-      <c r="BX140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {None: http://w3id.org/digitalconstruction/0.5/}, {None: http://www.semanticweb.org/seiss_consultant/ontologies/2024/7/12/untitled-ontology-6/}, {None: http://www.w3id.org/unocs-exampleA#}, {None: https://creativecommons.org/licenses/by/4.0/}, {schema: https://schema.org/}, {None: https://w3id.org/}, {bot: https://w3id.org/bot#}, {dica: https://w3id.org/digitalconstruction/0.5/Agents#}, {dicc: https://w3id.org/digitalconstruction/0.5/Contexts#}, {dice: https://w3id.org/digitalconstruction/0.5/Entities#}, {dici: https://w3id.org/digitalconstruction/0.5/Information#}, {dicp: https://w3id.org/digitalconstruction/0.5/Processes#}, {dicv: https://w3id.org/digitalconstruction/0.5/Variables#}, {ocqa: https://w3id.org/ocqa#}, {None: https://w3id.org/ocqa-catalog#}, {None: https://w3id.org/ocqa-contract/}, {None: https://w3id.org/ocqa-regulation#}, {None: https://w3id.org/ocqa-rules/}, {None: https://w3id.org/ocqa/regulation#}, {None: https://w3id.org/ocr#}, {opm: https://w3id.org/opm#}</t>
+        </is>
+      </c>
+      <c r="BS140" t="n">
+        <v>405</v>
+      </c>
+      <c r="BT140" t="n">
+        <v>405</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>69</v>
+      </c>
+      <c r="BV140" t="n">
+        <v>69</v>
+      </c>
+      <c r="BW140" t="n">
+        <v>325</v>
+      </c>
+      <c r="BX140" t="n">
+        <v>325</v>
+      </c>
       <c r="BY140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD140" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>https://w3id.org/unocs#</t>
-        </is>
-      </c>
+      <c r="A141" t="inlineStr"/>
       <c r="B141" t="b">
-        <v>1</v>
-      </c>
-      <c r="C141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>File not found</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>unocs</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>unocs</t>
-        </is>
-      </c>
+          <t>upo</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>unocs</t>
+          <t>upo</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>UNified Ontology for Construction Safety</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Digital Construction Agents</t>
-        </is>
-      </c>
+          <t>User Profile Ontology</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Digital Construction Agents</t>
+          <t>User Profile Ontology</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>UNOCS is a safety ontology designed to unify construction safety knowledge from diverse sources, enabling automated reasoning, safety rule checking, and improved hazard identification. By integrating data from BIM, IoT, and virtual training, it supports informed decision-making and enhances interoperability among stakeholders.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>- UNOCS
-- CoreModel</t>
-        </is>
-      </c>
+          <t xml:space="preserve">UPO includes classes that describe different types of user, and other information which is required for classifying users under specific user groups. </t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>UNOCS is a safety ontology designed to unify construction safety knowledge from diverse sources, enabling automated reasoning, safety rule checking, and improved hazard identification. By integrating data from BIM, IoT, and virtual training, it supports informed decision-making and enhances interoperability among stakeholders.</t>
+          <t xml:space="preserve">UPO includes classes that describe different types of user, and other information which is required for classifying users under specific user groups. </t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="n">
-        <v>2024</v>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>CC BY 4.0</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>https://creativecommons.org/licenses/by/4.0/</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>https://creativecommons.org/licenses/by/4.0/</t>
-        </is>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr">
-        <is>
-          <t>dicu, bot, dici, ocqa, opm</t>
-        </is>
-      </c>
-      <c r="Y141" t="inlineStr">
-        <is>
-          <t>bot, dica, dicc, dice, dici, dicp, dicv, ocqa</t>
-        </is>
-      </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>bot, dica, dicc, dice, dici, dicp, dicv, ocqa</t>
-        </is>
-      </c>
-      <c r="AA141" t="inlineStr">
-        <is>
-          <t>vann</t>
-        </is>
-      </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>dc, dcterms, vann, schema, opm</t>
-        </is>
-      </c>
-      <c r="AC141" t="inlineStr">
-        <is>
-          <t>dc, dcterms, vann, schema, opm</t>
-        </is>
-      </c>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
       <c r="AD141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG141" t="b">
         <v>1</v>
@@ -35112,32 +35529,26 @@
         <v>1</v>
       </c>
       <c r="AJ141" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK141" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AK141" t="inlineStr"/>
       <c r="AL141" t="b">
         <v>0</v>
       </c>
-      <c r="AM141" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="AM141" t="inlineStr"/>
       <c r="AN141" t="inlineStr"/>
       <c r="AO141" t="b">
         <v>0</v>
       </c>
-      <c r="AP141" t="b">
-        <v>0</v>
-      </c>
+      <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr"/>
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
       <c r="AT141" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AU141" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AV141" t="inlineStr"/>
       <c r="AW141" t="inlineStr"/>
@@ -35154,155 +35565,179 @@
       <c r="BD141" t="inlineStr"/>
       <c r="BE141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.autcon.2025.106293</t>
+          <t>https://doi.org/10.3233/AIS-2009-0033</t>
         </is>
       </c>
       <c r="BF141" t="inlineStr"/>
       <c r="BG141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.autcon.2025.106293</t>
+          <t>https://doi.org/10.3233/AIS-2009-0033</t>
         </is>
       </c>
       <c r="BH141" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="BI141" t="inlineStr"/>
       <c r="BJ141" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="BK141" t="inlineStr"/>
       <c r="BL141" t="inlineStr"/>
       <c r="BM141" t="inlineStr"/>
-      <c r="BN141" t="inlineStr">
-        <is>
-          <t>Kilian Speiser, Sebastian Seiß</t>
-        </is>
-      </c>
+      <c r="BN141" t="inlineStr"/>
       <c r="BO141" t="inlineStr">
         <is>
-          <t>['Kilian Speiser', 'Sebastian Seiß']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="BP141" t="inlineStr"/>
       <c r="BQ141" t="inlineStr"/>
-      <c r="BR141" t="inlineStr">
-        <is>
-          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {None: http://w3id.org/digitalconstruction/0.5/}, {None: http://www.semanticweb.org/seiss_consultant/ontologies/2024/7/12/untitled-ontology-6/}, {None: http://www.w3id.org/unocs-exampleA#}, {None: https://creativecommons.org/licenses/by/4.0/}, {schema: https://schema.org/}, {None: https://w3id.org/}, {bot: https://w3id.org/bot#}, {dica: https://w3id.org/digitalconstruction/0.5/Agents#}, {dicc: https://w3id.org/digitalconstruction/0.5/Contexts#}, {dice: https://w3id.org/digitalconstruction/0.5/Entities#}, {dici: https://w3id.org/digitalconstruction/0.5/Information#}, {dicp: https://w3id.org/digitalconstruction/0.5/Processes#}, {dicv: https://w3id.org/digitalconstruction/0.5/Variables#}, {ocqa: https://w3id.org/ocqa#}, {None: https://w3id.org/ocqa-catalog#}, {None: https://w3id.org/ocqa-contract/}, {None: https://w3id.org/ocqa-regulation#}, {None: https://w3id.org/ocqa-rules/}, {None: https://w3id.org/ocqa/regulation#}, {None: https://w3id.org/ocr#}, {opm: https://w3id.org/opm#}</t>
-        </is>
-      </c>
-      <c r="BS141" t="n">
-        <v>405</v>
-      </c>
-      <c r="BT141" t="n">
-        <v>405</v>
-      </c>
-      <c r="BU141" t="n">
-        <v>69</v>
-      </c>
-      <c r="BV141" t="n">
-        <v>69</v>
-      </c>
-      <c r="BW141" t="n">
-        <v>325</v>
-      </c>
-      <c r="BX141" t="n">
-        <v>325</v>
-      </c>
+      <c r="BR141" t="inlineStr"/>
+      <c r="BS141" t="inlineStr"/>
+      <c r="BT141" t="inlineStr"/>
+      <c r="BU141" t="inlineStr"/>
+      <c r="BV141" t="inlineStr"/>
+      <c r="BW141" t="inlineStr"/>
+      <c r="BX141" t="inlineStr"/>
       <c r="BY141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CC141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD141" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://bimerr.iot.linkeddata.es/def/weather/</t>
+        </is>
+      </c>
       <c r="B142" t="b">
-        <v>0</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>upo</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>weat</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>weat</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>upo</t>
+          <t>weat</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>User Profile Ontology</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr"/>
+          <t>BIMERR Weather Ontology</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>BIMERR Weather Ontology</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>User Profile Ontology</t>
+          <t>BIMERR Weather Ontology</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t xml:space="preserve">UPO includes classes that describe different types of user, and other information which is required for classifying users under specific user groups. </t>
+          <t>Ontology for weather phenomena and exterior conditions.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t xml:space="preserve">UPO includes classes that describe different types of user, and other information which is required for classifying users under specific user groups. </t>
+          <t>Ontology for weather phenomena and exterior conditions.</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="n">
-        <v>2009</v>
-      </c>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
+        <v>2020</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CC BY 4.0 </t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>http://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>http://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>saref, s4city</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>sosa, ssn, saref</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>sosa, ssn, saref</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, skos, schema, wgs84_pos, om-2</t>
+        </is>
+      </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, schema, wgs84_pos, skos</t>
+        </is>
+      </c>
+      <c r="AC142" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, schema, wgs84_pos, skos</t>
+        </is>
+      </c>
       <c r="AD142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG142" t="b">
         <v>1</v>
@@ -35312,26 +35747,32 @@
         <v>1</v>
       </c>
       <c r="AJ142" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AK142" t="b">
+        <v>1</v>
+      </c>
       <c r="AL142" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>96</v>
+      </c>
       <c r="AN142" t="inlineStr"/>
       <c r="AO142" t="b">
         <v>0</v>
       </c>
-      <c r="AP142" t="inlineStr"/>
+      <c r="AP142" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ142" t="inlineStr"/>
       <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr"/>
       <c r="AT142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AV142" t="inlineStr"/>
       <c r="AW142" t="inlineStr"/>
@@ -35343,165 +35784,177 @@
       <c r="BA142" t="b">
         <v>1</v>
       </c>
-      <c r="BB142" t="inlineStr"/>
+      <c r="BB142" t="inlineStr">
+        <is>
+          <t>BIMERR</t>
+        </is>
+      </c>
       <c r="BC142" t="inlineStr"/>
-      <c r="BD142" t="inlineStr"/>
+      <c r="BD142" t="inlineStr">
+        <is>
+          <t>BIMERR</t>
+        </is>
+      </c>
       <c r="BE142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3233/AIS-2009-0033</t>
+          <t>https://bimerr.iot.linkeddata.es/</t>
         </is>
       </c>
       <c r="BF142" t="inlineStr"/>
       <c r="BG142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3233/AIS-2009-0033</t>
+          <t>https://bimerr.iot.linkeddata.es/</t>
         </is>
       </c>
       <c r="BH142" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Weather/Climate</t>
         </is>
       </c>
       <c r="BI142" t="inlineStr"/>
       <c r="BJ142" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Weather/Climate</t>
         </is>
       </c>
       <c r="BK142" t="inlineStr"/>
       <c r="BL142" t="inlineStr"/>
       <c r="BM142" t="inlineStr"/>
-      <c r="BN142" t="inlineStr"/>
+      <c r="BN142" t="inlineStr">
+        <is>
+          <t>Salvador González-Gerpe https://www.linkedin.com/in/artificialintelligence-researcher-salvadorgonzalezgerpe</t>
+        </is>
+      </c>
       <c r="BO142" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BP142" t="inlineStr"/>
-      <c r="BQ142" t="inlineStr"/>
-      <c r="BR142" t="inlineStr"/>
-      <c r="BS142" t="inlineStr"/>
-      <c r="BT142" t="inlineStr"/>
-      <c r="BU142" t="inlineStr"/>
-      <c r="BV142" t="inlineStr"/>
-      <c r="BW142" t="inlineStr"/>
-      <c r="BX142" t="inlineStr"/>
+          <t>['Salvador González-Gerpe https://www.linkedin.com/in/artificialintelligence-researcher-salvadorgonzalezgerpe']</t>
+        </is>
+      </c>
+      <c r="BP142" t="inlineStr">
+        <is>
+          <t>https://oeg.fi.upm.es/</t>
+        </is>
+      </c>
+      <c r="BQ142" t="inlineStr">
+        <is>
+          <t>https://oeg.fi.upm.es/</t>
+        </is>
+      </c>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://creativecommons.org/licenses/by/4.0/}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {vann: http://purl.org/vocab/vann/}, {schema: http://schema.org/}, {None: http://www.ontology-of-units-of-measure.org/resource/om-2/}, {wgs84_pos: http://www.w3.org/2003/01/geo/wgs84_pos#}, {skos: http://www.w3.org/2004/02/skos/core#}, {sosa: http://www.w3.org/ns/sosa/}, {ssn: http://www.w3.org/ns/ssn/}, {None: https://oeg.fi.upm.es/}, {saref: https://saref.etsi.org/core/}, {None: https://w3id.org/def/saref4city#}, {None: https://w3id.org/saref#}</t>
+        </is>
+      </c>
+      <c r="BS142" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT142" t="n">
+        <v>30</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW142" t="n">
+        <v>18</v>
+      </c>
+      <c r="BX142" t="n">
+        <v>18</v>
+      </c>
       <c r="BY142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://bimerr.iot.linkeddata.es/def/weather/</t>
+          <t>https://w3.org/2003/01/geo/wgs84_pos#</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>weat</t>
+          <t>wgs84</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>weat</t>
+          <t>wgs84</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>BIMERR Weather Ontology</t>
+          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>BIMERR Weather Ontology</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Ontology for weather phenomena and exterior conditions.</t>
-        </is>
-      </c>
+          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Ontology for weather phenomena and exterior conditions.</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="n">
-        <v>2020</v>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CC BY 4.0 </t>
-        </is>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CC BY 4.0 </t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>1.21</v>
+      </c>
       <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr">
-        <is>
-          <t>saref, s4city</t>
-        </is>
-      </c>
+      <c r="W143" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>saref, s4city</t>
-        </is>
-      </c>
-      <c r="AA143" t="inlineStr">
-        <is>
-          <t>dc, dcterms, vann, skos, schema, wgs84_pos, om-2</t>
-        </is>
-      </c>
-      <c r="AB143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>dc, wgs84_pos, foaf</t>
+        </is>
+      </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>dc, dcterms, vann, skos, schema, wgs84_pos, om-2</t>
+          <t>dc, wgs84_pos, foaf</t>
         </is>
       </c>
       <c r="AD143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF143" t="b">
         <v>1</v>
@@ -35516,175 +35969,187 @@
       <c r="AJ143" t="b">
         <v>1</v>
       </c>
-      <c r="AK143" t="inlineStr"/>
+      <c r="AK143" t="b">
+        <v>0</v>
+      </c>
       <c r="AL143" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>0</v>
+      </c>
       <c r="AN143" t="inlineStr"/>
       <c r="AO143" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AP143" t="b">
+        <v>1</v>
+      </c>
       <c r="AQ143" t="inlineStr"/>
       <c r="AR143" t="inlineStr"/>
-      <c r="AS143" t="inlineStr"/>
+      <c r="AS143" t="n">
+        <v>30</v>
+      </c>
       <c r="AT143" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU143" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AV143" t="inlineStr"/>
       <c r="AW143" t="inlineStr"/>
       <c r="AX143" t="inlineStr"/>
       <c r="AY143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ143" t="inlineStr"/>
       <c r="BA143" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB143" t="inlineStr">
-        <is>
-          <t>BIMERR</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BB143" t="inlineStr"/>
       <c r="BC143" t="inlineStr"/>
-      <c r="BD143" t="inlineStr">
-        <is>
-          <t>BIMERR</t>
-        </is>
-      </c>
+      <c r="BD143" t="inlineStr"/>
       <c r="BE143" t="inlineStr">
         <is>
-          <t>https://bimerr.iot.linkeddata.es/</t>
+          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
         </is>
       </c>
       <c r="BF143" t="inlineStr"/>
       <c r="BG143" t="inlineStr">
         <is>
-          <t>https://bimerr.iot.linkeddata.es/</t>
+          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
         </is>
       </c>
       <c r="BH143" t="inlineStr">
         <is>
-          <t>Weather/Climate</t>
+          <t>Geographic Information</t>
         </is>
       </c>
       <c r="BI143" t="inlineStr"/>
       <c r="BJ143" t="inlineStr">
         <is>
-          <t>Weather/Climate</t>
+          <t>Geographic Information</t>
         </is>
       </c>
       <c r="BK143" t="inlineStr"/>
       <c r="BL143" t="inlineStr"/>
       <c r="BM143" t="inlineStr"/>
       <c r="BN143" t="inlineStr"/>
-      <c r="BO143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="BO143" t="inlineStr"/>
       <c r="BP143" t="inlineStr"/>
       <c r="BQ143" t="inlineStr"/>
-      <c r="BR143" t="inlineStr"/>
-      <c r="BS143" t="inlineStr"/>
-      <c r="BT143" t="inlineStr"/>
-      <c r="BU143" t="inlineStr"/>
-      <c r="BV143" t="inlineStr"/>
-      <c r="BW143" t="inlineStr"/>
-      <c r="BX143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>{dc: http://purl.org/dc/elements/1.1/}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {wgs84_pos: http://www.w3.org/2003/01/geo/wgs84_pos#}, {foaf: http://xmlns.com/foaf/0.1/}</t>
+        </is>
+      </c>
+      <c r="BS143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX143" t="n">
+        <v>1</v>
+      </c>
       <c r="BY143" t="b">
         <v>1</v>
       </c>
       <c r="BZ143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA143" t="b">
         <v>0</v>
       </c>
       <c r="CB143" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC143" t="n">
         <v>2</v>
-      </c>
-      <c r="CC143" t="n">
-        <v>3</v>
       </c>
       <c r="CD143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>https://w3.org/2003/01/geo/wgs84_pos#</t>
-        </is>
-      </c>
+      <c r="A144" t="inlineStr"/>
       <c r="B144" t="b">
         <v>1</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>wgs84</t>
+          <t>gis4reno</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>wgs84</t>
+          <t>gis4reno</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
+          <t>GIS-based ontology for surrounding buildings to support building renovation</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr"/>
+          <t>GIS-based ontology for surrounding buildings to support building renovation</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>The ontology can be useful to create a knowledge management system for different experts involved in the process of the building renovation, to extend the in-formation and stretch the domain from the individual building to the environment. Knowledge about what entities and attributes to select is captured based on literature and investigating the pilot demonstration sites. An ontology can help to structure the surrounding data to support processes in different stages of the renovation. The final goal is to support planners in decision making process namely in site planning and pre-data collection phase, energy modelling, comfort analysis and so on to control cost and quality.</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>The ontology can be useful to create a knowledge management system for different experts involved in the process of the building renovation, to extend the in-formation and stretch the domain from the individual building to the environment. Knowledge about what entities and attributes to select is captured based on literature and investigating the pilot demonstration sites. An ontology can help to structure the surrounding data to support processes in different stages of the renovation. The final goal is to support planners in decision making process namely in site planning and pre-data collection phase, energy modelling, comfort analysis and so on to control cost and quality.</t>
+        </is>
+      </c>
       <c r="M144" t="n">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="n">
-        <v>2006</v>
-      </c>
-      <c r="R144" t="inlineStr"/>
+        <v>2020</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>GNU GPLv3</t>
+        </is>
+      </c>
       <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="n">
-        <v>1.21</v>
-      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>GNU GPLv3</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
-      <c r="W144" t="n">
-        <v>1.21</v>
-      </c>
+      <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>dc, foaf</t>
-        </is>
-      </c>
-      <c r="AC144" t="inlineStr">
-        <is>
-          <t>dc, foaf</t>
-        </is>
-      </c>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
       <c r="AD144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE144" t="b">
         <v>1</v>
@@ -35693,14 +36158,14 @@
         <v>1</v>
       </c>
       <c r="AG144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH144" t="inlineStr"/>
       <c r="AI144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK144" t="b">
         <v>0</v>
@@ -35720,9 +36185,7 @@
       </c>
       <c r="AQ144" t="inlineStr"/>
       <c r="AR144" t="inlineStr"/>
-      <c r="AS144" t="n">
-        <v>30</v>
-      </c>
+      <c r="AS144" t="inlineStr"/>
       <c r="AT144" t="n">
         <v>0</v>
       </c>
@@ -35733,35 +36196,35 @@
       <c r="AW144" t="inlineStr"/>
       <c r="AX144" t="inlineStr"/>
       <c r="AY144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ144" t="inlineStr"/>
       <c r="BA144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB144" t="inlineStr"/>
       <c r="BC144" t="inlineStr"/>
       <c r="BD144" t="inlineStr"/>
       <c r="BE144" t="inlineStr">
         <is>
-          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
+          <t>https://depositonce.tu-berlin.de/handle/11303/11235</t>
         </is>
       </c>
       <c r="BF144" t="inlineStr"/>
       <c r="BG144" t="inlineStr">
         <is>
-          <t>WGS84 Geo Positioning: an RDF vocabulary</t>
+          <t>https://depositonce.tu-berlin.de/handle/11303/11235</t>
         </is>
       </c>
       <c r="BH144" t="inlineStr">
         <is>
-          <t>Geographic Information</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BI144" t="inlineStr"/>
       <c r="BJ144" t="inlineStr">
         <is>
-          <t>Geographic Information</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="BK144" t="inlineStr"/>
@@ -35773,29 +36236,29 @@
       <c r="BQ144" t="inlineStr"/>
       <c r="BR144" t="inlineStr">
         <is>
-          <t>{dc: http://purl.org/dc/elements/1.1/}, {owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://www.w3.org/2003/01/geo/wgs84_pos#}, {foaf: http://xmlns.com/foaf/0.1/}</t>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://www.semanticweb.org/ecdf_md/ontologies/2020/4/untitled-ontology-46#}</t>
         </is>
       </c>
       <c r="BS144" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="BT144" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="BU144" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BV144" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BW144" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="BX144" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="BY144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ144" t="b">
         <v>0</v>
@@ -35804,194 +36267,12 @@
         <v>0</v>
       </c>
       <c r="CB144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC144" t="n">
         <v>2</v>
       </c>
       <c r="CD144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr"/>
-      <c r="B145" t="b">
-        <v>0</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>File not found</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>no_prefix</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>no_prefix</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>GIS-based ontology for surrounding buildings to support building renovation</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>GIS-based ontology for surrounding buildings to support building renovation</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>The ontology can be useful to create a knowledge management system for different experts involved in the process of the building renovation, to extend the in-formation and stretch the domain from the individual building to the environment. Knowledge about what entities and attributes to select is captured based on literature and investigating the pilot demonstration sites. An ontology can help to structure the surrounding data to support processes in different stages of the renovation. The final goal is to support planners in decision making process namely in site planning and pre-data collection phase, energy modelling, comfort analysis and so on to control cost and quality.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>The ontology can be useful to create a knowledge management system for different experts involved in the process of the building renovation, to extend the in-formation and stretch the domain from the individual building to the environment. Knowledge about what entities and attributes to select is captured based on literature and investigating the pilot demonstration sites. An ontology can help to structure the surrounding data to support processes in different stages of the renovation. The final goal is to support planners in decision making process namely in site planning and pre-data collection phase, energy modelling, comfort analysis and so on to control cost and quality.</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>2020</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="n">
-        <v>2020</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>GNU GPLv3</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>GNU GPLv3</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
-      <c r="AB145" t="inlineStr"/>
-      <c r="AC145" t="inlineStr"/>
-      <c r="AD145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH145" t="inlineStr"/>
-      <c r="AI145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK145" t="inlineStr"/>
-      <c r="AL145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM145" t="inlineStr"/>
-      <c r="AN145" t="inlineStr"/>
-      <c r="AO145" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP145" t="inlineStr"/>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
-      <c r="AS145" t="inlineStr"/>
-      <c r="AT145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV145" t="inlineStr"/>
-      <c r="AW145" t="inlineStr"/>
-      <c r="AX145" t="inlineStr"/>
-      <c r="AY145" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ145" t="inlineStr"/>
-      <c r="BA145" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB145" t="inlineStr"/>
-      <c r="BC145" t="inlineStr"/>
-      <c r="BD145" t="inlineStr"/>
-      <c r="BE145" t="inlineStr">
-        <is>
-          <t>https://depositonce.tu-berlin.de/handle/11303/11235</t>
-        </is>
-      </c>
-      <c r="BF145" t="inlineStr"/>
-      <c r="BG145" t="inlineStr">
-        <is>
-          <t>https://depositonce.tu-berlin.de/handle/11303/11235</t>
-        </is>
-      </c>
-      <c r="BH145" t="inlineStr">
-        <is>
-          <t>BE Product (Building)</t>
-        </is>
-      </c>
-      <c r="BI145" t="inlineStr"/>
-      <c r="BJ145" t="inlineStr">
-        <is>
-          <t>BE Product (Building)</t>
-        </is>
-      </c>
-      <c r="BK145" t="inlineStr"/>
-      <c r="BL145" t="inlineStr"/>
-      <c r="BM145" t="inlineStr"/>
-      <c r="BN145" t="inlineStr"/>
-      <c r="BO145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BP145" t="inlineStr"/>
-      <c r="BQ145" t="inlineStr"/>
-      <c r="BR145" t="inlineStr"/>
-      <c r="BS145" t="inlineStr"/>
-      <c r="BT145" t="inlineStr"/>
-      <c r="BU145" t="inlineStr"/>
-      <c r="BV145" t="inlineStr"/>
-      <c r="BW145" t="inlineStr"/>
-      <c r="BX145" t="inlineStr"/>
-      <c r="BY145" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ145" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA145" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB145" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC145" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36224,13 +36505,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0D7783-3091-4DD8-9EAA-97FE4E5E148A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D6D156-9A71-4D0D-8DA3-DC2EB8492A46}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FD687FE-FDC9-406F-90D2-C888CCCF4DDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D1B2F6-9009-4F71-A0D9-2DB6E1869A69}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30552C15-C933-4D4B-BBB0-77A2566C923E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3806F6-5A8F-4142-AC58-B0E4B4378BA9}"/>
 </file>
--- a/data/Ontologies_forRepo.xlsx
+++ b/data/Ontologies_forRepo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD144"/>
+  <dimension ref="A1:CD145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,10 +986,10 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
@@ -1228,10 +1228,10 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
@@ -1756,10 +1756,10 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
-        <v>0.04</v>
+        <v>0.7</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.04</v>
+        <v>0.7</v>
       </c>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
@@ -1801,12 +1801,12 @@
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>n81c1fb85bc794fb1a2bd2c0f0fd42b3ab1</t>
+          <t>naa3575725204497f99bf31ac508efb34b1</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>['n81c1fb85bc794fb1a2bd2c0f0fd42b3ab1']</t>
+          <t>['naa3575725204497f99bf31ac508efb34b1']</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr"/>
@@ -1997,10 +1997,10 @@
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
@@ -2050,12 +2050,12 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>n0d091193132244879d0a82a9e28ec796b1</t>
+          <t>nc75ef802e5dc4d48a7e3f58125b37752b1</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>['n0d091193132244879d0a82a9e28ec796b1']</t>
+          <t>['nc75ef802e5dc4d48a7e3f58125b37752b1']</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr"/>
@@ -3201,20 +3201,20 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>contax, dtc, facility, fmo, hbpo, hmo</t>
+          <t>contax, dtc, facility, fmo, hbpo, hmo, rdo</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>contax, dtc, facility, fmo, hbpo, hmo</t>
+          <t>contax, dtc, facility, fmo, hbpo, hmo, rdo</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
@@ -3256,12 +3256,12 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>nd0bd47af5e7c4466aacedcb3fb04f854b1</t>
+          <t>n72429165a43b4919a763188dc2ed3925b1</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>['nd0bd47af5e7c4466aacedcb3fb04f854b1']</t>
+          <t>['n72429165a43b4919a763188dc2ed3925b1']</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr"/>
@@ -4296,10 +4296,10 @@
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
       </c>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
@@ -4843,10 +4843,10 @@
       </c>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
@@ -4888,12 +4888,12 @@
       <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>n5a4e53b53f974c4bb4c0fbf11b251b96b8, n5a4e53b53f974c4bb4c0fbf11b251b96b9, n5a4e53b53f974c4bb4c0fbf11b251b96b10, n5a4e53b53f974c4bb4c0fbf11b251b96b11</t>
+          <t>n9a427eb68b884f0fb6ae2e96f19f4451b8, n9a427eb68b884f0fb6ae2e96f19f4451b9, n9a427eb68b884f0fb6ae2e96f19f4451b10, n9a427eb68b884f0fb6ae2e96f19f4451b11</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>['n5a4e53b53f974c4bb4c0fbf11b251b96b8', 'n5a4e53b53f974c4bb4c0fbf11b251b96b9', 'n5a4e53b53f974c4bb4c0fbf11b251b96b10', 'n5a4e53b53f974c4bb4c0fbf11b251b96b11']</t>
+          <t>['n9a427eb68b884f0fb6ae2e96f19f4451b8', 'n9a427eb68b884f0fb6ae2e96f19f4451b9', 'n9a427eb68b884f0fb6ae2e96f19f4451b10', 'n9a427eb68b884f0fb6ae2e96f19f4451b11']</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr"/>
@@ -5156,22 +5156,22 @@
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>n91951ac3f34d45c9b5eadd848ddacedbb7274</t>
+          <t>nc840e02d5877443989198ba7db658004b7274</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>['n91951ac3f34d45c9b5eadd848ddacedbb7274']</t>
+          <t>['nc840e02d5877443989198ba7db658004b7274']</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>n91951ac3f34d45c9b5eadd848ddacedbb7276</t>
+          <t>nc840e02d5877443989198ba7db658004b7276</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>n91951ac3f34d45c9b5eadd848ddacedbb7276</t>
+          <t>nc840e02d5877443989198ba7db658004b7276</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
@@ -5365,10 +5365,10 @@
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
-        <v>0.04</v>
+        <v>0.74</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.04</v>
+        <v>0.74</v>
       </c>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
@@ -5410,12 +5410,12 @@
       <c r="BM20" t="inlineStr"/>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>n00ff620de57b4c20a8658601fa3b9103b1, n00ff620de57b4c20a8658601fa3b9103b2</t>
+          <t>ncb6ecf054fee4fda92cd8730bc630390b1, ncb6ecf054fee4fda92cd8730bc630390b2</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>['n00ff620de57b4c20a8658601fa3b9103b1', 'n00ff620de57b4c20a8658601fa3b9103b2']</t>
+          <t>['ncb6ecf054fee4fda92cd8730bc630390b1', 'ncb6ecf054fee4fda92cd8730bc630390b2']</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr"/>
@@ -6087,10 +6087,10 @@
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
@@ -6124,12 +6124,12 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>n3876f6cd37854dba89851dcd5f6d2aacb1</t>
+          <t>nb1d5f29cffec4b75a6362a242835b597b1</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>['n3876f6cd37854dba89851dcd5f6d2aacb1']</t>
+          <t>['nb1d5f29cffec4b75a6362a242835b597b1']</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr"/>
@@ -6743,10 +6743,10 @@
       </c>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
@@ -6796,12 +6796,12 @@
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>nf19c1b72e8444096900979fbdafd1447b3, nf19c1b72e8444096900979fbdafd1447b4</t>
+          <t>nee403343d03e4a29bea709f4679251f1b3, nee403343d03e4a29bea709f4679251f1b4</t>
         </is>
       </c>
       <c r="BO26" t="inlineStr">
         <is>
-          <t>['nf19c1b72e8444096900979fbdafd1447b3', 'nf19c1b72e8444096900979fbdafd1447b4']</t>
+          <t>['nee403343d03e4a29bea709f4679251f1b3', 'nee403343d03e4a29bea709f4679251f1b4']</t>
         </is>
       </c>
       <c r="BP26" t="inlineStr"/>
@@ -7201,10 +7201,10 @@
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="n">
-        <v>0.04</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.04</v>
+        <v>0.8</v>
       </c>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
@@ -7254,12 +7254,12 @@
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>ne82515fa19334711a69efe259980677fb1</t>
+          <t>n40d87f2956d3464faca8e7210457fe85b1</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>['ne82515fa19334711a69efe259980677fb1']</t>
+          <t>['n40d87f2956d3464faca8e7210457fe85b1']</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr"/>
@@ -7485,10 +7485,10 @@
       </c>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
@@ -7538,12 +7538,12 @@
       <c r="BM29" t="inlineStr"/>
       <c r="BN29" t="inlineStr">
         <is>
-          <t>n946f289d9fa64409b6f907d0589c1b37b3, n946f289d9fa64409b6f907d0589c1b37b4</t>
+          <t>nee37fd230dc9476da5f27343bbb846ceb3, nee37fd230dc9476da5f27343bbb846ceb4</t>
         </is>
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t>['n946f289d9fa64409b6f907d0589c1b37b3', 'n946f289d9fa64409b6f907d0589c1b37b4']</t>
+          <t>['nee37fd230dc9476da5f27343bbb846ceb3', 'nee37fd230dc9476da5f27343bbb846ceb4']</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr"/>
@@ -7769,10 +7769,10 @@
       </c>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
@@ -7822,12 +7822,12 @@
       <c r="BM30" t="inlineStr"/>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>n0b978a5aaebe40c78eefc8ec2788558ab3, n0b978a5aaebe40c78eefc8ec2788558ab4</t>
+          <t>n528b0a2ec09f4001bf201ca376d90b6fb3, n528b0a2ec09f4001bf201ca376d90b6fb4</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>['n0b978a5aaebe40c78eefc8ec2788558ab3', 'n0b978a5aaebe40c78eefc8ec2788558ab4']</t>
+          <t>['n528b0a2ec09f4001bf201ca376d90b6fb3', 'n528b0a2ec09f4001bf201ca376d90b6fb4']</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr"/>
@@ -8046,10 +8046,10 @@
       </c>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
@@ -8099,12 +8099,12 @@
       <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr">
         <is>
-          <t>nc7f2d50f26b344c788295c2b2276737ab1</t>
+          <t>n75b77a0c456b4ce4a2b6d44c45bf6fc2b1</t>
         </is>
       </c>
       <c r="BO31" t="inlineStr">
         <is>
-          <t>['nc7f2d50f26b344c788295c2b2276737ab1']</t>
+          <t>['n75b77a0c456b4ce4a2b6d44c45bf6fc2b1']</t>
         </is>
       </c>
       <c r="BP31" t="inlineStr"/>
@@ -8323,10 +8323,10 @@
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="n">
-        <v>0.04</v>
+        <v>0.79</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.04</v>
+        <v>0.79</v>
       </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
@@ -8368,22 +8368,22 @@
       <c r="BM32" t="inlineStr"/>
       <c r="BN32" t="inlineStr">
         <is>
-          <t>n1796c93f31974dcd9cfc5638e185f8e7b1</t>
+          <t>naeb95d73e3484ab2bc430d97e4424b0eb1</t>
         </is>
       </c>
       <c r="BO32" t="inlineStr">
         <is>
-          <t>['n1796c93f31974dcd9cfc5638e185f8e7b1']</t>
+          <t>['naeb95d73e3484ab2bc430d97e4424b0eb1']</t>
         </is>
       </c>
       <c r="BP32" t="inlineStr">
         <is>
-          <t>n1796c93f31974dcd9cfc5638e185f8e7b3</t>
+          <t>naeb95d73e3484ab2bc430d97e4424b0eb3</t>
         </is>
       </c>
       <c r="BQ32" t="inlineStr">
         <is>
-          <t>n1796c93f31974dcd9cfc5638e185f8e7b3</t>
+          <t>naeb95d73e3484ab2bc430d97e4424b0eb3</t>
         </is>
       </c>
       <c r="BR32" t="inlineStr">
@@ -8825,10 +8825,10 @@
       </c>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
@@ -9087,10 +9087,10 @@
       </c>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
@@ -9361,10 +9361,10 @@
       </c>
       <c r="AS36" t="inlineStr"/>
       <c r="AT36" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
@@ -9629,10 +9629,10 @@
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
@@ -9911,10 +9911,10 @@
       </c>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
@@ -10185,10 +10185,10 @@
       </c>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
@@ -10437,10 +10437,10 @@
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
@@ -10713,10 +10713,10 @@
       </c>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
@@ -10979,10 +10979,10 @@
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
@@ -11261,10 +11261,10 @@
       </c>
       <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
@@ -11497,10 +11497,10 @@
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
@@ -11737,10 +11737,10 @@
       </c>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="inlineStr"/>
@@ -11991,10 +11991,10 @@
       </c>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AU46" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AV46" t="inlineStr"/>
       <c r="AW46" t="inlineStr"/>
@@ -13158,20 +13158,20 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>aoi, contax, cto, fmo, hmo</t>
+          <t>aoi, contax, cto, fmo, hmo, rdo</t>
         </is>
       </c>
       <c r="AR51" t="inlineStr">
         <is>
-          <t>aoi, contax, cto, fmo, hmo</t>
+          <t>aoi, contax, cto, fmo, hmo, rdo</t>
         </is>
       </c>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="AV51" t="inlineStr"/>
       <c r="AW51" t="inlineStr"/>
@@ -13221,12 +13221,12 @@
       </c>
       <c r="BN51" t="inlineStr">
         <is>
-          <t>n256aa1983fc74e34b54e0bca922c8324b1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
+          <t>n8988c478d0574088a599efd11381e1dbb1, https://www.researchgate.net/profile/Mathias_Bonduel</t>
         </is>
       </c>
       <c r="BO51" t="inlineStr">
         <is>
-          <t>['n256aa1983fc74e34b54e0bca922c8324b1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
+          <t>['n8988c478d0574088a599efd11381e1dbb1', 'https://www.researchgate.net/profile/Mathias_Bonduel']</t>
         </is>
       </c>
       <c r="BP51" t="inlineStr"/>
@@ -13430,10 +13430,10 @@
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="n">
-        <v>0.04</v>
+        <v>0.72</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.04</v>
+        <v>0.72</v>
       </c>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
@@ -13946,10 +13946,10 @@
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
@@ -14198,10 +14198,10 @@
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="n">
-        <v>0.04</v>
+        <v>0.68</v>
       </c>
       <c r="AU55" t="n">
-        <v>0.04</v>
+        <v>0.68</v>
       </c>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="inlineStr"/>
@@ -15458,10 +15458,10 @@
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
@@ -15898,10 +15898,10 @@
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
       <c r="AT62" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AU62" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
@@ -17605,12 +17605,12 @@
       </c>
       <c r="BP69" t="inlineStr">
         <is>
-          <t>n73008469406e431a8e9f1f427528e081b1</t>
+          <t>nb6c1030bc15140b7bd8315f7f6f94786b1</t>
         </is>
       </c>
       <c r="BQ69" t="inlineStr">
         <is>
-          <t>n73008469406e431a8e9f1f427528e081b1</t>
+          <t>nb6c1030bc15140b7bd8315f7f6f94786b1</t>
         </is>
       </c>
       <c r="BR69" t="inlineStr">
@@ -18635,22 +18635,22 @@
       <c r="BM73" t="inlineStr"/>
       <c r="BN73" t="inlineStr">
         <is>
-          <t>ne166b15af3114df2941d5735e52ac17cb1</t>
+          <t>n322a3f8a18eb426d92e8d3ef551d0041b1</t>
         </is>
       </c>
       <c r="BO73" t="inlineStr">
         <is>
-          <t>['ne166b15af3114df2941d5735e52ac17cb1']</t>
+          <t>['n322a3f8a18eb426d92e8d3ef551d0041b1']</t>
         </is>
       </c>
       <c r="BP73" t="inlineStr">
         <is>
-          <t>ne166b15af3114df2941d5735e52ac17cb3</t>
+          <t>n322a3f8a18eb426d92e8d3ef551d0041b3</t>
         </is>
       </c>
       <c r="BQ73" t="inlineStr">
         <is>
-          <t>ne166b15af3114df2941d5735e52ac17cb3</t>
+          <t>n322a3f8a18eb426d92e8d3ef551d0041b3</t>
         </is>
       </c>
       <c r="BR73" t="inlineStr">
@@ -19139,12 +19139,12 @@
       <c r="BM75" t="inlineStr"/>
       <c r="BN75" t="inlineStr">
         <is>
-          <t>n1fc0ae429aec4e4492fd225212dfaee9b1, n1fc0ae429aec4e4492fd225212dfaee9b2</t>
+          <t>n369e74fd059b47afb4c6368aef845a00b1, n369e74fd059b47afb4c6368aef845a00b2</t>
         </is>
       </c>
       <c r="BO75" t="inlineStr">
         <is>
-          <t>['n1fc0ae429aec4e4492fd225212dfaee9b1', 'n1fc0ae429aec4e4492fd225212dfaee9b2']</t>
+          <t>['n369e74fd059b47afb4c6368aef845a00b1', 'n369e74fd059b47afb4c6368aef845a00b2']</t>
         </is>
       </c>
       <c r="BP75" t="inlineStr"/>
@@ -20208,22 +20208,22 @@
       <c r="BM79" t="inlineStr"/>
       <c r="BN79" t="inlineStr">
         <is>
-          <t>nc847728842c3437796451e6cf952805ab3, nc847728842c3437796451e6cf952805ab5</t>
+          <t>ncaed24a5ea4d44998ff20c016f30195bb3, ncaed24a5ea4d44998ff20c016f30195bb5</t>
         </is>
       </c>
       <c r="BO79" t="inlineStr">
         <is>
-          <t>['nc847728842c3437796451e6cf952805ab3', 'nc847728842c3437796451e6cf952805ab5']</t>
+          <t>['ncaed24a5ea4d44998ff20c016f30195bb3', 'ncaed24a5ea4d44998ff20c016f30195bb5']</t>
         </is>
       </c>
       <c r="BP79" t="inlineStr">
         <is>
-          <t>nc847728842c3437796451e6cf952805ab7</t>
+          <t>ncaed24a5ea4d44998ff20c016f30195bb7</t>
         </is>
       </c>
       <c r="BQ79" t="inlineStr">
         <is>
-          <t>nc847728842c3437796451e6cf952805ab7</t>
+          <t>ncaed24a5ea4d44998ff20c016f30195bb7</t>
         </is>
       </c>
       <c r="BR79" t="inlineStr">
@@ -21149,22 +21149,22 @@
       <c r="BM83" t="inlineStr"/>
       <c r="BN83" t="inlineStr">
         <is>
-          <t>na308a401dd8246698d1dd76a69e08237b3, na308a401dd8246698d1dd76a69e08237b5</t>
+          <t>nbc624cf109b04f1da74ad7cf69c51c79b3, nbc624cf109b04f1da74ad7cf69c51c79b5</t>
         </is>
       </c>
       <c r="BO83" t="inlineStr">
         <is>
-          <t>['na308a401dd8246698d1dd76a69e08237b3', 'na308a401dd8246698d1dd76a69e08237b5']</t>
+          <t>['nbc624cf109b04f1da74ad7cf69c51c79b3', 'nbc624cf109b04f1da74ad7cf69c51c79b5']</t>
         </is>
       </c>
       <c r="BP83" t="inlineStr">
         <is>
-          <t>na308a401dd8246698d1dd76a69e08237b7</t>
+          <t>nbc624cf109b04f1da74ad7cf69c51c79b7</t>
         </is>
       </c>
       <c r="BQ83" t="inlineStr">
         <is>
-          <t>na308a401dd8246698d1dd76a69e08237b7</t>
+          <t>nbc624cf109b04f1da74ad7cf69c51c79b7</t>
         </is>
       </c>
       <c r="BR83" t="inlineStr">
@@ -21947,12 +21947,12 @@
       </c>
       <c r="BN86" t="inlineStr">
         <is>
-          <t>nd91e0dd233d748ff9d0e66f8f15c7d32b1</t>
+          <t>nc3430a98e20a4a29b29fc799547c2b0cb1</t>
         </is>
       </c>
       <c r="BO86" t="inlineStr">
         <is>
-          <t>['nd91e0dd233d748ff9d0e66f8f15c7d32b1']</t>
+          <t>['nc3430a98e20a4a29b29fc799547c2b0cb1']</t>
         </is>
       </c>
       <c r="BP86" t="inlineStr"/>
@@ -24478,12 +24478,12 @@
       <c r="BM97" t="inlineStr"/>
       <c r="BN97" t="inlineStr">
         <is>
-          <t>n9ba7776daae74af7a43db8f9490bac1ab1, n9ba7776daae74af7a43db8f9490bac1ab2</t>
+          <t>n87bac52c16bb47d08a97ec8b5a5f5bc8b1, n87bac52c16bb47d08a97ec8b5a5f5bc8b2</t>
         </is>
       </c>
       <c r="BO97" t="inlineStr">
         <is>
-          <t>['n9ba7776daae74af7a43db8f9490bac1ab1', 'n9ba7776daae74af7a43db8f9490bac1ab2']</t>
+          <t>['n87bac52c16bb47d08a97ec8b5a5f5bc8b1', 'n87bac52c16bb47d08a97ec8b5a5f5bc8b2']</t>
         </is>
       </c>
       <c r="BP97" t="inlineStr"/>
@@ -26644,10 +26644,10 @@
       <c r="AR106" t="inlineStr"/>
       <c r="AS106" t="inlineStr"/>
       <c r="AT106" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AV106" t="inlineStr"/>
       <c r="AW106" t="inlineStr"/>
@@ -29920,12 +29920,8 @@
       <c r="AQ117" t="inlineStr"/>
       <c r="AR117" t="inlineStr"/>
       <c r="AS117" t="inlineStr"/>
-      <c r="AT117" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AU117" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="AT117" t="inlineStr"/>
+      <c r="AU117" t="inlineStr"/>
       <c r="AV117" t="inlineStr"/>
       <c r="AW117" t="inlineStr"/>
       <c r="AX117" t="inlineStr"/>
@@ -30723,10 +30719,10 @@
       <c r="AR120" t="inlineStr"/>
       <c r="AS120" t="inlineStr"/>
       <c r="AT120" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU120" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AV120" t="inlineStr"/>
       <c r="AW120" t="inlineStr"/>
@@ -32858,12 +32854,12 @@
       <c r="BM129" t="inlineStr"/>
       <c r="BN129" t="inlineStr">
         <is>
-          <t>nc89c61f8f25f4907b5a7d0060c5a373eb1</t>
+          <t>n278c491c2734435291fb311446c9dd86b1</t>
         </is>
       </c>
       <c r="BO129" t="inlineStr">
         <is>
-          <t>['nc89c61f8f25f4907b5a7d0060c5a373eb1']</t>
+          <t>['n278c491c2734435291fb311446c9dd86b1']</t>
         </is>
       </c>
       <c r="BP129" t="inlineStr"/>
@@ -33128,12 +33124,12 @@
       <c r="BM130" t="inlineStr"/>
       <c r="BN130" t="inlineStr">
         <is>
-          <t>n8ab0ee428f9f4bb8a7d0506919637400b1</t>
+          <t>nb9de99644e1a4ab0a595df488e393c0bb1</t>
         </is>
       </c>
       <c r="BO130" t="inlineStr">
         <is>
-          <t>['n8ab0ee428f9f4bb8a7d0506919637400b1']</t>
+          <t>['nb9de99644e1a4ab0a595df488e393c0bb1']</t>
         </is>
       </c>
       <c r="BP130" t="inlineStr"/>
@@ -33649,22 +33645,22 @@
       </c>
       <c r="BN132" t="inlineStr">
         <is>
-          <t>n061ec797826f4bfdbc7ac7d7d80d8732b1, n061ec797826f4bfdbc7ac7d7d80d8732b3, n061ec797826f4bfdbc7ac7d7d80d8732b5, n061ec797826f4bfdbc7ac7d7d80d8732b7</t>
+          <t>n34dc5491c0c54188a2ce0a6a1f24326db1, n34dc5491c0c54188a2ce0a6a1f24326db3, n34dc5491c0c54188a2ce0a6a1f24326db5, n34dc5491c0c54188a2ce0a6a1f24326db7</t>
         </is>
       </c>
       <c r="BO132" t="inlineStr">
         <is>
-          <t>['n061ec797826f4bfdbc7ac7d7d80d8732b1', 'n061ec797826f4bfdbc7ac7d7d80d8732b3', 'n061ec797826f4bfdbc7ac7d7d80d8732b5', 'n061ec797826f4bfdbc7ac7d7d80d8732b7']</t>
+          <t>['n34dc5491c0c54188a2ce0a6a1f24326db1', 'n34dc5491c0c54188a2ce0a6a1f24326db3', 'n34dc5491c0c54188a2ce0a6a1f24326db5', 'n34dc5491c0c54188a2ce0a6a1f24326db7']</t>
         </is>
       </c>
       <c r="BP132" t="inlineStr">
         <is>
-          <t>n061ec797826f4bfdbc7ac7d7d80d8732b9</t>
+          <t>n34dc5491c0c54188a2ce0a6a1f24326db9</t>
         </is>
       </c>
       <c r="BQ132" t="inlineStr">
         <is>
-          <t>n061ec797826f4bfdbc7ac7d7d80d8732b9</t>
+          <t>n34dc5491c0c54188a2ce0a6a1f24326db9</t>
         </is>
       </c>
       <c r="BR132" t="inlineStr">
@@ -36274,6 +36270,278 @@
       </c>
       <c r="CD144" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://w3id.org/rdo#</t>
+        </is>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>rdo</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>rdo</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>rdo</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Roof Damage Ontology</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Roof Damage Ontology</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Roof Damage Ontology</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>This ontology provides a semantic framework for representing roof condition inspection information, including roofs and roof pitches, inspections, orthophotos, and image-derived defect observations. It is designed to support structured documentation, querying, and interoperability within digital twin–based workflows for roof condition monitoring and maintenance, particularly in the context of existing and heritage buildings.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>This ontology provides a semantic framework for representing roof condition inspection information, including roofs and roof pitches, inspections, orthophotos, and image-derived defect observations. It is designed to support structured documentation, querying, and interoperability within digital twin–based workflows for roof condition monitoring and maintenance, particularly in the context of existing and heritage buildings.</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>This ontology provides a semantic framework for representing roof condition inspection information, including roofs and roof pitches, inspections, orthophotos, and image-derived defect observations. It is designed to support structured documentation, querying, and interoperability within digital twin–based workflows for roof condition monitoring and maintenance, particularly in the context of existing and heritage buildings.</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>2026</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CC BY 4.0 </t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
+        </is>
+      </c>
+      <c r="U145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>dot, beo</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>beo, dot</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>beo, dot</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>foaf, dcterms</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, schema, foaf, pi</t>
+        </is>
+      </c>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>dc, dcterms, vann, schema, foaf, pi</t>
+        </is>
+      </c>
+      <c r="AD145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AN145" t="inlineStr"/>
+      <c r="AO145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ145" t="inlineStr"/>
+      <c r="AR145" t="inlineStr"/>
+      <c r="AS145" t="inlineStr"/>
+      <c r="AT145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AV145" t="inlineStr"/>
+      <c r="AW145" t="inlineStr"/>
+      <c r="AX145" t="inlineStr"/>
+      <c r="AY145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="inlineStr"/>
+      <c r="BA145" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="inlineStr"/>
+      <c r="BC145" t="inlineStr"/>
+      <c r="BD145" t="inlineStr"/>
+      <c r="BE145" t="inlineStr"/>
+      <c r="BF145" t="inlineStr"/>
+      <c r="BG145" t="inlineStr"/>
+      <c r="BH145" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="BI145" t="inlineStr"/>
+      <c r="BJ145" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="BK145" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="BL145" t="inlineStr"/>
+      <c r="BM145" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="BN145" t="inlineStr">
+        <is>
+          <t>Frederic Bosche, University of Edinburgh, Jiajun Li, University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="BO145" t="inlineStr">
+        <is>
+          <t>['Frederic Bosche, University of Edinburgh', 'Jiajun Li, University of Edinburgh']</t>
+        </is>
+      </c>
+      <c r="BP145" t="inlineStr">
+        <is>
+          <t>Cyberbuild, University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="BQ145" t="inlineStr">
+        <is>
+          <t>Cyberbuild, University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="BR145" t="inlineStr">
+        <is>
+          <t>{owl: http://www.w3.org/2002/07/owl#}, {rdf: http://www.w3.org/1999/02/22-rdf-syntax-ns#}, {xsd: http://www.w3.org/2001/XMLSchema#}, {rdfs: http://www.w3.org/2000/01/rdf-schema#}, {None: http://lcweb.loc.gov/catdir/cpso/lcco/}, {None: http://lcweb.loc.gov/standards/iso639-2/}, {None: http://purl.org/dc/aboutdcmi#}, {None: http://purl.org/dc/dcam/}, {None: http://purl.org/dc/dcmitype/}, {dc: http://purl.org/dc/elements/1.1/}, {dcterms: http://purl.org/dc/terms/}, {None: http://purl.org/spar/}, {vann: http://purl.org/vocab/vann/}, {schema: http://schema.org/#}, {None: http://webprotege.stanford.edu/}, {None: http://www.getty.edu/research/tools/vocabulary/tgn/}, {None: http://www.iana.org/assignments/media-types/}, {None: http://www.ietf.org/rfc/}, {None: http://www.nlm.nih.gov/mesh/}, {None: http://www.oclc.org/dewey/}, {None: http://www.sil.org/iso639-3/}, {None: http://www.udcc.org/}, {None: http://www.w3.org/TR/}, {None: http://wwwcf.nlm.nih.gov/class/}, {foaf: http://xmlns.com/foaf/0.1/}, {pi: https://pi.pauwel.be/voc/}, {beo: https://pi.pauwel.be/voc/buildingelement#}, {dot: https://w3id.org/dot#}, {None: https://www.dublincore.org/specifications/dublin-core/dcmi-box/}, {None: https://www.dublincore.org/specifications/dublin-core/dcmi-period/}, {None: https://www.dublincore.org/specifications/dublin-core/dcmi-point/}, {None: https://www.iso.org/obp/ui/#}</t>
+        </is>
+      </c>
+      <c r="BS145" t="n">
+        <v>38</v>
+      </c>
+      <c r="BT145" t="n">
+        <v>38</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV145" t="n">
+        <v>31</v>
+      </c>
+      <c r="BW145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BX145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BY145" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ145" t="b">
+        <v>1</v>
+      </c>
+      <c r="CA145" t="b">
+        <v>0</v>
+      </c>
+      <c r="CB145" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC145" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD145" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -36505,13 +36773,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D6D156-9A71-4D0D-8DA3-DC2EB8492A46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A1A2FC8-8B41-498F-B6B0-90893F088D3F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D1B2F6-9009-4F71-A0D9-2DB6E1869A69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3049ED-834F-48B6-BF51-A5106EC2732B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3806F6-5A8F-4142-AC58-B0E4B4378BA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575C3B20-B428-4B0C-9F1A-789C1C8844F0}"/>
 </file>